--- a/results/dwave_pegasus/spreadsheet50_annealing1.xlsx
+++ b/results/dwave_pegasus/spreadsheet50_annealing1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,31 +432,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{0: [3924, 1925, 3921, 3922, 3923], 2: [3682, 1731, 3683, 1729, 1624, 1730, 3758], 5: [1835, 4164, 1836, 4191, 4192, 4193, 4194, 4104, 1791], 8: [1312, 4176, 1413, 1414, 4177, 1416, 1415], 10: [3864, 3666, 3667, 3668, 3669, 1804, 1806, 1805], 13: [3985, 3981, 3984, 3982, 3983], 15: [3757, 1367, 3756, 1371, 1368, 1369, 4101, 1370], 16: [1263, 3909, 3908, 3606, 3607, 1699, 1698, 3608, 1623], 17: [1143, 3906, 3590, 3591, 1386, 1385, 1383, 1384], 18: [1444, 1445, 4162, 1446], 19: [1477, 3787, 1476, 1474, 1475], 23: [3969, 1776, 1745, 1746, 4072, 4073, 4074], 25: [1492, 1491, 4028, 4030, 1775, 4029], 26: [3789, 3788, 1310, 1309, 3790, 3651, 3652, 3653, 1639], 27: [3936, 3939, 3938, 3937], 28: [1820, 3850, 3846, 3847, 3849, 3848], 29: [4163, 1641, 1640, 3726, 3727, 1594, 1579, 3863], 30: [1611, 1610, 1608, 3712, 3713, 1609], 32: [1356, 1353, 1355, 1354], 33: [1447, 3576, 1338, 4207, 1339, 3575, 1340, 1341], 34: [1521, 1520, 3531, 1518, 3532, 1519, 1443, 3577], 35: [1566, 3621, 3622, 1565, 1564, 1563, 3623], 38: [4060, 1821, 4059, 1595, 4057, 4058, 1596], 39: [1267, 3953, 1266, 1264, 3952, 1265, 3951], 40: [1251, 3711, 3741, 1248, 1250, 1249], 43: [3801, 3802, 3803, 3804, 1865, 1864], 44: [4224, 4223, 4222, 1398, 1399, 1400, 1401], 45: [4071, 3516, 4041, 1233, 1235, 1236, 1234], 1: [1504, 1505, 4209, 4208, 1506], 3: [1759, 1760, 4116, 4117, 1761, 4118], 4: [1909, 1910, 4086, 4087, 4088, 4089], 12: [2001, 4150, 1716, 4149, 1295, 1296, 4148, 4147, 4000, 4146], 14: [3861, 4103, 4102, 1461, 3862, 1459, 1460], 21: [3681, 4012, 1173, 1311, 4011, 1174, 1175], 22: [3999, 3996, 3997, 1684, 1685, 3998], 24: [3743, 3636, 1671, 1670, 1669, 3637, 3638], 31: [1654, 3968, 1655, 1657, 1656], 36: [3770, 3771, 3772, 1715, 1714, 3773], 41: [4027, 3786, 1323, 1324, 1326, 1325], 42: [1626, 3819, 1625, 3816, 3817, 3818], 9: [3517, 1431, 1430, 3832, 1429, 1428], 11: [4085, 1188, 1191, 3920, 4026, 1190, 1189], 20: [1462, 3907, 4237, 4238, 1536, 1535, 1534, 3833], 6: [3696, 1551, 1550, 1549, 3697, 3698, 1548], 7: [1490, 3880, 3879, 3876, 3877, 3878], 46: [4056, 3967, 1203, 1204, 3966, 1206, 1205], 48: [3834, 1850, 1851, 4130, 4134, 4132, 4131, 4133], 37: [1294, 1293, 3471, 4236, 1282, 1281, 1280, 1279, 1278], 47: [3980, 1115, 3891, 3892, 3895, 3894, 3893], 49: [1879, 4042, 4043, 4044, 4014, 3954, 1880, 1790]}</t>
+          <t>{0: [3558], 1: [3543], 2: [4821]}</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1595071335927367</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02652881141277104</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.026</v>
+        <v>0.999</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{0: [3924, 1925, 3921, 3922, 3923], 2: [3682, 1731, 3683, 1729, 1624, 1730, 3758], 5: [1835, 4164, 1836, 4191, 4192, 4193, 4194, 4104, 1791], 8: [1312, 4176, 1413, 1414, 4177, 1416, 1415], 10: [3864, 3666, 3667, 3668, 3669, 1804, 1806, 1805], 13: [3985, 3981, 3984, 3982, 3983], 15: [3757, 1367, 3756, 1371, 1368, 1369, 4101, 1370], 16: [1263, 3909, 3908, 3606, 3607, 1699, 1698, 3608, 1623], 17: [1143, 3906, 3590, 3591, 1386, 1385, 1383, 1384], 18: [1444, 1445, 4162, 1446], 19: [1477, 3787, 1476, 1474, 1475], 23: [3969, 1776, 1745, 1746, 4072, 4073, 4074], 25: [1492, 1491, 4028, 4030, 1775, 4029], 26: [3789, 3788, 1310, 1309, 3790, 3651, 3652, 3653, 1639], 27: [3936, 3939, 3938, 3937], 28: [1820, 3850, 3846, 3847, 3849, 3848], 29: [4163, 1641, 1640, 3726, 3727, 1594, 1579, 3863], 30: [1611, 1610, 1608, 3712, 3713, 1609], 32: [1356, 1353, 1355, 1354], 33: [1447, 3576, 1338, 4207, 1339, 3575, 1340, 1341], 34: [1521, 1520, 3531, 1518, 3532, 1519, 1443, 3577], 35: [1566, 3621, 3622, 1565, 1564, 1563, 3623], 38: [4060, 1821, 4059, 1595, 4057, 4058, 1596], 39: [1267, 3953, 1266, 1264, 3952, 1265, 3951], 40: [1251, 3711, 3741, 1248, 1250, 1249], 43: [3801, 3802, 3803, 3804, 1865, 1864], 44: [4224, 4223, 4222, 1398, 1399, 1400, 1401], 45: [4071, 3516, 4041, 1233, 1235, 1236, 1234], 1: [1504, 1505, 4209, 4208, 1506], 3: [1759, 1760, 4116, 4117, 1761, 4118], 4: [1909, 1910, 4086, 4087, 4088, 4089], 12: [2001, 4150, 1716, 4149, 1295, 1296, 4148, 4147, 4000, 4146], 14: [3861, 4103, 4102, 1461, 3862, 1459, 1460], 21: [3681, 4012, 1173, 1311, 4011, 1174, 1175], 22: [3999, 3996, 3997, 1684, 1685, 3998], 24: [3743, 3636, 1671, 1670, 1669, 3637, 3638], 31: [1654, 3968, 1655, 1657, 1656], 36: [3770, 3771, 3772, 1715, 1714, 3773], 41: [4027, 3786, 1323, 1324, 1326, 1325], 42: [1626, 3819, 1625, 3816, 3817, 3818], 9: [3517, 1431, 1430, 3832, 1429, 1428], 11: [4085, 1188, 1191, 3920, 4026, 1190, 1189], 20: [1462, 3907, 4237, 4238, 1536, 1535, 1534, 3833], 6: [3696, 1551, 1550, 1549, 3697, 3698, 1548], 7: [1490, 3880, 3879, 3876, 3877, 3878], 46: [4056, 3967, 1203, 1204, 3966, 1206, 1205], 48: [3834, 1850, 1851, 4130, 4134, 4132, 4131, 4133], 37: [1294, 1293, 3471, 4236, 1282, 1281, 1280, 1279, 1278], 47: [3980, 1115, 3891, 3892, 3895, 3894, 3893], 49: [1879, 4042, 4043, 4044, 4014, 3954, 1880, 1790]}</t>
+          <t>{0: [3558], 1: [3543], 2: [4821]}</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1595071335927367</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02652881141277104</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.026</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -473,30 +473,3884 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>{0: [4588], 1: [4573], 's_0_1': [2544], 's_0_0': [2408], 's_1_1': [2394], 2: [5197], 's_2_2': [1572]}</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{0: [4588], 1: [4573], 's_0_1': [2544], 's_0_0': [2408], 's_1_1': [2394], 2: [5197], 's_2_2': [1572]}</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.983</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{0: [4469], 1: [2738], 2: [2723], 3: [4454]}</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{0: [4469], 1: [2738], 2: [2723], 3: [4454]}</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{0: [1818], 1: [3549], 's_0_1': [1803], 2: [3489], 's_0_2': [3504], 3: [3519], 's_0_3': [3534], 's_0_0': [3594], 's_1_1': [1907], 's_2_2': [1727], 's_3_3': [1682]}</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{0: [1818], 1: [3549], 's_0_1': [1803], 2: [3489], 's_0_2': [3504], 3: [3519], 's_0_3': [3534], 's_0_0': [3594], 's_1_1': [1907], 's_2_2': [1727], 's_3_3': [1682]}</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.739</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{0: [709], 1: [3783], 2: [694], 4: [3753], 3: [829]}</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{0: [709], 1: [3783], 2: [694], 4: [3753], 3: [829]}</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{0: [5490, 118], 1: [5460], 's_0_1': [194], 2: [5475], 's_0_2': [44], 4: [103], 's_0_4': [5505], 's_0_0': [88], 's_1_2': [209], 's_1_1': [163], 's_2_2': [148], 3: [5415], 's_4_3': [5400], 's_4_4': [5445], 's_3_3': [238]}</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{0: [5490, 118], 1: [5460], 's_0_1': [194], 2: [5475], 's_0_2': [44], 4: [103], 's_0_4': [5505], 's_0_0': [88], 's_1_2': [209], 's_1_1': [163], 's_2_2': [148], 3: [5415], 's_4_3': [5400], 's_4_4': [5445], 's_3_3': [238]}</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.481</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{0: [3998], 2: [1610], 4: [1595], 1: [1611], 5: [4193], 3: [1686]}</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{0: [3998], 2: [1610], 4: [1595], 1: [1611], 5: [4193], 3: [1686]}</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{0: [4634], 2: [4649], 's_0_2': [2783], 4: [2679, 4619], 's_0_4': [2724], 's_0_0': [4633], 1: [2797, 2798], 's_2_1': [2813], 's_2_4': [2709], 's_2_2': [2694], 's_4_4': [4694], 5: [4469], 's_1_5': [4454], 's_1_1': [4499], 3: [2723], 's_5_3': [2708], 's_5_5': [2753], 's_3_3': [4424]}</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{0: [4634], 2: [4649], 's_0_2': [2783], 4: [2679, 4619], 's_0_4': [2724], 's_0_0': [4633], 1: [2797, 2798], 's_2_1': [2813], 's_2_4': [2709], 's_2_2': [2694], 's_4_4': [4694], 5: [4469], 's_1_5': [4454], 's_1_1': [4499], 3: [2723], 's_5_3': [2708], 's_5_5': [2753], 's_3_3': [4424]}</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.382</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>{0: [4168], 1: [4153], 3: [2466, 4137], 5: [2451], 2: [2436], 4: [4122], 6: [2450]}</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{0: [4168], 1: [4153], 3: [2466, 4137], 5: [2451], 2: [2436], 4: [4122], 6: [2450]}</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.895</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{0: [3062], 1: [3137, 525], 's_0_1': [450], 3: [555, 3032], 's_0_3': [600], 5: [540, 541], 's_0_5': [3077], 's_0_0': [465], 2: [585, 3047], 's_1_2': [3017], 's_1_3': [2987], 's_1_5': [2972], 's_1_1': [391], 's_3_2': [675], 4: [570], 's_3_4': [2927], 's_3_5': [2942], 's_3_3': [3031], 's_5_2': [2912], 6: [3257], 's_5_6': [556], 's_5_5': [542], 's_2_4': [2988], 's_2_2': [3048], 's_4_4': [2973], 's_6_6': [496]}</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{0: [3062], 1: [3137, 525], 's_0_1': [450], 3: [555, 3032], 's_0_3': [600], 5: [540, 541], 's_0_5': [3077], 's_0_0': [465], 2: [585, 3047], 's_1_2': [3017], 's_1_3': [2987], 's_1_5': [2972], 's_1_1': [391], 's_3_2': [675], 4: [570], 's_3_4': [2927], 's_3_5': [2942], 's_3_3': [3031], 's_5_2': [2912], 6: [3257], 's_5_6': [556], 's_5_5': [542], 's_2_4': [2988], 's_2_2': [3048], 's_4_4': [2973], 's_6_6': [496]}</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{0: [1010], 1: [3934], 2: [4070], 6: [995], 4: [980], 5: [3949], 7: [4084, 965], 3: [3486]}</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01136363636363636</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.03593497341100431</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{0: [1010], 1: [3934], 2: [4070], 6: [995], 4: [980], 5: [3949], 7: [4084, 965], 3: [3486]}</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01136363636363636</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.03593497341100431</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.894</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{0: [535], 1: [4817, 550], 's_0_1': [4787], 2: [505, 4922], 's_0_2': [4892], 6: [4877, 625], 's_0_6': [4847], 's_0_0': [4832], 4: [415, 4772], 's_1_4': [4742], 5: [4802, 4801], 's_1_5': [609], 's_1_6': [624], 7: [490, 4862], 's_1_7': [520], 's_1_1': [549], 's_2_4': [4831], 's_2_6': [460], 's_2_7': [4846], 's_2_2': [416], 's_6_7': [580], 's_6_6': [4997], 's_4_7': [565], 's_4_4': [4773], 's_5_7': [4816], 's_5_5': [355], 's_7_7': [4863], 3: [448], 's_3_3': [449]}</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>8.171269815329302e-05</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.001676604390315672</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{0: [535], 1: [4817, 550], 's_0_1': [4787], 2: [505, 4922], 's_0_2': [4892], 6: [4877, 625], 's_0_6': [4847], 's_0_0': [4832], 4: [415, 4772], 's_1_4': [4742], 5: [4802, 4801], 's_1_5': [609], 's_1_6': [624], 7: [490, 4862], 's_1_7': [520], 's_1_1': [549], 's_2_4': [4831], 's_2_6': [460], 's_2_7': [4846], 's_2_2': [416], 's_6_7': [580], 's_6_6': [4997], 's_4_7': [565], 's_4_4': [4773], 's_5_7': [4816], 's_5_5': [355], 's_7_7': [4863], 3: [448], 's_3_3': [449]}</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>8.171269815329302e-05</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001676604390315672</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.179</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>{0: [557, 3347], 1: [512], 2: [3332], 4: [497], 5: [3422], 6: [482], 7: [3437], 3: [3452, 527], 8: [3377]}</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{0: [557, 3347], 1: [512], 2: [3332], 4: [497], 5: [3422], 6: [482], 7: [3437], 3: [3452, 527], 8: [3377]}</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>{0: [1814, 5484], 1: [5334, 1753], 's_0_1': [1813], 2: [1708, 5378], 's_0_2': [5499], 4: [1738, 5469], 's_0_4': [5454], 5: [1768], 's_0_5': [5439], 6: [1693], 's_0_6': [5514], 7: [1798], 's_0_7': [1783], 's_0_0': [5485], 's_1_2': [1707], 3: [1678, 5393], 's_1_3': [1663], 's_1_5': [5363], 8: [5348], 's_1_8': [1722], 's_1_1': [5319], 's_2_3': [1633], 's_2_4': [5528], 's_2_6': [5453], 's_2_2': [5377], 's_4_3': [1723], 's_4_5': [5409], 's_4_6': [5543], 's_4_7': [5424], 's_4_4': [5468], 's_5_5': [1767], 's_6_3': [5408], 's_6_6': [1694], 's_7_7': [5364], 's_3_8': [1603], 's_3_3': [5304], 's_8_8': [1737]}</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0001129262967703079</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.001743361616639224</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{0: [1814, 5484], 1: [5334, 1753], 's_0_1': [1813], 2: [1708, 5378], 's_0_2': [5499], 4: [1738, 5469], 's_0_4': [5454], 5: [1768], 's_0_5': [5439], 6: [1693], 's_0_6': [5514], 7: [1798], 's_0_7': [1783], 's_0_0': [5485], 's_1_2': [1707], 3: [1678, 5393], 's_1_3': [1663], 's_1_5': [5363], 8: [5348], 's_1_8': [1722], 's_1_1': [5319], 's_2_3': [1633], 's_2_4': [5528], 's_2_6': [5453], 's_2_2': [5377], 's_4_3': [1723], 's_4_5': [5409], 's_4_6': [5543], 's_4_7': [5424], 's_4_4': [5468], 's_5_5': [1767], 's_6_3': [5408], 's_6_6': [1694], 's_7_7': [5364], 's_3_8': [1603], 's_3_3': [5304], 's_8_8': [1737]}</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0001129262967703079</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001743361616639224</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>{0: [5042], 2: [491, 5087], 4: [566], 5: [5057], 9: [611], 1: [5027, 626], 3: [521], 6: [536], 8: [5072], 7: [5012]}</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02494438257849294</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{0: [5042], 2: [491, 5087], 4: [566], 5: [5057], 9: [611], 1: [5027, 626], 3: [521], 6: [536], 8: [5072], 7: [5012]}</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.02494438257849294</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{0: [4652, 519], 2: [4758, 415, 4757], 's_0_2': [684], 4: [4592], 's_0_4': [4607], 5: [4727, 4726], 's_0_5': [624], 9: [654, 4788], 's_0_9': [4667], 's_0_0': [594], 1: [4741, 4743, 4742], 's_2_1': [609], 3: [429, 4696], 's_2_3': [444], 's_2_5': [595], 6: [4666, 459], 's_2_6': [414], 's_2_9': [745], 's_2_2': [4861], 's_4_4': [458], 's_5_3': [4711], 's_5_6': [504], 's_5_5': [385], 's_9_1': [730], 8: [4787, 565], 's_9_8': [4802], 's_9_9': [700], 's_1_3': [324], 7: [339], 's_1_7': [4756], 's_1_8': [550], 's_1_1': [370], 's_3_6': [4697], 's_3_7': [4681], 's_3_3': [428], 's_6_7': [354], 's_6_8': [4712], 's_6_6': [4665], 's_8_8': [4832], 's_7_7': [4591]}</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{0: [4652, 519], 2: [4758, 415, 4757], 's_0_2': [684], 4: [4592], 's_0_4': [4607], 5: [4727, 4726], 's_0_5': [624], 9: [654, 4788], 's_0_9': [4667], 's_0_0': [594], 1: [4741, 4743, 4742], 's_2_1': [609], 3: [429, 4696], 's_2_3': [444], 's_2_5': [595], 6: [4666, 459], 's_2_6': [414], 's_2_9': [745], 's_2_2': [4861], 's_4_4': [458], 's_5_3': [4711], 's_5_6': [504], 's_5_5': [385], 's_9_1': [730], 8: [4787, 565], 's_9_8': [4802], 's_9_9': [700], 's_1_3': [324], 7: [339], 's_1_7': [4756], 's_1_8': [550], 's_1_1': [370], 's_3_6': [4697], 's_3_7': [4681], 's_3_3': [428], 's_6_7': [354], 's_6_8': [4712], 's_6_6': [4665], 's_8_8': [4832], 's_7_7': [4591]}</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>{0: [4664], 2: [2769], 3: [2754, 4694], 5: [2784], 9: [2679], 1: [2709, 4679], 8: [4709], 4: [2694], 7: [4634], 10: [4649], 6: [4619]}</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.004784688995215311</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.02029971620631237</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{0: [4664], 2: [2769], 3: [2754, 4694], 5: [2784], 9: [2679], 1: [2709, 4679], 8: [4709], 4: [2694], 7: [4634], 10: [4649], 6: [4619]}</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.004784688995215311</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.02029971620631237</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.859</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>{0: [1451], 2: [1421, 4957], 's_0_2': [5032], 3: [1360, 1510, 4897], 's_0_3': [4987], 5: [1466], 's_0_5': [5002], 9: [1345, 4943, 4942], 's_0_9': [1481, 5017], 's_0_0': [1452], 1: [1301, 5031], 's_2_1': [1406], 's_2_3': [4958], 's_2_5': [5047], 8: [1405, 1330, 4927], 's_2_8': [1436, 1435], 's_2_2': [5107], 4: [1375, 4986], 's_3_4': [4836], 7: [4972, 4973], 's_3_7': [1525], 's_3_8': [1420], 's_3_3': [1359], 's_5_8': [4912], 's_5_5': [1465], 's_9_1': [1346], 's_9_4': [5001], 's_9_7': [1646], 's_9_8': [4866], 10: [1316, 5061], 's_9_10': [4911], 's_9_9': [4896], 's_1_4': [1256], 6: [1286], 's_1_6': [5046], 's_1_7': [1391], 's_1_8': [1331], 's_1_1': [1300], 's_8_4': [4882], 's_8_8': [4928], 's_4_6': [1271], 's_4_10': [1241], 's_4_4': [4985], 's_7_10': [5062, 1496], 's_7_7': [4971], 's_10_10': [1317], 's_6_6': [4956]}</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0001645703538262607</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.001863977866972121</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{0: [1451], 2: [1421, 4957], 's_0_2': [5032], 3: [1360, 1510, 4897], 's_0_3': [4987], 5: [1466], 's_0_5': [5002], 9: [1345, 4943, 4942], 's_0_9': [1481, 5017], 's_0_0': [1452], 1: [1301, 5031], 's_2_1': [1406], 's_2_3': [4958], 's_2_5': [5047], 8: [1405, 1330, 4927], 's_2_8': [1436, 1435], 's_2_2': [5107], 4: [1375, 4986], 's_3_4': [4836], 7: [4972, 4973], 's_3_7': [1525], 's_3_8': [1420], 's_3_3': [1359], 's_5_8': [4912], 's_5_5': [1465], 's_9_1': [1346], 's_9_4': [5001], 's_9_7': [1646], 's_9_8': [4866], 10: [1316, 5061], 's_9_10': [4911], 's_9_9': [4896], 's_1_4': [1256], 6: [1286], 's_1_6': [5046], 's_1_7': [1391], 's_1_8': [1331], 's_1_1': [1300], 's_8_4': [4882], 's_8_8': [4928], 's_4_6': [1271], 's_4_10': [1241], 's_4_4': [4985], 's_7_10': [5062, 1496], 's_7_7': [4971], 's_10_10': [1317], 's_6_6': [4956]}</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0001645703538262607</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.001863977866972121</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>{0: [5139], 3: [5078, 1662], 5: [1721], 6: [1812, 5154], 8: [1767, 5183], 1: [5093, 5094], 2: [5109], 4: [1691], 7: [1706], 9: [1736], 10: [5079, 1827], 11: [5124]}</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{0: [5139], 3: [5078, 1662], 5: [1721], 6: [1812, 5154], 8: [1767, 5183], 1: [5093, 5094], 2: [5109], 4: [1691], 7: [1706], 9: [1736], 10: [5079, 1827], 11: [5124]}</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.654</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>{0: [617, 616], 3: [3348, 3468, 677], 's_0_3': [3467], 5: [3228, 511, 3227], 's_0_5': [3257], 6: [572, 3273, 3272], 's_0_6': [3287], 8: [3334, 3332, 3333], 's_0_8': [512, 3422], 's_0_0': [3557], 1: [736, 737], 's_3_1': [738], 2: [601], 's_3_2': [3362], 4: [3377, 631], 's_3_4': [632], 's_3_6': [587], 7: [3303, 722], 's_3_7': [723], 's_3_8': [3347], 's_3_3': [647], 's_5_1': [3213], 's_5_2': [3242], 9: [781, 3243], 's_5_9': [766], 10: [676, 3153], 's_5_10': [3152], 11: [3317, 661, 3318], 's_5_11': [3197], 's_5_5': [3229], 's_6_1': [3288], 's_6_4': [542], 's_6_8': [752], 's_6_9': [796], 's_6_10': [571], 's_6_11': [481], 's_6_6': [3274], 's_8_4': [527], 's_8_7': [646], 's_8_9': [3349], 's_8_8': [917], 's_1_7': [3408], 's_1_9': [3363], 's_1_10': [721], 's_1_1': [3123], 's_2_11': [3212], 's_2_2': [602], 's_4_7': [3378], 's_4_11': [662], 's_4_4': [3376], 's_7_11': [691], 's_7_7': [3438], 's_9_11': [3319], 's_9_9': [780], 's_10_11': [3182], 's_10_10': [3154], 's_11_11': [3316]}</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0001155468253509735</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.001419079355783353</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{0: [617, 616], 3: [3348, 3468, 677], 's_0_3': [3467], 5: [3228, 511, 3227], 's_0_5': [3257], 6: [572, 3273, 3272], 's_0_6': [3287], 8: [3334, 3332, 3333], 's_0_8': [512, 3422], 's_0_0': [3557], 1: [736, 737], 's_3_1': [738], 2: [601], 's_3_2': [3362], 4: [3377, 631], 's_3_4': [632], 's_3_6': [587], 7: [3303, 722], 's_3_7': [723], 's_3_8': [3347], 's_3_3': [647], 's_5_1': [3213], 's_5_2': [3242], 9: [781, 3243], 's_5_9': [766], 10: [676, 3153], 's_5_10': [3152], 11: [3317, 661, 3318], 's_5_11': [3197], 's_5_5': [3229], 's_6_1': [3288], 's_6_4': [542], 's_6_8': [752], 's_6_9': [796], 's_6_10': [571], 's_6_11': [481], 's_6_6': [3274], 's_8_4': [527], 's_8_7': [646], 's_8_9': [3349], 's_8_8': [917], 's_1_7': [3408], 's_1_9': [3363], 's_1_10': [721], 's_1_1': [3123], 's_2_11': [3212], 's_2_2': [602], 's_4_7': [3378], 's_4_11': [662], 's_4_4': [3376], 's_7_11': [691], 's_7_7': [3438], 's_9_11': [3319], 's_9_9': [780], 's_10_11': [3182], 's_10_10': [3154], 's_11_11': [3316]}</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0001155468253509735</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001419079355783353</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>{0: [3278, 1576], 1: [3309, 3308], 3: [3413, 1667], 4: [3382, 1681, 3383], 5: [3324, 3323], 6: [1637], 7: [1531], 8: [3428, 1577], 12: [1622], 9: [3293, 1546], 2: [3338, 1607], 11: [3443], 10: [1592, 3353]}</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.01969981238273921</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.03357510350501553</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>{0: [3278, 1576], 1: [3309, 3308], 3: [3413, 1667], 4: [3382, 1681, 3383], 5: [3324, 3323], 6: [1637], 7: [1531], 8: [3428, 1577], 12: [1622], 9: [3293, 1546], 2: [3338, 1607], 11: [3443], 10: [1592, 3353]}</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.01969981238273921</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.03357510350501553</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.366</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{0: [3492, 2477, 2373, 3493], 1: [2192, 2222, 3431], 's_0_1': [2193], 3: [3506, 2208, 3508, 3507], 's_0_3': [2538], 4: [2342, 3521, 3522, 2343], 's_0_4': [3627], 5: [2237, 2238, 2133, 3596], 's_0_5': [3597], 6: [2147, 2327, 3371, 3372], 's_0_6': [2432, 2431], 7: [3415, 3417, 3416], 's_0_7': [2447], 8: [2372, 2282, 3447], 's_0_8': [3387], 12: [3478, 2358, 3477], 's_0_12': [2507], 's_0_0': [2476], 's_1_3': [2102], 's_1_6': [2177], 's_1_7': [2117], 9: [3565, 3462, 3566, 2267], 's_1_9': [3461], 's_1_1': [3296], 2: [2297, 3252, 3327, 2296], 's_3_2': [2298, 3537], 's_3_4': [2072], 's_3_5': [3581], 's_3_6': [3491], 's_3_9': [2028], 11: [2417, 2416], 's_3_11': [2492, 3343], 's_3_12': [3476], 's_3_3': [3509], 's_4_2': [3312], 's_4_5': [3536], 's_4_6': [2328], 's_4_7': [2087], 's_4_8': [3342], 's_4_9': [2118], 10: [3402, 2401, 2402], 's_4_10': [3523], 's_4_12': [3582], 's_4_4': [2344], 's_5_7': [3401], 's_5_9': [2178], 's_5_5': [3641], 's_6_2': [2236], 's_6_8': [2387], 's_6_9': [2148], 's_6_10': [3432], 's_6_12': [2357], 's_6_6': [2251], 's_7_2': [2207], 's_7_9': [2042], 's_7_10': [2462], 's_7_7': [1967], 's_8_2': [3282], 's_8_10': [3313], 's_8_11': [3358], 's_8_8': [2281], 's_12_9': [3463], 's_12_10': [3567], 's_12_11': [3552], 's_12_12': [2359], 's_9_2': [2266], 's_9_10': [2312], 's_9_9': [2268], 's_2_10': [3297], 's_2_11': [3267], 's_2_2': [2386], 's_11_10': [3237], 's_11_11': [2418], 's_10_10': [3538]}</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0001105399878406013</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.001217195354310797</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{0: [3492, 2477, 2373, 3493], 1: [2192, 2222, 3431], 's_0_1': [2193], 3: [3506, 2208, 3508, 3507], 's_0_3': [2538], 4: [2342, 3521, 3522, 2343], 's_0_4': [3627], 5: [2237, 2238, 2133, 3596], 's_0_5': [3597], 6: [2147, 2327, 3371, 3372], 's_0_6': [2432, 2431], 7: [3415, 3417, 3416], 's_0_7': [2447], 8: [2372, 2282, 3447], 's_0_8': [3387], 12: [3478, 2358, 3477], 's_0_12': [2507], 's_0_0': [2476], 's_1_3': [2102], 's_1_6': [2177], 's_1_7': [2117], 9: [3565, 3462, 3566, 2267], 's_1_9': [3461], 's_1_1': [3296], 2: [2297, 3252, 3327, 2296], 's_3_2': [2298, 3537], 's_3_4': [2072], 's_3_5': [3581], 's_3_6': [3491], 's_3_9': [2028], 11: [2417, 2416], 's_3_11': [2492, 3343], 's_3_12': [3476], 's_3_3': [3509], 's_4_2': [3312], 's_4_5': [3536], 's_4_6': [2328], 's_4_7': [2087], 's_4_8': [3342], 's_4_9': [2118], 10: [3402, 2401, 2402], 's_4_10': [3523], 's_4_12': [3582], 's_4_4': [2344], 's_5_7': [3401], 's_5_9': [2178], 's_5_5': [3641], 's_6_2': [2236], 's_6_8': [2387], 's_6_9': [2148], 's_6_10': [3432], 's_6_12': [2357], 's_6_6': [2251], 's_7_2': [2207], 's_7_9': [2042], 's_7_10': [2462], 's_7_7': [1967], 's_8_2': [3282], 's_8_10': [3313], 's_8_11': [3358], 's_8_8': [2281], 's_12_9': [3463], 's_12_10': [3567], 's_12_11': [3552], 's_12_12': [2359], 's_9_2': [2266], 's_9_10': [2312], 's_9_9': [2268], 's_2_10': [3297], 's_2_11': [3267], 's_2_2': [2386], 's_11_10': [3237], 's_11_11': [2418], 's_10_10': [3538]}</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0001105399878406013</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.001217195354310797</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>{0: [193, 252, 5340], 1: [5265, 117], 2: [5220, 102], 5: [5190, 267], 6: [192], 9: [5235], 11: [5250], 12: [5295], 3: [5281, 5280], 4: [162], 7: [147], 8: [208, 207], 10: [5145, 132], 13: [177]}</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01136363636363636</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.02612577425232318</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{0: [193, 252, 5340], 1: [5265, 117], 2: [5220, 102], 5: [5190, 267], 6: [192], 9: [5235], 11: [5250], 12: [5295], 3: [5281, 5280], 4: [162], 7: [147], 8: [208, 207], 10: [5145, 132], 13: [177]}</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0.01136363636363636</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.02612577425232318</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.639</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>{0: [3297, 2358, 2357], 1: [2400, 3222, 2401], 's_0_1': [2356], 2: [2387, 3372, 3373, 2581], 's_0_2': [3298], 5: [2372, 2266, 3282], 's_0_5': [3447], 6: [3402], 's_0_6': [2342], 9: [3523, 2416, 2417], 's_0_9': [3477], 11: [3387, 3508, 2462], 's_0_11': [3507], 12: [3177, 3237, 2326], 's_0_12': [2281], 's_0_0': [3582], 's_1_2': [3223], 3: [3313, 3178, 2506], 's_1_3': [3163], 4: [3328, 2537], 's_1_4': [2476], 's_1_5': [3221], 7: [2507, 3343], 's_1_7': [2446], 8: [3268, 3267], 's_1_8': [2386], 's_1_9': [2415], 's_1_11': [2402], 's_1_12': [2341], 's_1_1': [3148], 's_2_3': [3314], 's_2_4': [3329], 's_2_6': [2312], 's_2_7': [2582, 3403], 's_2_9': [3417], 10: [3253, 2432, 2431], 's_2_10': [2596], 's_2_11': [2388], 13: [3358, 2492], 's_2_13': [3388], 's_2_2': [3359], 's_5_3': [3312], 's_5_4': [3327], 's_5_8': [2296], 's_5_9': [3432], 's_5_13': [3357], 's_5_5': [3342], 's_6_10': [2447], 's_6_6': [3401], 's_9_4': [2538], 's_9_7': [2508], 's_9_8': [3252], 's_9_9': [2493], 's_11_7': [2477], 's_11_10': [3493], 's_11_13': [3478], 's_11_11': [3509], 's_12_3': [3238], 's_12_8': [2461], 's_12_10': [2430, 3207], 's_12_12': [2191], 's_3_7': [2522], 's_3_10': [2521], 's_3_3': [3208], 's_4_13': [2491], 's_4_4': [3433, 2597], 's_7_7': [3344], 's_8_10': [2566], 's_8_8': [3269], 's_10_10': [3254], 's_13_13': [3418]}</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0003184575076357425</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.002093776928133595</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>{0: [3297, 2358, 2357], 1: [2400, 3222, 2401], 's_0_1': [2356], 2: [2387, 3372, 3373, 2581], 's_0_2': [3298], 5: [2372, 2266, 3282], 's_0_5': [3447], 6: [3402], 's_0_6': [2342], 9: [3523, 2416, 2417], 's_0_9': [3477], 11: [3387, 3508, 2462], 's_0_11': [3507], 12: [3177, 3237, 2326], 's_0_12': [2281], 's_0_0': [3582], 's_1_2': [3223], 3: [3313, 3178, 2506], 's_1_3': [3163], 4: [3328, 2537], 's_1_4': [2476], 's_1_5': [3221], 7: [2507, 3343], 's_1_7': [2446], 8: [3268, 3267], 's_1_8': [2386], 's_1_9': [2415], 's_1_11': [2402], 's_1_12': [2341], 's_1_1': [3148], 's_2_3': [3314], 's_2_4': [3329], 's_2_6': [2312], 's_2_7': [2582, 3403], 's_2_9': [3417], 10: [3253, 2432, 2431], 's_2_10': [2596], 's_2_11': [2388], 13: [3358, 2492], 's_2_13': [3388], 's_2_2': [3359], 's_5_3': [3312], 's_5_4': [3327], 's_5_8': [2296], 's_5_9': [3432], 's_5_13': [3357], 's_5_5': [3342], 's_6_10': [2447], 's_6_6': [3401], 's_9_4': [2538], 's_9_7': [2508], 's_9_8': [3252], 's_9_9': [2493], 's_11_7': [2477], 's_11_10': [3493], 's_11_13': [3478], 's_11_11': [3509], 's_12_3': [3238], 's_12_8': [2461], 's_12_10': [2430, 3207], 's_12_12': [2191], 's_3_7': [2522], 's_3_10': [2521], 's_3_3': [3208], 's_4_13': [2491], 's_4_4': [3433, 2597], 's_7_7': [3344], 's_8_10': [2566], 's_8_8': [3269], 's_10_10': [3254], 's_13_13': [3418]}</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0003184575076357425</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.002093776928133595</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>{0: [2579, 5608], 2: [5609, 2639], 4: [2519], 6: [5594, 5593], 8: [2609], 10: [5504, 2684], 12: [5548], 1: [5669], 5: [2504, 5653, 5654], 9: [5519, 2699], 11: [2594, 5639, 5638], 13: [2564, 5578], 3: [5563, 2624], 7: [2654], 14: [2669]}</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.01531531531531532</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0301095044451683</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>{0: [2579, 5608], 2: [5609, 2639], 4: [2519], 6: [5594, 5593], 8: [2609], 10: [5504, 2684], 12: [5548], 1: [5669], 5: [2504, 5653, 5654], 9: [5519, 2699], 11: [2594, 5639, 5638], 13: [2564, 5578], 3: [5563, 2624], 7: [2654], 14: [2669]}</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0.01531531531531532</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0301095044451683</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.506</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>{0: [140, 3991, 3990], 2: [4006, 186, 4005], 's_0_2': [335], 4: [138, 3855, 139], 's_0_4': [110, 4020, 109], 6: [423, 200, 3915, 3916, 425, 424], 's_0_6': [440], 8: [411, 4051, 4052], 's_0_8': [396], 10: [171, 168, 169, 170], 's_0_10': [3960], 12: [260, 259], 's_0_12': [245], 's_0_0': [3992], 1: [95, 93, 94, 3826, 3825], 's_2_1': [4065], 5: [3945, 185, 3750, 184], 's_2_5': [290], 's_2_6': [201], 9: [4095, 321, 320, 319], 's_2_9': [4110], 's_2_10': [4125], 11: [4141, 4140, 123, 124, 125, 126], 's_2_11': [231], 13: [4156, 4155, 154, 155, 156], 's_2_13': [4050], 's_2_2': [187], 3: [3885, 3886, 3856, 380], 's_4_3': [79], 's_4_5': [3630], 's_4_6': [3646, 3645], 's_4_13': [3840], 's_4_4': [3615], 's_6_3': [3976], 's_6_5': [199], 7: [3780, 3781, 364, 365], 's_6_7': [3631, 438], 's_6_8': [4067], 's_6_9': [3766, 3765, 214], 's_6_10': [3585, 3586], 's_6_13': [426], 's_6_6': [3721], 's_8_11': [306], 's_8_13': [336], 's_8_8': [486], 's_10_7': [3795], 's_10_9': [3735], 's_10_11': [3510], 's_10_13': [153], 14: [3810, 3811, 273, 274], 's_10_14': [3570], 's_10_10': [4035, 51], 's_12_7': [244], 's_12_14': [3871], 's_12_12': [261], 's_1_3': [349], 's_1_5': [3660], 's_1_9': [3961, 410], 's_1_11': [96], 's_1_14': [439], 's_1_1': [108], 's_5_3': [3901, 3900], 's_5_9': [305], 's_5_13': [3930], 's_5_14': [304], 's_5_5': [229], 's_9_7': [3691, 3692], 's_9_11': [4185, 4186], 's_9_13': [4080], 's_9_9': [4066], 's_11_3': [216, 215], 's_11_13': [276], 's_11_14': [3676, 3675], 's_11_11': [122], 's_13_3': [3870], 's_13_14': [3720], 's_13_7': [366], 's_13_13': [291], 's_3_7': [3931], 's_3_14': [289], 's_3_3': [334], 's_7_14': [3796], 's_7_7': [3782, 3797], 's_14_14': [3661, 303]}</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0002023809523809524</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.001538940870296053</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>{0: [140, 3991, 3990], 2: [4006, 186, 4005], 's_0_2': [335], 4: [138, 3855, 139], 's_0_4': [110, 4020, 109], 6: [423, 200, 3915, 3916, 425, 424], 's_0_6': [440], 8: [411, 4051, 4052], 's_0_8': [396], 10: [171, 168, 169, 170], 's_0_10': [3960], 12: [260, 259], 's_0_12': [245], 's_0_0': [3992], 1: [95, 93, 94, 3826, 3825], 's_2_1': [4065], 5: [3945, 185, 3750, 184], 's_2_5': [290], 's_2_6': [201], 9: [4095, 321, 320, 319], 's_2_9': [4110], 's_2_10': [4125], 11: [4141, 4140, 123, 124, 125, 126], 's_2_11': [231], 13: [4156, 4155, 154, 155, 156], 's_2_13': [4050], 's_2_2': [187], 3: [3885, 3886, 3856, 380], 's_4_3': [79], 's_4_5': [3630], 's_4_6': [3646, 3645], 's_4_13': [3840], 's_4_4': [3615], 's_6_3': [3976], 's_6_5': [199], 7: [3780, 3781, 364, 365], 's_6_7': [3631, 438], 's_6_8': [4067], 's_6_9': [3766, 3765, 214], 's_6_10': [3585, 3586], 's_6_13': [426], 's_6_6': [3721], 's_8_11': [306], 's_8_13': [336], 's_8_8': [486], 's_10_7': [3795], 's_10_9': [3735], 's_10_11': [3510], 's_10_13': [153], 14: [3810, 3811, 273, 274], 's_10_14': [3570], 's_10_10': [4035, 51], 's_12_7': [244], 's_12_14': [3871], 's_12_12': [261], 's_1_3': [349], 's_1_5': [3660], 's_1_9': [3961, 410], 's_1_11': [96], 's_1_14': [439], 's_1_1': [108], 's_5_3': [3901, 3900], 's_5_9': [305], 's_5_13': [3930], 's_5_14': [304], 's_5_5': [229], 's_9_7': [3691, 3692], 's_9_11': [4185, 4186], 's_9_13': [4080], 's_9_9': [4066], 's_11_3': [216, 215], 's_11_13': [276], 's_11_14': [3676, 3675], 's_11_11': [122], 's_13_3': [3870], 's_13_14': [3720], 's_13_7': [366], 's_13_13': [291], 's_3_7': [3931], 's_3_14': [289], 's_3_3': [334], 's_7_14': [3796], 's_7_7': [3782, 3797], 's_14_14': [3661, 303]}</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0002023809523809524</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.001538940870296053</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>{0: [5521], 1: [5520, 329], 2: [268, 5536, 5535], 3: [5551, 509], 5: [5641, 344], 6: [404, 5596], 8: [494, 5566], 9: [5506, 374], 10: [448, 449], 12: [463, 5507], 13: [5581, 419], 15: [5656, 359], 4: [5491, 5492], 7: [5550, 269], 11: [5626, 314], 14: [539, 434, 5642]}</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.02541666666666667</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.03756706965178708</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>{0: [5521], 1: [5520, 329], 2: [268, 5536, 5535], 3: [5551, 509], 5: [5641, 344], 6: [404, 5596], 8: [494, 5566], 9: [5506, 374], 10: [448, 449], 12: [463, 5507], 13: [5581, 419], 15: [5656, 359], 4: [5491, 5492], 7: [5550, 269], 11: [5626, 314], 14: [539, 434, 5642]}</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0.02541666666666667</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.03756706965178708</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>{0: [2532, 5128, 5127, 5126, 2187], 1: [2216, 2218, 5186, 2217], 's_0_1': [5171], 2: [2097, 5246, 2396, 2397, 5247], 's_0_2': [2382], 3: [5082, 2368, 5142, 2367], 's_0_3': [5141], 5: [2410, 5022, 2411], 's_0_5': [2486], 6: [2320, 2516, 4978, 2321, 4977], 's_0_6': [5083], 8: [2322, 5156, 5157], 's_0_8': [2051], 9: [4887, 4902, 2306, 2305], 's_0_9': [2336, 2335], 10: [2232, 2230, 2231], 's_0_10': [5216], 12: [5231, 2201, 5201, 2202], 's_0_12': [2172], 13: [2081, 2126, 5067, 5066], 's_0_13': [2426], 15: [2546, 4948, 2352, 2351, 4947], 's_0_15': [2531], 's_0_0': [2533], 's_1_2': [5276], 4: [2171, 2246, 5006, 5052, 5051], 's_1_4': [4916], 's_1_6': [4962], 7: [2337, 5187], 's_1_7': [5292], 's_1_13': [5185], 's_1_1': [5381], 's_2_3': [5202], 's_2_5': [5113], 's_2_6': [4917], 's_2_7': [5172], 's_2_8': [2112], 's_2_9': [2395], 's_2_10': [5261], 's_2_12': [2142], 's_2_2': [2098], 's_3_4': [2261], 's_3_5': [5097], 's_3_7': [5277], 's_3_8': [2292], 's_3_9': [2366], 's_3_10': [5337], 's_3_12': [5232], 's_3_15': [2353], 's_3_3': [5397], 's_5_6': [5023], 's_5_7': [2456], 's_5_9': [2425], 11: [5037, 2186, 5036], 's_5_11': [2441], 's_5_13': [2381], 14: [2155, 5021, 2156], 's_5_14': [4856, 4857], 's_5_5': [2409], 's_6_4': [4976], 's_6_9': [4797], 's_6_10': [2245], 's_6_11': [2471], 's_6_12': [4932], 's_6_13': [5068], 's_6_15': [5053], 's_6_6': [2319], 's_8_4': [2096], 's_8_10': [5307], 's_8_13': [2127], 's_8_15': [5217], 's_8_8': [5155], 's_9_4': [4991], 's_9_11': [2291], 's_9_15': [2290], 's_9_9': [2304], 's_10_4': [5112], 's_10_11': [4901], 's_10_13': [5096], 's_10_14': [4886], 's_10_10': [2233], 's_12_4': [2247], 's_12_13': [5081], 's_12_14': [2157], 's_12_12': [5200], 's_13_4': [2111], 's_13_14': [4961], 's_13_13': [2125], 's_15_4': [4946], 's_15_7': [2547, 5188], 's_15_11': [5038], 's_15_15': [2545], 's_4_4': [5050], 's_7_7': [2338], 's_11_14': [2141], 's_11_11': [2185], 's_14_14': [2154]}</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0001134020618556701</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.001075282936514552</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>{0: [2532, 5128, 5127, 5126, 2187], 1: [2216, 2218, 5186, 2217], 's_0_1': [5171], 2: [2097, 5246, 2396, 2397, 5247], 's_0_2': [2382], 3: [5082, 2368, 5142, 2367], 's_0_3': [5141], 5: [2410, 5022, 2411], 's_0_5': [2486], 6: [2320, 2516, 4978, 2321, 4977], 's_0_6': [5083], 8: [2322, 5156, 5157], 's_0_8': [2051], 9: [4887, 4902, 2306, 2305], 's_0_9': [2336, 2335], 10: [2232, 2230, 2231], 's_0_10': [5216], 12: [5231, 2201, 5201, 2202], 's_0_12': [2172], 13: [2081, 2126, 5067, 5066], 's_0_13': [2426], 15: [2546, 4948, 2352, 2351, 4947], 's_0_15': [2531], 's_0_0': [2533], 's_1_2': [5276], 4: [2171, 2246, 5006, 5052, 5051], 's_1_4': [4916], 's_1_6': [4962], 7: [2337, 5187], 's_1_7': [5292], 's_1_13': [5185], 's_1_1': [5381], 's_2_3': [5202], 's_2_5': [5113], 's_2_6': [4917], 's_2_7': [5172], 's_2_8': [2112], 's_2_9': [2395], 's_2_10': [5261], 's_2_12': [2142], 's_2_2': [2098], 's_3_4': [2261], 's_3_5': [5097], 's_3_7': [5277], 's_3_8': [2292], 's_3_9': [2366], 's_3_10': [5337], 's_3_12': [5232], 's_3_15': [2353], 's_3_3': [5397], 's_5_6': [5023], 's_5_7': [2456], 's_5_9': [2425], 11: [5037, 2186, 5036], 's_5_11': [2441], 's_5_13': [2381], 14: [2155, 5021, 2156], 's_5_14': [4856, 4857], 's_5_5': [2409], 's_6_4': [4976], 's_6_9': [4797], 's_6_10': [2245], 's_6_11': [2471], 's_6_12': [4932], 's_6_13': [5068], 's_6_15': [5053], 's_6_6': [2319], 's_8_4': [2096], 's_8_10': [5307], 's_8_13': [2127], 's_8_15': [5217], 's_8_8': [5155], 's_9_4': [4991], 's_9_11': [2291], 's_9_15': [2290], 's_9_9': [2304], 's_10_4': [5112], 's_10_11': [4901], 's_10_13': [5096], 's_10_14': [4886], 's_10_10': [2233], 's_12_4': [2247], 's_12_13': [5081], 's_12_14': [2157], 's_12_12': [5200], 's_13_4': [2111], 's_13_14': [4961], 's_13_13': [2125], 's_15_4': [4946], 's_15_7': [2547, 5188], 's_15_11': [5038], 's_15_15': [2545], 's_4_4': [5050], 's_7_7': [2338], 's_11_14': [2141], 's_11_11': [2185], 's_14_14': [2154]}</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0001134020618556701</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.001075282936514552</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>{0: [681, 4218], 4: [711, 712], 5: [4068, 667, 666], 7: [4262, 682], 10: [742], 11: [727, 726, 4053], 13: [4158, 651], 14: [4234, 621, 4233], 15: [4143], 16: [606, 4203, 4204], 6: [4248, 697], 8: [4188, 757], 9: [786, 4323, 787], 12: [636, 4173], 1: [696], 3: [4277, 4278], 2: [801, 4263]}</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01527149321266968</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0257896224325294</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>{0: [681, 4218], 4: [711, 712], 5: [4068, 667, 666], 7: [4262, 682], 10: [742], 11: [727, 726, 4053], 13: [4158, 651], 14: [4234, 621, 4233], 15: [4143], 16: [606, 4203, 4204], 6: [4248, 697], 8: [4188, 757], 9: [786, 4323, 787], 12: [636, 4173], 1: [696], 3: [4277, 4278], 2: [801, 4263]}</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0.01527149321266968</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.0257896224325294</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.386</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>{0: [2427, 5247, 2201, 2202, 5246], 4: [5081, 2081, 5486, 2083, 2082], 's_0_4': [5066], 5: [5245, 2067, 2293, 5351, 5350], 's_0_5': [5352], 7: [5112, 1992, 5110, 5111], 's_0_7': [5127], 10: [2188, 2186, 2187], 's_0_10': [5036], 11: [2172, 5427, 5425, 5426, 2173], 's_0_11': [2428], 13: [2248, 5158, 5157, 2247, 2246], 's_0_13': [2426], 14: [2126, 2127, 2023, 5291], 's_0_14': [2142], 15: [2382, 2383], 's_0_15': [5367], 16: [2111, 2112, 2322, 5305, 5307, 5306], 's_0_16': [5142], 's_0_0': [5006], 's_4_5': [2068], 6: [2113, 5322, 5320, 5321], 's_4_6': [5395], 8: [5277, 2219, 2218, 5276], 's_4_8': [5487], 9: [5441, 2096, 2097, 2098], 's_4_9': [2174], 's_4_11': [2053], 12: [2141, 5097, 5096], 's_4_12': [2156], 's_4_13': [5456], 's_4_14': [5035], 's_4_16': [5020], 's_4_4': [2189], 1: [5338, 2353, 5337], 's_5_1': [2308], 3: [5200, 2217, 5202, 2232, 5201], 's_5_3': [2292], 's_5_6': [1902], 's_5_7': [2066], 's_5_8': [5366], 's_5_9': [2158], 's_5_11': [1963], 's_5_13': [5472], 's_5_14': [5365], 's_5_16': [1932], 's_5_5': [5244], 2: [5216, 5215, 1978, 5217, 1977], 's_7_2': [1976], 's_7_3': [2231], 's_7_12': [2336], 's_7_13': [2352], 's_7_14': [5185], 's_7_16': [1993], 's_7_7': [1842], 's_10_8': [5381], 's_10_11': [5171], 's_10_12': [4991], 's_10_14': [4961], 's_10_16': [4976], 's_10_10': [2185], 's_11_1': [2368], 's_11_2': [5410], 's_11_3': [5186], 's_11_6': [1948], 's_11_14': [2128, 5411], 's_11_15': [5412], 's_11_11': [5424], 's_13_1': [5292], 's_13_3': [2472], 's_13_8': [5546], 's_13_9': [5156], 's_13_15': [5143], 's_13_16': [2307], 's_13_13': [5159], 's_14_2': [2022], 's_14_3': [2157], 's_14_6': [2038], 's_14_8': [5275], 's_14_9': [5380], 's_14_12': [5126], 's_14_16': [5170], 's_14_14': [4990], 's_15_1': [5382], 's_15_2': [2397], 's_15_12': [5082], 's_15_15': [2381], 's_16_1': [2323], 's_16_2': [1962], 's_16_3': [5231], 's_16_6': [2008], 's_16_8': [2203], 's_16_12': [2321], 's_16_16': [5187], 's_6_1': [5323], 's_6_2': [5335], 's_6_3': [2052], 's_6_9': [5336], 's_6_6': [1843], 's_8_1': [5262], 's_8_3': [2412], 's_8_9': [5261], 's_8_8': [5278], 's_9_2': [5440], 's_9_3': [2233], 's_9_12': [5051], 's_9_9': [2099], 's_12_3': [2367], 's_12_12': [2140], 's_1_1': [5397], 's_3_2': [2007], 's_3_3': [5199], 's_2_2': [5218]}</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>9.754021316970223e-05</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0009239446054717325</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>{0: [2427, 5247, 2201, 2202, 5246], 4: [5081, 2081, 5486, 2083, 2082], 's_0_4': [5066], 5: [5245, 2067, 2293, 5351, 5350], 's_0_5': [5352], 7: [5112, 1992, 5110, 5111], 's_0_7': [5127], 10: [2188, 2186, 2187], 's_0_10': [5036], 11: [2172, 5427, 5425, 5426, 2173], 's_0_11': [2428], 13: [2248, 5158, 5157, 2247, 2246], 's_0_13': [2426], 14: [2126, 2127, 2023, 5291], 's_0_14': [2142], 15: [2382, 2383], 's_0_15': [5367], 16: [2111, 2112, 2322, 5305, 5307, 5306], 's_0_16': [5142], 's_0_0': [5006], 's_4_5': [2068], 6: [2113, 5322, 5320, 5321], 's_4_6': [5395], 8: [5277, 2219, 2218, 5276], 's_4_8': [5487], 9: [5441, 2096, 2097, 2098], 's_4_9': [2174], 's_4_11': [2053], 12: [2141, 5097, 5096], 's_4_12': [2156], 's_4_13': [5456], 's_4_14': [5035], 's_4_16': [5020], 's_4_4': [2189], 1: [5338, 2353, 5337], 's_5_1': [2308], 3: [5200, 2217, 5202, 2232, 5201], 's_5_3': [2292], 's_5_6': [1902], 's_5_7': [2066], 's_5_8': [5366], 's_5_9': [2158], 's_5_11': [1963], 's_5_13': [5472], 's_5_14': [5365], 's_5_16': [1932], 's_5_5': [5244], 2: [5216, 5215, 1978, 5217, 1977], 's_7_2': [1976], 's_7_3': [2231], 's_7_12': [2336], 's_7_13': [2352], 's_7_14': [5185], 's_7_16': [1993], 's_7_7': [1842], 's_10_8': [5381], 's_10_11': [5171], 's_10_12': [4991], 's_10_14': [4961], 's_10_16': [4976], 's_10_10': [2185], 's_11_1': [2368], 's_11_2': [5410], 's_11_3': [5186], 's_11_6': [1948], 's_11_14': [2128, 5411], 's_11_15': [5412], 's_11_11': [5424], 's_13_1': [5292], 's_13_3': [2472], 's_13_8': [5546], 's_13_9': [5156], 's_13_15': [5143], 's_13_16': [2307], 's_13_13': [5159], 's_14_2': [2022], 's_14_3': [2157], 's_14_6': [2038], 's_14_8': [5275], 's_14_9': [5380], 's_14_12': [5126], 's_14_16': [5170], 's_14_14': [4990], 's_15_1': [5382], 's_15_2': [2397], 's_15_12': [5082], 's_15_15': [2381], 's_16_1': [2323], 's_16_2': [1962], 's_16_3': [5231], 's_16_6': [2008], 's_16_8': [2203], 's_16_12': [2321], 's_16_16': [5187], 's_6_1': [5323], 's_6_2': [5335], 's_6_3': [2052], 's_6_9': [5336], 's_6_6': [1843], 's_8_1': [5262], 's_8_3': [2412], 's_8_9': [5261], 's_8_8': [5278], 's_9_2': [5440], 's_9_3': [2233], 's_9_12': [5051], 's_9_9': [2099], 's_12_3': [2367], 's_12_12': [2140], 's_1_1': [5397], 's_3_2': [2007], 's_3_3': [5199], 's_2_2': [5218]}</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>9.754021316970223e-05</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0009239446054717325</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>{0: [3740], 2: [3620, 1114, 1113], 3: [3725], 4: [1143, 3696], 6: [3516, 1219, 1218], 13: [1129, 1128], 14: [3636, 1084, 3635], 15: [1188, 3621], 8: [1249, 3531, 1248], 11: [3560, 1053], 12: [3681], 16: [3590, 3591], 7: [1172, 1173], 5: [3605, 1233, 3606], 10: [1204, 1203], 17: [3711, 1279], 9: [3665, 3666], 1: [3575, 1158]}</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0178743961352657</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.02696673572358041</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>{0: [3740], 2: [3620, 1114, 1113], 3: [3725], 4: [1143, 3696], 6: [3516, 1219, 1218], 13: [1129, 1128], 14: [3636, 1084, 3635], 15: [1188, 3621], 8: [1249, 3531, 1248], 11: [3560, 1053], 12: [3681], 16: [3590, 3591], 7: [1172, 1173], 5: [3605, 1233, 3606], 10: [1204, 1203], 17: [3711, 1279], 9: [3665, 3666], 1: [3575, 1158]}</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0178743961352657</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.02696673572358041</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.387</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>{0: [840, 3212, 3213, 841], 2: [2989, 2988, 2987, 2986, 300, 301], 's_0_2': [2974], 3: [3169, 3168, 3167, 435, 3061], 's_0_3': [691], 4: [497, 616, 3271, 496, 3272], 's_0_4': [3211], 6: [556, 557, 3318, 3319, 3317, 3316], 's_0_6': [661], 13: [3076, 541, 540, 3078, 3077], 's_0_13': [3079], 14: [752, 3182, 3183, 751], 's_0_14': [3139], 15: [3481, 3482, 3017, 525, 526, 527], 's_0_15': [3018], 's_0_0': [3003], 's_2_3': [360], 's_2_4': [495], 's_2_6': [3301], 8: [437, 3242, 436, 376, 3241], 's_2_8': [3121], 11: [3064, 3153, 870, 3154, 871], 's_2_11': [885], 12: [346, 3287, 392, 3286], 's_2_12': [316], 's_2_13': [2972], 's_2_15': [585], 16: [3332, 421, 286, 3257, 3256], 's_2_16': [3210], 's_2_2': [2985], 's_3_6': [886], 7: [811, 571, 3227, 3228], 's_3_7': [856], 's_3_13': [390], 's_3_14': [810], 's_3_15': [3122], 's_3_3': [3046], 5: [3376, 677, 3378, 3377], 's_4_5': [482], 's_4_8': [3497], 10: [3437, 3197, 586, 587], 's_4_10': [617], 's_4_12': [407], 's_4_15': [3452], 's_4_16': [271], 17: [452, 3108, 3107, 451, 450], 's_4_17': [3467], 's_4_4': [3270], 's_6_5': [722], 's_6_7': [572], 's_6_8': [466], 9: [3091, 3092, 3093, 646, 645], 's_6_9': [3362], 's_6_10': [3407], 's_6_11': [902, 901], 's_6_12': [3302], 's_6_13': [3152], 's_6_16': [481], 's_6_17': [3137], 's_6_6': [3320], 's_13_8': [375], 's_13_9': [315], 's_13_14': [750], 's_13_16': [420], 's_13_17': [3062], 's_13_13': [2927], 1: [631, 630], 's_14_1': [3243], 's_14_5': [3363], 's_14_7': [736], 's_14_9': [3273], 's_14_10': [3198], 's_14_11': [615], 's_14_15': [600, 3047], 's_14_17': [3181], 's_14_14': [3408], 's_15_7': [570], 's_15_8': [3347], 's_15_10': [467], 's_15_12': [347], 's_15_16': [287], 's_15_15': [378], 's_8_7': [3226], 's_8_9': [391], 's_8_10': [511], 's_8_12': [3391], 's_8_16': [406], 's_8_17': [3512], 's_8_8': [3451], 's_11_1': [3063], 's_11_7': [3229], 's_11_9': [3094], 's_11_10': [676], 's_11_11': [915], 's_12_10': [3196], 's_12_17': [3406], 's_12_12': [3285], 's_16_5': [3361], 's_16_7': [601], 's_16_10': [542], 's_16_16': [3255], 's_7_1': [3123], 's_7_5': [781], 's_7_9': [3138], 's_7_17': [766], 's_7_7': [796, 797], 's_5_1': [3333], 's_5_9': [3348], 's_5_10': [512], 's_5_5': [692], 's_10_1': [3303], 's_10_17': [3422], 's_10_10': [3436], 's_17_9': [705], 's_17_17': [3527], 's_9_1': [3288], 's_9_9': [3090], 's_1_1': [632]}</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0005169491525423729</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.00206332873803075</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>{0: [840, 3212, 3213, 841], 2: [2989, 2988, 2987, 2986, 300, 301], 's_0_2': [2974], 3: [3169, 3168, 3167, 435, 3061], 's_0_3': [691], 4: [497, 616, 3271, 496, 3272], 's_0_4': [3211], 6: [556, 557, 3318, 3319, 3317, 3316], 's_0_6': [661], 13: [3076, 541, 540, 3078, 3077], 's_0_13': [3079], 14: [752, 3182, 3183, 751], 's_0_14': [3139], 15: [3481, 3482, 3017, 525, 526, 527], 's_0_15': [3018], 's_0_0': [3003], 's_2_3': [360], 's_2_4': [495], 's_2_6': [3301], 8: [437, 3242, 436, 376, 3241], 's_2_8': [3121], 11: [3064, 3153, 870, 3154, 871], 's_2_11': [885], 12: [346, 3287, 392, 3286], 's_2_12': [316], 's_2_13': [2972], 's_2_15': [585], 16: [3332, 421, 286, 3257, 3256], 's_2_16': [3210], 's_2_2': [2985], 's_3_6': [886], 7: [811, 571, 3227, 3228], 's_3_7': [856], 's_3_13': [390], 's_3_14': [810], 's_3_15': [3122], 's_3_3': [3046], 5: [3376, 677, 3378, 3377], 's_4_5': [482], 's_4_8': [3497], 10: [3437, 3197, 586, 587], 's_4_10': [617], 's_4_12': [407], 's_4_15': [3452], 's_4_16': [271], 17: [452, 3108, 3107, 451, 450], 's_4_17': [3467], 's_4_4': [3270], 's_6_5': [722], 's_6_7': [572], 's_6_8': [466], 9: [3091, 3092, 3093, 646, 645], 's_6_9': [3362], 's_6_10': [3407], 's_6_11': [902, 901], 's_6_12': [3302], 's_6_13': [3152], 's_6_16': [481], 's_6_17': [3137], 's_6_6': [3320], 's_13_8': [375], 's_13_9': [315], 's_13_14': [750], 's_13_16': [420], 's_13_17': [3062], 's_13_13': [2927], 1: [631, 630], 's_14_1': [3243], 's_14_5': [3363], 's_14_7': [736], 's_14_9': [3273], 's_14_10': [3198], 's_14_11': [615], 's_14_15': [600, 3047], 's_14_17': [3181], 's_14_14': [3408], 's_15_7': [570], 's_15_8': [3347], 's_15_10': [467], 's_15_12': [347], 's_15_16': [287], 's_15_15': [378], 's_8_7': [3226], 's_8_9': [391], 's_8_10': [511], 's_8_12': [3391], 's_8_16': [406], 's_8_17': [3512], 's_8_8': [3451], 's_11_1': [3063], 's_11_7': [3229], 's_11_9': [3094], 's_11_10': [676], 's_11_11': [915], 's_12_10': [3196], 's_12_17': [3406], 's_12_12': [3285], 's_16_5': [3361], 's_16_7': [601], 's_16_10': [542], 's_16_16': [3255], 's_7_1': [3123], 's_7_5': [781], 's_7_9': [3138], 's_7_17': [766], 's_7_7': [796, 797], 's_5_1': [3333], 's_5_9': [3348], 's_5_10': [512], 's_5_5': [692], 's_10_1': [3303], 's_10_17': [3422], 's_10_10': [3436], 's_17_9': [705], 's_17_17': [3527], 's_9_1': [3288], 's_9_9': [3090], 's_1_1': [632]}</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0005169491525423729</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.00206332873803075</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>{0: [4006, 440, 3961], 1: [410, 4067, 411], 2: [3962], 6: [4007], 8: [3946], 12: [590, 3931, 3932], 13: [3901, 395], 15: [424, 425], 16: [4022, 530], 18: [4052, 470], 4: [560, 561], 5: [455, 454], 7: [545, 3857], 17: [500, 4037], 9: [3992, 485], 11: [3977], 14: [515, 3887], 3: [3872, 3873], 10: [3902]}</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.007394519356241844</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.01828951373782396</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>{0: [4006, 440, 3961], 1: [410, 4067, 411], 2: [3962], 6: [4007], 8: [3946], 12: [590, 3931, 3932], 13: [3901, 395], 15: [424, 425], 16: [4022, 530], 18: [4052, 470], 4: [560, 561], 5: [455, 454], 7: [545, 3857], 17: [500, 4037], 9: [3992, 485], 11: [3977], 14: [515, 3887], 3: [3872, 3873], 10: [3902]}</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0.007394519356241844</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.01828951373782396</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.338</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>{0: [4775, 789, 4774], 1: [1031, 4803, 4804, 1030], 's_0_1': [1060, 4940], 2: [925, 4968, 4969, 926], 's_0_2': [790], 6: [4654, 986, 984, 985], 's_0_6': [1014], 8: [819, 4759], 's_0_8': [760], 12: [4924, 4847, 4848, 4684, 849, 850], 's_0_12': [4653], 13: [1000, 910, 4879, 4880], 's_0_13': [999], 15: [4791, 1075, 4790], 's_0_15': [4776], 16: [4699, 881, 880, 879], 's_0_16': [4698], 18: [941, 894, 895, 4895, 4894], 's_0_18': [4789], 's_0_0': [4773], 4: [4834, 1105, 1225, 4835], 's_1_4': [4805], 5: [4833, 834, 836, 835], 's_1_5': [700], 7: [4866, 4865, 4863, 4864], 's_1_7': [1045], 's_1_8': [4760, 955], 's_1_16': [4999], 17: [865, 866, 4909, 4910, 1106], 's_1_17': [5060], 's_1_18': [5029], 's_1_1': [5105], 's_2_7': [640], 9: [956, 804, 4955, 4954, 805], 's_2_9': [4953], 11: [5120, 791, 851, 5119], 's_2_11': [927], 's_2_12': [625], 14: [5044, 4746, 1135, 5045, 1136], 's_2_14': [911], 's_2_16': [5059], 's_2_18': [5014], 's_2_2': [746], 's_6_14': [971], 's_6_16': [4669], 's_6_17': [5074], 's_6_6': [1029], 's_8_5': [820], 's_8_9': [4668], 's_8_13': [4714], 's_8_18': [4744], 's_8_8': [4758, 684], 3: [4818, 4820, 4819], 's_12_3': [969], 's_12_5': [745], 's_12_7': [655], 's_12_9': [761], 10: [1164, 4849, 4850, 1165], 's_12_10': [4685], 's_12_11': [776, 5058], 's_12_16': [909], 's_12_18': [4594], 's_12_12': [610], 's_13_7': [4881], 's_13_9': [4878], 's_13_10': [970], 's_13_14': [1001], 's_13_17': [4970], 's_13_13': [1090], 's_15_7': [1270], 's_15_14': [1076], 's_15_18': [4925], 's_15_15': [1074], 's_16_5': [4939], 's_16_9': [4984], 's_16_10': [4700], 's_16_11': [5104], 's_16_17': [5089], 's_16_18': [4624], 's_16_16': [939], 's_18_4': [4896], 's_18_9': [1015], 's_18_17': [1121], 's_18_18': [942], 's_4_3': [1120], 's_4_10': [4730], 's_4_17': [4911], 's_4_4': [1224], 's_5_3': [730], 's_5_7': [715], 's_5_11': [4998], 's_5_14': [821], 's_5_17': [5028], 's_5_5': [833], 's_7_10': [940], 's_7_14': [1285], 's_7_7': [4862], 's_17_9': [4908], 's_17_11': [1107], 's_17_14': [5000], 's_17_17': [867], 's_9_3': [4713, 775], 's_9_11': [1061], 's_9_14': [4956], 's_9_9': [806], 's_11_14': [1016], 's_11_11': [5073], 's_14_3': [1149], 's_14_10': [1166], 's_14_14': [1179], 's_3_3': [4817], 's_10_10': [4761]}</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>8.928571428571427e-05</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0008883816402737678</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>{0: [4775, 789, 4774], 1: [1031, 4803, 4804, 1030], 's_0_1': [1060, 4940], 2: [925, 4968, 4969, 926], 's_0_2': [790], 6: [4654, 986, 984, 985], 's_0_6': [1014], 8: [819, 4759], 's_0_8': [760], 12: [4924, 4847, 4848, 4684, 849, 850], 's_0_12': [4653], 13: [1000, 910, 4879, 4880], 's_0_13': [999], 15: [4791, 1075, 4790], 's_0_15': [4776], 16: [4699, 881, 880, 879], 's_0_16': [4698], 18: [941, 894, 895, 4895, 4894], 's_0_18': [4789], 's_0_0': [4773], 4: [4834, 1105, 1225, 4835], 's_1_4': [4805], 5: [4833, 834, 836, 835], 's_1_5': [700], 7: [4866, 4865, 4863, 4864], 's_1_7': [1045], 's_1_8': [4760, 955], 's_1_16': [4999], 17: [865, 866, 4909, 4910, 1106], 's_1_17': [5060], 's_1_18': [5029], 's_1_1': [5105], 's_2_7': [640], 9: [956, 804, 4955, 4954, 805], 's_2_9': [4953], 11: [5120, 791, 851, 5119], 's_2_11': [927], 's_2_12': [625], 14: [5044, 4746, 1135, 5045, 1136], 's_2_14': [911], 's_2_16': [5059], 's_2_18': [5014], 's_2_2': [746], 's_6_14': [971], 's_6_16': [4669], 's_6_17': [5074], 's_6_6': [1029], 's_8_5': [820], 's_8_9': [4668], 's_8_13': [4714], 's_8_18': [4744], 's_8_8': [4758, 684], 3: [4818, 4820, 4819], 's_12_3': [969], 's_12_5': [745], 's_12_7': [655], 's_12_9': [761], 10: [1164, 4849, 4850, 1165], 's_12_10': [4685], 's_12_11': [776, 5058], 's_12_16': [909], 's_12_18': [4594], 's_12_12': [610], 's_13_7': [4881], 's_13_9': [4878], 's_13_10': [970], 's_13_14': [1001], 's_13_17': [4970], 's_13_13': [1090], 's_15_7': [1270], 's_15_14': [1076], 's_15_18': [4925], 's_15_15': [1074], 's_16_5': [4939], 's_16_9': [4984], 's_16_10': [4700], 's_16_11': [5104], 's_16_17': [5089], 's_16_18': [4624], 's_16_16': [939], 's_18_4': [4896], 's_18_9': [1015], 's_18_17': [1121], 's_18_18': [942], 's_4_3': [1120], 's_4_10': [4730], 's_4_17': [4911], 's_4_4': [1224], 's_5_3': [730], 's_5_7': [715], 's_5_11': [4998], 's_5_14': [821], 's_5_17': [5028], 's_5_5': [833], 's_7_10': [940], 's_7_14': [1285], 's_7_7': [4862], 's_17_9': [4908], 's_17_11': [1107], 's_17_14': [5000], 's_17_17': [867], 's_9_3': [4713, 775], 's_9_11': [1061], 's_9_14': [4956], 's_9_9': [806], 's_11_14': [1016], 's_11_11': [5073], 's_14_3': [1149], 's_14_10': [1166], 's_14_14': [1179], 's_3_3': [4817], 's_10_10': [4761]}</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>8.928571428571427e-05</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.0008883816402737678</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>{0: [1086, 3965, 1085], 1: [4071, 4070], 2: [1145], 5: [4055, 1160, 4056], 7: [4130, 1071, 1070], 8: [4026, 4025], 9: [4011, 1025, 4010], 10: [3934, 3935], 15: [1056, 1055], 16: [3981, 1010, 3980], 17: [1190, 4085], 18: [4115, 1101], 19: [3890, 1206, 1205, 3891], 4: [3950, 3949, 995], 11: [3995, 1116], 3: [4040, 4041], 14: [1175, 4100], 12: [1221, 1220], 6: [1100, 3920], 13: [1040]}</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.01607142857142857</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02474358296526968</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>{0: [1086, 3965, 1085], 1: [4071, 4070], 2: [1145], 5: [4055, 1160, 4056], 7: [4130, 1071, 1070], 8: [4026, 4025], 9: [4011, 1025, 4010], 10: [3934, 3935], 15: [1056, 1055], 16: [3981, 1010, 3980], 17: [1190, 4085], 18: [4115, 1101], 19: [3890, 1206, 1205, 3891], 4: [3950, 3949, 995], 11: [3995, 1116], 3: [4040, 4041], 14: [1175, 4100], 12: [1221, 1220], 6: [1100, 3920], 13: [1040]}</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0.01607142857142857</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.02474358296526968</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.211</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>{0: [2337, 2336, 4994, 4993, 4991, 4992], 1: [2532, 2530, 2531], 's_0_1': [2546], 2: [5293, 2485, 2487, 2486], 's_0_2': [5007], 5: [2713, 4904, 2711, 5159, 2712], 's_0_5': [2785], 7: [5144, 2698, 2695, 2696, 2697], 's_0_7': [2741, 5069], 8: [5263, 5262], 's_0_8': [5277], 9: [5037, 2638, 2637, 5038, 2635, 2636], 's_0_9': [2381], 10: [2425, 4962, 4964, 4963], 's_0_10': [2260], 15: [5234, 5233, 2291, 2292, 5232], 's_0_15': [5006], 16: [2455, 4978, 5309, 2682, 2681, 4979], 's_0_16': [2396], 17: [5127, 5129, 5128, 2382], 's_0_17': [2306], 18: [2576, 5188, 2577], 's_0_18': [2440, 4903], 19: [2351, 2352, 5217, 5264, 2622, 5218], 's_0_19': [5157], 's_0_0': [2186], 4: [2650, 4857, 4858], 's_1_4': [2545], 11: [4814, 4813, 2500, 5113, 2501], 's_1_11': [4798], 's_1_15': [2547], 's_1_16': [4933], 's_1_17': [5143], 's_1_18': [5173], 's_1_1': [4753], 3: [2441, 5354, 5353, 5352, 2442], 's_2_3': [2383], 's_2_4': [2470], 's_2_8': [2398], 's_2_11': [4783], 14: [5083, 2607, 2606], 's_2_14': [5248], 's_2_16': [5308], 's_2_17': [5202], 's_2_2': [4827], 's_5_4': [4919], 's_5_7': [5384], 12: [5022, 5023, 2591, 2590], 's_5_12': [5024], 's_5_14': [5294], 's_5_15': [2562], 's_5_16': [5054], 's_5_17': [5158], 's_5_18': [5189], 's_5_19': [5219], 's_5_5': [2710], 's_7_3': [5369], 6: [2561, 2680, 4949], 's_7_6': [4784], 's_7_9': [5459], 's_7_11': [5114], 's_7_12': [4934], 's_7_14': [5084], 's_7_15': [2727], 's_7_16': [5174], 's_7_18': [2621], 's_7_19': [5339], 's_7_7': [4829], 13: [5324, 5383, 2578], 's_8_13': [2548], 's_8_14': [5278], 's_8_15': [2457], 's_8_8': [5261], 's_9_3': [2456], 's_9_4': [4843], 's_9_10': [2620], 's_9_11': [2426], 's_9_12': [2321], 's_9_13': [5398], 's_9_15': [5036], 's_9_19': [5279], 's_9_9': [5519], 's_10_4': [2410], 's_10_6': [4948], 's_10_12': [2516], 's_10_15': [4977], 's_10_19': [4902], 's_10_10': [4961], 's_15_16': [5249], 's_15_17': [5097], 's_15_19': [2367], 's_15_15': [5201], 's_16_6': [2726], 's_16_11': [2471], 's_16_12': [4873], 's_16_13': [2563], 's_16_14': [2592], 's_16_17': [2651], 's_16_16': [2454], 's_17_11': [2397], 's_17_12': [2666], 's_17_14': [5082], 's_17_18': [5187], 's_17_19': [5247], 's_17_17': [2231], 's_18_12': [5008], 's_18_14': [5203], 's_18_19': [2667], 's_18_18': [2502], 's_19_3': [2758], 's_19_12': [2366], 's_19_13': [2623], 's_19_14': [5368], 's_19_19': [2350], 's_4_6': [4859], 's_4_11': [2515], 's_4_4': [4856], 's_11_3': [2412, 2411], 's_11_14': [5098], 's_11_11': [2740], 's_3_12': [5053], 's_3_13': [5323], 's_3_14': [5068], 's_3_3': [5338], 's_14_14': [2608], 's_12_6': [2605], 's_12_12': [5021], 's_6_6': [2679], 's_13_13': [5428]}</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0001162790697674419</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0009422671148173037</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>{0: [2337, 2336, 4994, 4993, 4991, 4992], 1: [2532, 2530, 2531], 's_0_1': [2546], 2: [5293, 2485, 2487, 2486], 's_0_2': [5007], 5: [2713, 4904, 2711, 5159, 2712], 's_0_5': [2785], 7: [5144, 2698, 2695, 2696, 2697], 's_0_7': [2741, 5069], 8: [5263, 5262], 's_0_8': [5277], 9: [5037, 2638, 2637, 5038, 2635, 2636], 's_0_9': [2381], 10: [2425, 4962, 4964, 4963], 's_0_10': [2260], 15: [5234, 5233, 2291, 2292, 5232], 's_0_15': [5006], 16: [2455, 4978, 5309, 2682, 2681, 4979], 's_0_16': [2396], 17: [5127, 5129, 5128, 2382], 's_0_17': [2306], 18: [2576, 5188, 2577], 's_0_18': [2440, 4903], 19: [2351, 2352, 5217, 5264, 2622, 5218], 's_0_19': [5157], 's_0_0': [2186], 4: [2650, 4857, 4858], 's_1_4': [2545], 11: [4814, 4813, 2500, 5113, 2501], 's_1_11': [4798], 's_1_15': [2547], 's_1_16': [4933], 's_1_17': [5143], 's_1_18': [5173], 's_1_1': [4753], 3: [2441, 5354, 5353, 5352, 2442], 's_2_3': [2383], 's_2_4': [2470], 's_2_8': [2398], 's_2_11': [4783], 14: [5083, 2607, 2606], 's_2_14': [5248], 's_2_16': [5308], 's_2_17': [5202], 's_2_2': [4827], 's_5_4': [4919], 's_5_7': [5384], 12: [5022, 5023, 2591, 2590], 's_5_12': [5024], 's_5_14': [5294], 's_5_15': [2562], 's_5_16': [5054], 's_5_17': [5158], 's_5_18': [5189], 's_5_19': [5219], 's_5_5': [2710], 's_7_3': [5369], 6: [2561, 2680, 4949], 's_7_6': [4784], 's_7_9': [5459], 's_7_11': [5114], 's_7_12': [4934], 's_7_14': [5084], 's_7_15': [2727], 's_7_16': [5174], 's_7_18': [2621], 's_7_19': [5339], 's_7_7': [4829], 13: [5324, 5383, 2578], 's_8_13': [2548], 's_8_14': [5278], 's_8_15': [2457], 's_8_8': [5261], 's_9_3': [2456], 's_9_4': [4843], 's_9_10': [2620], 's_9_11': [2426], 's_9_12': [2321], 's_9_13': [5398], 's_9_15': [5036], 's_9_19': [5279], 's_9_9': [5519], 's_10_4': [2410], 's_10_6': [4948], 's_10_12': [2516], 's_10_15': [4977], 's_10_19': [4902], 's_10_10': [4961], 's_15_16': [5249], 's_15_17': [5097], 's_15_19': [2367], 's_15_15': [5201], 's_16_6': [2726], 's_16_11': [2471], 's_16_12': [4873], 's_16_13': [2563], 's_16_14': [2592], 's_16_17': [2651], 's_16_16': [2454], 's_17_11': [2397], 's_17_12': [2666], 's_17_14': [5082], 's_17_18': [5187], 's_17_19': [5247], 's_17_17': [2231], 's_18_12': [5008], 's_18_14': [5203], 's_18_19': [2667], 's_18_18': [2502], 's_19_3': [2758], 's_19_12': [2366], 's_19_13': [2623], 's_19_14': [5368], 's_19_19': [2350], 's_4_6': [4859], 's_4_11': [2515], 's_4_4': [4856], 's_11_3': [2412, 2411], 's_11_14': [5098], 's_11_11': [2740], 's_3_12': [5053], 's_3_13': [5323], 's_3_14': [5068], 's_3_3': [5338], 's_14_14': [2608], 's_12_6': [2605], 's_12_12': [5021], 's_6_6': [2679], 's_13_13': [5428]}</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0001162790697674419</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0009422671148173037</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>{0: [4500, 113], 2: [233, 293, 4485], 3: [4411, 128, 4410], 4: [263, 4470], 8: [4560, 4561], 9: [4575, 4576], 10: [248, 4635], 17: [188, 4650, 189], 19: [4606, 98, 4605], 1: [4546, 4545], 7: [159, 4591, 4590], 11: [4440, 158], 12: [4695, 234], 15: [323, 4455], 14: [203, 204], 16: [4530], 18: [277, 278], 20: [308, 309], 5: [174, 173], 6: [4620, 219], 13: [324]}</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.007881773399014778</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.01769746283784234</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>{0: [4500, 113], 2: [233, 293, 4485], 3: [4411, 128, 4410], 4: [263, 4470], 8: [4560, 4561], 9: [4575, 4576], 10: [248, 4635], 17: [188, 4650, 189], 19: [4606, 98, 4605], 1: [4546, 4545], 7: [159, 4591, 4590], 11: [4440, 158], 12: [4695, 234], 15: [323, 4455], 14: [203, 204], 16: [4530], 18: [277, 278], 20: [308, 309], 5: [174, 173], 6: [4620, 219], 13: [324]}</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0.007881773399014778</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.01769746283784234</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>{0: [1360, 1302, 1406, 1301, 1241, 5001], 2: [5241, 1317, 1420, 5122, 1421], 's_0_2': [5062], 3: [1138, 4926, 5076, 5075, 1136, 1137], 's_0_3': [5000], 4: [1273, 1256, 1257, 5270, 5271], 's_0_4': [5046], 8: [4895, 4896, 4897, 4898, 1633, 1632, 1631], 's_0_8': [1286], 9: [5015, 1330, 1332, 5016, 1331], 's_0_9': [1345], 10: [5137, 1618, 1617, 5138], 's_0_10': [5152], 17: [5106, 5107, 1454, 1451, 1452, 1453, 5287], 's_0_17': [4912], 19: [1363, 1361, 1362, 5272], 's_0_19': [5047], 's_0_0': [1375, 1374], 1: [5196, 5197, 1107, 5195], 's_2_1': [1272], 's_2_3': [5077], 7: [5123, 1482, 1483, 5407, 5406], 's_2_7': [1481, 5032, 1541], 's_2_8': [1435], 's_2_9': [4972, 1316], 11: [5390, 5405, 1063, 1062, 5226, 5225], 's_2_11': [1227], 12: [1496, 1572, 5167, 1556, 5017], 's_2_12': [1436], 15: [1197, 1078, 5361, 5360], 's_2_15': [1182], 's_2_19': [5242], 's_2_2': [1419], 's_3_8': [1255], 's_3_9': [5061, 1271], 14: [5108, 1287, 1497, 5092, 5091, 1211], 's_3_14': [1196], 's_3_15': [5420], 16: [4957, 1123, 4956, 1122, 1121], 's_3_16': [1150], 's_3_17': [1166], 18: [1091, 1093, 1092], 's_3_18': [4941, 4940], 's_3_3': [5045], 's_4_7': [1303], 's_4_9': [5166], 's_4_15': [5331], 's_4_18': [5255], 's_4_19': [5031], 20: [1242, 1438, 1243, 5376, 5377, 5378], 's_4_20': [1258], 's_4_4': [1274], 5: [1393, 5317, 1557, 5318], 's_8_5': [5333], 6: [5180, 5303, 5302, 1212, 5301], 's_8_6': [1648], 's_8_10': [5348], 's_8_12': [5018], 's_8_14': [1210], 's_8_17': [1466], 's_8_18': [4910], 's_8_20': [5393], 's_8_8': [4913, 1690], 's_9_5': [5332], 's_9_10': [1346], 's_9_11': [5391, 1333], 's_9_12': [4942, 4943], 's_9_15': [5346], 's_9_17': [4927], 's_9_18': [1106], 's_9_9': [5014], 's_10_5': [5288], 's_10_7': [5408], 's_10_12': [5168], 's_10_14': [1616], 's_10_17': [1467], 's_10_19': [5467, 5468], 's_10_20': [1602, 1603], 's_10_10': [5453], 's_17_6': [5286], 's_17_7': [5347], 13: [1318, 1319], 's_17_13': [5512], 's_17_16': [5121], 's_17_19': [5497, 1469], 's_17_20': [1437], 's_17_17': [5587], 's_19_1': [1422], 's_19_5': [1377], 's_19_6': [1392], 's_19_7': [1498], 's_19_14': [5211], 's_19_20': [1378], 's_19_19': [5541], 's_1_5': [1152, 5316], 's_1_6': [1407], 's_1_11': [1347], 's_1_12': [1587], 's_1_14': [5090], 's_1_15': [1167], 's_1_16': [1077, 5240], 's_1_18': [5120], 's_1_1': [5194], 's_7_5': [5422], 's_7_11': [1198], 's_7_13': [1228, 5451], 's_7_7': [1586], 's_11_14': [5227], 's_11_15': [5450], 's_11_16': [5210], 's_11_20': [5375], 's_11_11': [1153], 's_12_5': [5212, 1542], 's_12_14': [1571], 's_12_12': [4928], 's_15_5': [5362], 's_15_18': [5345], 's_15_20': [1288], 's_15_15': [1079], 's_14_6': [1181], 's_14_16': [5136], 's_14_14': [5109], 's_16_6': [5151], 's_16_16': [4985], 's_18_6': [5300], 's_18_18': [1090], 's_20_13': [5421], 's_20_20': [1244], 's_5_5': [1558], 's_6_13': [5256], 's_6_6': [5304], 's_13_13': [5571]}</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0001818181818181818</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.001207947359272409</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>{0: [1360, 1302, 1406, 1301, 1241, 5001], 2: [5241, 1317, 1420, 5122, 1421], 's_0_2': [5062], 3: [1138, 4926, 5076, 5075, 1136, 1137], 's_0_3': [5000], 4: [1273, 1256, 1257, 5270, 5271], 's_0_4': [5046], 8: [4895, 4896, 4897, 4898, 1633, 1632, 1631], 's_0_8': [1286], 9: [5015, 1330, 1332, 5016, 1331], 's_0_9': [1345], 10: [5137, 1618, 1617, 5138], 's_0_10': [5152], 17: [5106, 5107, 1454, 1451, 1452, 1453, 5287], 's_0_17': [4912], 19: [1363, 1361, 1362, 5272], 's_0_19': [5047], 's_0_0': [1375, 1374], 1: [5196, 5197, 1107, 5195], 's_2_1': [1272], 's_2_3': [5077], 7: [5123, 1482, 1483, 5407, 5406], 's_2_7': [1481, 5032, 1541], 's_2_8': [1435], 's_2_9': [4972, 1316], 11: [5390, 5405, 1063, 1062, 5226, 5225], 's_2_11': [1227], 12: [1496, 1572, 5167, 1556, 5017], 's_2_12': [1436], 15: [1197, 1078, 5361, 5360], 's_2_15': [1182], 's_2_19': [5242], 's_2_2': [1419], 's_3_8': [1255], 's_3_9': [5061, 1271], 14: [5108, 1287, 1497, 5092, 5091, 1211], 's_3_14': [1196], 's_3_15': [5420], 16: [4957, 1123, 4956, 1122, 1121], 's_3_16': [1150], 's_3_17': [1166], 18: [1091, 1093, 1092], 's_3_18': [4941, 4940], 's_3_3': [5045], 's_4_7': [1303], 's_4_9': [5166], 's_4_15': [5331], 's_4_18': [5255], 's_4_19': [5031], 20: [1242, 1438, 1243, 5376, 5377, 5378], 's_4_20': [1258], 's_4_4': [1274], 5: [1393, 5317, 1557, 5318], 's_8_5': [5333], 6: [5180, 5303, 5302, 1212, 5301], 's_8_6': [1648], 's_8_10': [5348], 's_8_12': [5018], 's_8_14': [1210], 's_8_17': [1466], 's_8_18': [4910], 's_8_20': [5393], 's_8_8': [4913, 1690], 's_9_5': [5332], 's_9_10': [1346], 's_9_11': [5391, 1333], 's_9_12': [4942, 4943], 's_9_15': [5346], 's_9_17': [4927], 's_9_18': [1106], 's_9_9': [5014], 's_10_5': [5288], 's_10_7': [5408], 's_10_12': [5168], 's_10_14': [1616], 's_10_17': [1467], 's_10_19': [5467, 5468], 's_10_20': [1602, 1603], 's_10_10': [5453], 's_17_6': [5286], 's_17_7': [5347], 13: [1318, 1319], 's_17_13': [5512], 's_17_16': [5121], 's_17_19': [5497, 1469], 's_17_20': [1437], 's_17_17': [5587], 's_19_1': [1422], 's_19_5': [1377], 's_19_6': [1392], 's_19_7': [1498], 's_19_14': [5211], 's_19_20': [1378], 's_19_19': [5541], 's_1_5': [1152, 5316], 's_1_6': [1407], 's_1_11': [1347], 's_1_12': [1587], 's_1_14': [5090], 's_1_15': [1167], 's_1_16': [1077, 5240], 's_1_18': [5120], 's_1_1': [5194], 's_7_5': [5422], 's_7_11': [1198], 's_7_13': [1228, 5451], 's_7_7': [1586], 's_11_14': [5227], 's_11_15': [5450], 's_11_16': [5210], 's_11_20': [5375], 's_11_11': [1153], 's_12_5': [5212, 1542], 's_12_14': [1571], 's_12_12': [4928], 's_15_5': [5362], 's_15_18': [5345], 's_15_20': [1288], 's_15_15': [1079], 's_14_6': [1181], 's_14_16': [5136], 's_14_14': [5109], 's_16_6': [5151], 's_16_16': [4985], 's_18_6': [5300], 's_18_18': [1090], 's_20_13': [5421], 's_20_20': [1244], 's_5_5': [1558], 's_6_13': [5256], 's_6_6': [5304], 's_13_13': [5571]}</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0001818181818181818</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.001207947359272409</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>{0: [605, 3976, 3977], 3: [411, 4082, 4081], 4: [486, 485], 5: [4052, 470], 6: [620, 3946, 3947], 9: [3917, 350, 3916], 13: [590, 4157, 591], 16: [440, 4067], 19: [4112, 545, 546], 20: [516, 3872, 515], 21: [366, 4097, 4096], 1: [531, 530], 7: [335, 3992, 3991], 8: [4142, 560, 561], 10: [3827, 455, 454], 14: [4023, 4022], 15: [501, 500], 17: [425, 4038, 4037], 2: [424, 3902, 3901], 11: [4006, 576, 4007], 12: [3961, 575, 3962], 18: [3932, 3931]}</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.01269035532994924</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.02039091010178653</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>{0: [605, 3976, 3977], 3: [411, 4082, 4081], 4: [486, 485], 5: [4052, 470], 6: [620, 3946, 3947], 9: [3917, 350, 3916], 13: [590, 4157, 591], 16: [440, 4067], 19: [4112, 545, 546], 20: [516, 3872, 515], 21: [366, 4097, 4096], 1: [531, 530], 7: [335, 3992, 3991], 8: [4142, 560, 561], 10: [3827, 455, 454], 14: [4023, 4022], 15: [501, 500], 17: [425, 4038, 4037], 2: [424, 3902, 3901], 11: [4006, 576, 4007], 12: [3961, 575, 3962], 18: [3932, 3931]}</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0.01269035532994924</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.02039091010178653</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.236</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>{0: [3154, 750, 3226, 751, 3227, 3228], 3: [543, 542, 541, 900, 2959, 2958, 2957, 540], 's_0_3': [2944], 4: [661, 662, 767, 3424, 3423], 's_0_4': [676], 5: [3468, 3302, 3303, 738, 736, 737], 's_0_5': [3183], 6: [496, 557, 3317, 3316, 271, 272], 's_0_6': [3225], 9: [346, 631, 3212, 181, 3210, 3211], 's_0_9': [436], 13: [3450, 3062, 600, 601, 3451, 3452, 3528, 602], 's_0_13': [3063], 16: [858, 857, 856, 3198, 3078, 630, 3197], 's_0_16': [3093], 19: [3376, 3166, 363, 361, 362], 's_0_19': [331], 20: [693, 692, 3348, 572, 571, 2911, 570, 2912], 's_0_20': [2913], 21: [3601, 3602, 588, 586, 587], 's_0_21': [3153], 's_0_0': [752], 1: [3572, 407, 408, 3571], 's_3_1': [3482], 's_3_6': [3332], 7: [3240, 3241, 796, 645, 646, 3243, 3242], 's_3_7': [3047], 8: [167, 166, 165, 3030, 3033, 3032, 3031], 's_3_8': [765], 10: [3435, 287, 3438, 3436, 3437], 's_3_10': [3422], 's_3_13': [3287], 14: [3169, 3167, 3168], 's_3_14': [901], 15: [2973, 3122, 3272, 511, 2972, 510], 's_3_15': [3017], 17: [3497, 527, 526, 405, 406, 3151, 3152], 's_3_17': [2942], 's_3_20': [2927], 's_3_21': [3092], 's_3_3': [3004], 2: [3377, 3543, 3542, 513, 512], 's_4_2': [782], 's_4_5': [3393], 's_4_7': [3334], 's_4_9': [3288], 11: [3091, 391, 392, 482, 3407, 3406], 's_4_11': [677], 12: [3390, 768, 451, 3391, 452, 453, 3618, 3617], 's_4_12': [3453], 's_4_14': [766], 's_4_16': [3439], 's_4_4': [917], 's_5_1': [3573], 's_5_6': [3301], 's_5_7': [721], 's_5_10': [797], 's_5_11': [3467], 's_5_12': [723], 's_5_14': [691], 's_5_15': [3273], 's_5_16': [3469], 18: [420, 421, 422, 423, 409, 3679, 3678, 3677], 's_5_18': [739], 's_5_21': [3138], 's_5_5': [3603], 's_6_10': [3540], 's_6_11': [377], 's_6_12': [227], 's_6_13': [3318], 's_6_15': [556], 's_6_17': [497], 's_6_18': [3421], 's_6_19': [3526], 's_6_6': [273], 's_9_2': [3362], 's_9_7': [256], 's_9_8': [3150], 's_9_11': [632], 's_9_12': [182], 's_9_18': [3256], 's_9_20': [616], 's_9_9': [3135], 's_13_2': [663], 's_13_8': [3465], 's_13_10': [302], 's_13_11': [437], 's_13_12': [242], 's_13_14': [450], 's_13_15': [495], 's_13_17': [3061], 's_13_18': [678], 's_13_19': [3466], 's_13_21': [603], 's_13_13': [92], 's_16_7': [795], 's_16_8': [855], 's_16_14': [810], 's_16_15': [720], 's_16_17': [3196], 's_16_18': [843], 's_16_20': [3558], 's_16_21': [3123], 's_16_16': [3454], 's_19_1': [3586], 's_19_2': [3541], 's_19_7': [211], 's_19_11': [332], 's_19_12': [3616], 's_19_14': [3181, 465], 's_19_17': [301], 's_19_21': [378], 's_19_19': [3511], 's_20_2': [573], 's_20_7': [3378], 's_20_8': [375], 's_20_10': [707], 's_20_11': [3408], 's_20_12': [708], 's_20_15': [2988], 's_20_17': [2926], 's_20_21': [585], 's_20_20': [3648], 's_21_1': [3587], 's_21_7': [3182], 's_21_10': [288], 's_21_11': [483], 's_21_15': [3107], 's_21_21': [318], 's_1_2': [3512], 's_1_11': [3286], 's_1_12': [618], 's_1_17': [528], 's_1_18': [498], 's_1_1': [348], 's_7_2': [647], 's_7_11': [376], 's_7_8': [151], 's_7_7': [91], 's_8_12': [197, 3360], 's_8_17': [240], 's_8_18': [3046], 's_8_10': [152], 's_8_15': [555], 's_8_8': [3300], 's_10_2': [617], 's_10_11': [467], 's_10_17': [3496], 's_10_10': [107], 's_14_11': [435], 's_14_15': [481], 's_14_14': [871], 's_15_11': [3271], 's_15_12': [466], 's_15_15': [2971], 's_17_2': [558], 's_17_11': [270], 's_17_12': [3347], 's_17_18': [3076], 's_17_17': [3001], 's_2_12': [753], 's_2_2': [3544], 's_11_12': [3405], 's_11_11': [3090], 's_12_18': [3692], 's_12_12': [783], 's_18_18': [888]}</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0001317365269461078</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0008783433077034206</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>{0: [3154, 750, 3226, 751, 3227, 3228], 3: [543, 542, 541, 900, 2959, 2958, 2957, 540], 's_0_3': [2944], 4: [661, 662, 767, 3424, 3423], 's_0_4': [676], 5: [3468, 3302, 3303, 738, 736, 737], 's_0_5': [3183], 6: [496, 557, 3317, 3316, 271, 272], 's_0_6': [3225], 9: [346, 631, 3212, 181, 3210, 3211], 's_0_9': [436], 13: [3450, 3062, 600, 601, 3451, 3452, 3528, 602], 's_0_13': [3063], 16: [858, 857, 856, 3198, 3078, 630, 3197], 's_0_16': [3093], 19: [3376, 3166, 363, 361, 362], 's_0_19': [331], 20: [693, 692, 3348, 572, 571, 2911, 570, 2912], 's_0_20': [2913], 21: [3601, 3602, 588, 586, 587], 's_0_21': [3153], 's_0_0': [752], 1: [3572, 407, 408, 3571], 's_3_1': [3482], 's_3_6': [3332], 7: [3240, 3241, 796, 645, 646, 3243, 3242], 's_3_7': [3047], 8: [167, 166, 165, 3030, 3033, 3032, 3031], 's_3_8': [765], 10: [3435, 287, 3438, 3436, 3437], 's_3_10': [3422], 's_3_13': [3287], 14: [3169, 3167, 3168], 's_3_14': [901], 15: [2973, 3122, 3272, 511, 2972, 510], 's_3_15': [3017], 17: [3497, 527, 526, 405, 406, 3151, 3152], 's_3_17': [2942], 's_3_20': [2927], 's_3_21': [3092], 's_3_3': [3004], 2: [3377, 3543, 3542, 513, 512], 's_4_2': [782], 's_4_5': [3393], 's_4_7': [3334], 's_4_9': [3288], 11: [3091, 391, 392, 482, 3407, 3406], 's_4_11': [677], 12: [3390, 768, 451, 3391, 452, 453, 3618, 3617], 's_4_12': [3453], 's_4_14': [766], 's_4_16': [3439], 's_4_4': [917], 's_5_1': [3573], 's_5_6': [3301], 's_5_7': [721], 's_5_10': [797], 's_5_11': [3467], 's_5_12': [723], 's_5_14': [691], 's_5_15': [3273], 's_5_16': [3469], 18: [420, 421, 422, 423, 409, 3679, 3678, 3677], 's_5_18': [739], 's_5_21': [3138], 's_5_5': [3603], 's_6_10': [3540], 's_6_11': [377], 's_6_12': [227], 's_6_13': [3318], 's_6_15': [556], 's_6_17': [497], 's_6_18': [3421], 's_6_19': [3526], 's_6_6': [273], 's_9_2': [3362], 's_9_7': [256], 's_9_8': [3150], 's_9_11': [632], 's_9_12': [182], 's_9_18': [3256], 's_9_20': [616], 's_9_9': [3135], 's_13_2': [663], 's_13_8': [3465], 's_13_10': [302], 's_13_11': [437], 's_13_12': [242], 's_13_14': [450], 's_13_15': [495], 's_13_17': [3061], 's_13_18': [678], 's_13_19': [3466], 's_13_21': [603], 's_13_13': [92], 's_16_7': [795], 's_16_8': [855], 's_16_14': [810], 's_16_15': [720], 's_16_17': [3196], 's_16_18': [843], 's_16_20': [3558], 's_16_21': [3123], 's_16_16': [3454], 's_19_1': [3586], 's_19_2': [3541], 's_19_7': [211], 's_19_11': [332], 's_19_12': [3616], 's_19_14': [3181, 465], 's_19_17': [301], 's_19_21': [378], 's_19_19': [3511], 's_20_2': [573], 's_20_7': [3378], 's_20_8': [375], 's_20_10': [707], 's_20_11': [3408], 's_20_12': [708], 's_20_15': [2988], 's_20_17': [2926], 's_20_21': [585], 's_20_20': [3648], 's_21_1': [3587], 's_21_7': [3182], 's_21_10': [288], 's_21_11': [483], 's_21_15': [3107], 's_21_21': [318], 's_1_2': [3512], 's_1_11': [3286], 's_1_12': [618], 's_1_17': [528], 's_1_18': [498], 's_1_1': [348], 's_7_2': [647], 's_7_11': [376], 's_7_8': [151], 's_7_7': [91], 's_8_12': [197, 3360], 's_8_17': [240], 's_8_18': [3046], 's_8_10': [152], 's_8_15': [555], 's_8_8': [3300], 's_10_2': [617], 's_10_11': [467], 's_10_17': [3496], 's_10_10': [107], 's_14_11': [435], 's_14_15': [481], 's_14_14': [871], 's_15_11': [3271], 's_15_12': [466], 's_15_15': [2971], 's_17_2': [558], 's_17_11': [270], 's_17_12': [3347], 's_17_18': [3076], 's_17_17': [3001], 's_2_12': [753], 's_2_2': [3544], 's_11_12': [3405], 's_11_11': [3090], 's_12_18': [3692], 's_12_12': [783], 's_18_18': [888]}</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0001317365269461078</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0008783433077034206</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>{0: [4589, 4588], 1: [4542, 2409, 2408], 4: [2574, 4692, 4693], 8: [4768, 2498, 2499], 12: [2380, 2379, 4648, 4647], 13: [4527, 2513, 4528], 14: [4557, 2544, 4558], 17: [4783, 2453, 2454], 18: [2423, 4603], 19: [2394, 4573], 21: [2529, 2530], 6: [2424, 4798, 2545], 7: [2364, 4708, 4707], 9: [2604, 4827, 4828], 10: [4662, 4663], 15: [2515, 4633, 4753, 2514], 16: [4543, 2559], 5: [2439, 2438], 20: [4604, 2649, 4738, 4739], 2: [4619, 4617, 4618], 3: [2603, 4513], 11: [4723, 2484, 2483], 22: [2468, 2470, 2469]}</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.02452619843924192</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.02892111877608216</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>{0: [4589, 4588], 1: [4542, 2409, 2408], 4: [2574, 4692, 4693], 8: [4768, 2498, 2499], 12: [2380, 2379, 4648, 4647], 13: [4527, 2513, 4528], 14: [4557, 2544, 4558], 17: [4783, 2453, 2454], 18: [2423, 4603], 19: [2394, 4573], 21: [2529, 2530], 6: [2424, 4798, 2545], 7: [2364, 4708, 4707], 9: [2604, 4827, 4828], 10: [4662, 4663], 15: [2515, 4633, 4753, 2514], 16: [4543, 2559], 5: [2439, 2438], 20: [4604, 2649, 4738, 4739], 2: [4619, 4617, 4618], 3: [2603, 4513], 11: [4723, 2484, 2483], 22: [2468, 2470, 2469]}</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0.02452619843924192</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.02892111877608216</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.261</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>{0: [4238, 4237, 965, 966, 4235, 1207, 4236], 1: [4220, 1464, 1463, 4221, 1462, 4222], 's_0_1': [981, 4144], 4: [1104, 1103, 1102, 4102, 4101, 4100, 1101], 's_0_4': [4025], 8: [4357, 4147, 1386, 4116, 1357, 1356], 's_0_8': [1506], 12: [4595, 4597, 4596, 1326, 1327, 1328], 's_0_12': [1341], 13: [1041, 4309, 1042], 's_0_13': [4084], 14: [3981, 1340, 4042, 4282, 1446, 1447], 's_0_14': [1492], 17: [4461, 4460, 1088, 4190, 1087, 4265, 4266], 's_0_17': [4189], 18: [4354, 1314, 1313, 997, 4356, 4355], 's_0_18': [1027], 19: [4073, 1370, 4072, 4146, 1312, 1311], 's_0_19': [4326], 21: [1193, 4296, 4295, 1192], 's_0_21': [1057], 's_0_0': [1642], 6: [4716, 4253, 4252, 4251, 1222, 4670, 1224, 1223], 's_1_6': [1161], 7: [1116, 1117, 4505, 1388, 4432, 4431, 1118], 's_1_7': [4507], 's_1_8': [4207], 9: [4581, 4583, 1343, 4582], 's_1_9': [4567], 10: [3966, 1419, 1418, 1417, 1416, 1415, 3967], 's_1_10': [4687], 's_1_12': [4612], 's_1_13': [952], 's_1_14': [1461], 15: [1266, 4205, 4206, 1269, 1268, 1267], 's_1_15': [1176], 16: [1175, 4071, 1013, 1012, 1011, 1010, 4010, 1145], 's_1_16': [1146], 's_1_17': [1056], 's_1_19': [1431], 's_1_1': [4702], 5: [1295, 3996, 1296, 4476, 1299, 1298, 1297], 's_4_5': [1190], 's_4_6': [4640], 's_4_7': [4130], 's_4_8': [1251], 's_4_10': [1505], 's_4_14': [4086], 's_4_15': [1221], 's_4_16': [4565], 's_4_19': [1491], 20: [1043, 1148, 1089, 4551, 4550], 's_4_20': [4520], 's_4_21': [4490], 's_4_4': [4685], 2: [1220, 1283, 1282, 4026, 1281], 's_8_2': [1235, 1236], 3: [4462, 4536, 1523, 1432, 1433, 4537], 's_8_3': [4372], 's_8_7': [4115], 's_8_10': [1385], 11: [1521, 1522, 4342, 1147, 4340, 4341], 's_8_11': [1507], 's_8_15': [4131], 's_8_17': [4446], 's_8_21': [1372], 's_8_8': [4148], 's_12_3': [1358], 's_12_5': [1373], 's_12_6': [4626, 1239], 's_12_7': [998], 's_12_9': [1178], 's_12_10': [1325], 's_12_15': [4611], 's_12_16': [4610], 's_12_17': [1342], 's_12_18': [953, 4489, 968], 's_12_19': [4191], 's_12_21': [4371], 22: [4672, 1449, 1448, 4385, 4386, 4388, 4387], 's_12_22': [4402], 's_12_12': [983], 's_13_11': [4310], 's_13_15': [4114, 936, 937], 's_13_16': [1040], 's_13_17': [4175], 's_13_18': [982], 's_13_22': [967], 's_13_13': [922], 's_14_2': [1280], 's_14_3': [4327], 's_14_5': [1250], 's_14_6': [1551], 's_14_16': [3980], 's_14_19': [4012], 's_14_22': [1567], 's_14_14': [1430], 's_17_2': [4281], 's_17_3': [4267], 's_17_5': [4475], 's_17_7': [1073], 's_17_15': [1071], 's_17_18': [4415], 's_17_19': [1371], 's_17_21': [1177], 's_17_17': [1026], 's_18_2': [4521], 's_18_5': [4656], 's_18_6': [4701], 's_18_11': [1237], 's_18_15': [4686], 's_18_20': [4459], 's_18_21': [4294], 's_18_22': [938], 's_18_18': [4369], 's_19_2': [4176], 's_19_5': [3997], 's_19_10': [3982], 's_19_11': [1520], 's_19_21': [4311], 's_19_19': [1641], 's_21_6': [1194], 's_21_7': [4445], 's_21_9': [4506], 's_21_11': [1072], 's_21_20': [4625], 's_21_21': [1252], 's_6_7': [4401], 's_6_9': [1119], 's_6_10': [4717], 's_6_20': [1149], 's_6_22': [1597], 's_6_6': [1179], 's_7_2': [4041], 's_7_5': [1403], 's_7_9': [1208], 's_7_10': [4522], 's_7_11': [4433], 's_7_16': [3995], 's_7_22': [1133], 's_7_7': [1389], 's_9_3': [1494], 's_9_15': [4641], 's_9_20': [4580], 's_9_22': [1479], 's_9_9': [1629], 's_10_5': [4417], 's_10_11': [4132], 's_10_16': [3965], 's_10_22': [4627], 's_10_10': [1420], 's_15_2': [4011], 's_15_3': [1284], 's_15_11': [1132], 's_15_16': [996], 's_15_20': [4566], 's_15_22': [4671], 's_15_15': [1265], 's_16_2': [4056], 's_16_5': [3950, 1205], 's_16_11': [4325], 's_16_20': [4474], 's_16_22': [4400], 's_16_16': [4055], 's_5_2': [4491], 's_5_3': [1238], 's_5_20': [1253], 's_5_5': [4477, 1568], 's_20_11': [1163, 1162], 's_20_3': [4535], 's_20_20': [1044], 's_2_11': [4416], 's_2_2': [3891], 's_3_11': [4447], 's_3_22': [4492], 's_3_3': [4538], 's_11_22': [4403], 's_11_11': [4339], 's_22_22': [1539]}</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0001340782122905028</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0009251504600886906</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>{0: [4238, 4237, 965, 966, 4235, 1207, 4236], 1: [4220, 1464, 1463, 4221, 1462, 4222], 's_0_1': [981, 4144], 4: [1104, 1103, 1102, 4102, 4101, 4100, 1101], 's_0_4': [4025], 8: [4357, 4147, 1386, 4116, 1357, 1356], 's_0_8': [1506], 12: [4595, 4597, 4596, 1326, 1327, 1328], 's_0_12': [1341], 13: [1041, 4309, 1042], 's_0_13': [4084], 14: [3981, 1340, 4042, 4282, 1446, 1447], 's_0_14': [1492], 17: [4461, 4460, 1088, 4190, 1087, 4265, 4266], 's_0_17': [4189], 18: [4354, 1314, 1313, 997, 4356, 4355], 's_0_18': [1027], 19: [4073, 1370, 4072, 4146, 1312, 1311], 's_0_19': [4326], 21: [1193, 4296, 4295, 1192], 's_0_21': [1057], 's_0_0': [1642], 6: [4716, 4253, 4252, 4251, 1222, 4670, 1224, 1223], 's_1_6': [1161], 7: [1116, 1117, 4505, 1388, 4432, 4431, 1118], 's_1_7': [4507], 's_1_8': [4207], 9: [4581, 4583, 1343, 4582], 's_1_9': [4567], 10: [3966, 1419, 1418, 1417, 1416, 1415, 3967], 's_1_10': [4687], 's_1_12': [4612], 's_1_13': [952], 's_1_14': [1461], 15: [1266, 4205, 4206, 1269, 1268, 1267], 's_1_15': [1176], 16: [1175, 4071, 1013, 1012, 1011, 1010, 4010, 1145], 's_1_16': [1146], 's_1_17': [1056], 's_1_19': [1431], 's_1_1': [4702], 5: [1295, 3996, 1296, 4476, 1299, 1298, 1297], 's_4_5': [1190], 's_4_6': [4640], 's_4_7': [4130], 's_4_8': [1251], 's_4_10': [1505], 's_4_14': [4086], 's_4_15': [1221], 's_4_16': [4565], 's_4_19': [1491], 20: [1043, 1148, 1089, 4551, 4550], 's_4_20': [4520], 's_4_21': [4490], 's_4_4': [4685], 2: [1220, 1283, 1282, 4026, 1281], 's_8_2': [1235, 1236], 3: [4462, 4536, 1523, 1432, 1433, 4537], 's_8_3': [4372], 's_8_7': [4115], 's_8_10': [1385], 11: [1521, 1522, 4342, 1147, 4340, 4341], 's_8_11': [1507], 's_8_15': [4131], 's_8_17': [4446], 's_8_21': [1372], 's_8_8': [4148], 's_12_3': [1358], 's_12_5': [1373], 's_12_6': [4626, 1239], 's_12_7': [998], 's_12_9': [1178], 's_12_10': [1325], 's_12_15': [4611], 's_12_16': [4610], 's_12_17': [1342], 's_12_18': [953, 4489, 968], 's_12_19': [4191], 's_12_21': [4371], 22: [4672, 1449, 1448, 4385, 4386, 4388, 4387], 's_12_22': [4402], 's_12_12': [983], 's_13_11': [4310], 's_13_15': [4114, 936, 937], 's_13_16': [1040], 's_13_17': [4175], 's_13_18': [982], 's_13_22': [967], 's_13_13': [922], 's_14_2': [1280], 's_14_3': [4327], 's_14_5': [1250], 's_14_6': [1551], 's_14_16': [3980], 's_14_19': [4012], 's_14_22': [1567], 's_14_14': [1430], 's_17_2': [4281], 's_17_3': [4267], 's_17_5': [4475], 's_17_7': [1073], 's_17_15': [1071], 's_17_18': [4415], 's_17_19': [1371], 's_17_21': [1177], 's_17_17': [1026], 's_18_2': [4521], 's_18_5': [4656], 's_18_6': [4701], 's_18_11': [1237], 's_18_15': [4686], 's_18_20': [4459], 's_18_21': [4294], 's_18_22': [938], 's_18_18': [4369], 's_19_2': [4176], 's_19_5': [3997], 's_19_10': [3982], 's_19_11': [1520], 's_19_21': [4311], 's_19_19': [1641], 's_21_6': [1194], 's_21_7': [4445], 's_21_9': [4506], 's_21_11': [1072], 's_21_20': [4625], 's_21_21': [1252], 's_6_7': [4401], 's_6_9': [1119], 's_6_10': [4717], 's_6_20': [1149], 's_6_22': [1597], 's_6_6': [1179], 's_7_2': [4041], 's_7_5': [1403], 's_7_9': [1208], 's_7_10': [4522], 's_7_11': [4433], 's_7_16': [3995], 's_7_22': [1133], 's_7_7': [1389], 's_9_3': [1494], 's_9_15': [4641], 's_9_20': [4580], 's_9_22': [1479], 's_9_9': [1629], 's_10_5': [4417], 's_10_11': [4132], 's_10_16': [3965], 's_10_22': [4627], 's_10_10': [1420], 's_15_2': [4011], 's_15_3': [1284], 's_15_11': [1132], 's_15_16': [996], 's_15_20': [4566], 's_15_22': [4671], 's_15_15': [1265], 's_16_2': [4056], 's_16_5': [3950, 1205], 's_16_11': [4325], 's_16_20': [4474], 's_16_22': [4400], 's_16_16': [4055], 's_5_2': [4491], 's_5_3': [1238], 's_5_20': [1253], 's_5_5': [4477, 1568], 's_20_11': [1163, 1162], 's_20_3': [4535], 's_20_20': [1044], 's_2_11': [4416], 's_2_2': [3891], 's_3_11': [4447], 's_3_22': [4492], 's_3_3': [4538], 's_11_22': [4403], 's_11_11': [4339], 's_22_22': [1539]}</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0001340782122905028</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.0009251504600886906</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>{0: [3953, 3954], 2: [1684, 1685], 5: [1925, 3938, 3939], 6: [3850, 1670, 3849], 8: [1715, 1714], 11: [3984, 1835], 14: [3969, 1640, 3968], 16: [1789, 1790], 17: [1820, 3864], 19: [4030, 4029, 1744, 1745], 20: [1774, 1775], 22: [3865, 1849, 1850], 3: [3758, 1924, 1909, 3759], 7: [3773, 1729], 10: [1940, 3894, 3895], 12: [1699], 13: [3908, 3909], 15: [3880, 1655, 3879], 18: [1864, 3833, 3834], 21: [4044, 1759, 1760], 4: [4014, 1879, 1880], 9: [3820, 1805, 3819], 23: [3804, 3803], 1: [3923, 3924]}</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.01989489489489489</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0253315808090135</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>{0: [3953, 3954], 2: [1684, 1685], 5: [1925, 3938, 3939], 6: [3850, 1670, 3849], 8: [1715, 1714], 11: [3984, 1835], 14: [3969, 1640, 3968], 16: [1789, 1790], 17: [1820, 3864], 19: [4030, 4029, 1744, 1745], 20: [1774, 1775], 22: [3865, 1849, 1850], 3: [3758, 1924, 1909, 3759], 7: [3773, 1729], 10: [1940, 3894, 3895], 12: [1699], 13: [3908, 3909], 15: [3880, 1655, 3879], 18: [1864, 3833, 3834], 21: [4044, 1759, 1760], 4: [4014, 1879, 1880], 9: [3820, 1805, 3819], 23: [3804, 3803], 1: [3923, 3924]}</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0.01989489489489489</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.0253315808090135</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>{0: [5485, 1873, 5421, 5422, 5423, 5424], 2: [5575, 1841, 1842, 5573, 5574, 1844, 1843], 's_0_2': [1994], 5: [5529, 1422, 1423, 5528, 5527, 1424], 's_0_5': [1438], 6: [1797, 5318, 5320, 1799, 1798, 5319], 's_0_6': [1978], 8: [1918, 5650, 5426, 5425, 1964, 1962, 1963], 's_0_8': [1874], 11: [5166, 5167, 5168, 1933, 1932, 5169], 's_0_11': [5470], 14: [5332, 1453, 5407, 5408, 1993, 5410, 5409], 's_0_14': [1303], 16: [5078, 5228, 1706, 5453, 1708, 1707], 's_0_16': [1573], 17: [5287, 1724, 1723, 5288, 5289, 1721, 5334, 1722], 's_0_17': [1648], 19: [5440, 5391, 5441, 5439, 5393, 5392, 1768], 's_0_19': [1333], 20: [5497, 5246, 5245, 1363, 1362, 5242, 5244, 5243], 's_0_20': [1378], 22: [5139, 1394, 1393, 5138, 5137, 5196, 1392], 's_0_22': [1272, 1273], 's_0_0': [1228], 3: [5605, 5272, 5273, 5274, 2024, 2023, 5275], 's_2_3': [5515, 1979], 's_2_5': [1604], 7: [2173, 2174, 2172, 5498, 5501, 5499, 5500], 's_2_7': [1634], 10: [5556, 5557, 5558, 5559, 5560, 2112, 2113, 2114], 's_2_10': [5572], 12: [2249, 5636, 5590, 5634, 5635, 1934], 's_2_12': [2039], 13: [5107, 5108, 5109, 1827, 1828, 1829, 5544], 's_2_13': [5110], 's_2_14': [1858, 1857], 15: [5513, 1889, 5348, 1617, 5604, 5603, 1619, 1618], 's_2_15': [1784], 's_2_17': [5049], 18: [5381, 5380, 1497, 5197, 5198, 1767, 5379, 1813, 5304], 's_2_18': [5199], 's_2_19': [1859], 21: [1754, 1753, 1752, 2127, 5185, 5184, 5183], 's_2_21': [5079, 1812], 's_2_2': [5004], 's_5_3': [1437], 's_5_8': [5530], 's_5_10': [1574], 's_5_13': [1421], 's_5_14': [1454], 's_5_16': [5543], 's_5_19': [1528], 's_5_20': [5512], 's_5_21': [1769], 's_5_5': [5542], 's_6_3': [1917], 4: [5214, 2067, 5366, 5363, 1887, 5364, 5365], 's_6_4': [2008], 's_6_7': [1814, 5469], 's_6_8': [1948], 9: [5156, 1632, 5153, 5154, 1947, 5155], 's_6_9': [1901, 1902], 's_6_10': [5321], 's_6_11': [1782], 's_6_12': [5589], 's_6_14': [1663], 's_6_16': [5454], 's_6_17': [5664], 's_6_18': [1542], 's_6_19': [1498], 's_6_6': [5514], 's_8_3': [5350], 's_8_4': [2203], 's_8_7': [2053], 's_8_9': [5140], 's_8_10': [1904], 's_8_11': [5170], 's_8_14': [5395], 's_8_15': [5665], 's_8_19': [2143], 's_8_21': [5200], 23: [2339, 5502, 2247, 2248], 's_8_23': [5411], 's_8_8': [2188], 's_11_4': [5335], 's_11_9': [5260], 's_11_13': [1376], 's_11_14': [5290], 's_11_16': [1662], 's_11_17': [1587], 's_11_18': [1467], 's_11_19': [5455], 's_11_21': [1916], 's_11_22': [5181], 's_11_11': [1242], 's_14_4': [5362], 's_14_13': [1452], 's_14_16': [1693], 's_14_18': [2068], 's_14_19': [1888], 's_14_20': [1992], 's_14_22': [1347], 's_14_14': [5377], 1: [1586, 1484, 5212, 1483, 1482, 5123], 's_16_1': [5063], 's_16_3': [5258], 's_16_4': [1603], 's_16_15': [1709], 's_16_17': [5018], 's_16_19': [1558], 's_16_20': [1602], 's_16_21': [1691], 's_16_16': [1705], 's_17_1': [5124], 's_17_7': [1738], 's_17_10': [1739], 's_17_12': [5619], 's_17_18': [5303], 's_17_19': [1318], 's_17_20': [1407], 's_17_21': [1736], 's_17_22': [1332], 's_17_17': [5679], 's_19_3': [2009], 's_19_4': [1783], 's_19_13': [1903], 's_19_15': [5438], 's_19_18': [2233], 's_19_20': [5376], 's_19_21': [2128], 's_19_23': [2219], 's_19_19': [5442], 's_20_3': [1377], 's_20_4': [1872], 's_20_9': [2157], 's_20_18': [5227], 's_20_23': [5231], 's_20_20': [1364], 's_22_1': [5211], 's_22_3': [5257], 's_22_10': [1409], 's_22_13': [1391], 's_22_15': [5602, 5587], 's_22_18': [1511, 5092], 's_22_22': [5361], 's_3_1': [1557], 's_3_4': [5336], 's_3_7': [5291], 's_3_9': [1977], 's_3_10': [5516], 's_3_12': [5606], 's_3_18': [2038], 's_3_21': [2022], 's_3_3': [2069], 's_7_1': [1499], 's_7_9': [2187], 's_7_12': [2159], 's_7_18': [5396], 's_7_21': [5261], 's_7_7': [5081], 's_10_9': [5141], 's_10_13': [5545], 's_10_21': [5306], 's_10_10': [5555], 's_12_13': [1949], 's_12_15': [5633], 's_12_23': [5667], 's_12_12': [5697], 's_13_1': [1556], 's_13_4': [5259], 's_13_15': [1616], 's_13_21': [1751], 's_13_13': [1796], 's_15_1': [5333], 's_15_9': [1633], 's_15_4': [1678], 's_15_18': [1737, 5229], 's_15_15': [5618], 's_18_1': [5182], 's_18_9': [5305], 's_18_23': [2278], 's_18_18': [2218], 's_21_9': [2051], 's_21_4': [2066], 's_21_21': [5186], 's_4_9': [5230, 2007], 's_4_23': [5351], 's_4_4': [2232], 's_9_1': [1647], 's_9_9': [5093], 's_23_23': [5307], 's_1_1': [4958]}</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>8.854166666666665e-05</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0007124383196986248</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>{0: [5485, 1873, 5421, 5422, 5423, 5424], 2: [5575, 1841, 1842, 5573, 5574, 1844, 1843], 's_0_2': [1994], 5: [5529, 1422, 1423, 5528, 5527, 1424], 's_0_5': [1438], 6: [1797, 5318, 5320, 1799, 1798, 5319], 's_0_6': [1978], 8: [1918, 5650, 5426, 5425, 1964, 1962, 1963], 's_0_8': [1874], 11: [5166, 5167, 5168, 1933, 1932, 5169], 's_0_11': [5470], 14: [5332, 1453, 5407, 5408, 1993, 5410, 5409], 's_0_14': [1303], 16: [5078, 5228, 1706, 5453, 1708, 1707], 's_0_16': [1573], 17: [5287, 1724, 1723, 5288, 5289, 1721, 5334, 1722], 's_0_17': [1648], 19: [5440, 5391, 5441, 5439, 5393, 5392, 1768], 's_0_19': [1333], 20: [5497, 5246, 5245, 1363, 1362, 5242, 5244, 5243], 's_0_20': [1378], 22: [5139, 1394, 1393, 5138, 5137, 5196, 1392], 's_0_22': [1272, 1273], 's_0_0': [1228], 3: [5605, 5272, 5273, 5274, 2024, 2023, 5275], 's_2_3': [5515, 1979], 's_2_5': [1604], 7: [2173, 2174, 2172, 5498, 5501, 5499, 5500], 's_2_7': [1634], 10: [5556, 5557, 5558, 5559, 5560, 2112, 2113, 2114], 's_2_10': [5572], 12: [2249, 5636, 5590, 5634, 5635, 1934], 's_2_12': [2039], 13: [5107, 5108, 5109, 1827, 1828, 1829, 5544], 's_2_13': [5110], 's_2_14': [1858, 1857], 15: [5513, 1889, 5348, 1617, 5604, 5603, 1619, 1618], 's_2_15': [1784], 's_2_17': [5049], 18: [5381, 5380, 1497, 5197, 5198, 1767, 5379, 1813, 5304], 's_2_18': [5199], 's_2_19': [1859], 21: [1754, 1753, 1752, 2127, 5185, 5184, 5183], 's_2_21': [5079, 1812], 's_2_2': [5004], 's_5_3': [1437], 's_5_8': [5530], 's_5_10': [1574], 's_5_13': [1421], 's_5_14': [1454], 's_5_16': [5543], 's_5_19': [1528], 's_5_20': [5512], 's_5_21': [1769], 's_5_5': [5542], 's_6_3': [1917], 4: [5214, 2067, 5366, 5363, 1887, 5364, 5365], 's_6_4': [2008], 's_6_7': [1814, 5469], 's_6_8': [1948], 9: [5156, 1632, 5153, 5154, 1947, 5155], 's_6_9': [1901, 1902], 's_6_10': [5321], 's_6_11': [1782], 's_6_12': [5589], 's_6_14': [1663], 's_6_16': [5454], 's_6_17': [5664], 's_6_18': [1542], 's_6_19': [1498], 's_6_6': [5514], 's_8_3': [5350], 's_8_4': [2203], 's_8_7': [2053], 's_8_9': [5140], 's_8_10': [1904], 's_8_11': [5170], 's_8_14': [5395], 's_8_15': [5665], 's_8_19': [2143], 's_8_21': [5200], 23: [2339, 5502, 2247, 2248], 's_8_23': [5411], 's_8_8': [2188], 's_11_4': [5335], 's_11_9': [5260], 's_11_13': [1376], 's_11_14': [5290], 's_11_16': [1662], 's_11_17': [1587], 's_11_18': [1467], 's_11_19': [5455], 's_11_21': [1916], 's_11_22': [5181], 's_11_11': [1242], 's_14_4': [5362], 's_14_13': [1452], 's_14_16': [1693], 's_14_18': [2068], 's_14_19': [1888], 's_14_20': [1992], 's_14_22': [1347], 's_14_14': [5377], 1: [1586, 1484, 5212, 1483, 1482, 5123], 's_16_1': [5063], 's_16_3': [5258], 's_16_4': [1603], 's_16_15': [1709], 's_16_17': [5018], 's_16_19': [1558], 's_16_20': [1602], 's_16_21': [1691], 's_16_16': [1705], 's_17_1': [5124], 's_17_7': [1738], 's_17_10': [1739], 's_17_12': [5619], 's_17_18': [5303], 's_17_19': [1318], 's_17_20': [1407], 's_17_21': [1736], 's_17_22': [1332], 's_17_17': [5679], 's_19_3': [2009], 's_19_4': [1783], 's_19_13': [1903], 's_19_15': [5438], 's_19_18': [2233], 's_19_20': [5376], 's_19_21': [2128], 's_19_23': [2219], 's_19_19': [5442], 's_20_3': [1377], 's_20_4': [1872], 's_20_9': [2157], 's_20_18': [5227], 's_20_23': [5231], 's_20_20': [1364], 's_22_1': [5211], 's_22_3': [5257], 's_22_10': [1409], 's_22_13': [1391], 's_22_15': [5602, 5587], 's_22_18': [1511, 5092], 's_22_22': [5361], 's_3_1': [1557], 's_3_4': [5336], 's_3_7': [5291], 's_3_9': [1977], 's_3_10': [5516], 's_3_12': [5606], 's_3_18': [2038], 's_3_21': [2022], 's_3_3': [2069], 's_7_1': [1499], 's_7_9': [2187], 's_7_12': [2159], 's_7_18': [5396], 's_7_21': [5261], 's_7_7': [5081], 's_10_9': [5141], 's_10_13': [5545], 's_10_21': [5306], 's_10_10': [5555], 's_12_13': [1949], 's_12_15': [5633], 's_12_23': [5667], 's_12_12': [5697], 's_13_1': [1556], 's_13_4': [5259], 's_13_15': [1616], 's_13_21': [1751], 's_13_13': [1796], 's_15_1': [5333], 's_15_9': [1633], 's_15_4': [1678], 's_15_18': [1737, 5229], 's_15_15': [5618], 's_18_1': [5182], 's_18_9': [5305], 's_18_23': [2278], 's_18_18': [2218], 's_21_9': [2051], 's_21_4': [2066], 's_21_21': [5186], 's_4_9': [5230, 2007], 's_4_23': [5351], 's_4_4': [2232], 's_9_1': [1647], 's_9_9': [5093], 's_23_23': [5307], 's_1_1': [4958]}</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>8.854166666666665e-05</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.0007124383196986248</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>{0: [1325, 3982, 3981], 3: [1354, 3997, 1355], 4: [4041, 3891, 1236, 1235], 8: [1506, 1505], 9: [4087, 4086], 14: [4027, 1310, 1311], 15: [1295, 1296], 16: [3952, 1340, 3951], 17: [1251, 4057, 4056], 18: [1520, 3966, 3967], 21: [1415, 4042], 22: [3906, 1266, 1265], 23: [3921, 1460, 3922], 1: [1401, 3877, 1400], 2: [3937, 1431, 1430], 5: [1250, 4012, 4011], 7: [3817, 1280, 3816], 10: [4071, 1416, 4072], 11: [1371, 1370, 3936], 13: [1475, 4146, 1476, 4147], 20: [1385, 1386], 12: [1461, 4116, 4117], 19: [4102, 4101], 24: [1446, 1445, 3892], 6: [4132, 1281, 4131]}</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.01829652996845426</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.02231691201961807</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>{0: [1325, 3982, 3981], 3: [1354, 3997, 1355], 4: [4041, 3891, 1236, 1235], 8: [1506, 1505], 9: [4087, 4086], 14: [4027, 1310, 1311], 15: [1295, 1296], 16: [3952, 1340, 3951], 17: [1251, 4057, 4056], 18: [1520, 3966, 3967], 21: [1415, 4042], 22: [3906, 1266, 1265], 23: [3921, 1460, 3922], 1: [1401, 3877, 1400], 2: [3937, 1431, 1430], 5: [1250, 4012, 4011], 7: [3817, 1280, 3816], 10: [4071, 1416, 4072], 11: [1371, 1370, 3936], 13: [1475, 4146, 1476, 4147], 20: [1385, 1386], 12: [1461, 4116, 4117], 19: [4102, 4101], 24: [1446, 1445, 3892], 6: [4132, 1281, 4131]}</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0.01829652996845426</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.02231691201961807</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>{0: [3632, 3633, 3335, 3334, 769, 3319, 767, 768], 3: [3572, 3573, 1171, 783, 1172, 1173, 3725, 3723, 3724], 's_0_3': [739], 4: [3426, 466, 3425, 467, 3424, 3422, 3423], 's_0_4': [887], 8: [3666, 3665, 678, 3663, 3664], 's_0_8': [3679], 9: [3093, 3094, 3800, 3095, 1099, 1098, 1097, 1096], 's_0_9': [766], 14: [3322, 1007, 1006, 990, 991, 3321, 3320], 's_0_14': [961], 15: [3376, 3377, 3381, 3380, 3379, 3378, 751, 752], 's_0_15': [796], 16: [3651, 481, 482, 3650, 3649, 3647, 3648, 483], 's_0_16': [663], 17: [3394, 3259, 3754, 919, 916, 917, 918], 's_0_17': [3709], 18: [1247, 3487, 3618, 3619, 3486, 3485, 948], 's_0_18': [798], 21: [3722, 3333, 585, 3708, 3437, 589, 586, 587, 588], 's_0_21': [574], 22: [3410, 3350, 3455, 1067, 3214, 3215, 1066], 's_0_22': [886], 23: [3364, 872, 558, 3452, 3453, 3454], 's_0_23': [3468], 's_0_0': [544], 1: [3154, 1024, 1023, 3156, 3155, 1020, 1021, 1022], 's_3_1': [1170], 2: [648, 647, 646, 3034, 3033, 645, 3032], 's_3_2': [3587], 5: [707, 709, 810, 708, 811, 3544, 3543, 812], 's_3_5': [3738], 7: [3351, 3291, 1264, 1263, 1262], 's_3_7': [3726], 's_3_8': [993], 's_3_9': [1069], 10: [3513, 3365, 3514, 3590, 3515, 1052, 1053], 's_3_10': [1188], 11: [1141, 1337, 1336, 3246, 3245, 511, 3242, 3243, 3244], 's_3_11': [3456], 13: [1203, 3469, 3470, 1201, 1202, 3471], 's_3_13': [3501], 's_3_14': [1008], 's_3_16': [3571], 's_3_18': [949], 20: [840, 3182, 843, 3183, 842, 841], 's_3_20': [844], 's_3_21': [618], 's_3_23': [543], 's_3_3': [1174], 's_4_5': [797], 's_4_7': [3441], 's_4_10': [782], 's_4_11': [3317], 12: [513, 3557, 825, 3124, 617, 616, 615, 3123], 's_4_12': [3556], 's_4_16': [3347], 's_4_17': [902], 19: [934, 3289, 933, 1051, 3305, 932], 's_4_19': [3439], 's_4_21': [542], 's_4_22': [1157], 's_4_23': [452], 24: [3109, 3110, 1113, 1112, 1111], 's_4_24': [1127], 's_4_4': [3332], 's_8_2': [3603], 's_8_5': [3678], 's_8_9': [1129], 's_8_12': [3662], 's_8_13': [3681], 's_8_16': [1248], 's_8_18': [813], 's_8_8': [679], 's_9_1': [3785], 6: [736, 3198, 3200, 975, 3199], 's_9_6': [3140], 's_9_10': [1054], 's_9_11': [1140], 's_9_12': [675], 's_9_13': [3740, 1204], 's_9_14': [3125], 's_9_16': [1144, 1143], 's_9_17': [3755], 's_9_19': [1050], 's_9_20': [630], 's_9_22': [1065], 's_9_24': [1035], 's_9_9': [3801, 1219], 's_14_1': [3065], 's_14_2': [3049], 's_14_5': [992], 's_14_6': [1036], 's_14_7': [1292], 's_14_10': [3530], 's_14_11': [1246], 's_14_13': [1216], 's_14_15': [1351], 's_14_22': [3290], 's_14_14': [3323], 's_15_1': [1037], 's_15_5': [3169], 's_15_6': [3228], 's_15_7': [1277], 's_15_10': [3366], 's_15_12': [3362], 's_15_16': [3361], 's_15_17': [3349], 's_15_19': [3288], 's_15_23': [692], 's_15_24': [3108], 's_15_15': [421], 's_16_1': [3635], 's_16_7': [3636], 's_16_10': [693], 's_16_11': [3227, 3226], 's_16_17': [3634], 's_16_19': [873, 3604], 's_16_20': [3181], 's_16_21': [3257], 's_16_23': [497], 's_16_16': [3391], 's_17_1': [3739], 's_17_5': [3753], 's_17_6': [3184], 's_17_10': [3575, 3574], 's_17_12': [3139], 's_17_19': [856], 's_17_20': [3484], 's_17_22': [3229], 's_17_17': [994], 's_18_1': [3559], 's_18_2': [633], 's_18_5': [723], 's_18_7': [1232], 's_18_11': [1322], 's_18_13': [1278], 's_18_19': [3500], 's_18_22': [1217], 's_18_23': [753], 's_18_24': [3620], 's_18_18': [1397], 's_21_2': [570], 's_21_5': [694], 's_21_10': [573], 's_21_11': [3272], 's_21_12': [3107], 's_21_20': [571], 's_21_23': [512], 's_21_21': [3767], 's_22_1': [1126], 's_22_6': [946], 's_22_7': [3411], 's_22_10': [1068], 's_22_11': [3260], 's_22_13': [1187], 's_22_19': [976], 's_22_23': [947], 's_22_22': [3230], 's_23_1': [3409], 's_23_5': [3542], 's_23_12': [3467], 's_23_20': [857, 3363], 's_23_23': [738], 's_1_2': [2975, 945], 's_1_5': [1038], 's_1_13': [3171], 's_1_19': [3695], 's_1_20': [780], 's_1_1': [931], 's_2_6': [3168], 's_2_11': [631], 's_2_12': [3153], 's_2_2': [765], 's_5_6': [3213], 's_5_12': [3558], 's_5_13': [977], 's_5_20': [3079], 's_5_24': [3545], 's_5_5': [3858], 's_7_11': [3396], 's_7_24': [3531], 's_7_7': [3756], 's_10_13': [1083], 's_10_19': [3680], 's_10_20': [858], 's_10_11': [1186], 's_10_12': [3529, 3528], 's_10_24': [3516], 's_10_10': [827], 's_11_13': [3336], 's_11_19': [871], 's_11_12': [721], 's_11_11': [496, 495], 's_13_6': [3185], 's_13_24': [3560], 's_13_13': [1200], 's_20_6': [691], 's_20_12': [3048], 's_20_24': [855], 's_20_20': [676], 's_12_24': [870], 's_12_12': [514], 's_19_6': [3170], 's_19_19': [935], 's_24_6': [1155], 's_24_24': [3126], 's_6_6': [3201]}</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>8.173076923076923e-05</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.000621495351465714</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>{0: [3632, 3633, 3335, 3334, 769, 3319, 767, 768], 3: [3572, 3573, 1171, 783, 1172, 1173, 3725, 3723, 3724], 's_0_3': [739], 4: [3426, 466, 3425, 467, 3424, 3422, 3423], 's_0_4': [887], 8: [3666, 3665, 678, 3663, 3664], 's_0_8': [3679], 9: [3093, 3094, 3800, 3095, 1099, 1098, 1097, 1096], 's_0_9': [766], 14: [3322, 1007, 1006, 990, 991, 3321, 3320], 's_0_14': [961], 15: [3376, 3377, 3381, 3380, 3379, 3378, 751, 752], 's_0_15': [796], 16: [3651, 481, 482, 3650, 3649, 3647, 3648, 483], 's_0_16': [663], 17: [3394, 3259, 3754, 919, 916, 917, 918], 's_0_17': [3709], 18: [1247, 3487, 3618, 3619, 3486, 3485, 948], 's_0_18': [798], 21: [3722, 3333, 585, 3708, 3437, 589, 586, 587, 588], 's_0_21': [574], 22: [3410, 3350, 3455, 1067, 3214, 3215, 1066], 's_0_22': [886], 23: [3364, 872, 558, 3452, 3453, 3454], 's_0_23': [3468], 's_0_0': [544], 1: [3154, 1024, 1023, 3156, 3155, 1020, 1021, 1022], 's_3_1': [1170], 2: [648, 647, 646, 3034, 3033, 645, 3032], 's_3_2': [3587], 5: [707, 709, 810, 708, 811, 3544, 3543, 812], 's_3_5': [3738], 7: [3351, 3291, 1264, 1263, 1262], 's_3_7': [3726], 's_3_8': [993], 's_3_9': [1069], 10: [3513, 3365, 3514, 3590, 3515, 1052, 1053], 's_3_10': [1188], 11: [1141, 1337, 1336, 3246, 3245, 511, 3242, 3243, 3244], 's_3_11': [3456], 13: [1203, 3469, 3470, 1201, 1202, 3471], 's_3_13': [3501], 's_3_14': [1008], 's_3_16': [3571], 's_3_18': [949], 20: [840, 3182, 843, 3183, 842, 841], 's_3_20': [844], 's_3_21': [618], 's_3_23': [543], 's_3_3': [1174], 's_4_5': [797], 's_4_7': [3441], 's_4_10': [782], 's_4_11': [3317], 12: [513, 3557, 825, 3124, 617, 616, 615, 3123], 's_4_12': [3556], 's_4_16': [3347], 's_4_17': [902], 19: [934, 3289, 933, 1051, 3305, 932], 's_4_19': [3439], 's_4_21': [542], 's_4_22': [1157], 's_4_23': [452], 24: [3109, 3110, 1113, 1112, 1111], 's_4_24': [1127], 's_4_4': [3332], 's_8_2': [3603], 's_8_5': [3678], 's_8_9': [1129], 's_8_12': [3662], 's_8_13': [3681], 's_8_16': [1248], 's_8_18': [813], 's_8_8': [679], 's_9_1': [3785], 6: [736, 3198, 3200, 975, 3199], 's_9_6': [3140], 's_9_10': [1054], 's_9_11': [1140], 's_9_12': [675], 's_9_13': [3740, 1204], 's_9_14': [3125], 's_9_16': [1144, 1143], 's_9_17': [3755], 's_9_19': [1050], 's_9_20': [630], 's_9_22': [1065], 's_9_24': [1035], 's_9_9': [3801, 1219], 's_14_1': [3065], 's_14_2': [3049], 's_14_5': [992], 's_14_6': [1036], 's_14_7': [1292], 's_14_10': [3530], 's_14_11': [1246], 's_14_13': [1216], 's_14_15': [1351], 's_14_22': [3290], 's_14_14': [3323], 's_15_1': [1037], 's_15_5': [3169], 's_15_6': [3228], 's_15_7': [1277], 's_15_10': [3366], 's_15_12': [3362], 's_15_16': [3361], 's_15_17': [3349], 's_15_19': [3288], 's_15_23': [692], 's_15_24': [3108], 's_15_15': [421], 's_16_1': [3635], 's_16_7': [3636], 's_16_10': [693], 's_16_11': [3227, 3226], 's_16_17': [3634], 's_16_19': [873, 3604], 's_16_20': [3181], 's_16_21': [3257], 's_16_23': [497], 's_16_16': [3391], 's_17_1': [3739], 's_17_5': [3753], 's_17_6': [3184], 's_17_10': [3575, 3574], 's_17_12': [3139], 's_17_19': [856], 's_17_20': [3484], 's_17_22': [3229], 's_17_17': [994], 's_18_1': [3559], 's_18_2': [633], 's_18_5': [723], 's_18_7': [1232], 's_18_11': [1322], 's_18_13': [1278], 's_18_19': [3500], 's_18_22': [1217], 's_18_23': [753], 's_18_24': [3620], 's_18_18': [1397], 's_21_2': [570], 's_21_5': [694], 's_21_10': [573], 's_21_11': [3272], 's_21_12': [3107], 's_21_20': [571], 's_21_23': [512], 's_21_21': [3767], 's_22_1': [1126], 's_22_6': [946], 's_22_7': [3411], 's_22_10': [1068], 's_22_11': [3260], 's_22_13': [1187], 's_22_19': [976], 's_22_23': [947], 's_22_22': [3230], 's_23_1': [3409], 's_23_5': [3542], 's_23_12': [3467], 's_23_20': [857, 3363], 's_23_23': [738], 's_1_2': [2975, 945], 's_1_5': [1038], 's_1_13': [3171], 's_1_19': [3695], 's_1_20': [780], 's_1_1': [931], 's_2_6': [3168], 's_2_11': [631], 's_2_12': [3153], 's_2_2': [765], 's_5_6': [3213], 's_5_12': [3558], 's_5_13': [977], 's_5_20': [3079], 's_5_24': [3545], 's_5_5': [3858], 's_7_11': [3396], 's_7_24': [3531], 's_7_7': [3756], 's_10_13': [1083], 's_10_19': [3680], 's_10_20': [858], 's_10_11': [1186], 's_10_12': [3529, 3528], 's_10_24': [3516], 's_10_10': [827], 's_11_13': [3336], 's_11_19': [871], 's_11_12': [721], 's_11_11': [496, 495], 's_13_6': [3185], 's_13_24': [3560], 's_13_13': [1200], 's_20_6': [691], 's_20_12': [3048], 's_20_24': [855], 's_20_20': [676], 's_12_24': [870], 's_12_12': [514], 's_19_6': [3170], 's_19_19': [935], 's_24_6': [1155], 's_24_24': [3126], 's_6_6': [3201]}</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>8.173076923076923e-05</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.000621495351465714</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>{0: [3810, 380, 381, 3811], 2: [124, 3960, 125], 3: [3961, 305], 4: [186, 185, 3945], 5: [3855, 350, 3856, 349], 7: [335, 3946], 9: [200, 201], 10: [3796, 320, 3795, 319], 11: [110, 3870, 109], 12: [3931, 155, 3930], 14: [4005, 4006], 15: [411, 3825, 3826, 410], 16: [216, 4020, 4021], 17: [3990, 3991], 18: [140, 4036, 4035], 19: [439, 3916, 170, 3915], 20: [3901, 3900], 23: [95, 3976, 3975], 25: [156, 4066, 4065], 6: [3871, 245, 244], 21: [289, 290], 24: [215, 3885, 3886], 22: [259, 260, 4095], 13: [366, 365], 8: [440, 470, 4081, 4080], 1: [274, 275]}</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.03913237924865832</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.03238539436037621</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>{0: [3810, 380, 381, 3811], 2: [124, 3960, 125], 3: [3961, 305], 4: [186, 185, 3945], 5: [3855, 350, 3856, 349], 7: [335, 3946], 9: [200, 201], 10: [3796, 320, 3795, 319], 11: [110, 3870, 109], 12: [3931, 155, 3930], 14: [4005, 4006], 15: [411, 3825, 3826, 410], 16: [216, 4020, 4021], 17: [3990, 3991], 18: [140, 4036, 4035], 19: [439, 3916, 170, 3915], 20: [3901, 3900], 23: [95, 3976, 3975], 25: [156, 4066, 4065], 6: [3871, 245, 244], 21: [289, 290], 24: [215, 3885, 3886], 22: [259, 260, 4095], 13: [366, 365], 8: [440, 470, 4081, 4080], 1: [274, 275]}</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0.03913237924865832</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.03238539436037621</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.228</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>{0: [2349, 4587, 2314, 2315, 2316, 2318, 2317], 2: [2557, 4334, 4331, 4332, 4333], 's_0_2': [4347], 3: [2213, 2212, 4153, 2511, 4213, 4212], 's_0_3': [2214], 4: [4108, 4662, 4663, 2585, 2649, 4079, 2646, 2647, 2648], 's_0_4': [2379, 4557], 5: [2555, 2211, 4091, 3958, 3957, 3956, 2270], 's_0_5': [4062], 7: [2409, 4302, 2407, 2408], 's_0_7': [4482], 9: [2573, 2166, 4498, 4497, 4496, 4256, 2168, 2167], 's_0_9': [2243], 10: [4197, 2694, 2693, 2692, 2405, 2406, 4258, 4259], 's_0_10': [4017], 11: [2615, 2616, 4646, 2617, 4647, 4648, 2618, 4544], 's_0_11': [2228], 12: [4046, 4289, 2722, 2721, 2016, 4049, 4047, 4048], 's_0_12': [2361, 4092], 14: [4139, 2661, 4135, 4136, 4138, 4137], 's_0_14': [2331], 15: [4364, 2543, 4363, 3927, 2480, 2482, 2481], 's_0_15': [3912], 16: [4229, 4228, 2392, 4542, 2288, 2287, 4272, 4271], 's_0_16': [4317], 17: [4407, 2393, 4408, 2678, 2677, 4409], 's_0_17': [4362], 18: [2184, 2183, 2182, 4124, 4123, 4122, 4121, 2181], 's_0_18': [4586], 19: [2469, 2468, 2467, 2466, 4467, 4001, 4002, 4003, 2465], 's_0_19': [2333], 20: [2347, 4077, 4031, 4032, 3852, 2345, 2346], 's_0_20': [2348], 23: [4526, 4527, 4528, 2599, 2600, 2601, 2602, 2603], 's_0_23': [2273], 25: [3776, 3824, 3777, 3778, 2631, 2630, 2629], 's_0_25': [2329], 's_0_0': [3702], 's_2_4': [4303], 6: [4196, 2514, 2513, 2498, 2240, 2241, 2242, 4437, 4438], 's_2_6': [2227], 's_2_9': [2107], 's_2_12': [2737], 's_2_15': [2767], 's_2_16': [2302], 's_2_18': [4346], 's_2_19': [2422], 's_2_23': [4318], 's_2_2': [2092], 's_3_4': [2496], 's_3_5': [2301], 's_3_6': [4466], 's_3_10': [2421], 's_3_15': [4063], 's_3_16': [4481], 's_3_17': [4392], 's_3_18': [4361], 's_3_20': [4152], 21: [4018, 2541, 3928, 3897, 3898, 2540], 's_3_21': [4093], 's_3_23': [2198], 24: [4181, 4182, 2753, 2752, 4499, 4183, 4184], 's_3_24': [2226], 's_3_3': [2377], 's_4_5': [2645], 's_4_6': [2499], 's_4_7': [2424], 's_4_9': [2574], 's_4_10': [4724], 's_4_11': [4619], 's_4_12': [4349], 's_4_14': [2586], 's_4_16': [2394], 's_4_17': [4424], 's_4_19': [2484], 's_4_21': [3943], 22: [2572, 3882, 3883, 3881, 3884, 2571, 3838, 2570], 's_4_22': [2584], 's_4_23': [4633], 's_4_25': [4288], 's_4_4': [4678], 's_5_6': [4106], 's_5_9': [4166], 's_5_10': [3972], 13: [3973, 3974, 2676, 4094, 2781, 4004, 2780], 's_5_13': [3959], 's_5_14': [2136], 's_5_18': [2196], 's_5_20': [2269], 's_5_21': [2285], 's_5_22': [2210], 's_5_5': [2554], 's_7_6': [4603], 8: [4452, 3989, 3988, 2450, 2453, 2452, 2451], 's_7_8': [4573], 's_7_15': [4393], 's_7_17': [4377], 's_7_20': [2362], 's_7_23': [4512], 's_7_7': [4722], 's_9_8': [4453], 's_9_12': [2017], 's_9_14': [2046], 's_9_15': [2528], 's_9_16': [2137], 's_9_18': [4421], 's_9_19': [4378], 's_9_20': [4076], 's_9_22': [2165], 's_9_23': [2153], 's_9_24': [2076], 's_9_9': [2588], 1: [2375, 2254, 3987, 2257, 2256, 2255], 's_10_1': [4167], 's_10_6': [4257], 's_10_11': [4394], 's_10_14': [2662], 's_10_17': [4559], 's_10_18': [2691], 's_10_23': [4574], 's_10_24': [4469], 's_10_10': [4709], 's_11_12': [4154], 's_11_14': [4169], 's_11_15': [2544], 's_11_16': [2289], 's_11_17': [4589], 's_11_18': [4631], 's_11_19': [4468], 's_11_24': [2768], 's_11_25': [2632], 's_11_11': [2529], 's_12_6': [4151, 4150], 's_12_8': [2690], 's_12_13': [2675], 's_12_16': [2707], 's_12_17': [4304], 's_12_18': [2811], 's_12_19': [4000], 's_12_20': [2135], 's_12_21': [2495], 's_12_22': [2015], 's_12_23': [4034], 's_12_24': [4199], 's_12_25': [4019], 's_12_12': [4045], 's_14_1': [2271], 's_14_6': [2091], 's_14_8': [2660], 's_14_13': [2706], 's_14_18': [2826], 's_14_19': [2556], 's_14_23': [4214], 's_14_14': [4134], 's_15_1': [3942], 's_15_6': [4423], 's_15_8': [2437], 's_15_17': [2708], 's_15_19': [4287], 's_15_20': [4078], 's_15_21': [2390], 's_15_22': [2419], 's_15_23': [4513], 's_15_24': [2723], 's_15_15': [3926], 's_16_1': [4227], 's_16_8': [2436], 's_16_23': [2423], 's_16_24': [2197], 's_16_25': [4273], 's_16_16': [2364], 's_17_6': [2497], 's_17_8': [2378], 's_17_13': [4274], 's_17_17': [2679], 's_18_1': [4316], 's_18_13': [2736], 's_18_21': [2526], 's_18_23': [4511], 's_18_24': [2766], 's_18_18': [4241], 's_19_1': [2420], 's_19_6': [4723], 's_19_8': [4588], 's_19_13': [2510], 's_19_20': [2150], 's_19_22': [2464], 's_19_23': [2363], 's_19_19': [2090], 's_20_1': [2360], 's_20_21': [2330], 's_20_22': [2105], 's_20_24': [2286], 's_20_20': [3851], 's_23_6': [4439], 's_23_13': [4064], 's_23_21': [3913], 's_23_22': [4244], 's_23_24': [4529], 's_23_25': [3763], 's_23_23': [3793], 's_25_1': [2374], 's_25_8': [2720], 's_25_13': [2735], 's_25_21': [2434], 's_25_22': [2224], 's_25_25': [2628], 's_6_1': [2272], 's_6_8': [4543], 's_6_24': [2121], 's_6_6': [3971], 's_21_1': [3868], 's_21_8': [4033], 's_21_22': [2404], 's_21_21': [2195], 's_24_22': [4198], 's_24_24': [2738], 's_22_1': [2300], 's_22_8': [4168], 's_22_22': [3880], 's_13_8': [2435], 's_13_13': [3944], 's_8_8': [2454], 's_1_1': [3911]}</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0001383928571428571</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0007737394084534388</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>{0: [2349, 4587, 2314, 2315, 2316, 2318, 2317], 2: [2557, 4334, 4331, 4332, 4333], 's_0_2': [4347], 3: [2213, 2212, 4153, 2511, 4213, 4212], 's_0_3': [2214], 4: [4108, 4662, 4663, 2585, 2649, 4079, 2646, 2647, 2648], 's_0_4': [2379, 4557], 5: [2555, 2211, 4091, 3958, 3957, 3956, 2270], 's_0_5': [4062], 7: [2409, 4302, 2407, 2408], 's_0_7': [4482], 9: [2573, 2166, 4498, 4497, 4496, 4256, 2168, 2167], 's_0_9': [2243], 10: [4197, 2694, 2693, 2692, 2405, 2406, 4258, 4259], 's_0_10': [4017], 11: [2615, 2616, 4646, 2617, 4647, 4648, 2618, 4544], 's_0_11': [2228], 12: [4046, 4289, 2722, 2721, 2016, 4049, 4047, 4048], 's_0_12': [2361, 4092], 14: [4139, 2661, 4135, 4136, 4138, 4137], 's_0_14': [2331], 15: [4364, 2543, 4363, 3927, 2480, 2482, 2481], 's_0_15': [3912], 16: [4229, 4228, 2392, 4542, 2288, 2287, 4272, 4271], 's_0_16': [4317], 17: [4407, 2393, 4408, 2678, 2677, 4409], 's_0_17': [4362], 18: [2184, 2183, 2182, 4124, 4123, 4122, 4121, 2181], 's_0_18': [4586], 19: [2469, 2468, 2467, 2466, 4467, 4001, 4002, 4003, 2465], 's_0_19': [2333], 20: [2347, 4077, 4031, 4032, 3852, 2345, 2346], 's_0_20': [2348], 23: [4526, 4527, 4528, 2599, 2600, 2601, 2602, 2603], 's_0_23': [2273], 25: [3776, 3824, 3777, 3778, 2631, 2630, 2629], 's_0_25': [2329], 's_0_0': [3702], 's_2_4': [4303], 6: [4196, 2514, 2513, 2498, 2240, 2241, 2242, 4437, 4438], 's_2_6': [2227], 's_2_9': [2107], 's_2_12': [2737], 's_2_15': [2767], 's_2_16': [2302], 's_2_18': [4346], 's_2_19': [2422], 's_2_23': [4318], 's_2_2': [2092], 's_3_4': [2496], 's_3_5': [2301], 's_3_6': [4466], 's_3_10': [2421], 's_3_15': [4063], 's_3_16': [4481], 's_3_17': [4392], 's_3_18': [4361], 's_3_20': [4152], 21: [4018, 2541, 3928, 3897, 3898, 2540], 's_3_21': [4093], 's_3_23': [2198], 24: [4181, 4182, 2753, 2752, 4499, 4183, 4184], 's_3_24': [2226], 's_3_3': [2377], 's_4_5': [2645], 's_4_6': [2499], 's_4_7': [2424], 's_4_9': [2574], 's_4_10': [4724], 's_4_11': [4619], 's_4_12': [4349], 's_4_14': [2586], 's_4_16': [2394], 's_4_17': [4424], 's_4_19': [2484], 's_4_21': [3943], 22: [2572, 3882, 3883, 3881, 3884, 2571, 3838, 2570], 's_4_22': [2584], 's_4_23': [4633], 's_4_25': [4288], 's_4_4': [4678], 's_5_6': [4106], 's_5_9': [4166], 's_5_10': [3972], 13: [3973, 3974, 2676, 4094, 2781, 4004, 2780], 's_5_13': [3959], 's_5_14': [2136], 's_5_18': [2196], 's_5_20': [2269], 's_5_21': [2285], 's_5_22': [2210], 's_5_5': [2554], 's_7_6': [4603], 8: [4452, 3989, 3988, 2450, 2453, 2452, 2451], 's_7_8': [4573], 's_7_15': [4393], 's_7_17': [4377], 's_7_20': [2362], 's_7_23': [4512], 's_7_7': [4722], 's_9_8': [4453], 's_9_12': [2017], 's_9_14': [2046], 's_9_15': [2528], 's_9_16': [2137], 's_9_18': [4421], 's_9_19': [4378], 's_9_20': [4076], 's_9_22': [2165], 's_9_23': [2153], 's_9_24': [2076], 's_9_9': [2588], 1: [2375, 2254, 3987, 2257, 2256, 2255], 's_10_1': [4167], 's_10_6': [4257], 's_10_11': [4394], 's_10_14': [2662], 's_10_17': [4559], 's_10_18': [2691], 's_10_23': [4574], 's_10_24': [4469], 's_10_10': [4709], 's_11_12': [4154], 's_11_14': [4169], 's_11_15': [2544], 's_11_16': [2289], 's_11_17': [4589], 's_11_18': [4631], 's_11_19': [4468], 's_11_24': [2768], 's_11_25': [2632], 's_11_11': [2529], 's_12_6': [4151, 4150], 's_12_8': [2690], 's_12_13': [2675], 's_12_16': [2707], 's_12_17': [4304], 's_12_18': [2811], 's_12_19': [4000], 's_12_20': [2135], 's_12_21': [2495], 's_12_22': [2015], 's_12_23': [4034], 's_12_24': [4199], 's_12_25': [4019], 's_12_12': [4045], 's_14_1': [2271], 's_14_6': [2091], 's_14_8': [2660], 's_14_13': [2706], 's_14_18': [2826], 's_14_19': [2556], 's_14_23': [4214], 's_14_14': [4134], 's_15_1': [3942], 's_15_6': [4423], 's_15_8': [2437], 's_15_17': [2708], 's_15_19': [4287], 's_15_20': [4078], 's_15_21': [2390], 's_15_22': [2419], 's_15_23': [4513], 's_15_24': [2723], 's_15_15': [3926], 's_16_1': [4227], 's_16_8': [2436], 's_16_23': [2423], 's_16_24': [2197], 's_16_25': [4273], 's_16_16': [2364], 's_17_6': [2497], 's_17_8': [2378], 's_17_13': [4274], 's_17_17': [2679], 's_18_1': [4316], 's_18_13': [2736], 's_18_21': [2526], 's_18_23': [4511], 's_18_24': [2766], 's_18_18': [4241], 's_19_1': [2420], 's_19_6': [4723], 's_19_8': [4588], 's_19_13': [2510], 's_19_20': [2150], 's_19_22': [2464], 's_19_23': [2363], 's_19_19': [2090], 's_20_1': [2360], 's_20_21': [2330], 's_20_22': [2105], 's_20_24': [2286], 's_20_20': [3851], 's_23_6': [4439], 's_23_13': [4064], 's_23_21': [3913], 's_23_22': [4244], 's_23_24': [4529], 's_23_25': [3763], 's_23_23': [3793], 's_25_1': [2374], 's_25_8': [2720], 's_25_13': [2735], 's_25_21': [2434], 's_25_22': [2224], 's_25_25': [2628], 's_6_1': [2272], 's_6_8': [4543], 's_6_24': [2121], 's_6_6': [3971], 's_21_1': [3868], 's_21_8': [4033], 's_21_22': [2404], 's_21_21': [2195], 's_24_22': [4198], 's_24_24': [2738], 's_22_1': [2300], 's_22_8': [4168], 's_22_22': [3880], 's_13_8': [2435], 's_13_13': [3944], 's_8_8': [2454], 's_1_1': [3911]}</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0001383928571428571</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.0007737394084534388</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>{0: [2178, 3386, 2177], 1: [2312, 2266, 3357], 3: [3565, 3567, 3566], 4: [2193, 3431, 2192], 5: [3371, 2146, 2147], 7: [3311, 2342, 3312], 8: [2251, 2282, 3342], 9: [2417, 3476, 3477], 10: [3447, 2102, 3446], 11: [2208, 2207], 14: [3506, 2343, 3507], 16: [2221, 2222], 17: [2236, 2237], 24: [2358, 3326, 3327, 2357], 12: [3402, 3400, 2297, 3401], 13: [3508, 2402, 3432], 15: [3491, 3387, 2327, 3492], 19: [2388, 3462, 3461], 2: [2283, 3522, 3521], 6: [3385, 2118, 2116, 2117], 18: [2163, 3341, 2162], 20: [3415, 3417, 2267, 3416], 21: [3236, 2042, 2041, 3235], 22: [3266, 2072, 2071], 26: [2373, 2372, 3281, 3282], 25: [3296, 2087, 2086], 23: [2057, 3537, 3536]}</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0.02481669486745629</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.02353597646855247</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>{0: [2178, 3386, 2177], 1: [2312, 2266, 3357], 3: [3565, 3567, 3566], 4: [2193, 3431, 2192], 5: [3371, 2146, 2147], 7: [3311, 2342, 3312], 8: [2251, 2282, 3342], 9: [2417, 3476, 3477], 10: [3447, 2102, 3446], 11: [2208, 2207], 14: [3506, 2343, 3507], 16: [2221, 2222], 17: [2236, 2237], 24: [2358, 3326, 3327, 2357], 12: [3402, 3400, 2297, 3401], 13: [3508, 2402, 3432], 15: [3491, 3387, 2327, 3492], 19: [2388, 3462, 3461], 2: [2283, 3522, 3521], 6: [3385, 2118, 2116, 2117], 18: [2163, 3341, 2162], 20: [3415, 3417, 2267, 3416], 21: [3236, 2042, 2041, 3235], 22: [3266, 2072, 2071], 26: [2373, 2372, 3281, 3282], 25: [3296, 2087, 2086], 23: [2057, 3537, 3536]}</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0.02481669486745629</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.02353597646855247</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>{0: [4967, 5119, 5118, 493, 492, 491, 5117], 1: [5254, 5253, 5251, 5252], 's_0_1': [5356, 388], 3: [5208, 838, 835, 836, 837], 's_0_3': [927, 5149], 4: [868, 5329, 5328, 5327, 401, 402, 403], 's_0_4': [5312], 5: [553, 340, 341, 342, 5266, 5267], 's_0_5': [5206], 7: [550, 4998, 4906, 4907, 640, 4997, 551], 's_0_7': [460], 8: [581, 5072, 583, 582], 's_0_8': [506], 9: [764, 763, 671, 5088, 762], 's_0_9': [701], 10: [4924, 5387, 5388, 775, 778, 777, 776], 's_0_10': [5386], 11: [731, 5132, 5133, 734, 733, 732], 's_0_11': [507], 14: [5419, 5418, 522, 523, 5417], 's_0_14': [5477], 16: [5120, 956, 957, 958, 5372, 5373, 5374], 's_0_16': [5447, 538], 17: [973, 972, 971, 296, 5056, 5057, 5058, 5059], 's_0_17': [641], 24: [312, 970, 4955, 4954, 4953, 4952, 4951, 311], 's_0_24': [4966], 's_0_0': [475], 's_1_4': [418], 's_1_5': [627], 's_1_9': [672], 's_1_11': [537], 12: [4863, 805, 806, 5176, 5177, 882, 5179, 5178], 's_1_12': [357], 13: [5192, 5193, 852, 851, 850, 4818], 's_1_13': [642], 15: [609, 5283, 613, 612, 611, 610], 's_1_15': [687], 's_1_16': [5269], 's_1_17': [297], 19: [1121, 5045, 5044, 718, 717, 5163, 821], 's_1_19': [5268], 's_1_24': [327], 's_1_1': [5250], 2: [881, 5103, 985, 5104, 986, 5105], 's_3_2': [5089], 's_3_4': [5479], 6: [779, 1030, 1031, 5463, 5464, 1032, 1033, 5465], 's_3_6': [929, 5494], 's_3_9': [5134], 's_3_11': [5523], 's_3_13': [4939], 's_3_14': [5207], 's_3_16': [823], 's_3_17': [5434], 18: [5194, 913, 4999, 4909, 910, 911, 912], 's_3_18': [5404], 's_3_19': [5074], 20: [790, 1063, 1062, 4968, 4969, 4970, 1061], 's_3_20': [5314, 5315], 21: [5027, 940, 941, 5028, 5029], 's_3_21': [4894], 22: [1150, 4981, 4880, 4879, 4878, 655, 1120, 4982], 's_3_22': [865, 4833], 's_3_24': [4864], 26: [5225, 371, 372, 5221, 5224, 5223, 5222], 's_3_26': [792], 's_3_3': [834], 's_4_6': [688], 's_4_7': [4922], 's_4_8': [5071], 's_4_10': [5358], 's_4_11': [5313], 's_4_14': [508], 's_4_15': [5282], 's_4_17': [5330], 's_4_22': [416], 's_4_26': [5236], 's_4_4': [447], 's_5_7': [355], 's_5_8': [552], 's_5_10': [598], 's_5_12': [5161], 's_5_14': [5402], 's_5_15': [5357], 's_5_16': [568], 's_5_17': [5116], 's_5_22': [356], 's_5_24': [5026, 5025], 25: [430, 431, 987, 432, 5300, 5299, 5298, 5297], 's_5_25': [4861], 's_5_26': [4936], 's_5_5': [5265], 's_7_10': [761], 's_7_11': [4938, 4937], 's_7_12': [4862], 's_7_13': [4817], 's_7_15': [4727], 's_7_18': [820], 's_7_20': [716], 's_7_21': [566], 's_7_24': [280], 's_7_25': [4891], 's_7_7': [505], 's_8_12': [626], 's_8_13': [597], 's_8_14': [5237], 's_8_15': [5148], 's_8_17': [521], 's_8_20': [596], 's_8_21': [536], 's_8_26': [567], 's_8_8': [5087], 's_9_11': [5553], 's_9_14': [5403], 's_9_19': [5433], 's_9_20': [686], 's_9_22': [670], 's_9_9': [5598], 's_10_6': [793], 's_10_12': [4848], 's_10_13': [4789, 895], 's_10_14': [643], 's_10_15': [4712, 4713], 's_10_18': [4759], 's_10_20': [926], 's_10_10': [774], 's_11_2': [747], 's_11_12': [730], 's_11_19': [5448], 's_11_20': [4908], 's_11_24': [746], 's_11_25': [748], 's_11_26': [702], 's_11_11': [749], 's_14_13': [853], 's_14_15': [5432], 's_14_17': [988], 's_14_18': [928], 's_14_19': [703], 's_14_25': [943], 's_14_14': [463], 's_16_12': [1001], 's_16_17': [5389], 's_16_19': [1076], 's_16_20': [5375], 's_16_21': [1016], 's_16_24': [4925], 's_16_26': [1107], 's_16_16': [5121], 's_17_12': [5043], 's_17_15': [5042], 23: [1045, 5014, 1047, 1046], 's_17_23': [5150], 's_17_26': [5086], 's_17_17': [5510], 's_24_2': [4834], 's_24_12': [5175], 's_24_13': [866], 's_24_15': [625], 's_24_18': [896], 's_24_20': [1106], 's_24_22': [4980], 's_24_23': [4849], 's_24_26': [5041], 's_24_24': [4950], 's_12_6': [883], 's_12_13': [804], 's_12_18': [5284], 's_12_19': [791], 's_12_23': [5013], 's_12_25': [446], 's_12_26': [867], 's_12_12': [745], 's_13_15': [4773, 4774], 's_13_19': [822], 's_13_20': [789], 's_13_26': [5191], 's_13_13': [819], 's_15_6': [5478], 's_15_19': [5162], 's_15_21': [5012], 's_15_25': [657], 's_15_15': [4802, 654, 653], 's_19_22': [4926], 's_19_19': [1136], 's_2_18': [880], 's_2_21': [4984], 's_2_22': [656], 's_2_23': [4940], 's_2_25': [5102], 's_2_2': [984], 's_6_18': [5359], 's_6_21': [4790], 's_6_22': [1060, 4895], 's_6_23': [5060], 's_6_20': [5270], 's_6_26': [808, 807], 's_6_6': [944], 's_18_20': [1000], 's_18_21': [4819], 's_18_22': [925], 's_18_23': [4804], 's_18_26': [5239], 's_18_18': [4729], 's_20_21': [5030], 's_20_22': [4971], 's_20_23': [5015], 's_20_26': [1077], 's_20_20': [5345], 's_21_22': [955], 's_21_21': [942], 's_22_23': [4910], 's_22_25': [445], 's_22_26': [4996], 's_22_22': [1119], 's_26_26': [1167], 's_25_23': [5285], 's_25_25': [1017], 's_23_23': [1048]}</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0006970421569711845</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>{0: [4967, 5119, 5118, 493, 492, 491, 5117], 1: [5254, 5253, 5251, 5252], 's_0_1': [5356, 388], 3: [5208, 838, 835, 836, 837], 's_0_3': [927, 5149], 4: [868, 5329, 5328, 5327, 401, 402, 403], 's_0_4': [5312], 5: [553, 340, 341, 342, 5266, 5267], 's_0_5': [5206], 7: [550, 4998, 4906, 4907, 640, 4997, 551], 's_0_7': [460], 8: [581, 5072, 583, 582], 's_0_8': [506], 9: [764, 763, 671, 5088, 762], 's_0_9': [701], 10: [4924, 5387, 5388, 775, 778, 777, 776], 's_0_10': [5386], 11: [731, 5132, 5133, 734, 733, 732], 's_0_11': [507], 14: [5419, 5418, 522, 523, 5417], 's_0_14': [5477], 16: [5120, 956, 957, 958, 5372, 5373, 5374], 's_0_16': [5447, 538], 17: [973, 972, 971, 296, 5056, 5057, 5058, 5059], 's_0_17': [641], 24: [312, 970, 4955, 4954, 4953, 4952, 4951, 311], 's_0_24': [4966], 's_0_0': [475], 's_1_4': [418], 's_1_5': [627], 's_1_9': [672], 's_1_11': [537], 12: [4863, 805, 806, 5176, 5177, 882, 5179, 5178], 's_1_12': [357], 13: [5192, 5193, 852, 851, 850, 4818], 's_1_13': [642], 15: [609, 5283, 613, 612, 611, 610], 's_1_15': [687], 's_1_16': [5269], 's_1_17': [297], 19: [1121, 5045, 5044, 718, 717, 5163, 821], 's_1_19': [5268], 's_1_24': [327], 's_1_1': [5250], 2: [881, 5103, 985, 5104, 986, 5105], 's_3_2': [5089], 's_3_4': [5479], 6: [779, 1030, 1031, 5463, 5464, 1032, 1033, 5465], 's_3_6': [929, 5494], 's_3_9': [5134], 's_3_11': [5523], 's_3_13': [4939], 's_3_14': [5207], 's_3_16': [823], 's_3_17': [5434], 18: [5194, 913, 4999, 4909, 910, 911, 912], 's_3_18': [5404], 's_3_19': [5074], 20: [790, 1063, 1062, 4968, 4969, 4970, 1061], 's_3_20': [5314, 5315], 21: [5027, 940, 941, 5028, 5029], 's_3_21': [4894], 22: [1150, 4981, 4880, 4879, 4878, 655, 1120, 4982], 's_3_22': [865, 4833], 's_3_24': [4864], 26: [5225, 371, 372, 5221, 5224, 5223, 5222], 's_3_26': [792], 's_3_3': [834], 's_4_6': [688], 's_4_7': [4922], 's_4_8': [5071], 's_4_10': [5358], 's_4_11': [5313], 's_4_14': [508], 's_4_15': [5282], 's_4_17': [5330], 's_4_22': [416], 's_4_26': [5236], 's_4_4': [447], 's_5_7': [355], 's_5_8': [552], 's_5_10': [598], 's_5_12': [5161], 's_5_14': [5402], 's_5_15': [5357], 's_5_16': [568], 's_5_17': [5116], 's_5_22': [356], 's_5_24': [5026, 5025], 25: [430, 431, 987, 432, 5300, 5299, 5298, 5297], 's_5_25': [4861], 's_5_26': [4936], 's_5_5': [5265], 's_7_10': [761], 's_7_11': [4938, 4937], 's_7_12': [4862], 's_7_13': [4817], 's_7_15': [4727], 's_7_18': [820], 's_7_20': [716], 's_7_21': [566], 's_7_24': [280], 's_7_25': [4891], 's_7_7': [505], 's_8_12': [626], 's_8_13': [597], 's_8_14': [5237], 's_8_15': [5148], 's_8_17': [521], 's_8_20': [596], 's_8_21': [536], 's_8_26': [567], 's_8_8': [5087], 's_9_11': [5553], 's_9_14': [5403], 's_9_19': [5433], 's_9_20': [686], 's_9_22': [670], 's_9_9': [5598], 's_10_6': [793], 's_10_12': [4848], 's_10_13': [4789, 895], 's_10_14': [643], 's_10_15': [4712, 4713], 's_10_18': [4759], 's_10_20': [926], 's_10_10': [774], 's_11_2': [747], 's_11_12': [730], 's_11_19': [5448], 's_11_20': [4908], 's_11_24': [746], 's_11_25': [748], 's_11_26': [702], 's_11_11': [749], 's_14_13': [853], 's_14_15': [5432], 's_14_17': [988], 's_14_18': [928], 's_14_19': [703], 's_14_25': [943], 's_14_14': [463], 's_16_12': [1001], 's_16_17': [5389], 's_16_19': [1076], 's_16_20': [5375], 's_16_21': [1016], 's_16_24': [4925], 's_16_26': [1107], 's_16_16': [5121], 's_17_12': [5043], 's_17_15': [5042], 23: [1045, 5014, 1047, 1046], 's_17_23': [5150], 's_17_26': [5086], 's_17_17': [5510], 's_24_2': [4834], 's_24_12': [5175], 's_24_13': [866], 's_24_15': [625], 's_24_18': [896], 's_24_20': [1106], 's_24_22': [4980], 's_24_23': [4849], 's_24_26': [5041], 's_24_24': [4950], 's_12_6': [883], 's_12_13': [804], 's_12_18': [5284], 's_12_19': [791], 's_12_23': [5013], 's_12_25': [446], 's_12_26': [867], 's_12_12': [745], 's_13_15': [4773, 4774], 's_13_19': [822], 's_13_20': [789], 's_13_26': [5191], 's_13_13': [819], 's_15_6': [5478], 's_15_19': [5162], 's_15_21': [5012], 's_15_25': [657], 's_15_15': [4802, 654, 653], 's_19_22': [4926], 's_19_19': [1136], 's_2_18': [880], 's_2_21': [4984], 's_2_22': [656], 's_2_23': [4940], 's_2_25': [5102], 's_2_2': [984], 's_6_18': [5359], 's_6_21': [4790], 's_6_22': [1060, 4895], 's_6_23': [5060], 's_6_20': [5270], 's_6_26': [808, 807], 's_6_6': [944], 's_18_20': [1000], 's_18_21': [4819], 's_18_22': [925], 's_18_23': [4804], 's_18_26': [5239], 's_18_18': [4729], 's_20_21': [5030], 's_20_22': [4971], 's_20_23': [5015], 's_20_26': [1077], 's_20_20': [5345], 's_21_22': [955], 's_21_21': [942], 's_22_23': [4910], 's_22_25': [445], 's_22_26': [4996], 's_22_22': [1119], 's_26_26': [1167], 's_25_23': [5285], 's_25_25': [1017], 's_23_23': [1048]}</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.0006970421569711845</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>{0: [1947, 5183, 5184], 1: [5409, 1842, 1843], 3: [5109, 1781, 1783, 1782], 4: [1633, 5094, 1632, 5093], 5: [5243, 1857, 5244], 7: [1932, 5168, 5169], 9: [5153, 1796, 5154, 1797], 13: [5274, 1767, 1768], 14: [5123, 1812, 5124], 15: [5228, 1663, 1662], 16: [1887, 5304, 5305], 20: [5348, 1752, 1753], 23: [1706, 1708, 1707], 26: [1737, 5230, 5229], 18: [1901, 5139, 5140], 21: [5213, 5214, 1872], 22: [1813, 1798, 5484, 5364], 2: [5394, 1977, 5393, 1978, 5395], 6: [1858, 5258, 5259], 8: [5319, 1827, 1828], 10: [5469, 5468, 1602, 1603], 17: [1902, 5198, 5199], 19: [1736, 5079], 24: [1903, 5378, 5379], 27: [5335, 5333, 5334], 25: [1721, 5363, 1722], 12: [5423, 1647, 1648], 11: [5290, 1678, 5289]}</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0227085053674649</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.02474623528935239</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>{0: [1947, 5183, 5184], 1: [5409, 1842, 1843], 3: [5109, 1781, 1783, 1782], 4: [1633, 5094, 1632, 5093], 5: [5243, 1857, 5244], 7: [1932, 5168, 5169], 9: [5153, 1796, 5154, 1797], 13: [5274, 1767, 1768], 14: [5123, 1812, 5124], 15: [5228, 1663, 1662], 16: [1887, 5304, 5305], 20: [5348, 1752, 1753], 23: [1706, 1708, 1707], 26: [1737, 5230, 5229], 18: [1901, 5139, 5140], 21: [5213, 5214, 1872], 22: [1813, 1798, 5484, 5364], 2: [5394, 1977, 5393, 1978, 5395], 6: [1858, 5258, 5259], 8: [5319, 1827, 1828], 10: [5469, 5468, 1602, 1603], 17: [1902, 5198, 5199], 19: [1736, 5079], 24: [1903, 5378, 5379], 27: [5335, 5333, 5334], 25: [1721, 5363, 1722], 12: [5423, 1647, 1648], 11: [5290, 1678, 5289]}</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0.0227085053674649</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.02474623528935239</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.103</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>{0: [3068, 1548, 3278, 3488, 1545, 1547, 1546], 1: [3158, 1575, 1473, 1472, 1471, 1470, 2981, 2980, 2979, 2978], 's_0_1': [1620], 3: [1413, 1442, 1443, 2223, 3596, 3595, 3594, 3593, 3592], 's_0_3': [3277], 4: [1789, 3848, 3849, 1774, 1773, 3564, 1862, 3098, 3099, 1860, 1861], 's_0_4': [3069], 5: [3637, 1741, 1383, 1382, 3251, 3250, 3249, 3248, 3247, 1381], 's_0_5': [1681], 7: [1590, 1908, 1591, 1907, 1906, 3219, 3218], 's_0_7': [1605], 9: [1905, 3127, 3128, 3129, 3130, 2028, 2027, 2026, 3131], 's_0_9': [3143], 13: [1909, 3761, 3760, 3758, 3759, 1624, 3518, 2119, 1623], 's_0_13': [3412, 1517], 14: [3310, 1876, 1875, 3052, 3053, 3054], 's_0_14': [1650], 15: [2041, 3265, 3264, 3263, 3789, 3788, 1579, 1578, 1577, 1576], 's_0_15': [3293], 16: [3401, 1981, 3400, 3385, 3353, 1787, 3354, 3355, 1982], 's_0_16': [1622], 20: [1562, 3671, 1474, 1563, 3668, 3669, 1967, 1968, 3670], 's_0_20': [3683], 23: [1997, 1669, 3442, 1668, 1667, 3443, 3295, 2012, 3444, 3445], 's_0_23': [1502], 26: [2072, 3521, 3548, 3520, 3622, 3623, 1653, 1697, 3519], 's_0_26': [3489], 's_0_0': [3487], 's_1_4': [1785], 's_1_7': [2993], 's_1_13': [3533], 's_1_16': [1980], 18: [1607, 3383, 3381, 3323, 1501, 3382], 's_1_18': [1487], 's_1_20': [3577], 21: [2145, 3296, 2146, 2147, 2148, 3686, 3804, 3805, 2029], 's_1_21': [2130], 22: [1455, 1456, 1457, 3611, 3610, 1458, 3609, 3608, 3607], 's_1_22': [2917], 's_1_26': [1488], 's_1_1': [1845], 2: [1593, 3563, 1745, 1744, 1742, 1743], 's_3_2': [1758], 's_3_5': [3307], 6: [3640, 1831, 1832, 3549, 3641, 1833, 3639, 1834], 's_3_6': [1713], 8: [1652, 3369, 3368, 1429, 1428, 1427, 3367], 's_3_8': [3397], 's_3_9': [1441], 10: [3910, 3909, 1864, 3655, 3654, 3624, 1863], 's_3_10': [2043], 's_3_13': [3517], 17: [1877, 1756, 3324, 1802, 3701, 2058, 2057, 3429, 3430], 's_3_17': [3702], 19: [1560, 3502, 1352, 1351, 3037, 3036, 1350, 3173, 3172], 's_3_19': [3322], 's_3_22': [2208], 's_3_23': [1412], 24: [3746, 3745, 1639, 3744, 3743], 's_3_24': [1698], 's_3_26': [2073], 27: [1699, 1922, 3864, 3865, 1923, 1924], 's_3_27': [3579], 's_3_3': [3597], 's_4_2': [3714], 's_4_6': [3204], 's_4_7': [1892], 's_4_8': [3847], 's_4_14': [1755], 's_4_15': [3772, 1534], 's_4_17': [3505], 's_4_19': [3097], 's_4_21': [1729], 's_4_23': [1670, 1655], 25: [1531, 2118, 2117, 1530, 3281, 2116, 3187, 3188, 3189, 3190], 's_4_25': [1725], 's_4_27': [1684], 's_4_4': [1504], 's_5_6': [3279], 's_5_7': [3233], 's_5_9': [2176], 12: [3446, 2089, 2088, 3234, 3235, 2086, 2087], 's_5_12': [2071], 's_5_15': [1651], 's_5_16': [2056], 's_5_17': [1801], 's_5_18': [1366], 's_5_19': [3396], 's_5_20': [1518], 's_5_21': [3266], 's_5_23': [3309], 's_5_25': [2131], 's_5_26': [1368], 's_5_5': [1384], 's_7_8': [1711], 's_7_9': [3460], 's_7_10': [3700, 1999], 's_7_12': [1891], 's_7_13': [1984, 3685], 's_7_16': [3399], 's_7_18': [1592], 's_7_19': [1636], 's_7_20': [3490], 's_7_23': [3280], 's_7_25': [1621], 's_7_26': [3535], 's_7_7': [1771], 11: [3341, 2162, 2164, 2163], 's_9_11': [2161], 's_9_12': [1846], 's_9_14': [3039], 's_9_15': [3220], 's_9_17': [3580], 's_9_19': [1515], 's_9_21': [3146], 's_9_22': [3142], 's_9_25': [1710], 's_9_26': [3491], 's_9_9': [3070], 's_13_2': [3773], 's_13_6': [2194], 's_13_10': [2074], 's_13_11': [3775, 3776], 's_13_17': [2149], 's_13_20': [1819], 's_13_21': [3806], 's_13_24': [3730], 's_13_25': [1532], 's_13_26': [3458], 's_13_27': [3774], 's_13_13': [2224], 's_14_8': [3384], 's_14_12': [1936], 's_14_15': [3311], 's_14_17': [3294], 's_14_19': [1425], 's_14_22': [1440], 's_14_23': [3325], 's_14_25': [1500], 's_14_14': [3160], 's_15_6': [3638], 's_15_10': [1879], 's_15_11': [3326], 's_15_12': [2011], 's_15_16': [1786], 's_15_17': [2042], 's_15_18': [3262], 's_15_20': [3698], 's_15_23': [1996], 's_15_24': [1609], 's_15_25': [3232], 's_15_26': [3473], 's_15_27': [1759], 's_15_15': [3818], 's_16_6': [3175], 's_16_8': [1772], 's_16_11': [2177], 's_16_17': [1726], 's_16_20': [1952], 's_16_23': [1817], 's_16_25': [2102], 's_16_26': [3504, 1682], 's_16_27': [3414], 's_16_16': [2282], 's_20_6': [3550], 's_20_8': [3802, 1414], 's_20_10': [1804], 's_20_11': [3340], 's_20_12': [3415], 's_20_17': [3565], 's_20_22': [2133], 's_20_23': [1654], 's_20_26': [1608], 's_20_20': [1564, 1565], 's_23_2': [1727, 3398], 's_23_12': [1951], 's_23_17': [1712], 's_23_18': [1637], 's_23_21': [3803], 's_23_22': [1998], 's_23_27': [1921], 's_23_23': [3441], 's_26_2': [3578], 's_26_11': [3476], 's_26_21': [3536], 's_26_26': [3413], 's_18_2': [1757], 's_18_8': [3366], 's_18_17': [1696], 's_18_19': [1561], 's_18_25': [3338], 's_18_18': [1247], 's_21_6': [1849], 's_21_11': [3416], 's_21_12': [3236], 's_21_17': [3431], 's_21_25': [3161], 's_21_27': [1894], 's_21_21': [3011], 's_22_2': [3562], 's_22_6': [1848], 's_22_8': [3532], 's_22_10': [1728], 's_22_11': [3626], 's_22_17': [3428, 3427], 's_22_25': [3217], 's_22_27': [3625], 's_22_22': [2932], 's_2_6': [3459], 's_2_10': [3908], 's_2_27': [3820, 3819], 's_2_2': [4014], 's_6_8': [1938, 1937], 's_6_10': [1953], 's_6_11': [2179], 's_6_24': [2209], 's_6_25': [3656], 's_6_6': [3114], 's_8_27': [3863, 1490, 3832], 's_8_17': [1847], 's_8_19': [3457], 's_8_25': [3370], 's_8_8': [3337, 3336], 's_10_12': [3924, 3925], 's_10_17': [2059], 's_10_24': [3729], 's_10_27': [3715], 's_10_10': [1805], 's_17_12': [3716], 's_17_24': [2134], 's_17_17': [2104], 's_19_25': [1606], 's_19_19': [1290], 's_24_11': [3731], 's_24_24': [3713, 3712], 's_27_27': [1850], 's_25_11': [3506], 's_25_12': [2207], 's_25_25': [3282], 's_12_11': [3791], 's_12_12': [3866], 's_11_11': [3342]}</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0002066115702479339</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0009377525386702661</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>{0: [3068, 1548, 3278, 3488, 1545, 1547, 1546], 1: [3158, 1575, 1473, 1472, 1471, 1470, 2981, 2980, 2979, 2978], 's_0_1': [1620], 3: [1413, 1442, 1443, 2223, 3596, 3595, 3594, 3593, 3592], 's_0_3': [3277], 4: [1789, 3848, 3849, 1774, 1773, 3564, 1862, 3098, 3099, 1860, 1861], 's_0_4': [3069], 5: [3637, 1741, 1383, 1382, 3251, 3250, 3249, 3248, 3247, 1381], 's_0_5': [1681], 7: [1590, 1908, 1591, 1907, 1906, 3219, 3218], 's_0_7': [1605], 9: [1905, 3127, 3128, 3129, 3130, 2028, 2027, 2026, 3131], 's_0_9': [3143], 13: [1909, 3761, 3760, 3758, 3759, 1624, 3518, 2119, 1623], 's_0_13': [3412, 1517], 14: [3310, 1876, 1875, 3052, 3053, 3054], 's_0_14': [1650], 15: [2041, 3265, 3264, 3263, 3789, 3788, 1579, 1578, 1577, 1576], 's_0_15': [3293], 16: [3401, 1981, 3400, 3385, 3353, 1787, 3354, 3355, 1982], 's_0_16': [1622], 20: [1562, 3671, 1474, 1563, 3668, 3669, 1967, 1968, 3670], 's_0_20': [3683], 23: [1997, 1669, 3442, 1668, 1667, 3443, 3295, 2012, 3444, 3445], 's_0_23': [1502], 26: [2072, 3521, 3548, 3520, 3622, 3623, 1653, 1697, 3519], 's_0_26': [3489], 's_0_0': [3487], 's_1_4': [1785], 's_1_7': [2993], 's_1_13': [3533], 's_1_16': [1980], 18: [1607, 3383, 3381, 3323, 1501, 3382], 's_1_18': [1487], 's_1_20': [3577], 21: [2145, 3296, 2146, 2147, 2148, 3686, 3804, 3805, 2029], 's_1_21': [2130], 22: [1455, 1456, 1457, 3611, 3610, 1458, 3609, 3608, 3607], 's_1_22': [2917], 's_1_26': [1488], 's_1_1': [1845], 2: [1593, 3563, 1745, 1744, 1742, 1743], 's_3_2': [1758], 's_3_5': [3307], 6: [3640, 1831, 1832, 3549, 3641, 1833, 3639, 1834], 's_3_6': [1713], 8: [1652, 3369, 3368, 1429, 1428, 1427, 3367], 's_3_8': [3397], 's_3_9': [1441], 10: [3910, 3909, 1864, 3655, 3654, 3624, 1863], 's_3_10': [2043], 's_3_13': [3517], 17: [1877, 1756, 3324, 1802, 3701, 2058, 2057, 3429, 3430], 's_3_17': [3702], 19: [1560, 3502, 1352, 1351, 3037, 3036, 1350, 3173, 3172], 's_3_19': [3322], 's_3_22': [2208], 's_3_23': [1412], 24: [3746, 3745, 1639, 3744, 3743], 's_3_24': [1698], 's_3_26': [2073], 27: [1699, 1922, 3864, 3865, 1923, 1924], 's_3_27': [3579], 's_3_3': [3597], 's_4_2': [3714], 's_4_6': [3204], 's_4_7': [1892], 's_4_8': [3847], 's_4_14': [1755], 's_4_15': [3772, 1534], 's_4_17': [3505], 's_4_19': [3097], 's_4_21': [1729], 's_4_23': [1670, 1655], 25: [1531, 2118, 2117, 1530, 3281, 2116, 3187, 3188, 3189, 3190], 's_4_25': [1725], 's_4_27': [1684], 's_4_4': [1504], 's_5_6': [3279], 's_5_7': [3233], 's_5_9': [2176], 12: [3446, 2089, 2088, 3234, 3235, 2086, 2087], 's_5_12': [2071], 's_5_15': [1651], 's_5_16': [2056], 's_5_17': [1801], 's_5_18': [1366], 's_5_19': [3396], 's_5_20': [1518], 's_5_21': [3266], 's_5_23': [3309], 's_5_25': [2131], 's_5_26': [1368], 's_5_5': [1384], 's_7_8': [1711], 's_7_9': [3460], 's_7_10': [3700, 1999], 's_7_12': [1891], 's_7_13': [1984, 3685], 's_7_16': [3399], 's_7_18': [1592], 's_7_19': [1636], 's_7_20': [3490], 's_7_23': [3280], 's_7_25': [1621], 's_7_26': [3535], 's_7_7': [1771], 11: [3341, 2162, 2164, 2163], 's_9_11': [2161], 's_9_12': [1846], 's_9_14': [3039], 's_9_15': [3220], 's_9_17': [3580], 's_9_19': [1515], 's_9_21': [3146], 's_9_22': [3142], 's_9_25': [1710], 's_9_26': [3491], 's_9_9': [3070], 's_13_2': [3773], 's_13_6': [2194], 's_13_10': [2074], 's_13_11': [3775, 3776], 's_13_17': [2149], 's_13_20': [1819], 's_13_21': [3806], 's_13_24': [3730], 's_13_25': [1532], 's_13_26': [3458], 's_13_27': [3774], 's_13_13': [2224], 's_14_8': [3384], 's_14_12': [1936], 's_14_15': [3311], 's_14_17': [3294], 's_14_19': [1425], 's_14_22': [1440], 's_14_23': [3325], 's_14_25': [1500], 's_14_14': [3160], 's_15_6': [3638], 's_15_10': [1879], 's_15_11': [3326], 's_15_12': [2011], 's_15_16': [1786], 's_15_17': [2042], 's_15_18': [3262], 's_15_20': [3698], 's_15_23': [1996], 's_15_24': [1609], 's_15_25': [3232], 's_15_26': [3473], 's_15_27': [1759], 's_15_15': [3818], 's_16_6': [3175], 's_16_8': [1772], 's_16_11': [2177], 's_16_17': [1726], 's_16_20': [1952], 's_16_23': [1817], 's_16_25': [2102], 's_16_26': [3504, 1682], 's_16_27': [3414], 's_16_16': [2282], 's_20_6': [3550], 's_20_8': [3802, 1414], 's_20_10': [1804], 's_20_11': [3340], 's_20_12': [3415], 's_20_17': [3565], 's_20_22': [2133], 's_20_23': [1654], 's_20_26': [1608], 's_20_20': [1564, 1565], 's_23_2': [1727, 3398], 's_23_12': [1951], 's_23_17': [1712], 's_23_18': [1637], 's_23_21': [3803], 's_23_22': [1998], 's_23_27': [1921], 's_23_23': [3441], 's_26_2': [3578], 's_26_11': [3476], 's_26_21': [3536], 's_26_26': [3413], 's_18_2': [1757], 's_18_8': [3366], 's_18_17': [1696], 's_18_19': [1561], 's_18_25': [3338], 's_18_18': [1247], 's_21_6': [1849], 's_21_11': [3416], 's_21_12': [3236], 's_21_17': [3431], 's_21_25': [3161], 's_21_27': [1894], 's_21_21': [3011], 's_22_2': [3562], 's_22_6': [1848], 's_22_8': [3532], 's_22_10': [1728], 's_22_11': [3626], 's_22_17': [3428, 3427], 's_22_25': [3217], 's_22_27': [3625], 's_22_22': [2932], 's_2_6': [3459], 's_2_10': [3908], 's_2_27': [3820, 3819], 's_2_2': [4014], 's_6_8': [1938, 1937], 's_6_10': [1953], 's_6_11': [2179], 's_6_24': [2209], 's_6_25': [3656], 's_6_6': [3114], 's_8_27': [3863, 1490, 3832], 's_8_17': [1847], 's_8_19': [3457], 's_8_25': [3370], 's_8_8': [3337, 3336], 's_10_12': [3924, 3925], 's_10_17': [2059], 's_10_24': [3729], 's_10_27': [3715], 's_10_10': [1805], 's_17_12': [3716], 's_17_24': [2134], 's_17_17': [2104], 's_19_25': [1606], 's_19_19': [1290], 's_24_11': [3731], 's_24_24': [3713, 3712], 's_27_27': [1850], 's_25_11': [3506], 's_25_12': [2207], 's_25_25': [3282], 's_12_11': [3791], 's_12_12': [3866], 's_11_11': [3342]}</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0002066115702479339</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.0009377525386702661</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>{0: [4040, 860, 4038, 4039], 1: [965, 966, 4173, 4174], 3: [784, 4263, 785, 786], 4: [711, 3903, 710], 5: [740, 741, 742, 4278], 6: [829, 4099, 830, 4098], 7: [905, 3978, 3979], 10: [757, 755, 756], 12: [3934, 3933, 3932, 530], 13: [936, 861, 4129, 4128], 15: [4055, 4053, 800, 4054], 16: [4189, 680, 681, 4188], 17: [3873, 876, 875, 3874], 18: [4083, 695, 696], 20: [4008, 4009], 23: [815, 816], 8: [4024, 846, 845], 9: [4097, 4219, 665, 666, 4218], 19: [727, 3963, 726, 725], 24: [891, 890, 3844, 889], 26: [3992, 3993, 3994], 27: [770, 772, 4113, 771], 2: [935, 3947, 3949, 3948], 22: [920, 3888, 3889], 11: [906, 4068, 4069], 14: [814, 3917, 3918], 25: [921, 4158, 4159], 28: [981, 980, 3964], 21: [950, 951, 4144, 4143]}</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.03029611022303419</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.02663752281432702</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>{0: [4040, 860, 4038, 4039], 1: [965, 966, 4173, 4174], 3: [784, 4263, 785, 786], 4: [711, 3903, 710], 5: [740, 741, 742, 4278], 6: [829, 4099, 830, 4098], 7: [905, 3978, 3979], 10: [757, 755, 756], 12: [3934, 3933, 3932, 530], 13: [936, 861, 4129, 4128], 15: [4055, 4053, 800, 4054], 16: [4189, 680, 681, 4188], 17: [3873, 876, 875, 3874], 18: [4083, 695, 696], 20: [4008, 4009], 23: [815, 816], 8: [4024, 846, 845], 9: [4097, 4219, 665, 666, 4218], 19: [727, 3963, 726, 725], 24: [891, 890, 3844, 889], 26: [3992, 3993, 3994], 27: [770, 772, 4113, 771], 2: [935, 3947, 3949, 3948], 22: [920, 3888, 3889], 11: [906, 4068, 4069], 14: [814, 3917, 3918], 25: [921, 4158, 4159], 28: [981, 980, 3964], 21: [950, 951, 4144, 4143]}</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0.03029611022303419</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.02663752281432702</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.094</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>{0: [3516, 933, 3515, 3514, 3511, 3512, 3513], 1: [919, 3556, 3784, 3557, 528, 529, 3782, 3783], 's_0_1': [437], 3: [3740, 3738, 3259, 901, 902, 3409, 1007, 1008, 3739], 's_0_3': [977], 4: [3216, 3215, 797, 796, 3214, 556, 3212, 3213], 's_0_4': [3529], 5: [3171, 3170, 409, 408, 407, 406, 872, 871, 3167, 3168, 3169], 's_0_5': [393], 6: [961, 3274, 3273, 379, 3346, 3272, 3271, 378, 377], 's_0_6': [257, 256], 7: [3242, 452, 451, 450, 3062, 3063, 900, 3064], 's_0_7': [3527], 10: [768, 1263, 3456, 3455, 3454, 542, 543, 3452, 3453], 's_0_10': [1098], 12: [3651, 3650, 3109, 3649, 855, 856, 857, 858], 's_0_12': [1248], 13: [3201, 3633, 1276, 1277, 1278, 978, 3634, 3635, 3636, 1279], 's_0_13': [1218], 15: [510, 511, 512, 3666, 3665, 3664, 3663, 3662, 513], 's_0_15': [678], 16: [3860, 3861, 1189, 1188, 1187, 3230, 1186, 3229, 885, 886], 's_0_16': [1172], 17: [3376, 3377, 3378, 889, 888, 887, 3379], 's_0_17': [3604], 18: [3425, 3859, 945, 946, 947, 3424, 829, 828, 827], 's_0_18': [812], 20: [3632, 3184, 3183, 3182, 3181, 481, 3391, 483, 482], 's_0_20': [287, 3390], 23: [3572, 3573, 3574, 1173, 1129, 1126, 1127, 1128, 3575], 's_0_23': [918], 's_0_0': [348], 's_1_3': [769], 's_1_5': [3707], 's_1_7': [3677, 453], 8: [3318, 3618, 3320, 3319, 784, 783, 782, 781], 's_1_8': [799], 9: [3590, 3589, 3588, 735, 740, 739, 738, 3137, 3138, 736, 737], 's_1_9': [3587], 's_1_10': [467], 's_1_12': [934], 's_1_15': [498], 's_1_18': [859], 19: [979, 3751, 3752, 3753, 3754], 's_1_19': [514], 's_1_20': [422], 's_1_23': [3785], 24: [3471, 616, 615, 3032, 3033, 1217, 1216, 617, 3035, 1215, 3034], 's_1_24': [3542], 26: [3437, 3126, 3125, 3124, 573, 3362, 572, 571, 3123], 's_1_26': [602], 27: [3303, 722, 559, 3468, 723, 724, 3724, 3721, 3723, 3722], 's_1_27': [484], 's_1_1': [3857], 2: [3107, 3108, 3423, 767, 765, 3154, 766], 's_3_2': [3139], 's_3_4': [931], 's_3_5': [3394], 's_3_6': [811], 's_3_9': [798], 's_3_10': [992], 's_3_12': [3094], 's_3_15': [3680], 's_3_16': [1009], 's_3_18': [844], 's_3_20': [3199], 22: [3290, 3288, 3287, 589, 588, 3289, 587], 's_3_22': [841], 's_3_23': [3605], 's_3_27': [3725], 's_3_3': [1069], 's_4_7': [555, 540], 's_4_8': [3228], 's_4_9': [3408], 's_4_10': [541], 11: [3815, 3049, 2990, 1024, 1023, 1020, 1021, 1022], 's_4_11': [1036], 's_4_13': [1381], 14: [1082, 3363, 3364, 1202, 3365], 's_4_14': [1141], 's_4_16': [1171], 's_4_17': [3484], 's_4_20': [3257], 25: [964, 3814, 3813, 649, 648, 633, 632, 631, 3227, 3226], 's_4_25': [3243], 's_4_27': [721], 's_4_4': [1291], 's_5_2': [3155], 's_5_9': [391], 's_5_10': [3302], 's_5_14': [1201], 's_5_15': [394], 's_5_16': [1096], 's_5_17': [392], 's_5_19': [3766], 's_5_20': [3196], 's_5_22': [3286], 's_5_23': [3156], 's_5_25': [630], 's_5_27': [661], 's_5_5': [3466], 's_6_7': [3541], 's_6_9': [3136, 376], 's_6_10': [3451], 's_6_14': [932], 's_6_15': [3347, 421], 's_6_18': [962], 's_6_19': [364], 's_6_20': [347], 's_6_22': [526], 's_6_24': [601], 's_6_25': [436], 's_6_26': [3436], 's_6_6': [286], 's_7_2': [750], 's_7_9': [3078], 's_7_10': [3422], 's_7_11': [3004], 's_7_16': [2974], 's_7_17': [3361], 's_7_18': [2929], 's_7_22': [466], 's_7_24': [585], 28: [3558, 810, 694, 3198, 691, 693, 692], 's_7_28': [3079], 's_7_7': [3046], 's_10_2': [662], 's_10_8': [3543], 's_10_11': [3470], 's_10_12': [1264], 's_10_13': [1246, 1247], 's_10_15': [3317], 's_10_17': [1037], 's_10_18': [1112, 1113, 3531], 21: [1006, 3335, 842, 3333, 3334], 's_10_21': [3332], 's_10_22': [557], 's_10_24': [3501], 's_10_25': [647], 's_10_26': [497], 's_10_10': [3576], 's_12_2': [3003], 's_12_9': [3018], 's_12_14': [1203], 's_12_15': [1158], 's_12_17': [3619], 's_12_21': [3349], 's_12_23': [3110], 's_12_24': [840], 's_12_26': [960], 's_12_28': [3048], 's_12_12': [1309], 's_13_8': [3321], 's_13_9': [3591], 's_13_11': [1038], 's_13_15': [663], 's_13_16': [3306], 's_13_17': [873], 's_13_18': [1157, 3486], 's_13_19': [3756, 3755], 's_13_24': [3200], 's_13_25': [755, 754], 's_13_26': [3111, 1200], 's_13_28': [3648], 's_13_13': [3637], 's_15_2': [3092], 's_15_8': [3679], 's_15_16': [3681], 's_15_20': [3077, 465], 's_15_23': [993], 's_15_24': [3047], 's_15_26': [574], 's_15_27': [423], 's_15_15': [2987], 's_16_2': [2989], 's_16_9': [1053, 3560], 's_16_11': [3019], 's_16_14': [3441], 's_16_18': [3891, 3890, 3889], 's_16_19': [994], 's_16_21': [991], 's_16_22': [1051], 's_16_23': [3545], 's_16_24': [3336], 's_16_25': [935], 's_16_26': [1185], 's_16_16': [1174], 's_17_8': [3844], 's_17_19': [3799], 's_17_21': [677], 's_17_26': [527], 's_17_27': [874], 's_17_28': [3559], 's_17_17': [890], 's_18_2': [3393], 's_18_11': [3350], 's_18_19': [3829], 's_18_21': [3439], 's_18_22': [917], 's_18_23': [948], 's_18_25': [814, 3768], 's_18_26': [3140], 's_18_18': [830], 's_20_9': [435], 's_20_11': [975], 's_20_24': [990], 's_20_25': [331], 's_20_27': [676], 's_20_28': [795], 's_20_20': [3571], 's_23_8': [753], 's_23_11': [3245], 's_23_14': [3410], 's_23_26': [1111], 's_23_28': [708], 's_23_23': [1130], 's_8_2': [752], 's_8_11': [3305], 's_8_14': [976], 's_8_25': [3708, 3709], 's_8_26': [3617], 's_8_27': [3438], 's_8_28': [3603], 's_8_8': [3874], 's_9_14': [1083], 's_9_22': [3528], 's_9_24': [720], 's_9_25': [725, 3888], 's_9_27': [679, 3798], 's_9_9': [2988], 's_19_11': [3695, 949], 's_19_22': [3767], 's_19_25': [634], 's_19_27': [334], 's_19_28': [709], 's_19_19': [3750], 's_24_2': [705], 's_24_11': [1050], 's_24_14': [3351], 's_24_21': [1005], 's_24_22': [3407], 's_24_26': [570], 's_24_27': [618], 's_24_28': [825], 's_24_24': [1170], 's_26_11': [1065], 's_26_27': [3467], 's_26_28': [3197], 's_26_26': [780], 's_27_11': [1039], 's_27_14': [707], 's_27_21': [3469], 's_27_22': [3797], 's_27_25': [3693, 603], 's_27_27': [560], 's_2_28': [751], 's_2_2': [3093], 's_22_28': [3678], 's_22_22': [3647], 's_11_25': [3845], 's_11_11': [3485], 's_14_14': [1081], 's_25_28': [3858], 's_25_21': [3348], 's_25_25': [3917], 's_28_28': [695], 's_21_21': [843]}</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0001835205992509364</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0008084944390694002</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>{0: [3516, 933, 3515, 3514, 3511, 3512, 3513], 1: [919, 3556, 3784, 3557, 528, 529, 3782, 3783], 's_0_1': [437], 3: [3740, 3738, 3259, 901, 902, 3409, 1007, 1008, 3739], 's_0_3': [977], 4: [3216, 3215, 797, 796, 3214, 556, 3212, 3213], 's_0_4': [3529], 5: [3171, 3170, 409, 408, 407, 406, 872, 871, 3167, 3168, 3169], 's_0_5': [393], 6: [961, 3274, 3273, 379, 3346, 3272, 3271, 378, 377], 's_0_6': [257, 256], 7: [3242, 452, 451, 450, 3062, 3063, 900, 3064], 's_0_7': [3527], 10: [768, 1263, 3456, 3455, 3454, 542, 543, 3452, 3453], 's_0_10': [1098], 12: [3651, 3650, 3109, 3649, 855, 856, 857, 858], 's_0_12': [1248], 13: [3201, 3633, 1276, 1277, 1278, 978, 3634, 3635, 3636, 1279], 's_0_13': [1218], 15: [510, 511, 512, 3666, 3665, 3664, 3663, 3662, 513], 's_0_15': [678], 16: [3860, 3861, 1189, 1188, 1187, 3230, 1186, 3229, 885, 886], 's_0_16': [1172], 17: [3376, 3377, 3378, 889, 888, 887, 3379], 's_0_17': [3604], 18: [3425, 3859, 945, 946, 947, 3424, 829, 828, 827], 's_0_18': [812], 20: [3632, 3184, 3183, 3182, 3181, 481, 3391, 483, 482], 's_0_20': [287, 3390], 23: [3572, 3573, 3574, 1173, 1129, 1126, 1127, 1128, 3575], 's_0_23': [918], 's_0_0': [348], 's_1_3': [769], 's_1_5': [3707], 's_1_7': [3677, 453], 8: [3318, 3618, 3320, 3319, 784, 783, 782, 781], 's_1_8': [799], 9: [3590, 3589, 3588, 735, 740, 739, 738, 3137, 3138, 736, 737], 's_1_9': [3587], 's_1_10': [467], 's_1_12': [934], 's_1_15': [498], 's_1_18': [859], 19: [979, 3751, 3752, 3753, 3754], 's_1_19': [514], 's_1_20': [422], 's_1_23': [3785], 24: [3471, 616, 615, 3032, 3033, 1217, 1216, 617, 3035, 1215, 3034], 's_1_24': [3542], 26: [3437, 3126, 3125, 3124, 573, 3362, 572, 571, 3123], 's_1_26': [602], 27: [3303, 722, 559, 3468, 723, 724, 3724, 3721, 3723, 3722], 's_1_27': [484], 's_1_1': [3857], 2: [3107, 3108, 3423, 767, 765, 3154, 766], 's_3_2': [3139], 's_3_4': [931], 's_3_5': [3394], 's_3_6': [811], 's_3_9': [798], 's_3_10': [992], 's_3_12': [3094], 's_3_15': [3680], 's_3_16': [1009], 's_3_18': [844], 's_3_20': [3199], 22: [3290, 3288, 3287, 589, 588, 3289, 587], 's_3_22': [841], 's_3_23': [3605], 's_3_27': [3725], 's_3_3': [1069], 's_4_7': [555, 540], 's_4_8': [3228], 's_4_9': [3408], 's_4_10': [541], 11: [3815, 3049, 2990, 1024, 1023, 1020, 1021, 1022], 's_4_11': [1036], 's_4_13': [1381], 14: [1082, 3363, 3364, 1202, 3365], 's_4_14': [1141], 's_4_16': [1171], 's_4_17': [3484], 's_4_20': [3257], 25: [964, 3814, 3813, 649, 648, 633, 632, 631, 3227, 3226], 's_4_25': [3243], 's_4_27': [721], 's_4_4': [1291], 's_5_2': [3155], 's_5_9': [391], 's_5_10': [3302], 's_5_14': [1201], 's_5_15': [394], 's_5_16': [1096], 's_5_17': [392], 's_5_19': [3766], 's_5_20': [3196], 's_5_22': [3286], 's_5_23': [3156], 's_5_25': [630], 's_5_27': [661], 's_5_5': [3466], 's_6_7': [3541], 's_6_9': [3136, 376], 's_6_10': [3451], 's_6_14': [932], 's_6_15': [3347, 421], 's_6_18': [962], 's_6_19': [364], 's_6_20': [347], 's_6_22': [526], 's_6_24': [601], 's_6_25': [436], 's_6_26': [3436], 's_6_6': [286], 's_7_2': [750], 's_7_9': [3078], 's_7_10': [3422], 's_7_11': [3004], 's_7_16': [2974], 's_7_17': [3361], 's_7_18': [2929], 's_7_22': [466], 's_7_24': [585], 28: [3558, 810, 694, 3198, 691, 693, 692], 's_7_28': [3079], 's_7_7': [3046], 's_10_2': [662], 's_10_8': [3543], 's_10_11': [3470], 's_10_12': [1264], 's_10_13': [1246, 1247], 's_10_15': [3317], 's_10_17': [1037], 's_10_18': [1112, 1113, 3531], 21: [1006, 3335, 842, 3333, 3334], 's_10_21': [3332], 's_10_22': [557], 's_10_24': [3501], 's_10_25': [647], 's_10_26': [497], 's_10_10': [3576], 's_12_2': [3003], 's_12_9': [3018], 's_12_14': [1203], 's_12_15': [1158], 's_12_17': [3619], 's_12_21': [3349], 's_12_23': [3110], 's_12_24': [840], 's_12_26': [960], 's_12_28': [3048], 's_12_12': [1309], 's_13_8': [3321], 's_13_9': [3591], 's_13_11': [1038], 's_13_15': [663], 's_13_16': [3306], 's_13_17': [873], 's_13_18': [1157, 3486], 's_13_19': [3756, 3755], 's_13_24': [3200], 's_13_25': [755, 754], 's_13_26': [3111, 1200], 's_13_28': [3648], 's_13_13': [3637], 's_15_2': [3092], 's_15_8': [3679], 's_15_16': [3681], 's_15_20': [3077, 465], 's_15_23': [993], 's_15_24': [3047], 's_15_26': [574], 's_15_27': [423], 's_15_15': [2987], 's_16_2': [2989], 's_16_9': [1053, 3560], 's_16_11': [3019], 's_16_14': [3441], 's_16_18': [3891, 3890, 3889], 's_16_19': [994], 's_16_21': [991], 's_16_22': [1051], 's_16_23': [3545], 's_16_24': [3336], 's_16_25': [935], 's_16_26': [1185], 's_16_16': [1174], 's_17_8': [3844], 's_17_19': [3799], 's_17_21': [677], 's_17_26': [527], 's_17_27': [874], 's_17_28': [3559], 's_17_17': [890], 's_18_2': [3393], 's_18_11': [3350], 's_18_19': [3829], 's_18_21': [3439], 's_18_22': [917], 's_18_23': [948], 's_18_25': [814, 3768], 's_18_26': [3140], 's_18_18': [830], 's_20_9': [435], 's_20_11': [975], 's_20_24': [990], 's_20_25': [331], 's_20_27': [676], 's_20_28': [795], 's_20_20': [3571], 's_23_8': [753], 's_23_11': [3245], 's_23_14': [3410], 's_23_26': [1111], 's_23_28': [708], 's_23_23': [1130], 's_8_2': [752], 's_8_11': [3305], 's_8_14': [976], 's_8_25': [3708, 3709], 's_8_26': [3617], 's_8_27': [3438], 's_8_28': [3603], 's_8_8': [3874], 's_9_14': [1083], 's_9_22': [3528], 's_9_24': [720], 's_9_25': [725, 3888], 's_9_27': [679, 3798], 's_9_9': [2988], 's_19_11': [3695, 949], 's_19_22': [3767], 's_19_25': [634], 's_19_27': [334], 's_19_28': [709], 's_19_19': [3750], 's_24_2': [705], 's_24_11': [1050], 's_24_14': [3351], 's_24_21': [1005], 's_24_22': [3407], 's_24_26': [570], 's_24_27': [618], 's_24_28': [825], 's_24_24': [1170], 's_26_11': [1065], 's_26_27': [3467], 's_26_28': [3197], 's_26_26': [780], 's_27_11': [1039], 's_27_14': [707], 's_27_21': [3469], 's_27_22': [3797], 's_27_25': [3693, 603], 's_27_27': [560], 's_2_28': [751], 's_2_2': [3093], 's_22_28': [3678], 's_22_22': [3647], 's_11_25': [3845], 's_11_11': [3485], 's_14_14': [1081], 's_25_28': [3858], 's_25_21': [3348], 's_25_25': [3917], 's_28_28': [695], 's_21_21': [843]}</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0001835205992509364</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0008084944390694002</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>{0: [1961, 4991, 2065, 4990], 1: [5050, 1974, 1976, 1975], 3: [4870, 4871], 6: [4976, 4975, 1914, 1915], 7: [2230, 4751, 2229, 4752], 9: [2004, 2006, 2005], 11: [1960, 4796, 4795], 13: [5081, 2109, 2111, 2110], 14: [2185, 2186, 5065, 5066], 19: [2231, 2141, 5096, 2140], 21: [5005, 2035, 2036], 24: [4855, 4856], 27: [4720, 2216, 2215, 4721], 4: [2139, 4766, 4705, 2049], 5: [4630, 2124, 2126, 2125], 12: [2201, 5035, 2156, 5036], 17: [4900, 2021, 4962, 4961], 20: [5006, 5051, 2170, 2171], 22: [4782, 4780, 4781, 2155], 23: [4947, 4945, 4946], 26: [4736, 4675, 2079], 29: [4825, 2305, 4826], 8: [2245, 2260, 4840, 4841], 16: [4902, 2080, 4901], 28: [4885, 2200, 4886], 10: [4810, 1990, 5021, 5020, 1991], 18: [4930, 4932, 4931], 25: [4690, 4645, 2020, 2019], 2: [5067, 2291, 4797, 2290], 15: [4915, 2095, 4916]}</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.04743784880771182</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.03402052535874838</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>{0: [1961, 4991, 2065, 4990], 1: [5050, 1974, 1976, 1975], 3: [4870, 4871], 6: [4976, 4975, 1914, 1915], 7: [2230, 4751, 2229, 4752], 9: [2004, 2006, 2005], 11: [1960, 4796, 4795], 13: [5081, 2109, 2111, 2110], 14: [2185, 2186, 5065, 5066], 19: [2231, 2141, 5096, 2140], 21: [5005, 2035, 2036], 24: [4855, 4856], 27: [4720, 2216, 2215, 4721], 4: [2139, 4766, 4705, 2049], 5: [4630, 2124, 2126, 2125], 12: [2201, 5035, 2156, 5036], 17: [4900, 2021, 4962, 4961], 20: [5006, 5051, 2170, 2171], 22: [4782, 4780, 4781, 2155], 23: [4947, 4945, 4946], 26: [4736, 4675, 2079], 29: [4825, 2305, 4826], 8: [2245, 2260, 4840, 4841], 16: [4902, 2080, 4901], 28: [4885, 2200, 4886], 10: [4810, 1990, 5021, 5020, 1991], 18: [4930, 4932, 4931], 25: [4690, 4645, 2020, 2019], 2: [5067, 2291, 4797, 2290], 15: [4915, 2095, 4916]}</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0.04743784880771182</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.03402052535874838</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>{0: [2315, 2269, 3883, 3880, 3881, 3882], 1: [3535, 3536, 2163, 2480, 2479, 2478, 3476, 3477, 2327, 3387, 2477], 's_0_1': [3957], 3: [3971, 1865, 2106, 2166, 4075, 2089, 2090, 4076], 's_0_3': [2105], 6: [2118, 2121, 2196, 3758, 3760, 4001, 3759, 2120, 2119], 's_0_6': [4002], 7: [3296, 2236, 1940, 3909, 3910, 3911, 2237, 2238, 2239], 's_0_7': [2210], 9: [1895, 1892, 1893, 3895, 1894], 's_0_9': [1850], 11: [2375, 3639, 3640, 3641, 2312, 2313, 2374, 3642], 's_0_11': [3912], 13: [3896, 3897, 4032, 2361, 2360, 3627, 2357, 2358, 2359], 's_0_13': [3942], 14: [1907, 1906, 2495, 2494, 2493, 2492, 3343, 3342, 3341, 3340], 's_0_14': [3898], 19: [2266, 2267, 3851, 2149, 3744, 3745, 3746, 2268], 's_0_19': [3776], 21: [1608, 3683, 2465, 3928, 1518, 1519, 3922, 3923, 3924, 3925, 3926, 3927], 's_0_21': [2525], 24: [3582, 2026, 2255, 2254, 2253, 3581, 2027, 2028, 3578, 3579, 3580], 's_0_24': [4047], 27: [4031, 3941, 2135, 3713, 3714, 3715, 2133, 2134, 3716], 's_0_27': [2270], 's_0_0': [3884], 4: [2539, 3703, 1655, 1654, 3699, 2344, 3702, 3700, 3701], 's_1_4': [3793], 5: [3397, 3398, 2074, 1833, 1832, 2073, 2072, 3400, 3399], 's_1_5': [2102], 's_1_6': [3611], 12: [1956, 3565, 3413, 3414, 3415, 1952, 1955, 1954, 1953], 's_1_12': [2117], 's_1_14': [3478], 17: [3386, 3833, 3835, 2147, 2015, 3834, 3506, 2013, 2014], 's_1_17': [2297], 20: [2418, 3733, 3732, 3731, 2179, 4135, 4136, 2181, 2180], 's_1_20': [2417], 's_1_21': [3973], 22: [3432, 3653, 2282, 3492, 2193, 2194, 1773, 1788, 3654, 3655, 3656], 's_1_22': [2164], 23: [1847, 3355, 1922, 1923, 1986, 1985, 1984, 3670], 's_1_23': [1968], 26: [4150, 2031, 2030, 3673, 3789, 3672, 3671, 3790, 2029], 's_1_26': [2463], 's_1_27': [2148], 29: [2434, 3762, 2389, 2387, 1757, 3282, 2372, 3281, 3280, 2388, 3279, 1756], 's_1_29': [2373, 3508], 's_1_1': [3552, 3553], 's_3_5': [3866], 's_3_6': [4121], 's_3_7': [1941], 8: [1862, 3520, 4091, 4092, 2450, 3521, 3522, 3523, 2449, 2448, 2447], 's_3_8': [2151], 's_3_13': [2195], 16: [1639, 3728, 3234, 3235, 2086, 3729, 2087, 2088, 3730], 's_3_16': [1640, 3968, 3969], 's_3_19': [2150], 's_3_20': [4061], 's_3_27': [2060], 28: [3566, 3819, 3820, 3852, 3250, 3251, 2221, 2222, 2223, 2224, 3821], 's_3_28': [3836], 's_3_3': [4014], 's_6_4': [1669], 's_6_5': [2075], 's_6_9': [4000], 10: [3369, 3368, 1592, 1849, 3804, 3803, 1594, 1593], 's_6_10': [1609], 's_6_12': [4090], 's_6_13': [4077], 's_6_16': [1804], 's_6_17': [1699], 18: [4180, 2002, 2001, 2000, 3489, 3490, 1998, 1999], 's_6_18': [4105], 's_6_19': [2104], 's_6_21': [3757], 's_6_23': [3775], 25: [3849, 3774, 1790, 1789], 's_6_25': [1759], 's_6_6': [4211], 2: [2042, 3460, 1939, 1938, 1936, 1937], 's_7_2': [3461], 's_7_4': [3908], 's_7_5': [3401], 's_7_8': [2240], 's_7_13': [3537], 's_7_14': [2177], 's_7_16': [3266], 's_7_17': [1835], 's_7_18': [4045], 's_7_19': [3312], 's_7_21': [2285], 's_7_22': [2192], 's_7_23': [4015], 's_7_25': [3954], 's_7_26': [1879], 's_7_27': [3717], 's_7_28': [3221], 's_7_7': [1925], 's_9_4': [3894], 's_9_14': [3445], 's_9_18': [3505], 's_9_21': [1864], 's_9_24': [3430], 's_9_25': [3939], 's_9_26': [3805], 's_9_27': [4030], 's_9_9': [3685], 's_11_4': [3777], 's_11_8': [2376], 's_11_10': [3638], 's_11_13': [3792], 's_11_14': [3718], 's_11_19': [3462], 's_11_22': [1743], 's_11_24': [3612], 's_11_26': [3687], 's_11_28': [3357], 's_11_29': [2311], 's_11_11': [3372], 's_13_4': [3807], 's_13_8': [2346], 's_13_14': [3628], 15: [3622, 3626, 3623, 1818, 2058, 3625, 3624], 's_13_15': [2059], 's_13_17': [3507], 's_13_19': [3327], 's_13_20': [4137], 's_13_21': [2330], 's_13_24': [3987], 's_13_26': [2283], 's_13_27': [2300], 's_13_29': [3297], 's_13_13': [4033], 's_14_2': [3219], 's_14_10': [1876], 's_14_17': [2251], 's_14_20': [2598, 3583], 's_14_21': [2510], 's_14_22': [3493], 's_14_23': [3384], 's_14_24': [2012], 's_14_28': [1891], 's_14_14': [3958], 's_19_4': [2284], 's_19_10': [3743], 's_19_12': [3850], 's_19_16': [1969], 's_19_20': [3657], 's_19_22': [3447], 's_19_24': [3596], 's_19_28': [2299], 's_19_29': [3747], 's_19_19': [1878], 's_21_4': [2345], 's_21_5': [1517], 's_21_8': [4003], 's_21_10': [3802], 's_21_12': [1970], 's_21_15': [1578], 's_21_17': [1625], 's_21_20': [2165], 's_21_22': [3684], 's_21_28': [1714], 's_21_29': [2390], 's_21_21': [3592], 's_24_2': [3295], 's_24_8': [2298], 's_24_10': [3593], 's_24_15': [1623], 's_24_20': [3956], 's_24_28': [2011], 's_24_29': [1758], 's_24_24': [3176], 's_27_2': [2043], 's_27_4': [1744], 's_27_8': [1863], 's_27_10': [1624], 's_27_15': [1713], 's_27_16': [3698], 's_27_17': [1564], 's_27_18': [3940], 's_27_20': [3986], 's_27_25': [1924], 's_27_28': [3806], 's_27_27': [2045], 's_4_5': [1834], 's_4_20': [2509], 's_4_22': [1698], 's_4_25': [3879], 's_4_26': [2524], 's_4_29': [3808], 's_4_4': [3938], 's_5_10': [1802], 's_5_15': [3686], 's_5_16': [1831], 's_5_17': [3431], 's_5_18': [1697], 's_5_22': [1772], 's_5_26': [3791], 's_5_28': [2071], 's_5_5': [1412], 's_12_2': [3865], 's_12_10': [1652], 's_12_16': [2057, 2056], 's_12_17': [3985], 's_12_20': [1971], 's_12_22': [3519, 1727], 's_12_23': [4060], 's_12_12': [3412], 's_17_2': [3550], 's_17_8': [2178], 's_17_10': [1684], 's_17_15': [3610], 's_17_18': [3970], 's_17_25': [1805], 's_17_17': [1534], 's_20_8': [4106], 's_20_18': [2061], 's_20_22': [3761], 's_20_23': [4120], 's_20_26': [2046], 's_20_28': [2329], 's_20_29': [2314], 's_20_20': [2583], 's_22_15': [3534], 's_22_16': [3491], 's_22_18': [1787], 's_22_23': [3669], 's_22_25': [1774], 's_22_28': [3416], 's_22_29': [2281], 's_22_22': [3652, 1413], 's_23_15': [3549], 's_23_16': [1921], 's_23_18': [1987], 's_23_29': [3459, 3594, 1848], 's_23_23': [4165], 's_26_10': [3788], 's_26_25': [1729], 's_26_29': [3688], 's_26_26': [3674], 's_29_2': [2041], 's_29_8': [3429], 's_29_10': [3309, 1667], 's_29_16': [3233], 's_29_18': [3504], 's_29_29': [3249], 's_8_2': [3564], 's_8_16': [1861], 's_8_18': [1877], 's_8_28': [3853], 's_8_8': [4093], 's_16_2': [1966, 3175], 's_16_15': [1908], 's_16_28': [1981], 's_16_16': [1801], 's_28_2': [3265], 's_28_15': [2208], 's_28_25': [1909], 's_28_28': [2191], 's_10_25': [3773], 's_10_15': [1819], 's_10_10': [3533], 's_18_15': [1653], 's_18_18': [4210], 's_25_25': [3999], 's_2_2': [3189], 's_15_15': [1473]}</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.002401486988847583</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.001898038022287053</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>{0: [2315, 2269, 3883, 3880, 3881, 3882], 1: [3535, 3536, 2163, 2480, 2479, 2478, 3476, 3477, 2327, 3387, 2477], 's_0_1': [3957], 3: [3971, 1865, 2106, 2166, 4075, 2089, 2090, 4076], 's_0_3': [2105], 6: [2118, 2121, 2196, 3758, 3760, 4001, 3759, 2120, 2119], 's_0_6': [4002], 7: [3296, 2236, 1940, 3909, 3910, 3911, 2237, 2238, 2239], 's_0_7': [2210], 9: [1895, 1892, 1893, 3895, 1894], 's_0_9': [1850], 11: [2375, 3639, 3640, 3641, 2312, 2313, 2374, 3642], 's_0_11': [3912], 13: [3896, 3897, 4032, 2361, 2360, 3627, 2357, 2358, 2359], 's_0_13': [3942], 14: [1907, 1906, 2495, 2494, 2493, 2492, 3343, 3342, 3341, 3340], 's_0_14': [3898], 19: [2266, 2267, 3851, 2149, 3744, 3745, 3746, 2268], 's_0_19': [3776], 21: [1608, 3683, 2465, 3928, 1518, 1519, 3922, 3923, 3924, 3925, 3926, 3927], 's_0_21': [2525], 24: [3582, 2026, 2255, 2254, 2253, 3581, 2027, 2028, 3578, 3579, 3580], 's_0_24': [4047], 27: [4031, 3941, 2135, 3713, 3714, 3715, 2133, 2134, 3716], 's_0_27': [2270], 's_0_0': [3884], 4: [2539, 3703, 1655, 1654, 3699, 2344, 3702, 3700, 3701], 's_1_4': [3793], 5: [3397, 3398, 2074, 1833, 1832, 2073, 2072, 3400, 3399], 's_1_5': [2102], 's_1_6': [3611], 12: [1956, 3565, 3413, 3414, 3415, 1952, 1955, 1954, 1953], 's_1_12': [2117], 's_1_14': [3478], 17: [3386, 3833, 3835, 2147, 2015, 3834, 3506, 2013, 2014], 's_1_17': [2297], 20: [2418, 3733, 3732, 3731, 2179, 4135, 4136, 2181, 2180], 's_1_20': [2417], 's_1_21': [3973], 22: [3432, 3653, 2282, 3492, 2193, 2194, 1773, 1788, 3654, 3655, 3656], 's_1_22': [2164], 23: [1847, 3355, 1922, 1923, 1986, 1985, 1984, 3670], 's_1_23': [1968], 26: [4150, 2031, 2030, 3673, 3789, 3672, 3671, 3790, 2029], 's_1_26': [2463], 's_1_27': [2148], 29: [2434, 3762, 2389, 2387, 1757, 3282, 2372, 3281, 3280, 2388, 3279, 1756], 's_1_29': [2373, 3508], 's_1_1': [3552, 3553], 's_3_5': [3866], 's_3_6': [4121], 's_3_7': [1941], 8: [1862, 3520, 4091, 4092, 2450, 3521, 3522, 3523, 2449, 2448, 2447], 's_3_8': [2151], 's_3_13': [2195], 16: [1639, 3728, 3234, 3235, 2086, 3729, 2087, 2088, 3730], 's_3_16': [1640, 3968, 3969], 's_3_19': [2150], 's_3_20': [4061], 's_3_27': [2060], 28: [3566, 3819, 3820, 3852, 3250, 3251, 2221, 2222, 2223, 2224, 3821], 's_3_28': [3836], 's_3_3': [4014], 's_6_4': [1669], 's_6_5': [2075], 's_6_9': [4000], 10: [3369, 3368, 1592, 1849, 3804, 3803, 1594, 1593], 's_6_10': [1609], 's_6_12': [4090], 's_6_13': [4077], 's_6_16': [1804], 's_6_17': [1699], 18: [4180, 2002, 2001, 2000, 3489, 3490, 1998, 1999], 's_6_18': [4105], 's_6_19': [2104], 's_6_21': [3757], 's_6_23': [3775], 25: [3849, 3774, 1790, 1789], 's_6_25': [1759], 's_6_6': [4211], 2: [2042, 3460, 1939, 1938, 1936, 1937], 's_7_2': [3461], 's_7_4': [3908], 's_7_5': [3401], 's_7_8': [2240], 's_7_13': [3537], 's_7_14': [2177], 's_7_16': [3266], 's_7_17': [1835], 's_7_18': [4045], 's_7_19': [3312], 's_7_21': [2285], 's_7_22': [2192], 's_7_23': [4015], 's_7_25': [3954], 's_7_26': [1879], 's_7_27': [3717], 's_7_28': [3221], 's_7_7': [1925], 's_9_4': [3894], 's_9_14': [3445], 's_9_18': [3505], 's_9_21': [1864], 's_9_24': [3430], 's_9_25': [3939], 's_9_26': [3805], 's_9_27': [4030], 's_9_9': [3685], 's_11_4': [3777], 's_11_8': [2376], 's_11_10': [3638], 's_11_13': [3792], 's_11_14': [3718], 's_11_19': [3462], 's_11_22': [1743], 's_11_24': [3612], 's_11_26': [3687], 's_11_28': [3357], 's_11_29': [2311], 's_11_11': [3372], 's_13_4': [3807], 's_13_8': [2346], 's_13_14': [3628], 15: [3622, 3626, 3623, 1818, 2058, 3625, 3624], 's_13_15': [2059], 's_13_17': [3507], 's_13_19': [3327], 's_13_20': [4137], 's_13_21': [2330], 's_13_24': [3987], 's_13_26': [2283], 's_13_27': [2300], 's_13_29': [3297], 's_13_13': [4033], 's_14_2': [3219], 's_14_10': [1876], 's_14_17': [2251], 's_14_20': [2598, 3583], 's_14_21': [2510], 's_14_22': [3493], 's_14_23': [3384], 's_14_24': [2012], 's_14_28': [1891], 's_14_14': [3958], 's_19_4': [2284], 's_19_10': [3743], 's_19_12': [3850], 's_19_16': [1969], 's_19_20': [3657], 's_19_22': [3447], 's_19_24': [3596], 's_19_28': [2299], 's_19_29': [3747], 's_19_19': [1878], 's_21_4': [2345], 's_21_5': [1517], 's_21_8': [4003], 's_21_10': [3802], 's_21_12': [1970], 's_21_15': [1578], 's_21_17': [1625], 's_21_20': [2165], 's_21_22': [3684], 's_21_28': [1714], 's_21_29': [2390], 's_21_21': [3592], 's_24_2': [3295], 's_24_8': [2298], 's_24_10': [3593], 's_24_15': [1623], 's_24_20': [3956], 's_24_28': [2011], 's_24_29': [1758], 's_24_24': [3176], 's_27_2': [2043], 's_27_4': [1744], 's_27_8': [1863], 's_27_10': [1624], 's_27_15': [1713], 's_27_16': [3698], 's_27_17': [1564], 's_27_18': [3940], 's_27_20': [3986], 's_27_25': [1924], 's_27_28': [3806], 's_27_27': [2045], 's_4_5': [1834], 's_4_20': [2509], 's_4_22': [1698], 's_4_25': [3879], 's_4_26': [2524], 's_4_29': [3808], 's_4_4': [3938], 's_5_10': [1802], 's_5_15': [3686], 's_5_16': [1831], 's_5_17': [3431], 's_5_18': [1697], 's_5_22': [1772], 's_5_26': [3791], 's_5_28': [2071], 's_5_5': [1412], 's_12_2': [3865], 's_12_10': [1652], 's_12_16': [2057, 2056], 's_12_17': [3985], 's_12_20': [1971], 's_12_22': [3519, 1727], 's_12_23': [4060], 's_12_12': [3412], 's_17_2': [3550], 's_17_8': [2178], 's_17_10': [1684], 's_17_15': [3610], 's_17_18': [3970], 's_17_25': [1805], 's_17_17': [1534], 's_20_8': [4106], 's_20_18': [2061], 's_20_22': [3761], 's_20_23': [4120], 's_20_26': [2046], 's_20_28': [2329], 's_20_29': [2314], 's_20_20': [2583], 's_22_15': [3534], 's_22_16': [3491], 's_22_18': [1787], 's_22_23': [3669], 's_22_25': [1774], 's_22_28': [3416], 's_22_29': [2281], 's_22_22': [3652, 1413], 's_23_15': [3549], 's_23_16': [1921], 's_23_18': [1987], 's_23_29': [3459, 3594, 1848], 's_23_23': [4165], 's_26_10': [3788], 's_26_25': [1729], 's_26_29': [3688], 's_26_26': [3674], 's_29_2': [2041], 's_29_8': [3429], 's_29_10': [3309, 1667], 's_29_16': [3233], 's_29_18': [3504], 's_29_29': [3249], 's_8_2': [3564], 's_8_16': [1861], 's_8_18': [1877], 's_8_28': [3853], 's_8_8': [4093], 's_16_2': [1966, 3175], 's_16_15': [1908], 's_16_28': [1981], 's_16_16': [1801], 's_28_2': [3265], 's_28_15': [2208], 's_28_25': [1909], 's_28_28': [2191], 's_10_25': [3773], 's_10_15': [1819], 's_10_10': [3533], 's_18_15': [1653], 's_18_18': [4210], 's_25_25': [3999], 's_2_2': [3189], 's_15_15': [1473]}</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0.002401486988847583</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.001898038022287053</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>{0: [1313, 1311, 1312], 1: [1072, 4190, 4116, 4115, 1071], 2: [1298, 4191, 1297], 5: [4297, 1132, 4295, 4296], 6: [1371, 4327, 4432, 1372], 7: [4371, 4372], 8: [1491, 4341, 1492, 4342], 9: [1146, 4087, 4086, 4206, 1251], 14: [4387, 1417], 18: [1296, 4072, 1432, 1431], 19: [4175, 4176, 1477, 4177], 21: [4101, 1401, 1447, 4192], 22: [4418, 4417, 1326, 1327], 23: [1192, 4146, 1191], 27: [1117, 4251, 4253, 4252], 28: [4461, 1283, 1282, 1281], 29: [4057, 1207, 1206, 4056], 30: [4403, 4400, 4402, 4401, 1252], 11: [4207, 1342, 1341], 17: [1222, 1221, 4131, 4130], 3: [1521, 4238, 4237, 4236], 13: [1267, 4222, 4221], 15: [1237, 4357, 4356], 20: [1087, 4267, 4266, 4265], 24: [4312, 4310, 4311], 26: [1147, 4325, 4326], 10: [4445, 4446, 1356, 1357], 12: [1161, 4280, 4281, 4282], 16: [1507, 1506, 1386, 4147], 25: [1176, 4386, 1177], 4: [1461, 1463, 1462]}</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.04045307443365695</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.02910567345606251</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>{0: [1313, 1311, 1312], 1: [1072, 4190, 4116, 4115, 1071], 2: [1298, 4191, 1297], 5: [4297, 1132, 4295, 4296], 6: [1371, 4327, 4432, 1372], 7: [4371, 4372], 8: [1491, 4341, 1492, 4342], 9: [1146, 4087, 4086, 4206, 1251], 14: [4387, 1417], 18: [1296, 4072, 1432, 1431], 19: [4175, 4176, 1477, 4177], 21: [4101, 1401, 1447, 4192], 22: [4418, 4417, 1326, 1327], 23: [1192, 4146, 1191], 27: [1117, 4251, 4253, 4252], 28: [4461, 1283, 1282, 1281], 29: [4057, 1207, 1206, 4056], 30: [4403, 4400, 4402, 4401, 1252], 11: [4207, 1342, 1341], 17: [1222, 1221, 4131, 4130], 3: [1521, 4238, 4237, 4236], 13: [1267, 4222, 4221], 15: [1237, 4357, 4356], 20: [1087, 4267, 4266, 4265], 24: [4312, 4310, 4311], 26: [1147, 4325, 4326], 10: [4445, 4446, 1356, 1357], 12: [1161, 4280, 4281, 4282], 16: [1507, 1506, 1386, 4147], 25: [1176, 4386, 1177], 4: [1461, 1463, 1462]}</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0.04045307443365695</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.02910567345606251</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>{0: [991, 990, 3437, 437, 3436, 362, 361, 360, 3046, 3049, 3048, 3047], 1: [3949, 1021, 1025, 3377, 3378, 3379, 1024, 1023, 1022], 's_0_1': [1020], 2: [3677, 870, 871, 3678, 708, 3289, 811, 3676, 812, 3543], 's_0_2': [438], 5: [301, 379, 3346, 631, 3273, 3496, 378, 377, 3271, 3272], 's_0_5': [3376], 6: [3650, 3649, 3634, 3633, 3632, 3225, 286, 3421, 287, 288, 3631], 's_0_6': [211, 3136], 7: [3812, 3811, 350, 347, 348, 349], 's_0_7': [3331], 8: [946, 947, 601, 602, 603, 948, 949, 3695, 3693, 3694, 874, 3829], 's_0_8': [3350], 9: [934, 933, 3485, 3242, 3243, 3244, 962, 960, 3305, 961], 's_0_9': [3245], 14: [574, 482, 3827, 483, 3798, 3797, 3842, 484], 's_0_14': [3497], 18: [557, 558, 559, 3755, 3754, 545, 544, 3753, 3752], 's_0_18': [3527], 19: [3211, 3470, 3212, 1009, 1008, 3213, 1007, 1006, 3214], 's_0_19': [3320], 21: [857, 678, 3365, 677, 3364, 3363, 3362], 's_0_21': [572], 22: [3183, 512, 3257, 182, 181, 3180, 511, 3182, 3181], 's_0_22': [3184], 23: [645, 153, 3570, 3571, 3572, 3228, 3227, 646, 647, 648], 's_0_23': [3438], 27: [3680, 3635, 1068, 3195, 3196, 3197, 3198, 3199, 3200, 1067, 1066], 's_0_27': [1005], 28: [3077, 3916, 3917, 619, 615, 616, 617, 618], 's_0_28': [540], 29: [3454, 316, 3724, 3723, 724, 723, 317, 3451, 3452, 3453], 's_0_29': [3286], 30: [604, 3241, 406, 407, 408, 409, 410, 1055, 3875, 3874, 3873, 3872], 's_0_30': [3482], 's_0_0': [2956], 's_1_2': [3290], 's_1_5': [542], 's_1_9': [1036], 11: [3394, 589, 887, 888, 889, 3858, 590, 3902, 3860, 3903, 784, 3859], 's_1_11': [950], 17: [3349, 3348, 692, 691, 3465, 3466, 3467, 632, 3468], 's_1_17': [662], 's_1_18': [980, 979], 's_1_19': [3830], 's_1_21': [781], 's_1_22': [526, 527], 's_1_23': [3229], 's_1_27': [1038], 's_1_29': [1039], 's_1_30': [890], 's_1_1': [3995], 3: [3617, 3618, 766, 767, 769, 768], 's_2_3': [693], 's_2_5': [3661], 's_2_6': [318], 's_2_11': [709], 13: [3120, 3121, 3122, 3123, 3844, 3124, 795, 796, 797, 798, 799, 3813], 's_2_13': [885], 's_2_14': [3556, 333], 15: [529, 528, 3587, 168, 3285, 393, 3586, 258, 227, 228, 3585], 's_2_15': [243], 's_2_17': [3528], 20: [720, 3408, 721, 3316, 3317, 3318, 722], 's_2_20': [3319], 's_2_21': [976], 's_2_23': [273], 24: [3901, 424, 423, 420, 3061, 421, 3391, 422], 's_2_24': [3781, 394], 26: [3259, 450, 3255, 841, 3169, 3168, 226, 3030, 240, 3166, 3167], 's_2_26': [810], 's_2_28': [3542], 's_2_2': [3019], 's_5_6': [3481], 's_5_9': [3274], 10: [3435, 1099, 242, 3511, 3512, 3785, 3784, 3783, 3782, 499, 498], 's_5_10': [363], 12: [3574, 3300, 3573, 740, 3301, 739, 3302, 3303, 737, 738], 's_5_12': [212], 's_5_15': [213], 16: [3154, 751, 259, 752, 753, 754, 755, 3889, 3888, 3887, 3886], 's_5_16': [3796, 3795], 's_5_17': [272], 's_5_19': [331], 's_5_20': [3333], 's_5_24': [3347], 25: [3480, 3406, 3405, 150, 151, 152], 's_5_25': [3345], 's_5_27': [676], 's_5_28': [380], 's_5_5': [3691, 304], 4: [392, 391, 390, 2987, 2988, 2989, 2990, 1050, 1051, 1054, 1053, 1052], 's_6_4': [3256], 's_6_7': [3526], 's_6_8': [978], 's_6_10': [303], 's_6_11': [873], 's_6_12': [828], 's_6_14': [3422], 's_6_15': [3616], 's_6_16': [289], 's_6_17': [107, 3420], 's_6_21': [858], 's_6_22': [3375], 's_6_24': [3601], 's_6_26': [3210], 's_6_30': [271], 's_6_6': [3720], 's_7_10': [3766], 's_7_11': [560], 's_7_14': [3721], 's_7_16': [3871], 's_7_18': [3751], 's_7_28': [335], 's_7_29': [332], 's_7_30': [3961], 's_7_7': [334], 's_8_4': [3710], 's_8_9': [932, 931], 's_8_11': [844, 845], 's_8_12': [3828], 's_8_14': [664], 's_8_15': [3722], 's_8_18': [3647], 's_8_19': [3544], 's_8_22': [3287], 's_8_23': [3708], 's_8_26': [3170], 's_8_27': [3515], 's_8_28': [600], 's_8_30': [920, 3814], 's_8_8': [829], 's_9_3': [916, 3139], 's_9_4': [3335], 's_9_11': [3424, 977], 's_9_12': [466], 's_9_13': [3125], 's_9_16': [886], 's_9_18': [3769], 's_9_20': [496], 's_9_26': [736], 's_9_27': [3530], 's_9_29': [3739], 's_9_30': [935, 3934], 's_9_9': [3306], 's_14_3': [694, 3738], 's_14_11': [634], 's_14_12': [3843], 's_14_15': [3541], 's_14_18': [649], 's_14_24': [454], 's_14_25': [497], 's_14_30': [3361], 's_14_14': [3841], 's_18_3': [3768], 's_18_4': [1069], 's_18_12': [3977, 3978], 's_18_13': [814], 's_18_15': [453, 3692], 's_18_19': [994], 's_18_20': [3407], 's_18_21': [679], 's_18_23': [543], 's_18_18': [1174], 's_19_3': [3665, 3664], 's_19_4': [3425, 992], 's_19_10': [3800], 's_19_11': [3469], 's_19_12': [993], 's_19_13': [571], 's_19_16': [3890], 's_19_20': [3409], 's_19_21': [3500, 1037], 's_19_22': [556], 's_19_24': [3226], 's_19_27': [3215], 's_19_19': [3471], 's_21_3': [3423], 's_21_11': [3439], 's_21_12': [587], 's_21_13': [3603], 's_21_16': [3393], 's_21_27': [3380], 's_21_29': [707], 's_21_21': [1186], 's_22_3': [513], 's_22_4': [510], 's_22_10': [3390], 's_22_12': [166], 's_22_13': [3135], 's_22_15': [183], 's_22_16': [825], 's_22_26': [3165], 's_22_27': [346], 's_22_28': [541, 3092], 's_22_22': [3270], 's_23_3': [663], 's_23_12': [3648], 's_23_15': [3630], 's_23_16': [856], 's_23_25': [198], 's_23_26': [661], 's_23_28': [3513], 's_23_29': [573], 's_23_23': [3510], 's_27_4': [3230], 's_27_10': [1129], 's_27_13': [435], 's_27_16': [780], 's_27_17': [901, 902], 's_27_20': [586, 3138], 's_27_25': [270, 3045], 's_27_26': [196], 's_27_28': [3032, 630], 's_27_30': [376], 's_27_27': [3201], 's_28_3': [3602], 's_28_10': [469], 's_28_11': [680], 's_28_13': [465], 's_28_15': [3767], 's_28_17': [3557], 's_28_24': [395], 's_28_28': [620], 's_29_12': [813], 's_29_15': [3450], 's_29_24': [315], 's_29_25': [302], 's_29_26': [3151], 's_29_30': [725], 's_29_29': [3725], 's_30_4': [3137], 's_30_10': [514, 515, 3707], 's_30_11': [530], 's_30_16': [860], 's_30_25': [3240], 's_30_30': [3826], 's_11_4': [3845], 's_11_10': [964], 's_11_12': [3558, 3559], 's_11_13': [3679], 's_11_17': [3334], 's_11_24': [3857], 's_11_11': [575], 's_17_12': [633, 3663], 's_17_13': [782], 's_17_15': [167], 's_17_16': [3153], 's_17_20': [842], 's_17_25': [467], 's_17_17': [137], 's_3_12': [3588], 's_3_13': [770], 's_3_16': [3514], 's_3_20': [3108], 's_3_3': [3619], 's_13_4': [675], 's_13_10': [859], 's_13_12': [3918], 's_13_16': [3529], 's_13_20': [3078], 's_13_24': [330], 's_13_25': [165], 's_13_26': [255], 's_13_13': [31], 's_15_10': [3540], 's_15_16': [3750, 229], 's_15_20': [256], 's_15_26': [121], 's_15_15': [3615], 's_20_4': [735], 's_20_12': [451], 's_20_16': [3093], 's_20_24': [436], 's_20_20': [3033], 's_24_4': [3152], 's_24_10': [3662], 's_24_16': [439], 's_24_25': [3091, 3090], 's_24_24': [3076], 's_26_25': [3060], 's_26_26': [3031], 's_10_16': [500], 's_10_25': [452], 's_10_10': [1114, 3711], 's_12_4': [3575], 's_12_25': [3315], 's_12_12': [3933], 's_16_16': [665], 's_25_25': [2970], 's_4_4': [3410, 1127]}</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0003127147766323024</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.001011961852958068</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>{0: [991, 990, 3437, 437, 3436, 362, 361, 360, 3046, 3049, 3048, 3047], 1: [3949, 1021, 1025, 3377, 3378, 3379, 1024, 1023, 1022], 's_0_1': [1020], 2: [3677, 870, 871, 3678, 708, 3289, 811, 3676, 812, 3543], 's_0_2': [438], 5: [301, 379, 3346, 631, 3273, 3496, 378, 377, 3271, 3272], 's_0_5': [3376], 6: [3650, 3649, 3634, 3633, 3632, 3225, 286, 3421, 287, 288, 3631], 's_0_6': [211, 3136], 7: [3812, 3811, 350, 347, 348, 349], 's_0_7': [3331], 8: [946, 947, 601, 602, 603, 948, 949, 3695, 3693, 3694, 874, 3829], 's_0_8': [3350], 9: [934, 933, 3485, 3242, 3243, 3244, 962, 960, 3305, 961], 's_0_9': [3245], 14: [574, 482, 3827, 483, 3798, 3797, 3842, 484], 's_0_14': [3497], 18: [557, 558, 559, 3755, 3754, 545, 544, 3753, 3752], 's_0_18': [3527], 19: [3211, 3470, 3212, 1009, 1008, 3213, 1007, 1006, 3214], 's_0_19': [3320], 21: [857, 678, 3365, 677, 3364, 3363, 3362], 's_0_21': [572], 22: [3183, 512, 3257, 182, 181, 3180, 511, 3182, 3181], 's_0_22': [3184], 23: [645, 153, 3570, 3571, 3572, 3228, 3227, 646, 647, 648], 's_0_23': [3438], 27: [3680, 3635, 1068, 3195, 3196, 3197, 3198, 3199, 3200, 1067, 1066], 's_0_27': [1005], 28: [3077, 3916, 3917, 619, 615, 616, 617, 618], 's_0_28': [540], 29: [3454, 316, 3724, 3723, 724, 723, 317, 3451, 3452, 3453], 's_0_29': [3286], 30: [604, 3241, 406, 407, 408, 409, 410, 1055, 3875, 3874, 3873, 3872], 's_0_30': [3482], 's_0_0': [2956], 's_1_2': [3290], 's_1_5': [542], 's_1_9': [1036], 11: [3394, 589, 887, 888, 889, 3858, 590, 3902, 3860, 3903, 784, 3859], 's_1_11': [950], 17: [3349, 3348, 692, 691, 3465, 3466, 3467, 632, 3468], 's_1_17': [662], 's_1_18': [980, 979], 's_1_19': [3830], 's_1_21': [781], 's_1_22': [526, 527], 's_1_23': [3229], 's_1_27': [1038], 's_1_29': [1039], 's_1_30': [890], 's_1_1': [3995], 3: [3617, 3618, 766, 767, 769, 768], 's_2_3': [693], 's_2_5': [3661], 's_2_6': [318], 's_2_11': [709], 13: [3120, 3121, 3122, 3123, 3844, 3124, 795, 796, 797, 798, 799, 3813], 's_2_13': [885], 's_2_14': [3556, 333], 15: [529, 528, 3587, 168, 3285, 393, 3586, 258, 227, 228, 3585], 's_2_15': [243], 's_2_17': [3528], 20: [720, 3408, 721, 3316, 3317, 3318, 722], 's_2_20': [3319], 's_2_21': [976], 's_2_23': [273], 24: [3901, 424, 423, 420, 3061, 421, 3391, 422], 's_2_24': [3781, 394], 26: [3259, 450, 3255, 841, 3169, 3168, 226, 3030, 240, 3166, 3167], 's_2_26': [810], 's_2_28': [3542], 's_2_2': [3019], 's_5_6': [3481], 's_5_9': [3274], 10: [3435, 1099, 242, 3511, 3512, 3785, 3784, 3783, 3782, 499, 498], 's_5_10': [363], 12: [3574, 3300, 3573, 740, 3301, 739, 3302, 3303, 737, 738], 's_5_12': [212], 's_5_15': [213], 16: [3154, 751, 259, 752, 753, 754, 755, 3889, 3888, 3887, 3886], 's_5_16': [3796, 3795], 's_5_17': [272], 's_5_19': [331], 's_5_20': [3333], 's_5_24': [3347], 25: [3480, 3406, 3405, 150, 151, 152], 's_5_25': [3345], 's_5_27': [676], 's_5_28': [380], 's_5_5': [3691, 304], 4: [392, 391, 390, 2987, 2988, 2989, 2990, 1050, 1051, 1054, 1053, 1052], 's_6_4': [3256], 's_6_7': [3526], 's_6_8': [978], 's_6_10': [303], 's_6_11': [873], 's_6_12': [828], 's_6_14': [3422], 's_6_15': [3616], 's_6_16': [289], 's_6_17': [107, 3420], 's_6_21': [858], 's_6_22': [3375], 's_6_24': [3601], 's_6_26': [3210], 's_6_30': [271], 's_6_6': [3720], 's_7_10': [3766], 's_7_11': [560], 's_7_14': [3721], 's_7_16': [3871], 's_7_18': [3751], 's_7_28': [335], 's_7_29': [332], 's_7_30': [3961], 's_7_7': [334], 's_8_4': [3710], 's_8_9': [932, 931], 's_8_11': [844, 845], 's_8_12': [3828], 's_8_14': [664], 's_8_15': [3722], 's_8_18': [3647], 's_8_19': [3544], 's_8_22': [3287], 's_8_23': [3708], 's_8_26': [3170], 's_8_27': [3515], 's_8_28': [600], 's_8_30': [920, 3814], 's_8_8': [829], 's_9_3': [916, 3139], 's_9_4': [3335], 's_9_11': [3424, 977], 's_9_12': [466], 's_9_13': [3125], 's_9_16': [886], 's_9_18': [3769], 's_9_20': [496], 's_9_26': [736], 's_9_27': [3530], 's_9_29': [3739], 's_9_30': [935, 3934], 's_9_9': [3306], 's_14_3': [694, 3738], 's_14_11': [634], 's_14_12': [3843], 's_14_15': [3541], 's_14_18': [649], 's_14_24': [454], 's_14_25': [497], 's_14_30': [3361], 's_14_14': [3841], 's_18_3': [3768], 's_18_4': [1069], 's_18_12': [3977, 3978], 's_18_13': [814], 's_18_15': [453, 3692], 's_18_19': [994], 's_18_20': [3407], 's_18_21': [679], 's_18_23': [543], 's_18_18': [1174], 's_19_3': [3665, 3664], 's_19_4': [3425, 992], 's_19_10': [3800], 's_19_11': [3469], 's_19_12': [993], 's_19_13': [571], 's_19_16': [3890], 's_19_20': [3409], 's_19_21': [3500, 1037], 's_19_22': [556], 's_19_24': [3226], 's_19_27': [3215], 's_19_19': [3471], 's_21_3': [3423], 's_21_11': [3439], 's_21_12': [587], 's_21_13': [3603], 's_21_16': [3393], 's_21_27': [3380], 's_21_29': [707], 's_21_21': [1186], 's_22_3': [513], 's_22_4': [510], 's_22_10': [3390], 's_22_12': [166], 's_22_13': [3135], 's_22_15': [183], 's_22_16': [825], 's_22_26': [3165], 's_22_27': [346], 's_22_28': [541, 3092], 's_22_22': [3270], 's_23_3': [663], 's_23_12': [3648], 's_23_15': [3630], 's_23_16': [856], 's_23_25': [198], 's_23_26': [661], 's_23_28': [3513], 's_23_29': [573], 's_23_23': [3510], 's_27_4': [3230], 's_27_10': [1129], 's_27_13': [435], 's_27_16': [780], 's_27_17': [901, 902], 's_27_20': [586, 3138], 's_27_25': [270, 3045], 's_27_26': [196], 's_27_28': [3032, 630], 's_27_30': [376], 's_27_27': [3201], 's_28_3': [3602], 's_28_10': [469], 's_28_11': [680], 's_28_13': [465], 's_28_15': [3767], 's_28_17': [3557], 's_28_24': [395], 's_28_28': [620], 's_29_12': [813], 's_29_15': [3450], 's_29_24': [315], 's_29_25': [302], 's_29_26': [3151], 's_29_30': [725], 's_29_29': [3725], 's_30_4': [3137], 's_30_10': [514, 515, 3707], 's_30_11': [530], 's_30_16': [860], 's_30_25': [3240], 's_30_30': [3826], 's_11_4': [3845], 's_11_10': [964], 's_11_12': [3558, 3559], 's_11_13': [3679], 's_11_17': [3334], 's_11_24': [3857], 's_11_11': [575], 's_17_12': [633, 3663], 's_17_13': [782], 's_17_15': [167], 's_17_16': [3153], 's_17_20': [842], 's_17_25': [467], 's_17_17': [137], 's_3_12': [3588], 's_3_13': [770], 's_3_16': [3514], 's_3_20': [3108], 's_3_3': [3619], 's_13_4': [675], 's_13_10': [859], 's_13_12': [3918], 's_13_16': [3529], 's_13_20': [3078], 's_13_24': [330], 's_13_25': [165], 's_13_26': [255], 's_13_13': [31], 's_15_10': [3540], 's_15_16': [3750, 229], 's_15_20': [256], 's_15_26': [121], 's_15_15': [3615], 's_20_4': [735], 's_20_12': [451], 's_20_16': [3093], 's_20_24': [436], 's_20_20': [3033], 's_24_4': [3152], 's_24_10': [3662], 's_24_16': [439], 's_24_25': [3091, 3090], 's_24_24': [3076], 's_26_25': [3060], 's_26_26': [3031], 's_10_16': [500], 's_10_25': [452], 's_10_10': [1114, 3711], 's_12_4': [3575], 's_12_25': [3315], 's_12_12': [3933], 's_16_16': [665], 's_25_25': [2970], 's_4_4': [3410, 1127]}</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0003127147766323024</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.001011961852958068</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>{0: [4313, 4314, 4390, 1899, 1898, 1897], 1: [4449, 1599, 1598, 1702, 4448], 2: [1762, 4463, 1764, 1763], 3: [1673, 1674, 4614, 4615], 4: [1825, 1749, 4735, 4734], 6: [1973, 1974, 4600], 8: [4599, 1808, 4629, 1809], 10: [4583, 1629, 4660, 4659, 4658], 11: [1839, 4673, 4675, 4674], 13: [4703, 4705, 4704], 14: [1734, 1732, 1733], 15: [4389, 1659, 1658], 16: [1853, 4688, 4689, 1854], 18: [4404, 4405, 2004, 2003], 19: [1913, 4494, 4493], 20: [4719, 4765, 1883, 1884], 22: [4359, 1867, 1944, 4464, 1943], 23: [1612, 1614, 4538, 1613], 25: [4750, 4749, 1778, 1779], 28: [4585, 1703, 4584], 5: [2019, 4644, 4643, 2109, 4645], 12: [1568, 4555, 4553, 4554], 17: [4434, 1644, 1643, 4613, 4433], 21: [4525, 4523, 4524], 24: [1794, 4509, 1793], 26: [1717, 1719, 1718], 29: [4628, 1687, 1688], 30: [1928, 4480, 4478, 4479], 9: [1959, 4419, 1958, 1838, 4420], 27: [4539, 1823, 1824], 7: [1869, 1868], 31: [4569, 1989, 4570]}</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.05405</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.03389557493243034</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>{0: [4313, 4314, 4390, 1899, 1898, 1897], 1: [4449, 1599, 1598, 1702, 4448], 2: [1762, 4463, 1764, 1763], 3: [1673, 1674, 4614, 4615], 4: [1825, 1749, 4735, 4734], 6: [1973, 1974, 4600], 8: [4599, 1808, 4629, 1809], 10: [4583, 1629, 4660, 4659, 4658], 11: [1839, 4673, 4675, 4674], 13: [4703, 4705, 4704], 14: [1734, 1732, 1733], 15: [4389, 1659, 1658], 16: [1853, 4688, 4689, 1854], 18: [4404, 4405, 2004, 2003], 19: [1913, 4494, 4493], 20: [4719, 4765, 1883, 1884], 22: [4359, 1867, 1944, 4464, 1943], 23: [1612, 1614, 4538, 1613], 25: [4750, 4749, 1778, 1779], 28: [4585, 1703, 4584], 5: [2019, 4644, 4643, 2109, 4645], 12: [1568, 4555, 4553, 4554], 17: [4434, 1644, 1643, 4613, 4433], 21: [4525, 4523, 4524], 24: [1794, 4509, 1793], 26: [1717, 1719, 1718], 29: [4628, 1687, 1688], 30: [1928, 4480, 4478, 4479], 9: [1959, 4419, 1958, 1838, 4420], 27: [4539, 1823, 1824], 7: [1869, 1868], 31: [4569, 1989, 4570]}</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0.05405</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.03389557493243034</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.164</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>{0: [4663, 4408, 3909, 2529, 2528, 2527, 2526, 3910, 3911, 3912, 2480, 4048], 1: [2316, 2317, 4420, 4421, 4423, 4422, 4424, 2318], 's_0_1': [2543], 2: [2200, 1763, 1764, 4749, 4333, 2437, 4750, 4751, 4752, 4753, 2439, 2438], 's_0_2': [2530], 3: [3820, 4781, 4780, 1869, 1868, 1867, 4390, 1972, 1971, 1970, 3925, 2074, 3821], 's_0_3': [2059], 4: [1762, 1777, 4346, 2167, 2182, 4347, 4344, 2392, 2393, 4345, 2166, 2165], 's_0_4': [3926], 6: [1956, 2495, 4318, 2587, 4180, 2091, 4181, 4182, 4183, 2586, 2585, 4018], 's_0_6': [4123], 8: [4017, 2138, 2631, 2420, 2421, 4288, 4287, 3972, 2255, 2256, 4286, 2137], 's_0_8': [2285], 10: [2574, 2573, 2572, 2571, 2570, 3851, 3852, 3853, 2525, 3913], 's_0_10': [2479], 11: [4693, 4000, 4001, 4002, 4003, 2556, 2557, 2558, 2559], 's_0_11': [2510], 13: [4723, 1838, 2484, 1837, 2483, 4079, 2482, 2481, 4078, 4077, 4076, 4075, 1836], 's_0_13': [2541], 14: [4660, 4659, 1809, 1805, 1806, 1807, 4359, 1808], 's_0_14': [3924], 15: [4824, 2168, 2616, 2617, 2618, 2619, 4825, 2589, 4828, 4827, 2169, 2170, 4826], 's_0_15': [4273], 16: [3850, 2000, 4769, 4768, 2409, 2408, 2407, 2406, 4167, 4166, 4165, 2001], 's_0_16': [1909], 18: [2394, 4544, 4540, 4541, 4542, 2512, 2513, 4543], 's_0_18': [4662], 19: [3984, 3985, 3986, 2604, 2603, 2602, 2601, 3987, 3988, 2600], 's_0_19': [2390], 20: [4436, 4031, 2015, 3969, 2063, 2062, 2061, 3971, 3970, 2060], 's_0_20': [2030], 22: [4014, 4419, 1685, 1732, 1731, 1730, 3938, 3939, 3940, 3941, 3942, 2465], 's_0_22': [2450], 23: [2423, 2709, 4573, 2724, 4574], 's_0_23': [4664], 25: [4795, 4272, 4796, 2185, 4558, 4228, 2377, 2184, 2378, 2379, 4557, 4556], 's_0_25': [4393], 28: [2632, 1672, 4570, 4569, 1673, 2633, 4648, 4647, 4646, 4645, 4644, 4643, 1674], 's_0_28': [2634], 's_0_0': [3908], 5: [1884, 2120, 2254, 4689, 3899, 3898, 1854, 1853, 1852, 1851, 1850, 3895, 3896, 3897], 's_1_5': [4435], 's_1_8': [2422], 12: [4555, 2031, 2032, 4690, 2034, 2033], 's_1_12': [1958], 's_1_13': [4122], 's_1_15': [4439], 17: [4539, 2227, 2183, 2018, 1778, 4449, 4451, 4450], 's_1_17': [2047], 's_1_18': [2693], 21: [2303, 2302, 4271, 1824, 4332, 1823, 1822, 4269, 2076, 4270], 's_1_21': [4392], 's_1_22': [2225, 4062], 24: [2243, 2242, 2241, 4193, 4194, 1926, 4195, 4196], 's_1_24': [4437], 26: [2240, 4106, 4615, 2301, 4136, 2304, 1974, 4630, 4631, 2271, 2272, 2273], 's_1_26': [4197], 29: [4498, 4496, 2348, 4497], 's_1_29': [2363], 30: [4404, 4405, 4315, 1987, 4481, 4480, 1990, 1989, 1988], 's_1_30': [2108], 's_1_1': [2678], 's_2_4': [4452], 9: [4360, 4375, 2215, 4378, 4377, 4376, 2213, 2214], 's_2_9': [4886], 's_2_10': [4513], 's_2_11': [2469], 's_2_15': [4738], 's_2_17': [4764, 1794, 1793], 's_2_18': [2395], 's_2_19': [4754], 's_2_21': [4584], 's_2_22': [4463], 's_2_23': [4438, 2498], 's_2_25': [4856], 's_2_26': [2274], 27: [2542, 2707, 2105, 4214, 4572, 2199, 2198, 2197, 2106, 4210, 4211, 4213, 4212], 's_2_27': [4334], 's_2_28': [4673], 's_2_29': [2453], 's_2_30': [4765], 's_2_2': [2499], 's_3_6': [4135], 7: [4093, 1913, 2376, 1912, 4092, 1910, 1911, 4091, 4090, 4089, 1791, 4133, 4134], 's_3_7': [1866], 's_3_9': [4706, 2154, 2155], 's_3_10': [2149], 's_3_11': [2135, 2134], 's_3_13': [4255], 's_3_14': [3819], 's_3_15': [2110], 's_3_16': [4015], 's_3_17': [4554], 's_3_19': [2180], 's_3_21': [4464], 's_3_22': [1955], 's_3_24': [4060], 's_3_25': [2125], 's_3_3': [2119], 's_4_5': [4314], 's_4_6': [1957], 's_4_7': [1792], 's_4_9': [1927], 's_4_13': [4329], 's_4_14': [4254], 's_4_16': [4164, 1776], 's_4_20': [2181], 's_4_22': [3956], 's_4_25': [4512], 's_4_26': [4121], 's_4_27': [4061], 's_4_29': [4482], 's_4_4': [3836], 's_6_5': [2584], 's_6_7': [4105], 's_6_8': [2662], 's_6_9': [2092], 's_6_10': [3928], 's_6_11': [4259], 's_6_13': [2435, 4063], 's_6_16': [2226], 's_6_18': [4453], 's_6_19': [3958], 's_6_20': [2046], 's_6_22': [3943], 's_6_28': [4394], 's_6_30': [4226, 4225], 's_6_6': [4319], 's_8_5': [2330], 's_8_7': [2405], 's_8_9': [2152], 's_8_10': [3973], 's_8_11': [4138], 's_8_15': [4184], 's_8_17': [4526], 's_8_19': [2375], 's_8_20': [4046, 4047], 's_8_22': [3957], 's_8_24': [4331], 's_8_25': [2436], 's_8_27': [4316], 's_8_29': [2347], 's_8_30': [2153], 's_8_8': [4169], 's_10_5': [3914, 2720], 's_10_11': [4064], 's_10_16': [4168], 's_10_20': [3866], 's_10_23': [4678, 4679], 's_10_27': [4229], 's_10_28': [4409], 31: [4633, 4618, 2350, 4586, 4587, 2349, 2544, 4603, 4602], 's_10_31': [4619], 's_10_10': [3868], 's_11_5': [1940], 's_11_7': [1790, 3999], 's_11_9': [4363], 's_11_12': [2016], 's_11_13': [4348], 's_11_15': [4604], 's_11_16': [2211], 's_11_18': [4528], 's_11_20': [2090], 's_11_26': [2300], 's_11_27': [2361, 2362], 's_11_31': [4692], 's_11_11': [4004], 's_13_5': [4030], 's_13_7': [4240], 's_13_9': [2467], 's_13_14': [4509], 's_13_15': [2615], 's_13_16': [4722], 's_13_17': [4494], 's_13_22': [4149], 's_13_23': [4588], 's_13_24': [2151], 's_13_25': [4258], 's_13_27': [2646], 's_13_31': [4708], 's_13_13': [2676], 's_14_9': [4661], 's_14_17': [4524], 's_14_19': [4104, 1895], 's_14_20': [3894, 1745], 's_14_21': [4284], 's_14_22': [1747, 1746, 4103], 's_14_24': [4119], 's_14_26': [1944], 's_14_28': [4658], 's_14_30': [4479], 's_14_14': [1804], 's_15_9': [4871], 's_15_16': [2424], 's_15_18': [4559], 's_15_19': [4784], 's_15_23': [4694], 's_15_26': [2305], 's_15_28': [4514], 's_15_30': [4810], 's_15_31': [2365], 's_15_15': [2320], 's_16_5': [1894], 's_16_7': [4045], 's_16_20': [1985], 's_16_21': [4151], 's_16_22': [1835], 's_16_23': [2710], 's_16_24': [1941], 's_16_26': [2196], 's_16_27': [2331], 's_16_28': [2649], 's_16_16': [1939], 's_18_9': [2497], 's_18_12': [2004], 's_18_21': [2288], 's_18_26': [1973], 's_18_27': [2333], 's_18_28': [2364], 's_18_29': [2468], 's_18_31': [2093], 's_18_18': [2739], 's_19_7': [2270], 's_19_20': [2195], 's_19_23': [4468, 2648], 's_19_25': [2496, 4108], 's_19_28': [4303], 's_19_29': [2588], 's_19_19': [3989], 's_20_5': [2210], 's_20_12': [4510], 's_20_22': [3968], 's_20_24': [1925], 's_20_31': [4601], 's_20_20': [1715], 's_22_7': [1820, 1821, 4059], 's_22_24': [4179], 's_22_27': [4209, 4224], 's_22_28': [4448], 's_22_30': [1702], 's_22_22': [4118, 1686], 's_23_27': [2708], 's_23_28': [4589], 's_23_23': [4649], 's_25_5': [1855], 's_25_7': [2466], 's_25_12': [2035], 's_25_17': [2123], 's_25_21': [4720, 4721, 4719, 1825], 's_25_24': [4227], 's_25_28': [2258], 's_25_31': [2078], 's_25_25': [2186], 's_28_5': [4688, 4703], 's_28_7': [1656, 1657], 's_28_9': [4379], 's_28_12': [1898], 's_28_21': [4614], 's_28_24': [4178], 's_28_30': [4298, 1687], 's_28_31': [2289], 's_28_28': [4538], 's_5_7': [3954], 's_5_12': [4704, 4705], 's_5_17': [1779], 's_5_26': [4600], 's_5_27': [3881], 's_5_5': [2645], 's_12_9': [4691], 's_12_17': [1943], 's_12_21': [4241], 's_12_24': [4150], 's_12_30': [4675], 's_12_31': [2019], 's_12_12': [4256], 's_17_9': [2003], 's_17_27': [4361], 's_17_29': [4495], 's_17_17': [1897], 's_21_7': [2121, 4120], 's_21_24': [4407], 's_21_26': [4629], 's_21_27': [4257], 's_21_29': [4527], 's_21_30': [2107], 's_21_21': [4674], 's_24_7': [1596], 's_24_26': [4301], 's_24_27': [2212], 's_24_30': [2002], 's_24_24': [1536], 's_26_9': [4676], 's_26_27': [2286], 's_26_29': [4362], 's_26_31': [4707], 's_26_26': [2139], 's_29_30': [2228], 's_29_29': [4467], 's_30_7': [1986], 's_30_27': [2017], 's_30_30': [4585], 's_9_31': [4797], 's_9_9': [2216], 's_27_31': [4571], 's_27_27': [2661], 's_7_7': [1716, 4283], 's_31_31': [4842]}</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0001661237785016287</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0007166049747914914</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>{0: [4663, 4408, 3909, 2529, 2528, 2527, 2526, 3910, 3911, 3912, 2480, 4048], 1: [2316, 2317, 4420, 4421, 4423, 4422, 4424, 2318], 's_0_1': [2543], 2: [2200, 1763, 1764, 4749, 4333, 2437, 4750, 4751, 4752, 4753, 2439, 2438], 's_0_2': [2530], 3: [3820, 4781, 4780, 1869, 1868, 1867, 4390, 1972, 1971, 1970, 3925, 2074, 3821], 's_0_3': [2059], 4: [1762, 1777, 4346, 2167, 2182, 4347, 4344, 2392, 2393, 4345, 2166, 2165], 's_0_4': [3926], 6: [1956, 2495, 4318, 2587, 4180, 2091, 4181, 4182, 4183, 2586, 2585, 4018], 's_0_6': [4123], 8: [4017, 2138, 2631, 2420, 2421, 4288, 4287, 3972, 2255, 2256, 4286, 2137], 's_0_8': [2285], 10: [2574, 2573, 2572, 2571, 2570, 3851, 3852, 3853, 2525, 3913], 's_0_10': [2479], 11: [4693, 4000, 4001, 4002, 4003, 2556, 2557, 2558, 2559], 's_0_11': [2510], 13: [4723, 1838, 2484, 1837, 2483, 4079, 2482, 2481, 4078, 4077, 4076, 4075, 1836], 's_0_13': [2541], 14: [4660, 4659, 1809, 1805, 1806, 1807, 4359, 1808], 's_0_14': [3924], 15: [4824, 2168, 2616, 2617, 2618, 2619, 4825, 2589, 4828, 4827, 2169, 2170, 4826], 's_0_15': [4273], 16: [3850, 2000, 4769, 4768, 2409, 2408, 2407, 2406, 4167, 4166, 4165, 2001], 's_0_16': [1909], 18: [2394, 4544, 4540, 4541, 4542, 2512, 2513, 4543], 's_0_18': [4662], 19: [3984, 3985, 3986, 2604, 2603, 2602, 2601, 3987, 3988, 2600], 's_0_19': [2390], 20: [4436, 4031, 2015, 3969, 2063, 2062, 2061, 3971, 3970, 2060], 's_0_20': [2030], 22: [4014, 4419, 1685, 1732, 1731, 1730, 3938, 3939, 3940, 3941, 3942, 2465], 's_0_22': [2450], 23: [2423, 2709, 4573, 2724, 4574], 's_0_23': [4664], 25: [4795, 4272, 4796, 2185, 4558, 4228, 2377, 2184, 2378, 2379, 4557, 4556], 's_0_25': [4393], 28: [2632, 1672, 4570, 4569, 1673, 2633, 4648, 4647, 4646, 4645, 4644, 4643, 1674], 's_0_28': [2634], 's_0_0': [3908], 5: [1884, 2120, 2254, 4689, 3899, 3898, 1854, 1853, 1852, 1851, 1850, 3895, 3896, 3897], 's_1_5': [4435], 's_1_8': [2422], 12: [4555, 2031, 2032, 4690, 2034, 2033], 's_1_12': [1958], 's_1_13': [4122], 's_1_15': [4439], 17: [4539, 2227, 2183, 2018, 1778, 4449, 4451, 4450], 's_1_17': [2047], 's_1_18': [2693], 21: [2303, 2302, 4271, 1824, 4332, 1823, 1822, 4269, 2076, 4270], 's_1_21': [4392], 's_1_22': [2225, 4062], 24: [2243, 2242, 2241, 4193, 4194, 1926, 4195, 4196], 's_1_24': [4437], 26: [2240, 4106, 4615, 2301, 4136, 2304, 1974, 4630, 4631, 2271, 2272, 2273], 's_1_26': [4197], 29: [4498, 4496, 2348, 4497], 's_1_29': [2363], 30: [4404, 4405, 4315, 1987, 4481, 4480, 1990, 1989, 1988], 's_1_30': [2108], 's_1_1': [2678], 's_2_4': [4452], 9: [4360, 4375, 2215, 4378, 4377, 4376, 2213, 2214], 's_2_9': [4886], 's_2_10': [4513], 's_2_11': [2469], 's_2_15': [4738], 's_2_17': [4764, 1794, 1793], 's_2_18': [2395], 's_2_19': [4754], 's_2_21': [4584], 's_2_22': [4463], 's_2_23': [4438, 2498], 's_2_25': [4856], 's_2_26': [2274], 27: [2542, 2707, 2105, 4214, 4572, 2199, 2198, 2197, 2106, 4210, 4211, 4213, 4212], 's_2_27': [4334], 's_2_28': [4673], 's_2_29': [2453], 's_2_30': [4765], 's_2_2': [2499], 's_3_6': [4135], 7: [4093, 1913, 2376, 1912, 4092, 1910, 1911, 4091, 4090, 4089, 1791, 4133, 4134], 's_3_7': [1866], 's_3_9': [4706, 2154, 2155], 's_3_10': [2149], 's_3_11': [2135, 2134], 's_3_13': [4255], 's_3_14': [3819], 's_3_15': [2110], 's_3_16': [4015], 's_3_17': [4554], 's_3_19': [2180], 's_3_21': [4464], 's_3_22': [1955], 's_3_24': [4060], 's_3_25': [2125], 's_3_3': [2119], 's_4_5': [4314], 's_4_6': [1957], 's_4_7': [1792], 's_4_9': [1927], 's_4_13': [4329], 's_4_14': [4254], 's_4_16': [4164, 1776], 's_4_20': [2181], 's_4_22': [3956], 's_4_25': [4512], 's_4_26': [4121], 's_4_27': [4061], 's_4_29': [4482], 's_4_4': [3836], 's_6_5': [2584], 's_6_7': [4105], 's_6_8': [2662], 's_6_9': [2092], 's_6_10': [3928], 's_6_11': [4259], 's_6_13': [2435, 4063], 's_6_16': [2226], 's_6_18': [4453], 's_6_19': [3958], 's_6_20': [2046], 's_6_22': [3943], 's_6_28': [4394], 's_6_30': [4226, 4225], 's_6_6': [4319], 's_8_5': [2330], 's_8_7': [2405], 's_8_9': [2152], 's_8_10': [3973], 's_8_11': [4138], 's_8_15': [4184], 's_8_17': [4526], 's_8_19': [2375], 's_8_20': [4046, 4047], 's_8_22': [3957], 's_8_24': [4331], 's_8_25': [2436], 's_8_27': [4316], 's_8_29': [2347], 's_8_30': [2153], 's_8_8': [4169], 's_10_5': [3914, 2720], 's_10_11': [4064], 's_10_16': [4168], 's_10_20': [3866], 's_10_23': [4678, 4679], 's_10_27': [4229], 's_10_28': [4409], 31: [4633, 4618, 2350, 4586, 4587, 2349, 2544, 4603, 4602], 's_10_31': [4619], 's_10_10': [3868], 's_11_5': [1940], 's_11_7': [1790, 3999], 's_11_9': [4363], 's_11_12': [2016], 's_11_13': [4348], 's_11_15': [4604], 's_11_16': [2211], 's_11_18': [4528], 's_11_20': [2090], 's_11_26': [2300], 's_11_27': [2361, 2362], 's_11_31': [4692], 's_11_11': [4004], 's_13_5': [4030], 's_13_7': [4240], 's_13_9': [2467], 's_13_14': [4509], 's_13_15': [2615], 's_13_16': [4722], 's_13_17': [4494], 's_13_22': [4149], 's_13_23': [4588], 's_13_24': [2151], 's_13_25': [4258], 's_13_27': [2646], 's_13_31': [4708], 's_13_13': [2676], 's_14_9': [4661], 's_14_17': [4524], 's_14_19': [4104, 1895], 's_14_20': [3894, 1745], 's_14_21': [4284], 's_14_22': [1747, 1746, 4103], 's_14_24': [4119], 's_14_26': [1944], 's_14_28': [4658], 's_14_30': [4479], 's_14_14': [1804], 's_15_9': [4871], 's_15_16': [2424], 's_15_18': [4559], 's_15_19': [4784], 's_15_23': [4694], 's_15_26': [2305], 's_15_28': [4514], 's_15_30': [4810], 's_15_31': [2365], 's_15_15': [2320], 's_16_5': [1894], 's_16_7': [4045], 's_16_20': [1985], 's_16_21': [4151], 's_16_22': [1835], 's_16_23': [2710], 's_16_24': [1941], 's_16_26': [2196], 's_16_27': [2331], 's_16_28': [2649], 's_16_16': [1939], 's_18_9': [2497], 's_18_12': [2004], 's_18_21': [2288], 's_18_26': [1973], 's_18_27': [2333], 's_18_28': [2364], 's_18_29': [2468], 's_18_31': [2093], 's_18_18': [2739], 's_19_7': [2270], 's_19_20': [2195], 's_19_23': [4468, 2648], 's_19_25': [2496, 4108], 's_19_28': [4303], 's_19_29': [2588], 's_19_19': [3989], 's_20_5': [2210], 's_20_12': [4510], 's_20_22': [3968], 's_20_24': [1925], 's_20_31': [4601], 's_20_20': [1715], 's_22_7': [1820, 1821, 4059], 's_22_24': [4179], 's_22_27': [4209, 4224], 's_22_28': [4448], 's_22_30': [1702], 's_22_22': [4118, 1686], 's_23_27': [2708], 's_23_28': [4589], 's_23_23': [4649], 's_25_5': [1855], 's_25_7': [2466], 's_25_12': [2035], 's_25_17': [2123], 's_25_21': [4720, 4721, 4719, 1825], 's_25_24': [4227], 's_25_28': [2258], 's_25_31': [2078], 's_25_25': [2186], 's_28_5': [4688, 4703], 's_28_7': [1656, 1657], 's_28_9': [4379], 's_28_12': [1898], 's_28_21': [4614], 's_28_24': [4178], 's_28_30': [4298, 1687], 's_28_31': [2289], 's_28_28': [4538], 's_5_7': [3954], 's_5_12': [4704, 4705], 's_5_17': [1779], 's_5_26': [4600], 's_5_27': [3881], 's_5_5': [2645], 's_12_9': [4691], 's_12_17': [1943], 's_12_21': [4241], 's_12_24': [4150], 's_12_30': [4675], 's_12_31': [2019], 's_12_12': [4256], 's_17_9': [2003], 's_17_27': [4361], 's_17_29': [4495], 's_17_17': [1897], 's_21_7': [2121, 4120], 's_21_24': [4407], 's_21_26': [4629], 's_21_27': [4257], 's_21_29': [4527], 's_21_30': [2107], 's_21_21': [4674], 's_24_7': [1596], 's_24_26': [4301], 's_24_27': [2212], 's_24_30': [2002], 's_24_24': [1536], 's_26_9': [4676], 's_26_27': [2286], 's_26_29': [4362], 's_26_31': [4707], 's_26_26': [2139], 's_29_30': [2228], 's_29_29': [4467], 's_30_7': [1986], 's_30_27': [2017], 's_30_30': [4585], 's_9_31': [4797], 's_9_9': [2216], 's_27_31': [4571], 's_27_27': [2661], 's_7_7': [1716, 4283], 's_31_31': [4842]}</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0001661237785016287</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.0007166049747914914</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>{0: [4199, 4198, 4197, 2301], 2: [3956, 4167, 2286, 2285], 5: [3957, 3958, 2616, 2615], 8: [2690, 2691, 4229, 4228, 4227], 12: [4091, 4093, 4092], 13: [2330, 4122, 2331], 19: [4169, 4004, 2629, 2631, 2630], 20: [2662, 2660, 4108, 2661], 21: [4154, 4152, 4153], 22: [4019, 4018, 2436, 2435], 27: [4136, 2375, 2376, 4137], 29: [2556, 4049, 4048, 2406, 2405], 31: [4003, 2451, 2450], 32: [2584, 2586, 2585], 4: [4273, 2361, 2362, 2360, 4272], 14: [4034, 4032, 4033], 16: [2316, 3913, 3912, 2315], 18: [2481, 4168], 23: [4257, 2421, 4259, 4258], 24: [4062, 4063], 25: [3974, 2255, 3972, 3973], 6: [3987, 3988, 2526, 2525], 10: [4064, 2601, 2599, 2600], 15: [3838, 2464, 2420, 3942, 2465], 17: [3897, 3899, 3898, 2480], 26: [4123, 2570, 2572, 2571], 28: [2496, 3943, 2495], 30: [3927, 2646, 3928, 2645], 1: [4184, 2466, 4182, 4183], 9: [4138, 2542, 2540, 2541], 11: [3884, 2511, 2510, 3883], 3: [2270, 4214, 4213, 4212, 2271], 7: [2196, 4079, 4078, 4077]}</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.02211187505305152</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.02207290231505141</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>{0: [4199, 4198, 4197, 2301], 2: [3956, 4167, 2286, 2285], 5: [3957, 3958, 2616, 2615], 8: [2690, 2691, 4229, 4228, 4227], 12: [4091, 4093, 4092], 13: [2330, 4122, 2331], 19: [4169, 4004, 2629, 2631, 2630], 20: [2662, 2660, 4108, 2661], 21: [4154, 4152, 4153], 22: [4019, 4018, 2436, 2435], 27: [4136, 2375, 2376, 4137], 29: [2556, 4049, 4048, 2406, 2405], 31: [4003, 2451, 2450], 32: [2584, 2586, 2585], 4: [4273, 2361, 2362, 2360, 4272], 14: [4034, 4032, 4033], 16: [2316, 3913, 3912, 2315], 18: [2481, 4168], 23: [4257, 2421, 4259, 4258], 24: [4062, 4063], 25: [3974, 2255, 3972, 3973], 6: [3987, 3988, 2526, 2525], 10: [4064, 2601, 2599, 2600], 15: [3838, 2464, 2420, 3942, 2465], 17: [3897, 3899, 3898, 2480], 26: [4123, 2570, 2572, 2571], 28: [2496, 3943, 2495], 30: [3927, 2646, 3928, 2645], 1: [4184, 2466, 4182, 4183], 9: [4138, 2542, 2540, 2541], 11: [3884, 2511, 2510, 3883], 3: [2270, 4214, 4213, 4212, 2271], 7: [2196, 4079, 4078, 4077]}</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0.02211187505305152</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.02207290231505141</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>{0: [1862, 1861, 1995, 3340, 1996, 1997], 2: [3583, 2553, 2552, 3418, 2370, 2371, 2372, 3417, 3413, 3414, 3415, 3416], 's_0_2': [1982], 5: [3458, 3148, 2386, 2387, 3457, 2388, 3459, 1907, 3462, 3460, 3461], 's_0_5': [3549], 8: [2119, 2086, 2613, 3220, 3704, 3703, 3702, 2087, 2088, 3700, 3701], 's_0_8': [3370], 12: [1562, 1561, 1560, 1455, 1860, 3052, 3056, 3055, 3054, 1727, 1726, 1725, 3053], 's_0_12': [3474], 13: [1712, 3507, 3506, 3429, 3430, 2145, 2146, 2147, 3431], 's_0_13': [1967], 19: [3222, 2446, 2447, 1728, 1730, 3622, 3623, 3567, 3566, 3565, 3624, 1833, 3505, 1729, 1998], 's_0_19': [1877], 20: [3173, 3866, 3865, 3864, 3863, 1594, 1593, 1592, 1591, 3203, 1710, 3084, 3085], 's_0_20': [1980], 21: [1935, 3009, 3114, 2642, 2641, 3193, 3192, 3116, 3117, 3115, 2341], 's_0_21': [3010], 22: [3686, 2058, 2057, 1831, 3249, 3250, 3248, 2056], 's_0_22': [3219], 27: [3368, 2285, 1711, 2284, 2282, 3264, 3265, 3266, 2283, 3268, 2281, 3267], 's_0_27': [3369], 29: [3175, 1936, 3399, 3625, 1894, 1893, 1921, 1922, 3490, 1892], 's_0_29': [3445], 31: [1817, 3776, 2299, 2298, 2297, 3342, 1816, 3189, 3190, 2070, 2071, 3341], 's_0_31': [3294], 32: [1890, 3717, 2330, 2329, 3130, 3131, 3132, 2209, 3687, 2328, 2327, 2326, 2325], 's_0_32': [1981], 's_0_0': [3295], 4: [2072, 3628, 3627, 2074, 2073, 3626], 's_2_4': [3400], 's_2_5': [3133], 's_2_12': [3057], 's_2_13': [1772], 14: [3537, 3653, 3654, 3655, 3656, 2177, 3401, 2222, 2223], 's_2_14': [2267], 16: [1875, 3942, 1876, 3384, 2476, 3385, 2375, 2374, 2373, 3508, 2477, 2207, 3386, 3388, 3387], 's_2_16': [3402], 18: [3494, 1668, 2718, 3524, 3523, 3236, 1682, 3520, 3521, 2236, 3519, 2237, 3522], 's_2_18': [2042], 's_2_21': [2342], 23: [3161, 2011, 2612, 2610, 3043, 2010, 2461, 2611, 3041, 2460, 3040, 3568, 3042], 's_2_23': [2983], 24: [2628, 2629, 3913, 1713, 2239, 3912, 3911, 3910, 3909, 3908, 1640, 1639, 1638, 3593], 's_2_24': [3824, 2779, 2778, 2777, 3419], 25: [3746, 1622, 1623, 1625, 1624, 1939, 3745, 3744, 3743], 's_2_25': [3398], 's_2_27': [2551], 's_2_2': [3087], 's_5_4': [3612], 6: [3434, 3879, 3880, 2028, 2702, 2703, 2704, 2705, 3884, 3883, 2029, 2030, 3882, 3881], 's_5_6': [2687, 3464, 3463], 's_5_8': [3476], 10: [3954, 1880, 1879, 1908, 3608, 3609, 1878, 3733, 3732, 3731, 3730, 3729], 's_5_10': [1803], 's_5_13': [1742], 15: [3613, 3534, 1758, 3578, 1697, 2434, 3579, 3580, 3582, 2433, 2432, 2431, 3581, 3253], 's_5_15': [3237], 's_5_16': [3343], 17: [2596, 2402, 2357, 2600, 3432, 3433, 2599, 2597, 2598], 's_5_17': [3447], 's_5_19': [3493], 's_5_20': [1607], 's_5_23': [2505], 26: [3719, 3086, 2570, 2569, 2568, 3099, 3100, 2115, 3101, 3102, 3103, 2567, 2566], 's_5_26': [2490], 's_5_27': [1906], 28: [1790, 2178, 2522, 2523, 1789, 1788, 3594, 3595, 3598, 3326, 2162, 2163, 3597, 3596], 's_5_28': [3313], 's_5_29': [1787], 30: [1471, 1744, 1745, 3112, 1456, 1457, 3988, 3987, 1458, 1459, 1460, 3982, 3983, 3984, 3985, 3986], 's_5_30': [3472], 's_5_5': [1427], 1: [3479, 2627, 3553, 2480, 2479, 2478, 3552], 's_8_1': [2464], 's_8_4': [3671], 9: [2311, 2100, 2101, 1610, 1609, 1608, 3518, 1502, 1501, 3308, 3312, 3311, 3310, 3309], 's_8_9': [1966], 's_8_10': [2418], 11: [2191, 1563, 3668, 3669, 3670, 1999, 3760, 3359, 3358, 3357, 2192, 2193, 2194, 3761], 's_8_11': [1849], 's_8_16': [3446], 's_8_17': [3674], 's_8_19': [1834], 's_8_20': [1969], 's_8_22': [3536], 's_8_23': [2116], 's_8_25': [2104], 's_8_28': [2524], 's_8_29': [3715], 's_8_32': [3716], 's_8_8': [2674], 3: [2996, 3293, 1652, 1651, 3129, 1653, 1655, 1654, 2995, 1770, 2994, 3849], 's_12_3': [1650], 7: [3279, 3278, 1667, 1546, 3444, 3443, 1547, 1578, 1518, 1517, 3533], 's_12_7': [1545, 3037], 's_12_9': [3324], 's_12_11': [2416, 2415, 3072, 2295], 's_12_15': [3489], 's_12_16': [3383], 's_12_18': [3563], 's_12_19': [3504], 's_12_20': [1590], 's_12_22': [3160], 's_12_27': [3218], 's_12_30': [1410], 's_12_31': [3204], 's_12_32': [2250], 's_12_12': [3007], 's_13_4': [3491], 's_13_6': [2014, 2015, 2013], 's_13_7': [1802], 's_13_14': [3296], 's_13_16': [1937], 's_13_17': [2312], 's_13_18': [2131], 's_13_21': [2130], 's_13_24': [3548], 's_13_26': [3071], 's_13_27': [3221], 's_13_31': [2102], 's_13_13': [3206], 's_19_1': [2463], 's_19_3': [3923], 's_19_7': [1473], 's_19_9': [1488], 's_19_10': [4014], 's_19_11': [1548], 's_19_14': [3639], 's_19_16': [3372], 's_19_17': [2417], 's_19_18': [1848], 's_19_20': [3773], 's_19_21': [3223], 's_19_22': [3550], 's_19_23': [3328], 's_19_28': [3298], 's_19_29': [3564], 's_19_30': [1715], 's_19_31': [1818], 's_19_19': [4074], 's_20_3': [3128, 1636], 's_20_4': [2089], 's_20_6': [1864, 3895, 3894], 's_20_7': [1519], 's_20_9': [1500], 's_20_10': [1954], 's_20_11': [3683], 's_20_14': [3638], 's_20_21': [1785], 's_20_25': [3698], 's_20_26': [1740], 's_20_29': [3850], 's_20_30': [1985, 3970, 3971], 's_20_32': [3070], 's_20_20': [3862, 1414], 's_21_1': [3449], 's_21_3': [1800], 's_21_6': [3314], 's_21_11': [3147, 2356], 's_21_18': [2206], 's_21_22': [2026], 's_21_23': [3238], 's_21_26': [2400], 's_21_27': [2491], 's_21_29': [1905], 's_21_31': [1815], 's_21_32': [2161], 's_21_21': [3194], 's_22_4': [2118], 's_22_7': [1532, 1531], 's_22_9': [1786], 's_22_14': [2148], 's_22_15': [2133], 's_22_26': [1801], 's_22_27': [1756], 's_22_29': [1832], 's_22_32': [2055], 's_22_22': [2059], 's_27_3': [3354], 's_27_11': [3672], 's_27_15': [2581], 's_27_17': [3327], 's_27_18': [3251], 's_27_23': [3162], 's_27_29': [1951], 's_27_30': [3367], 's_27_31': [3657], 's_27_27': [3956], 's_29_6': [3820], 's_29_9': [1847], 's_29_11': [1953], 's_29_15': [3535], 's_29_18': [1938], 's_29_24': [1909], 's_29_25': [3835], 's_29_31': [3234], 's_29_29': [3759], 's_31_3': [1771], 's_31_9': [2266], 's_31_10': [2164], 's_31_11': [2254, 3852], 's_31_14': [2179], 's_31_15': [3777], 's_31_17': [3477], 's_31_18': [2251], 's_31_23': [3176], 's_31_24': [2269], 's_31_25': [2134], 's_31_26': [3146], 's_31_28': [2041], 's_31_31': [2300], 's_32_3': [1965], 's_32_6': [2210], 's_32_10': [2359], 's_32_11': [3492], 's_32_14': [2176], 's_32_16': [2315], 's_32_23': [3027], 's_32_25': [2268], 's_32_26': [1950], 's_32_30': [3972], 's_32_32': [4002], 's_4_1': [2508], 's_4_14': [3641], 's_4_17': [2583], 's_4_4': [3925], 's_14_16': [2208], 's_14_28': [3371], 's_14_6': [2224], 's_14_7': [3652], 's_14_9': [2221], 's_14_11': [1743], 's_14_15': [2343], 's_14_14': [1804], 's_16_1': [3747], 's_16_7': [3280, 2027], 's_16_9': [3207], 's_16_10': [2389], 's_16_11': [2537], 's_16_15': [3762], 's_16_17': [3478], 's_16_24': [2390], 's_16_26': [2475], 's_16_28': [3325], 's_16_16': [2450], 's_18_1': [3539], 's_18_6': [2717], 's_18_7': [3473], 's_18_9': [2296], 's_18_10': [1773], 's_18_17': [2582], 's_18_24': [3629], 's_18_28': [2538], 's_18_18': [3584], 's_23_1': [2658], 's_23_3': [2025], 's_23_9': [2310], 's_23_15': [3254], 's_23_26': [3134], 's_23_23': [2160], 's_24_1': [2449, 3838], 's_24_3': [3714], 's_24_6': [3763, 3764], 's_24_7': [3592], 's_24_9': [3893], 's_24_11': [3806], 's_24_15': [1698], 's_24_25': [1637], 's_24_28': [1775], 's_24_24': [3839], 's_25_28': [2043], 's_25_30': [3968], 's_25_3': [3938], 's_25_6': [1940], 's_25_7': [3323], 's_25_9': [3758], 's_25_10': [1819], 's_25_25': [3848], 's_6_3': [1714], 's_6_10': [3640], 's_6_11': [2657], 's_6_15': [3614], 's_6_26': [3899], 's_6_6': [1955], 's_10_28': [3999], 's_10_30': [3969], 's_10_3': [1774], 's_10_9': [3953], 's_10_11': [1984], 's_10_26': [2659], 's_10_10': [4089], 's_15_28': [2253], 's_15_7': [3428], 's_15_11': [3577], 's_15_26': [3793], 's_15_17': [3658], 's_15_9': [3252], 's_15_15': [2435], 's_17_28': [3403], 's_17_30': [2585], 's_17_11': [2507], 's_17_26': [3869], 's_17_17': [4003], 's_26_28': [3373], 's_26_30': [3973], 's_26_3': [1755], 's_26_11': [3344], 's_26_9': [2981], 's_26_26': [3208], 's_28_1': [2643], 's_28_3': [3699], 's_28_9': [2012], 's_28_28': [1791], 's_30_1': [2465], 's_30_3': [1805], 's_30_9': [3247], 's_30_30': [1461], 's_1_1': [3673], 's_9_7': [3442], 's_9_11': [3177], 's_9_9': [1472], 's_11_3': [1669], 's_11_7': [3547], 's_11_11': [1564], 's_3_7': [1576], 's_3_3': [1606, 1605, 3023], 's_7_7': [3532]}</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0004403669724770642</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.001133001728917682</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>{0: [1862, 1861, 1995, 3340, 1996, 1997], 2: [3583, 2553, 2552, 3418, 2370, 2371, 2372, 3417, 3413, 3414, 3415, 3416], 's_0_2': [1982], 5: [3458, 3148, 2386, 2387, 3457, 2388, 3459, 1907, 3462, 3460, 3461], 's_0_5': [3549], 8: [2119, 2086, 2613, 3220, 3704, 3703, 3702, 2087, 2088, 3700, 3701], 's_0_8': [3370], 12: [1562, 1561, 1560, 1455, 1860, 3052, 3056, 3055, 3054, 1727, 1726, 1725, 3053], 's_0_12': [3474], 13: [1712, 3507, 3506, 3429, 3430, 2145, 2146, 2147, 3431], 's_0_13': [1967], 19: [3222, 2446, 2447, 1728, 1730, 3622, 3623, 3567, 3566, 3565, 3624, 1833, 3505, 1729, 1998], 's_0_19': [1877], 20: [3173, 3866, 3865, 3864, 3863, 1594, 1593, 1592, 1591, 3203, 1710, 3084, 3085], 's_0_20': [1980], 21: [1935, 3009, 3114, 2642, 2641, 3193, 3192, 3116, 3117, 3115, 2341], 's_0_21': [3010], 22: [3686, 2058, 2057, 1831, 3249, 3250, 3248, 2056], 's_0_22': [3219], 27: [3368, 2285, 1711, 2284, 2282, 3264, 3265, 3266, 2283, 3268, 2281, 3267], 's_0_27': [3369], 29: [3175, 1936, 3399, 3625, 1894, 1893, 1921, 1922, 3490, 1892], 's_0_29': [3445], 31: [1817, 3776, 2299, 2298, 2297, 3342, 1816, 3189, 3190, 2070, 2071, 3341], 's_0_31': [3294], 32: [1890, 3717, 2330, 2329, 3130, 3131, 3132, 2209, 3687, 2328, 2327, 2326, 2325], 's_0_32': [1981], 's_0_0': [3295], 4: [2072, 3628, 3627, 2074, 2073, 3626], 's_2_4': [3400], 's_2_5': [3133], 's_2_12': [3057], 's_2_13': [1772], 14: [3537, 3653, 3654, 3655, 3656, 2177, 3401, 2222, 2223], 's_2_14': [2267], 16: [1875, 3942, 1876, 3384, 2476, 3385, 2375, 2374, 2373, 3508, 2477, 2207, 3386, 3388, 3387], 's_2_16': [3402], 18: [3494, 1668, 2718, 3524, 3523, 3236, 1682, 3520, 3521, 2236, 3519, 2237, 3522], 's_2_18': [2042], 's_2_21': [2342], 23: [3161, 2011, 2612, 2610, 3043, 2010, 2461, 2611, 3041, 2460, 3040, 3568, 3042], 's_2_23': [2983], 24: [2628, 2629, 3913, 1713, 2239, 3912, 3911, 3910, 3909, 3908, 1640, 1639, 1638, 3593], 's_2_24': [3824, 2779, 2778, 2777, 3419], 25: [3746, 1622, 1623, 1625, 1624, 1939, 3745, 3744, 3743], 's_2_25': [3398], 's_2_27': [2551], 's_2_2': [3087], 's_5_4': [3612], 6: [3434, 3879, 3880, 2028, 2702, 2703, 2704, 2705, 3884, 3883, 2029, 2030, 3882, 3881], 's_5_6': [2687, 3464, 3463], 's_5_8': [3476], 10: [3954, 1880, 1879, 1908, 3608, 3609, 1878, 3733, 3732, 3731, 3730, 3729], 's_5_10': [1803], 's_5_13': [1742], 15: [3613, 3534, 1758, 3578, 1697, 2434, 3579, 3580, 3582, 2433, 2432, 2431, 3581, 3253], 's_5_15': [3237], 's_5_16': [3343], 17: [2596, 2402, 2357, 2600, 3432, 3433, 2599, 2597, 2598], 's_5_17': [3447], 's_5_19': [3493], 's_5_20': [1607], 's_5_23': [2505], 26: [3719, 3086, 2570, 2569, 2568, 3099, 3100, 2115, 3101, 3102, 3103, 2567, 2566], 's_5_26': [2490], 's_5_27': [1906], 28: [1790, 2178, 2522, 2523, 1789, 1788, 3594, 3595, 3598, 3326, 2162, 2163, 3597, 3596], 's_5_28': [3313], 's_5_29': [1787], 30: [1471, 1744, 1745, 3112, 1456, 1457, 3988, 3987, 1458, 1459, 1460, 3982, 3983, 3984, 3985, 3986], 's_5_30': [3472], 's_5_5': [1427], 1: [3479, 2627, 3553, 2480, 2479, 2478, 3552], 's_8_1': [2464], 's_8_4': [3671], 9: [2311, 2100, 2101, 1610, 1609, 1608, 3518, 1502, 1501, 3308, 3312, 3311, 3310, 3309], 's_8_9': [1966], 's_8_10': [2418], 11: [2191, 1563, 3668, 3669, 3670, 1999, 3760, 3359, 3358, 3357, 2192, 2193, 2194, 3761], 's_8_11': [1849], 's_8_16': [3446], 's_8_17': [3674], 's_8_19': [1834], 's_8_20': [1969], 's_8_22': [3536], 's_8_23': [2116], 's_8_25': [2104], 's_8_28': [2524], 's_8_29': [3715], 's_8_32': [3716], 's_8_8': [2674], 3: [2996, 3293, 1652, 1651, 3129, 1653, 1655, 1654, 2995, 1770, 2994, 3849], 's_12_3': [1650], 7: [3279, 3278, 1667, 1546, 3444, 3443, 1547, 1578, 1518, 1517, 3533], 's_12_7': [1545, 3037], 's_12_9': [3324], 's_12_11': [2416, 2415, 3072, 2295], 's_12_15': [3489], 's_12_16': [3383], 's_12_18': [3563], 's_12_19': [3504], 's_12_20': [1590], 's_12_22': [3160], 's_12_27': [3218], 's_12_30': [1410], 's_12_31': [3204], 's_12_32': [2250], 's_12_12': [3007], 's_13_4': [3491], 's_13_6': [2014, 2015, 2013], 's_13_7': [1802], 's_13_14': [3296], 's_13_16': [1937], 's_13_17': [2312], 's_13_18': [2131], 's_13_21': [2130], 's_13_24': [3548], 's_13_26': [3071], 's_13_27': [3221], 's_13_31': [2102], 's_13_13': [3206], 's_19_1': [2463], 's_19_3': [3923], 's_19_7': [1473], 's_19_9': [1488], 's_19_10': [4014], 's_19_11': [1548], 's_19_14': [3639], 's_19_16': [3372], 's_19_17': [2417], 's_19_18': [1848], 's_19_20': [3773], 's_19_21': [3223], 's_19_22': [3550], 's_19_23': [3328], 's_19_28': [3298], 's_19_29': [3564], 's_19_30': [1715], 's_19_31': [1818], 's_19_19': [4074], 's_20_3': [3128, 1636], 's_20_4': [2089], 's_20_6': [1864, 3895, 3894], 's_20_7': [1519], 's_20_9': [1500], 's_20_10': [1954], 's_20_11': [3683], 's_20_14': [3638], 's_20_21': [1785], 's_20_25': [3698], 's_20_26': [1740], 's_20_29': [3850], 's_20_30': [1985, 3970, 3971], 's_20_32': [3070], 's_20_20': [3862, 1414], 's_21_1': [3449], 's_21_3': [1800], 's_21_6': [3314], 's_21_11': [3147, 2356], 's_21_18': [2206], 's_21_22': [2026], 's_21_23': [3238], 's_21_26': [2400], 's_21_27': [2491], 's_21_29': [1905], 's_21_31': [1815], 's_21_32': [2161], 's_21_21': [3194], 's_22_4': [2118], 's_22_7': [1532, 1531], 's_22_9': [1786], 's_22_14': [2148], 's_22_15': [2133], 's_22_26': [1801], 's_22_27': [1756], 's_22_29': [1832], 's_22_32': [2055], 's_22_22': [2059], 's_27_3': [3354], 's_27_11': [3672], 's_27_15': [2581], 's_27_17': [3327], 's_27_18': [3251], 's_27_23': [3162], 's_27_29': [1951], 's_27_30': [3367], 's_27_31': [3657], 's_27_27': [3956], 's_29_6': [3820], 's_29_9': [1847], 's_29_11': [1953], 's_29_15': [3535], 's_29_18': [1938], 's_29_24': [1909], 's_29_25': [3835], 's_29_31': [3234], 's_29_29': [3759], 's_31_3': [1771], 's_31_9': [2266], 's_31_10': [2164], 's_31_11': [2254, 3852], 's_31_14': [2179], 's_31_15': [3777], 's_31_17': [3477], 's_31_18': [2251], 's_31_23': [3176], 's_31_24': [2269], 's_31_25': [2134], 's_31_26': [3146], 's_31_28': [2041], 's_31_31': [2300], 's_32_3': [1965], 's_32_6': [2210], 's_32_10': [2359], 's_32_11': [3492], 's_32_14': [2176], 's_32_16': [2315], 's_32_23': [3027], 's_32_25': [2268], 's_32_26': [1950], 's_32_30': [3972], 's_32_32': [4002], 's_4_1': [2508], 's_4_14': [3641], 's_4_17': [2583], 's_4_4': [3925], 's_14_16': [2208], 's_14_28': [3371], 's_14_6': [2224], 's_14_7': [3652], 's_14_9': [2221], 's_14_11': [1743], 's_14_15': [2343], 's_14_14': [1804], 's_16_1': [3747], 's_16_7': [3280, 2027], 's_16_9': [3207], 's_16_10': [2389], 's_16_11': [2537], 's_16_15': [3762], 's_16_17': [3478], 's_16_24': [2390], 's_16_26': [2475], 's_16_28': [3325], 's_16_16': [2450], 's_18_1': [3539], 's_18_6': [2717], 's_18_7': [3473], 's_18_9': [2296], 's_18_10': [1773], 's_18_17': [2582], 's_18_24': [3629], 's_18_28': [2538], 's_18_18': [3584], 's_23_1': [2658], 's_23_3': [2025], 's_23_9': [2310], 's_23_15': [3254], 's_23_26': [3134], 's_23_23': [2160], 's_24_1': [2449, 3838], 's_24_3': [3714], 's_24_6': [3763, 3764], 's_24_7': [3592], 's_24_9': [3893], 's_24_11': [3806], 's_24_15': [1698], 's_24_25': [1637], 's_24_28': [1775], 's_24_24': [3839], 's_25_28': [2043], 's_25_30': [3968], 's_25_3': [3938], 's_25_6': [1940], 's_25_7': [3323], 's_25_9': [3758], 's_25_10': [1819], 's_25_25': [3848], 's_6_3': [1714], 's_6_10': [3640], 's_6_11': [2657], 's_6_15': [3614], 's_6_26': [3899], 's_6_6': [1955], 's_10_28': [3999], 's_10_30': [3969], 's_10_3': [1774], 's_10_9': [3953], 's_10_11': [1984], 's_10_26': [2659], 's_10_10': [4089], 's_15_28': [2253], 's_15_7': [3428], 's_15_11': [3577], 's_15_26': [3793], 's_15_17': [3658], 's_15_9': [3252], 's_15_15': [2435], 's_17_28': [3403], 's_17_30': [2585], 's_17_11': [2507], 's_17_26': [3869], 's_17_17': [4003], 's_26_28': [3373], 's_26_30': [3973], 's_26_3': [1755], 's_26_11': [3344], 's_26_9': [2981], 's_26_26': [3208], 's_28_1': [2643], 's_28_3': [3699], 's_28_9': [2012], 's_28_28': [1791], 's_30_1': [2465], 's_30_3': [1805], 's_30_9': [3247], 's_30_30': [1461], 's_1_1': [3673], 's_9_7': [3442], 's_9_11': [3177], 's_9_9': [1472], 's_11_3': [1669], 's_11_7': [3547], 's_11_11': [1564], 's_3_7': [1576], 's_3_3': [1606, 1605, 3023], 's_7_7': [3532]}</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0004403669724770642</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.001133001728917682</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>{0: [2646, 4004, 2645, 2644], 3: [2448, 4019, 4018, 2450, 2449], 5: [2661, 4108, 2554, 2555, 2556], 9: [3807, 3809, 3808], 12: [3732, 2585, 2479, 4003, 2480], 14: [3929, 2599, 3928], 15: [2583, 3747, 3749, 3748], 16: [2389, 3913, 3912, 2390], 18: [3838, 3839, 2720, 3688, 3689, 2719], 23: [2344, 3762, 3763], 26: [3883, 2584, 3884], 27: [3719, 2524, 3718], 29: [2764, 3823, 3824], 31: [3703, 3704, 2615, 2614, 2613], 32: [2749, 3943, 3944, 2750], 33: [3899, 3643, 2569, 2570], 1: [2705, 2704, 3657, 3658, 3659], 2: [2509, 2510, 3974, 3973], 4: [3764, 2674, 3868, 3869], 8: [2435, 2433, 2434], 10: [3854, 3853, 2405, 2404], 11: [2659, 2660], 20: [2630, 2628, 2629], 24: [4048, 2463, 2464, 2465], 25: [2541, 3734, 2540, 2539, 3733], 28: [3987, 3989, 3988], 30: [3959, 4033, 4034, 2675], 7: [2418, 2419, 3898], 13: [3777, 3778, 3779, 2734, 2735], 17: [3914, 2779, 3792, 3794, 3793], 21: [2494, 2495], 6: [2571, 4049, 2689, 2690], 19: [3957, 2525, 3958], 22: [3642, 3972, 2375, 2374]}</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.05979891956782714</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.02935802704710721</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>{0: [2646, 4004, 2645, 2644], 3: [2448, 4019, 4018, 2450, 2449], 5: [2661, 4108, 2554, 2555, 2556], 9: [3807, 3809, 3808], 12: [3732, 2585, 2479, 4003, 2480], 14: [3929, 2599, 3928], 15: [2583, 3747, 3749, 3748], 16: [2389, 3913, 3912, 2390], 18: [3838, 3839, 2720, 3688, 3689, 2719], 23: [2344, 3762, 3763], 26: [3883, 2584, 3884], 27: [3719, 2524, 3718], 29: [2764, 3823, 3824], 31: [3703, 3704, 2615, 2614, 2613], 32: [2749, 3943, 3944, 2750], 33: [3899, 3643, 2569, 2570], 1: [2705, 2704, 3657, 3658, 3659], 2: [2509, 2510, 3974, 3973], 4: [3764, 2674, 3868, 3869], 8: [2435, 2433, 2434], 10: [3854, 3853, 2405, 2404], 11: [2659, 2660], 20: [2630, 2628, 2629], 24: [4048, 2463, 2464, 2465], 25: [2541, 3734, 2540, 2539, 3733], 28: [3987, 3989, 3988], 30: [3959, 4033, 4034, 2675], 7: [2418, 2419, 3898], 13: [3777, 3778, 3779, 2734, 2735], 17: [3914, 2779, 3792, 3794, 3793], 21: [2494, 2495], 6: [2571, 4049, 2689, 2690], 19: [3957, 2525, 3958], 22: [3642, 3972, 2375, 2374]}</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0.05979891956782714</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.02935802704710721</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>{0: [5327, 432, 743, 431, 430, 429, 428, 427, 4397, 4398], 3: [4805, 1091, 1090, 4756, 4757, 4758, 4759, 4760], 's_0_3': [4742], 5: [5253, 5028, 357, 4442, 4441, 353, 354, 355, 356, 5026, 672, 671, 5027], 's_0_5': [4501, 323, 4426], 9: [473, 5225, 1048, 1047, 1046, 4635, 4636, 4637, 4638, 4639, 1044, 1045], 's_0_9': [4621], 12: [849, 5450, 5449, 5479, 853, 852, 851, 850, 4818, 4817, 4816, 444], 's_0_12': [443], 14: [4996, 5237, 504, 507, 506, 505], 's_0_14': [4772], 15: [1269, 553, 5387, 5388, 5389, 5390, 1270, 1271, 1272, 1273, 5391], 's_0_15': [538], 16: [312, 925, 5146, 492, 5147, 5148, 926, 927, 5150, 5149], 's_0_16': [5266], 18: [4413, 5044, 866, 4415, 4414, 4579, 863, 864, 865, 4878, 4881, 4880, 4879], 's_0_18': [622], 23: [5297, 5015, 5207, 687, 5298, 5299, 5014, 881, 882], 's_0_23': [418, 5356], 26: [311, 5116, 5117, 567, 566, 565, 564, 4626, 4625, 4624, 4623, 4622], 's_0_26': [563], 27: [5332, 5251, 5252, 1149, 5328, 5329, 5330, 627, 1150, 1151, 5331, 1152], 's_0_27': [5206, 477], 29: [773, 4432, 4431, 4430, 4429, 4428, 593, 295, 294, 4696, 4697, 594], 's_0_29': [4503], 31: [4891, 416, 596, 281, 371, 5056, 5057, 5058, 5059, 5061, 5060], 's_0_31': [4922], 32: [4566, 4565, 1014, 4473, 4474, 4520, 1013], 's_0_32': [4488], 33: [821, 822, 5316, 5312, 5313, 5315, 778, 5314], 's_0_33': [523], 's_0_0': [4546], 1: [519, 4710, 4711, 4712, 1285, 4716, 4715, 4714, 4713], 's_3_1': [4761], 2: [4650, 579, 973, 972, 971, 5434, 4651, 4652, 4653, 4654, 969, 970], 's_3_2': [4925], 4: [264, 265, 4980, 4981, 5196, 5194, 837, 5193, 491, 5087, 5088, 5195, 747], 's_3_4': [4741], 8: [324, 733, 5283, 5282, 5281, 327, 326, 325], 's_3_8': [4861, 385], 's_3_9': [1092, 5135], 10: [5160, 5161, 1074, 1075, 1076, 5162, 5164, 5106, 5163, 5105, 943, 942], 's_3_10': [4835], 11: [4952, 999, 1000, 4956, 4953, 4954, 4955], 's_3_11': [4940], 's_3_12': [834], 20: [608, 609, 613, 612, 611, 4997, 610], 's_3_20': [4788, 730], 's_3_23': [5030], 24: [5374, 4578, 4577, 399, 400, 5373, 5372, 401, 402, 403, 5371], 's_3_24': [713, 714], 25: [220, 5495, 745, 1018, 1017, 1016, 1015, 4845, 4846, 4847, 4849, 4848], 's_3_25': [580], 's_3_27': [4850], 's_3_29': [595], 's_3_3': [4806], 's_5_1': [518], 's_5_4': [4966], 's_5_9': [4471], 's_5_11': [581], 's_5_14': [503], 's_5_16': [5221], 's_5_18': [4443], 's_5_20': [607], 's_5_23': [5029], 's_5_25': [340], 's_5_26': [4547, 488], 's_5_27': [342], 28: [5043, 703, 702, 5073, 699, 700, 5118, 701], 's_5_28': [716], 's_5_29': [4456, 4457], 30: [803, 4536, 4535, 4534, 658, 657, 656, 655, 654, 653, 4533], 's_5_30': [5133], 's_5_31': [4921], 's_5_33': [836], 's_5_5': [4576], 's_9_1': [669], 7: [913, 5240, 5284, 5285, 1059, 1060, 1061, 1062], 's_9_7': [5270], 's_9_8': [4620], 's_9_10': [4745], 13: [776, 1032, 5209, 896, 4774, 1033, 897, 893, 894, 4924, 895], 's_9_13': [5420], 's_9_14': [4607], 17: [1298, 4894, 4895, 4896, 1302, 1299, 1300, 1301], 's_9_17': [5226], 21: [791, 790, 789, 4612, 4611, 4698, 4610, 939, 4699], 's_9_21': [4669], 's_9_23': [1031], 's_9_24': [4801, 459, 458], 's_9_25': [1030], 's_9_26': [833], 's_9_27': [5255], 's_9_29': [293, 278], 's_9_32': [954], 's_9_33': [1167], 's_9_9': [263], 's_12_2': [929], 6: [5509, 808, 4907, 4908, 805, 807, 4909, 806], 's_12_6': [914, 5494], 's_12_10': [5404], 's_12_13': [804], 's_12_18': [670], 19: [4726, 4727, 4728, 819, 4729, 4730, 1135, 1136, 1137, 5301, 1138], 's_12_19': [550], 's_12_21': [5178], 22: [944, 5464, 1240, 1242, 1241, 5465, 5466, 1243], 's_12_22': [1094], 's_12_23': [5224], 's_12_24': [4666], 's_12_25': [1109], 's_12_26': [4787], 's_12_30': [5448], 's_12_12': [4815], 's_14_1': [4682], 's_14_2': [489], 's_14_4': [341], 's_14_6': [4862, 460], 's_14_10': [582], 's_14_11': [5072, 521], 's_14_16': [5132], 's_14_20': [5042], 's_14_23': [552], 's_14_25': [445], 's_14_26': [4937], 's_14_31': [5011], 's_14_14': [5222], 's_15_2': [988], 's_15_6': [793], 's_15_8': [748], 's_15_11': [1286], 's_15_13': [898], 's_15_18': [4866], 's_15_20': [5357], 's_15_22': [5001], 's_15_24': [5386], 's_15_26': [4596, 1148], 's_15_27': [1303], 's_15_31': [5046], 's_15_32': [4551, 4550], 's_15_33': [1108], 's_15_15': [4581, 1238], 's_16_1': [910], 's_16_2': [4834], 's_16_4': [957], 's_16_7': [867], 's_16_8': [5190], 's_16_10': [1077], 's_16_11': [4999], 's_16_18': [5119], 's_16_20': [626], 's_16_21': [5134, 762], 's_16_23': [5179], 's_16_25': [1001], 's_16_26': [266], 's_16_27': [642, 641], 's_16_31': [296], 's_16_33': [5104], 's_16_16': [313], 's_18_1': [955], 's_18_2': [909], 's_18_7': [1058], 's_18_10': [986], 's_18_11': [998, 997], 's_18_13': [4594], 's_18_19': [1105], 's_18_21': [4580], 's_18_22': [1255], 's_18_24': [668], 's_18_25': [1165, 1166, 5045], 's_18_26': [4877], 's_18_28': [4803], 's_18_29': [817], 's_18_30': [1028], 's_18_33': [5013], 's_18_18': [1330], 's_23_4': [912, 5239], 's_23_7': [4970, 1106], 's_23_8': [447], 's_23_11': [1211], 's_23_13': [5254], 's_23_20': [5192], 's_23_25': [4984], 's_23_26': [568], 's_23_33': [688], 's_23_23': [1196], 's_26_1': [1209], 's_26_2': [759], 's_26_4': [5102], 's_26_6': [4892], 's_26_7': [4640], 's_26_8': [310], 's_26_10': [446], 's_26_11': [536], 's_26_13': [4549, 983], 's_26_17': [4641], 's_26_20': [4832], 's_26_21': [1358], 's_26_24': [623], 's_26_29': [549], 's_26_30': [638], 's_26_31': [5025], 's_26_26': [4532], 's_27_1': [4821, 4820], 's_27_2': [868], 's_27_4': [1332], 's_27_7': [987], 's_27_8': [282], 's_27_11': [4971], 's_27_17': [4911, 4910], 's_27_19': [1288], 's_27_22': [5286], 's_27_24': [583], 's_27_27': [1347], 's_29_1': [534], 's_29_4': [4800], 's_29_13': [4519, 698, 4518], 's_29_17': [1313], 's_29_19': [339], 's_29_20': [4487], 's_29_21': [774], 's_29_24': [4876], 's_29_25': [4831, 4830], 's_29_31': [4906], 's_29_29': [1342], 's_31_4': [280, 4995], 's_31_6': [551], 's_31_8': [4951], 's_31_11': [746], 's_31_17': [5031, 1346], 's_31_19': [1121], 's_31_20': [4938], 's_31_22': [1256], 's_31_24': [5086], 's_31_25': [370], 's_31_28': [597], 's_31_30': [5012], 's_31_31': [5131], 's_32_2': [729, 728], 's_32_11': [4819], 's_32_13': [4564], 's_32_19': [818], 's_32_21': [1104], 's_32_30': [848], 's_32_32': [1133], 's_33_2': [883], 's_33_4': [792], 's_33_6': [5268], 's_33_7': [5269], 's_33_8': [5358], 's_33_10': [5074], 's_33_19': [1197], 's_33_20': [598, 5417], 's_33_22': [1063], 's_33_24': [508], 's_33_25': [1002], 's_33_30': [5403], 's_33_33': [1093], 's_1_2': [984], 's_1_4': [4725], 's_1_7': [1194, 4655], 's_1_8': [4771, 235], 's_1_13': [775], 's_1_17': [4851], 's_1_20': [4667], 's_1_24': [415], 's_1_25': [190], 's_1_30': [1284], 's_1_1': [129], 's_2_4': [249], 's_2_6': [838], 's_2_7': [5344], 's_2_8': [4665], 's_2_11': [4804], 's_2_13': [5359], 's_2_17': [985], 's_2_19': [1029], 's_2_20': [4593], 's_2_21': [4684], 's_2_22': [959], 's_2_25': [5435], 's_2_28': [4608], 's_2_30': [4563], 's_2_2': [204], 's_4_6': [5223], 's_4_10': [1287], 's_4_11': [475], 's_4_13': [5210], 's_4_17': [1317], 's_4_19': [1212], 's_4_20': [686], 's_4_22': [1257], 's_4_24': [4967], 's_4_25': [250, 4890], 's_4_4': [4680], 's_8_10': [522], 's_8_19': [309], 's_8_28': [5418], 's_8_8': [297], 's_10_7': [4865], 's_10_17': [5107], 's_10_20': [5267, 537], 's_10_24': [958], 's_10_25': [5120], 's_10_30': [1073], 's_10_19': [5000], 's_10_21': [4595], 's_10_22': [5121], 's_10_28': [732], 's_10_10': [4985], 's_11_17': [4685, 4686], 's_11_25': [625], 's_11_19': [820], 's_11_28': [761], 's_11_11': [835], 's_20_19': [624], 's_20_28': [4743], 's_20_30': [5478], 's_20_20': [4517], 's_24_7': [763], 's_24_6': [823], 's_24_19': [5375], 's_24_25': [1003], 's_24_30': [643], 's_24_24': [4531], 's_25_7': [5300], 's_25_13': [1034], 's_25_17': [880], 's_25_6': [535], 's_25_30': [744], 's_25_25': [160, 4920], 's_28_13': [4998], 's_28_30': [5463], 's_28_6': [715], 's_28_19': [4668], 's_28_21': [4683], 's_28_28': [704], 's_30_13': [878], 's_30_17': [1315, 1314], 's_30_6': [5433], 's_30_19': [760, 4863], 's_30_21': [1328], 's_30_30': [1208], 's_7_21': [4700], 's_7_7': [5180], 's_13_6': [5208], 's_13_21': [879, 4609], 's_13_22': [5480], 's_13_13': [4459, 967], 's_17_6': [941], 's_17_21': [4597], 's_17_22': [5166], 's_17_17': [4942], 's_21_19': [940], 's_21_21': [1434], 's_6_6': [899], 's_19_22': [1139], 's_19_19': [5360], 's_22_22': [5376]}</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0001253481894150418</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0005774488145300246</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>{0: [5327, 432, 743, 431, 430, 429, 428, 427, 4397, 4398], 3: [4805, 1091, 1090, 4756, 4757, 4758, 4759, 4760], 's_0_3': [4742], 5: [5253, 5028, 357, 4442, 4441, 353, 354, 355, 356, 5026, 672, 671, 5027], 's_0_5': [4501, 323, 4426], 9: [473, 5225, 1048, 1047, 1046, 4635, 4636, 4637, 4638, 4639, 1044, 1045], 's_0_9': [4621], 12: [849, 5450, 5449, 5479, 853, 852, 851, 850, 4818, 4817, 4816, 444], 's_0_12': [443], 14: [4996, 5237, 504, 507, 506, 505], 's_0_14': [4772], 15: [1269, 553, 5387, 5388, 5389, 5390, 1270, 1271, 1272, 1273, 5391], 's_0_15': [538], 16: [312, 925, 5146, 492, 5147, 5148, 926, 927, 5150, 5149], 's_0_16': [5266], 18: [4413, 5044, 866, 4415, 4414, 4579, 863, 864, 865, 4878, 4881, 4880, 4879], 's_0_18': [622], 23: [5297, 5015, 5207, 687, 5298, 5299, 5014, 881, 882], 's_0_23': [418, 5356], 26: [311, 5116, 5117, 567, 566, 565, 564, 4626, 4625, 4624, 4623, 4622], 's_0_26': [563], 27: [5332, 5251, 5252, 1149, 5328, 5329, 5330, 627, 1150, 1151, 5331, 1152], 's_0_27': [5206, 477], 29: [773, 4432, 4431, 4430, 4429, 4428, 593, 295, 294, 4696, 4697, 594], 's_0_29': [4503], 31: [4891, 416, 596, 281, 371, 5056, 5057, 5058, 5059, 5061, 5060], 's_0_31': [4922], 32: [4566, 4565, 1014, 4473, 4474, 4520, 1013], 's_0_32': [4488], 33: [821, 822, 5316, 5312, 5313, 5315, 778, 5314], 's_0_33': [523], 's_0_0': [4546], 1: [519, 4710, 4711, 4712, 1285, 4716, 4715, 4714, 4713], 's_3_1': [4761], 2: [4650, 579, 973, 972, 971, 5434, 4651, 4652, 4653, 4654, 969, 970], 's_3_2': [4925], 4: [264, 265, 4980, 4981, 5196, 5194, 837, 5193, 491, 5087, 5088, 5195, 747], 's_3_4': [4741], 8: [324, 733, 5283, 5282, 5281, 327, 326, 325], 's_3_8': [4861, 385], 's_3_9': [1092, 5135], 10: [5160, 5161, 1074, 1075, 1076, 5162, 5164, 5106, 5163, 5105, 943, 942], 's_3_10': [4835], 11: [4952, 999, 1000, 4956, 4953, 4954, 4955], 's_3_11': [4940], 's_3_12': [834], 20: [608, 609, 613, 612, 611, 4997, 610], 's_3_20': [4788, 730], 's_3_23': [5030], 24: [5374, 4578, 4577, 399, 400, 5373, 5372, 401, 402, 403, 5371], 's_3_24': [713, 714], 25: [220, 5495, 745, 1018, 1017, 1016, 1015, 4845, 4846, 4847, 4849, 4848], 's_3_25': [580], 's_3_27': [4850], 's_3_29': [595], 's_3_3': [4806], 's_5_1': [518], 's_5_4': [4966], 's_5_9': [4471], 's_5_11': [581], 's_5_14': [503], 's_5_16': [5221], 's_5_18': [4443], 's_5_20': [607], 's_5_23': [5029], 's_5_25': [340], 's_5_26': [4547, 488], 's_5_27': [342], 28: [5043, 703, 702, 5073, 699, 700, 5118, 701], 's_5_28': [716], 's_5_29': [4456, 4457], 30: [803, 4536, 4535, 4534, 658, 657, 656, 655, 654, 653, 4533], 's_5_30': [5133], 's_5_31': [4921], 's_5_33': [836], 's_5_5': [4576], 's_9_1': [669], 7: [913, 5240, 5284, 5285, 1059, 1060, 1061, 1062], 's_9_7': [5270], 's_9_8': [4620], 's_9_10': [4745], 13: [776, 1032, 5209, 896, 4774, 1033, 897, 893, 894, 4924, 895], 's_9_13': [5420], 's_9_14': [4607], 17: [1298, 4894, 4895, 4896, 1302, 1299, 1300, 1301], 's_9_17': [5226], 21: [791, 790, 789, 4612, 4611, 4698, 4610, 939, 4699], 's_9_21': [4669], 's_9_23': [1031], 's_9_24': [4801, 459, 458], 's_9_25': [1030], 's_9_26': [833], 's_9_27': [5255], 's_9_29': [293, 278], 's_9_32': [954], 's_9_33': [1167], 's_9_9': [263], 's_12_2': [929], 6: [5509, 808, 4907, 4908, 805, 807, 4909, 806], 's_12_6': [914, 5494], 's_12_10': [5404], 's_12_13': [804], 's_12_18': [670], 19: [4726, 4727, 4728, 819, 4729, 4730, 1135, 1136, 1137, 5301, 1138], 's_12_19': [550], 's_12_21': [5178], 22: [944, 5464, 1240, 1242, 1241, 5465, 5466, 1243], 's_12_22': [1094], 's_12_23': [5224], 's_12_24': [4666], 's_12_25': [1109], 's_12_26': [4787], 's_12_30': [5448], 's_12_12': [4815], 's_14_1': [4682], 's_14_2': [489], 's_14_4': [341], 's_14_6': [4862, 460], 's_14_10': [582], 's_14_11': [5072, 521], 's_14_16': [5132], 's_14_20': [5042], 's_14_23': [552], 's_14_25': [445], 's_14_26': [4937], 's_14_31': [5011], 's_14_14': [5222], 's_15_2': [988], 's_15_6': [793], 's_15_8': [748], 's_15_11': [1286], 's_15_13': [898], 's_15_18': [4866], 's_15_20': [5357], 's_15_22': [5001], 's_15_24': [5386], 's_15_26': [4596, 1148], 's_15_27': [1303], 's_15_31': [5046], 's_15_32': [4551, 4550], 's_15_33': [1108], 's_15_15': [4581, 1238], 's_16_1': [910], 's_16_2': [4834], 's_16_4': [957], 's_16_7': [867], 's_16_8': [5190], 's_16_10': [1077], 's_16_11': [4999], 's_16_18': [5119], 's_16_20': [626], 's_16_21': [5134, 762], 's_16_23': [5179], 's_16_25': [1001], 's_16_26': [266], 's_16_27': [642, 641], 's_16_31': [296], 's_16_33': [5104], 's_16_16': [313], 's_18_1': [955], 's_18_2': [909], 's_18_7': [1058], 's_18_10': [986], 's_18_11': [998, 997], 's_18_13': [4594], 's_18_19': [1105], 's_18_21': [4580], 's_18_22': [1255], 's_18_24': [668], 's_18_25': [1165, 1166, 5045], 's_18_26': [4877], 's_18_28': [4803], 's_18_29': [817], 's_18_30': [1028], 's_18_33': [5013], 's_18_18': [1330], 's_23_4': [912, 5239], 's_23_7': [4970, 1106], 's_23_8': [447], 's_23_11': [1211], 's_23_13': [5254], 's_23_20': [5192], 's_23_25': [4984], 's_23_26': [568], 's_23_33': [688], 's_23_23': [1196], 's_26_1': [1209], 's_26_2': [759], 's_26_4': [5102], 's_26_6': [4892], 's_26_7': [4640], 's_26_8': [310], 's_26_10': [446], 's_26_11': [536], 's_26_13': [4549, 983], 's_26_17': [4641], 's_26_20': [4832], 's_26_21': [1358], 's_26_24': [623], 's_26_29': [549], 's_26_30': [638], 's_26_31': [5025], 's_26_26': [4532], 's_27_1': [4821, 4820], 's_27_2': [868], 's_27_4': [1332], 's_27_7': [987], 's_27_8': [282], 's_27_11': [4971], 's_27_17': [4911, 4910], 's_27_19': [1288], 's_27_22': [5286], 's_27_24': [583], 's_27_27': [1347], 's_29_1': [534], 's_29_4': [4800], 's_29_13': [4519, 698, 4518], 's_29_17': [1313], 's_29_19': [339], 's_29_20': [4487], 's_29_21': [774], 's_29_24': [4876], 's_29_25': [4831, 4830], 's_29_31': [4906], 's_29_29': [1342], 's_31_4': [280, 4995], 's_31_6': [551], 's_31_8': [4951], 's_31_11': [746], 's_31_17': [5031, 1346], 's_31_19': [1121], 's_31_20': [4938], 's_31_22': [1256], 's_31_24': [5086], 's_31_25': [370], 's_31_28': [597], 's_31_30': [5012], 's_31_31': [5131], 's_32_2': [729, 728], 's_32_11': [4819], 's_32_13': [4564], 's_32_19': [818], 's_32_21': [1104], 's_32_30': [848], 's_32_32': [1133], 's_33_2': [883], 's_33_4': [792], 's_33_6': [5268], 's_33_7': [5269], 's_33_8': [5358], 's_33_10': [5074], 's_33_19': [1197], 's_33_20': [598, 5417], 's_33_22': [1063], 's_33_24': [508], 's_33_25': [1002], 's_33_30': [5403], 's_33_33': [1093], 's_1_2': [984], 's_1_4': [4725], 's_1_7': [1194, 4655], 's_1_8': [4771, 235], 's_1_13': [775], 's_1_17': [4851], 's_1_20': [4667], 's_1_24': [415], 's_1_25': [190], 's_1_30': [1284], 's_1_1': [129], 's_2_4': [249], 's_2_6': [838], 's_2_7': [5344], 's_2_8': [4665], 's_2_11': [4804], 's_2_13': [5359], 's_2_17': [985], 's_2_19': [1029], 's_2_20': [4593], 's_2_21': [4684], 's_2_22': [959], 's_2_25': [5435], 's_2_28': [4608], 's_2_30': [4563], 's_2_2': [204], 's_4_6': [5223], 's_4_10': [1287], 's_4_11': [475], 's_4_13': [5210], 's_4_17': [1317], 's_4_19': [1212], 's_4_20': [686], 's_4_22': [1257], 's_4_24': [4967], 's_4_25': [250, 4890], 's_4_4': [4680], 's_8_10': [522], 's_8_19': [309], 's_8_28': [5418], 's_8_8': [297], 's_10_7': [4865], 's_10_17': [5107], 's_10_20': [5267, 537], 's_10_24': [958], 's_10_25': [5120], 's_10_30': [1073], 's_10_19': [5000], 's_10_21': [4595], 's_10_22': [5121], 's_10_28': [732], 's_10_10': [4985], 's_11_17': [4685, 4686], 's_11_25': [625], 's_11_19': [820], 's_11_28': [761], 's_11_11': [835], 's_20_19': [624], 's_20_28': [4743], 's_20_30': [5478], 's_20_20': [4517], 's_24_7': [763], 's_24_6': [823], 's_24_19': [5375], 's_24_25': [1003], 's_24_30': [643], 's_24_24': [4531], 's_25_7': [5300], 's_25_13': [1034], 's_25_17': [880], 's_25_6': [535], 's_25_30': [744], 's_25_25': [160, 4920], 's_28_13': [4998], 's_28_30': [5463], 's_28_6': [715], 's_28_19': [4668], 's_28_21': [4683], 's_28_28': [704], 's_30_13': [878], 's_30_17': [1315, 1314], 's_30_6': [5433], 's_30_19': [760, 4863], 's_30_21': [1328], 's_30_30': [1208], 's_7_21': [4700], 's_7_7': [5180], 's_13_6': [5208], 's_13_21': [879, 4609], 's_13_22': [5480], 's_13_13': [4459, 967], 's_17_6': [941], 's_17_21': [4597], 's_17_22': [5166], 's_17_17': [4942], 's_21_19': [940], 's_21_21': [1434], 's_6_6': [899], 's_19_22': [1139], 's_19_19': [5360], 's_22_22': [5376]}</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0001253481894150418</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0005774488145300246</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>{0: [4520, 4521, 1508, 4522], 4: [4731, 4746, 1177, 1178, 1179], 6: [4701, 1523, 4702, 1524], 7: [4656, 4655, 1103, 1104], 8: [4626, 1359, 1358], 10: [1315, 1388, 1389, 4747], 11: [4627, 4761, 4762, 1419], 12: [4505, 4507, 4506], 18: [4462, 1088, 4461, 4460], 22: [4492, 1073, 4491, 4490], 23: [1133, 4402, 4401], 24: [4447, 4642, 1433, 1434], 25: [4732, 1374, 1373, 4327, 1372], 28: [1313, 1314], 31: [4700, 1118, 4612, 4611, 1119], 33: [1209, 4417, 1208, 4416], 34: [4596, 1147, 1149, 1148], 1: [4326, 1222, 1223, 4445, 1224], 5: [4670, 1449, 4672, 4671], 9: [1417, 4581, 4582, 1418], 14: [4820, 1162, 4821, 1163, 1164], 15: [1237, 1239, 1238], 19: [4477, 4475, 4476], 26: [1254, 4446, 1253], 27: [1494, 4537, 4535, 4536], 29: [4551, 1329, 1327, 1328], 2: [4356, 1284, 1283], 3: [4640, 1299, 1404, 4641], 13: [1463, 1464, 4687], 17: [1192, 4716, 1193, 1194], 21: [4686, 1268, 1269], 30: [4370, 1448, 4371, 4372], 32: [1357, 1298, 4386, 4387], 16: [4431, 1403, 4432], 20: [1342, 1344, 4567, 1343]}</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.04447876447876448</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.03066852506009244</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>{0: [4520, 4521, 1508, 4522], 4: [4731, 4746, 1177, 1178, 1179], 6: [4701, 1523, 4702, 1524], 7: [4656, 4655, 1103, 1104], 8: [4626, 1359, 1358], 10: [1315, 1388, 1389, 4747], 11: [4627, 4761, 4762, 1419], 12: [4505, 4507, 4506], 18: [4462, 1088, 4461, 4460], 22: [4492, 1073, 4491, 4490], 23: [1133, 4402, 4401], 24: [4447, 4642, 1433, 1434], 25: [4732, 1374, 1373, 4327, 1372], 28: [1313, 1314], 31: [4700, 1118, 4612, 4611, 1119], 33: [1209, 4417, 1208, 4416], 34: [4596, 1147, 1149, 1148], 1: [4326, 1222, 1223, 4445, 1224], 5: [4670, 1449, 4672, 4671], 9: [1417, 4581, 4582, 1418], 14: [4820, 1162, 4821, 1163, 1164], 15: [1237, 1239, 1238], 19: [4477, 4475, 4476], 26: [1254, 4446, 1253], 27: [1494, 4537, 4535, 4536], 29: [4551, 1329, 1327, 1328], 2: [4356, 1284, 1283], 3: [4640, 1299, 1404, 4641], 13: [1463, 1464, 4687], 17: [1192, 4716, 1193, 1194], 21: [4686, 1268, 1269], 30: [4370, 1448, 4371, 4372], 32: [1357, 1298, 4386, 4387], 16: [4431, 1403, 4432], 20: [1342, 1344, 4567, 1343]}</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0.04447876447876448</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.03066852506009244</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.119</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>{0: [1674, 4617, 2214, 1823, 1525, 4419, 1524, 4672, 1824, 4676, 4675, 4673, 1884, 4674], 4: [1557, 4706, 1556, 1555, 1554, 1643, 2049, 4705, 1644, 4704, 4703], 's_0_4': [5002], 6: [1918, 2352, 2353, 2354, 5517, 5516, 5515, 5514, 1664, 1663, 1662, 4897, 4898, 1661], 's_0_6': [1510], 7: [4464, 1809, 1722, 1721, 5064, 1793, 1794, 4719, 1810, 5021, 5020, 5019, 1811], 's_0_7': [4569], 8: [4420, 1912, 4299, 4300, 4301, 4302, 2437, 2438, 2439, 2440, 2441, 5112, 5113], 's_0_8': [1822], 10: [2273, 4929, 1972, 1765, 1973, 4884, 4885, 1975, 4648, 4647, 4646, 4645, 1974], 's_0_10': [2274], 11: [2562, 5188, 4779, 1825, 1826, 1827, 5184, 5187, 5186, 5185], 's_0_11': [1719], 12: [4542, 1541, 2287, 1540, 4837, 4838, 4839, 4840, 4841, 2288, 2289, 2290], 's_0_12': [4852], 18: [5126, 1733, 1734, 1735, 2066, 5080, 5018, 1738, 1737, 1736, 5079], 's_0_18': [4734], 22: [1859, 2454, 1858, 1857, 1856, 1855, 2529, 2453, 4588, 4587, 4586, 4585, 1854], 's_0_22': [4780], 23: [4958, 1813, 5381, 5380, 1494, 1495, 1496, 1933, 5379, 5378, 4702, 5377, 1498, 1497, 5108], 's_0_23': [4882], 24: [4782, 2455, 5082, 2426, 2348, 2335, 2349, 2350, 2425, 4842], 's_0_24': [2215], 25: [2168, 2174, 2169, 2170, 4946, 2173, 5202, 5201, 2172, 2171], 's_0_25': [4556], 28: [1958, 1959, 1960, 1961, 5427, 5426, 5425, 5140, 1963, 1962], 's_0_28': [4750], 31: [5469, 5411, 5470, 2143, 2138, 2139, 5471, 2140, 2141, 5172, 5171, 2142], 's_0_31': [4691, 2184], 33: [2500, 2501, 2502, 1943, 5293, 5292, 5291, 4644, 1944, 1945, 1946, 1931, 1932, 5290], 's_0_33': [4643], 34: [2304, 4661, 1989, 4660, 4659, 5183, 1602, 1601, 1600, 4658, 1599], 's_0_34': [4943], 's_0_0': [4671], 1: [2109, 2079, 4917, 4916, 2110, 1798, 1797, 1796, 1795, 4809, 4810], 's_4_1': [1899], 5: [1867, 1868, 1869, 1870, 1753, 1752, 1751, 5003, 5004], 's_4_5': [4689], 's_4_6': [5093], 's_4_7': [4718], 9: [2514, 4603, 4602, 4598, 4599, 4600, 4601], 's_4_9': [1749], 's_4_12': [4987], 14: [5215, 1587, 1707, 1977, 1542, 5261, 5260, 5258, 5259], 's_4_14': [5212], 15: [1748, 2097, 2096, 4538, 4539, 4540, 5037, 5036, 5035, 2019, 2021, 2020], 's_4_15': [4553], 's_4_18': [5017], 19: [5007, 5006, 5005, 2003, 2004, 2008, 2007, 2005, 2006], 's_4_19': [4825], 's_4_22': [2199], 's_4_23': [1558], 's_4_25': [4751], 26: [2394, 2393, 2407, 4373, 4374, 4375, 2363, 4377, 2395, 4376], 's_4_26': [1628], 27: [4630, 2588, 4513, 4512, 2094, 2093, 4479, 4480, 2123, 4511], 's_4_27': [4478], 29: [4498, 5289, 1782, 5123, 5124, 1781, 1780, 1779, 2469, 2468, 1778, 4497, 4496, 4495, 4494], 's_4_29': [2048], 's_4_31': [2154], 's_4_4': [4433], 2: [5231, 2202, 2247, 4854, 5246, 1914, 1915, 1916, 1917, 5245], 's_6_2': [5142], 3: [5472, 5232, 2308, 2307, 2306, 5052, 2396, 2543, 2544, 2545, 2547, 2546, 4948], 's_6_3': [5457], 's_6_5': [4959], 's_6_10': [1705], 's_6_11': [2367], 's_6_12': [5063], 13: [2516, 4913, 4914, 4978, 4977, 4976, 2033, 2034, 2035, 2036, 4915], 's_6_13': [1570], 17: [5336, 2052, 5229, 1658, 1812, 5109, 5230, 1659, 4868, 1690, 1660, 1691], 's_6_17': [5078], 's_6_22': [5544], 's_6_24': [2351], 's_6_25': [5217], 's_6_28': [2233], 's_6_29': [5304], 's_6_31': [2189], 's_6_6': [5322], 's_7_1': [5139], 's_7_8': [2291], 's_7_10': [1764], 's_7_14': [5213], 's_7_15': [5022], 's_7_18': [4554], 's_7_19': [1991], 21: [2573, 4528, 2108, 4524, 4525, 4526, 4527], 's_7_21': [4509], 's_7_27': [1808], 's_7_28': [1901], 30: [5486, 5081, 1767, 5274, 5275, 5276, 4871, 2080, 2081, 2083, 2082], 's_7_30': [2126], 's_7_31': [1723], 's_7_7': [1792], 's_8_2': [2217], 's_8_3': [4393, 2482], 's_8_5': [4390], 's_8_11': [5098], 's_8_12': [2302], 's_8_13': [2336], 's_8_15': [2471], 's_8_19': [2002], 's_8_21': [2018, 2017], 's_8_28': [1957], 's_8_29': [4452], 's_8_31': [5111], 32: [2228, 1992, 5153, 5154, 2229, 5158, 2230, 2231, 5155, 5156, 5157], 's_8_32': [2411], 's_8_8': [2122], 's_10_9': [4633], 's_10_11': [4944], 16: [2473, 2128, 4798, 4662, 4423, 2378, 2379, 2380, 2381, 2382, 2383, 5397, 5396, 5395], 's_10_16': [2319], 's_10_18': [4988, 1676], 's_10_19': [4735], 's_10_22': [4765], 's_10_24': [4557], 's_10_26': [2364], 's_10_27': [2603], 's_10_28': [4795], 's_10_29': [2063], 's_10_10': [2664], 's_11_1': [5034], 's_11_3': [2322], 's_11_5': [4899], 20: [4438, 4437, 1843, 1842, 1841, 1840, 4436, 4435, 1838, 1839], 's_11_20': [5049], 's_11_24': [2456], 's_11_25': [2397], 's_11_29': [4764], 's_11_33': [2487, 5248], 's_11_34': [4778], 's_11_11': [5144], 's_12_9': [1539, 1538], 's_12_13': [2275], 's_12_14': [5182], 's_12_16': [4797], 's_12_17': [1630], 's_12_18': [1645, 4823], 's_12_21': [2333], 's_12_22': [4543], 's_12_26': [4737], 's_12_28': [4855], 's_12_29': [4707, 2424, 2423], 's_12_30': [2155], 's_12_31': [4466], 's_12_32': [4826], 's_12_34': [4722], 's_12_12': [2286], 's_18_2': [5141, 2157], 's_18_13': [2065], 's_18_14': [5334], 's_18_15': [2022], 's_18_19': [2156], 's_18_20': [5424], 's_18_21': [1718], 's_18_23': [1646], 's_18_28': [1976], 's_18_30': [5198], 's_18_31': [2187], 's_18_32': [5127], 's_18_33': [2067], 's_18_18': [5528], 's_22_1': [5409], 's_22_9': [4678], 's_22_14': [5305], 's_22_16': [4827], 's_22_17': [4584], 's_22_20': [5364], 's_22_21': [1853], 's_22_24': [4572], 's_22_25': [4571], 's_22_26': [4768], 's_22_27': [2513], 's_22_29': [4693], 's_22_30': [5485], 's_22_31': [2153], 's_22_34': [2303], 's_22_22': [5574], 's_23_1': [5394], 's_23_9': [4613], 's_23_19': [5410], 's_23_20': [5335], 's_23_25': [2188], 's_23_28': [5455], 's_23_29': [1586], 's_23_31': [1888], 's_23_32': [1511], 's_23_33': [2038], 's_23_34': [4657], 's_23_23': [2023], 's_24_3': [2515, 4843], 's_24_13': [2321], 's_24_19': [2410], 's_24_20': [4422], 's_24_26': [4392], 's_24_30': [2200], 's_24_31': [2261], 's_24_24': [2259], 's_25_1': [2125], 's_25_3': [4947], 's_25_13': [4796], 's_25_14': [2232], 's_25_20': [4421], 's_25_27': [4736], 's_25_31': [4451], 's_25_32': [4991], 's_25_33': [5203], 's_25_25': [5531], 's_28_3': [2427, 2428, 5532], 's_28_16': [2218], 's_28_19': [4870], 's_28_20': [4945], 's_28_21': [4450], 's_28_30': [2158], 's_28_31': [1903], 's_28_28': [2203, 2204, 5576, 2144], 's_31_1': [4901], 's_31_2': [2248], 's_31_3': [5216], 's_31_5': [5484], 's_31_13': [2186, 5066], 's_31_14': [1708], 's_31_15': [2098], 's_31_16': [2068], 's_31_17': [2113], 's_31_19': [2009], 's_31_20': [1844], 's_31_27': [4481, 2258], 's_31_30': [5051], 's_31_32': [4721], 's_31_31': [1994], 's_33_1': [1930], 's_33_3': [4963], 's_33_9': [2499], 's_33_13': [4900], 's_33_14': [1872], 's_33_16': [2398], 's_33_17': [5306], 's_33_19': [5110], 's_33_20': [4449], 's_33_21': [1913], 's_33_27': [1898], 's_33_30': [2127], 's_33_32': [5095], 's_33_34': [4570], 's_33_33': [4858], 's_34_2': [4690], 's_34_5': [1616], 's_34_14': [5273], 's_34_15': [1629], 's_34_16': [4692], 's_34_17': [4853], 's_34_19': [4555], 's_34_27': [1988], 's_34_30': [5168], 's_34_32': [1647], 's_34_34': [4793], 's_1_3': [4902], 's_1_5': [5454], 's_1_9': [2078], 's_1_14': [5319], 's_1_17': [4974], 's_1_19': [2260], 's_1_20': [4824], 's_1_27': [4781], 's_1_29': [5244], 's_1_30': [4931], 's_1_1': [2124], 's_5_2': [1900], 's_5_9': [1883], 's_5_13': [1631], 's_5_14': [5348], 's_5_17': [4869], 's_5_20': [4359], 's_5_27': [4629], 's_5_30': [1768], 's_5_5': [1754], 's_9_15': [1688], 's_9_16': [4663], 's_9_17': [4614], 's_9_19': [4615], 's_9_26': [2408], 's_9_27': [4604], 's_9_29': [2484], 's_9_9': [4597], 's_14_19': [1993], 's_14_29': [1678], 's_14_30': [5170], 's_14_32': [1947], 's_14_14': [5257], 's_15_3': [5038], 's_15_27': [2095], 's_15_29': [1928], 's_15_30': [4990], 's_15_2': [4720], 's_15_16': [5350], 's_15_21': [4541], 's_15_32': [5096], 's_15_15': [1568], 's_19_17': [5365], 's_19_16': [4992], 's_19_21': [4465], 's_19_30': [2111], 's_19_32': [5125], 's_19_19': [2486], 's_26_3': [4408, 4407], 's_26_17': [4358], 's_26_20': [2077], 's_26_27': [2092], 's_26_29': [4753], 's_26_21': [2107], 's_26_16': [4887], 's_26_26': [1582], 's_27_3': [4483], 's_27_16': [2528], 's_27_21': [2558], 's_27_29': [2198], 's_27_27': [2587], 's_29_3': [4573], 's_29_17': [4493], 's_29_20': [4434], 's_29_2': [5214], 's_29_16': [2470], 's_29_30': [1828], 's_29_29': [1571], 's_2_3': [5337], 's_2_17': [5169], 's_2_20': [4960], 's_2_32': [2246], 's_2_2': [5050], 's_3_13': [2531], 's_3_20': [4558, 2498], 's_3_21': [4363], 's_3_32': [2532], 's_3_3': [2369, 5577], 's_13_30': [4961], 's_13_32': [5065, 2051], 's_13_21': [4510], 's_13_13': [4979], 's_17_16': [5321], 's_17_20': [5094], 's_17_17': [1902], 's_21_32': [2243], 's_21_21': [2572], 's_30_16': [5501, 2129], 's_30_32': [5200], 's_30_30': [2185], 's_32_16': [2472], 's_32_32': [5143], 's_16_16': [2485], 's_20_20': [1837]}</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0001784702549575071</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.000733437554986119</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>{0: [1674, 4617, 2214, 1823, 1525, 4419, 1524, 4672, 1824, 4676, 4675, 4673, 1884, 4674], 4: [1557, 4706, 1556, 1555, 1554, 1643, 2049, 4705, 1644, 4704, 4703], 's_0_4': [5002], 6: [1918, 2352, 2353, 2354, 5517, 5516, 5515, 5514, 1664, 1663, 1662, 4897, 4898, 1661], 's_0_6': [1510], 7: [4464, 1809, 1722, 1721, 5064, 1793, 1794, 4719, 1810, 5021, 5020, 5019, 1811], 's_0_7': [4569], 8: [4420, 1912, 4299, 4300, 4301, 4302, 2437, 2438, 2439, 2440, 2441, 5112, 5113], 's_0_8': [1822], 10: [2273, 4929, 1972, 1765, 1973, 4884, 4885, 1975, 4648, 4647, 4646, 4645, 1974], 's_0_10': [2274], 11: [2562, 5188, 4779, 1825, 1826, 1827, 5184, 5187, 5186, 5185], 's_0_11': [1719], 12: [4542, 1541, 2287, 1540, 4837, 4838, 4839, 4840, 4841, 2288, 2289, 2290], 's_0_12': [4852], 18: [5126, 1733, 1734, 1735, 2066, 5080, 5018, 1738, 1737, 1736, 5079], 's_0_18': [4734], 22: [1859, 2454, 1858, 1857, 1856, 1855, 2529, 2453, 4588, 4587, 4586, 4585, 1854], 's_0_22': [4780], 23: [4958, 1813, 5381, 5380, 1494, 1495, 1496, 1933, 5379, 5378, 4702, 5377, 1498, 1497, 5108], 's_0_23': [4882], 24: [4782, 2455, 5082, 2426, 2348, 2335, 2349, 2350, 2425, 4842], 's_0_24': [2215], 25: [2168, 2174, 2169, 2170, 4946, 2173, 5202, 5201, 2172, 2171], 's_0_25': [4556], 28: [1958, 1959, 1960, 1961, 5427, 5426, 5425, 5140, 1963, 1962], 's_0_28': [4750], 31: [5469, 5411, 5470, 2143, 2138, 2139, 5471, 2140, 2141, 5172, 5171, 2142], 's_0_31': [4691, 2184], 33: [2500, 2501, 2502, 1943, 5293, 5292, 5291, 4644, 1944, 1945, 1946, 1931, 1932, 5290], 's_0_33': [4643], 34: [2304, 4661, 1989, 4660, 4659, 5183, 1602, 1601, 1600, 4658, 1599], 's_0_34': [4943], 's_0_0': [4671], 1: [2109, 2079, 4917, 4916, 2110, 1798, 1797, 1796, 1795, 4809, 4810], 's_4_1': [1899], 5: [1867, 1868, 1869, 1870, 1753, 1752, 1751, 5003, 5004], 's_4_5': [4689], 's_4_6': [5093], 's_4_7': [4718], 9: [2514, 4603, 4602, 4598, 4599, 4600, 4601], 's_4_9': [1749], 's_4_12': [4987], 14: [5215, 1587, 1707, 1977, 1542, 5261, 5260, 5258, 5259], 's_4_14': [5212], 15: [1748, 2097, 2096, 4538, 4539, 4540, 5037, 5036, 5035, 2019, 2021, 2020], 's_4_15': [4553], 's_4_18': [5017], 19: [5007, 5006, 5005, 2003, 2004, 2008, 2007, 2005, 2006], 's_4_19': [4825], 's_4_22': [2199], 's_4_23': [1558], 's_4_25': [4751], 26: [2394, 2393, 2407, 4373, 4374, 4375, 2363, 4377, 2395, 4376], 's_4_26': [1628], 27: [4630, 2588, 4513, 4512, 2094, 2093, 4479, 4480, 2123, 4511], 's_4_27': [4478], 29: [4498, 5289, 1782, 5123, 5124, 1781, 1780, 1779, 2469, 2468, 1778, 4497, 4496, 4495, 4494], 's_4_29': [2048], 's_4_31': [2154], 's_4_4': [4433], 2: [5231, 2202, 2247, 4854, 5246, 1914, 1915, 1916, 1917, 5245], 's_6_2': [5142], 3: [5472, 5232, 2308, 2307, 2306, 5052, 2396, 2543, 2544, 2545, 2547, 2546, 4948], 's_6_3': [5457], 's_6_5': [4959], 's_6_10': [1705], 's_6_11': [2367], 's_6_12': [5063], 13: [2516, 4913, 4914, 4978, 4977, 4976, 2033, 2034, 2035, 2036, 4915], 's_6_13': [1570], 17: [5336, 2052, 5229, 1658, 1812, 5109, 5230, 1659, 4868, 1690, 1660, 1691], 's_6_17': [5078], 's_6_22': [5544], 's_6_24': [2351], 's_6_25': [5217], 's_6_28': [2233], 's_6_29': [5304], 's_6_31': [2189], 's_6_6': [5322], 's_7_1': [5139], 's_7_8': [2291], 's_7_10': [1764], 's_7_14': [5213], 's_7_15': [5022], 's_7_18': [4554], 's_7_19': [1991], 21: [2573, 4528, 2108, 4524, 4525, 4526, 4527], 's_7_21': [4509], 's_7_27': [1808], 's_7_28': [1901], 30: [5486, 5081, 1767, 5274, 5275, 5276, 4871, 2080, 2081, 2083, 2082], 's_7_30': [2126], 's_7_31': [1723], 's_7_7': [1792], 's_8_2': [2217], 's_8_3': [4393, 2482], 's_8_5': [4390], 's_8_11': [5098], 's_8_12': [2302], 's_8_13': [2336], 's_8_15': [2471], 's_8_19': [2002], 's_8_21': [2018, 2017], 's_8_28': [1957], 's_8_29': [4452], 's_8_31': [5111], 32: [2228, 1992, 5153, 5154, 2229, 5158, 2230, 2231, 5155, 5156, 5157], 's_8_32': [2411], 's_8_8': [2122], 's_10_9': [4633], 's_10_11': [4944], 16: [2473, 2128, 4798, 4662, 4423, 2378, 2379, 2380, 2381, 2382, 2383, 5397, 5396, 5395], 's_10_16': [2319], 's_10_18': [4988, 1676], 's_10_19': [4735], 's_10_22': [4765], 's_10_24': [4557], 's_10_26': [2364], 's_10_27': [2603], 's_10_28': [4795], 's_10_29': [2063], 's_10_10': [2664], 's_11_1': [5034], 's_11_3': [2322], 's_11_5': [4899], 20: [4438, 4437, 1843, 1842, 1841, 1840, 4436, 4435, 1838, 1839], 's_11_20': [5049], 's_11_24': [2456], 's_11_25': [2397], 's_11_29': [4764], 's_11_33': [2487, 5248], 's_11_34': [4778], 's_11_11': [5144], 's_12_9': [1539, 1538], 's_12_13': [2275], 's_12_14': [5182], 's_12_16': [4797], 's_12_17': [1630], 's_12_18': [1645, 4823], 's_12_21': [2333], 's_12_22': [4543], 's_12_26': [4737], 's_12_28': [4855], 's_12_29': [4707, 2424, 2423], 's_12_30': [2155], 's_12_31': [4466], 's_12_32': [4826], 's_12_34': [4722], 's_12_12': [2286], 's_18_2': [5141, 2157], 's_18_13': [2065], 's_18_14': [5334], 's_18_15': [2022], 's_18_19': [2156], 's_18_20': [5424], 's_18_21': [1718], 's_18_23': [1646], 's_18_28': [1976], 's_18_30': [5198], 's_18_31': [2187], 's_18_32': [5127], 's_18_33': [2067], 's_18_18': [5528], 's_22_1': [5409], 's_22_9': [4678], 's_22_14': [5305], 's_22_16': [4827], 's_22_17': [4584], 's_22_20': [5364], 's_22_21': [1853], 's_22_24': [4572], 's_22_25': [4571], 's_22_26': [4768], 's_22_27': [2513], 's_22_29': [4693], 's_22_30': [5485], 's_22_31': [2153], 's_22_34': [2303], 's_22_22': [5574], 's_23_1': [5394], 's_23_9': [4613], 's_23_19': [5410], 's_23_20': [5335], 's_23_25': [2188], 's_23_28': [5455], 's_23_29': [1586], 's_23_31': [1888], 's_23_32': [1511], 's_23_33': [2038], 's_23_34': [4657], 's_23_23': [2023], 's_24_3': [2515, 4843], 's_24_13': [2321], 's_24_19': [2410], 's_24_20': [4422], 's_24_26': [4392], 's_24_30': [2200], 's_24_31': [2261], 's_24_24': [2259], 's_25_1': [2125], 's_25_3': [4947], 's_25_13': [4796], 's_25_14': [2232], 's_25_20': [4421], 's_25_27': [4736], 's_25_31': [4451], 's_25_32': [4991], 's_25_33': [5203], 's_25_25': [5531], 's_28_3': [2427, 2428, 5532], 's_28_16': [2218], 's_28_19': [4870], 's_28_20': [4945], 's_28_21': [4450], 's_28_30': [2158], 's_28_31': [1903], 's_28_28': [2203, 2204, 5576, 2144], 's_31_1': [4901], 's_31_2': [2248], 's_31_3': [5216], 's_31_5': [5484], 's_31_13': [2186, 5066], 's_31_14': [1708], 's_31_15': [2098], 's_31_16': [2068], 's_31_17': [2113], 's_31_19': [2009], 's_31_20': [1844], 's_31_27': [4481, 2258], 's_31_30': [5051], 's_31_32': [4721], 's_31_31': [1994], 's_33_1': [1930], 's_33_3': [4963], 's_33_9': [2499], 's_33_13': [4900], 's_33_14': [1872], 's_33_16': [2398], 's_33_17': [5306], 's_33_19': [5110], 's_33_20': [4449], 's_33_21': [1913], 's_33_27': [1898], 's_33_30': [2127], 's_33_32': [5095], 's_33_34': [4570], 's_33_33': [4858], 's_34_2': [4690], 's_34_5': [1616], 's_34_14': [5273], 's_34_15': [1629], 's_34_16': [4692], 's_34_17': [4853], 's_34_19': [4555], 's_34_27': [1988], 's_34_30': [5168], 's_34_32': [1647], 's_34_34': [4793], 's_1_3': [4902], 's_1_5': [5454], 's_1_9': [2078], 's_1_14': [5319], 's_1_17': [4974], 's_1_19': [2260], 's_1_20': [4824], 's_1_27': [4781], 's_1_29': [5244], 's_1_30': [4931], 's_1_1': [2124], 's_5_2': [1900], 's_5_9': [1883], 's_5_13': [1631], 's_5_14': [5348], 's_5_17': [4869], 's_5_20': [4359], 's_5_27': [4629], 's_5_30': [1768], 's_5_5': [1754], 's_9_15': [1688], 's_9_16': [4663], 's_9_17': [4614], 's_9_19': [4615], 's_9_26': [2408], 's_9_27': [4604], 's_9_29': [2484], 's_9_9': [4597], 's_14_19': [1993], 's_14_29': [1678], 's_14_30': [5170], 's_14_32': [1947], 's_14_14': [5257], 's_15_3': [5038], 's_15_27': [2095], 's_15_29': [1928], 's_15_30': [4990], 's_15_2': [4720], 's_15_16': [5350], 's_15_21': [4541], 's_15_32': [5096], 's_15_15': [1568], 's_19_17': [5365], 's_19_16': [4992], 's_19_21': [4465], 's_19_30': [2111], 's_19_32': [5125], 's_19_19': [2486], 's_26_3': [4408, 4407], 's_26_17': [4358], 's_26_20': [2077], 's_26_27': [2092], 's_26_29': [4753], 's_26_21': [2107], 's_26_16': [4887], 's_26_26': [1582], 's_27_3': [4483], 's_27_16': [2528], 's_27_21': [2558], 's_27_29': [2198], 's_27_27': [2587], 's_29_3': [4573], 's_29_17': [4493], 's_29_20': [4434], 's_29_2': [5214], 's_29_16': [2470], 's_29_30': [1828], 's_29_29': [1571], 's_2_3': [5337], 's_2_17': [5169], 's_2_20': [4960], 's_2_32': [2246], 's_2_2': [5050], 's_3_13': [2531], 's_3_20': [4558, 2498], 's_3_21': [4363], 's_3_32': [2532], 's_3_3': [2369, 5577], 's_13_30': [4961], 's_13_32': [5065, 2051], 's_13_21': [4510], 's_13_13': [4979], 's_17_16': [5321], 's_17_20': [5094], 's_17_17': [1902], 's_21_32': [2243], 's_21_21': [2572], 's_30_16': [5501, 2129], 's_30_32': [5200], 's_30_30': [2185], 's_32_16': [2472], 's_32_32': [5143], 's_16_16': [2485], 's_20_20': [1837]}</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0001784702549575071</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.000733437554986119</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>{0: [4165, 4166, 2107, 2106], 1: [2017, 4091, 4090, 2016], 3: [2212, 2210, 2211], 5: [2032, 4061, 2031], 7: [4331, 2196, 2197], 10: [4256, 2256, 2287, 2255, 4257], 11: [2047, 2046, 4150, 4152, 4151], 13: [4347, 4346, 4345], 14: [2002, 4106, 2001, 4105], 15: [4360, 1927, 1910, 1911, 4240, 4241], 16: [1971, 4271, 4270, 1972], 17: [2360, 1957, 2361, 2362, 4315, 4316, 4317], 23: [4302, 2392, 4182, 4180, 4181], 24: [1941, 1987, 4212, 4210, 4211], 26: [1852, 1851, 4121, 4120, 4119], 27: [2227, 3971, 2226, 4062, 2225], 30: [3941, 2180, 2182, 2181], 4: [4361, 2240, 2241, 2168, 2242], 6: [2315, 4075, 4076, 2316, 4077], 8: [4030, 4031, 4032], 19: [4286, 2271, 2270, 2269], 21: [2061, 4136, 4135], 25: [2062, 4299, 4301, 4300], 28: [2030, 2015, 3896, 2286, 2285, 3897], 31: [2254, 3970, 3926, 2060, 2059, 3925], 32: [2302, 2301, 2300, 3956, 2195], 34: [2167, 4046, 2165, 2166], 9: [2239, 1956, 1955, 2105, 3911, 3910], 12: [1837, 1926, 4227, 4226, 4225], 18: [2092, 3986, 2091, 2090], 22: [2330, 2331, 4197, 4196, 4195], 35: [4002, 1986, 4001, 4000], 2: [4377, 4376, 2120, 2121, 2122], 29: [2150, 2152, 2151], 33: [3882, 3881, 2077, 2076, 2075, 2074], 20: [2137, 2136, 2135]}</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.133298392732355</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.03470746822069969</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>{0: [4165, 4166, 2107, 2106], 1: [2017, 4091, 4090, 2016], 3: [2212, 2210, 2211], 5: [2032, 4061, 2031], 7: [4331, 2196, 2197], 10: [4256, 2256, 2287, 2255, 4257], 11: [2047, 2046, 4150, 4152, 4151], 13: [4347, 4346, 4345], 14: [2002, 4106, 2001, 4105], 15: [4360, 1927, 1910, 1911, 4240, 4241], 16: [1971, 4271, 4270, 1972], 17: [2360, 1957, 2361, 2362, 4315, 4316, 4317], 23: [4302, 2392, 4182, 4180, 4181], 24: [1941, 1987, 4212, 4210, 4211], 26: [1852, 1851, 4121, 4120, 4119], 27: [2227, 3971, 2226, 4062, 2225], 30: [3941, 2180, 2182, 2181], 4: [4361, 2240, 2241, 2168, 2242], 6: [2315, 4075, 4076, 2316, 4077], 8: [4030, 4031, 4032], 19: [4286, 2271, 2270, 2269], 21: [2061, 4136, 4135], 25: [2062, 4299, 4301, 4300], 28: [2030, 2015, 3896, 2286, 2285, 3897], 31: [2254, 3970, 3926, 2060, 2059, 3925], 32: [2302, 2301, 2300, 3956, 2195], 34: [2167, 4046, 2165, 2166], 9: [2239, 1956, 1955, 2105, 3911, 3910], 12: [1837, 1926, 4227, 4226, 4225], 18: [2092, 3986, 2091, 2090], 22: [2330, 2331, 4197, 4196, 4195], 35: [4002, 1986, 4001, 4000], 2: [4377, 4376, 2120, 2121, 2122], 29: [2150, 2152, 2151], 33: [3882, 3881, 2077, 2076, 2075, 2074], 20: [2137, 2136, 2135]}</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0.133298392732355</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.03470746822069969</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.267</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>{0: [4825, 5473, 5472, 5471, 2113, 2109, 2110, 2111, 2112], 1: [4569, 1718, 1719, 1720, 4974, 1811, 1812, 5199, 5200, 5201, 5202, 5203], 's_0_1': [5215], 3: [5079, 4662, 4661, 5078, 1391, 4660, 4659, 4658, 4657, 1434, 1435, 1436, 5077], 's_0_3': [4675], 5: [4583, 4584, 4585, 5051, 5050, 5379, 1903, 1902, 2156, 1854, 1855, 4839, 1900, 1901], 's_0_5': [4961], 7: [2368, 5593, 5592, 2369, 4884, 1735, 1736, 1737, 1738, 5484, 5485, 5486, 5487], 's_0_7': [2039], 10: [5398, 1778, 1779, 5397, 5396, 5395, 5394, 1780, 1781, 1782, 1783], 's_0_10': [5439, 5440, 2053], 11: [1644, 1645, 1646, 1647, 5338, 5337, 5336, 1648, 5335, 5334, 5333], 's_0_11': [2518], 13: [4663, 5293, 5458, 2534, 4588, 2529, 2533, 2532, 2530, 2531], 's_0_13': [2549], 14: [4808, 5306, 2008, 5305, 1884, 5097, 5096, 5095, 1947, 1946, 1945, 4809], 's_0_14': [2035, 4870], 15: [5636, 5291, 2123, 2124, 2125, 2126, 2129, 2128, 2127], 's_0_15': [4855], 16: [4897, 4898, 4903, 4902, 4901, 4899, 1960, 4900], 's_0_16': [1975], 17: [2608, 5489, 5110, 2424, 2425, 5111, 2141, 5005, 5006, 2668, 2667, 2666, 5008, 5007], 's_0_17': [5474], 23: [4598, 2004, 4599, 4603, 4602, 4601, 4600], 's_0_23': [2005], 24: [2098, 2097, 4358, 5067, 5066, 2096, 2095, 2094, 2093, 4359, 4360, 2033, 4480], 's_0_24': [5441], 26: [5442, 2081, 5187, 5185, 2308, 2307, 5186], 's_0_26': [2413], 27: [1974, 1540, 1539, 4718, 2395, 4722, 4721, 4719, 4720], 's_0_27': [1990], 30: [4987, 4762, 1450, 1451, 1452, 1453, 5362, 5363, 5364, 5365, 5366, 5367, 5368], 's_0_30': [2158], 's_0_0': [2354], 's_1_3': [4673], 4: [4913, 1600, 1599, 2410, 2409, 2408, 4643, 4644, 4527, 4526, 4525, 1898], 's_1_4': [1659], 's_1_5': [4838], 6: [5637, 2258, 5652, 4617, 2319, 2320, 2324, 2323, 2322, 2321], 's_1_6': [2337], 8: [1661, 5062, 5063, 5157, 5064, 2069, 5065, 2068, 2067, 5156, 2066], 's_1_8': [2007, 5155], 's_1_10': [4794], 's_1_13': [2412], 's_1_14': [2397], 's_1_17': [1961, 1962], 19: [2249, 1883, 4538, 4539, 2248, 2247, 2246, 5036, 2171, 4540, 4541, 2169, 2170], 's_1_19': [1733], 21: [4959, 4958, 1673, 1674, 1557, 1556, 1555, 1570, 4868, 1675], 's_1_21': [4478], 's_1_23': [4614, 1794], 's_1_24': [1717], 25: [5428, 5427, 5426, 5425, 5424, 4493, 1748, 1828, 1749, 4764, 1825, 1826, 1827], 's_1_25': [4779], 's_1_26': [1992], 28: [4707, 1407, 1406, 1405, 1404, 4706, 4705, 4704, 4702, 4703], 's_1_28': [1763, 1764], 31: [5049, 5272, 5589, 1751, 5577, 5576, 5575, 5574, 1752, 1844, 5273, 5274, 1843], 's_1_31': [1917, 5275], 32: [5320, 4587, 4586, 2019, 2020, 4916, 4914, 5321, 2023, 2022, 2021, 4915], 's_1_32': [4869, 1870], 34: [4842, 5547, 2489, 2488, 2485, 2486, 2487], 's_1_34': [2472], 's_1_1': [2607], 's_3_6': [2364], 's_3_7': [1390, 4882, 4883], 's_3_8': [1361], 9: [4783, 2217, 2545, 4963, 2546, 5248, 5247, 2547, 1437, 5246, 5245, 5244, 5243, 5242], 's_3_9': [1497], 's_3_11': [1586, 4973], 12: [4689, 1809, 2367, 5023, 5022, 2366, 2365, 4752, 2289, 4631, 4630, 4629, 4628, 4627, 1419], 's_3_12': [4612], 's_3_13': [4723, 2469], 18: [5197, 5198, 5128, 1706, 5127, 2185, 2186, 2187, 5126, 5125, 5319, 1663, 1662, 5124], 's_3_18': [1721], 's_3_21': [1511, 5153], 22: [5083, 5082, 4929, 4930, 4931, 4932, 4571, 2153, 2154, 2155, 4856, 2260, 2261], 's_3_22': [2259], 's_3_25': [1824], 's_3_27': [2049], 's_3_30': [4957], 's_3_31': [5093, 5094], 35: [1633, 1796, 5531, 5530, 5529, 1632, 5183, 5184, 1797, 1799, 1798], 's_3_35': [1857], 's_3_3': [1524], 2: [4978, 2204, 2203, 2200, 4977, 2201, 2202], 's_5_2': [4991], 's_5_10': [1853, 4449, 1793], 's_5_12': [1508], 's_5_16': [1856], 's_5_17': [2216], 's_5_18': [4976], 's_5_23': [1839], 's_5_24': [1958], 's_5_25': [4765], 's_5_26': [2051], 's_5_27': [4615], 's_5_28': [1494], 29: [2561, 2562, 2084, 2083, 5410, 5411, 5412, 2563, 5413], 's_5_29': [5380], 's_5_30': [1858], 's_5_31': [5544], 's_5_35': [1888], 's_5_5': [4780], 's_7_6': [5457], 's_7_8': [5003], 's_7_10': [5382], 's_7_12': [1810], 's_7_13': [2579], 's_7_21': [4853], 's_7_22': [1765], 's_7_25': [5139], 's_7_29': [2564], 's_7_32': [2024], 33: [2378, 4859, 4858, 4857, 2379, 2380, 5259, 5260, 5261, 5262, 2381, 2427, 2426, 5037], 's_7_33': [1722], 's_7_34': [2474], 's_7_35': [2174], 's_7_7': [2219], 's_10_2': [5381], 's_10_11': [1978], 's_10_13': [2398], 's_10_14': [5169], 's_10_15': [2188], 's_10_17': [5004], 's_10_19': [4479], 's_10_22': [2578, 2577], 's_10_24': [1777], 's_10_25': [5289], 's_10_26': [2278], 's_10_27': [4734], 's_10_31': [5454], 's_10_10': [2638], 's_11_4': [4823], 's_11_12': [1629], 's_11_13': [2383], 's_11_14': [2052], 's_11_16': [1631], 's_11_18': [5408], 20: [4949, 2515, 4948, 4947, 2078, 2079, 2080, 4943, 4944, 4945, 4946], 's_11_20': [4928], 's_11_23': [4613], 's_11_26': [2338], 's_11_28': [4688], 's_11_30': [1483], 's_11_32': [1933], 's_11_35': [5213], 's_11_11': [5288], 's_13_4': [2453, 4497], 's_13_16': [4918], 's_13_17': [5323, 5324], 's_13_20': [4813], 's_13_23': [2483, 2484], 's_13_25': [2593], 's_13_29': [5263], 's_13_30': [2442], 's_13_32': [4572, 4573], 's_13_34': [5503], 's_13_13': [4633], 's_14_4': [1899], 's_14_6': [5307], 's_14_9': [1872], 's_14_12': [4674], 's_14_15': [5290], 's_14_17': [1977, 1976], 's_14_18': [5304], 's_14_19': [1869, 1868], 's_14_21': [1630], 's_14_24': [2291], 's_14_25': [1734], 's_14_27': [1914], 's_14_28': [1944], 's_14_29': [5098], 's_14_33': [2382], 's_14_35': [2009], 's_14_14': [4795], 's_15_4': [2108], 's_15_6': [2234], 's_15_8': [5635], 's_15_17': [1991, 5035], 's_15_18': [4886], 's_15_22': [2138, 4436], 's_15_23': [4645], 's_15_24': [4495], 's_15_29': [5666], 's_15_30': [2038], 's_15_31': [2159], 's_15_33': [2173], 's_15_35': [2144], 's_15_15': [4450], 's_16_2': [4810, 4811], 's_16_4': [4917], 's_16_6': [2335], 's_16_17': [2036], 's_16_19': [2245], 's_16_20': [1496], 's_16_21': [1690], 's_16_24': [2351], 's_16_30': [1466], 's_16_32': [1795], 's_16_33': [2590], 's_16_34': [4840, 4841], 's_16_16': [4904], 's_17_2': [5021], 's_17_4': [2423], 's_17_6': [4737], 's_17_8': [2142], 's_17_9': [5081], 's_17_12': [2651], 's_17_18': [5129], 's_17_20': [2006], 's_17_22': [5084], 's_17_28': [4692], 's_17_29': [5159], 's_17_30': [5353], 's_17_33': [2620], 's_17_17': [5414], 's_23_6': [2243], 's_23_12': [1959], 's_23_20': [2514], 's_23_21': [4523, 1703], 's_23_25': [1688], 's_23_28': [1479], 's_23_32': [2063], 's_23_33': [4618], 's_23_23': [2499], 's_24_2': [2306], 's_24_6': [2228, 4481], 's_24_9': [5231], 's_24_12': [5052], 's_24_18': [2231], 's_24_19': [4751], 's_24_21': [4373], 's_24_22': [2048], 's_24_26': [5020], 's_24_28': [4691], 's_24_29': [2099], 's_24_33': [2411], 's_24_35': [5545], 's_24_24': [1537], 's_26_2': [2263, 5502], 's_26_6': [2384, 5607], 's_26_9': [2172], 's_26_12': [2456], 's_26_19': [5292], 's_26_20': [2440, 2441], 's_26_25': [2293], 's_26_32': [5141], 's_26_33': [5172], 's_26_34': [2428, 2429, 5668], 's_26_35': [2309, 2294], 's_26_26': [5188], 's_27_4': [4753], 's_27_9': [2229, 4797, 4798], 's_27_18': [4736], 's_27_19': [1973], 's_27_20': [4827, 4828], 's_27_21': [4852], 's_27_22': [2139], 's_27_25': [4763], 's_27_30': [4837], 's_27_34': [2350], 's_27_27': [2274], 's_30_9': [5212, 1572], 's_30_12': [4732], 's_30_18': [5393, 1753], 's_30_19': [4537, 1449], 's_30_25': [2503], 's_30_29': [2082], 's_30_32': [1963], 's_30_34': [5352], 's_30_30': [5317], 's_4_6': [4647], 's_4_8': [1601], 's_4_9': [4933], 's_4_12': [4642], 's_4_19': [1928], 's_4_20': [1676], 's_4_25': [4494], 's_4_32': [2303], 's_4_33': [4557], 's_4_34': [4812], 's_4_4': [2393], 's_6_2': [5517], 's_6_8': [5651], 's_6_9': [4962], 's_6_12': [2336], 's_6_20': [4556, 2199], 's_6_28': [2214], 's_6_29': [5622, 5621], 's_6_31': [5653, 2414], 's_6_34': [5532], 's_6_6': [2279, 5726], 's_8_9': [2157], 's_8_19': [5142], 's_8_20': [1481], 's_8_22': [1841], 's_8_28': [5047], 's_8_29': [5710], 's_8_31': [5018], 's_8_32': [5170], 's_8_33': [2292], 's_8_35': [1691], 's_8_8': [5696], 's_19_20': [4871], 's_19_21': [4553, 1568], 's_19_28': [1989], 's_19_31': [5561], 's_19_32': [4555], 's_19_33': [4542], 's_19_35': [2233], 's_19_19': [4570], 's_21_9': [5228], 's_21_18': [5318], 's_21_20': [1615], 's_21_25': [1558, 5423], 's_21_28': [1614, 4733], 's_21_31': [1542], 's_21_21': [5303], 's_25_2': [2218], 's_25_12': [4554], 's_25_18': [1813], 's_25_29': [2548], 's_25_32': [1993], 's_25_34': [2473], 's_25_25': [5229], 's_28_9': [1467, 5092], 's_28_12': [1464, 4597], 's_28_20': [4942], 's_28_22': [2184], 's_28_31': [5257], 's_28_32': [4690], 's_28_33': [2394], 's_28_28': [4806], 's_31_9': [1587], 's_31_34': [2339], 's_31_35': [1814], 's_31_31': [1889], 's_32_2': [2143, 5456], 's_32_9': [5230], 's_32_12': [2288], 's_32_18': [4796], 's_32_20': [2230], 's_32_29': [1948], 's_32_32': [2018], 's_34_2': [2455], 's_34_9': [4873], 's_34_12': [5217], 's_34_20': [4843], 's_34_33': [5308], 's_34_34': [5548], 's_9_2': [5171], 's_9_12': [2592, 2591], 's_9_18': [1707], 's_9_20': [2396], 's_9_29': [4964], 's_9_33': [2471, 4992], 's_9_9': [5137, 1331], 's_12_2': [2215], 's_12_18': [4782, 4781], 's_12_20': [2576], 's_12_22': [4646], 's_12_29': [5038], 's_12_12': [5024], 's_18_2': [5216], 's_18_22': [4826], 's_18_33': [5258], 's_18_35': [5109, 5108], 's_18_18': [5378], 's_22_2': [2275], 's_22_29': [2516, 5053], 's_22_33': [4872, 2305], 's_22_22': [4676], 's_35_2': [5546], 's_35_33': [1767], 's_35_35': [1916], 's_2_33': [5276], 's_2_2': [5351], 's_29_29': [5309], 's_33_20': [2680], 's_33_33': [2770], 's_20_20': [2650, 4874]}</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0001780104712041885</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0006693385053192413</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>{0: [4825, 5473, 5472, 5471, 2113, 2109, 2110, 2111, 2112], 1: [4569, 1718, 1719, 1720, 4974, 1811, 1812, 5199, 5200, 5201, 5202, 5203], 's_0_1': [5215], 3: [5079, 4662, 4661, 5078, 1391, 4660, 4659, 4658, 4657, 1434, 1435, 1436, 5077], 's_0_3': [4675], 5: [4583, 4584, 4585, 5051, 5050, 5379, 1903, 1902, 2156, 1854, 1855, 4839, 1900, 1901], 's_0_5': [4961], 7: [2368, 5593, 5592, 2369, 4884, 1735, 1736, 1737, 1738, 5484, 5485, 5486, 5487], 's_0_7': [2039], 10: [5398, 1778, 1779, 5397, 5396, 5395, 5394, 1780, 1781, 1782, 1783], 's_0_10': [5439, 5440, 2053], 11: [1644, 1645, 1646, 1647, 5338, 5337, 5336, 1648, 5335, 5334, 5333], 's_0_11': [2518], 13: [4663, 5293, 5458, 2534, 4588, 2529, 2533, 2532, 2530, 2531], 's_0_13': [2549], 14: [4808, 5306, 2008, 5305, 1884, 5097, 5096, 5095, 1947, 1946, 1945, 4809], 's_0_14': [2035, 4870], 15: [5636, 5291, 2123, 2124, 2125, 2126, 2129, 2128, 2127], 's_0_15': [4855], 16: [4897, 4898, 4903, 4902, 4901, 4899, 1960, 4900], 's_0_16': [1975], 17: [2608, 5489, 5110, 2424, 2425, 5111, 2141, 5005, 5006, 2668, 2667, 2666, 5008, 5007], 's_0_17': [5474], 23: [4598, 2004, 4599, 4603, 4602, 4601, 4600], 's_0_23': [2005], 24: [2098, 2097, 4358, 5067, 5066, 2096, 2095, 2094, 2093, 4359, 4360, 2033, 4480], 's_0_24': [5441], 26: [5442, 2081, 5187, 5185, 2308, 2307, 5186], 's_0_26': [2413], 27: [1974, 1540, 1539, 4718, 2395, 4722, 4721, 4719, 4720], 's_0_27': [1990], 30: [4987, 4762, 1450, 1451, 1452, 1453, 5362, 5363, 5364, 5365, 5366, 5367, 5368], 's_0_30': [2158], 's_0_0': [2354], 's_1_3': [4673], 4: [4913, 1600, 1599, 2410, 2409, 2408, 4643, 4644, 4527, 4526, 4525, 1898], 's_1_4': [1659], 's_1_5': [4838], 6: [5637, 2258, 5652, 4617, 2319, 2320, 2324, 2323, 2322, 2321], 's_1_6': [2337], 8: [1661, 5062, 5063, 5157, 5064, 2069, 5065, 2068, 2067, 5156, 2066], 's_1_8': [2007, 5155], 's_1_10': [4794], 's_1_13': [2412], 's_1_14': [2397], 's_1_17': [1961, 1962], 19: [2249, 1883, 4538, 4539, 2248, 2247, 2246, 5036, 2171, 4540, 4541, 2169, 2170], 's_1_19': [1733], 21: [4959, 4958, 1673, 1674, 1557, 1556, 1555, 1570, 4868, 1675], 's_1_21': [4478], 's_1_23': [4614, 1794], 's_1_24': [1717], 25: [5428, 5427, 5426, 5425, 5424, 4493, 1748, 1828, 1749, 4764, 1825, 1826, 1827], 's_1_25': [4779], 's_1_26': [1992], 28: [4707, 1407, 1406, 1405, 1404, 4706, 4705, 4704, 4702, 4703], 's_1_28': [1763, 1764], 31: [5049, 5272, 5589, 1751, 5577, 5576, 5575, 5574, 1752, 1844, 5273, 5274, 1843], 's_1_31': [1917, 5275], 32: [5320, 4587, 4586, 2019, 2020, 4916, 4914, 5321, 2023, 2022, 2021, 4915], 's_1_32': [4869, 1870], 34: [4842, 5547, 2489, 2488, 2485, 2486, 2487], 's_1_34': [2472], 's_1_1': [2607], 's_3_6': [2364], 's_3_7': [1390, 4882, 4883], 's_3_8': [1361], 9: [4783, 2217, 2545, 4963, 2546, 5248, 5247, 2547, 1437, 5246, 5245, 5244, 5243, 5242], 's_3_9': [1497], 's_3_11': [1586, 4973], 12: [4689, 1809, 2367, 5023, 5022, 2366, 2365, 4752, 2289, 4631, 4630, 4629, 4628, 4627, 1419], 's_3_12': [4612], 's_3_13': [4723, 2469], 18: [5197, 5198, 5128, 1706, 5127, 2185, 2186, 2187, 5126, 5125, 5319, 1663, 1662, 5124], 's_3_18': [1721], 's_3_21': [1511, 5153], 22: [5083, 5082, 4929, 4930, 4931, 4932, 4571, 2153, 2154, 2155, 4856, 2260, 2261], 's_3_22': [2259], 's_3_25': [1824], 's_3_27': [2049], 's_3_30': [4957], 's_3_31': [5093, 5094], 35: [1633, 1796, 5531, 5530, 5529, 1632, 5183, 5184, 1797, 1799, 1798], 's_3_35': [1857], 's_3_3': [1524], 2: [4978, 2204, 2203, 2200, 4977, 2201, 2202], 's_5_2': [4991], 's_5_10': [1853, 4449, 1793], 's_5_12': [1508], 's_5_16': [1856], 's_5_17': [2216], 's_5_18': [4976], 's_5_23': [1839], 's_5_24': [1958], 's_5_25': [4765], 's_5_26': [2051], 's_5_27': [4615], 's_5_28': [1494], 29: [2561, 2562, 2084, 2083, 5410, 5411, 5412, 2563, 5413], 's_5_29': [5380], 's_5_30': [1858], 's_5_31': [5544], 's_5_35': [1888], 's_5_5': [4780], 's_7_6': [5457], 's_7_8': [5003], 's_7_10': [5382], 's_7_12': [1810], 's_7_13': [2579], 's_7_21': [4853], 's_7_22': [1765], 's_7_25': [5139], 's_7_29': [2564], 's_7_32': [2024], 33: [2378, 4859, 4858, 4857, 2379, 2380, 5259, 5260, 5261, 5262, 2381, 2427, 2426, 5037], 's_7_33': [1722], 's_7_34': [2474], 's_7_35': [2174], 's_7_7': [2219], 's_10_2': [5381], 's_10_11': [1978], 's_10_13': [2398], 's_10_14': [5169], 's_10_15': [2188], 's_10_17': [5004], 's_10_19': [4479], 's_10_22': [2578, 2577], 's_10_24': [1777], 's_10_25': [5289], 's_10_26': [2278], 's_10_27': [4734], 's_10_31': [5454], 's_10_10': [2638], 's_11_4': [4823], 's_11_12': [1629], 's_11_13': [2383], 's_11_14': [2052], 's_11_16': [1631], 's_11_18': [5408], 20: [4949, 2515, 4948, 4947, 2078, 2079, 2080, 4943, 4944, 4945, 4946], 's_11_20': [4928], 's_11_23': [4613], 's_11_26': [2338], 's_11_28': [4688], 's_11_30': [1483], 's_11_32': [1933], 's_11_35': [5213], 's_11_11': [5288], 's_13_4': [2453, 4497], 's_13_16': [4918], 's_13_17': [5323, 5324], 's_13_20': [4813], 's_13_23': [2483, 2484], 's_13_25': [2593], 's_13_29': [5263], 's_13_30': [2442], 's_13_32': [4572, 4573], 's_13_34': [5503], 's_13_13': [4633], 's_14_4': [1899], 's_14_6': [5307], 's_14_9': [1872], 's_14_12': [4674], 's_14_15': [5290], 's_14_17': [1977, 1976], 's_14_18': [5304], 's_14_19': [1869, 1868], 's_14_21': [1630], 's_14_24': [2291], 's_14_25': [1734], 's_14_27': [1914], 's_14_28': [1944], 's_14_29': [5098], 's_14_33': [2382], 's_14_35': [2009], 's_14_14': [4795], 's_15_4': [2108], 's_15_6': [2234], 's_15_8': [5635], 's_15_17': [1991, 5035], 's_15_18': [4886], 's_15_22': [2138, 4436], 's_15_23': [4645], 's_15_24': [4495], 's_15_29': [5666], 's_15_30': [2038], 's_15_31': [2159], 's_15_33': [2173], 's_15_35': [2144], 's_15_15': [4450], 's_16_2': [4810, 4811], 's_16_4': [4917], 's_16_6': [2335], 's_16_17': [2036], 's_16_19': [2245], 's_16_20': [1496], 's_16_21': [1690], 's_16_24': [2351], 's_16_30': [1466], 's_16_32': [1795], 's_16_33': [2590], 's_16_34': [4840, 4841], 's_16_16': [4904], 's_17_2': [5021], 's_17_4': [2423], 's_17_6': [4737], 's_17_8': [2142], 's_17_9': [5081], 's_17_12': [2651], 's_17_18': [5129], 's_17_20': [2006], 's_17_22': [5084], 's_17_28': [4692], 's_17_29': [5159], 's_17_30': [5353], 's_17_33': [2620], 's_17_17': [5414], 's_23_6': [2243], 's_23_12': [1959], 's_23_20': [2514], 's_23_21': [4523, 1703], 's_23_25': [1688], 's_23_28': [1479], 's_23_32': [2063], 's_23_33': [4618], 's_23_23': [2499], 's_24_2': [2306], 's_24_6': [2228, 4481], 's_24_9': [5231], 's_24_12': [5052], 's_24_18': [2231], 's_24_19': [4751], 's_24_21': [4373], 's_24_22': [2048], 's_24_26': [5020], 's_24_28': [4691], 's_24_29': [2099], 's_24_33': [2411], 's_24_35': [5545], 's_24_24': [1537], 's_26_2': [2263, 5502], 's_26_6': [2384, 5607], 's_26_9': [2172], 's_26_12': [2456], 's_26_19': [5292], 's_26_20': [2440, 2441], 's_26_25': [2293], 's_26_32': [5141], 's_26_33': [5172], 's_26_34': [2428, 2429, 5668], 's_26_35': [2309, 2294], 's_26_26': [5188], 's_27_4': [4753], 's_27_9': [2229, 4797, 4798], 's_27_18': [4736], 's_27_19': [1973], 's_27_20': [4827, 4828], 's_27_21': [4852], 's_27_22': [2139], 's_27_25': [4763], 's_27_30': [4837], 's_27_34': [2350], 's_27_27': [2274], 's_30_9': [5212, 1572], 's_30_12': [4732], 's_30_18': [5393, 1753], 's_30_19': [4537, 1449], 's_30_25': [2503], 's_30_29': [2082], 's_30_32': [1963], 's_30_34': [5352], 's_30_30': [5317], 's_4_6': [4647], 's_4_8': [1601], 's_4_9': [4933], 's_4_12': [4642], 's_4_19': [1928], 's_4_20': [1676], 's_4_25': [4494], 's_4_32': [2303], 's_4_33': [4557], 's_4_34': [4812], 's_4_4': [2393], 's_6_2': [5517], 's_6_8': [5651], 's_6_9': [4962], 's_6_12': [2336], 's_6_20': [4556, 2199], 's_6_28': [2214], 's_6_29': [5622, 5621], 's_6_31': [5653, 2414], 's_6_34': [5532], 's_6_6': [2279, 5726], 's_8_9': [2157], 's_8_19': [5142], 's_8_20': [1481], 's_8_22': [1841], 's_8_28': [5047], 's_8_29': [5710], 's_8_31': [5018], 's_8_32': [5170], 's_8_33': [2292], 's_8_35': [1691], 's_8_8': [5696], 's_19_20': [4871], 's_19_21': [4553, 1568], 's_19_28': [1989], 's_19_31': [5561], 's_19_32': [4555], 's_19_33': [4542], 's_19_35': [2233], 's_19_19': [4570], 's_21_9': [5228], 's_21_18': [5318], 's_21_20': [1615], 's_21_25': [1558, 5423], 's_21_28': [1614, 4733], 's_21_31': [1542], 's_21_21': [5303], 's_25_2': [2218], 's_25_12': [4554], 's_25_18': [1813], 's_25_29': [2548], 's_25_32': [1993], 's_25_34': [2473], 's_25_25': [5229], 's_28_9': [1467, 5092], 's_28_12': [1464, 4597], 's_28_20': [4942], 's_28_22': [2184], 's_28_31': [5257], 's_28_32': [4690], 's_28_33': [2394], 's_28_28': [4806], 's_31_9': [1587], 's_31_34': [2339], 's_31_35': [1814], 's_31_31': [1889], 's_32_2': [2143, 5456], 's_32_9': [5230], 's_32_12': [2288], 's_32_18': [4796], 's_32_20': [2230], 's_32_29': [1948], 's_32_32': [2018], 's_34_2': [2455], 's_34_9': [4873], 's_34_12': [5217], 's_34_20': [4843], 's_34_33': [5308], 's_34_34': [5548], 's_9_2': [5171], 's_9_12': [2592, 2591], 's_9_18': [1707], 's_9_20': [2396], 's_9_29': [4964], 's_9_33': [2471, 4992], 's_9_9': [5137, 1331], 's_12_2': [2215], 's_12_18': [4782, 4781], 's_12_20': [2576], 's_12_22': [4646], 's_12_29': [5038], 's_12_12': [5024], 's_18_2': [5216], 's_18_22': [4826], 's_18_33': [5258], 's_18_35': [5109, 5108], 's_18_18': [5378], 's_22_2': [2275], 's_22_29': [2516, 5053], 's_22_33': [4872, 2305], 's_22_22': [4676], 's_35_2': [5546], 's_35_33': [1767], 's_35_35': [1916], 's_2_33': [5276], 's_2_2': [5351], 's_29_29': [5309], 's_33_20': [2680], 's_33_33': [2770], 's_20_20': [2650, 4874]}</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0001780104712041885</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.0006693385053192413</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>{0: [4951, 4952, 4953, 582, 581], 3: [5041, 5042, 340, 342, 341], 4: [5010, 5012, 5011], 7: [4787, 535, 5177, 537, 536], 8: [116, 5085, 5087, 5086], 10: [4907, 5146, 5147, 567, 566], 15: [5160, 5161, 611, 597, 5162], 16: [4980, 4982, 4981], 21: [5221, 447, 446, 445], 24: [4877, 296, 4876, 295], 25: [402, 400, 4906, 401], 28: [507, 505, 506], 30: [415, 416, 5057, 5055, 5056], 31: [4757, 550, 552, 551], 32: [281, 280, 4862, 4861], 33: [4832, 5192, 522, 520, 521], 34: [162, 4997, 161, 4995, 4996], 35: [5102, 5101, 325, 327, 326], 36: [370, 4831, 475], 1: [5191, 282, 5190, 237], 2: [4816, 492, 491, 490], 5: [5100, 5071, 5070, 175, 176], 9: [4846, 385, 387, 386], 13: [5207, 371, 372, 5206], 14: [355, 357, 356], 17: [670, 460, 4938, 4936, 4937], 18: [5116, 5117, 671, 5118], 23: [4801, 429, 431, 430], 26: [265, 266, 5176, 5175], 11: [4890, 610, 596, 4892, 4891], 19: [191, 192, 5267, 5266, 5265, 193], 20: [236, 4967, 4966], 22: [221, 5025, 5027, 5026], 27: [5251, 5252, 625, 626, 627], 29: [5132, 251, 5131], 6: [207, 4922, 4921, 206, 4920], 12: [432, 4815, 5236, 310, 312, 311]}</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.05993831669507346</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.02705604583943393</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>{0: [4951, 4952, 4953, 582, 581], 3: [5041, 5042, 340, 342, 341], 4: [5010, 5012, 5011], 7: [4787, 535, 5177, 537, 536], 8: [116, 5085, 5087, 5086], 10: [4907, 5146, 5147, 567, 566], 15: [5160, 5161, 611, 597, 5162], 16: [4980, 4982, 4981], 21: [5221, 447, 446, 445], 24: [4877, 296, 4876, 295], 25: [402, 400, 4906, 401], 28: [507, 505, 506], 30: [415, 416, 5057, 5055, 5056], 31: [4757, 550, 552, 551], 32: [281, 280, 4862, 4861], 33: [4832, 5192, 522, 520, 521], 34: [162, 4997, 161, 4995, 4996], 35: [5102, 5101, 325, 327, 326], 36: [370, 4831, 475], 1: [5191, 282, 5190, 237], 2: [4816, 492, 491, 490], 5: [5100, 5071, 5070, 175, 176], 9: [4846, 385, 387, 386], 13: [5207, 371, 372, 5206], 14: [355, 357, 356], 17: [670, 460, 4938, 4936, 4937], 18: [5116, 5117, 671, 5118], 23: [4801, 429, 431, 430], 26: [265, 266, 5176, 5175], 11: [4890, 610, 596, 4892, 4891], 19: [191, 192, 5267, 5266, 5265, 193], 20: [236, 4967, 4966], 22: [221, 5025, 5027, 5026], 27: [5251, 5252, 625, 626, 627], 29: [5132, 251, 5131], 6: [207, 4922, 4921, 206, 4920], 12: [432, 4815, 5236, 310, 312, 311]}</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0.05993831669507346</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.02705604583943393</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>{0: [5002, 1465, 4882, 4888, 1540, 4883, 4884, 4887, 4886, 4885], 3: [5111, 1574, 1573, 5110, 5109, 1508, 1509, 1510, 1511, 5347, 1498, 1497, 5108], 's_0_3': [4778, 1570], 4: [1945, 5546, 1808, 4479, 2204, 1943, 1944, 4735, 4736, 2200, 2203, 2202, 2201], 's_0_4': [2005], 7: [2023, 2018, 2022, 2019, 2020, 5049, 5050, 2021], 's_0_7': [2035], 8: [2454, 4662, 4647, 1856, 1855, 2349, 4687, 4688, 4689, 1854, 4570, 4571, 4572], 's_0_8': [1464], 10: [5543, 1900, 1708, 1707, 1375, 4867, 1706, 1705, 4872, 4871, 4870, 4869, 4868], 's_0_10': [2215], 15: [4826, 1842, 2170, 4766, 4765, 1838, 1839, 1841, 4795, 1840], 's_0_15': [1990], 16: [4538, 4539, 4540, 4541, 4542, 2364, 2365, 5288, 5289, 4812, 5290, 5291, 5292, 2337, 2336, 2335], 's_0_16': [2380], 21: [4658, 1604, 1603, 1674, 1675, 1676, 1602, 1601, 4988], 's_0_21': [1660], 24: [5397, 1450, 2173, 1828, 5396, 5395, 5394, 5393, 5392, 1453, 1452, 1451], 's_0_24': [4762], 25: [4857, 1528, 2455, 2456, 5468, 5469, 5470, 1963, 2143, 5248, 5365, 5366, 5367, 2457], 's_0_25': [4873], 28: [5082, 5078, 5079, 1948, 4841, 2245, 2246, 5081, 1947, 1946, 5080], 's_0_28': [2260], 30: [5409, 1813, 1809, 1345, 1811, 1812, 4851, 1810, 4852, 4853, 1270, 4854], 's_0_30': [1720], 31: [4927, 1466, 5202, 5201, 5200, 1467, 5197, 5199, 5198], 's_0_31': [4928], 32: [1887, 5273, 2232, 5277, 5274, 2155, 2156, 2157, 5275, 5276], 's_0_32': [2140], 33: [4777, 1407, 1406, 1405, 1404, 2003, 4421, 4420, 4419, 4418, 4417, 1403], 's_0_33': [4792], 34: [4599, 1823, 1824, 1825, 1826, 4898, 4903, 4899, 4900, 4901, 4902, 2367, 2366], 's_0_34': [2605], 35: [2094, 4747, 4748, 2353, 2352, 4749, 2354, 4750, 4751, 2351, 2350, 4752], 's_0_35': [1539], 36: [1897, 5424, 1678, 5423, 1633, 1632, 1631, 1630, 1629, 4643, 4525, 1898, 4644], 's_0_36': [4913], 's_0_0': [2545], 1: [5233, 5211, 1767, 2397, 1392, 5227, 5228, 5229, 5232, 5231, 5230], 's_3_1': [1662], 2: [5007, 1783, 1782, 1781, 5006, 5005, 5004], 's_3_2': [2187, 2186], 5: [5137, 5138, 5139, 5142, 5141, 5140], 's_3_5': [2172], 's_3_7': [1796], 's_3_8': [4672, 1449, 4642], 9: [5486, 2098, 5545, 5544, 5440, 1378, 5437, 5438, 1723, 1843, 1844, 5439], 's_3_9': [5408, 5407], 's_3_10': [5348], 13: [1673, 5334, 1568, 5335, 5336, 2082, 2081, 2080, 2079, 2078, 4508, 4509, 4510, 4511], 's_3_13': [4477], 14: [2144, 4825, 5606, 5605, 5604, 5603, 1649, 1648, 4824, 4823, 1645, 1646, 1647], 's_3_14': [5318], 's_3_15': [1857], 17: [5092, 5020, 5500, 2324, 5502, 5501, 2068, 1571, 5093, 5094, 5095, 2067, 2066], 's_3_17': [1556], 18: [1769, 5588, 5589, 5590, 5591, 2290, 2291, 2279, 2292, 2293, 2294, 5592], 's_3_18': [1589], 's_3_21': [4973], 23: [4811, 1454, 5452, 1423, 1422, 1421, 1420, 4810, 1868, 1869, 4809, 4807, 4808], 's_3_23': [5557], 26: [5571, 4961, 1304, 5572, 1870, 1976, 1977, 1978, 1979, 5575, 4960, 5574, 5573], 's_3_26': [1931], 's_3_28': [5077], 's_3_31': [5107], 's_3_35': [5112], 's_3_36': [4568], 's_3_3': [4492], 's_4_2': [4991], 's_4_7': [5051], 's_4_9': [5441], 11: [1958, 1959, 1960, 5305, 1962, 1961], 's_4_11': [4705], 's_4_13': [2199, 2198], 's_4_14': [2219], 's_4_15': [1914, 4720, 4721], 's_4_18': [4932], 19: [5187, 5186, 1735, 4974, 1690, 1691, 5185, 5184, 5183], 's_4_19': [5171], 20: [5526, 1659, 4585, 4584, 4583, 1333, 1332, 1286, 5031, 1331, 5032, 1496, 1495, 1494], 's_4_20': [1928], 22: [2114, 2113, 4626, 4627, 4628, 4629, 4630, 2112, 2111, 2110, 2109], 's_4_22': [1778, 1779], 's_4_24': [2158, 5351], 's_4_25': [5411], 27: [2159, 2339, 5531, 5532, 2428, 2427, 2123, 2426, 2425, 2424, 4707, 4706, 2124], 's_4_27': [4737], 's_4_28': [2217], 's_4_30': [4734], 's_4_33': [4435], 's_4_35': [5322], 's_4_4': [1942], 's_7_8': [4586], 's_7_10': [4915], 's_7_15': [2169, 4601], 's_7_19': [1721], 's_7_25': [2038, 5425], 's_7_26': [4990], 's_7_30': [4660, 4659], 's_7_31': [5215], 's_7_32': [4796], 's_7_33': [2047, 4375], 's_7_34': [1916, 1915], 's_7_7': [4436], 's_8_13': [2228], 's_8_15': [5019], 's_8_21': [1584, 4718], 's_8_23': [1554], 's_8_25': [4933, 2470, 2469], 's_8_26': [4975], 's_8_27': [4692, 2409, 4783], 29: [4987, 1598, 1599, 4763, 1419, 1479, 4732, 1484, 1483, 1482, 1480, 1481], 's_8_29': [1614], 's_8_30': [4719], 's_8_34': [4704], 's_8_35': [1749], 's_8_8': [2484, 4723], 's_10_1': [5213], 's_10_2': [5124], 6: [1523, 4507, 1751, 5065, 5064, 1358, 1359, 5287, 1362, 5063, 1360, 1361, 5062], 's_10_6': [5001], 's_10_9': [5514], 's_10_11': [4930], 12: [1991, 2323, 2322, 2321, 1302, 1301, 2320, 4942, 4943, 4947, 4946, 4944, 4945], 's_10_12': [1555], 's_10_14': [5528], 's_10_15': [4839], 's_10_16': [2395], 's_10_17': [5499], 's_10_18': [1709], 's_10_20': [4986], 's_10_21': [5363], 's_10_23': [1615], 's_10_24': [1738], 's_10_26': [1664], 's_10_27': [2410], 's_10_28': [2275], 's_10_29': [4912], 's_10_31': [4972], 's_10_35': [2095], 's_10_36': [5168], 's_10_10': [1930], 's_15_1': [5244], 's_15_2': [5034], 's_15_11': [1974], 's_15_13': [4781], 's_15_14': [2049], 's_15_18': [4856], 's_15_23': [1884], 's_15_26': [2171], 's_15_27': [2139, 4646], 's_15_28': [5214], 's_15_30': [4764], 's_15_33': [1853], 's_15_35': [4827], 's_15_15': [4374], 's_16_2': [4992], 's_16_5': [1587], 's_16_6': [4537], 's_16_9': [2097], 's_16_11': [1993], 's_16_13': [2243], 's_16_17': [2052], 's_16_19': [1752], 's_16_20': [1989], 's_16_21': [5303, 1542], 's_16_23': [4554], 's_16_24': [2218], 's_16_27': [2423], 's_16_30': [1858], 's_16_31': [1932], 's_16_32': [5307], 's_16_34': [5037], 's_16_35': [4842], 's_16_36': [1703], 's_16_16': [5293], 's_21_1': [5243], 's_21_5': [1617], 's_21_6': [1616], 's_21_9': [1618], 's_21_13': [4553], 's_21_14': [1719], 's_21_17': [4958], 's_21_18': [1619], 's_21_19': [4959], 's_21_22': [1644], 's_21_24': [5378], 's_21_26': [5558], 's_21_29': [4673], 's_21_30': [4779], 's_21_34': [1661], 's_21_21': [4569], 's_24_2': [1798], 's_24_6': [4717], 's_24_9': [5426], 's_24_12': [1330, 4957], 's_24_17': [5380], 's_24_18': [2308], 's_24_20': [5017], 's_24_22': [5321], 's_24_23': [5362], 's_24_25': [2338], 's_24_26': [1829], 's_24_29': [5377], 's_24_30': [5319], 's_24_32': [5306], 's_24_35': [2368], 's_24_36': [1558], 's_24_24': [5317], 's_25_1': [5172], 's_25_2': [4978, 2471], 's_25_9': [1903], 's_25_11': [2008], 's_25_12': [4948], 's_25_14': [1634], 's_25_17': [5471], 's_25_18': [1859], 's_25_23': [1513], 's_25_26': [5410], 's_25_29': [5542], 's_25_31': [2487], 's_25_32': [5278], 's_25_34': [4918], 's_25_25': [2562], 's_28_1': [2247], 's_28_6': [1586], 's_28_9': [1949], 's_28_13': [5320], 's_28_19': [2231], 's_28_22': [4840], 's_28_26': [5125], 's_28_27': [2411], 's_28_32': [5096], 's_28_35': [4977], 's_28_36': [5485, 1888], 's_28_28': [2306], 's_30_2': [5259], 's_30_5': [1346], 's_30_6': [4836], 's_30_9': [5364], 's_30_12': [4911], 's_30_14': [1765], 's_30_17': [1873], 's_30_19': [4838], 's_30_20': [1271], 's_30_22': [4855], 's_30_33': [4821], 's_30_34': [4614], 's_30_35': [1344], 's_30_36': [1768], 's_30_30': [1255], 's_31_11': [1902], 's_31_13': [1737], 's_31_17': [1992], 's_31_18': [2307], 's_31_20': [1376, 5047], 's_31_23': [5182], 's_31_32': [1917], 's_31_33': [1390], 's_31_31': [2472], 's_32_1': [1557], 's_32_2': [2141], 's_32_9': [1722], 's_32_11': [1872], 's_32_17': [2233], 's_32_22': [5246], 's_32_23': [5212, 1572], 's_32_27': [5262], 's_32_34': [4916], 's_32_35': [2154], 's_32_36': [5258], 's_32_32': [5036], 's_33_1': [5166], 's_33_6': [4476], 's_33_11': [2108, 4480], 's_33_13': [4432, 4433], 's_33_20': [1613], 's_33_22': [2004], 's_33_27': [4526, 2168, 4481], 's_33_29': [4702], 's_33_34': [4434], 's_33_36': [4390], 's_33_33': [1717], 's_34_1': [5247], 's_34_5': [5157], 's_34_11': [4600], 's_34_13': [4524], 's_34_14': [1795], 's_34_18': [5067], 's_34_19': [1827], 's_34_22': [1794], 's_34_23': [1780], 's_34_26': [4962], 's_34_35': [4917], 's_34_36': [4449], 's_34_34': [4904], 's_35_11': [4675], 's_35_12': [5352], 's_35_17': [5547], 's_35_19': [1734], 's_35_20': [1763, 1764], 's_35_27': [2369], 's_35_29': [1434], 's_35_35': [1329], 's_36_2': [1753, 5484], 's_36_9': [1693, 5453], 's_36_11': [4555], 's_36_13': [1973], 's_36_17': [5123], 's_36_23': [4494], 's_36_36': [4299], 's_1_2': [1797], 's_1_6': [1391], 's_1_18': [5097], 's_1_19': [2007], 's_1_20': [5302], 's_1_27': [5143], 's_1_29': [5272], 's_1_1': [5181], 's_2_6': [5003], 's_2_9': [1784], 's_2_11': [5304], 's_2_12': [2230], 's_2_17': [2036], 's_2_19': [5169], 's_2_26': [2126], 's_2_2': [2486], 's_5_6': [1736], 's_5_19': [2142], 's_5_11': [5155], 's_5_12': [1316, 1317], 's_5_13': [5156], 's_5_14': [5153], 's_5_22': [2127], 's_5_23': [1437], 's_5_5': [2096], 's_9_20': [1287, 1288, 5376], 's_9_29': [5497, 5498], 's_9_17': [2053], 's_9_22': [5456], 's_9_9': [1799, 5634], 's_13_6': [5066], 's_13_20': [1748], 's_13_27': [4556], 's_13_29': [5333], 's_13_12': [5035], 's_13_17': [5126], 's_13_13': [4462], 's_14_18': [1724], 's_14_19': [5018], 's_14_27': [2174], 's_14_29': [4733], 's_14_11': [1975], 's_14_17': [1934], 's_14_26': [1694], 's_14_22': [2125], 's_14_23': [5602], 's_14_14': [1874], 's_17_18': [5667], 's_17_20': [1436], 's_17_27': [5517, 5516], 's_17_11': [5170], 's_17_12': [5091], 's_17_23': [5167, 1541], 's_17_26': [1964], 's_17_17': [5455], 's_18_12': [5487], 's_18_22': [2128, 2129], 's_18_23': [2305], 's_18_26': [1919], 's_18_27': [2309], 's_18_18': [2384], 's_23_6': [1393, 5332], 's_23_20': [5482], 's_23_29': [5527], 's_23_11': [4780], 's_23_12': [1435], 's_23_22': [1883], 's_23_23': [1424], 's_26_6': [2006], 's_26_19': [4914], 's_26_20': [1303, 5391], 's_26_29': [1499], 's_26_12': [2065], 's_26_22': [4976], 's_26_26': [1514, 5617], 's_11_22': [4645], 's_11_11': [1957], 's_19_6': [2051], 's_19_12': [4929], 's_19_19': [2441], 's_20_6': [1347], 's_20_12': [5076], 's_20_22': [4598, 1553], 's_20_20': [5406], 's_22_6': [4641], 's_22_27': [4691], 's_22_29': [1389], 's_22_12': [4931], 's_22_22': [1284], 's_27_27': [5577, 2444], 's_29_12': [1600], 's_29_29': [1374], 's_6_12': [5016], 's_6_6': [4656], 's_12_12': [4941, 1121, 1122, 5180]}</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0001502463054187192</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0005996866775557352</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>{0: [5002, 1465, 4882, 4888, 1540, 4883, 4884, 4887, 4886, 4885], 3: [5111, 1574, 1573, 5110, 5109, 1508, 1509, 1510, 1511, 5347, 1498, 1497, 5108], 's_0_3': [4778, 1570], 4: [1945, 5546, 1808, 4479, 2204, 1943, 1944, 4735, 4736, 2200, 2203, 2202, 2201], 's_0_4': [2005], 7: [2023, 2018, 2022, 2019, 2020, 5049, 5050, 2021], 's_0_7': [2035], 8: [2454, 4662, 4647, 1856, 1855, 2349, 4687, 4688, 4689, 1854, 4570, 4571, 4572], 's_0_8': [1464], 10: [5543, 1900, 1708, 1707, 1375, 4867, 1706, 1705, 4872, 4871, 4870, 4869, 4868], 's_0_10': [2215], 15: [4826, 1842, 2170, 4766, 4765, 1838, 1839, 1841, 4795, 1840], 's_0_15': [1990], 16: [4538, 4539, 4540, 4541, 4542, 2364, 2365, 5288, 5289, 4812, 5290, 5291, 5292, 2337, 2336, 2335], 's_0_16': [2380], 21: [4658, 1604, 1603, 1674, 1675, 1676, 1602, 1601, 4988], 's_0_21': [1660], 24: [5397, 1450, 2173, 1828, 5396, 5395, 5394, 5393, 5392, 1453, 1452, 1451], 's_0_24': [4762], 25: [4857, 1528, 2455, 2456, 5468, 5469, 5470, 1963, 2143, 5248, 5365, 5366, 5367, 2457], 's_0_25': [4873], 28: [5082, 5078, 5079, 1948, 4841, 2245, 2246, 5081, 1947, 1946, 5080], 's_0_28': [2260], 30: [5409, 1813, 1809, 1345, 1811, 1812, 4851, 1810, 4852, 4853, 1270, 4854], 's_0_30': [1720], 31: [4927, 1466, 5202, 5201, 5200, 1467, 5197, 5199, 5198], 's_0_31': [4928], 32: [1887, 5273, 2232, 5277, 5274, 2155, 2156, 2157, 5275, 5276], 's_0_32': [2140], 33: [4777, 1407, 1406, 1405, 1404, 2003, 4421, 4420, 4419, 4418, 4417, 1403], 's_0_33': [4792], 34: [4599, 1823, 1824, 1825, 1826, 4898, 4903, 4899, 4900, 4901, 4902, 2367, 2366], 's_0_34': [2605], 35: [2094, 4747, 4748, 2353, 2352, 4749, 2354, 4750, 4751, 2351, 2350, 4752], 's_0_35': [1539], 36: [1897, 5424, 1678, 5423, 1633, 1632, 1631, 1630, 1629, 4643, 4525, 1898, 4644], 's_0_36': [4913], 's_0_0': [2545], 1: [5233, 5211, 1767, 2397, 1392, 5227, 5228, 5229, 5232, 5231, 5230], 's_3_1': [1662], 2: [5007, 1783, 1782, 1781, 5006, 5005, 5004], 's_3_2': [2187, 2186], 5: [5137, 5138, 5139, 5142, 5141, 5140], 's_3_5': [2172], 's_3_7': [1796], 's_3_8': [4672, 1449, 4642], 9: [5486, 2098, 5545, 5544, 5440, 1378, 5437, 5438, 1723, 1843, 1844, 5439], 's_3_9': [5408, 5407], 's_3_10': [5348], 13: [1673, 5334, 1568, 5335, 5336, 2082, 2081, 2080, 2079, 2078, 4508, 4509, 4510, 4511], 's_3_13': [4477], 14: [2144, 4825, 5606, 5605, 5604, 5603, 1649, 1648, 4824, 4823, 1645, 1646, 1647], 's_3_14': [5318], 's_3_15': [1857], 17: [5092, 5020, 5500, 2324, 5502, 5501, 2068, 1571, 5093, 5094, 5095, 2067, 2066], 's_3_17': [1556], 18: [1769, 5588, 5589, 5590, 5591, 2290, 2291, 2279, 2292, 2293, 2294, 5592], 's_3_18': [1589], 's_3_21': [4973], 23: [4811, 1454, 5452, 1423, 1422, 1421, 1420, 4810, 1868, 1869, 4809, 4807, 4808], 's_3_23': [5557], 26: [5571, 4961, 1304, 5572, 1870, 1976, 1977, 1978, 1979, 5575, 4960, 5574, 5573], 's_3_26': [1931], 's_3_28': [5077], 's_3_31': [5107], 's_3_35': [5112], 's_3_36': [4568], 's_3_3': [4492], 's_4_2': [4991], 's_4_7': [5051], 's_4_9': [5441], 11: [1958, 1959, 1960, 5305, 1962, 1961], 's_4_11': [4705], 's_4_13': [2199, 2198], 's_4_14': [2219], 's_4_15': [1914, 4720, 4721], 's_4_18': [4932], 19: [5187, 5186, 1735, 4974, 1690, 1691, 5185, 5184, 5183], 's_4_19': [5171], 20: [5526, 1659, 4585, 4584, 4583, 1333, 1332, 1286, 5031, 1331, 5032, 1496, 1495, 1494], 's_4_20': [1928], 22: [2114, 2113, 4626, 4627, 4628, 4629, 4630, 2112, 2111, 2110, 2109], 's_4_22': [1778, 1779], 's_4_24': [2158, 5351], 's_4_25': [5411], 27: [2159, 2339, 5531, 5532, 2428, 2427, 2123, 2426, 2425, 2424, 4707, 4706, 2124], 's_4_27': [4737], 's_4_28': [2217], 's_4_30': [4734], 's_4_33': [4435], 's_4_35': [5322], 's_4_4': [1942], 's_7_8': [4586], 's_7_10': [4915], 's_7_15': [2169, 4601], 's_7_19': [1721], 's_7_25': [2038, 5425], 's_7_26': [4990], 's_7_30': [4660, 4659], 's_7_31': [5215], 's_7_32': [4796], 's_7_33': [2047, 4375], 's_7_34': [1916, 1915], 's_7_7': [4436], 's_8_13': [2228], 's_8_15': [5019], 's_8_21': [1584, 4718], 's_8_23': [1554], 's_8_25': [4933, 2470, 2469], 's_8_26': [4975], 's_8_27': [4692, 2409, 4783], 29: [4987, 1598, 1599, 4763, 1419, 1479, 4732, 1484, 1483, 1482, 1480, 1481], 's_8_29': [1614], 's_8_30': [4719], 's_8_34': [4704], 's_8_35': [1749], 's_8_8': [2484, 4723], 's_10_1': [5213], 's_10_2': [5124], 6: [1523, 4507, 1751, 5065, 5064, 1358, 1359, 5287, 1362, 5063, 1360, 1361, 5062], 's_10_6': [5001], 's_10_9': [5514], 's_10_11': [4930], 12: [1991, 2323, 2322, 2321, 1302, 1301, 2320, 4942, 4943, 4947, 4946, 4944, 4945], 's_10_12': [1555], 's_10_14': [5528], 's_10_15': [4839], 's_10_16': [2395], 's_10_17': [5499], 's_10_18': [1709], 's_10_20': [4986], 's_10_21': [5363], 's_10_23': [1615], 's_10_24': [1738], 's_10_26': [1664], 's_10_27': [2410], 's_10_28': [2275], 's_10_29': [4912], 's_10_31': [4972], 's_10_35': [2095], 's_10_36': [5168], 's_10_10': [1930], 's_15_1': [5244], 's_15_2': [5034], 's_15_11': [1974], 's_15_13': [4781], 's_15_14': [2049], 's_15_18': [4856], 's_15_23': [1884], 's_15_26': [2171], 's_15_27': [2139, 4646], 's_15_28': [5214], 's_15_30': [4764], 's_15_33': [1853], 's_15_35': [4827], 's_15_15': [4374], 's_16_2': [4992], 's_16_5': [1587], 's_16_6': [4537], 's_16_9': [2097], 's_16_11': [1993], 's_16_13': [2243], 's_16_17': [2052], 's_16_19': [1752], 's_16_20': [1989], 's_16_21': [5303, 1542], 's_16_23': [4554], 's_16_24': [2218], 's_16_27': [2423], 's_16_30': [1858], 's_16_31': [1932], 's_16_32': [5307], 's_16_34': [5037], 's_16_35': [4842], 's_16_36': [1703], 's_16_16': [5293], 's_21_1': [5243], 's_21_5': [1617], 's_21_6': [1616], 's_21_9': [1618], 's_21_13': [4553], 's_21_14': [1719], 's_21_17': [4958], 's_21_18': [1619], 's_21_19': [4959], 's_21_22': [1644], 's_21_24': [5378], 's_21_26': [5558], 's_21_29': [4673], 's_21_30': [4779], 's_21_34': [1661], 's_21_21': [4569], 's_24_2': [1798], 's_24_6': [4717], 's_24_9': [5426], 's_24_12': [1330, 4957], 's_24_17': [5380], 's_24_18': [2308], 's_24_20': [5017], 's_24_22': [5321], 's_24_23': [5362], 's_24_25': [2338], 's_24_26': [1829], 's_24_29': [5377], 's_24_30': [5319], 's_24_32': [5306], 's_24_35': [2368], 's_24_36': [1558], 's_24_24': [5317], 's_25_1': [5172], 's_25_2': [4978, 2471], 's_25_9': [1903], 's_25_11': [2008], 's_25_12': [4948], 's_25_14': [1634], 's_25_17': [5471], 's_25_18': [1859], 's_25_23': [1513], 's_25_26': [5410], 's_25_29': [5542], 's_25_31': [2487], 's_25_32': [5278], 's_25_34': [4918], 's_25_25': [2562], 's_28_1': [2247], 's_28_6': [1586], 's_28_9': [1949], 's_28_13': [5320], 's_28_19': [2231], 's_28_22': [4840], 's_28_26': [5125], 's_28_27': [2411], 's_28_32': [5096], 's_28_35': [4977], 's_28_36': [5485, 1888], 's_28_28': [2306], 's_30_2': [5259], 's_30_5': [1346], 's_30_6': [4836], 's_30_9': [5364], 's_30_12': [4911], 's_30_14': [1765], 's_30_17': [1873], 's_30_19': [4838], 's_30_20': [1271], 's_30_22': [4855], 's_30_33': [4821], 's_30_34': [4614], 's_30_35': [1344], 's_30_36': [1768], 's_30_30': [1255], 's_31_11': [1902], 's_31_13': [1737], 's_31_17': [1992], 's_31_18': [2307], 's_31_20': [1376, 5047], 's_31_23': [5182], 's_31_32': [1917], 's_31_33': [1390], 's_31_31': [2472], 's_32_1': [1557], 's_32_2': [2141], 's_32_9': [1722], 's_32_11': [1872], 's_32_17': [2233], 's_32_22': [5246], 's_32_23': [5212, 1572], 's_32_27': [5262], 's_32_34': [4916], 's_32_35': [2154], 's_32_36': [5258], 's_32_32': [5036], 's_33_1': [5166], 's_33_6': [4476], 's_33_11': [2108, 4480], 's_33_13': [4432, 4433], 's_33_20': [1613], 's_33_22': [2004], 's_33_27': [4526, 2168, 4481], 's_33_29': [4702], 's_33_34': [4434], 's_33_36': [4390], 's_33_33': [1717], 's_34_1': [5247], 's_34_5': [5157], 's_34_11': [4600], 's_34_13': [4524], 's_34_14': [1795], 's_34_18': [5067], 's_34_19': [1827], 's_34_22': [1794], 's_34_23': [1780], 's_34_26': [4962], 's_34_35': [4917], 's_34_36': [4449], 's_34_34': [4904], 's_35_11': [4675], 's_35_12': [5352], 's_35_17': [5547], 's_35_19': [1734], 's_35_20': [1763, 1764], 's_35_27': [2369], 's_35_29': [1434], 's_35_35': [1329], 's_36_2': [1753, 5484], 's_36_9': [1693, 5453], 's_36_11': [4555], 's_36_13': [1973], 's_36_17': [5123], 's_36_23': [4494], 's_36_36': [4299], 's_1_2': [1797], 's_1_6': [1391], 's_1_18': [5097], 's_1_19': [2007], 's_1_20': [5302], 's_1_27': [5143], 's_1_29': [5272], 's_1_1': [5181], 's_2_6': [5003], 's_2_9': [1784], 's_2_11': [5304], 's_2_12': [2230], 's_2_17': [2036], 's_2_19': [5169], 's_2_26': [2126], 's_2_2': [2486], 's_5_6': [1736], 's_5_19': [2142], 's_5_11': [5155], 's_5_12': [1316, 1317], 's_5_13': [5156], 's_5_14': [5153], 's_5_22': [2127], 's_5_23': [1437], 's_5_5': [2096], 's_9_20': [1287, 1288, 5376], 's_9_29': [5497, 5498], 's_9_17': [2053], 's_9_22': [5456], 's_9_9': [1799, 5634], 's_13_6': [5066], 's_13_20': [1748], 's_13_27': [4556], 's_13_29': [5333], 's_13_12': [5035], 's_13_17': [5126], 's_13_13': [4462], 's_14_18': [1724], 's_14_19': [5018], 's_14_27': [2174], 's_14_29': [4733], 's_14_11': [1975], 's_14_17': [1934], 's_14_26': [1694], 's_14_22': [2125], 's_14_23': [5602], 's_14_14': [1874], 's_17_18': [5667], 's_17_20': [1436], 's_17_27': [5517, 5516], 's_17_11': [5170], 's_17_12': [5091], 's_17_23': [5167, 1541], 's_17_26': [1964], 's_17_17': [5455], 's_18_12': [5487], 's_18_22': [2128, 2129], 's_18_23': [2305], 's_18_26': [1919], 's_18_27': [2309], 's_18_18': [2384], 's_23_6': [1393, 5332], 's_23_20': [5482], 's_23_29': [5527], 's_23_11': [4780], 's_23_12': [1435], 's_23_22': [1883], 's_23_23': [1424], 's_26_6': [2006], 's_26_19': [4914], 's_26_20': [1303, 5391], 's_26_29': [1499], 's_26_12': [2065], 's_26_22': [4976], 's_26_26': [1514, 5617], 's_11_22': [4645], 's_11_11': [1957], 's_19_6': [2051], 's_19_12': [4929], 's_19_19': [2441], 's_20_6': [1347], 's_20_12': [5076], 's_20_22': [4598, 1553], 's_20_20': [5406], 's_22_6': [4641], 's_22_27': [4691], 's_22_29': [1389], 's_22_12': [4931], 's_22_22': [1284], 's_27_27': [5577, 2444], 's_29_12': [1600], 's_29_29': [1374], 's_6_12': [5016], 's_6_6': [4656], 's_12_12': [4941, 1121, 1122, 5180]}</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0001502463054187192</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.0005996866775557352</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>{0: [2589, 5173, 2590, 5172, 2591], 6: [5006, 5008, 5007], 7: [2472, 2246, 5142, 5143], 9: [4828, 5262, 5263, 2517, 2516, 2515], 11: [2485, 5202, 2487, 2486], 12: [2471, 5023, 5021, 5022], 13: [4947, 2322, 2320, 2321], 16: [2409, 4857, 2411, 2410], 17: [5216, 5217, 2427, 2425, 2426], 19: [2350, 2351, 2352], 20: [4797, 2337, 2335, 2336], 23: [4811, 4812, 4813], 25: [5098, 4918, 2502, 4798, 2501, 2500], 26: [2367, 2365, 4977, 2366], 28: [2576, 2111, 5068, 5067, 5066], 29: [2620, 4843, 2141, 4842, 2140, 4841], 34: [2439, 5127, 5128, 2440, 2441], 35: [4903, 4902, 2306, 2305], 36: [4991, 4992, 4993], 2: [4978, 2561, 2605, 4979], 3: [5141, 2172, 2171, 2424, 4722, 4721, 2170], 10: [5112, 5188, 5187, 5186, 2201, 2202], 14: [2126, 2186, 2125, 4917, 4916], 15: [5232, 2382, 2380, 2381], 18: [2289, 4888, 4887, 2291, 2290], 22: [4826, 2456, 2455, 2454, 4827], 31: [2562, 5083, 5082, 2260, 2261], 32: [5247, 5113, 2396, 2397], 37: [5097, 2155, 2156, 5096], 1: [2665, 2666, 5038, 5035, 5036, 5037], 8: [2095, 4931, 4933, 2245, 4932], 21: [5158, 5157, 5156, 2096, 5081], 24: [4855, 5053, 2080, 2081, 5052, 5051], 33: [2200, 2231, 2230, 4856], 4: [2216, 4961, 4963, 4962], 5: [2532, 4948, 2530, 2531], 27: [2547, 4752, 4753, 2546, 2545], 30: [4873, 2514, 4872, 4768, 4871, 2395]}</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.1033407382091592</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.02875942261055942</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>{0: [2589, 5173, 2590, 5172, 2591], 6: [5006, 5008, 5007], 7: [2472, 2246, 5142, 5143], 9: [4828, 5262, 5263, 2517, 2516, 2515], 11: [2485, 5202, 2487, 2486], 12: [2471, 5023, 5021, 5022], 13: [4947, 2322, 2320, 2321], 16: [2409, 4857, 2411, 2410], 17: [5216, 5217, 2427, 2425, 2426], 19: [2350, 2351, 2352], 20: [4797, 2337, 2335, 2336], 23: [4811, 4812, 4813], 25: [5098, 4918, 2502, 4798, 2501, 2500], 26: [2367, 2365, 4977, 2366], 28: [2576, 2111, 5068, 5067, 5066], 29: [2620, 4843, 2141, 4842, 2140, 4841], 34: [2439, 5127, 5128, 2440, 2441], 35: [4903, 4902, 2306, 2305], 36: [4991, 4992, 4993], 2: [4978, 2561, 2605, 4979], 3: [5141, 2172, 2171, 2424, 4722, 4721, 2170], 10: [5112, 5188, 5187, 5186, 2201, 2202], 14: [2126, 2186, 2125, 4917, 4916], 15: [5232, 2382, 2380, 2381], 18: [2289, 4888, 4887, 2291, 2290], 22: [4826, 2456, 2455, 2454, 4827], 31: [2562, 5083, 5082, 2260, 2261], 32: [5247, 5113, 2396, 2397], 37: [5097, 2155, 2156, 5096], 1: [2665, 2666, 5038, 5035, 5036, 5037], 8: [2095, 4931, 4933, 2245, 4932], 21: [5158, 5157, 5156, 2096, 5081], 24: [4855, 5053, 2080, 2081, 5052, 5051], 33: [2200, 2231, 2230, 4856], 4: [2216, 4961, 4963, 4962], 5: [2532, 4948, 2530, 2531], 27: [2547, 4752, 4753, 2546, 2545], 30: [4873, 2514, 4872, 4768, 4871, 2395]}</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0.1033407382091592</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.02875942261055942</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>{0: [2287, 2288, 2289, 2290, 1759, 1761, 1762, 4947, 4946, 1760, 4945, 1763, 1764, 1765, 4944], 6: [2059, 2029, 1564, 3788, 3789, 2603, 2602, 2601, 2600, 2599, 3793, 3792, 3791, 3790], 's_0_6': [1744], 7: [2155, 4721, 4720, 4796, 2049, 4673, 4674, 4691, 1942, 1943, 1944, 4690], 's_0_7': [4811], 9: [4525, 1640, 2063, 2062, 1535, 3983, 3984, 2015, 3985, 4031, 2061, 2060], 's_0_9': [3969], 11: [3757, 1673, 4508, 1615, 1616, 1519, 1520, 1521, 1522, 4433, 1614, 4419, 4418, 1613], 's_0_11': [4493], 12: [1793, 4598, 2364, 4588, 4587, 2108, 1553, 4583, 4584, 2365, 4585, 4586], 's_0_12': [2366], 13: [4733, 4229, 2272, 4734, 4735, 4736, 4737, 2274, 4228, 2392, 2393, 4527, 2273], 's_0_13': [4362], 16: [4539, 1854, 1853, 1852, 4210, 4211, 2121, 2120, 3881, 3882, 2360, 2720, 3959, 3958, 3957], 's_0_16': [4704], 17: [1835, 4061, 4511, 2170, 3819, 4676, 3820, 3821, 2165, 2169, 2168, 2167, 2166], 's_0_17': [2171], 19: [4074, 3954, 1895, 3699, 1774, 1778, 1777, 1776, 1775], 's_0_19': [4014], 20: [2513, 4195, 2017, 2018, 4424, 4423, 4422, 4421], 's_0_20': [2304, 2303], 23: [4109, 2721, 2722, 2723, 2724, 2725, 2726, 2620, 5003, 5004, 5005, 5006, 2260, 4917, 4918, 4919], 's_0_23': [1841], 25: [2604, 2320, 4812, 2182, 4723, 2451, 2196, 2197, 4302, 2454, 4301, 2453, 2452], 's_0_25': [4722], 26: [4553, 2110, 4810, 4809, 4808, 1684, 1685, 1660, 1659, 1658, 4373, 1687, 1686], 's_0_26': [4823], 28: [4619, 4618, 2438, 2437, 2436, 3938, 3939, 3940, 3941, 3942, 2435], 's_0_28': [1745], 29: [3805, 4765, 4764, 1795, 1880, 1879, 1794, 4599, 1718, 1717, 1716, 1715, 1714, 3804], 's_0_29': [4869], 34: [4282, 4283, 4284, 4269, 1957, 4270, 3972, 2269, 2270, 4271, 2271], 's_0_34': [4257], 35: [4209, 4208, 1705, 4885, 4884, 1609, 1610, 1611, 4223, 1627, 1628, 1629, 1630, 4883], 's_0_35': [3743], 36: [1670, 2544, 4258, 3848, 3849, 3850, 2543, 3851, 3852, 3853, 2540, 2541, 2542], 's_0_36': [3953], 's_0_0': [2351], 2: [4405, 3923, 3922, 4497, 1565, 1566, 1567, 4496, 4495, 4494, 1838, 4358, 4359], 's_6_2': [4498], 3: [2619, 2154, 1909, 3774, 3775, 3776, 3777, 3778, 4646, 4647, 4648, 2618, 2617, 2616, 2615, 2614], 's_6_3': [2179], 's_6_9': [3863], 10: [1954, 4643, 4644, 1913, 4510, 1928, 2122, 4300, 4299, 1927, 1926, 1925, 1924, 3715], 's_6_10': [1834], 's_6_11': [3787], 's_6_13': [4214], 14: [2079, 4675, 3865, 1999, 2000, 2004, 2003, 4153, 4152, 4151, 4150, 2001, 2002], 's_6_14': [3745], 15: [2377, 4528, 2468, 2469, 2470, 2379, 2380, 1855, 4854, 2126, 2125, 4857, 4856, 2378, 4855], 's_6_15': [2588], 's_6_16': [3869], 's_6_17': [2134], 18: [1939, 1940, 1941, 2066, 2065, 4119, 4118, 1596, 1597, 1598, 1599, 1600, 4898, 4899, 4900], 's_6_18': [1804, 3744], 's_6_19': [1654], 's_6_20': [4513], 22: [2678, 2559, 4559, 4558, 4557, 4556, 1642, 4298, 1732, 1733, 4554, 4555], 's_6_22': [2633, 4604], 's_6_25': [4333], 's_6_29': [1729], 31: [2557, 4960, 4183, 1986, 1991, 1990, 1989, 1988, 4182, 4181, 4180, 1987], 's_6_31': [4259], 32: [4002, 4288, 4287, 2346, 4272, 2347, 2348, 2349, 4778, 4779, 4780, 4781, 2094, 4706, 4707], 's_6_32': [2586], 's_6_34': [3806, 3807], 's_6_35': [3713], 's_6_36': [2329], 37: [4574, 1719, 4749, 2424, 1883, 4615, 1959, 2648, 2649, 4754, 4753, 4752, 4750, 4751], 's_6_37': [4589], 's_6_6': [3686], 1: [2030, 2031, 4466, 2036, 2032, 4464, 4465, 2035, 2034, 2033], 's_7_1': [4766], 's_7_3': [2139], 8: [4824, 4614, 4032, 2211, 4166, 4165, 1820, 1825, 1824, 1823, 1822, 1821, 4164], 's_7_8': [4659], 's_7_10': [1749], 's_7_11': [4658], 's_7_12': [4797], 's_7_13': [2200], 's_7_15': [4916], 's_7_16': [1839], 21: [2105, 4782, 2229, 2228, 2209, 2210, 4361, 2227, 2226, 2225, 3971], 's_7_21': [4360], 24: [1976, 2258, 2242, 2243, 1975, 1974, 1973, 2408, 4542, 4541, 4540], 's_7_24': [2199], 's_7_26': [4871], 's_7_32': [1945], 33: [2213, 4454, 4448, 4449, 4450, 4453, 4452, 4451], 's_7_33': [2214], 's_7_34': [4240], 's_7_7': [4672], 's_9_1': [4226], 's_9_2': [4087], 4: [3912, 3911, 4253, 2135, 4318, 2136, 1657, 4254, 4255, 4317, 4316, 4256, 2137], 's_9_4': [2150], 5: [2390, 4003, 4018, 4343, 4344, 2466, 1792, 1791, 1790, 3924, 3925, 3926, 4019, 3927, 2465], 's_9_5': [1970], 's_9_12': [1958], 's_9_20': [2047], 's_9_21': [2075], 's_9_22': [2048], 27: [3894, 3895, 3896, 3897, 4347, 2318, 2317, 2316, 2315], 's_9_27': [3893], 's_9_28': [1955], 30: [1746, 4133, 4134, 4135, 4136, 4137, 4138, 2661, 2694, 2693, 2692, 2691, 4079], 's_9_30': [1641], 's_9_31': [4645], 's_9_34': [3987, 3986], 's_9_35': [3878], 's_9_36': [1625], 's_9_9': [4102], 's_11_4': [1507, 1506, 4117], 's_11_10': [4420], 's_11_13': [4703, 1554], 's_11_18': [4748], 's_11_19': [4389], 's_11_22': [1643, 4478], 's_11_23': [1601], 's_11_26': [4372], 's_11_29': [3758], 's_11_32': [4763, 1524], 's_11_34': [1672], 's_11_36': [1504, 1505], 's_11_11': [1518], 's_12_1': [2019], 's_12_2': [1568], 's_12_3': [2153], 's_12_5': [1552], 's_12_10': [4642], 's_12_13': [4692], 's_12_15': [4872], 's_12_18': [4523], 's_12_19': [4569], 's_12_24': [2078], 's_12_26': [1538], 's_12_28': [4617], 's_12_32': [2109], 's_12_33': [2123], 's_12_35': [4568], 's_12_36': [4573], 's_12_37': [4827], 's_12_12': [4492], 's_13_1': [2020], 's_13_5': [4213], 's_13_8': [1779], 's_13_15': [2395], 's_13_20': [4438], 's_13_21': [2350], 's_13_22': [1734], 's_13_24': [2394], 's_13_28': [2481, 4092], 's_13_29': [1840], 's_13_30': [2676], 's_13_31': [2496], 's_13_34': [4227], 's_13_35': [4719, 4718], 's_13_36': [2545, 4738], 's_13_13': [2275, 4977], 's_16_2': [4479], 's_16_3': [3974], 's_16_5': [2074], 's_16_10': [4225], 's_16_14': [4105], 's_16_17': [4046], 's_16_18': [1851], 's_16_19': [4179], 's_16_20': [2016, 4076], 's_16_23': [2780], 's_16_25': [4001], 's_16_30': [1881], 's_16_33': [1748], 's_16_34': [2420], 's_16_35': [4538], 's_16_37': [4524], 's_16_16': [2570], 's_17_2': [2198], 's_17_3': [2089], 's_17_8': [2151], 's_17_10': [1969], 's_17_14': [1850], 's_17_19': [3834], 's_17_24': [4526], 's_17_28': [3956], 's_17_30': [4121], 's_17_32': [2095, 4886], 's_17_34': [4286], 's_17_36': [3866], 's_17_37': [2259], 's_17_17': [2045], 's_19_3': [3759], 's_19_4': [1656], 's_19_8': [4044], 's_19_18': [4089], 's_19_26': [4434], 's_19_27': [1894], 's_19_28': [1910], 's_19_29': [1713], 's_19_30': [1671], 's_19_19': [1773], 's_20_4': [2257], 's_20_10': [2077], 's_20_14': [4375], 's_20_18': [1971, 4120], 's_20_21': [4437], 's_20_22': [4543], 's_20_23': [4439], 's_20_25': [2407], 's_20_28': [2574, 2573], 's_20_30': [1956], 's_20_31': [1911], 's_20_32': [2512], 's_20_33': [2632], 's_20_34': [4315], 's_20_37': [4483], 's_20_20': [2558], 's_23_1': [2021], 's_23_3': [4349], 's_23_5': [2736], 's_23_15': [2245], 's_23_18': [1646], 's_23_22': [4544], 's_23_30': [4514], 's_23_33': [2708], 's_23_35': [1735], 's_23_23': [5007], 's_25_3': [4303], 's_25_4': [2302], 's_25_8': [4091], 's_25_10': [4346], 's_25_14': [4168], 's_25_15': [4408], 's_25_22': [4693], 's_25_27': [2362], 's_25_28': [4363], 's_25_30': [4122], 's_25_32': [4662], 's_25_36': [2195], 's_25_37': [2484], 's_25_25': [2455], 's_26_2': [3998], 's_26_4': [4239], 's_26_8': [4374], 's_26_10': [1674], 's_26_15': [4931], 's_26_18': [4853], 's_26_22': [4193], 's_26_27': [1699], 's_26_31': [4840], 's_26_32': [4794], 's_26_33': [1702], 's_26_35': [4838], 's_26_36': [1549, 3833], 's_26_26': [3803], 's_28_1': [4467], 's_28_2': [3937], 's_28_3': [2664], 's_28_4': [2330], 's_28_22': [2709], 's_28_24': [4482], 's_28_29': [1730], 's_28_33': [4378, 2587], 's_28_36': [2434], 's_28_37': [2439], 's_28_28': [4033, 2405], 's_29_3': [3773], 's_29_4': [4313], 's_29_8': [4629], 's_29_14': [4075], 's_29_15': [4839], 's_29_22': [4329], 's_29_27': [1864], 's_29_30': [4059], 's_29_31': [4060], 's_29_34': [1701, 4224], 's_29_36': [3908], 's_29_37': [1884], 's_29_29': [1878], 's_34_1': [4345], 's_34_2': [4267], 's_34_5': [3973], 's_34_21': [3761], 's_34_22': [1731], 's_34_27': [2300], 's_34_32': [4062, 2255], 's_34_34': [2268], 's_35_1': [4463], 's_35_2': [4058], 's_35_4': [1477], 's_35_8': [1930], 's_35_10': [1807], 's_35_18': [1780], 's_35_24': [4870], 's_35_30': [4088], 's_35_31': [4959], 's_35_32': [1645], 's_35_36': [1594], 's_35_35': [1551], 's_36_2': [3968], 's_36_4': [3913], 's_36_5': [3898], 's_36_8': [1805], 's_36_10': [2119, 3716], 's_36_22': [4678], 's_36_32': [4273], 's_36_33': [2528], 's_36_36': [1475, 3952, 3951], 's_2_5': [1537], 's_2_31': [4390], 's_2_32': [2093], 's_2_18': [4388], 's_2_22': [4297], 's_2_2': [4312], 's_3_4': [2239], 's_3_14': [4154], 's_3_21': [2194], 's_3_33': [4468], 's_3_18': [3880], 's_3_22': [4663], 's_3_27': [2319], 's_3_30': [4108], 's_3_3': [2613], 's_10_4': [1972], 's_10_21': [3970], 's_10_24': [1898], 's_10_33': [2092], 's_10_18': [4000], 's_10_22': [1809], 's_10_8': [1914], 's_10_37': [1868], 's_10_10': [1908], 's_14_1': [3835], 's_14_4': [2076], 's_14_8': [2046], 's_14_18': [4030], 's_14_21': [3910], 's_14_24': [4480], 's_14_30': [2571], 's_14_31': [4015], 's_14_32': [4705], 's_14_37': [4600], 's_14_14': [3640], 's_15_4': [2467], 's_15_24': [4512], 's_15_31': [5020], 's_15_18': [5126], 's_15_22': [4529], 's_15_37': [4768], 's_15_15': [5096], 's_18_4': [1612], 's_18_5': [3909], 's_18_24': [5080], 's_18_31': [4045], 's_18_22': [4238], 's_18_30': [1626], 's_18_18': [1938], 's_22_4': [4328], 's_22_5': [4404], 's_22_24': [2423], 's_22_32': [4708], 's_22_33': [2483], 's_22_8': [4509], 's_22_27': [2333], 's_22_30': [2677], 's_22_22': [2768], 's_31_1': [4961], 's_31_4': [2527], 's_31_5': [4198], 's_31_21': [2106], 's_31_8': [2091], 's_31_27': [4197], 's_31_30': [2256], 's_31_32': [2005], 's_31_33': [2212], 's_31_31': [4975], 's_32_1': [4825], 's_32_4': [2662], 's_32_5': [2345], 's_32_24': [1960], 's_32_27': [4572], 's_32_30': [2376], 's_32_32': [4289], 's_37_21': [4783], 's_37_24': [4570], 's_37_33': [2663], 's_37_30': [4769], 's_37_8': [1899], 's_37_37': [2650], 's_1_4': [4241], 's_1_5': [1867], 's_1_21': [2183], 's_1_24': [4660], 's_1_33': [1912], 's_1_1': [1897], 's_8_4': [2285], 's_8_5': [4029], 's_8_21': [4077], 's_8_33': [1808], 's_8_27': [3879], 's_8_30': [2181], 's_8_8': [4167], 's_21_5': [2224], 's_21_24': [4602], 's_21_27': [4212], 's_21_21': [3687], 's_24_4': [4376], 's_24_27': [4407], 's_24_33': [2138], 's_24_24': [1977], 's_33_27': [4392], 's_33_30': [4469], 's_33_33': [2753], 's_4_5': [1582], 's_4_27': [2422], 's_4_4': [2647], 's_5_30': [2690], 's_5_5': [2450], 's_27_27': [4017], 's_30_30': [4664]}</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.000126491646778043</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0005657432194707541</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>{0: [2287, 2288, 2289, 2290, 1759, 1761, 1762, 4947, 4946, 1760, 4945, 1763, 1764, 1765, 4944], 6: [2059, 2029, 1564, 3788, 3789, 2603, 2602, 2601, 2600, 2599, 3793, 3792, 3791, 3790], 's_0_6': [1744], 7: [2155, 4721, 4720, 4796, 2049, 4673, 4674, 4691, 1942, 1943, 1944, 4690], 's_0_7': [4811], 9: [4525, 1640, 2063, 2062, 1535, 3983, 3984, 2015, 3985, 4031, 2061, 2060], 's_0_9': [3969], 11: [3757, 1673, 4508, 1615, 1616, 1519, 1520, 1521, 1522, 4433, 1614, 4419, 4418, 1613], 's_0_11': [4493], 12: [1793, 4598, 2364, 4588, 4587, 2108, 1553, 4583, 4584, 2365, 4585, 4586], 's_0_12': [2366], 13: [4733, 4229, 2272, 4734, 4735, 4736, 4737, 2274, 4228, 2392, 2393, 4527, 2273], 's_0_13': [4362], 16: [4539, 1854, 1853, 1852, 4210, 4211, 2121, 2120, 3881, 3882, 2360, 2720, 3959, 3958, 3957], 's_0_16': [4704], 17: [1835, 4061, 4511, 2170, 3819, 4676, 3820, 3821, 2165, 2169, 2168, 2167, 2166], 's_0_17': [2171], 19: [4074, 3954, 1895, 3699, 1774, 1778, 1777, 1776, 1775], 's_0_19': [4014], 20: [2513, 4195, 2017, 2018, 4424, 4423, 4422, 4421], 's_0_20': [2304, 2303], 23: [4109, 2721, 2722, 2723, 2724, 2725, 2726, 2620, 5003, 5004, 5005, 5006, 2260, 4917, 4918, 4919], 's_0_23': [1841], 25: [2604, 2320, 4812, 2182, 4723, 2451, 2196, 2197, 4302, 2454, 4301, 2453, 2452], 's_0_25': [4722], 26: [4553, 2110, 4810, 4809, 4808, 1684, 1685, 1660, 1659, 1658, 4373, 1687, 1686], 's_0_26': [4823], 28: [4619, 4618, 2438, 2437, 2436, 3938, 3939, 3940, 3941, 3942, 2435], 's_0_28': [1745], 29: [3805, 4765, 4764, 1795, 1880, 1879, 1794, 4599, 1718, 1717, 1716, 1715, 1714, 3804], 's_0_29': [4869], 34: [4282, 4283, 4284, 4269, 1957, 4270, 3972, 2269, 2270, 4271, 2271], 's_0_34': [4257], 35: [4209, 4208, 1705, 4885, 4884, 1609, 1610, 1611, 4223, 1627, 1628, 1629, 1630, 4883], 's_0_35': [3743], 36: [1670, 2544, 4258, 3848, 3849, 3850, 2543, 3851, 3852, 3853, 2540, 2541, 2542], 's_0_36': [3953], 's_0_0': [2351], 2: [4405, 3923, 3922, 4497, 1565, 1566, 1567, 4496, 4495, 4494, 1838, 4358, 4359], 's_6_2': [4498], 3: [2619, 2154, 1909, 3774, 3775, 3776, 3777, 3778, 4646, 4647, 4648, 2618, 2617, 2616, 2615, 2614], 's_6_3': [2179], 's_6_9': [3863], 10: [1954, 4643, 4644, 1913, 4510, 1928, 2122, 4300, 4299, 1927, 1926, 1925, 1924, 3715], 's_6_10': [1834], 's_6_11': [3787], 's_6_13': [4214], 14: [2079, 4675, 3865, 1999, 2000, 2004, 2003, 4153, 4152, 4151, 4150, 2001, 2002], 's_6_14': [3745], 15: [2377, 4528, 2468, 2469, 2470, 2379, 2380, 1855, 4854, 2126, 2125, 4857, 4856, 2378, 4855], 's_6_15': [2588], 's_6_16': [3869], 's_6_17': [2134], 18: [1939, 1940, 1941, 2066, 2065, 4119, 4118, 1596, 1597, 1598, 1599, 1600, 4898, 4899, 4900], 's_6_18': [1804, 3744], 's_6_19': [1654], 's_6_20': [4513], 22: [2678, 2559, 4559, 4558, 4557, 4556, 1642, 4298, 1732, 1733, 4554, 4555], 's_6_22': [2633, 4604], 's_6_25': [4333], 's_6_29': [1729], 31: [2557, 4960, 4183, 1986, 1991, 1990, 1989, 1988, 4182, 4181, 4180, 1987], 's_6_31': [4259], 32: [4002, 4288, 4287, 2346, 4272, 2347, 2348, 2349, 4778, 4779, 4780, 4781, 2094, 4706, 4707], 's_6_32': [2586], 's_6_34': [3806, 3807], 's_6_35': [3713], 's_6_36': [2329], 37: [4574, 1719, 4749, 2424, 1883, 4615, 1959, 2648, 2649, 4754, 4753, 4752, 4750, 4751], 's_6_37': [4589], 's_6_6': [3686], 1: [2030, 2031, 4466, 2036, 2032, 4464, 4465, 2035, 2034, 2033], 's_7_1': [4766], 's_7_3': [2139], 8: [4824, 4614, 4032, 2211, 4166, 4165, 1820, 1825, 1824, 1823, 1822, 1821, 4164], 's_7_8': [4659], 's_7_10': [1749], 's_7_11': [4658], 's_7_12': [4797], 's_7_13': [2200], 's_7_15': [4916], 's_7_16': [1839], 21: [2105, 4782, 2229, 2228, 2209, 2210, 4361, 2227, 2226, 2225, 3971], 's_7_21': [4360], 24: [1976, 2258, 2242, 2243, 1975, 1974, 1973, 2408, 4542, 4541, 4540], 's_7_24': [2199], 's_7_26': [4871], 's_7_32': [1945], 33: [2213, 4454, 4448, 4449, 4450, 4453, 4452, 4451], 's_7_33': [2214], 's_7_34': [4240], 's_7_7': [4672], 's_9_1': [4226], 's_9_2': [4087], 4: [3912, 3911, 4253, 2135, 4318, 2136, 1657, 4254, 4255, 4317, 4316, 4256, 2137], 's_9_4': [2150], 5: [2390, 4003, 4018, 4343, 4344, 2466, 1792, 1791, 1790, 3924, 3925, 3926, 4019, 3927, 2465], 's_9_5': [1970], 's_9_12': [1958], 's_9_20': [2047], 's_9_21': [2075], 's_9_22': [2048], 27: [3894, 3895, 3896, 3897, 4347, 2318, 2317, 2316, 2315], 's_9_27': [3893], 's_9_28': [1955], 30: [1746, 4133, 4134, 4135, 4136, 4137, 4138, 2661, 2694, 2693, 2692, 2691, 4079], 's_9_30': [1641], 's_9_31': [4645], 's_9_34': [3987, 3986], 's_9_35': [3878], 's_9_36': [1625], 's_9_9': [4102], 's_11_4': [1507, 1506, 4117], 's_11_10': [4420], 's_11_13': [4703, 1554], 's_11_18': [4748], 's_11_19': [4389], 's_11_22': [1643, 4478], 's_11_23': [1601], 's_11_26': [4372], 's_11_29': [3758], 's_11_32': [4763, 1524], 's_11_34': [1672], 's_11_36': [1504, 1505], 's_11_11': [1518], 's_12_1': [2019], 's_12_2': [1568], 's_12_3': [2153], 's_12_5': [1552], 's_12_10': [4642], 's_12_13': [4692], 's_12_15': [4872], 's_12_18': [4523], 's_12_19': [4569], 's_12_24': [2078], 's_12_26': [1538], 's_12_28': [4617], 's_12_32': [2109], 's_12_33': [2123], 's_12_35': [4568], 's_12_36': [4573], 's_12_37': [4827], 's_12_12': [4492], 's_13_1': [2020], 's_13_5': [4213], 's_13_8': [1779], 's_13_15': [2395], 's_13_20': [4438], 's_13_21': [2350], 's_13_22': [1734], 's_13_24': [2394], 's_13_28': [2481, 4092], 's_13_29': [1840], 's_13_30': [2676], 's_13_31': [2496], 's_13_34': [4227], 's_13_35': [4719, 4718], 's_13_36': [2545, 4738], 's_13_13': [2275, 4977], 's_16_2': [4479], 's_16_3': [3974], 's_16_5': [2074], 's_16_10': [4225], 's_16_14': [4105], 's_16_17': [4046], 's_16_18': [1851], 's_16_19': [4179], 's_16_20': [2016, 4076], 's_16_23': [2780], 's_16_25': [4001], 's_16_30': [1881], 's_16_33': [1748], 's_16_34': [2420], 's_16_35': [4538], 's_16_37': [4524], 's_16_16': [2570], 's_17_2': [2198], 's_17_3': [2089], 's_17_8': [2151], 's_17_10': [1969], 's_17_14': [1850], 's_17_19': [3834], 's_17_24': [4526], 's_17_28': [3956], 's_17_30': [4121], 's_17_32': [2095, 4886], 's_17_34': [4286], 's_17_36': [3866], 's_17_37': [2259], 's_17_17': [2045], 's_19_3': [3759], 's_19_4': [1656], 's_19_8': [4044], 's_19_18': [4089], 's_19_26': [4434], 's_19_27': [1894], 's_19_28': [1910], 's_19_29': [1713], 's_19_30': [1671], 's_19_19': [1773], 's_20_4': [2257], 's_20_10': [2077], 's_20_14': [4375], 's_20_18': [1971, 4120], 's_20_21': [4437], 's_20_22': [4543], 's_20_23': [4439], 's_20_25': [2407], 's_20_28': [2574, 2573], 's_20_30': [1956], 's_20_31': [1911], 's_20_32': [2512], 's_20_33': [2632], 's_20_34': [4315], 's_20_37': [4483], 's_20_20': [2558], 's_23_1': [2021], 's_23_3': [4349], 's_23_5': [2736], 's_23_15': [2245], 's_23_18': [1646], 's_23_22': [4544], 's_23_30': [4514], 's_23_33': [2708], 's_23_35': [1735], 's_23_23': [5007], 's_25_3': [4303], 's_25_4': [2302], 's_25_8': [4091], 's_25_10': [4346], 's_25_14': [4168], 's_25_15': [4408], 's_25_22': [4693], 's_25_27': [2362], 's_25_28': [4363], 's_25_30': [4122], 's_25_32': [4662], 's_25_36': [2195], 's_25_37': [2484], 's_25_25': [2455], 's_26_2': [3998], 's_26_4': [4239], 's_26_8': [4374], 's_26_10': [1674], 's_26_15': [4931], 's_26_18': [4853], 's_26_22': [4193], 's_26_27': [1699], 's_26_31': [4840], 's_26_32': [4794], 's_26_33': [1702], 's_26_35': [4838], 's_26_36': [1549, 3833], 's_26_26': [3803], 's_28_1': [4467], 's_28_2': [3937], 's_28_3': [2664], 's_28_4': [2330], 's_28_22': [2709], 's_28_24': [4482], 's_28_29': [1730], 's_28_33': [4378, 2587], 's_28_36': [2434], 's_28_37': [2439], 's_28_28': [4033, 2405], 's_29_3': [3773], 's_29_4': [4313], 's_29_8': [4629], 's_29_14': [4075], 's_29_15': [4839], 's_29_22': [4329], 's_29_27': [1864], 's_29_30': [4059], 's_29_31': [4060], 's_29_34': [1701, 4224], 's_29_36': [3908], 's_29_37': [1884], 's_29_29': [1878], 's_34_1': [4345], 's_34_2': [4267], 's_34_5': [3973], 's_34_21': [3761], 's_34_22': [1731], 's_34_27': [2300], 's_34_32': [4062, 2255], 's_34_34': [2268], 's_35_1': [4463], 's_35_2': [4058], 's_35_4': [1477], 's_35_8': [1930], 's_35_10': [1807], 's_35_18': [1780], 's_35_24': [4870], 's_35_30': [4088], 's_35_31': [4959], 's_35_32': [1645], 's_35_36': [1594], 's_35_35': [1551], 's_36_2': [3968], 's_36_4': [3913], 's_36_5': [3898], 's_36_8': [1805], 's_36_10': [2119, 3716], 's_36_22': [4678], 's_36_32': [4273], 's_36_33': [2528], 's_36_36': [1475, 3952, 3951], 's_2_5': [1537], 's_2_31': [4390], 's_2_32': [2093], 's_2_18': [4388], 's_2_22': [4297], 's_2_2': [4312], 's_3_4': [2239], 's_3_14': [4154], 's_3_21': [2194], 's_3_33': [4468], 's_3_18': [3880], 's_3_22': [4663], 's_3_27': [2319], 's_3_30': [4108], 's_3_3': [2613], 's_10_4': [1972], 's_10_21': [3970], 's_10_24': [1898], 's_10_33': [2092], 's_10_18': [4000], 's_10_22': [1809], 's_10_8': [1914], 's_10_37': [1868], 's_10_10': [1908], 's_14_1': [3835], 's_14_4': [2076], 's_14_8': [2046], 's_14_18': [4030], 's_14_21': [3910], 's_14_24': [4480], 's_14_30': [2571], 's_14_31': [4015], 's_14_32': [4705], 's_14_37': [4600], 's_14_14': [3640], 's_15_4': [2467], 's_15_24': [4512], 's_15_31': [5020], 's_15_18': [5126], 's_15_22': [4529], 's_15_37': [4768], 's_15_15': [5096], 's_18_4': [1612], 's_18_5': [3909], 's_18_24': [5080], 's_18_31': [4045], 's_18_22': [4238], 's_18_30': [1626], 's_18_18': [1938], 's_22_4': [4328], 's_22_5': [4404], 's_22_24': [2423], 's_22_32': [4708], 's_22_33': [2483], 's_22_8': [4509], 's_22_27': [2333], 's_22_30': [2677], 's_22_22': [2768], 's_31_1': [4961], 's_31_4': [2527], 's_31_5': [4198], 's_31_21': [2106], 's_31_8': [2091], 's_31_27': [4197], 's_31_30': [2256], 's_31_32': [2005], 's_31_33': [2212], 's_31_31': [4975], 's_32_1': [4825], 's_32_4': [2662], 's_32_5': [2345], 's_32_24': [1960], 's_32_27': [4572], 's_32_30': [2376], 's_32_32': [4289], 's_37_21': [4783], 's_37_24': [4570], 's_37_33': [2663], 's_37_30': [4769], 's_37_8': [1899], 's_37_37': [2650], 's_1_4': [4241], 's_1_5': [1867], 's_1_21': [2183], 's_1_24': [4660], 's_1_33': [1912], 's_1_1': [1897], 's_8_4': [2285], 's_8_5': [4029], 's_8_21': [4077], 's_8_33': [1808], 's_8_27': [3879], 's_8_30': [2181], 's_8_8': [4167], 's_21_5': [2224], 's_21_24': [4602], 's_21_27': [4212], 's_21_21': [3687], 's_24_4': [4376], 's_24_27': [4407], 's_24_33': [2138], 's_24_24': [1977], 's_33_27': [4392], 's_33_30': [4469], 's_33_33': [2753], 's_4_5': [1582], 's_4_27': [2422], 's_4_4': [2647], 's_5_30': [2690], 's_5_5': [2450], 's_27_27': [4017], 's_30_30': [4664]}</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0.000126491646778043</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0005657432194707541</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>{0: [1967, 1968, 3520, 3518, 3519], 2: [3637, 3640, 3639, 3638], 5: [1639, 1638, 3562, 3564, 3563], 8: [3550, 3549, 3547, 3548], 9: [3715, 1908, 1906, 1907], 10: [1594, 3652, 1593, 3654, 3653], 11: [1518, 1517, 3399, 3398, 1502, 3397], 15: [3442, 1802, 3445, 3443, 3444], 16: [1757, 1711, 1758, 3355, 3354], 19: [1473, 1562, 3457, 3459, 3458], 21: [1681, 3368, 1744, 1742, 1743], 22: [1832, 3579, 1834, 1833], 23: [3385, 3384, 3383, 1608, 1607], 24: [3668, 1804, 3670, 3669], 28: [3265, 3264, 1728, 1727, 1726], 30: [3325, 1578, 1577, 3428, 3324, 1667], 33: [3429, 1713, 1712], 34: [3744, 1878, 1876, 1877], 35: [1803, 3533, 3535, 3534], 37: [3622, 3623, 3625, 3624], 38: [1669, 1682, 1668, 3505, 3504], 3: [3607, 1548, 3610, 3609, 3608], 4: [3788, 3789, 3790, 1997, 1998, 1999], 13: [3655, 1861, 3249, 3250, 1936, 1937, 1938], 14: [3310, 1654, 3309, 1653, 1652], 25: [1609, 3714, 1488, 1489, 3713], 26: [1696, 3699, 1697, 1698], 29: [1786, 1787, 1788, 1789], 1: [3595, 3592, 3594, 3593], 6: [3233, 1773, 1772, 1771, 3234], 12: [3490, 1547, 3489, 3488], 17: [1474, 3685, 1563, 3684, 3683], 7: [1864, 3472, 3473, 1863, 1862, 3474], 31: [3700, 3460, 1891, 1893, 1892], 32: [3369, 1819, 1818, 1817], 36: [3775, 3773, 3774, 1849, 1847, 1848], 20: [3415, 3414, 3413, 3412, 1413, 1412], 18: [3430, 3189, 1921, 1922, 1923], 27: [1621, 1622, 1624, 3578, 1623]}</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0566916823014384</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.02746048151766901</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>{0: [1967, 1968, 3520, 3518, 3519], 2: [3637, 3640, 3639, 3638], 5: [1639, 1638, 3562, 3564, 3563], 8: [3550, 3549, 3547, 3548], 9: [3715, 1908, 1906, 1907], 10: [1594, 3652, 1593, 3654, 3653], 11: [1518, 1517, 3399, 3398, 1502, 3397], 15: [3442, 1802, 3445, 3443, 3444], 16: [1757, 1711, 1758, 3355, 3354], 19: [1473, 1562, 3457, 3459, 3458], 21: [1681, 3368, 1744, 1742, 1743], 22: [1832, 3579, 1834, 1833], 23: [3385, 3384, 3383, 1608, 1607], 24: [3668, 1804, 3670, 3669], 28: [3265, 3264, 1728, 1727, 1726], 30: [3325, 1578, 1577, 3428, 3324, 1667], 33: [3429, 1713, 1712], 34: [3744, 1878, 1876, 1877], 35: [1803, 3533, 3535, 3534], 37: [3622, 3623, 3625, 3624], 38: [1669, 1682, 1668, 3505, 3504], 3: [3607, 1548, 3610, 3609, 3608], 4: [3788, 3789, 3790, 1997, 1998, 1999], 13: [3655, 1861, 3249, 3250, 1936, 1937, 1938], 14: [3310, 1654, 3309, 1653, 1652], 25: [1609, 3714, 1488, 1489, 3713], 26: [1696, 3699, 1697, 1698], 29: [1786, 1787, 1788, 1789], 1: [3595, 3592, 3594, 3593], 6: [3233, 1773, 1772, 1771, 3234], 12: [3490, 1547, 3489, 3488], 17: [1474, 3685, 1563, 3684, 3683], 7: [1864, 3472, 3473, 1863, 1862, 3474], 31: [3700, 3460, 1891, 1893, 1892], 32: [3369, 1819, 1818, 1817], 36: [3775, 3773, 3774, 1849, 1847, 1848], 20: [3415, 3414, 3413, 3412, 1413, 1412], 18: [3430, 3189, 1921, 1922, 1923], 27: [1621, 1622, 1624, 3578, 1623]}</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0.0566916823014384</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.02746048151766901</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>{0: [5423, 1528, 1394, 1553, 4642, 4641, 1389, 5422, 1393, 1392, 1391, 1390], 2: [5155, 5379, 1991, 5525, 1992, 5526, 5527, 5528, 5529, 5230, 1917, 1918], 's_0_2': [1513], 5: [4944, 1705, 1706, 1061, 5090, 1287, 5091, 5092, 5093], 's_0_5': [5181], 8: [4909, 4942, 5364, 5363, 5362, 1453, 1452, 4910, 4911, 4912, 1451], 's_0_8': [1438], 9: [4523, 4524, 1792, 1793, 4644, 4614, 1798, 1797, 1796, 1795, 1794], 's_0_9': [4643], 10: [5166, 1346, 5408, 5409, 5424, 1828, 5122, 5123, 5124, 1827], 's_0_10': [5407], 11: [4958, 4714, 4957, 4956, 4265, 1072, 1073, 1074, 1136, 1135, 4715], 's_0_11': [4640], 15: [1300, 4370, 4777, 4778, 4371, 4372, 4373, 4776, 1537, 1539, 1538], 's_0_15': [4627], 16: [4601, 1898, 4600, 4599, 4598, 1015, 1014, 4669, 4670, 4671, 4668, 1314, 4597], 's_0_16': [1419], 19: [4998, 4999, 5000, 1343, 1344, 5003, 5002, 1345, 1150, 5001], 's_0_19': [4626], 21: [5269, 5320, 5319, 897, 5318, 5317, 943, 5330, 1373, 1374, 5331, 5332, 1375, 1376, 1377], 's_0_21': [1423], 22: [4759, 4760, 1313, 1243, 4761, 1242, 1241, 1240, 4491, 1238, 1239], 's_0_22': [5421], 23: [927, 5179, 986, 985, 4389, 4388, 4387, 1298, 1299, 4551, 4550, 4549, 983, 984], 's_0_23': [1284], 24: [4672, 5109, 1196, 5106, 1509, 1510, 1511, 1333, 1332, 1331, 5107, 5108], 's_0_24': [5512], 28: [4885, 1960, 4699, 4700, 4701, 4702, 1524, 1525, 4928, 4929, 4930, 1856, 5244, 1857, 1752], 's_0_28': [1464], 30: [5169, 1916, 1915, 1103, 1104, 5050, 1108, 1107, 1106, 1105, 4745, 4746, 4747, 4748, 4749, 4750, 1914], 's_0_30': [1584], 33: [5078, 1649, 5378, 4252, 4253, 1648, 1642, 1643, 1647, 1646, 1644, 1645], 's_0_33': [5498], 34: [5224, 1572, 1631, 1973, 5225, 5226, 5227, 5228, 1632, 5168, 1721, 5094, 5095, 1974, 1976, 1975], 's_0_34': [5242], 35: [4343, 4630, 4629, 4628, 4238, 1612, 1614, 5301, 5302, 1613, 5303, 1617, 1616, 1615], 's_0_35': [1498], 37: [4295, 2023, 2022, 2021, 1192, 1193, 1194, 4716, 4717, 4718, 4719, 2020, 4720], 's_0_37': [1404], 38: [4834, 4835, 4836, 4900, 1406, 1405, 4899, 4898, 4897], 's_0_38': [4927], 's_0_0': [5482], 3: [5014, 1168, 1167, 1166, 5018, 5017, 5016, 5015], 's_2_3': [1153], 4: [4792, 1703, 1363, 1077, 5210, 5211, 1356, 1673, 1357, 1362, 1361, 4508, 4507, 1358, 1359, 1360], 's_2_4': [1378], 13: [893, 5470, 5469, 5468, 5467, 5466, 1139, 1138, 1137, 5121, 4489, 4490, 1208, 1209, 1210, 1211], 's_2_13': [1304], 14: [5062, 2005, 4795, 1481, 2006, 1480, 1718, 4793, 1719, 4794], 's_2_14': [4990], 's_2_21': [1902], 's_2_24': [5110], 25: [4945, 5004, 1932, 1931, 1930, 4809, 4805, 4806, 4808, 1432, 1433, 1434, 1435, 4807], 's_2_25': [5290], 26: [1178, 4536, 4537, 4538, 1659, 5336, 5335, 5334, 1660, 1661, 1662, 1663], 's_2_26': [2052], 29: [1330, 4864, 4865, 4866, 4867, 4868, 1814, 1813, 1812, 5154, 1691, 1690], 's_2_29': [5544], 's_2_30': [5140], 's_2_33': [5213, 1707, 1708], 's_2_38': [4915], 's_2_2': [1469], 1: [5075, 5074, 4488, 867, 866, 865, 864, 1371, 4284, 4283, 4282, 4281, 4280, 863, 862, 4279, 4278], 's_5_1': [1076], 6: [1420, 4837, 1747, 1963, 5350, 2082, 2081, 2080, 4838, 1748, 4840, 4839, 1810, 1809, 4584], 's_5_6': [1811], 's_5_8': [1286], 12: [1123, 1092, 4505, 1118, 5195, 1122, 1121, 4625, 1119, 1120], 's_5_12': [4985], 17: [803, 804, 805, 1840, 4884, 4883, 1555, 1556, 5138, 5137, 5136, 5135, 5134, 806], 's_5_17': [1765], 's_5_19': [1735], 's_5_22': [5196], 's_5_25': [1826], 's_5_26': [4913], 's_5_29': [4974], 's_5_30': [5060], 's_5_34': [1720], 's_5_35': [1288], 's_5_38': [1060], 's_5_5': [4853], 's_8_6': [5365], 's_8_11': [1316], 's_8_12': [1091], 's_8_16': [1000], 's_8_19': [911], 's_8_21': [1887], 's_8_23': [4894], 's_8_25': [1075], 's_8_28': [1737], 's_8_29': [895], 's_8_30': [1450], 's_8_33': [5348], 's_8_34': [5182], 's_8_38': [5047], 's_8_8': [5377], 's_9_1': [4269], 's_9_4': [1688], 's_9_6': [4344], 7: [1582, 1058, 4445, 4446, 4447, 1778, 1497, 1496, 1495, 1494, 4569, 4568, 1583], 's_9_7': [4464], 's_9_13': [1783], 's_9_14': [4734], 's_9_15': [4374], 's_9_17': [4854], 's_9_24': [1781], 's_9_25': [5184], 's_9_28': [5049], 's_9_30': [1913], 31: [1030, 4689, 1029, 4684, 4685, 4688, 4687, 4686], 's_9_31': [4704], 32: [1899, 4674, 4673, 1602, 1600, 1596, 1597, 1598, 1601, 4611, 4612, 4613, 1599], 's_9_32': [1854], 's_9_34': [4525], 's_9_35': [4239], 36: [4729, 879, 880, 881, 4984, 5254, 1046, 1047, 1002, 5275, 5274, 5273, 5272, 5271, 5270, 5255], 's_9_36': [5259], 's_9_38': [4914], 's_9_9': [5484], 's_10_4': [1347], 's_10_13': [1753], 's_10_17': [5152], 20: [4326, 1267, 5044, 5045, 1268, 5046, 1271, 4658, 4657, 4656, 1269, 1270], 's_10_20': [5061], 's_10_22': [5076, 1317], 's_10_24': [1421], 's_10_28': [5214], 's_10_29': [5304], 's_10_30': [5125], 's_10_32': [1603], 's_10_33': [1693], 's_10_34': [5139], 's_10_35': [1618], 's_10_36': [1843], 's_10_10': [1888], 's_11_1': [1191], 's_11_7': [1057], 's_11_12': [1117], 's_11_13': [1207], 's_11_16': [4955], 's_11_17': [910, 4774], 18: [5028, 4534, 5030, 5029, 941, 1687, 940, 939, 938, 937, 4309, 4310, 4311, 4312, 4313], 's_11_18': [4400], 's_11_20': [4941], 's_11_22': [4713, 760], 's_11_24': [1256], 's_11_25': [1090], 27: [4419, 1523, 1522, 4939, 4418, 4417, 4416, 4415, 4414, 773, 774, 775, 776], 's_11_27': [4430], 's_11_28': [834], 's_11_29': [1165], 's_11_30': [4475], 's_11_33': [4266, 1297], 's_11_34': [1571], 's_11_38': [925], 's_11_11': [4340], 's_15_4': [1463], 's_15_7': [1327], 's_15_12': [1133], 's_15_13': [1088], 's_15_14': [4779], 's_15_18': [1252], 's_15_19': [1342], 's_15_20': [1237], 's_15_21': [1372], 's_15_22': [4356], 's_15_27': [4477], 's_15_28': [1149], 's_15_29': [1255], 's_15_30': [4355], 's_15_31': [4775], 's_15_35': [4703], 's_15_38': [1225], 's_15_15': [997], 's_16_1': [4653], 's_16_4': [4567], 's_16_6': [2078, 2079], 's_16_7': [4570], 's_16_13': [1013], 's_16_17': [1016], 's_16_22': [1179], 's_16_27': [759], 's_16_28': [1164], 's_16_29': [4880], 's_16_30': [1989, 4705], 's_16_31': [4730], 's_16_32': [1824], 's_16_33': [1629], 's_16_34': [4585], 's_16_35': [2034], 's_16_36': [4819], 's_16_37': [1944], 's_16_16': [744], 's_19_12': [4850], 's_19_14': [4987], 's_19_17': [790], 's_19_20': [851], 's_19_21': [4972], 's_19_23': [1328], 's_19_26': [4521], 's_19_27': [926], 's_19_30': [4762], 's_19_34': [1751], 's_19_35': [4988], 's_19_36': [896], 's_19_37': [4506], 's_19_19': [701], 's_21_1': [868, 5329], 's_21_4': [5346], 's_21_6': [1978], 's_21_12': [1182], 's_21_17': [942], 's_21_20': [4476], 's_21_25': [1933], 's_21_28': [1872], 's_21_30': [5315], 's_21_33': [5333], 's_21_36': [1273], 's_21_37': [5321], 's_21_38': [4851], 's_21_21': [1948], 's_22_3': [5481], 's_22_12': [5316, 1197], 's_22_13': [1258], 's_22_17': [789], 's_22_18': [1312], 's_22_20': [4566], 's_22_24': [5451], 's_22_27': [1388], 's_22_29': [4896], 's_22_31': [894], 's_22_35': [1257], 's_22_37': [1224], 's_22_38': [1285], 's_22_22': [1403], 's_23_3': [971], 's_23_4': [4461], 's_23_6': [1762], 's_23_7': [1507], 's_23_12': [4504], 's_23_13': [968], 's_23_17': [4548], 's_23_18': [4879], 's_23_25': [4402], 's_23_26': [1658], 's_23_28': [969], 's_23_29': [970], 's_23_31': [4654], 's_23_32': [1163], 's_23_34': [1032], 's_23_35': [1702], 's_23_36': [928], 's_23_37': [4386], 's_23_23': [912], 's_24_3': [5540, 5541], 's_24_7': [5032], 's_24_13': [5151], 's_24_17': [1272], 's_24_18': [1181], 's_24_25': [4852], 's_24_26': [1508], 's_24_30': [5105], 's_24_31': [1449], 's_24_34': [5167], 's_24_35': [5287], 's_24_24': [1334], 's_28_6': [4886], 's_28_7': [4973], 's_28_12': [1059], 's_28_13': [4431, 1253, 1254], 's_28_14': [4780], 's_28_18': [909], 's_28_20': [1329], 's_28_26': [1858], 's_28_27': [4698], 's_28_29': [1782], 's_28_30': [1089], 's_28_31': [1044], 's_28_33': [5198], 's_28_37': [4825], 's_28_28': [954], 's_30_3': [5019], 's_30_4': [5150], 's_30_6': [5051], 's_30_7': [4535], 's_30_12': [5405], 's_30_14': [1825], 's_30_18': [4565], 's_30_26': [4764], 's_30_27': [4940], 's_30_31': [999], 's_30_32': [4659], 's_30_34': [1901], 's_30_36': [4744], 's_30_30': [1961], 's_33_1': [1326], 's_33_3': [1586], 's_33_6': [4463], 's_33_17': [4943], 's_33_18': [1462], 's_33_20': [4251], 's_33_26': [5393], 's_33_29': [5079], 's_33_32': [4328], 's_33_34': [5183], 's_33_36': [1678], 's_33_38': [5077], 's_33_33': [5438], 's_34_1': [5239], 's_34_6': [5020], 's_34_7': [1482], 's_34_29': [1736], 's_34_32': [5258], 's_34_35': [1437], 's_34_37': [4870], 's_34_34': [4510], 's_35_1': [1477], 's_35_3': [5286], 's_35_6': [4448], 's_35_13': [1212], 's_35_14': [4493], 's_35_17': [1587], 's_35_18': [1657], 's_35_25': [4237], 's_35_31': [1839], 's_35_32': [4358], 's_35_35': [1868], 's_37_6': [4931], 's_37_7': [1177], 's_37_13': [4596], 's_37_14': [4796], 's_37_17': [1554], 's_37_20': [1734], 's_37_25': [5080], 's_37_26': [4733], 's_37_27': [1162], 's_37_31': [1884], 's_37_32': [4735], 's_37_36': [5260], 's_37_38': [1315], 's_37_37': [4721], 's_38_3': [1466], 's_38_4': [5031], 's_38_6': [4901, 2125], 's_38_7': [1780, 1779], 's_38_14': [1570], 's_38_17': [4833], 's_38_18': [4849], 's_38_20': [4821], 's_38_26': [1676, 4959], 's_38_29': [1045], 's_38_32': [1900], 's_38_38': [2036], 's_3_4': [5240], 's_3_13': [5496], 's_3_17': [5013], 's_3_20': [1001], 's_3_32': [1541, 5153], 's_3_36': [1152], 's_3_12': [5435, 1124], 's_3_14': [1436], 's_3_18': [956], 's_3_3': [5511, 1214], 's_4_1': [4177], 's_4_7': [4434], 's_4_14': [4478], 's_4_17': [1227], 's_4_20': [4296], 's_4_25': [4342], 's_4_27': [1418], 's_4_29': [4986], 's_4_36': [5285], 's_4_4': [1355], 's_13_1': [4429], 's_13_7': [4731, 4732], 's_13_6': [5485], 's_13_12': [4460], 's_13_17': [4579], 's_13_18': [952, 953], 's_13_31': [1028], 's_13_13': [1319], 's_14_7': [4763], 's_14_20': [1479], 's_14_25': [1855], 's_14_6': [4554], 's_14_26': [4539], 's_14_29': [1630], 's_14_14': [4855], 's_25_1': [1417], 's_25_7': [4462], 's_25_17': [1870], 's_25_12': [4820], 's_25_26': [4823], 's_25_27': [4432], 's_25_29': [5199], 's_25_36': [1947], 's_25_25': [4327], 's_26_17': [5063], 's_26_20': [1674], 's_26_32': [5243], 's_26_6': [2113], 's_26_12': [4581], 's_26_29': [1675], 's_26_26': [2188], 's_29_7': [4882], 's_29_17': [4869], 's_29_36': [1767], 's_29_18': [955], 's_29_29': [5589], 's_1_7': [1777], 's_1_17': [4954], 's_1_20': [836], 's_1_31': [849], 's_1_32': [4147, 4148], 's_1_36': [4609], 's_1_1': [922], 's_6_17': [1540], 's_6_18': [4404, 1808], 's_6_27': [1763], 's_6_6': [5066], 's_12_7': [4520], 's_12_20': [4401], 's_12_32': [1148], 's_12_36': [5194], 's_12_27': [1043], 's_12_12': [5420], 's_17_18': [4624, 4623], 's_17_27': [4473, 833, 832], 's_17_32': [4824], 's_17_36': [1422], 's_17_17': [4533], 's_7_27': [1568], 's_7_32': [4433], 's_7_7': [4580], 's_31_20': [1764], 's_31_18': [4639], 's_31_32': [1869], 's_31_36': [819], 's_31_31': [924], 's_32_20': [1749], 's_32_18': [4610], 's_32_32': [4208], 's_36_20': [5059], 's_36_27': [4924], 's_36_36': [5120], 's_20_27': [1283], 's_20_20': [4221], 's_18_18': [967], 's_27_27': [923]}</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0004387527839643653</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0009763829393367927</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>{0: [5423, 1528, 1394, 1553, 4642, 4641, 1389, 5422, 1393, 1392, 1391, 1390], 2: [5155, 5379, 1991, 5525, 1992, 5526, 5527, 5528, 5529, 5230, 1917, 1918], 's_0_2': [1513], 5: [4944, 1705, 1706, 1061, 5090, 1287, 5091, 5092, 5093], 's_0_5': [5181], 8: [4909, 4942, 5364, 5363, 5362, 1453, 1452, 4910, 4911, 4912, 1451], 's_0_8': [1438], 9: [4523, 4524, 1792, 1793, 4644, 4614, 1798, 1797, 1796, 1795, 1794], 's_0_9': [4643], 10: [5166, 1346, 5408, 5409, 5424, 1828, 5122, 5123, 5124, 1827], 's_0_10': [5407], 11: [4958, 4714, 4957, 4956, 4265, 1072, 1073, 1074, 1136, 1135, 4715], 's_0_11': [4640], 15: [1300, 4370, 4777, 4778, 4371, 4372, 4373, 4776, 1537, 1539, 1538], 's_0_15': [4627], 16: [4601, 1898, 4600, 4599, 4598, 1015, 1014, 4669, 4670, 4671, 4668, 1314, 4597], 's_0_16': [1419], 19: [4998, 4999, 5000, 1343, 1344, 5003, 5002, 1345, 1150, 5001], 's_0_19': [4626], 21: [5269, 5320, 5319, 897, 5318, 5317, 943, 5330, 1373, 1374, 5331, 5332, 1375, 1376, 1377], 's_0_21': [1423], 22: [4759, 4760, 1313, 1243, 4761, 1242, 1241, 1240, 4491, 1238, 1239], 's_0_22': [5421], 23: [927, 5179, 986, 985, 4389, 4388, 4387, 1298, 1299, 4551, 4550, 4549, 983, 984], 's_0_23': [1284], 24: [4672, 5109, 1196, 5106, 1509, 1510, 1511, 1333, 1332, 1331, 5107, 5108], 's_0_24': [5512], 28: [4885, 1960, 4699, 4700, 4701, 4702, 1524, 1525, 4928, 4929, 4930, 1856, 5244, 1857, 1752], 's_0_28': [1464], 30: [5169, 1916, 1915, 1103, 1104, 5050, 1108, 1107, 1106, 1105, 4745, 4746, 4747, 4748, 4749, 4750, 1914], 's_0_30': [1584], 33: [5078, 1649, 5378, 4252, 4253, 1648, 1642, 1643, 1647, 1646, 1644, 1645], 's_0_33': [5498], 34: [5224, 1572, 1631, 1973, 5225, 5226, 5227, 5228, 1632, 5168, 1721, 5094, 5095, 1974, 1976, 1975], 's_0_34': [5242], 35: [4343, 4630, 4629, 4628, 4238, 1612, 1614, 5301, 5302, 1613, 5303, 1617, 1616, 1615], 's_0_35': [1498], 37: [4295, 2023, 2022, 2021, 1192, 1193, 1194, 4716, 4717, 4718, 4719, 2020, 4720], 's_0_37': [1404], 38: [4834, 4835, 4836, 4900, 1406, 1405, 4899, 4898, 4897], 's_0_38': [4927], 's_0_0': [5482], 3: [5014, 1168, 1167, 1166, 5018, 5017, 5016, 5015], 's_2_3': [1153], 4: [4792, 1703, 1363, 1077, 5210, 5211, 1356, 1673, 1357, 1362, 1361, 4508, 4507, 1358, 1359, 1360], 's_2_4': [1378], 13: [893, 5470, 5469, 5468, 5467, 5466, 1139, 1138, 1137, 5121, 4489, 4490, 1208, 1209, 1210, 1211], 's_2_13': [1304], 14: [5062, 2005, 4795, 1481, 2006, 1480, 1718, 4793, 1719, 4794], 's_2_14': [4990], 's_2_21': [1902], 's_2_24': [5110], 25: [4945, 5004, 1932, 1931, 1930, 4809, 4805, 4806, 4808, 1432, 1433, 1434, 1435, 4807], 's_2_25': [5290], 26: [1178, 4536, 4537, 4538, 1659, 5336, 5335, 5334, 1660, 1661, 1662, 1663], 's_2_26': [2052], 29: [1330, 4864, 4865, 4866, 4867, 4868, 1814, 1813, 1812, 5154, 1691, 1690], 's_2_29': [5544], 's_2_30': [5140], 's_2_33': [5213, 1707, 1708], 's_2_38': [4915], 's_2_2': [1469], 1: [5075, 5074, 4488, 867, 866, 865, 864, 1371, 4284, 4283, 4282, 4281, 4280, 863, 862, 4279, 4278], 's_5_1': [1076], 6: [1420, 4837, 1747, 1963, 5350, 2082, 2081, 2080, 4838, 1748, 4840, 4839, 1810, 1809, 4584], 's_5_6': [1811], 's_5_8': [1286], 12: [1123, 1092, 4505, 1118, 5195, 1122, 1121, 4625, 1119, 1120], 's_5_12': [4985], 17: [803, 804, 805, 1840, 4884, 4883, 1555, 1556, 5138, 5137, 5136, 5135, 5134, 806], 's_5_17': [1765], 's_5_19': [1735], 's_5_22': [5196], 's_5_25': [1826], 's_5_26': [4913], 's_5_29': [4974], 's_5_30': [5060], 's_5_34': [1720], 's_5_35': [1288], 's_5_38': [1060], 's_5_5': [4853], 's_8_6': [5365], 's_8_11': [1316], 's_8_12': [1091], 's_8_16': [1000], 's_8_19': [911], 's_8_21': [1887], 's_8_23': [4894], 's_8_25': [1075], 's_8_28': [1737], 's_8_29': [895], 's_8_30': [1450], 's_8_33': [5348], 's_8_34': [5182], 's_8_38': [5047], 's_8_8': [5377], 's_9_1': [4269], 's_9_4': [1688], 's_9_6': [4344], 7: [1582, 1058, 4445, 4446, 4447, 1778, 1497, 1496, 1495, 1494, 4569, 4568, 1583], 's_9_7': [4464], 's_9_13': [1783], 's_9_14': [4734], 's_9_15': [4374], 's_9_17': [4854], 's_9_24': [1781], 's_9_25': [5184], 's_9_28': [5049], 's_9_30': [1913], 31: [1030, 4689, 1029, 4684, 4685, 4688, 4687, 4686], 's_9_31': [4704], 32: [1899, 4674, 4673, 1602, 1600, 1596, 1597, 1598, 1601, 4611, 4612, 4613, 1599], 's_9_32': [1854], 's_9_34': [4525], 's_9_35': [4239], 36: [4729, 879, 880, 881, 4984, 5254, 1046, 1047, 1002, 5275, 5274, 5273, 5272, 5271, 5270, 5255], 's_9_36': [5259], 's_9_38': [4914], 's_9_9': [5484], 's_10_4': [1347], 's_10_13': [1753], 's_10_17': [5152], 20: [4326, 1267, 5044, 5045, 1268, 5046, 1271, 4658, 4657, 4656, 1269, 1270], 's_10_20': [5061], 's_10_22': [5076, 1317], 's_10_24': [1421], 's_10_28': [5214], 's_10_29': [5304], 's_10_30': [5125], 's_10_32': [1603], 's_10_33': [1693], 's_10_34': [5139], 's_10_35': [1618], 's_10_36': [1843], 's_10_10': [1888], 's_11_1': [1191], 's_11_7': [1057], 's_11_12': [1117], 's_11_13': [1207], 's_11_16': [4955], 's_11_17': [910, 4774], 18: [5028, 4534, 5030, 5029, 941, 1687, 940, 939, 938, 937, 4309, 4310, 4311, 4312, 4313], 's_11_18': [4400], 's_11_20': [4941], 's_11_22': [4713, 760], 's_11_24': [1256], 's_11_25': [1090], 27: [4419, 1523, 1522, 4939, 4418, 4417, 4416, 4415, 4414, 773, 774, 775, 776], 's_11_27': [4430], 's_11_28': [834], 's_11_29': [1165], 's_11_30': [4475], 's_11_33': [4266, 1297], 's_11_34': [1571], 's_11_38': [925], 's_11_11': [4340], 's_15_4': [1463], 's_15_7': [1327], 's_15_12': [1133], 's_15_13': [1088], 's_15_14': [4779], 's_15_18': [1252], 's_15_19': [1342], 's_15_20': [1237], 's_15_21': [1372], 's_15_22': [4356], 's_15_27': [4477], 's_15_28': [1149], 's_15_29': [1255], 's_15_30': [4355], 's_15_31': [4775], 's_15_35': [4703], 's_15_38': [1225], 's_15_15': [997], 's_16_1': [4653], 's_16_4': [4567], 's_16_6': [2078, 2079], 's_16_7': [4570], 's_16_13': [1013], 's_16_17': [1016], 's_16_22': [1179], 's_16_27': [759], 's_16_28': [1164], 's_16_29': [4880], 's_16_30': [1989, 4705], 's_16_31': [4730], 's_16_32': [1824], 's_16_33': [1629], 's_16_34': [4585], 's_16_35': [2034], 's_16_36': [4819], 's_16_37': [1944], 's_16_16': [744], 's_19_12': [4850], 's_19_14': [4987], 's_19_17': [790], 's_19_20': [851], 's_19_21': [4972], 's_19_23': [1328], 's_19_26': [4521], 's_19_27': [926], 's_19_30': [4762], 's_19_34': [1751], 's_19_35': [4988], 's_19_36': [896], 's_19_37': [4506], 's_19_19': [701], 's_21_1': [868, 5329], 's_21_4': [5346], 's_21_6': [1978], 's_21_12': [1182], 's_21_17': [942], 's_21_20': [4476], 's_21_25': [1933], 's_21_28': [1872], 's_21_30': [5315], 's_21_33': [5333], 's_21_36': [1273], 's_21_37': [5321], 's_21_38': [4851], 's_21_21': [1948], 's_22_3': [5481], 's_22_12': [5316, 1197], 's_22_13': [1258], 's_22_17': [789], 's_22_18': [1312], 's_22_20': [4566], 's_22_24': [5451], 's_22_27': [1388], 's_22_29': [4896], 's_22_31': [894], 's_22_35': [1257], 's_22_37': [1224], 's_22_38': [1285], 's_22_22': [1403], 's_23_3': [971], 's_23_4': [4461], 's_23_6': [1762], 's_23_7': [1507], 's_23_12': [4504], 's_23_13': [968], 's_23_17': [4548], 's_23_18': [4879], 's_23_25': [4402], 's_23_26': [1658], 's_23_28': [969], 's_23_29': [970], 's_23_31': [4654], 's_23_32': [1163], 's_23_34': [1032], 's_23_35': [1702], 's_23_36': [928], 's_23_37': [4386], 's_23_23': [912], 's_24_3': [5540, 5541], 's_24_7': [5032], 's_24_13': [5151], 's_24_17': [1272], 's_24_18': [1181], 's_24_25': [4852], 's_24_26': [1508], 's_24_30': [5105], 's_24_31': [1449], 's_24_34': [5167], 's_24_35': [5287], 's_24_24': [1334], 's_28_6': [4886], 's_28_7': [4973], 's_28_12': [1059], 's_28_13': [4431, 1253, 1254], 's_28_14': [4780], 's_28_18': [909], 's_28_20': [1329], 's_28_26': [1858], 's_28_27': [4698], 's_28_29': [1782], 's_28_30': [1089], 's_28_31': [1044], 's_28_33': [5198], 's_28_37': [4825], 's_28_28': [954], 's_30_3': [5019], 's_30_4': [5150], 's_30_6': [5051], 's_30_7': [4535], 's_30_12': [5405], 's_30_14': [1825], 's_30_18': [4565], 's_30_26': [4764], 's_30_27': [4940], 's_30_31': [999], 's_30_32': [4659], 's_30_34': [1901], 's_30_36': [4744], 's_30_30': [1961], 's_33_1': [1326], 's_33_3': [1586], 's_33_6': [4463], 's_33_17': [4943], 's_33_18': [1462], 's_33_20': [4251], 's_33_26': [5393], 's_33_29': [5079], 's_33_32': [4328], 's_33_34': [5183], 's_33_36': [1678], 's_33_38': [5077], 's_33_33': [5438], 's_34_1': [5239], 's_34_6': [5020], 's_34_7': [1482], 's_34_29': [1736], 's_34_32': [5258], 's_34_35': [1437], 's_34_37': [4870], 's_34_34': [4510], 's_35_1': [1477], 's_35_3': [5286], 's_35_6': [4448], 's_35_13': [1212], 's_35_14': [4493], 's_35_17': [1587], 's_35_18': [1657], 's_35_25': [4237], 's_35_31': [1839], 's_35_32': [4358], 's_35_35': [1868], 's_37_6': [4931], 's_37_7': [1177], 's_37_13': [4596], 's_37_14': [4796], 's_37_17': [1554], 's_37_20': [1734], 's_37_25': [5080], 's_37_26': [4733], 's_37_27': [1162], 's_37_31': [1884], 's_37_32': [4735], 's_37_36': [5260], 's_37_38': [1315], 's_37_37': [4721], 's_38_3': [1466], 's_38_4': [5031], 's_38_6': [4901, 2125], 's_38_7': [1780, 1779], 's_38_14': [1570], 's_38_17': [4833], 's_38_18': [4849], 's_38_20': [4821], 's_38_26': [1676, 4959], 's_38_29': [1045], 's_38_32': [1900], 's_38_38': [2036], 's_3_4': [5240], 's_3_13': [5496], 's_3_17': [5013], 's_3_20': [1001], 's_3_32': [1541, 5153], 's_3_36': [1152], 's_3_12': [5435, 1124], 's_3_14': [1436], 's_3_18': [956], 's_3_3': [5511, 1214], 's_4_1': [4177], 's_4_7': [4434], 's_4_14': [4478], 's_4_17': [1227], 's_4_20': [4296], 's_4_25': [4342], 's_4_27': [1418], 's_4_29': [4986], 's_4_36': [5285], 's_4_4': [1355], 's_13_1': [4429], 's_13_7': [4731, 4732], 's_13_6': [5485], 's_13_12': [4460], 's_13_17': [4579], 's_13_18': [952, 953], 's_13_31': [1028], 's_13_13': [1319], 's_14_7': [4763], 's_14_20': [1479], 's_14_25': [1855], 's_14_6': [4554], 's_14_26': [4539], 's_14_29': [1630], 's_14_14': [4855], 's_25_1': [1417], 's_25_7': [4462], 's_25_17': [1870], 's_25_12': [4820], 's_25_26': [4823], 's_25_27': [4432], 's_25_29': [5199], 's_25_36': [1947], 's_25_25': [4327], 's_26_17': [5063], 's_26_20': [1674], 's_26_32': [5243], 's_26_6': [2113], 's_26_12': [4581], 's_26_29': [1675], 's_26_26': [2188], 's_29_7': [4882], 's_29_17': [4869], 's_29_36': [1767], 's_29_18': [955], 's_29_29': [5589], 's_1_7': [1777], 's_1_17': [4954], 's_1_20': [836], 's_1_31': [849], 's_1_32': [4147, 4148], 's_1_36': [4609], 's_1_1': [922], 's_6_17': [1540], 's_6_18': [4404, 1808], 's_6_27': [1763], 's_6_6': [5066], 's_12_7': [4520], 's_12_20': [4401], 's_12_32': [1148], 's_12_36': [5194], 's_12_27': [1043], 's_12_12': [5420], 's_17_18': [4624, 4623], 's_17_27': [4473, 833, 832], 's_17_32': [4824], 's_17_36': [1422], 's_17_17': [4533], 's_7_27': [1568], 's_7_32': [4433], 's_7_7': [4580], 's_31_20': [1764], 's_31_18': [4639], 's_31_32': [1869], 's_31_36': [819], 's_31_31': [924], 's_32_20': [1749], 's_32_18': [4610], 's_32_32': [4208], 's_36_20': [5059], 's_36_27': [4924], 's_36_36': [5120], 's_20_27': [1283], 's_20_20': [4221], 's_18_18': [967], 's_27_27': [923]}</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0004387527839643653</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.0009763829393367927</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>{0: [1577, 3007, 1576, 3006, 1575], 3: [1591, 1592, 3487, 1590, 3488], 5: [3084, 1607, 3382, 1710, 1711, 3383], 6: [3201, 1413, 1412, 3202, 1411], 9: [3219, 3218, 3216, 3217], 12: [1562, 1560, 1561], 13: [1410, 3307, 1321, 3246, 3143, 3142, 1306], 14: [3082, 1620, 1427, 2994, 1426, 2993, 2992, 1425], 18: [1802, 3325, 3324, 3322, 3323], 19: [3428, 3427, 3172, 1396, 3411, 3472, 1397], 20: [1440, 3413, 1443, 1441, 3412, 1442], 23: [3173, 1547, 1545, 1546], 24: [2978, 1485, 1487, 1486], 25: [3308, 1532, 1530, 1531], 26: [1473, 3128, 1471, 1472], 28: [1352, 1351, 1470, 3068, 3067, 1350], 30: [3338, 3398, 1621, 1622], 31: [1381, 1382, 3503, 3502], 32: [1216, 1697, 1696, 3279, 3276, 3277, 3278], 33: [3351, 1682, 3355, 1681, 3352, 3354, 3353], 34: [3396, 3098, 1262, 1260, 3097, 3096, 1261], 39: [1846, 3114, 3112, 1847, 3113], 2: [1367, 3249, 3248, 1366, 3247], 4: [3534, 3533, 1517, 1515, 1516], 10: [1502, 1500, 1501], 11: [3310, 3309, 1756, 3231, 3233, 3232], 16: [3234, 3036, 3037, 1876, 1875, 3038, 3039], 17: [3158, 1635, 1636], 35: [3504, 1743, 1742, 1605, 1741, 1740, 3023], 36: [3384, 1772, 1771, 3186, 3187, 3188, 3189], 8: [3369, 1637, 1667, 3366, 3368, 3367], 15: [3053, 1335, 3052, 1336, 3051], 27: [3397, 1456, 1457, 1458, 3548, 3547], 29: [1755, 3069, 1727, 1726, 1725], 38: [1833, 3261, 1832, 1831, 3262, 3263, 3264], 7: [1787, 1337, 3517, 3518, 3519, 3429, 1712], 1: [3203, 1650, 3563, 3473, 1651, 1652, 1653], 21: [1606, 1785, 1786, 1817, 3293, 3294], 37: [3444, 3442, 3443], 22: [1848, 1488, 3457, 1757, 3458, 3459]}</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.1224645583424209</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.03523530650621385</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>{0: [1577, 3007, 1576, 3006, 1575], 3: [1591, 1592, 3487, 1590, 3488], 5: [3084, 1607, 3382, 1710, 1711, 3383], 6: [3201, 1413, 1412, 3202, 1411], 9: [3219, 3218, 3216, 3217], 12: [1562, 1560, 1561], 13: [1410, 3307, 1321, 3246, 3143, 3142, 1306], 14: [3082, 1620, 1427, 2994, 1426, 2993, 2992, 1425], 18: [1802, 3325, 3324, 3322, 3323], 19: [3428, 3427, 3172, 1396, 3411, 3472, 1397], 20: [1440, 3413, 1443, 1441, 3412, 1442], 23: [3173, 1547, 1545, 1546], 24: [2978, 1485, 1487, 1486], 25: [3308, 1532, 1530, 1531], 26: [1473, 3128, 1471, 1472], 28: [1352, 1351, 1470, 3068, 3067, 1350], 30: [3338, 3398, 1621, 1622], 31: [1381, 1382, 3503, 3502], 32: [1216, 1697, 1696, 3279, 3276, 3277, 3278], 33: [3351, 1682, 3355, 1681, 3352, 3354, 3353], 34: [3396, 3098, 1262, 1260, 3097, 3096, 1261], 39: [1846, 3114, 3112, 1847, 3113], 2: [1367, 3249, 3248, 1366, 3247], 4: [3534, 3533, 1517, 1515, 1516], 10: [1502, 1500, 1501], 11: [3310, 3309, 1756, 3231, 3233, 3232], 16: [3234, 3036, 3037, 1876, 1875, 3038, 3039], 17: [3158, 1635, 1636], 35: [3504, 1743, 1742, 1605, 1741, 1740, 3023], 36: [3384, 1772, 1771, 3186, 3187, 3188, 3189], 8: [3369, 1637, 1667, 3366, 3368, 3367], 15: [3053, 1335, 3052, 1336, 3051], 27: [3397, 1456, 1457, 1458, 3548, 3547], 29: [1755, 3069, 1727, 1726, 1725], 38: [1833, 3261, 1832, 1831, 3262, 3263, 3264], 7: [1787, 1337, 3517, 3518, 3519, 3429, 1712], 1: [3203, 1650, 3563, 3473, 1651, 1652, 1653], 21: [1606, 1785, 1786, 1817, 3293, 3294], 37: [3444, 3442, 3443], 22: [1848, 1488, 3457, 1757, 3458, 3459]}</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0.1224645583424209</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.03523530650621385</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>{0: [2151, 5453, 5454, 5455, 5456, 2158, 2157, 2153, 2154, 2155, 2152, 5111, 2156], 3: [1420, 4255, 4254, 4253, 1506, 1507, 1508, 1509, 4822, 1570, 1571, 1843, 5424, 5423, 1573, 1572], 's_0_3': [5438], 5: [2127, 2126, 2121, 2122, 2125, 4418, 4420, 2124, 4419, 4421, 2123], 's_0_5': [4151], 6: [1739, 1738, 5409, 5410, 2216, 2217, 2218, 2173, 5413, 5412, 5411], 's_0_6': [5381, 2248], 9: [1378, 1377, 1376, 1690, 2215, 2066, 2065, 4871, 4870, 4869, 4884, 1375, 4882, 4883], 's_0_9': [5141], 12: [5142, 1733, 1734, 1735, 4974, 1751, 2203, 2202, 5081, 5080, 5079, 5078], 's_0_12': [5426], 13: [2637, 2143, 5368, 5367, 5366, 5365, 5364, 1872, 5229, 1812, 4866, 4867, 4868, 1705, 4959, 1811], 's_0_13': [5486], 14: [2457, 4372, 2456, 4373, 4374, 1792, 4299, 4495, 2078, 2077, 4300, 2455, 2454, 1432, 2452, 4302, 2453, 4301], 's_0_14': [2137], 18: [1344, 4857, 1343, 4856, 4855, 4854, 4853, 4852, 4851, 1345, 1241, 1242, 1243, 1244, 5001, 5573, 5572, 5571], 's_0_18': [1634], 19: [5231, 5324, 5323, 5319, 5320, 5530, 2098, 2095, 2096, 5322, 5321, 2097], 's_0_19': [2024, 5516], 20: [4703, 2258, 4693, 4692, 2259, 2260, 5138, 5139, 1797, 1796, 4704, 1869, 1870, 5004, 5005, 5006], 's_0_20': [4631], 23: [5318, 1753, 5363, 5362, 1553, 1557, 4690, 4689, 4688, 5108, 1554, 1555, 1556], 's_0_23': [1618], 24: [5286, 1273, 5376, 5377, 5378, 5158, 5157, 5156, 2112, 2113, 5380, 5379], 's_0_24': [2053], 25: [4837, 4732, 2441, 2442, 1450, 1451, 1452, 5212, 5217, 5216, 5215, 5214, 5213], 's_0_25': [2187], 26: [5016, 5260, 1932, 5017, 5018, 5019, 4903, 4902, 4901, 4900, 1930, 1931], 's_0_26': [5261], 28: [5047, 4973, 1481, 1480, 1482, 4587, 4586, 4585, 4584, 4583, 1479], 's_0_28': [2138], 30: [1498, 1497, 1496, 1495, 4598, 1538, 1537, 4343, 2183, 2182, 1494, 4227, 4226, 4225, 1852, 4344], 's_0_30': [4211], 31: [5351, 2246, 2245, 1540, 4913, 4915, 2247, 4914, 4916], 's_0_31': [5246], 32: [2093, 5218, 2548, 1957, 4345, 4540, 2547, 2546, 2544, 4603, 4602, 2545, 4601, 2062, 2063], 's_0_32': [4346], 33: [4977, 2303, 2347, 2348, 2349, 4707, 2307, 2306, 2305, 4722, 4721, 2304], 's_0_33': [5036], 34: [5198, 1722, 5304, 1993, 2336, 2337, 5307, 5306, 5305], 's_0_34': [1887, 1888], 39: [5287, 4897, 4512, 5302, 1407, 1406, 1405, 4511, 4510, 4509, 4508, 1404, 1403, 4507], 's_0_39': [4526], 's_0_0': [5471, 2189], 2: [4986, 4506, 4417, 1301, 4404, 4403, 4402, 1300, 1299, 1298], 's_3_2': [1522, 1521], 4: [1911, 1918, 1917, 1912, 1913, 4780, 4720, 1916, 1915, 1914], 's_3_4': [5290], 's_3_6': [5408], 's_3_9': [5422], 10: [1302, 1467, 1782, 5167, 5122, 5168, 5173, 5172, 5171, 5170, 5169], 's_3_10': [5259], 11: [2274, 2003, 1902, 4570, 2004, 5335, 5336, 2052, 2051, 4811, 4810, 2005, 2006, 5020], 's_3_11': [1768, 5334], 's_3_13': [1465], 's_3_14': [4282], 16: [4328, 1627, 1628, 1633, 1632, 1631, 1630, 2094, 4660, 4659, 4658, 1629], 's_3_16': [5333], 17: [1552, 4463, 5397, 5396, 5395, 5394, 5393, 4462, 1433, 1434, 1435, 1436, 5392, 1438, 1437], 's_3_17': [5347], 's_3_18': [1574], 's_3_19': [1783], 's_3_24': [1693], 's_3_25': [4777], 's_3_26': [5032], 's_3_30': [4807], 's_3_32': [1987], 's_3_34': [5425], 35: [1647, 1646, 1318, 2033, 2034, 2035, 4887, 4886, 4885, 1975, 4945, 4944, 4943, 4942, 1316, 1317], 's_3_35': [4958], 36: [4793, 4794, 4737, 4389, 4736, 4735, 4734, 1823, 1824, 1825, 5529, 1829, 1828, 1827, 1826], 's_3_36': [1844, 5439], 's_3_39': [4912], 's_3_3': [4327, 1462], 's_5_2': [1702], 8: [5067, 2397, 2396, 1841, 1525, 4933, 4612, 4613, 1599, 1600, 4932, 4931, 4930, 1373, 4929, 4928], 's_5_8': [1598, 4433], 's_5_9': [4990], 's_5_10': [5185], 's_5_11': [4571], 's_5_12': [1732], 's_5_14': [4541], 15: [5082, 4842, 2378, 4824, 4825, 2379, 4826, 4827, 2383, 2382, 2381, 2380], 's_5_15': [4422, 4423], 's_5_16': [4706], 's_5_19': [5035], 's_5_25': [5200], 27: [2081, 5023, 5022, 5021, 4645, 2048, 4992, 2291, 4991, 5049, 5050, 5051, 2171, 2049, 4766, 2170], 's_5_27': [4946], 29: [2290, 2289, 4480, 4481, 2288, 4269, 4270, 4271, 2287], 's_5_29': [1988], 's_5_30': [4241], 's_5_31': [5066], 's_5_35': [4781], 's_5_36': [1658], 38: [1838, 1927, 1928, 1257, 1256, 1255, 1271, 1270, 4821, 1329, 4479, 4478, 4477, 4476, 1328], 's_5_38': [1853], 's_5_39': [1763], 's_5_5': [4181], 7: [5007, 1778, 2473, 2472, 4464, 2471, 4465, 2470, 2469, 2468, 4467, 4466], 's_6_7': [5428], 's_6_11': [1948], 's_6_12': [5201], 's_6_13': [2578], 's_6_18': [1724], 's_6_19': [2068], 's_6_20': [4962], 's_6_23': [5484], 's_6_24': [1798], 's_6_25': [1737], 's_6_26': [5095, 5096], 's_6_27': [2201], 's_6_31': [5112], 's_6_32': [2533], 's_6_34': [2338], 's_6_36': [5528], 's_6_6': [2608], 1: [4448, 4434, 1807, 4451, 1810, 4450, 4449, 4644, 1809, 1808], 's_9_1': [1945, 4809], 's_9_2': [4957], 's_9_11': [4782], 's_9_13': [1360], 's_9_15': [1990], 's_9_17': [5452], 's_9_19': [5126], 's_9_20': [5137], 21: [4717, 4718, 1660, 1659, 4538, 4569, 4317, 4316, 4315, 4314, 4313, 1687, 1688], 's_9_21': [4838], 's_9_23': [4898], 's_9_24': [1363], 's_9_28': [5077], 's_9_31': [2110], 's_9_33': [4752], 's_9_35': [5317], 's_9_36': [1780], 's_9_39': [5181], 's_9_9': [5541], 's_12_11': [5065, 1946], 's_12_13': [5034, 1901], 's_12_15': [4823], 's_12_16': [4673], 's_12_20': [2141], 's_12_21': [4719], 's_12_23': [1601], 's_12_24': [2111], 's_12_25': [2022], 's_12_31': [5127], 's_12_33': [5186], 's_12_36': [5064], 37: [1285, 1194, 1584, 1676, 1675, 4746, 4747, 1959, 4750, 4749, 4748], 's_12_37': [1719], 's_12_38': [4524], 's_12_12': [4628], 's_13_2': [4881], 's_13_4': [1933, 5470], 's_13_8': [4960], 's_13_11': [5230], 's_13_17': [1963], 's_13_19': [2653], 's_13_23': [1661, 5063], 's_13_26': [1781], 's_13_27': [2622, 2621], 's_13_28': [1510], 's_13_30': [1614, 1615], 's_13_31': [5352], 's_13_32': [5203], 's_13_34': [2368], 's_13_35': [1720], 's_13_36': [5244], 's_13_38': [1240], 's_13_39': [1390], 's_13_13': [5294], 's_14_1': [4359], 's_14_2': [1747], 's_14_4': [4494], 's_14_8': [2440], 's_14_11': [1973], 's_14_15': [4618], 's_14_16': [4298], 's_14_17': [1463], 's_14_19': [5338], 's_14_21': [2107], 's_14_24': [5143], 's_14_28': [4588], 's_14_29': [2212], 's_14_30': [4312], 's_14_32': [4543], 's_14_35': [4888, 4873], 's_14_36': [1597, 4388], 's_14_38': [1448], 's_14_39': [2407, 2408], 's_14_14': [4371], 's_18_2': [4896], 's_18_7': [2485], 's_18_8': [4491], 's_18_11': [2020], 's_18_15': [1795], 's_18_19': [4840], 's_18_20': [2275], 's_18_21': [1645], 's_18_23': [1754], 's_18_27': [2425], 's_18_28': [4582], 's_18_31': [1765], 's_18_33': [2200], 's_18_36': [5574], 's_18_38': [4956], 's_18_18': [1694], 's_19_7': [2488], 's_19_10': [2667, 2668], 's_19_15': [2398], 's_19_20': [2080], 's_19_23': [1663], 's_19_25': [2427], 's_19_26': [2038, 5291], 's_19_36': [1813], 's_19_19': [5531], 's_20_1': [4674], 's_20_4': [4839], 's_20_7': [2257], 's_20_15': [4753, 2424], 's_20_16': [4643, 1749], 22: [1707, 2353, 5197, 2501, 2502, 5278, 5271, 5272, 1587, 5273, 5274, 5275, 5277, 5276], 's_20_22': [1752], 's_20_23': [1779], 's_20_25': [1602], 's_20_26': [5184], 's_20_28': [2364], 's_20_29': [4646], 's_20_30': [1644], 's_20_33': [2319], 's_20_34': [1617], 's_20_36': [5094], 's_20_37': [1884], 's_20_20': [2514], 's_23_1': [1854], 's_23_4': [1944], 's_23_10': [5107], 's_23_16': [4691], 's_23_21': [4733], 's_23_22': [5258], 's_23_26': [1616], 's_23_27': [1989], 's_23_30': [4627], 's_23_36': [5469], 's_23_37': [4642], 's_23_38': [4492], 's_23_39': [1453], 's_23_23': [1678], 's_24_8': [1856, 1857, 5155], 's_24_11': [1978], 's_24_16': [1648], 's_24_17': [1528], 's_24_22': [1212], 's_24_25': [2292], 's_24_27': [2426], 's_24_32': [2532], 's_24_34': [1858], 's_24_35': [5421], 's_24_38': [5301], 's_24_39': [1303], 's_24_24': [1123], 's_25_7': [5083], 's_25_8': [1449], 's_25_10': [1962], 's_25_11': [2067], 's_25_15': [5202], 's_25_21': [1374], 's_25_22': [5053], 's_25_26': [1466], 's_25_30': [5182], 's_25_31': [5002], 's_25_32': [5233], 's_25_33': [2322, 5292], 's_25_37': [1359], 's_25_39': [4792], 's_25_25': [1662], 's_26_4': [4795], 's_26_8': [4975], 's_26_10': [1947], 's_26_11': [5125, 1961], 's_26_17': [2008], 's_26_22': [2023], 's_26_27': [2561], 's_26_28': [1511], 's_26_31': [1541], 's_26_32': [2531], 's_26_34': [1721], 's_26_35': [2410], 's_26_37': [1286], 's_26_38': [5031], 's_26_39': [1391], 's_26_26': [5110], 's_28_1': [1748], 's_28_10': [5227], 's_28_16': [4763], 's_28_22': [1586], 's_28_29': [2243], 's_28_31': [4987], 's_28_33': [4572], 's_28_35': [5153], 's_28_36': [4778], 's_28_37': [1958], 's_28_38': [1718], 's_28_39': [2108], 's_28_28': [2184], 's_30_1': [4224], 's_30_2': [1417, 4297], 's_30_4': [4210], 's_30_8': [4597, 1314], 's_30_10': [5242], 's_30_17': [5407], 's_30_22': [5288], 's_30_32': [2061], 's_30_33': [4212], 's_30_35': [2032], 's_30_37': [1539], 's_30_38': [1837], 's_30_39': [5092], 's_30_30': [4228], 's_31_4': [1900], 's_31_10': [2231], 's_31_22': [5337], 's_31_27': [4841], 's_31_33': [2308], 's_31_35': [1991], 's_31_36': [4899], 's_31_37': [1960], 's_31_31': [2186], 's_32_1': [1898], 's_32_7': [4708], 's_32_8': [4948], 's_32_10': [5188], 's_32_15': [4573], 's_32_16': [2019], 's_32_21': [1972], 's_32_22': [5263], 's_32_29': [2017, 4256, 2091], 's_32_35': [4360], 's_32_38': [4405], 's_32_39': [2273], 's_32_32': [2529], 's_33_1': [4437, 2227], 's_33_7': [4723], 's_33_8': [2351], 's_33_15': [2394, 2393, 4362], 's_33_16': [4661], 's_33_21': [2362], 's_33_27': [2230], 's_33_29': [4617], 's_33_34': [2321], 's_33_35': [2395], 's_33_36': [2109], 's_33_39': [4542, 2318], 's_33_33': [2346], 's_34_7': [5308], 's_34_8': [2366, 5052], 's_34_10': [1767], 's_34_11': [2082], 's_34_16': [5348], 's_34_17': [1723], 's_34_35': [2335], 's_34_34': [5262], 's_39_1': [1868], 's_39_2': [4806], 's_39_7': [2333], 's_39_8': [1358], 's_39_10': [5152], 's_39_11': [1883], 's_39_16': [4523], 's_39_17': [4972], 's_39_21': [1523, 4537], 's_39_22': [1347], 's_39_36': [1673], 's_39_39': [4626], 's_2_1': [4446, 4447], 's_2_8': [4641], 's_2_10': [1346, 5061], 's_2_16': [1567], 's_2_17': [4461], 's_2_21': [4716], 's_2_35': [4911], 's_2_36': [1762], 's_2_37': [1193], 's_2_2': [5046, 5045], 's_4_17': [1903], 's_4_27': [4525], 's_4_29': [4284], 's_4_35': [1974], 's_4_36': [5544], 's_4_37': [4705], 's_4_8': [1840], 's_4_10': [5245, 2007], 's_4_7': [1897], 's_4_11': [4390], 's_4_22': [5140, 1977], 's_4_38': [4435], 's_4_4': [4119], 's_10_15': [2352], 's_10_17': [1422, 5257], 's_10_27': [2636], 's_10_36': [5289], 's_10_8': [1842], 's_10_7': [2487], 's_10_22': [2517], 's_10_10': [5174], 's_11_15': [2140], 's_11_16': [2079], 's_11_21': [2002], 's_11_27': [4630], 's_11_29': [4676], 's_11_22': [2188], 's_11_38': [1839], 's_11_11': [4555], 's_16_1': [4329], 's_16_15': [1899], 's_16_17': [1643], 's_16_21': [4358], 's_16_35': [5123], 's_16_16': [4178], 's_17_1': [1717], 's_17_15': [5382], 's_17_8': [4522], 's_17_36': [1873], 's_17_17': [2233], 's_35_1': [2018], 's_35_15': [2320], 's_35_27': [4675], 's_35_29': [4872], 's_35_22': [5243], 's_35_37': [4988], 's_35_35': [5076], 's_36_1': [1794], 's_36_15': [2350], 's_36_21': [1524], 's_36_27': [2185], 's_36_29': [1822], 's_36_7': [4539], 's_36_37': [1764], 's_36_36': [5589, 1784], 's_8_21': [1464, 4567, 4568, 1568], 's_8_27': [5097], 's_8_29': [4947], 's_8_37': [1389], 's_8_8': [5247], 's_15_1': [4452], 's_15_7': [4812], 's_15_29': [4377, 2302], 's_15_15': [2377], 's_27_1': [2047], 's_27_7': [2486], 's_27_22': [4993], 's_27_37': [4751], 's_27_27': [2651], 's_29_1': [2168], 's_29_21': [2197], 's_29_7': [4482], 's_29_38': [1942], 's_29_29': [2046], 's_38_21': [1703], 's_38_37': [4791], 's_38_7': [1793], 's_38_22': [5256], 's_38_38': [4971], 's_7_21': [2467], 's_7_22': [5248], 's_7_7': [5458], 's_1_21': [4599], 's_1_37': [4779], 's_1_1': [1867], 's_21_37': [1674], 's_21_21': [2482], 's_37_37': [4745], 's_22_22': [5303]}</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0005675105485232067</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.001017566778056334</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>{0: [2151, 5453, 5454, 5455, 5456, 2158, 2157, 2153, 2154, 2155, 2152, 5111, 2156], 3: [1420, 4255, 4254, 4253, 1506, 1507, 1508, 1509, 4822, 1570, 1571, 1843, 5424, 5423, 1573, 1572], 's_0_3': [5438], 5: [2127, 2126, 2121, 2122, 2125, 4418, 4420, 2124, 4419, 4421, 2123], 's_0_5': [4151], 6: [1739, 1738, 5409, 5410, 2216, 2217, 2218, 2173, 5413, 5412, 5411], 's_0_6': [5381, 2248], 9: [1378, 1377, 1376, 1690, 2215, 2066, 2065, 4871, 4870, 4869, 4884, 1375, 4882, 4883], 's_0_9': [5141], 12: [5142, 1733, 1734, 1735, 4974, 1751, 2203, 2202, 5081, 5080, 5079, 5078], 's_0_12': [5426], 13: [2637, 2143, 5368, 5367, 5366, 5365, 5364, 1872, 5229, 1812, 4866, 4867, 4868, 1705, 4959, 1811], 's_0_13': [5486], 14: [2457, 4372, 2456, 4373, 4374, 1792, 4299, 4495, 2078, 2077, 4300, 2455, 2454, 1432, 2452, 4302, 2453, 4301], 's_0_14': [2137], 18: [1344, 4857, 1343, 4856, 4855, 4854, 4853, 4852, 4851, 1345, 1241, 1242, 1243, 1244, 5001, 5573, 5572, 5571], 's_0_18': [1634], 19: [5231, 5324, 5323, 5319, 5320, 5530, 2098, 2095, 2096, 5322, 5321, 2097], 's_0_19': [2024, 5516], 20: [4703, 2258, 4693, 4692, 2259, 2260, 5138, 5139, 1797, 1796, 4704, 1869, 1870, 5004, 5005, 5006], 's_0_20': [4631], 23: [5318, 1753, 5363, 5362, 1553, 1557, 4690, 4689, 4688, 5108, 1554, 1555, 1556], 's_0_23': [1618], 24: [5286, 1273, 5376, 5377, 5378, 5158, 5157, 5156, 2112, 2113, 5380, 5379], 's_0_24': [2053], 25: [4837, 4732, 2441, 2442, 1450, 1451, 1452, 5212, 5217, 5216, 5215, 5214, 5213], 's_0_25': [2187], 26: [5016, 5260, 1932, 5017, 5018, 5019, 4903, 4902, 4901, 4900, 1930, 1931], 's_0_26': [5261], 28: [5047, 4973, 1481, 1480, 1482, 4587, 4586, 4585, 4584, 4583, 1479], 's_0_28': [2138], 30: [1498, 1497, 1496, 1495, 4598, 1538, 1537, 4343, 2183, 2182, 1494, 4227, 4226, 4225, 1852, 4344], 's_0_30': [4211], 31: [5351, 2246, 2245, 1540, 4913, 4915, 2247, 4914, 4916], 's_0_31': [5246], 32: [2093, 5218, 2548, 1957, 4345, 4540, 2547, 2546, 2544, 4603, 4602, 2545, 4601, 2062, 2063], 's_0_32': [4346], 33: [4977, 2303, 2347, 2348, 2349, 4707, 2307, 2306, 2305, 4722, 4721, 2304], 's_0_33': [5036], 34: [5198, 1722, 5304, 1993, 2336, 2337, 5307, 5306, 5305], 's_0_34': [1887, 1888], 39: [5287, 4897, 4512, 5302, 1407, 1406, 1405, 4511, 4510, 4509, 4508, 1404, 1403, 4507], 's_0_39': [4526], 's_0_0': [5471, 2189], 2: [4986, 4506, 4417, 1301, 4404, 4403, 4402, 1300, 1299, 1298], 's_3_2': [1522, 1521], 4: [1911, 1918, 1917, 1912, 1913, 4780, 4720, 1916, 1915, 1914], 's_3_4': [5290], 's_3_6': [5408], 's_3_9': [5422], 10: [1302, 1467, 1782, 5167, 5122, 5168, 5173, 5172, 5171, 5170, 5169], 's_3_10': [5259], 11: [2274, 2003, 1902, 4570, 2004, 5335, 5336, 2052, 2051, 4811, 4810, 2005, 2006, 5020], 's_3_11': [1768, 5334], 's_3_13': [1465], 's_3_14': [4282], 16: [4328, 1627, 1628, 1633, 1632, 1631, 1630, 2094, 4660, 4659, 4658, 1629], 's_3_16': [5333], 17: [1552, 4463, 5397, 5396, 5395, 5394, 5393, 4462, 1433, 1434, 1435, 1436, 5392, 1438, 1437], 's_3_17': [5347], 's_3_18': [1574], 's_3_19': [1783], 's_3_24': [1693], 's_3_25': [4777], 's_3_26': [5032], 's_3_30': [4807], 's_3_32': [1987], 's_3_34': [5425], 35: [1647, 1646, 1318, 2033, 2034, 2035, 4887, 4886, 4885, 1975, 4945, 4944, 4943, 4942, 1316, 1317], 's_3_35': [4958], 36: [4793, 4794, 4737, 4389, 4736, 4735, 4734, 1823, 1824, 1825, 5529, 1829, 1828, 1827, 1826], 's_3_36': [1844, 5439], 's_3_39': [4912], 's_3_3': [4327, 1462], 's_5_2': [1702], 8: [5067, 2397, 2396, 1841, 1525, 4933, 4612, 4613, 1599, 1600, 4932, 4931, 4930, 1373, 4929, 4928], 's_5_8': [1598, 4433], 's_5_9': [4990], 's_5_10': [5185], 's_5_11': [4571], 's_5_12': [1732], 's_5_14': [4541], 15: [5082, 4842, 2378, 4824, 4825, 2379, 4826, 4827, 2383, 2382, 2381, 2380], 's_5_15': [4422, 4423], 's_5_16': [4706], 's_5_19': [5035], 's_5_25': [5200], 27: [2081, 5023, 5022, 5021, 4645, 2048, 4992, 2291, 4991, 5049, 5050, 5051, 2171, 2049, 4766, 2170], 's_5_27': [4946], 29: [2290, 2289, 4480, 4481, 2288, 4269, 4270, 4271, 2287], 's_5_29': [1988], 's_5_30': [4241], 's_5_31': [5066], 's_5_35': [4781], 's_5_36': [1658], 38: [1838, 1927, 1928, 1257, 1256, 1255, 1271, 1270, 4821, 1329, 4479, 4478, 4477, 4476, 1328], 's_5_38': [1853], 's_5_39': [1763], 's_5_5': [4181], 7: [5007, 1778, 2473, 2472, 4464, 2471, 4465, 2470, 2469, 2468, 4467, 4466], 's_6_7': [5428], 's_6_11': [1948], 's_6_12': [5201], 's_6_13': [2578], 's_6_18': [1724], 's_6_19': [2068], 's_6_20': [4962], 's_6_23': [5484], 's_6_24': [1798], 's_6_25': [1737], 's_6_26': [5095, 5096], 's_6_27': [2201], 's_6_31': [5112], 's_6_32': [2533], 's_6_34': [2338], 's_6_36': [5528], 's_6_6': [2608], 1: [4448, 4434, 1807, 4451, 1810, 4450, 4449, 4644, 1809, 1808], 's_9_1': [1945, 4809], 's_9_2': [4957], 's_9_11': [4782], 's_9_13': [1360], 's_9_15': [1990], 's_9_17': [5452], 's_9_19': [5126], 's_9_20': [5137], 21: [4717, 4718, 1660, 1659, 4538, 4569, 4317, 4316, 4315, 4314, 4313, 1687, 1688], 's_9_21': [4838], 's_9_23': [4898], 's_9_24': [1363], 's_9_28': [5077], 's_9_31': [2110], 's_9_33': [4752], 's_9_35': [5317], 's_9_36': [1780], 's_9_39': [5181], 's_9_9': [5541], 's_12_11': [5065, 1946], 's_12_13': [5034, 1901], 's_12_15': [4823], 's_12_16': [4673], 's_12_20': [2141], 's_12_21': [4719], 's_12_23': [1601], 's_12_24': [2111], 's_12_25': [2022], 's_12_31': [5127], 's_12_33': [5186], 's_12_36': [5064], 37: [1285, 1194, 1584, 1676, 1675, 4746, 4747, 1959, 4750, 4749, 4748], 's_12_37': [1719], 's_12_38': [4524], 's_12_12': [4628], 's_13_2': [4881], 's_13_4': [1933, 5470], 's_13_8': [4960], 's_13_11': [5230], 's_13_17': [1963], 's_13_19': [2653], 's_13_23': [1661, 5063], 's_13_26': [1781], 's_13_27': [2622, 2621], 's_13_28': [1510], 's_13_30': [1614, 1615], 's_13_31': [5352], 's_13_32': [5203], 's_13_34': [2368], 's_13_35': [1720], 's_13_36': [5244], 's_13_38': [1240], 's_13_39': [1390], 's_13_13': [5294], 's_14_1': [4359], 's_14_2': [1747], 's_14_4': [4494], 's_14_8': [2440], 's_14_11': [1973], 's_14_15': [4618], 's_14_16': [4298], 's_14_17': [1463], 's_14_19': [5338], 's_14_21': [2107], 's_14_24': [5143], 's_14_28': [4588], 's_14_29': [2212], 's_14_30': [4312], 's_14_32': [4543], 's_14_35': [4888, 4873], 's_14_36': [1597, 4388], 's_14_38': [1448], 's_14_39': [2407, 2408], 's_14_14': [4371], 's_18_2': [4896], 's_18_7': [2485], 's_18_8': [4491], 's_18_11': [2020], 's_18_15': [1795], 's_18_19': [4840], 's_18_20': [2275], 's_18_21': [1645], 's_18_23': [1754], 's_18_27': [2425], 's_18_28': [4582], 's_18_31': [1765], 's_18_33': [2200], 's_18_36': [5574], 's_18_38': [4956], 's_18_18': [1694], 's_19_7': [2488], 's_19_10': [2667, 2668], 's_19_15': [2398], 's_19_20': [2080], 's_19_23': [1663], 's_19_25': [2427], 's_19_26': [2038, 5291], 's_19_36': [1813], 's_19_19': [5531], 's_20_1': [4674], 's_20_4': [4839], 's_20_7': [2257], 's_20_15': [4753, 2424], 's_20_16': [4643, 1749], 22: [1707, 2353, 5197, 2501, 2502, 5278, 5271, 5272, 1587, 5273, 5274, 5275, 5277, 5276], 's_20_22': [1752], 's_20_23': [1779], 's_20_25': [1602], 's_20_26': [5184], 's_20_28': [2364], 's_20_29': [4646], 's_20_30': [1644], 's_20_33': [2319], 's_20_34': [1617], 's_20_36': [5094], 's_20_37': [1884], 's_20_20': [2514], 's_23_1': [1854], 's_23_4': [1944], 's_23_10': [5107], 's_23_16': [4691], 's_23_21': [4733], 's_23_22': [5258], 's_23_26': [1616], 's_23_27': [1989], 's_23_30': [4627], 's_23_36': [5469], 's_23_37': [4642], 's_23_38': [4492], 's_23_39': [1453], 's_23_23': [1678], 's_24_8': [1856, 1857, 5155], 's_24_11': [1978], 's_24_16': [1648], 's_24_17': [1528], 's_24_22': [1212], 's_24_25': [2292], 's_24_27': [2426], 's_24_32': [2532], 's_24_34': [1858], 's_24_35': [5421], 's_24_38': [5301], 's_24_39': [1303], 's_24_24': [1123], 's_25_7': [5083], 's_25_8': [1449], 's_25_10': [1962], 's_25_11': [2067], 's_25_15': [5202], 's_25_21': [1374], 's_25_22': [5053], 's_25_26': [1466], 's_25_30': [5182], 's_25_31': [5002], 's_25_32': [5233], 's_25_33': [2322, 5292], 's_25_37': [1359], 's_25_39': [4792], 's_25_25': [1662], 's_26_4': [4795], 's_26_8': [4975], 's_26_10': [1947], 's_26_11': [5125, 1961], 's_26_17': [2008], 's_26_22': [2023], 's_26_27': [2561], 's_26_28': [1511], 's_26_31': [1541], 's_26_32': [2531], 's_26_34': [1721], 's_26_35': [2410], 's_26_37': [1286], 's_26_38': [5031], 's_26_39': [1391], 's_26_26': [5110], 's_28_1': [1748], 's_28_10': [5227], 's_28_16': [4763], 's_28_22': [1586], 's_28_29': [2243], 's_28_31': [4987], 's_28_33': [4572], 's_28_35': [5153], 's_28_36': [4778], 's_28_37': [1958], 's_28_38': [1718], 's_28_39': [2108], 's_28_28': [2184], 's_30_1': [4224], 's_30_2': [1417, 4297], 's_30_4': [4210], 's_30_8': [4597, 1314], 's_30_10': [5242], 's_30_17': [5407], 's_30_22': [5288], 's_30_32': [2061], 's_30_33': [4212], 's_30_35': [2032], 's_30_37': [1539], 's_30_38': [1837], 's_30_39': [5092], 's_30_30': [4228], 's_31_4': [1900], 's_31_10': [2231], 's_31_22': [5337], 's_31_27': [4841], 's_31_33': [2308], 's_31_35': [1991], 's_31_36': [4899], 's_31_37': [1960], 's_31_31': [2186], 's_32_1': [1898], 's_32_7': [4708], 's_32_8': [4948], 's_32_10': [5188], 's_32_15': [4573], 's_32_16': [2019], 's_32_21': [1972], 's_32_22': [5263], 's_32_29': [2017, 4256, 2091], 's_32_35': [4360], 's_32_38': [4405], 's_32_39': [2273], 's_32_32': [2529], 's_33_1': [4437, 2227], 's_33_7': [4723], 's_33_8': [2351], 's_33_15': [2394, 2393, 4362], 's_33_16': [4661], 's_33_21': [2362], 's_33_27': [2230], 's_33_29': [4617], 's_33_34': [2321], 's_33_35': [2395], 's_33_36': [2109], 's_33_39': [4542, 2318], 's_33_33': [2346], 's_34_7': [5308], 's_34_8': [2366, 5052], 's_34_10': [1767], 's_34_11': [2082], 's_34_16': [5348], 's_34_17': [1723], 's_34_35': [2335], 's_34_34': [5262], 's_39_1': [1868], 's_39_2': [4806], 's_39_7': [2333], 's_39_8': [1358], 's_39_10': [5152], 's_39_11': [1883], 's_39_16': [4523], 's_39_17': [4972], 's_39_21': [1523, 4537], 's_39_22': [1347], 's_39_36': [1673], 's_39_39': [4626], 's_2_1': [4446, 4447], 's_2_8': [4641], 's_2_10': [1346, 5061], 's_2_16': [1567], 's_2_17': [4461], 's_2_21': [4716], 's_2_35': [4911], 's_2_36': [1762], 's_2_37': [1193], 's_2_2': [5046, 5045], 's_4_17': [1903], 's_4_27': [4525], 's_4_29': [4284], 's_4_35': [1974], 's_4_36': [5544], 's_4_37': [4705], 's_4_8': [1840], 's_4_10': [5245, 2007], 's_4_7': [1897], 's_4_11': [4390], 's_4_22': [5140, 1977], 's_4_38': [4435], 's_4_4': [4119], 's_10_15': [2352], 's_10_17': [1422, 5257], 's_10_27': [2636], 's_10_36': [5289], 's_10_8': [1842], 's_10_7': [2487], 's_10_22': [2517], 's_10_10': [5174], 's_11_15': [2140], 's_11_16': [2079], 's_11_21': [2002], 's_11_27': [4630], 's_11_29': [4676], 's_11_22': [2188], 's_11_38': [1839], 's_11_11': [4555], 's_16_1': [4329], 's_16_15': [1899], 's_16_17': [1643], 's_16_21': [4358], 's_16_35': [5123], 's_16_16': [4178], 's_17_1': [1717], 's_17_15': [5382], 's_17_8': [4522], 's_17_36': [1873], 's_17_17': [2233], 's_35_1': [2018], 's_35_15': [2320], 's_35_27': [4675], 's_35_29': [4872], 's_35_22': [5243], 's_35_37': [4988], 's_35_35': [5076], 's_36_1': [1794], 's_36_15': [2350], 's_36_21': [1524], 's_36_27': [2185], 's_36_29': [1822], 's_36_7': [4539], 's_36_37': [1764], 's_36_36': [5589, 1784], 's_8_21': [1464, 4567, 4568, 1568], 's_8_27': [5097], 's_8_29': [4947], 's_8_37': [1389], 's_8_8': [5247], 's_15_1': [4452], 's_15_7': [4812], 's_15_29': [4377, 2302], 's_15_15': [2377], 's_27_1': [2047], 's_27_7': [2486], 's_27_22': [4993], 's_27_37': [4751], 's_27_27': [2651], 's_29_1': [2168], 's_29_21': [2197], 's_29_7': [4482], 's_29_38': [1942], 's_29_29': [2046], 's_38_21': [1703], 's_38_37': [4791], 's_38_7': [1793], 's_38_22': [5256], 's_38_38': [4971], 's_7_21': [2467], 's_7_22': [5248], 's_7_7': [5458], 's_1_21': [4599], 's_1_37': [4779], 's_1_1': [1867], 's_21_37': [1674], 's_21_21': [2482], 's_37_37': [4745], 's_22_22': [5303]}</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0005675105485232067</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.001017566778056334</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>{0: [1617, 5468, 1619, 1618], 1: [1934, 5182, 1933, 5183, 5184, 1932], 2: [1767, 5258, 1813, 5259], 6: [5633, 1604, 1602, 1603], 8: [5348, 1649, 1647, 1648], 10: [5227, 1482, 1484, 5333, 1483], 14: [5422, 5425, 5423, 5424], 15: [2053, 5440, 5437, 5438, 5439], 16: [1814, 5513, 5515, 5514], 18: [1469, 5574, 5572, 5573], 25: [1858, 1859, 5498, 5499, 5500], 26: [5469, 1709, 1707, 1708], 27: [1528, 5410, 5407, 5408, 5409], 28: [2068, 5455, 5453, 5454], 29: [5559, 5558, 1634, 1632, 1633], 32: [5603, 1572, 1573, 1574], 33: [1559, 1558, 5108, 1556, 1557], 34: [5228, 5229, 1887, 1994, 1993, 5305], 36: [1768, 5364, 5363], 37: [5273, 1873, 1872, 5274], 38: [5618, 5485, 1694, 5484, 1693], 40: [5167, 5168, 1754, 1753, 1752], 3: [1962, 1902, 5318, 1963, 5319, 5320], 4: [1949, 1948, 5335, 1678, 5334], 11: [1736, 1739, 1738, 5197, 5198, 1737], 12: [5153, 5154, 1979, 1978, 5155, 1977], 19: [1919, 1918, 5213, 1917, 5214], 20: [5362, 5078, 1541, 1423, 5347, 1542], 21: [5590, 5587, 5588, 1888, 1889, 5589], 23: [1827, 5288, 5289, 1829, 1828], 24: [5392, 5393, 5395, 5394], 31: [1844, 1843, 5243, 1842, 5244], 35: [5260, 5604, 2008, 2009, 5605], 7: [5380, 5379, 5378, 5377, 1513], 17: [1784, 1783, 1782, 5138, 5139], 39: [5648, 5649, 1722, 1723, 1724], 5: [5530, 1903, 5528, 5529], 9: [5304, 1797, 5634, 1799, 1798], 13: [5545, 5544, 5542, 1769, 5543], 22: [5212, 1499, 1497, 5303, 1498], 30: [5093, 1662, 1664, 1663]}</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.04878048780487805</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.02695152446112598</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>{0: [1617, 5468, 1619, 1618], 1: [1934, 5182, 1933, 5183, 5184, 1932], 2: [1767, 5258, 1813, 5259], 6: [5633, 1604, 1602, 1603], 8: [5348, 1649, 1647, 1648], 10: [5227, 1482, 1484, 5333, 1483], 14: [5422, 5425, 5423, 5424], 15: [2053, 5440, 5437, 5438, 5439], 16: [1814, 5513, 5515, 5514], 18: [1469, 5574, 5572, 5573], 25: [1858, 1859, 5498, 5499, 5500], 26: [5469, 1709, 1707, 1708], 27: [1528, 5410, 5407, 5408, 5409], 28: [2068, 5455, 5453, 5454], 29: [5559, 5558, 1634, 1632, 1633], 32: [5603, 1572, 1573, 1574], 33: [1559, 1558, 5108, 1556, 1557], 34: [5228, 5229, 1887, 1994, 1993, 5305], 36: [1768, 5364, 5363], 37: [5273, 1873, 1872, 5274], 38: [5618, 5485, 1694, 5484, 1693], 40: [5167, 5168, 1754, 1753, 1752], 3: [1962, 1902, 5318, 1963, 5319, 5320], 4: [1949, 1948, 5335, 1678, 5334], 11: [1736, 1739, 1738, 5197, 5198, 1737], 12: [5153, 5154, 1979, 1978, 5155, 1977], 19: [1919, 1918, 5213, 1917, 5214], 20: [5362, 5078, 1541, 1423, 5347, 1542], 21: [5590, 5587, 5588, 1888, 1889, 5589], 23: [1827, 5288, 5289, 1829, 1828], 24: [5392, 5393, 5395, 5394], 31: [1844, 1843, 5243, 1842, 5244], 35: [5260, 5604, 2008, 2009, 5605], 7: [5380, 5379, 5378, 5377, 1513], 17: [1784, 1783, 1782, 5138, 5139], 39: [5648, 5649, 1722, 1723, 1724], 5: [5530, 1903, 5528, 5529], 9: [5304, 1797, 5634, 1799, 1798], 13: [5545, 5544, 5542, 1769, 5543], 22: [5212, 1499, 1497, 5303, 1498], 30: [5093, 1662, 1664, 1663]}</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0.04878048780487805</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.02695152446112598</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>{0: [1612, 4258, 1972, 4373, 4375, 4376, 2223, 2224, 3852, 2345, 3942, 2435, 4377, 2317, 4287, 4374, 2436], 1: [1756, 2241, 4166, 3203, 3204, 4167, 4168, 2556, 2555, 2554, 2553, 2552, 2551, 3118, 3117, 3116, 3115, 1905], 's_0_1': [2256, 4257], 2: [1748, 3653, 3398, 1651, 1652, 1653, 1654, 4493, 1658, 1657, 1656, 1655], 's_0_2': [4358], 6: [4539, 1763, 1762, 1761, 4103, 1636, 1637, 1638, 1639, 1640, 1641], 's_0_6': [4313], 8: [4253, 3488, 3899, 1627, 1626, 1625, 1624, 2645, 2644, 2643, 2642, 3388, 3387, 3386, 3385, 3384, 3383, 1622, 1623], 's_0_8': [1628], 10: [2415, 2423, 2422, 2421, 2416, 2417, 2418, 2419, 2420], 's_0_10': [4063], 14: [2325, 3147, 2191, 3821, 2198, 2192, 2193, 2197, 2196, 3731, 2194, 2195], 's_0_14': [3941], 15: [3613, 2342, 3417, 3909, 2058, 2059, 2447, 2448, 2449, 1955, 3910, 3911, 3912], 's_0_15': [2375], 16: [1771, 1772, 3997, 1370, 1369, 1368, 1367, 3427, 3428, 3429, 2512, 2511, 2510, 2509, 2508, 2507, 3433, 3432, 3431, 4108, 3430], 's_0_16': [2542, 4348], 18: [4121, 4193, 4194, 4195, 2347, 2283, 2284, 2285, 2286, 4196, 4197], 's_0_18': [3972], 25: [2032, 2033, 2212, 3418, 2657, 2658, 2659, 4508, 2660, 2661, 4509, 4510, 4511, 2213, 4392, 4393, 4394, 2662], 's_0_25': [4378, 4379], 26: [3967, 4284, 4090, 1940, 1943, 1942, 1941, 1520, 4087, 4088, 4089], 's_0_26': [1927], 27: [1805, 1547, 2390, 3458, 1804, 1803, 3459, 2389, 3457, 2388, 3462, 3460, 3461], 's_0_27': [2222], 28: [3733, 1686, 3657, 4254, 4255, 1957, 4270, 4271, 1822, 4272, 4273, 2601, 2600, 2599, 2598, 3658], 's_0_28': [2302], 29: [4076, 2092, 3763, 2178, 2179, 2180, 3956, 2614, 2615, 4079, 4078, 4448, 4077, 2270, 2271, 2272, 4449, 4450, 4451], 's_0_29': [2257], 32: [4165, 1971, 2041, 2042, 3577, 3578, 4210, 4209, 1731, 1730, 1729, 1728, 3717, 1758, 3609, 3610, 2043, 3716], 's_0_32': [2238], 33: [3714, 1744, 1745, 1746, 4223, 4224, 4228, 4227, 4226, 4225], 's_0_33': [2451], 34: [2130, 1445, 1444, 1443, 1442, 1441, 3187, 1545, 3746, 3747, 2583, 2582, 2581, 2580, 3073, 3068, 3069, 3748, 3070, 3071, 3072], 's_0_34': [2314], 36: [4571, 3850, 3131, 3130, 1996, 1997, 1998, 1999, 2000, 4554, 4555, 2063, 2062, 2061, 2060, 3970], 's_0_36': [1732, 1733], 37: [1863, 1834, 3685, 3686, 2209, 2296, 2297, 2298, 3687], 's_0_37': [3672], 38: [3656, 1460, 1461, 4237, 4238, 4239, 2088, 2089, 1462, 2090, 1459, 2091, 4241, 4240], 's_0_38': [1777], 40: [1532, 3562, 4482, 4481, 1563, 1564, 2183, 2182, 1565, 4028, 4029, 4030, 2181, 4031], 's_0_40': [4361], 's_0_0': [2437], 3: [2568, 2076, 4134, 4135, 4064, 4136, 2254, 3807, 3808, 2569, 2361, 4137, 4138, 2570, 2571], 's_1_3': [2466], 4: [4003, 3639, 1398, 2480, 2479, 2478, 1907, 3517, 3518, 1743, 3519, 3523, 3522, 3520, 3521], 's_1_4': [1906], 's_1_6': [3188], 's_1_8': [3884], 11: [3309, 4133, 3313, 3312, 2162, 1596, 1595, 1594, 1593, 3548, 3549, 1848, 1846, 1847, 3311, 3310, 3325], 's_1_11': [2161], 12: [3913, 2495, 2330, 4043, 4044, 4045, 1821, 4048, 4047, 4046], 's_1_12': [2526], 's_1_14': [2242, 4331], 's_1_15': [3478], 's_1_16': [3373], 's_1_18': [2346], 19: [4244, 2572, 4183, 4182, 2316, 1696, 2315, 3897, 3896, 3895, 3353, 1894, 1893, 1892, 1890, 3354, 3355, 1891], 's_1_19': [3324], 20: [3878, 2122, 4106, 4105, 2121, 3879, 3880, 3881, 2120], 's_1_20': [4181], 21: [2463, 2462, 2461, 1793, 3296, 2101, 1785, 1792, 1791, 1790, 3237, 3236, 3235, 3234, 1789, 1788, 1787, 1786], 's_1_21': [2341], 23: [1371, 3419, 2687, 3494, 2703, 2704, 2705, 2706, 2707, 2708, 4147, 4149, 4424, 4423, 4422, 4421, 4420, 4419, 4418, 1537, 1536, 4148], 's_1_23': [3854], 24: [1591, 2086, 3278, 3987, 2360, 2359, 2358, 2357, 3279, 3280, 3281, 3282], 's_1_24': [1936], 31: [4061, 3745, 3326, 2011, 2012, 2013, 2014, 2017, 2016, 2015], 's_1_31': [2026], 's_1_32': [1757], 35: [3534, 1818, 3564, 3565, 2718, 3569, 2133, 3566, 3568, 3567], 's_1_35': [3553], 's_1_36': [1981], 's_1_1': [2220, 3177, 3178, 3179], 's_2_4': [1712], 7: [2539, 3794, 3793, 1864, 3792, 3791, 3925, 1472, 1473, 1474, 2074, 3787, 3788, 1684, 2719, 3923, 3924], 's_2_7': [3908], 's_2_12': [4059], 17: [3823, 1477, 4177, 3892, 3703, 1431, 1430, 1429, 1428, 1427, 3412, 3413, 3414, 3415, 3416, 2494, 2267, 2268, 3702], 's_2_17': [1697], 's_2_19': [3369, 3368], 's_2_23': [4463, 4462], 's_2_24': [1667], 's_2_25': [1613], 's_2_29': [1598], 's_2_32': [3684], 's_2_33': [1672], 's_2_35': [3489], 39: [1860, 3175, 3176, 3098, 3099, 3100, 3101, 2145, 3761, 2149, 2148, 2147, 2146], 's_2_39': [3113], 's_2_40': [3623], 's_2_2': [3129], 5: [1868, 1876, 4014, 1867, 1866, 1881, 1877, 1878, 1879, 1880], 's_6_5': [1883, 4585], 9: [1952, 1953, 3670, 3982, 3983, 3984, 1853, 1852, 1851, 1849, 3866, 3865, 1850], 's_6_9': [4329], 's_6_12': [1760], 13: [2613, 3629, 1561, 2733, 2732, 2731, 3269, 3268, 3267, 3266, 3265, 3264, 3758, 3757, 1579, 1578, 1577, 1576, 3263], 's_6_13': [3308], 's_6_16': [3443], 's_6_19': [3218], 22: [2077, 2227, 3833, 3835, 3834, 4302, 4301, 4300, 1835, 1717, 4298, 4299, 1836, 1837], 's_6_22': [4434], 's_6_25': [4569, 4570, 1898], 's_6_27': [3473], 's_6_28': [4163], 's_6_29': [1778], 's_6_32': [3743], 's_6_36': [1809], 's_6_39': [3143, 1590], 's_6_40': [3608], 's_6_6': [1764], 's_8_3': [3509], 's_8_4': [3563], 's_8_7': [3338], 's_8_12': [3988, 3989], 's_8_13': [2626], 's_8_16': [2522], 's_8_17': [1937], 's_8_19': [1607], 's_8_22': [1642], 's_8_23': [3914, 3824, 2750, 2751], 's_8_25': [2492], 's_8_28': [3598], 's_8_29': [3974, 2675], 30: [3806, 3805, 1553, 3804, 3803, 3637, 1489, 3772, 1552, 1551, 1550, 3863, 1549], 's_8_30': [4343], 's_8_33': [4208], 's_8_34': [2596], 's_8_37': [2282], 's_8_8': [4019, 2765], 's_10_4': [3762], 's_10_7': [2404], 's_10_11': [2401], 's_10_12': [3898], 's_10_15': [3853], 's_10_17': [3718], 's_10_21': [3297], 's_10_22': [2406, 2407], 's_10_23': [4438], 's_10_24': [3582], 's_10_25': [2287, 4332], 's_10_27': [3673], 's_10_29': [4362], 's_10_33': [2331, 4092], 's_10_34': [3732], 's_10_40': [2408], 's_10_10': [3358], 's_14_3': [3926], 's_14_7': [2134], 's_14_15': [2165], 's_14_17': [3507], 's_14_20': [3971], 's_14_21': [2207], 's_14_22': [3836], 's_14_25': [4526], 's_14_27': [2208], 's_14_28': [4286], 's_14_29': [4466], 's_14_30': [2104], 's_14_32': [2164], 's_14_34': [2253], 's_14_35': [3596], 's_14_37': [3342], 's_14_39': [3476], 's_14_14': [4212], 's_15_4': [3883], 's_15_5': [4015], 's_15_7': [1985], 's_15_9': [3985], 's_15_11': [3401, 3402], 's_15_16': [3538], 's_15_18': [2300], 's_15_19': [2150], 's_15_20': [2105], 's_15_22': [3820], 's_15_24': [3597], 's_15_26': [4000], 's_15_27': [3508], 's_15_28': [3643], 's_15_31': [1954], 's_15_32': [1956], 's_15_35': [2057], 's_15_40': [1925], 's_15_15': [3640], 's_16_4': [1397], 's_16_5': [3444], 's_16_7': [1354], 's_16_12': [1476], 's_16_17': [3502], 's_16_19': [4198], 's_16_23': [2513], 's_16_25': [2497], 's_16_26': [4086], 's_16_28': [3583], 's_16_29': [4093], 's_16_30': [1353], 's_16_31': [2027], 's_16_33': [4213], 's_16_34': [3862], 's_16_35': [2432], 's_16_37': [3447], 's_16_40': [1505], 's_16_16': [3726], 's_18_4': [3537], 's_18_11': [1611], 's_18_17': [3627], 's_18_19': [4062], 's_18_22': [4317], 's_18_26': [2106], 's_18_29': [4017], 's_18_31': [2151], 's_18_33': [2377], 's_18_38': [1987], 's_18_39': [2299], 's_18_40': [1566], 's_18_18': [4347], 's_25_9': [1838], 's_25_12': [3958, 2525], 's_25_13': [2656], 's_25_19': [4288], 's_25_22': [4179, 1807, 1808, 4524], 's_25_26': [4525], 's_25_30': [1538], 's_25_31': [2018], 's_25_33': [4229], 's_25_34': [3344], 's_25_35': [2627], 's_25_36': [4572, 4512, 2333], 's_25_40': [2378, 4497, 2453], 's_25_25': [2393, 2394], 's_26_3': [1986], 's_26_5': [4479], 's_26_7': [1519], 's_26_9': [1715], 's_26_11': [4058], 's_26_21': [4314], 's_26_28': [4390], 's_26_29': [1928], 's_26_31': [2045], 's_26_34': [3937], 's_26_36': [4540], 's_26_38': [4102], 's_26_26': [1944], 's_27_4': [2163], 's_27_5': [3594], 's_27_7': [1412, 3382], 's_27_9': [3669], 's_27_13': [1546, 3232], 's_27_19': [1742], 's_27_20': [3894], 's_27_21': [3774], 's_27_28': [3642], 's_27_29': [3778, 3777, 2374], 's_27_30': [1548], 's_27_31': [3744], 's_27_35': [2028], 's_27_36': [3849], 's_27_37': [3688], 's_27_40': [1517], 's_27_27': [3957], 's_28_3': [2631], 's_28_5': [4269], 's_28_7': [3659], 's_28_9': [4405], 's_28_11': [1701], 's_28_12': [3928], 's_28_13': [2734, 3734], 's_28_17': [2433], 's_28_19': [2557], 's_28_21': [4344, 1747], 's_28_29': [2616], 's_28_32': [4180, 2046], 's_28_36': [4345], 's_28_37': [2313], 's_28_28': [2002], 's_29_3': [4002], 's_29_5': [4464], 's_29_9': [3671], 's_29_13': [3809, 2747, 2748, 2749], 's_29_17': [4033, 4032, 2465, 2464], 's_29_20': [2240], 's_29_21': [4389, 1687], 's_29_23': [1912], 's_29_24': [2255], 's_29_32': [3491], 's_29_33': [2301], 's_29_34': [2524], 's_29_36': [2047], 's_29_37': [3641], 's_29_38': [3986], 's_29_40': [2288], 's_29_29': [4452], 's_32_3': [2344], 's_32_7': [1699, 1698], 's_32_11': [1668], 's_32_12': [3999], 's_32_13': [3250], 's_32_22': [1716], 's_32_24': [3220], 's_32_31': [3701], 's_32_33': [1911], 's_32_34': [3592], 's_32_38': [3595], 's_32_39': [3341], 's_32_32': [3576], 's_33_3': [2226], 's_33_7': [3864], 's_33_13': [1759], 's_33_17': [4222], 's_33_20': [3938, 1670], 's_33_21': [3819], 's_33_31': [2136], 's_33_38': [1521], 's_33_40': [2166, 2167], 's_33_33': [3773], 's_34_3': [3719], 's_34_4': [1456, 1457, 1458], 's_34_7': [1471], 's_34_9': [3877, 1400, 4042], 's_34_13': [1530, 1531], 's_34_17': [1426], 's_34_19': [3085], 's_34_21': [3238], 's_34_23': [3539, 2612], 's_34_30': [1446, 4117], 's_34_31': [2010], 's_34_36': [1995], 's_34_37': [2295], 's_34_38': [3697], 's_34_39': [1950], 's_34_40': [3952], 's_34_34': [1575, 3128], 's_36_3': [4256], 's_36_4': [3445], 's_36_9': [1854], 's_36_11': [3340], 's_36_13': [2176], 's_36_20': [4315], 's_36_23': [2153, 4586], 's_36_24': [1982], 's_36_30': [1939], 's_36_31': [3625], 's_36_38': [4120], 's_36_39': [3146], 's_36_40': [4480], 's_36_36': [2115, 3040], 's_37_4': [2328], 's_37_5': [3715], 's_37_7': [2073], 's_37_9': [1908], 's_37_19': [2210], 's_37_30': [1984], 's_37_31': [3327], 's_37_39': [3221], 's_37_37': [1938], 's_38_7': [3652], 's_38_9': [1355, 1356], 's_38_13': [1969, 3775, 3700, 3699, 1713, 3728, 3727], 's_38_17': [4192], 's_38_19': [3655], 's_38_23': [4162], 's_38_30': [4312], 's_38_31': [3730], 's_38_35': [3626], 's_38_39': [3851], 's_38_40': [3922], 's_38_38': [1326], 's_40_3': [4211], 's_40_4': [1488], 's_40_5': [1865], 's_40_9': [1535], 's_40_11': [3533, 1608], 's_40_13': [1669, 3638], 's_40_23': [2483], 's_40_30': [3683], 's_40_40': [2318], 's_3_4': [2481], 's_3_5': [4119], 's_3_7': [3704, 2674], 's_3_12': [2075], 's_3_17': [3838], 's_3_19': [4122], 's_3_20': [2001], 's_3_22': [2362], 's_3_23': [4139], 's_3_24': [3882], 's_3_31': [2211, 4151, 4150], 's_3_35': [3524], 's_3_39': [3776], 's_3_3': [4152], 's_4_5': [3624], 's_4_7': [1399], 's_4_9': [1968], 's_4_11': [3535], 's_4_12': [3973], 's_4_17': [2493], 's_4_19': [3927], 's_4_21': [3654], 's_4_30': [1383], 's_4_35': [2373], 's_4_39': [3536], 's_4_4': [1337], 's_11_5': [3505], 's_11_7': [3698, 1609], 's_11_9': [1923], 's_11_12': [1671], 's_11_13': [2386, 2387, 3328], 's_11_17': [3547, 1413, 1414, 1415, 1416, 4132], 's_11_19': [3248, 3249], 's_11_20': [1610], 's_11_21': [1966], 's_11_22': [1597], 's_11_24': [2326], 's_11_30': [3713], 's_11_31': [2116], 's_11_35': [1833], 's_11_11': [1845], 's_12_5': [1806], 's_12_9': [1685], 's_12_17': [2329], 's_12_20': [2225], 's_12_21': [4104], 's_12_22': [1910, 4075], 's_12_23': [4049], 's_12_24': [2405], 's_12_30': [1491, 4073], 's_12_31': [2031], 's_12_12': [2541], 's_19_5': [3219], 's_19_13': [1726], 's_19_21': [3189], 's_19_22': [4303], 's_19_23': [2723, 2722], 's_19_24': [1802], 's_19_31': [1909, 3790], 's_19_35': [3579], 's_19_39': [3160], 's_19_19': [4214, 2676], 's_20_22': [2107], 's_20_30': [1504], 's_20_31': [3940], 's_20_20': [4001], 's_21_9': [3954], 's_21_13': [2371], 's_21_17': [2102], 's_21_22': [4359, 1823], 's_21_24': [1861], 's_21_30': [3729, 1819], 's_21_35': [3504], 's_21_39': [2100, 2981], 's_21_21': [3009, 3010], 's_23_5': [4435], 's_23_7': [2720], 's_23_9': [2123, 4494, 4495], 's_23_13': [3599], 's_23_22': [2452], 's_23_30': [4388], 's_23_35': [3554], 's_23_23': [2702], 's_24_5': [3294], 's_24_17': [2266], 's_24_31': [2071], 's_24_35': [2343], 's_24_39': [1921], 's_24_24': [3492], 's_31_7': [2119], 's_31_9': [4060], 's_31_13': [2056], 's_31_17': [3400], 's_31_39': [3506, 2117, 3446], 's_31_31': [3295], 's_35_7': [2689, 2688], 's_35_13': [3479], 's_35_39': [3611], 's_35_35': [2072], 's_7_5': [1775], 's_7_9': [3789], 's_7_13': [2776, 2777, 2778, 3749], 's_7_17': [3442], 's_7_22': [3969, 1820], 's_7_39': [2269], 's_7_7': [3277], 's_17_5': [3399], 's_17_9': [1385], 's_17_13': [1562], 's_17_17': [1295], 's_39_9': [3759, 3760], 's_39_39': [3041], 's_5_5': [1869], 's_9_22': [1924], 's_9_30': [1490], 's_9_9': [3981], 's_13_22': [1714], 's_13_30': [3848], 's_13_13': [2671], 's_22_22': [1718, 4614], 's_30_30': [4627]}</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0005571142284569137</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.00101537372986994</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>{0: [1612, 4258, 1972, 4373, 4375, 4376, 2223, 2224, 3852, 2345, 3942, 2435, 4377, 2317, 4287, 4374, 2436], 1: [1756, 2241, 4166, 3203, 3204, 4167, 4168, 2556, 2555, 2554, 2553, 2552, 2551, 3118, 3117, 3116, 3115, 1905], 's_0_1': [2256, 4257], 2: [1748, 3653, 3398, 1651, 1652, 1653, 1654, 4493, 1658, 1657, 1656, 1655], 's_0_2': [4358], 6: [4539, 1763, 1762, 1761, 4103, 1636, 1637, 1638, 1639, 1640, 1641], 's_0_6': [4313], 8: [4253, 3488, 3899, 1627, 1626, 1625, 1624, 2645, 2644, 2643, 2642, 3388, 3387, 3386, 3385, 3384, 3383, 1622, 1623], 's_0_8': [1628], 10: [2415, 2423, 2422, 2421, 2416, 2417, 2418, 2419, 2420], 's_0_10': [4063], 14: [2325, 3147, 2191, 3821, 2198, 2192, 2193, 2197, 2196, 3731, 2194, 2195], 's_0_14': [3941], 15: [3613, 2342, 3417, 3909, 2058, 2059, 2447, 2448, 2449, 1955, 3910, 3911, 3912], 's_0_15': [2375], 16: [1771, 1772, 3997, 1370, 1369, 1368, 1367, 3427, 3428, 3429, 2512, 2511, 2510, 2509, 2508, 2507, 3433, 3432, 3431, 4108, 3430], 's_0_16': [2542, 4348], 18: [4121, 4193, 4194, 4195, 2347, 2283, 2284, 2285, 2286, 4196, 4197], 's_0_18': [3972], 25: [2032, 2033, 2212, 3418, 2657, 2658, 2659, 4508, 2660, 2661, 4509, 4510, 4511, 2213, 4392, 4393, 4394, 2662], 's_0_25': [4378, 4379], 26: [3967, 4284, 4090, 1940, 1943, 1942, 1941, 1520, 4087, 4088, 4089], 's_0_26': [1927], 27: [1805, 1547, 2390, 3458, 1804, 1803, 3459, 2389, 3457, 2388, 3462, 3460, 3461], 's_0_27': [2222], 28: [3733, 1686, 3657, 4254, 4255, 1957, 4270, 4271, 1822, 4272, 4273, 2601, 2600, 2599, 2598, 3658], 's_0_28': [2302], 29: [4076, 2092, 3763, 2178, 2179, 2180, 3956, 2614, 2615, 4079, 4078, 4448, 4077, 2270, 2271, 2272, 4449, 4450, 4451], 's_0_29': [2257], 32: [4165, 1971, 2041, 2042, 3577, 3578, 4210, 4209, 1731, 1730, 1729, 1728, 3717, 1758, 3609, 3610, 2043, 3716], 's_0_32': [2238], 33: [3714, 1744, 1745, 1746, 4223, 4224, 4228, 4227, 4226, 4225], 's_0_33': [2451], 34: [2130, 1445, 1444, 1443, 1442, 1441, 3187, 1545, 3746, 3747, 2583, 2582, 2581, 2580, 3073, 3068, 3069, 3748, 3070, 3071, 3072], 's_0_34': [2314], 36: [4571, 3850, 3131, 3130, 1996, 1997, 1998, 1999, 2000, 4554, 4555, 2063, 2062, 2061, 2060, 3970], 's_0_36': [1732, 1733], 37: [1863, 1834, 3685, 3686, 2209, 2296, 2297, 2298, 3687], 's_0_37': [3672], 38: [3656, 1460, 1461, 4237, 4238, 4239, 2088, 2089, 1462, 2090, 1459, 2091, 4241, 4240], 's_0_38': [1777], 40: [1532, 3562, 4482, 4481, 1563, 1564, 2183, 2182, 1565, 4028, 4029, 4030, 2181, 4031], 's_0_40': [4361], 's_0_0': [2437], 3: [2568, 2076, 4134, 4135, 4064, 4136, 2254, 3807, 3808, 2569, 2361, 4137, 4138, 2570, 2571], 's_1_3': [2466], 4: [4003, 3639, 1398, 2480, 2479, 2478, 1907, 3517, 3518, 1743, 3519, 3523, 3522, 3520, 3521], 's_1_4': [1906], 's_1_6': [3188], 's_1_8': [3884], 11: [3309, 4133, 3313, 3312, 2162, 1596, 1595, 1594, 1593, 3548, 3549, 1848, 1846, 1847, 3311, 3310, 3325], 's_1_11': [2161], 12: [3913, 2495, 2330, 4043, 4044, 4045, 1821, 4048, 4047, 4046], 's_1_12': [2526], 's_1_14': [2242, 4331], 's_1_15': [3478], 's_1_16': [3373], 's_1_18': [2346], 19: [4244, 2572, 4183, 4182, 2316, 1696, 2315, 3897, 3896, 3895, 3353, 1894, 1893, 1892, 1890, 3354, 3355, 1891], 's_1_19': [3324], 20: [3878, 2122, 4106, 4105, 2121, 3879, 3880, 3881, 2120], 's_1_20': [4181], 21: [2463, 2462, 2461, 1793, 3296, 2101, 1785, 1792, 1791, 1790, 3237, 3236, 3235, 3234, 1789, 1788, 1787, 1786], 's_1_21': [2341], 23: [1371, 3419, 2687, 3494, 2703, 2704, 2705, 2706, 2707, 2708, 4147, 4149, 4424, 4423, 4422, 4421, 4420, 4419, 4418, 1537, 1536, 4148], 's_1_23': [3854], 24: [1591, 2086, 3278, 3987, 2360, 2359, 2358, 2357, 3279, 3280, 3281, 3282], 's_1_24': [1936], 31: [4061, 3745, 3326, 2011, 2012, 2013, 2014, 2017, 2016, 2015], 's_1_31': [2026], 's_1_32': [1757], 35: [3534, 1818, 3564, 3565, 2718, 3569, 2133, 3566, 3568, 3567], 's_1_35': [3553], 's_1_36': [1981], 's_1_1': [2220, 3177, 3178, 3179], 's_2_4': [1712], 7: [2539, 3794, 3793, 1864, 3792, 3791, 3925, 1472, 1473, 1474, 2074, 3787, 3788, 1684, 2719, 3923, 3924], 's_2_7': [3908], 's_2_12': [4059], 17: [3823, 1477, 4177, 3892, 3703, 1431, 1430, 1429, 1428, 1427, 3412, 3413, 3414, 3415, 3416, 2494, 2267, 2268, 3702], 's_2_17': [1697], 's_2_19': [3369, 3368], 's_2_23': [4463, 4462], 's_2_24': [1667], 's_2_25': [1613], 's_2_29': [1598], 's_2_32': [3684], 's_2_33': [1672], 's_2_35': [3489], 39: [1860, 3175, 3176, 3098, 3099, 3100, 3101, 2145, 3761, 2149, 2148, 2147, 2146], 's_2_39': [3113], 's_2_40': [3623], 's_2_2': [3129], 5: [1868, 1876, 4014, 1867, 1866, 1881, 1877, 1878, 1879, 1880], 's_6_5': [1883, 4585], 9: [1952, 1953, 3670, 3982, 3983, 3984, 1853, 1852, 1851, 1849, 3866, 3865, 1850], 's_6_9': [4329], 's_6_12': [1760], 13: [2613, 3629, 1561, 2733, 2732, 2731, 3269, 3268, 3267, 3266, 3265, 3264, 3758, 3757, 1579, 1578, 1577, 1576, 3263], 's_6_13': [3308], 's_6_16': [3443], 's_6_19': [3218], 22: [2077, 2227, 3833, 3835, 3834, 4302, 4301, 4300, 1835, 1717, 4298, 4299, 1836, 1837], 's_6_22': [4434], 's_6_25': [4569, 4570, 1898], 's_6_27': [3473], 's_6_28': [4163], 's_6_29': [1778], 's_6_32': [3743], 's_6_36': [1809], 's_6_39': [3143, 1590], 's_6_40': [3608], 's_6_6': [1764], 's_8_3': [3509], 's_8_4': [3563], 's_8_7': [3338], 's_8_12': [3988, 3989], 's_8_13': [2626], 's_8_16': [2522], 's_8_17': [1937], 's_8_19': [1607], 's_8_22': [1642], 's_8_23': [3914, 3824, 2750, 2751], 's_8_25': [2492], 's_8_28': [3598], 's_8_29': [3974, 2675], 30: [3806, 3805, 1553, 3804, 3803, 3637, 1489, 3772, 1552, 1551, 1550, 3863, 1549], 's_8_30': [4343], 's_8_33': [4208], 's_8_34': [2596], 's_8_37': [2282], 's_8_8': [4019, 2765], 's_10_4': [3762], 's_10_7': [2404], 's_10_11': [2401], 's_10_12': [3898], 's_10_15': [3853], 's_10_17': [3718], 's_10_21': [3297], 's_10_22': [2406, 2407], 's_10_23': [4438], 's_10_24': [3582], 's_10_25': [2287, 4332], 's_10_27': [3673], 's_10_29': [4362], 's_10_33': [2331, 4092], 's_10_34': [3732], 's_10_40': [2408], 's_10_10': [3358], 's_14_3': [3926], 's_14_7': [2134], 's_14_15': [2165], 's_14_17': [3507], 's_14_20': [3971], 's_14_21': [2207], 's_14_22': [3836], 's_14_25': [4526], 's_14_27': [2208], 's_14_28': [4286], 's_14_29': [4466], 's_14_30': [2104], 's_14_32': [2164], 's_14_34': [2253], 's_14_35': [3596], 's_14_37': [3342], 's_14_39': [3476], 's_14_14': [4212], 's_15_4': [3883], 's_15_5': [4015], 's_15_7': [1985], 's_15_9': [3985], 's_15_11': [3401, 3402], 's_15_16': [3538], 's_15_18': [2300], 's_15_19': [2150], 's_15_20': [2105], 's_15_22': [3820], 's_15_24': [3597], 's_15_26': [4000], 's_15_27': [3508], 's_15_28': [3643], 's_15_31': [1954], 's_15_32': [1956], 's_15_35': [2057], 's_15_40': [1925], 's_15_15': [3640], 's_16_4': [1397], 's_16_5': [3444], 's_16_7': [1354], 's_16_12': [1476], 's_16_17': [3502], 's_16_19': [4198], 's_16_23': [2513], 's_16_25': [2497], 's_16_26': [4086], 's_16_28': [3583], 's_16_29': [4093], 's_16_30': [1353], 's_16_31': [2027], 's_16_33': [4213], 's_16_34': [3862], 's_16_35': [2432], 's_16_37': [3447], 's_16_40': [1505], 's_16_16': [3726], 's_18_4': [3537], 's_18_11': [1611], 's_18_17': [3627], 's_18_19': [4062], 's_18_22': [4317], 's_18_26': [2106], 's_18_29': [4017], 's_18_31': [2151], 's_18_33': [2377], 's_18_38': [1987], 's_18_39': [2299], 's_18_40': [1566], 's_18_18': [4347], 's_25_9': [1838], 's_25_12': [3958, 2525], 's_25_13': [2656], 's_25_19': [4288], 's_25_22': [4179, 1807, 1808, 4524], 's_25_26': [4525], 's_25_30': [1538], 's_25_31': [2018], 's_25_33': [4229], 's_25_34': [3344], 's_25_35': [2627], 's_25_36': [4572, 4512, 2333], 's_25_40': [2378, 4497, 2453], 's_25_25': [2393, 2394], 's_26_3': [1986], 's_26_5': [4479], 's_26_7': [1519], 's_26_9': [1715], 's_26_11': [4058], 's_26_21': [4314], 's_26_28': [4390], 's_26_29': [1928], 's_26_31': [2045], 's_26_34': [3937], 's_26_36': [4540], 's_26_38': [4102], 's_26_26': [1944], 's_27_4': [2163], 's_27_5': [3594], 's_27_7': [1412, 3382], 's_27_9': [3669], 's_27_13': [1546, 3232], 's_27_19': [1742], 's_27_20': [3894], 's_27_21': [3774], 's_27_28': [3642], 's_27_29': [3778, 3777, 2374], 's_27_30': [1548], 's_27_31': [3744], 's_27_35': [2028], 's_27_36': [3849], 's_27_37': [3688], 's_27_40': [1517], 's_27_27': [3957], 's_28_3': [2631], 's_28_5': [4269], 's_28_7': [3659], 's_28_9': [4405], 's_28_11': [1701], 's_28_12': [3928], 's_28_13': [2734, 3734], 's_28_17': [2433], 's_28_19': [2557], 's_28_21': [4344, 1747], 's_28_29': [2616], 's_28_32': [4180, 2046], 's_28_36': [4345], 's_28_37': [2313], 's_28_28': [2002], 's_29_3': [4002], 's_29_5': [4464], 's_29_9': [3671], 's_29_13': [3809, 2747, 2748, 2749], 's_29_17': [4033, 4032, 2465, 2464], 's_29_20': [2240], 's_29_21': [4389, 1687], 's_29_23': [1912], 's_29_24': [2255], 's_29_32': [3491], 's_29_33': [2301], 's_29_34': [2524], 's_29_36': [2047], 's_29_37': [3641], 's_29_38': [3986], 's_29_40': [2288], 's_29_29': [4452], 's_32_3': [2344], 's_32_7': [1699, 1698], 's_32_11': [1668], 's_32_12': [3999], 's_32_13': [3250], 's_32_22': [1716], 's_32_24': [3220], 's_32_31': [3701], 's_32_33': [1911], 's_32_34': [3592], 's_32_38': [3595], 's_32_39': [3341], 's_32_32': [3576], 's_33_3': [2226], 's_33_7': [3864], 's_33_13': [1759], 's_33_17': [4222], 's_33_20': [3938, 1670], 's_33_21': [3819], 's_33_31': [2136], 's_33_38': [1521], 's_33_40': [2166, 2167], 's_33_33': [3773], 's_34_3': [3719], 's_34_4': [1456, 1457, 1458], 's_34_7': [1471], 's_34_9': [3877, 1400, 4042], 's_34_13': [1530, 1531], 's_34_17': [1426], 's_34_19': [3085], 's_34_21': [3238], 's_34_23': [3539, 2612], 's_34_30': [1446, 4117], 's_34_31': [2010], 's_34_36': [1995], 's_34_37': [2295], 's_34_38': [3697], 's_34_39': [1950], 's_34_40': [3952], 's_34_34': [1575, 3128], 's_36_3': [4256], 's_36_4': [3445], 's_36_9': [1854], 's_36_11': [3340], 's_36_13': [2176], 's_36_20': [4315], 's_36_23': [2153, 4586], 's_36_24': [1982], 's_36_30': [1939], 's_36_31': [3625], 's_36_38': [4120], 's_36_39': [3146], 's_36_40': [4480], 's_36_36': [2115, 3040], 's_37_4': [2328], 's_37_5': [3715], 's_37_7': [2073], 's_37_9': [1908], 's_37_19': [2210], 's_37_30': [1984], 's_37_31': [3327], 's_37_39': [3221], 's_37_37': [1938], 's_38_7': [3652], 's_38_9': [1355, 1356], 's_38_13': [1969, 3775, 3700, 3699, 1713, 3728, 3727], 's_38_17': [4192], 's_38_19': [3655], 's_38_23': [4162], 's_38_30': [4312], 's_38_31': [3730], 's_38_35': [3626], 's_38_39': [3851], 's_38_40': [3922], 's_38_38': [1326], 's_40_3': [4211], 's_40_4': [1488], 's_40_5': [1865], 's_40_9': [1535], 's_40_11': [3533, 1608], 's_40_13': [1669, 3638], 's_40_23': [2483], 's_40_30': [3683], 's_40_40': [2318], 's_3_4': [2481], 's_3_5': [4119], 's_3_7': [3704, 2674], 's_3_12': [2075], 's_3_17': [3838], 's_3_19': [4122], 's_3_20': [2001], 's_3_22': [2362], 's_3_23': [4139], 's_3_24': [3882], 's_3_31': [2211, 4151, 4150], 's_3_35': [3524], 's_3_39': [3776], 's_3_3': [4152], 's_4_5': [3624], 's_4_7': [1399], 's_4_9': [1968], 's_4_11': [3535], 's_4_12': [3973], 's_4_17': [2493], 's_4_19': [3927], 's_4_21': [3654], 's_4_30': [1383], 's_4_35': [2373], 's_4_39': [3536], 's_4_4': [1337], 's_11_5': [3505], 's_11_7': [3698, 1609], 's_11_9': [1923], 's_11_12': [1671], 's_11_13': [2386, 2387, 3328], 's_11_17': [3547, 1413, 1414, 1415, 1416, 4132], 's_11_19': [3248, 3249], 's_11_20': [1610], 's_11_21': [1966], 's_11_22': [1597], 's_11_24': [2326], 's_11_30': [3713], 's_11_31': [2116], 's_11_35': [1833], 's_11_11': [1845], 's_12_5': [1806], 's_12_9': [1685], 's_12_17': [2329], 's_12_20': [2225], 's_12_21': [4104], 's_12_22': [1910, 4075], 's_12_23': [4049], 's_12_24': [2405], 's_12_30': [1491, 4073], 's_12_31': [2031], 's_12_12': [2541], 's_19_5': [3219], 's_19_13': [1726], 's_19_21': [3189], 's_19_22': [4303], 's_19_23': [2723, 2722], 's_19_24': [1802], 's_19_31': [1909, 3790], 's_19_35': [3579], 's_19_39': [3160], 's_19_19': [4214, 2676], 's_20_22': [2107], 's_20_30': [1504], 's_20_31': [3940], 's_20_20': [4001], 's_21_9': [3954], 's_21_13': [2371], 's_21_17': [2102], 's_21_22': [4359, 1823], 's_21_24': [1861], 's_21_30': [3729, 1819], 's_21_35': [3504], 's_21_39': [2100, 2981], 's_21_21': [3009, 3010], 's_23_5': [4435], 's_23_7': [2720], 's_23_9': [2123, 4494, 4495], 's_23_13': [3599], 's_23_22': [2452], 's_23_30': [4388], 's_23_35': [3554], 's_23_23': [2702], 's_24_5': [3294], 's_24_17': [2266], 's_24_31': [2071], 's_24_35': [2343], 's_24_39': [1921], 's_24_24': [3492], 's_31_7': [2119], 's_31_9': [4060], 's_31_13': [2056], 's_31_17': [3400], 's_31_39': [3506, 2117, 3446], 's_31_31': [3295], 's_35_7': [2689, 2688], 's_35_13': [3479], 's_35_39': [3611], 's_35_35': [2072], 's_7_5': [1775], 's_7_9': [3789], 's_7_13': [2776, 2777, 2778, 3749], 's_7_17': [3442], 's_7_22': [3969, 1820], 's_7_39': [2269], 's_7_7': [3277], 's_17_5': [3399], 's_17_9': [1385], 's_17_13': [1562], 's_17_17': [1295], 's_39_9': [3759, 3760], 's_39_39': [3041], 's_5_5': [1869], 's_9_22': [1924], 's_9_30': [1490], 's_9_9': [3981], 's_13_22': [1714], 's_13_30': [3848], 's_13_13': [2671], 's_22_22': [1718, 4614], 's_30_30': [4627]}</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0005571142284569137</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.00101537372986994</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>{0: [2427, 5217, 2320, 2321, 2322], 1: [2470, 4901, 2201, 4949, 4948, 4947], 2: [2786, 5082, 2785, 5083, 5084], 7: [5277, 2338, 4857, 5157, 2335, 2337, 2336], 11: [5174, 2801, 4842, 4843, 4844, 2800], 12: [5069, 2487, 5068, 2486], 17: [2530, 2531, 2532, 5352, 5353, 2533], 20: [2441, 5279, 2440, 5278, 5202, 2442], 21: [2351, 2352, 5189, 5188, 5187], 23: [2382, 4933, 4934, 2380, 4932, 2381], 27: [2413, 4978, 2410, 2411, 2412], 28: [2607, 2515, 5218, 2516, 2517], 31: [2290, 4904, 4903, 2425, 2291, 4902], 32: [2473, 5397, 2472, 2471], 33: [2620, 2621, 2518, 2622, 5367, 5368], 35: [2275, 2695, 4887, 4888, 4889], 39: [2606, 5052, 5054, 5053], 5: [5143, 5142, 2455, 2457, 2456], 8: [2545, 5307, 5308, 2548, 2547, 2546], 13: [4917, 2485, 2592, 2591, 2590, 4918], 15: [5337, 5128, 5127, 2368, 2366, 2367], 16: [5039, 5038, 5036, 5037], 19: [5172, 5171, 5173, 2260, 2261], 22: [2395, 4964, 2396, 4962, 4963], 25: [2725, 5129, 4919, 5158, 2726, 2727, 5159], 40: [2832, 5204, 5203, 2563, 2561, 5247, 5248, 2562], 4: [5024, 2426, 5023, 5022], 6: [2770, 5232, 2772, 5233, 2771, 5234], 14: [4841, 5067, 2305, 2306, 2307, 2353, 5292], 18: [5383, 2578, 2605, 5382, 4979, 2576, 2577], 24: [2635, 2637, 5309, 2636], 29: [5338, 2665, 2666, 2667, 2668, 5339], 30: [5249, 2742, 4872, 4873, 4874, 2740, 2741], 34: [5293, 2696, 2697, 2728, 5294], 36: [2710, 2653, 2711, 5369, 2712, 5324, 2713], 37: [4858, 4859], 38: [2500, 5097, 2501, 5099, 5098], 41: [2757, 2758, 5427, 5428, 5429], 3: [2815, 4991, 4992, 4994, 2651, 4993], 10: [5112, 5114, 5113], 26: [2680, 2292, 5262, 5263, 2681, 2682, 5264], 9: [5006, 5009, 5007, 5008]}</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.05696587578120679</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.02494806216440462</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>{0: [2427, 5217, 2320, 2321, 2322], 1: [2470, 4901, 2201, 4949, 4948, 4947], 2: [2786, 5082, 2785, 5083, 5084], 7: [5277, 2338, 4857, 5157, 2335, 2337, 2336], 11: [5174, 2801, 4842, 4843, 4844, 2800], 12: [5069, 2487, 5068, 2486], 17: [2530, 2531, 2532, 5352, 5353, 2533], 20: [2441, 5279, 2440, 5278, 5202, 2442], 21: [2351, 2352, 5189, 5188, 5187], 23: [2382, 4933, 4934, 2380, 4932, 2381], 27: [2413, 4978, 2410, 2411, 2412], 28: [2607, 2515, 5218, 2516, 2517], 31: [2290, 4904, 4903, 2425, 2291, 4902], 32: [2473, 5397, 2472, 2471], 33: [2620, 2621, 2518, 2622, 5367, 5368], 35: [2275, 2695, 4887, 4888, 4889], 39: [2606, 5052, 5054, 5053], 5: [5143, 5142, 2455, 2457, 2456], 8: [2545, 5307, 5308, 2548, 2547, 2546], 13: [4917, 2485, 2592, 2591, 2590, 4918], 15: [5337, 5128, 5127, 2368, 2366, 2367], 16: [5039, 5038, 5036, 5037], 19: [5172, 5171, 5173, 2260, 2261], 22: [2395, 4964, 2396, 4962, 4963], 25: [2725, 5129, 4919, 5158, 2726, 2727, 5159], 40: [2832, 5204, 5203, 2563, 2561, 5247, 5248, 2562], 4: [5024, 2426, 5023, 5022], 6: [2770, 5232, 2772, 5233, 2771, 5234], 14: [4841, 5067, 2305, 2306, 2307, 2353, 5292], 18: [5383, 2578, 2605, 5382, 4979, 2576, 2577], 24: [2635, 2637, 5309, 2636], 29: [5338, 2665, 2666, 2667, 2668, 5339], 30: [5249, 2742, 4872, 4873, 4874, 2740, 2741], 34: [5293, 2696, 2697, 2728, 5294], 36: [2710, 2653, 2711, 5369, 2712, 5324, 2713], 37: [4858, 4859], 38: [2500, 5097, 2501, 5099, 5098], 41: [2757, 2758, 5427, 5428, 5429], 3: [2815, 4991, 4992, 4994, 2651, 4993], 10: [5112, 5114, 5113], 26: [2680, 2292, 5262, 5263, 2681, 2682, 5264], 9: [5006, 5009, 5007, 5008]}</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0.05696587578120679</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.02494806216440462</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>{0: [229, 245, 244, 3750, 3751, 3752, 604, 607, 606, 605], 1: [4428, 4429, 4430, 3093, 766, 767, 768, 3587, 3588, 3590, 3589, 1188, 1189, 1190, 1191, 1192, 4431], 's_0_1': [4413], 2: [1041, 1036, 1037, 1038, 1039, 1040, 4010, 287, 288, 289, 290, 4009, 4006, 4007, 4008], 's_0_2': [154, 155, 4005], 7: [810, 3826, 3827, 802, 801, 800, 3126, 3125, 3124, 795, 796, 797, 798, 799, 3828], 's_0_7': [319], 11: [3786, 3532, 305, 306, 4186, 4187, 4188, 4189, 4190, 4191, 1221, 1220, 1219, 1218, 3531], 's_0_11': [3900], 12: [4400, 4399, 4398, 4397, 4396, 352, 351, 350, 349, 348, 3541, 452, 451, 3257, 541], 's_0_12': [3856, 259], 17: [3861, 411, 4102, 3426, 4096, 1172, 1173, 1174, 4097, 4098, 4101, 1175, 4100, 4099], 's_0_17': [4095], 20: [3288, 780, 781, 782, 783, 3892, 3891, 3890, 3889, 3781, 3782, 3783, 784], 's_0_20': [589], 21: [1162, 712, 332, 4295, 4294, 4293, 4292, 4291, 337, 336, 335, 334, 333, 3676], 's_0_21': [4383], 23: [741, 842, 1087, 1086, 843, 844, 740, 1085, 3860, 3858, 3859], 's_0_23': [3873], 27: [3845, 931, 932, 933, 934, 935, 938, 937, 3991, 470, 3992, 3993, 3994, 936], 's_0_27': [591, 4053], 28: [4277, 4278, 3771, 1339, 1340, 816, 815, 3982, 3981, 3979, 3980], 's_0_28': [4248, 727], 31: [3810, 1427, 1428, 3817, 3811, 3812, 3813, 3814, 1206, 1205, 1429, 1204, 3816, 3815], 's_0_31': [469], 32: [3902, 3497, 3496, 3244, 3245, 3243, 561, 3242, 3241, 558, 316, 560, 559, 317], 's_0_32': [3767], 33: [4157, 4082, 667, 665, 666, 4158, 4159, 4160, 1116, 1115, 3321, 1112, 1113, 1114], 's_0_33': [4038], 35: [3332, 3091, 3586, 406, 407, 3976, 3946, 410, 409, 408], 's_0_35': [394], 39: [3691, 572, 258, 257, 3435, 3436, 1098, 1279, 1278, 3456, 3455, 3454, 872, 3439, 3438, 3437], 's_0_39': [3735], 's_0_0': [4080, 171, 4065], 5: [379, 3667, 1338, 1337, 1336, 3511, 378, 377, 376, 3576, 3181, 3291, 1216, 3185, 3184, 3183, 3182], 's_1_5': [645], 's_1_7': [3349], 8: [472, 3739, 888, 889, 890, 471, 4172, 4173, 4174, 891], 's_1_8': [4427], 13: [962, 961, 3556, 502, 501, 500, 499, 498, 497, 3231, 3230, 3229, 3228, 3227, 3226, 496], 's_1_13': [736], 15: [921, 3874, 920, 3934, 3935, 1490, 1472, 1473, 1474, 1475, 3937, 3936], 's_1_15': [3950], 16: [856, 3378, 1072, 1071, 4055, 3363, 980, 857, 858, 3634, 978, 979], 's_1_16': [4115], 's_1_17': [3725], 19: [3978, 3197, 3201, 3200, 696, 695, 694, 693, 692, 3199, 3198, 691], 's_1_19': [708], 's_1_20': [3334], 's_1_21': [1147], 22: [3570, 997, 996, 995, 3571, 3572, 3574, 994, 4444, 992, 3573, 993], 's_1_22': [1028], 's_1_23': [4265], 25: [466, 3316, 3317, 3318, 3468, 966, 722, 967, 723, 724, 3798, 3799, 964, 965], 's_1_25': [4415], 's_1_27': [3094], 's_1_31': [4146], 's_1_32': [3542, 678], 's_1_35': [3092], 40: [4320, 4321, 4322, 4323, 4324, 1309, 1027, 1310, 1311, 1312, 4326, 4325], 's_1_40': [652], 's_1_1': [1193], 4: [587, 3422, 3423, 3424, 1066, 1067, 3502, 3501, 1157, 3425], 's_2_4': [3421], 's_2_5': [3540, 228], 6: [1462, 1461, 3527, 3528, 3529, 3530, 1053, 3635, 3636, 3637, 1459, 1460], 's_2_6': [3665], 's_2_8': [3769], 's_2_12': [4051], 's_2_13': [3214], 14: [1413, 1411, 483, 1412, 3512, 3513, 3514, 1517, 3472, 3471, 484, 3470, 3469, 918], 's_2_14': [3559], 's_2_15': [906], 18: [318, 3616, 1158, 3711, 3619, 3620, 1414, 1416, 3712, 3618, 3617, 1415], 's_2_18': [3605], 's_2_19': [1021], 's_2_20': [3796], 's_2_21': [3451], 's_2_23': [950, 3875], 24: [1400, 3967, 3966, 4261, 4262, 4263, 847, 3965, 3964, 845, 4260, 846], 's_2_24': [1025], 's_2_27': [320], 29: [4131, 4130, 517, 4129, 4128, 4202, 512, 513, 514, 515, 4127, 516], 's_2_29': [576], 30: [4236, 4235, 633, 4234, 648, 773, 772, 602, 603, 771, 770, 769, 3633, 3632, 3631, 153, 3630], 's_2_30': [3555], 's_2_31': [274], 's_2_32': [272], 34: [1251, 1250, 1141, 3754, 3755, 3756, 1249, 3336, 1247, 3335, 1248], 's_2_34': [1022], 36: [3681, 3680, 3679, 828, 829, 830, 4069, 4068, 261, 260, 4066, 4067], 's_2_36': [275], 37: [4219, 1146, 1056, 4222, 4221, 4220], 's_2_37': [4145], 38: [457, 456, 4126, 4125, 201, 3930, 3405, 3377, 3376, 3375, 197, 198, 199, 200], 's_2_38': [286], 41: [3533, 437, 1502, 3406, 3407, 3412, 3408, 3411, 3410, 3409], 's_2_41': [3350, 1052], 's_2_2': [3785], 3: [3487, 3261, 3486, 4039, 1103, 1102, 1101, 4040, 4041, 1235, 1231, 1232, 1233, 3741, 1234], 's_7_3': [1230], 's_7_5': [1140], 10: [4204, 3270, 3271, 3272, 3273, 3172, 3171, 3170, 757, 756, 755, 754, 753, 752, 3169, 751], 's_7_10': [1276], 's_7_11': [304], 's_7_13': [1081], 's_7_15': [4024], 's_7_18': [3603], 's_7_19': [990], 's_7_20': [3033], 's_7_22': [4443], 's_7_23': [575], 's_7_25': [3738], 26: [4458, 1396, 1397, 3396, 1352, 1353, 1354, 4459, 4460, 4461, 1357, 1356, 1355, 4057, 4056], 's_7_26': [878, 4414], 's_7_27': [3109], 's_7_31': [454], 's_7_33': [4353], 's_7_35': [365], 's_7_37': [786], 's_7_40': [787], 's_7_41': [3393], 's_7_7': [3079], 's_11_3': [1294], 's_11_5': [1383], 's_11_6': [1458], 's_11_8': [531], 's_11_13': [486], 's_11_14': [1443], 's_11_18': [3787], 's_11_20': [1324], 's_11_23': [4085], 's_11_25': [981], 's_11_26': [3517], 's_11_27': [366, 4141], 's_11_28': [621], 's_11_29': [1011], 's_11_30': [1161, 4206], 's_11_31': [4176], 's_11_35': [3961], 's_11_36': [4216], 's_11_37': [4175], 's_11_40': [291, 292], 's_11_41': [1217], 's_11_11': [1282], 's_12_3': [1088], 's_12_6': [3526], 's_12_8': [4306], 9: [380, 3921, 3915, 3916, 545, 3917, 3920, 3919, 3918], 's_12_9': [3871, 215], 's_12_10': [481], 's_12_17': [4156], 's_12_18': [453], 's_12_19': [697], 's_12_20': [3287], 's_12_24': [322], 's_12_30': [1042], 's_12_32': [616, 615], 's_12_36': [4246], 's_12_38': [542], 's_12_39': [3706], 's_12_40': [247], 's_12_12': [233], 's_17_3': [1266], 's_17_4': [3560], 's_17_5': [3441], 's_17_8': [711], 's_17_9': [546], 's_17_13': [1171], 's_17_15': [1550], 's_17_16': [4084], 's_17_18': [4071, 1446, 4072, 4087], 's_17_21': [4081], 's_17_23': [726], 's_17_26': [1236], 's_17_28': [1505], 's_17_29': [1281], 's_17_30': [1176], 's_17_31': [4026], 's_17_32': [4052], 's_17_33': [951], 's_17_35': [440], 's_17_36': [681], 's_17_40': [3651], 's_17_41': [1307], 's_17_17': [1566], 's_20_5': [661], 's_20_9': [1144], 's_20_13': [3213], 's_20_15': [3893], 's_20_18': [1159], 's_20_19': [3888], 's_20_21': [364], 's_20_23': [3558], 's_20_24': [1265], 's_20_26': [3877], 's_20_27': [3289], 's_20_29': [3797], 's_20_30': [634], 's_20_32': [676], 's_20_34': [1009], 's_20_36': [3844], 's_20_20': [3154], 's_21_5': [3466], 's_21_10': [331], 's_21_16': [4310], 's_21_22': [4309], 's_21_23': [742], 's_21_24': [4308], 's_21_26': [1372, 4296], 's_21_28': [682], 's_21_29': [4201], 's_21_30': [1207], 's_21_32': [3481], 's_21_33': [4368], 's_21_36': [4036], 's_21_38': [426, 4366, 427], 's_21_39': [243, 242, 3450], 's_21_41': [3391], 's_21_21': [442], 's_23_6': [1084], 's_23_8': [874], 's_23_9': [814], 's_23_10': [841, 3274], 's_23_14': [3857], 's_23_15': [1100], 's_23_16': [4025], 's_23_18': [3604], 's_23_19': [3843], 's_23_22': [3830], 's_23_24': [3903], 's_23_30': [3933], 's_23_33': [3995], 's_23_36': [3709], 's_23_39': [3484], 's_23_23': [859], 's_27_4': [3155], 's_27_6': [1054], 's_27_8': [952], 's_27_13': [3931], 's_27_22': [3394], 's_27_26': [953], 's_27_29': [530], 's_27_30': [4250], 's_27_31': [1069], 's_27_32': [3977], 's_27_33': [620, 3932], 's_27_35': [485], 's_27_40': [4264], 's_27_41': [947], 's_27_27': [4474], 's_28_6': [3862], 's_28_8': [577], 's_28_15': [1445], 's_28_18': [1385, 1384, 3802], 's_28_19': [4113], 's_28_22': [1010], 's_28_24': [1325, 4011], 's_28_26': [3906], 's_28_29': [1341], 's_28_31': [3770], 's_28_33': [1130], 's_28_34': [1399], 's_28_36': [1264], 's_28_37': [1145], 's_28_39': [1280], 's_28_40': [3847], 's_28_28': [3983], 's_31_3': [3846], 's_31_5': [3682], 's_31_6': [3727], 's_31_8': [3740], 's_31_10': [1426], 's_31_14': [3547], 's_31_15': [3622], 's_31_18': [3697], 's_31_25': [679], 's_31_29': [529], 's_31_30': [649], 's_31_35': [395], 's_31_38': [185], 's_31_31': [3592], 's_32_5': [886], 's_32_6': [467], 's_32_9': [590, 3947], 's_32_10': [1111], 's_32_14': [422], 's_32_18': [3602], 's_32_19': [901], 's_32_25': [721], 's_32_29': [3887], 's_32_33': [4112], 's_32_34': [3260], 's_32_38': [3495], 's_32_41': [482], 's_32_32': [543], 's_33_3': [3306], 's_33_8': [636], 's_33_9': [680], 's_33_14': [3351, 1202], 's_33_18': [3696], 's_33_19': [4023], 's_33_26': [1262], 's_33_30': [3963], 's_33_36': [3666], 's_33_37': [1026], 's_33_38': [4143, 4142], 's_33_40': [1117], 's_33_41': [1277], 's_33_33': [1186], 's_35_5': [3736], 's_35_13': [3152], 's_35_14': [3721], 's_35_22': [438], 's_35_25': [3361], 's_35_29': [3662], 's_35_35': [300], 's_39_5': [871], 's_39_6': [3545, 1187], 's_39_10': [182], 's_39_16': [3364], 's_39_18': [1128], 's_39_19': [3303], 's_39_22': [3515], 's_39_25': [677], 's_39_36': [1099], 's_39_38': [3600], 's_39_39': [3720], 's_5_3': [1321], 's_5_4': [1263], 's_5_6': [1444], 's_5_10': [825], 's_5_13': [3196], 's_5_14': [1293], 's_5_22': [213], 's_5_25': [465], 's_5_30': [3646], 's_5_40': [3726], 's_5_5': [600], 's_8_6': [3650, 3649, 873], 's_8_9': [3904], 's_8_10': [861], 's_8_13': [4111], 's_8_14': [3544], 's_8_15': [4144], 's_8_34': [1024], 's_8_38': [4441], 's_8_8': [4456], 's_13_4': [3215], 's_13_6': [393], 's_13_9': [3901], 's_13_14': [3232], 's_13_16': [811], 's_13_19': [1306], 's_13_22': [363], 's_13_24': [487], 's_13_25': [3211], 's_13_26': [1351], 's_13_29': [4367], 's_13_30': [3452], 's_13_34': [1006], 's_13_36': [455, 4022], 's_13_38': [3302, 421], 's_13_40': [4352, 622], 's_13_13': [3167], 's_15_3': [3488], 's_15_9': [875], 's_15_10': [922], 's_15_14': [3277], 's_15_16': [3829], 's_15_25': [3949], 's_15_26': [3607], 's_15_29': [4114], 's_15_41': [3518], 's_15_15': [3907], 's_16_4': [737], 's_16_6': [1008, 3710], 's_16_14': [977], 's_16_18': [813], 's_16_19': [707], 's_16_24': [4054], 's_16_25': [3784], 's_16_26': [1073], 's_16_30': [1057], 's_16_38': [3362], 's_16_16': [3379], 's_19_3': [1291], 's_19_4': [1051], 's_19_9': [710], 's_19_10': [3453], 's_19_26': [1381], 's_19_19': [3153], 's_22_3': [4070], 's_22_4': [3500], 's_22_18': [3575], 's_22_29': [528], 's_22_30': [423], 's_22_36': [1023], 's_22_40': [1012], 's_22_22': [998], 's_25_4': [662], 's_25_6': [647], 's_25_10': [212], 's_25_18': [738], 's_25_26': [982], 's_25_29': [3347], 's_25_30': [3663], 's_25_34': [949], 's_25_36': [827, 3543], 's_25_38': [631, 3333], 's_25_40': [4385], 's_25_25': [3301], 's_40_3': [3801], 's_40_9': [1295], 's_40_10': [4338], 's_40_24': [217], 's_40_26': [4281], 's_40_30': [1252], 's_40_34': [3951], 's_40_38': [186, 187], 's_40_40': [1342], 's_4_3': [1322], 's_4_14': [812], 's_4_18': [1068], 's_4_26': [1367], 's_4_30': [632], 's_4_38': [557], 's_4_4': [3365], 's_6_3': [1368], 's_6_18': [4177], 's_6_24': [3997], 's_6_26': [4162], 's_6_30': [4237], 's_6_34': [3757], 's_6_36': [1203], 's_6_37': [4207], 's_6_6': [1463], 's_14_3': [3262], 's_14_18': [663], 's_14_26': [3457], 's_14_30': [3647], 's_14_34': [3337], 's_14_41': [3427], 's_14_14': [3202], 's_18_3': [1323], 's_18_30': [3615], 's_18_34': [3621], 's_18_36': [1143], 's_18_37': [1431], 's_18_18': [3952], 's_24_3': [1160], 's_24_9': [1055], 's_24_10': [4249], 's_24_26': [4012], 's_24_29': [412], 's_24_30': [3948], 's_24_34': [1370, 1369], 's_24_36': [4275], 's_24_38': [246], 's_24_24': [232], 's_29_26': [1296], 's_29_30': [3722, 574], 's_29_34': [4116], 's_29_36': [3692, 3693, 3694, 919, 3664], 's_29_37': [876], 's_29_38': [4247], 's_29_41': [3482], 's_29_29': [4132], 's_30_3': [892, 4279, 4280], 's_30_9': [544], 's_30_26': [908, 4384], 's_30_36': [3678], 's_30_37': [1132], 's_30_38': [3840, 169, 168, 167], 's_30_30': [4518], 's_34_3': [3516], 's_34_26': [3561], 's_34_36': [1129], 's_34_41': [1082], 's_34_34': [3591], 's_36_3': [785], 's_36_9': [381], 's_36_10': [3753], 's_36_38': [3975], 's_36_36': [3960], 's_37_3': [4205], 's_37_26': [1371], 's_37_37': [1267], 's_38_9': [170, 3885], 's_38_10': [392], 's_38_41': [527], 's_38_38': [302], 's_41_41': [1442], 's_3_26': [3186], 's_3_3': [1104], 's_10_26': [758], 's_10_10': [166], 's_26_26': [1253], 's_9_9': [725]}</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.000156312625250501</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0005735665597640122</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>{0: [229, 245, 244, 3750, 3751, 3752, 604, 607, 606, 605], 1: [4428, 4429, 4430, 3093, 766, 767, 768, 3587, 3588, 3590, 3589, 1188, 1189, 1190, 1191, 1192, 4431], 's_0_1': [4413], 2: [1041, 1036, 1037, 1038, 1039, 1040, 4010, 287, 288, 289, 290, 4009, 4006, 4007, 4008], 's_0_2': [154, 155, 4005], 7: [810, 3826, 3827, 802, 801, 800, 3126, 3125, 3124, 795, 796, 797, 798, 799, 3828], 's_0_7': [319], 11: [3786, 3532, 305, 306, 4186, 4187, 4188, 4189, 4190, 4191, 1221, 1220, 1219, 1218, 3531], 's_0_11': [3900], 12: [4400, 4399, 4398, 4397, 4396, 352, 351, 350, 349, 348, 3541, 452, 451, 3257, 541], 's_0_12': [3856, 259], 17: [3861, 411, 4102, 3426, 4096, 1172, 1173, 1174, 4097, 4098, 4101, 1175, 4100, 4099], 's_0_17': [4095], 20: [3288, 780, 781, 782, 783, 3892, 3891, 3890, 3889, 3781, 3782, 3783, 784], 's_0_20': [589], 21: [1162, 712, 332, 4295, 4294, 4293, 4292, 4291, 337, 336, 335, 334, 333, 3676], 's_0_21': [4383], 23: [741, 842, 1087, 1086, 843, 844, 740, 1085, 3860, 3858, 3859], 's_0_23': [3873], 27: [3845, 931, 932, 933, 934, 935, 938, 937, 3991, 470, 3992, 3993, 3994, 936], 's_0_27': [591, 4053], 28: [4277, 4278, 3771, 1339, 1340, 816, 815, 3982, 3981, 3979, 3980], 's_0_28': [4248, 727], 31: [3810, 1427, 1428, 3817, 3811, 3812, 3813, 3814, 1206, 1205, 1429, 1204, 3816, 3815], 's_0_31': [469], 32: [3902, 3497, 3496, 3244, 3245, 3243, 561, 3242, 3241, 558, 316, 560, 559, 317], 's_0_32': [3767], 33: [4157, 4082, 667, 665, 666, 4158, 4159, 4160, 1116, 1115, 3321, 1112, 1113, 1114], 's_0_33': [4038], 35: [3332, 3091, 3586, 406, 407, 3976, 3946, 410, 409, 408], 's_0_35': [394], 39: [3691, 572, 258, 257, 3435, 3436, 1098, 1279, 1278, 3456, 3455, 3454, 872, 3439, 3438, 3437], 's_0_39': [3735], 's_0_0': [4080, 171, 4065], 5: [379, 3667, 1338, 1337, 1336, 3511, 378, 377, 376, 3576, 3181, 3291, 1216, 3185, 3184, 3183, 3182], 's_1_5': [645], 's_1_7': [3349], 8: [472, 3739, 888, 889, 890, 471, 4172, 4173, 4174, 891], 's_1_8': [4427], 13: [962, 961, 3556, 502, 501, 500, 499, 498, 497, 3231, 3230, 3229, 3228, 3227, 3226, 496], 's_1_13': [736], 15: [921, 3874, 920, 3934, 3935, 1490, 1472, 1473, 1474, 1475, 3937, 3936], 's_1_15': [3950], 16: [856, 3378, 1072, 1071, 4055, 3363, 980, 857, 858, 3634, 978, 979], 's_1_16': [4115], 's_1_17': [3725], 19: [3978, 3197, 3201, 3200, 696, 695, 694, 693, 692, 3199, 3198, 691], 's_1_19': [708], 's_1_20': [3334], 's_1_21': [1147], 22: [3570, 997, 996, 995, 3571, 3572, 3574, 994, 4444, 992, 3573, 993], 's_1_22': [1028], 's_1_23': [4265], 25: [466, 3316, 3317, 3318, 3468, 966, 722, 967, 723, 724, 3798, 3799, 964, 965], 's_1_25': [4415], 's_1_27': [3094], 's_1_31': [4146], 's_1_32': [3542, 678], 's_1_35': [3092], 40: [4320, 4321, 4322, 4323, 4324, 1309, 1027, 1310, 1311, 1312, 4326, 4325], 's_1_40': [652], 's_1_1': [1193], 4: [587, 3422, 3423, 3424, 1066, 1067, 3502, 3501, 1157, 3425], 's_2_4': [3421], 's_2_5': [3540, 228], 6: [1462, 1461, 3527, 3528, 3529, 3530, 1053, 3635, 3636, 3637, 1459, 1460], 's_2_6': [3665], 's_2_8': [3769], 's_2_12': [4051], 's_2_13': [3214], 14: [1413, 1411, 483, 1412, 3512, 3513, 3514, 1517, 3472, 3471, 484, 3470, 3469, 918], 's_2_14': [3559], 's_2_15': [906], 18: [318, 3616, 1158, 3711, 3619, 3620, 1414, 1416, 3712, 3618, 3617, 1415], 's_2_18': [3605], 's_2_19': [1021], 's_2_20': [3796], 's_2_21': [3451], 's_2_23': [950, 3875], 24: [1400, 3967, 3966, 4261, 4262, 4263, 847, 3965, 3964, 845, 4260, 846], 's_2_24': [1025], 's_2_27': [320], 29: [4131, 4130, 517, 4129, 4128, 4202, 512, 513, 514, 515, 4127, 516], 's_2_29': [576], 30: [4236, 4235, 633, 4234, 648, 773, 772, 602, 603, 771, 770, 769, 3633, 3632, 3631, 153, 3630], 's_2_30': [3555], 's_2_31': [274], 's_2_32': [272], 34: [1251, 1250, 1141, 3754, 3755, 3756, 1249, 3336, 1247, 3335, 1248], 's_2_34': [1022], 36: [3681, 3680, 3679, 828, 829, 830, 4069, 4068, 261, 260, 4066, 4067], 's_2_36': [275], 37: [4219, 1146, 1056, 4222, 4221, 4220], 's_2_37': [4145], 38: [457, 456, 4126, 4125, 201, 3930, 3405, 3377, 3376, 3375, 197, 198, 199, 200], 's_2_38': [286], 41: [3533, 437, 1502, 3406, 3407, 3412, 3408, 3411, 3410, 3409], 's_2_41': [3350, 1052], 's_2_2': [3785], 3: [3487, 3261, 3486, 4039, 1103, 1102, 1101, 4040, 4041, 1235, 1231, 1232, 1233, 3741, 1234], 's_7_3': [1230], 's_7_5': [1140], 10: [4204, 3270, 3271, 3272, 3273, 3172, 3171, 3170, 757, 756, 755, 754, 753, 752, 3169, 751], 's_7_10': [1276], 's_7_11': [304], 's_7_13': [1081], 's_7_15': [4024], 's_7_18': [3603], 's_7_19': [990], 's_7_20': [3033], 's_7_22': [4443], 's_7_23': [575], 's_7_25': [3738], 26: [4458, 1396, 1397, 3396, 1352, 1353, 1354, 4459, 4460, 4461, 1357, 1356, 1355, 4057, 4056], 's_7_26': [878, 4414], 's_7_27': [3109], 's_7_31': [454], 's_7_33': [4353], 's_7_35': [365], 's_7_37': [786], 's_7_40': [787], 's_7_41': [3393], 's_7_7': [3079], 's_11_3': [1294], 's_11_5': [1383], 's_11_6': [1458], 's_11_8': [531], 's_11_13': [486], 's_11_14': [1443], 's_11_18': [3787], 's_11_20': [1324], 's_11_23': [4085], 's_11_25': [981], 's_11_26': [3517], 's_11_27': [366, 4141], 's_11_28': [621], 's_11_29': [1011], 's_11_30': [1161, 4206], 's_11_31': [4176], 's_11_35': [3961], 's_11_36': [4216], 's_11_37': [4175], 's_11_40': [291, 292], 's_11_41': [1217], 's_11_11': [1282], 's_12_3': [1088], 's_12_6': [3526], 's_12_8': [4306], 9: [380, 3921, 3915, 3916, 545, 3917, 3920, 3919, 3918], 's_12_9': [3871, 215], 's_12_10': [481], 's_12_17': [4156], 's_12_18': [453], 's_12_19': [697], 's_12_20': [3287], 's_12_24': [322], 's_12_30': [1042], 's_12_32': [616, 615], 's_12_36': [4246], 's_12_38': [542], 's_12_39': [3706], 's_12_40': [247], 's_12_12': [233], 's_17_3': [1266], 's_17_4': [3560], 's_17_5': [3441], 's_17_8': [711], 's_17_9': [546], 's_17_13': [1171], 's_17_15': [1550], 's_17_16': [4084], 's_17_18': [4071, 1446, 4072, 4087], 's_17_21': [4081], 's_17_23': [726], 's_17_26': [1236], 's_17_28': [1505], 's_17_29': [1281], 's_17_30': [1176], 's_17_31': [4026], 's_17_32': [4052], 's_17_33': [951], 's_17_35': [440], 's_17_36': [681], 's_17_40': [3651], 's_17_41': [1307], 's_17_17': [1566], 's_20_5': [661], 's_20_9': [1144], 's_20_13': [3213], 's_20_15': [3893], 's_20_18': [1159], 's_20_19': [3888], 's_20_21': [364], 's_20_23': [3558], 's_20_24': [1265], 's_20_26': [3877], 's_20_27': [3289], 's_20_29': [3797], 's_20_30': [634], 's_20_32': [676], 's_20_34': [1009], 's_20_36': [3844], 's_20_20': [3154], 's_21_5': [3466], 's_21_10': [331], 's_21_16': [4310], 's_21_22': [4309], 's_21_23': [742], 's_21_24': [4308], 's_21_26': [1372, 4296], 's_21_28': [682], 's_21_29': [4201], 's_21_30': [1207], 's_21_32': [3481], 's_21_33': [4368], 's_21_36': [4036], 's_21_38': [426, 4366, 427], 's_21_39': [243, 242, 3450], 's_21_41': [3391], 's_21_21': [442], 's_23_6': [1084], 's_23_8': [874], 's_23_9': [814], 's_23_10': [841, 3274], 's_23_14': [3857], 's_23_15': [1100], 's_23_16': [4025], 's_23_18': [3604], 's_23_19': [3843], 's_23_22': [3830], 's_23_24': [3903], 's_23_30': [3933], 's_23_33': [3995], 's_23_36': [3709], 's_23_39': [3484], 's_23_23': [859], 's_27_4': [3155], 's_27_6': [1054], 's_27_8': [952], 's_27_13': [3931], 's_27_22': [3394], 's_27_26': [953], 's_27_29': [530], 's_27_30': [4250], 's_27_31': [1069], 's_27_32': [3977], 's_27_33': [620, 3932], 's_27_35': [485], 's_27_40': [4264], 's_27_41': [947], 's_27_27': [4474], 's_28_6': [3862], 's_28_8': [577], 's_28_15': [1445], 's_28_18': [1385, 1384, 3802], 's_28_19': [4113], 's_28_22': [1010], 's_28_24': [1325, 4011], 's_28_26': [3906], 's_28_29': [1341], 's_28_31': [3770], 's_28_33': [1130], 's_28_34': [1399], 's_28_36': [1264], 's_28_37': [1145], 's_28_39': [1280], 's_28_40': [3847], 's_28_28': [3983], 's_31_3': [3846], 's_31_5': [3682], 's_31_6': [3727], 's_31_8': [3740], 's_31_10': [1426], 's_31_14': [3547], 's_31_15': [3622], 's_31_18': [3697], 's_31_25': [679], 's_31_29': [529], 's_31_30': [649], 's_31_35': [395], 's_31_38': [185], 's_31_31': [3592], 's_32_5': [886], 's_32_6': [467], 's_32_9': [590, 3947], 's_32_10': [1111], 's_32_14': [422], 's_32_18': [3602], 's_32_19': [901], 's_32_25': [721], 's_32_29': [3887], 's_32_33': [4112], 's_32_34': [3260], 's_32_38': [3495], 's_32_41': [482], 's_32_32': [543], 's_33_3': [3306], 's_33_8': [636], 's_33_9': [680], 's_33_14': [3351, 1202], 's_33_18': [3696], 's_33_19': [4023], 's_33_26': [1262], 's_33_30': [3963], 's_33_36': [3666], 's_33_37': [1026], 's_33_38': [4143, 4142], 's_33_40': [1117], 's_33_41': [1277], 's_33_33': [1186], 's_35_5': [3736], 's_35_13': [3152], 's_35_14': [3721], 's_35_22': [438], 's_35_25': [3361], 's_35_29': [3662], 's_35_35': [300], 's_39_5': [871], 's_39_6': [3545, 1187], 's_39_10': [182], 's_39_16': [3364], 's_39_18': [1128], 's_39_19': [3303], 's_39_22': [3515], 's_39_25': [677], 's_39_36': [1099], 's_39_38': [3600], 's_39_39': [3720], 's_5_3': [1321], 's_5_4': [1263], 's_5_6': [1444], 's_5_10': [825], 's_5_13': [3196], 's_5_14': [1293], 's_5_22': [213], 's_5_25': [465], 's_5_30': [3646], 's_5_40': [3726], 's_5_5': [600], 's_8_6': [3650, 3649, 873], 's_8_9': [3904], 's_8_10': [861], 's_8_13': [4111], 's_8_14': [3544], 's_8_15': [4144], 's_8_34': [1024], 's_8_38': [4441], 's_8_8': [4456], 's_13_4': [3215], 's_13_6': [393], 's_13_9': [3901], 's_13_14': [3232], 's_13_16': [811], 's_13_19': [1306], 's_13_22': [363], 's_13_24': [487], 's_13_25': [3211], 's_13_26': [1351], 's_13_29': [4367], 's_13_30': [3452], 's_13_34': [1006], 's_13_36': [455, 4022], 's_13_38': [3302, 421], 's_13_40': [4352, 622], 's_13_13': [3167], 's_15_3': [3488], 's_15_9': [875], 's_15_10': [922], 's_15_14': [3277], 's_15_16': [3829], 's_15_25': [3949], 's_15_26': [3607], 's_15_29': [4114], 's_15_41': [3518], 's_15_15': [3907], 's_16_4': [737], 's_16_6': [1008, 3710], 's_16_14': [977], 's_16_18': [813], 's_16_19': [707], 's_16_24': [4054], 's_16_25': [3784], 's_16_26': [1073], 's_16_30': [1057], 's_16_38': [3362], 's_16_16': [3379], 's_19_3': [1291], 's_19_4': [1051], 's_19_9': [710], 's_19_10': [3453], 's_19_26': [1381], 's_19_19': [3153], 's_22_3': [4070], 's_22_4': [3500], 's_22_18': [3575], 's_22_29': [528], 's_22_30': [423], 's_22_36': [1023], 's_22_40': [1012], 's_22_22': [998], 's_25_4': [662], 's_25_6': [647], 's_25_10': [212], 's_25_18': [738], 's_25_26': [982], 's_25_29': [3347], 's_25_30': [3663], 's_25_34': [949], 's_25_36': [827, 3543], 's_25_38': [631, 3333], 's_25_40': [4385], 's_25_25': [3301], 's_40_3': [3801], 's_40_9': [1295], 's_40_10': [4338], 's_40_24': [217], 's_40_26': [4281], 's_40_30': [1252], 's_40_34': [3951], 's_40_38': [186, 187], 's_40_40': [1342], 's_4_3': [1322], 's_4_14': [812], 's_4_18': [1068], 's_4_26': [1367], 's_4_30': [632], 's_4_38': [557], 's_4_4': [3365], 's_6_3': [1368], 's_6_18': [4177], 's_6_24': [3997], 's_6_26': [4162], 's_6_30': [4237], 's_6_34': [3757], 's_6_36': [1203], 's_6_37': [4207], 's_6_6': [1463], 's_14_3': [3262], 's_14_18': [663], 's_14_26': [3457], 's_14_30': [3647], 's_14_34': [3337], 's_14_41': [3427], 's_14_14': [3202], 's_18_3': [1323], 's_18_30': [3615], 's_18_34': [3621], 's_18_36': [1143], 's_18_37': [1431], 's_18_18': [3952], 's_24_3': [1160], 's_24_9': [1055], 's_24_10': [4249], 's_24_26': [4012], 's_24_29': [412], 's_24_30': [3948], 's_24_34': [1370, 1369], 's_24_36': [4275], 's_24_38': [246], 's_24_24': [232], 's_29_26': [1296], 's_29_30': [3722, 574], 's_29_34': [4116], 's_29_36': [3692, 3693, 3694, 919, 3664], 's_29_37': [876], 's_29_38': [4247], 's_29_41': [3482], 's_29_29': [4132], 's_30_3': [892, 4279, 4280], 's_30_9': [544], 's_30_26': [908, 4384], 's_30_36': [3678], 's_30_37': [1132], 's_30_38': [3840, 169, 168, 167], 's_30_30': [4518], 's_34_3': [3516], 's_34_26': [3561], 's_34_36': [1129], 's_34_41': [1082], 's_34_34': [3591], 's_36_3': [785], 's_36_9': [381], 's_36_10': [3753], 's_36_38': [3975], 's_36_36': [3960], 's_37_3': [4205], 's_37_26': [1371], 's_37_37': [1267], 's_38_9': [170, 3885], 's_38_10': [392], 's_38_41': [527], 's_38_38': [302], 's_41_41': [1442], 's_3_26': [3186], 's_3_3': [1104], 's_10_26': [758], 's_10_10': [166], 's_26_26': [1253], 's_9_9': [725]}</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0.000156312625250501</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0005735665597640122</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>{0: [3536, 3539, 2432, 3537, 3538], 1: [2314, 2581, 2582, 3732, 3733, 2583], 2: [2492, 3749, 2493, 3748, 2494], 5: [2611, 2461, 2343, 2342, 3314, 3313, 3312], 6: [3763, 3762, 2133, 3686, 2344, 3688, 3687], 9: [2656, 3193, 2539, 2538, 2537, 2536], 11: [2237, 3809, 3808, 3807, 2238, 3717, 2359], 12: [3659, 3658, 2253, 3522, 2298, 3657], 15: [2222, 2223, 3704, 3703, 3702], 17: [2464, 2462, 2463], 21: [3389, 2689, 3673, 2687, 2688, 3674], 22: [2749, 2748, 3566, 3567, 3568, 3569], 23: [3614, 2433, 3611, 3612, 3613], 24: [2297, 3401, 2823, 3402, 3403, 3404, 2822], 25: [2327, 2328, 2329, 3776, 3777, 3778, 3779], 27: [2209, 2207, 2208, 3492, 3494, 3493], 28: [2269, 2282, 2268, 2267, 3464, 3463, 3462], 36: [3524, 2372, 3523, 2374, 2373], 37: [3629, 2657, 2659, 2658], 39: [3387, 3388, 2509, 2508, 2507], 40: [2148, 2147, 3506, 2447, 3509, 3508, 3507], 42: [3853, 3253, 2476, 2477, 2479, 2478], 3: [3479, 3478, 2358, 3477], 13: [2448, 3641, 3644, 3643, 3642], 14: [2614, 2612, 3689, 2613], 19: [3297, 3764, 2734, 2733, 3298, 3299, 2732], 26: [2569, 2568, 2567, 3343, 3344], 30: [3791, 2762, 3554, 2673, 2674, 3792, 3793, 3794], 38: [2629, 2626, 2628, 2627], 4: [2553, 3434, 3433, 2552], 7: [3596, 3599, 3597, 3598], 10: [2522, 2524, 2523], 29: [2719, 3359, 2717, 2718], 32: [3284, 2704, 2703, 2702], 34: [3719, 3432, 2417, 3718, 2418], 41: [2119, 2163, 3628, 3627, 2162, 2118, 3626], 8: [3328, 3327, 2194, 2193, 2192, 2357, 3342], 16: [3581, 3584, 3583, 3582], 18: [2599, 2598, 2597, 3552, 3553], 20: [2178, 2177, 3416, 3417, 3419, 3418], 33: [3329, 2641, 2644, 2643, 2642], 35: [3373, 3372, 2313, 2312], 31: [3447, 2389, 3358, 2387, 2388]}</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.1057208746631102</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.02852753826748704</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>{0: [3536, 3539, 2432, 3537, 3538], 1: [2314, 2581, 2582, 3732, 3733, 2583], 2: [2492, 3749, 2493, 3748, 2494], 5: [2611, 2461, 2343, 2342, 3314, 3313, 3312], 6: [3763, 3762, 2133, 3686, 2344, 3688, 3687], 9: [2656, 3193, 2539, 2538, 2537, 2536], 11: [2237, 3809, 3808, 3807, 2238, 3717, 2359], 12: [3659, 3658, 2253, 3522, 2298, 3657], 15: [2222, 2223, 3704, 3703, 3702], 17: [2464, 2462, 2463], 21: [3389, 2689, 3673, 2687, 2688, 3674], 22: [2749, 2748, 3566, 3567, 3568, 3569], 23: [3614, 2433, 3611, 3612, 3613], 24: [2297, 3401, 2823, 3402, 3403, 3404, 2822], 25: [2327, 2328, 2329, 3776, 3777, 3778, 3779], 27: [2209, 2207, 2208, 3492, 3494, 3493], 28: [2269, 2282, 2268, 2267, 3464, 3463, 3462], 36: [3524, 2372, 3523, 2374, 2373], 37: [3629, 2657, 2659, 2658], 39: [3387, 3388, 2509, 2508, 2507], 40: [2148, 2147, 3506, 2447, 3509, 3508, 3507], 42: [3853, 3253, 2476, 2477, 2479, 2478], 3: [3479, 3478, 2358, 3477], 13: [2448, 3641, 3644, 3643, 3642], 14: [2614, 2612, 3689, 2613], 19: [3297, 3764, 2734, 2733, 3298, 3299, 2732], 26: [2569, 2568, 2567, 3343, 3344], 30: [3791, 2762, 3554, 2673, 2674, 3792, 3793, 3794], 38: [2629, 2626, 2628, 2627], 4: [2553, 3434, 3433, 2552], 7: [3596, 3599, 3597, 3598], 10: [2522, 2524, 2523], 29: [2719, 3359, 2717, 2718], 32: [3284, 2704, 2703, 2702], 34: [3719, 3432, 2417, 3718, 2418], 41: [2119, 2163, 3628, 3627, 2162, 2118, 3626], 8: [3328, 3327, 2194, 2193, 2192, 2357, 3342], 16: [3581, 3584, 3583, 3582], 18: [2599, 2598, 2597, 3552, 3553], 20: [2178, 2177, 3416, 3417, 3419, 3418], 33: [3329, 2641, 2644, 2643, 2642], 35: [3373, 3372, 2313, 2312], 31: [3447, 2389, 3358, 2387, 2388]}</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0.1057208746631102</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.02852753826748704</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>{0: [3880, 1471, 1472, 1473, 1474, 1475, 1816, 4048, 4047, 2225, 1817, 3941, 3878, 3940, 3939, 3879, 3699, 1818, 1819, 1820], 1: [3834, 1748, 3102, 3101, 3100, 1688, 3099, 3098, 1545, 1546, 1547, 1548, 1550, 1549, 3833, 1684, 1685, 1686, 4434, 1687], 's_0_1': [3937], 2: [2195, 4240, 4241, 2107, 2106, 2270, 4061, 4062, 2331, 3956, 4137, 4138, 4139, 2706, 2705, 2704, 2703, 3614], 's_0_2': [2060], 5: [3803, 1535, 1491, 4028, 3054, 1875, 3299, 3297, 1610, 1609, 3298, 1608, 1607, 1606, 3263, 3264, 2311, 3312, 3311, 3310, 1876], 's_0_5': [3279], 6: [3744, 2175, 2176, 2177, 2178, 3251, 2071, 3715, 2072, 4075, 1853, 1852, 1851, 1850, 1849, 1848, 3535, 3536], 's_0_6': [3984], 9: [3756, 2355, 2445, 1385, 3073, 1384, 1383, 1382, 1381, 3067, 3068, 1380, 3072, 3071, 3070, 3069, 1860, 3384, 1861], 's_0_9': [3112], 11: [2258, 1786, 2257, 3489, 1787, 1788, 1789, 3997, 3998, 3999, 1790, 1791, 4119, 4120, 2256, 4121], 's_0_11': [1476], 12: [2004, 2003, 2539, 3778, 3777, 4282, 2002, 1536, 1941, 4178, 4179, 2419, 2420, 2421, 4182, 4181, 4180], 's_0_12': [4033], 15: [1537, 4328, 4211, 2182, 2062, 4301, 3564, 3563, 4300, 4299, 4298, 1627, 1626, 3892, 1907, 3893, 1623, 1624, 1625], 's_0_15': [3533], 17: [2121, 3942, 4151, 4152, 2376, 2372, 2373, 2374, 2375], 's_0_17': [2435], 21: [3426, 1487, 1778, 3428, 1777, 1776, 1775, 1774, 1773, 3403, 3427, 1757, 3429, 3402, 2477, 3401, 3400, 3399, 1772], 's_0_21': [3924], 22: [2599, 2600, 1562, 1636, 1637, 1638, 3623, 1563, 1564, 1565, 4093, 4092, 4091, 4090, 3951, 3952, 3953, 3954, 1880, 4089], 's_0_22': [3397], 23: [1508, 2431, 3773, 1507, 1506, 1505, 1504, 3772, 1459, 1458, 3327, 3326, 3325, 3324, 1744, 1667, 3278, 3277, 3328, 1457], 's_0_23': [1489], 24: [3366, 2511, 1924, 2510, 1923, 1922, 2509, 2508, 2507, 1501, 3367, 3369, 3368, 3370, 3371, 3372, 3373], 's_0_24': [3579], 25: [4453, 4198, 3848, 1806, 1805, 2528, 2527, 3628, 2526, 2525, 3849, 3850, 3851, 3852, 2463, 2464, 3853], 's_0_25': [2240, 2239], 27: [2483, 2482, 2481, 2480, 3898, 3294, 3804, 1879, 1726, 1727, 1728, 1729, 3894, 3897, 2224, 3896, 3895], 's_0_27': [3444], 28: [1622, 1956, 1955, 3352, 3353, 3354, 4004, 4003, 4002, 4001, 4000, 1966, 1970, 3355, 1967, 1968, 1969], 's_0_28': [2105, 4046], 36: [3583, 3414, 3582, 1847, 1846, 2568, 3130, 3131, 3132, 3133, 2478, 3613, 2538, 2537, 2536], 's_0_36': [3204], 37: [4257, 2300, 4582, 4583, 4584, 4585, 4586, 2254, 3882, 2314, 2315, 2316, 2317, 2318, 4587], 's_0_37': [4077], 39: [3147, 2191, 2192, 1429, 3757, 1639, 1804, 2193, 2298, 2299, 3758, 3759, 3760, 2194, 3761], 's_0_39': [1699], 40: [3747, 3748, 2236, 2644, 2643, 2642, 2641, 3238, 3307, 3237, 3236, 3235, 3234, 3233, 3308, 1591], 's_0_40': [3158], 42: [1668, 3550, 2237, 3625, 1367, 3457, 3459, 1998, 3524, 3522, 3458, 3521, 2042, 3523, 3460], 's_0_42': [1488], 's_0_0': [3202], 3: [1910, 3682, 3248, 1696, 3683, 1697, 1698, 3987, 3986, 3985, 1985, 1984, 3685, 3684, 1669, 3653], 's_1_3': [1621], 's_1_5': [1770], 's_1_11': [1785], 13: [1823, 4452, 4451, 1443, 1444, 1445, 4450, 4449, 4448, 4447, 1446, 1447, 1448], 's_1_13': [3727], 14: [4599, 2135, 2031, 4342, 4343, 1659, 1658, 4031, 4030, 4029, 1657, 1656], 's_1_14': [1749], 's_1_15': [4433], 19: [2061, 4150, 4149, 4372, 3866, 1839, 1463, 4522, 4523, 4525, 4524, 3865, 1835, 1836, 1837, 1838], 's_1_19': [4508], 's_1_21': [4419], 's_1_23': [3412], 's_1_25': [4059], 26: [3883, 2075, 2385, 3252, 3971, 3972, 2390, 2386, 2387, 2388, 2389], 's_1_26': [3117], 30: [2266, 1762, 1833, 1834, 3789, 3746, 4118, 1761, 1760, 1759, 3819, 3432, 2267, 3566, 2133, 2134, 3821, 3820], 's_1_30': [1747], 's_1_36': [2325], 's_1_37': [1763], 38: [1824, 1718, 4554, 4555, 4556, 4557, 4558, 2498, 2497, 2626, 2627, 2628, 2613, 3733, 2494, 2495, 2496], 's_1_38': [1717], 's_1_39': [3788], 's_1_42': [1532], 's_1_1': [2115], 4: [4573, 4574, 2238, 3717, 3718, 4543, 4544, 2524, 3763, 2633, 2629, 2630, 2631, 4334, 2632], 's_2_4': [2616, 4199], 's_2_6': [4255], 7: [3809, 1893, 1894, 3659, 2734, 3906, 3907, 3908, 3909, 3910, 2735, 3914, 3913, 3912, 3911], 's_2_7': [2778], 10: [2422, 2183, 4423, 2543, 4510, 4511, 4512, 4513, 2558, 2550, 2557, 2556, 2555, 2554, 2553, 3268, 2551, 2552], 's_2_10': [4079], 's_2_12': [2286], 's_2_14': [3926], 's_2_15': [1972], 's_2_19': [4269, 4270, 4284], 's_2_22': [4034, 2615, 3974], 's_2_27': [4122], 29: [1431, 4244, 2180, 2181, 2601, 1881, 4162, 4163, 4164, 4168, 4167, 4166, 4165], 's_2_29': [2661, 2662], 32: [1337, 1338, 1336, 4542, 4541, 1339, 1340, 1341, 1342, 4387, 4388, 4389, 4390, 1957, 1958, 4540], 's_2_32': [1942, 1943], 34: [4032, 4407, 4437, 2213, 2212, 2211, 2210, 3163, 3162, 2206, 2207, 2288, 2208, 2209], 's_2_34': [2255], 's_2_36': [2658], 's_2_37': [4197], 's_2_38': [2436, 4258, 2512], 's_2_39': [2269], 's_2_40': [3719], 41: [2312, 2348, 2347, 3385, 3386, 3387, 3388, 3389, 2687, 2688, 2689, 2690, 2691, 4214, 4213, 4212], 's_2_41': [4109], 's_2_42': [2718], 's_2_2': [4124, 2781], 's_5_6': [2221], 8: [1925, 4347, 3816, 1732, 1731, 4346, 4345, 1927, 1926, 4104, 4103, 3817, 3818, 1655, 3938, 1730], 's_5_8': [1641], 's_5_12': [4132], 's_5_14': [4013], 16: [3847, 1567, 3493, 3492, 3491, 4267, 2028, 3610, 4266, 3609, 1371, 1370, 1369, 1368, 3607, 3608], 's_5_16': [1492], 's_5_17': [3282], 18: [4333, 2452, 2453, 4496, 4495, 1988, 1987, 4497, 3382, 1516, 1517, 1518, 1519, 1520, 1521, 3383, 4208, 4209, 4210], 's_5_18': [4073], 20: [4226, 3958, 3957, 3207, 2356, 2357, 2358, 2359, 2360, 2361, 4227, 2362], 's_5_20': [3267], 's_5_22': [1561, 3293], 's_5_23': [1921], 's_5_24': [1891], 's_5_26': [2416], 's_5_27': [3548], 's_5_28': [1906], 's_5_29': [4087], 33: [3832, 3667, 3262, 1358, 1357, 1351, 1352, 1353, 1356, 1355, 3877, 1354], 's_5_33': [3668], 's_5_34': [2296], 's_5_38': [2611], 's_5_5': [3055], 's_6_8': [4359], 's_6_9': [3086], 's_6_11': [4074], 's_6_12': [1971], 's_6_13': [4509], 's_6_14': [2001], 's_6_16': [1863], 's_6_18': [4405], 's_6_19': [4420], 's_6_21': [2087], 's_6_22': [4060], 's_6_25': [4134], 's_6_26': [2073, 2074], 's_6_28': [3190, 2070], 's_6_30': [4344], 's_6_34': [3611], 35: [4195, 2146, 2147, 2148, 3655, 3674, 2018, 2017, 2016, 2015, 3673, 3672, 3671, 2014], 's_6_35': [1999], 's_6_39': [3716, 2149], 's_6_40': [3220], 's_6_41': [2086], 's_6_42': [3476], 's_6_6': [2981], 's_9_3': [1398], 's_9_7': [3921], 's_9_8': [1399], 's_9_10': [3088], 's_9_18': [3247], 's_9_20': [3192, 2430], 's_9_23': [3622], 's_9_26': [3087], 's_9_28': [1965], 's_9_32': [3231], 's_9_34': [2205], 's_9_36': [2310], 's_9_39': [3802], 's_9_41': [2056, 2055], 's_9_42': [3517], 's_9_9': [3051], 's_11_3': [1653, 3519], 's_11_7': [3729], 's_11_8': [1671], 's_11_14': [1986, 4015, 4014, 1715], 's_11_16': [4012], 's_11_17': [2226], 's_11_20': [2091], 's_11_21': [1742], 's_11_22': [2301], 's_11_23': [3714], 's_11_25': [1821], 's_11_27': [3474], 's_11_32': [3996], 's_11_33': [1461, 1460], 's_11_34': [4286], 's_11_36': [3189], 's_11_37': [4362], 's_11_39': [3639], 's_11_41': [4392], 's_11_42': [1682], 's_11_11': [1866], 's_12_3': [1940], 's_12_7': [3658], 's_12_10': [3793], 's_12_14': [1432], 's_12_16': [1582], 's_12_19': [1462], 's_12_22': [2136], 's_12_25': [2404], 's_12_30': [1701], 31: [2328, 1596, 1595, 1594, 3592, 3597, 3596, 1593, 3595, 3594, 3593], 's_12_31': [4223], 's_12_32': [1417], 's_12_34': [4196], 's_12_36': [2418], 's_12_37': [4017], 's_12_41': [2406], 's_12_12': [4238], 's_15_10': [4436, 2138], 's_15_13': [1628], 's_15_14': [4133], 's_15_16': [1743], 's_15_17': [2122], 's_15_18': [3698], 's_15_20': [2076, 4256], 's_15_21': [1792], 's_15_22': [3488], 's_15_23': [4462], 's_15_25': [1640], 's_15_28': [3445], 's_15_29': [2151, 4106], 's_15_30': [3490], 's_15_31': [3713], 's_15_33': [1400], 's_15_34': [2302], 's_15_36': [1877], 's_15_15': [4058], 's_17_3': [2405], 's_17_4': [3762], 's_17_7': [2345], 's_17_21': [3343], 's_17_23': [3313], 's_17_24': [3508], 's_17_26': [3732], 's_17_27': [4063], 's_17_31': [3627], 's_17_34': [2371], 's_17_35': [4135], 's_17_36': [3358], 's_17_41': [3447], 's_17_42': [2417, 3552], 's_17_17': [3792], 's_21_3': [3504], 's_21_7': [1892], 's_21_13': [4494], 's_21_18': [1442], 's_21_19': [4479], 's_21_20': [3417], 's_21_22': [3969], 's_21_23': [3398, 1712, 3534], 's_21_24': [2117], 's_21_27': [1771], 's_21_28': [1802], 's_21_31': [2327], 's_21_32': [4404], 's_21_33': [3442], 's_21_36': [3433], 's_21_38': [4539], 's_21_39': [2297], 's_21_40': [3418], 's_21_42': [2432], 's_21_21': [1502], 's_22_3': [3473], 's_22_4': [3899], 's_22_7': [1235], 's_22_8': [1280], 's_22_10': [2646, 4064], 's_22_13': [3577], 's_22_16': [1578], 's_22_24': [4108], 's_22_25': [1490], 's_22_26': [3884], 's_22_28': [3337, 3338], 's_22_29': [2166], 's_22_30': [4088], 's_22_32': [1325], 's_22_33': [3936], 's_22_34': [2196], 's_22_38': [3928], 's_22_39': [3638], 's_22_40': [3203], 's_22_42': [1577], 's_22_22': [1635], 's_23_8': [1579], 's_23_10': [2491], 's_23_13': [4102], 's_23_16': [1414], 's_23_18': [3652], 's_23_19': [4357], 's_23_20': [2506, 3208], 's_23_26': [3253], 's_23_27': [3413], 's_23_29': [1552, 4312, 1551], 's_23_30': [1832], 's_23_31': [3743], 's_23_32': [1522], 's_23_34': [2401, 2400], 's_23_35': [2131], 's_23_37': [1523], 's_23_39': [1654, 3669], 's_23_41': [1982], 's_23_23': [1509], 's_24_3': [3790], 's_24_10': [3478], 's_24_16': [2102], 's_24_18': [1412], 's_24_19': [3774, 1909], 's_24_20': [3943], 's_24_26': [3868], 's_24_28': [1937], 's_24_29': [4183], 's_24_30': [3549], 's_24_31': [1592], 's_24_32': [3487, 1427], 's_24_34': [3342, 2282], 's_24_35': [3805, 2029], 's_24_38': [3838], 's_24_39': [3703, 3702, 3701, 2104], 's_24_40': [2596], 's_24_41': [2581], 's_24_42': [3520], 's_24_24': [3374], 's_25_7': [1534], 's_25_8': [4348], 's_25_10': [2542], 's_25_13': [4438, 2393], 's_25_14': [4044], 's_25_16': [2462], 's_25_18': [2572], 's_25_19': [1939], 's_25_26': [3538], 's_25_27': [2479], 's_25_28': [2541], 's_25_29': [2466], 's_25_30': [2284], 's_25_35': [2449, 2448], 's_25_36': [2598], 's_25_38': [4318], 's_25_42': [2523], 's_25_25': [4483, 2573], 's_27_8': [3864], 's_27_10': [4408], 's_27_16': [3624], 's_27_18': [3309, 1652], 's_27_20': [4302], 's_27_26': [3973], 's_27_28': [3295], 's_27_29': [3881], 's_27_31': [2223], 's_27_34': [3836], 's_27_36': [3249], 's_27_38': [4393], 's_27_39': [2089], 's_27_40': [3218], 's_27_27': [3988], 's_28_4': [4018, 4019], 's_28_8': [1895], 's_28_10': [2571], 's_28_14': [2090], 's_28_16': [2058, 3640], 's_28_19': [1954], 's_28_20': [2450], 's_28_30': [3670], 's_28_32': [3396, 1307], 's_28_33': [1366], 's_28_34': [3161, 3175, 3176], 's_28_36': [3160], 's_28_40': [3340, 3341, 2162, 3296], 's_28_28': [2736], 's_36_10': [3134], 's_36_26': [3148], 's_36_31': [3598], 's_36_38': [2493], 's_36_40': [1996], 's_36_41': [2567], 's_36_36': [1905], 's_37_3': [2285], 's_37_4': [4588], 's_37_13': [1583], 's_37_14': [1703], 's_37_19': [1598], 's_37_26': [3807], 's_37_33': [4567], 's_37_38': [2034], 's_37_39': [3776], 's_37_41': [2349, 2364], 's_37_37': [1644], 's_39_4': [3641], 's_39_16': [3787], 's_39_20': [3507], 's_39_33': [3862], 's_39_35': [2164], 's_39_40': [3281], 's_39_42': [3446], 's_39_39': [2179], 's_40_3': [1576], 's_40_4': [3869, 2584], 's_40_7': [3824, 2750], 's_40_18': [3232], 's_40_20': [2645], 's_40_32': [3322, 3323], 's_40_34': [3221], 's_40_35': [3266], 's_40_41': [3644], 's_40_40': [2566], 's_42_4': [3626], 's_42_7': [2673], 's_42_13': [3532], 's_42_16': [2447], 's_42_31': [2118], 's_42_41': [2012, 2013, 3506], 's_42_42': [2597], 's_3_7': [2120], 's_3_8': [1670], 's_3_16': [1413], 's_3_18': [1681], 's_3_19': [2000], 's_3_26': [3970], 's_3_30': [3686], 's_3_32': [1324, 1323], 's_3_34': [2330], 's_3_35': [3835], 's_3_3': [1294], 's_13_8': [2077], 's_13_16': [4403, 1643], 's_13_18': [3967], 's_13_19': [1418], 's_13_32': [4042], 's_13_33': [3637], 's_13_34': [2227], 's_13_35': [2033], 's_13_38': [2333], 's_13_41': [4467], 's_13_13': [2047], 's_14_7': [2030], 's_14_16': [4373], 's_14_18': [1477], 's_14_26': [4076], 's_14_30': [4239], 's_14_32': [1673], 's_14_38': [4478], 's_14_14': [4341], 's_19_7': [1864], 's_19_8': [1928], 's_19_10': [1898], 's_19_20': [4225], 's_19_33': [4507], 's_19_19': [1388], 's_26_29': [2165], 's_26_31': [3642], 's_26_35': [4105], 's_26_41': [3477], 's_26_26': [2968], 's_30_4': [3581], 's_30_7': [1714], 's_30_8': [4329], 's_30_16': [2163], 's_30_32': [4375, 4374], 's_30_41': [2342], 's_30_30': [2059], 's_38_20': [4228], 's_38_29': [4123], 's_38_32': [2273], 's_38_35': [2019], 's_38_38': [1854], 's_4_18': [2438], 's_4_29': [4288], 's_4_32': [2394], 's_4_35': [2253], 's_4_4': [2724], 's_7_18': [3922], 's_7_20': [2540], 's_7_31': [3923], 's_7_33': [1430], 's_7_35': [1908], 's_7_41': [3839], 's_7_7': [2749], 's_10_8': [2407], 's_10_18': [2093], 's_10_34': [4526], 's_10_10': [3043], 's_29_16': [4147], 's_29_20': [2046], 's_29_31': [4148], 's_29_29': [4057], 's_32_16': [4131], 's_32_33': [1327, 4461], 's_32_34': [2303], 's_32_32': [1322], 's_34_18': [2363], 's_34_20': [3206], 's_34_35': [3461], 's_34_41': [4422], 's_34_34': [2287], 's_41_8': [2197], 's_41_16': [2027], 's_41_20': [4332], 's_41_35': [3689], 's_41_41': [1997, 3280], 's_8_16': [3846, 1249], 's_8_31': [3968], 's_8_33': [1295], 's_8_35': [2032], 's_8_8': [4254], 's_16_31': [3580], 's_16_33': [4027], 's_16_35': [1953], 's_16_16': [1312], 's_18_31': [3518], 's_18_35': [4360], 's_18_18': [3982], 's_20_31': [3612], 's_20_20': [3687], 's_33_33': [4641], 's_35_31': [2433], 's_35_35': [4421], 's_31_31': [1878]}</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0001972386587771203</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0006111216325376596</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>{0: [3880, 1471, 1472, 1473, 1474, 1475, 1816, 4048, 4047, 2225, 1817, 3941, 3878, 3940, 3939, 3879, 3699, 1818, 1819, 1820], 1: [3834, 1748, 3102, 3101, 3100, 1688, 3099, 3098, 1545, 1546, 1547, 1548, 1550, 1549, 3833, 1684, 1685, 1686, 4434, 1687], 's_0_1': [3937], 2: [2195, 4240, 4241, 2107, 2106, 2270, 4061, 4062, 2331, 3956, 4137, 4138, 4139, 2706, 2705, 2704, 2703, 3614], 's_0_2': [2060], 5: [3803, 1535, 1491, 4028, 3054, 1875, 3299, 3297, 1610, 1609, 3298, 1608, 1607, 1606, 3263, 3264, 2311, 3312, 3311, 3310, 1876], 's_0_5': [3279], 6: [3744, 2175, 2176, 2177, 2178, 3251, 2071, 3715, 2072, 4075, 1853, 1852, 1851, 1850, 1849, 1848, 3535, 3536], 's_0_6': [3984], 9: [3756, 2355, 2445, 1385, 3073, 1384, 1383, 1382, 1381, 3067, 3068, 1380, 3072, 3071, 3070, 3069, 1860, 3384, 1861], 's_0_9': [3112], 11: [2258, 1786, 2257, 3489, 1787, 1788, 1789, 3997, 3998, 3999, 1790, 1791, 4119, 4120, 2256, 4121], 's_0_11': [1476], 12: [2004, 2003, 2539, 3778, 3777, 4282, 2002, 1536, 1941, 4178, 4179, 2419, 2420, 2421, 4182, 4181, 4180], 's_0_12': [4033], 15: [1537, 4328, 4211, 2182, 2062, 4301, 3564, 3563, 4300, 4299, 4298, 1627, 1626, 3892, 1907, 3893, 1623, 1624, 1625], 's_0_15': [3533], 17: [2121, 3942, 4151, 4152, 2376, 2372, 2373, 2374, 2375], 's_0_17': [2435], 21: [3426, 1487, 1778, 3428, 1777, 1776, 1775, 1774, 1773, 3403, 3427, 1757, 3429, 3402, 2477, 3401, 3400, 3399, 1772], 's_0_21': [3924], 22: [2599, 2600, 1562, 1636, 1637, 1638, 3623, 1563, 1564, 1565, 4093, 4092, 4091, 4090, 3951, 3952, 3953, 3954, 1880, 4089], 's_0_22': [3397], 23: [1508, 2431, 3773, 1507, 1506, 1505, 1504, 3772, 1459, 1458, 3327, 3326, 3325, 3324, 1744, 1667, 3278, 3277, 3328, 1457], 's_0_23': [1489], 24: [3366, 2511, 1924, 2510, 1923, 1922, 2509, 2508, 2507, 1501, 3367, 3369, 3368, 3370, 3371, 3372, 3373], 's_0_24': [3579], 25: [4453, 4198, 3848, 1806, 1805, 2528, 2527, 3628, 2526, 2525, 3849, 3850, 3851, 3852, 2463, 2464, 3853], 's_0_25': [2240, 2239], 27: [2483, 2482, 2481, 2480, 3898, 3294, 3804, 1879, 1726, 1727, 1728, 1729, 3894, 3897, 2224, 3896, 3895], 's_0_27': [3444], 28: [1622, 1956, 1955, 3352, 3353, 3354, 4004, 4003, 4002, 4001, 4000, 1966, 1970, 3355, 1967, 1968, 1969], 's_0_28': [2105, 4046], 36: [3583, 3414, 3582, 1847, 1846, 2568, 3130, 3131, 3132, 3133, 2478, 3613, 2538, 2537, 2536], 's_0_36': [3204], 37: [4257, 2300, 4582, 4583, 4584, 4585, 4586, 2254, 3882, 2314, 2315, 2316, 2317, 2318, 4587], 's_0_37': [4077], 39: [3147, 2191, 2192, 1429, 3757, 1639, 1804, 2193, 2298, 2299, 3758, 3759, 3760, 2194, 3761], 's_0_39': [1699], 40: [3747, 3748, 2236, 2644, 2643, 2642, 2641, 3238, 3307, 3237, 3236, 3235, 3234, 3233, 3308, 1591], 's_0_40': [3158], 42: [1668, 3550, 2237, 3625, 1367, 3457, 3459, 1998, 3524, 3522, 3458, 3521, 2042, 3523, 3460], 's_0_42': [1488], 's_0_0': [3202], 3: [1910, 3682, 3248, 1696, 3683, 1697, 1698, 3987, 3986, 3985, 1985, 1984, 3685, 3684, 1669, 3653], 's_1_3': [1621], 's_1_5': [1770], 's_1_11': [1785], 13: [1823, 4452, 4451, 1443, 1444, 1445, 4450, 4449, 4448, 4447, 1446, 1447, 1448], 's_1_13': [3727], 14: [4599, 2135, 2031, 4342, 4343, 1659, 1658, 4031, 4030, 4029, 1657, 1656], 's_1_14': [1749], 's_1_15': [4433], 19: [2061, 4150, 4149, 4372, 3866, 1839, 1463, 4522, 4523, 4525, 4524, 3865, 1835, 1836, 1837, 1838], 's_1_19': [4508], 's_1_21': [4419], 's_1_23': [3412], 's_1_25': [4059], 26: [3883, 2075, 2385, 3252, 3971, 3972, 2390, 2386, 2387, 2388, 2389], 's_1_26': [3117], 30: [2266, 1762, 1833, 1834, 3789, 3746, 4118, 1761, 1760, 1759, 3819, 3432, 2267, 3566, 2133, 2134, 3821, 3820], 's_1_30': [1747], 's_1_36': [2325], 's_1_37': [1763], 38: [1824, 1718, 4554, 4555, 4556, 4557, 4558, 2498, 2497, 2626, 2627, 2628, 2613, 3733, 2494, 2495, 2496], 's_1_38': [1717], 's_1_39': [3788], 's_1_42': [1532], 's_1_1': [2115], 4: [4573, 4574, 2238, 3717, 3718, 4543, 4544, 2524, 3763, 2633, 2629, 2630, 2631, 4334, 2632], 's_2_4': [2616, 4199], 's_2_6': [4255], 7: [3809, 1893, 1894, 3659, 2734, 3906, 3907, 3908, 3909, 3910, 2735, 3914, 3913, 3912, 3911], 's_2_7': [2778], 10: [2422, 2183, 4423, 2543, 4510, 4511, 4512, 4513, 2558, 2550, 2557, 2556, 2555, 2554, 2553, 3268, 2551, 2552], 's_2_10': [4079], 's_2_12': [2286], 's_2_14': [3926], 's_2_15': [1972], 's_2_19': [4269, 4270, 4284], 's_2_22': [4034, 2615, 3974], 's_2_27': [4122], 29: [1431, 4244, 2180, 2181, 2601, 1881, 4162, 4163, 4164, 4168, 4167, 4166, 4165], 's_2_29': [2661, 2662], 32: [1337, 1338, 1336, 4542, 4541, 1339, 1340, 1341, 1342, 4387, 4388, 4389, 4390, 1957, 1958, 4540], 's_2_32': [1942, 1943], 34: [4032, 4407, 4437, 2213, 2212, 2211, 2210, 3163, 3162, 2206, 2207, 2288, 2208, 2209], 's_2_34': [2255], 's_2_36': [2658], 's_2_37': [4197], 's_2_38': [2436, 4258, 2512], 's_2_39': [2269], 's_2_40': [3719], 41: [2312, 2348, 2347, 3385, 3386, 3387, 3388, 3389, 2687, 2688, 2689, 2690, 2691, 4214, 4213, 4212], 's_2_41': [4109], 's_2_42': [2718], 's_2_2': [4124, 2781], 's_5_6': [2221], 8: [1925, 4347, 3816, 1732, 1731, 4346, 4345, 1927, 1926, 4104, 4103, 3817, 3818, 1655, 3938, 1730], 's_5_8': [1641], 's_5_12': [4132], 's_5_14': [4013], 16: [3847, 1567, 3493, 3492, 3491, 4267, 2028, 3610, 4266, 3609, 1371, 1370, 1369, 1368, 3607, 3608], 's_5_16': [1492], 's_5_17': [3282], 18: [4333, 2452, 2453, 4496, 4495, 1988, 1987, 4497, 3382, 1516, 1517, 1518, 1519, 1520, 1521, 3383, 4208, 4209, 4210], 's_5_18': [4073], 20: [4226, 3958, 3957, 3207, 2356, 2357, 2358, 2359, 2360, 2361, 4227, 2362], 's_5_20': [3267], 's_5_22': [1561, 3293], 's_5_23': [1921], 's_5_24': [1891], 's_5_26': [2416], 's_5_27': [3548], 's_5_28': [1906], 's_5_29': [4087], 33: [3832, 3667, 3262, 1358, 1357, 1351, 1352, 1353, 1356, 1355, 3877, 1354], 's_5_33': [3668], 's_5_34': [2296], 's_5_38': [2611], 's_5_5': [3055], 's_6_8': [4359], 's_6_9': [3086], 's_6_11': [4074], 's_6_12': [1971], 's_6_13': [4509], 's_6_14': [2001], 's_6_16': [1863], 's_6_18': [4405], 's_6_19': [4420], 's_6_21': [2087], 's_6_22': [4060], 's_6_25': [4134], 's_6_26': [2073, 2074], 's_6_28': [3190, 2070], 's_6_30': [4344], 's_6_34': [3611], 35: [4195, 2146, 2147, 2148, 3655, 3674, 2018, 2017, 2016, 2015, 3673, 3672, 3671, 2014], 's_6_35': [1999], 's_6_39': [3716, 2149], 's_6_40': [3220], 's_6_41': [2086], 's_6_42': [3476], 's_6_6': [2981], 's_9_3': [1398], 's_9_7': [3921], 's_9_8': [1399], 's_9_10': [3088], 's_9_18': [3247], 's_9_20': [3192, 2430], 's_9_23': [3622], 's_9_26': [3087], 's_9_28': [1965], 's_9_32': [3231], 's_9_34': [2205], 's_9_36': [2310], 's_9_39': [3802], 's_9_41': [2056, 2055], 's_9_42': [3517], 's_9_9': [3051], 's_11_3': [1653, 3519], 's_11_7': [3729], 's_11_8': [1671], 's_11_14': [1986, 4015, 4014, 1715], 's_11_16': [4012], 's_11_17': [2226], 's_11_20': [2091], 's_11_21': [1742], 's_11_22': [2301], 's_11_23': [3714], 's_11_25': [1821], 's_11_27': [3474], 's_11_32': [3996], 's_11_33': [1461, 1460], 's_11_34': [4286], 's_11_36': [3189], 's_11_37': [4362], 's_11_39': [3639], 's_11_41': [4392], 's_11_42': [1682], 's_11_11': [1866], 's_12_3': [1940], 's_12_7': [3658], 's_12_10': [3793], 's_12_14': [1432], 's_12_16': [1582], 's_12_19': [1462], 's_12_22': [2136], 's_12_25': [2404], 's_12_30': [1701], 31: [2328, 1596, 1595, 1594, 3592, 3597, 3596, 1593, 3595, 3594, 3593], 's_12_31': [4223], 's_12_32': [1417], 's_12_34': [4196], 's_12_36': [2418], 's_12_37': [4017], 's_12_41': [2406], 's_12_12': [4238], 's_15_10': [4436, 2138], 's_15_13': [1628], 's_15_14': [4133], 's_15_16': [1743], 's_15_17': [2122], 's_15_18': [3698], 's_15_20': [2076, 4256], 's_15_21': [1792], 's_15_22': [3488], 's_15_23': [4462], 's_15_25': [1640], 's_15_28': [3445], 's_15_29': [2151, 4106], 's_15_30': [3490], 's_15_31': [3713], 's_15_33': [1400], 's_15_34': [2302], 's_15_36': [1877], 's_15_15': [4058], 's_17_3': [2405], 's_17_4': [3762], 's_17_7': [2345], 's_17_21': [3343], 's_17_23': [3313], 's_17_24': [3508], 's_17_26': [3732], 's_17_27': [4063], 's_17_31': [3627], 's_17_34': [2371], 's_17_35': [4135], 's_17_36': [3358], 's_17_41': [3447], 's_17_42': [2417, 3552], 's_17_17': [3792], 's_21_3': [3504], 's_21_7': [1892], 's_21_13': [4494], 's_21_18': [1442], 's_21_19': [4479], 's_21_20': [3417], 's_21_22': [3969], 's_21_23': [3398, 1712, 3534], 's_21_24': [2117], 's_21_27': [1771], 's_21_28': [1802], 's_21_31': [2327], 's_21_32': [4404], 's_21_33': [3442], 's_21_36': [3433], 's_21_38': [4539], 's_21_39': [2297], 's_21_40': [3418], 's_21_42': [2432], 's_21_21': [1502], 's_22_3': [3473], 's_22_4': [3899], 's_22_7': [1235], 's_22_8': [1280], 's_22_10': [2646, 4064], 's_22_13': [3577], 's_22_16': [1578], 's_22_24': [4108], 's_22_25': [1490], 's_22_26': [3884], 's_22_28': [3337, 3338], 's_22_29': [2166], 's_22_30': [4088], 's_22_32': [1325], 's_22_33': [3936], 's_22_34': [2196], 's_22_38': [3928], 's_22_39': [3638], 's_22_40': [3203], 's_22_42': [1577], 's_22_22': [1635], 's_23_8': [1579], 's_23_10': [2491], 's_23_13': [4102], 's_23_16': [1414], 's_23_18': [3652], 's_23_19': [4357], 's_23_20': [2506, 3208], 's_23_26': [3253], 's_23_27': [3413], 's_23_29': [1552, 4312, 1551], 's_23_30': [1832], 's_23_31': [3743], 's_23_32': [1522], 's_23_34': [2401, 2400], 's_23_35': [2131], 's_23_37': [1523], 's_23_39': [1654, 3669], 's_23_41': [1982], 's_23_23': [1509], 's_24_3': [3790], 's_24_10': [3478], 's_24_16': [2102], 's_24_18': [1412], 's_24_19': [3774, 1909], 's_24_20': [3943], 's_24_26': [3868], 's_24_28': [1937], 's_24_29': [4183], 's_24_30': [3549], 's_24_31': [1592], 's_24_32': [3487, 1427], 's_24_34': [3342, 2282], 's_24_35': [3805, 2029], 's_24_38': [3838], 's_24_39': [3703, 3702, 3701, 2104], 's_24_40': [2596], 's_24_41': [2581], 's_24_42': [3520], 's_24_24': [3374], 's_25_7': [1534], 's_25_8': [4348], 's_25_10': [2542], 's_25_13': [4438, 2393], 's_25_14': [4044], 's_25_16': [2462], 's_25_18': [2572], 's_25_19': [1939], 's_25_26': [3538], 's_25_27': [2479], 's_25_28': [2541], 's_25_29': [2466], 's_25_30': [2284], 's_25_35': [2449, 2448], 's_25_36': [2598], 's_25_38': [4318], 's_25_42': [2523], 's_25_25': [4483, 2573], 's_27_8': [3864], 's_27_10': [4408], 's_27_16': [3624], 's_27_18': [3309, 1652], 's_27_20': [4302], 's_27_26': [3973], 's_27_28': [3295], 's_27_29': [3881], 's_27_31': [2223], 's_27_34': [3836], 's_27_36': [3249], 's_27_38': [4393], 's_27_39': [2089], 's_27_40': [3218], 's_27_27': [3988], 's_28_4': [4018, 4019], 's_28_8': [1895], 's_28_10': [2571], 's_28_14': [2090], 's_28_16': [2058, 3640], 's_28_19': [1954], 's_28_20': [2450], 's_28_30': [3670], 's_28_32': [3396, 1307], 's_28_33': [1366], 's_28_34': [3161, 3175, 3176], 's_28_36': [3160], 's_28_40': [3340, 3341, 2162, 3296], 's_28_28': [2736], 's_36_10': [3134], 's_36_26': [3148], 's_36_31': [3598], 's_36_38': [2493], 's_36_40': [1996], 's_36_41': [2567], 's_36_36': [1905], 's_37_3': [2285], 's_37_4': [4588], 's_37_13': [1583], 's_37_14': [1703], 's_37_19': [1598], 's_37_26': [3807], 's_37_33': [4567], 's_37_38': [2034], 's_37_39': [3776], 's_37_41': [2349, 2364], 's_37_37': [1644], 's_39_4': [3641], 's_39_16': [3787], 's_39_20': [3507], 's_39_33': [3862], 's_39_35': [2164], 's_39_40': [3281], 's_39_42': [3446], 's_39_39': [2179], 's_40_3': [1576], 's_40_4': [3869, 2584], 's_40_7': [3824, 2750], 's_40_18': [3232], 's_40_20': [2645], 's_40_32': [3322, 3323], 's_40_34': [3221], 's_40_35': [3266], 's_40_41': [3644], 's_40_40': [2566], 's_42_4': [3626], 's_42_7': [2673], 's_42_13': [3532], 's_42_16': [2447], 's_42_31': [2118], 's_42_41': [2012, 2013, 3506], 's_42_42': [2597], 's_3_7': [2120], 's_3_8': [1670], 's_3_16': [1413], 's_3_18': [1681], 's_3_19': [2000], 's_3_26': [3970], 's_3_30': [3686], 's_3_32': [1324, 1323], 's_3_34': [2330], 's_3_35': [3835], 's_3_3': [1294], 's_13_8': [2077], 's_13_16': [4403, 1643], 's_13_18': [3967], 's_13_19': [1418], 's_13_32': [4042], 's_13_33': [3637], 's_13_34': [2227], 's_13_35': [2033], 's_13_38': [2333], 's_13_41': [4467], 's_13_13': [2047], 's_14_7': [2030], 's_14_16': [4373], 's_14_18': [1477], 's_14_26': [4076], 's_14_30': [4239], 's_14_32': [1673], 's_14_38': [4478], 's_14_14': [4341], 's_19_7': [1864], 's_19_8': [1928], 's_19_10': [1898], 's_19_20': [4225], 's_19_33': [4507], 's_19_19': [1388], 's_26_29': [2165], 's_26_31': [3642], 's_26_35': [4105], 's_26_41': [3477], 's_26_26': [2968], 's_30_4': [3581], 's_30_7': [1714], 's_30_8': [4329], 's_30_16': [2163], 's_30_32': [4375, 4374], 's_30_41': [2342], 's_30_30': [2059], 's_38_20': [4228], 's_38_29': [4123], 's_38_32': [2273], 's_38_35': [2019], 's_38_38': [1854], 's_4_18': [2438], 's_4_29': [4288], 's_4_32': [2394], 's_4_35': [2253], 's_4_4': [2724], 's_7_18': [3922], 's_7_20': [2540], 's_7_31': [3923], 's_7_33': [1430], 's_7_35': [1908], 's_7_41': [3839], 's_7_7': [2749], 's_10_8': [2407], 's_10_18': [2093], 's_10_34': [4526], 's_10_10': [3043], 's_29_16': [4147], 's_29_20': [2046], 's_29_31': [4148], 's_29_29': [4057], 's_32_16': [4131], 's_32_33': [1327, 4461], 's_32_34': [2303], 's_32_32': [1322], 's_34_18': [2363], 's_34_20': [3206], 's_34_35': [3461], 's_34_41': [4422], 's_34_34': [2287], 's_41_8': [2197], 's_41_16': [2027], 's_41_20': [4332], 's_41_35': [3689], 's_41_41': [1997, 3280], 's_8_16': [3846, 1249], 's_8_31': [3968], 's_8_33': [1295], 's_8_35': [2032], 's_8_8': [4254], 's_16_31': [3580], 's_16_33': [4027], 's_16_35': [1953], 's_16_16': [1312], 's_18_31': [3518], 's_18_35': [4360], 's_18_18': [3982], 's_20_31': [3612], 's_20_20': [3687], 's_33_33': [4641], 's_35_31': [2433], 's_35_35': [4421], 's_31_31': [1878]}</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0.0001972386587771203</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.0006111216325376596</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>{0: [3760, 2389, 3763, 3761, 3762], 1: [2313, 3643, 3641, 2374, 3642], 3: [2240, 3656, 2239, 2237, 2238], 5: [4017, 2405, 2509, 2510, 4048], 6: [2346, 2345, 3687, 2343, 2344], 8: [3581, 2270, 2268, 2269], 9: [3869, 2375, 3868, 2390, 3956, 3957], 10: [3657, 3595, 3596, 2255, 2254, 2253], 11: [3536, 3537, 2330, 2329, 2328], 14: [3612, 2225, 3611, 2223, 2224], 15: [3896, 3897, 3898, 2524, 3838, 2525], 17: [2659, 3733, 3730, 3731, 3824, 3732], 22: [2087, 3565, 2285, 2284, 3566, 2283], 24: [3704, 2539, 3701, 3702, 3703], 26: [3925, 2598, 3926, 3927, 3928, 2599], 28: [2121, 2359, 2360, 4076, 4077, 2361], 29: [2613, 3674, 3671, 3672, 3673], 32: [3775, 3776, 3778, 3777], 33: [2584, 3806, 3807, 3808], 34: [2090, 2089, 2088], 35: [4001, 2479, 4002, 4003, 2480], 37: [3793, 3791, 2404, 3792], 38: [3716, 3717, 3719, 2494, 3718], 41: [4092, 2420, 2419, 3626, 3627, 2418], 42: [2554, 2555, 4031, 4032, 4033, 2435, 3988], 4: [3866, 2118, 2120, 2119], 13: [3521, 2148, 2151, 2150, 2149], 16: [3821, 2075, 2073, 2074], 23: [2433, 3881, 3882, 3883, 2434], 25: [4091, 2193, 2196, 2194, 2195], 27: [2316, 4046, 4047, 2314, 2315], 30: [2358, 3522, 3523, 2508, 2569, 3658], 36: [4018, 2448, 4062, 4063, 2449, 2450], 2: [4106, 2301, 2298, 2299, 2300], 7: [3745, 3746, 3748, 3747], 18: [3836, 4166, 2211, 2210, 2208, 2209], 39: [2163, 2166, 2165, 2164], 40: [3971, 3823, 3972, 3973, 2540], 21: [2463, 3851, 3854, 3852, 2464, 3853], 31: [3987, 3986, 3940, 2104, 2105], 12: [2628, 3910, 2629, 3911, 3913, 3912], 19: [3942, 3941, 2134, 2135], 20: [2031, 2030, 2029, 2133, 3686], 43: [2181, 2178, 2179, 2180]}</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.08892162364384584</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.03109554706104042</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>{0: [3760, 2389, 3763, 3761, 3762], 1: [2313, 3643, 3641, 2374, 3642], 3: [2240, 3656, 2239, 2237, 2238], 5: [4017, 2405, 2509, 2510, 4048], 6: [2346, 2345, 3687, 2343, 2344], 8: [3581, 2270, 2268, 2269], 9: [3869, 2375, 3868, 2390, 3956, 3957], 10: [3657, 3595, 3596, 2255, 2254, 2253], 11: [3536, 3537, 2330, 2329, 2328], 14: [3612, 2225, 3611, 2223, 2224], 15: [3896, 3897, 3898, 2524, 3838, 2525], 17: [2659, 3733, 3730, 3731, 3824, 3732], 22: [2087, 3565, 2285, 2284, 3566, 2283], 24: [3704, 2539, 3701, 3702, 3703], 26: [3925, 2598, 3926, 3927, 3928, 2599], 28: [2121, 2359, 2360, 4076, 4077, 2361], 29: [2613, 3674, 3671, 3672, 3673], 32: [3775, 3776, 3778, 3777], 33: [2584, 3806, 3807, 3808], 34: [2090, 2089, 2088], 35: [4001, 2479, 4002, 4003, 2480], 37: [3793, 3791, 2404, 3792], 38: [3716, 3717, 3719, 2494, 3718], 41: [4092, 2420, 2419, 3626, 3627, 2418], 42: [2554, 2555, 4031, 4032, 4033, 2435, 3988], 4: [3866, 2118, 2120, 2119], 13: [3521, 2148, 2151, 2150, 2149], 16: [3821, 2075, 2073, 2074], 23: [2433, 3881, 3882, 3883, 2434], 25: [4091, 2193, 2196, 2194, 2195], 27: [2316, 4046, 4047, 2314, 2315], 30: [2358, 3522, 3523, 2508, 2569, 3658], 36: [4018, 2448, 4062, 4063, 2449, 2450], 2: [4106, 2301, 2298, 2299, 2300], 7: [3745, 3746, 3748, 3747], 18: [3836, 4166, 2211, 2210, 2208, 2209], 39: [2163, 2166, 2165, 2164], 40: [3971, 3823, 3972, 3973, 2540], 21: [2463, 3851, 3854, 3852, 2464, 3853], 31: [3987, 3986, 3940, 2104, 2105], 12: [2628, 3910, 2629, 3911, 3913, 3912], 19: [3942, 3941, 2134, 2135], 20: [2031, 2030, 2029, 2133, 3686], 43: [2181, 2178, 2179, 2180]}</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0.08892162364384584</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.03109554706104042</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>{0: [1109, 4763, 5570, 5571, 1409, 5497, 5500, 1629, 1630, 1631, 5018, 1706, 1707, 5348, 1663, 1664, 1769, 5498, 5499], 1: [5043, 5044, 5045, 1794, 1164, 1165, 1166, 1167, 1168, 5466, 5467, 5468, 5469, 1795, 1796, 1797, 1798], 's_0_1': [1814], 3: [1163, 1285, 1284, 4401, 1964, 1963, 1962, 1961, 1960, 1959, 1958, 4435, 1912, 1283, 4314, 4313, 4312, 4311, 4310, 1162], 's_0_3': [5515], 5: [2098, 2097, 4596, 4597, 2096, 2095, 2094, 4675, 4598, 4599, 4600, 4585, 4631, 4630, 1989], 's_0_5': [1599], 6: [5604, 5603, 5602, 5601, 909, 1150, 4835, 5605, 5600, 5599, 5584, 914, 913, 912, 911, 910, 4834], 's_0_6': [5589], 8: [1524, 764, 1011, 1012, 1013, 763, 762, 761, 4672, 4671, 4670, 4669, 1014, 4819, 4818, 760], 's_0_8': [4673], 9: [4298, 1345, 4960, 4953, 4954, 4955, 4956, 4957, 4958, 1732, 1733, 1734, 1735, 4959], 's_0_9': [1601], 10: [5513, 5512, 5511, 5510, 5389, 4833, 1004, 1003, 730, 731, 5014, 5013, 1001, 1002, 5285], 's_0_10': [1214], 11: [5388, 5089, 4916, 853, 852, 851, 850, 4909, 4915, 4914, 4913, 4912, 4911, 4910], 's_0_11': [4898], 14: [4266, 1043, 1042, 1132, 4265, 4608, 4264, 4263, 697, 698, 699, 700, 701, 702, 5193, 1094, 822, 823, 5434, 5435], 's_0_14': [1139], 15: [5495, 1297, 4521, 1018, 1017, 1298, 5240, 5241, 1178, 4536, 1299, 1300, 1301, 1302], 's_0_15': [5480], 17: [1061, 5140, 5139, 1977, 1062, 713, 4563, 579, 580, 581, 5138, 582, 5137, 5136, 5135, 5134, 5133], 's_0_17': [5154], 22: [4990, 4778, 4699, 4700, 4701, 4781, 4702, 2126, 1600, 2125, 2124, 4706, 2049, 1553, 1554, 4703, 4704, 4705], 's_0_22': [4613], 24: [2078, 2079, 2080, 2081, 2082, 5321, 5320, 5318, 5523, 5524, 1555, 1556, 1557, 1558, 5525, 5319, 5526, 5527], 's_0_24': [1259], 26: [5361, 1333, 848, 849, 4744, 4743, 654, 1331, 1332, 5271, 5270, 5269, 5268, 687, 686, 4982, 655], 's_0_26': [5664, 5663, 5662, 1334], 28: [1723, 1359, 1722, 5111, 2022, 1363, 5230, 5229, 1360, 1361, 1362, 5227, 5228], 's_0_28': [5514], 29: [4222, 1356, 1133, 5243, 4490, 4491, 5063, 1662, 4929, 1661, 1660, 4538, 1674, 1357, 4537, 1675, 1358], 's_0_29': [4764], 32: [4627, 4556, 4555, 4554, 4999, 1462, 1463, 4553, 1538, 4642, 1464, 1047, 1046, 4984, 1015, 4880, 4881, 4882, 1465], 's_0_32': [4643], 33: [5180, 1765, 1822, 1273, 4479, 1272, 4569, 5181, 5182, 5183, 1721, 1720, 1823, 1824, 1825, 4884], 's_0_33': [5168], 34: [5060, 1783, 2199, 2200, 2201, 5246, 5245, 1902, 5335, 5334, 5333, 5332, 5346, 1347, 1346, 2202, 5061], 's_0_34': [1784], 35: [4945, 896, 4358, 4359, 1838, 1839, 1840, 1841, 5028, 5029, 5030, 1211, 5076, 5077, 5078, 5079, 1842], 's_0_35': [1632], 37: [4974, 1074, 775, 4728, 4973, 4972, 1316, 1315, 4729, 4730, 1344, 4731], 's_0_37': [4762], 38: [5122, 1777, 1778, 5110, 5109, 4809, 1779, 1780, 1782, 5123, 5124, 1781], 's_0_38': [1691], 41: [4927, 5450, 5242, 4986, 1374, 1375, 1376, 1228, 5451, 5453, 5452, 1378, 1377], 's_0_41': [1738, 5454], 42: [1269, 1901, 4629, 1944, 1945, 968, 969, 4775, 4776, 1270, 1900, 4839, 967, 4838, 4837, 4836], 's_0_42': [1705], 's_0_0': [5634], 's_1_3': [4791], 4: [1618, 5286, 5287, 5288, 1617, 1509, 4748, 1612, 1613, 1614, 1615, 1616], 's_1_4': [4749], 's_1_9': [4794], 's_1_10': [1528], 's_1_11': [956], 13: [778, 1405, 4806, 4805, 5314, 998, 999, 883, 882, 881, 880, 4804], 's_1_13': [5059], 's_1_14': [5058], 's_1_15': [5496], 16: [4644, 2008, 1102, 2007, 4279, 2006, 4750, 1899, 1898, 1897, 4280, 4281, 2005, 4345, 4344, 4282, 4283, 1762], 's_1_16': [4615, 4614, 1974], 23: [5195, 4505, 1088, 1089, 5360, 1093, 1092, 1091, 1090], 's_1_23': [5345], 's_1_24': [4734, 4735, 4736], 25: [1567, 4374, 4639, 4373, 4372, 4371, 4370, 4369, 832, 719, 718, 717, 716, 715, 714, 4638, 833], 's_1_25': [656, 5118], 27: [5379, 5073, 806, 4924, 4668, 804, 805, 4969, 4970, 5378, 5377, 5376, 1243, 1242, 1241, 4971], 's_1_27': [1438], 's_1_28': [5439], 's_1_29': [5064], 30: [1452, 4489, 5092, 5091, 5090, 1148, 4581, 4580, 1028, 1029, 1031, 1030], 's_1_30': [1076], 's_1_33': [4944], 's_1_34': [1737, 5289], 36: [1649, 1643, 4582, 4583, 1644, 1645, 1648, 1647, 1646], 's_1_36': [5408, 5409], 's_1_37': [776], 's_1_38': [4659], 's_1_41': [5482], 's_1_1': [5470], 2: [5196, 1288, 1222, 1287, 1286, 4941, 1223, 4746, 1224, 1225], 's_3_2': [4416], 's_3_4': [1582, 4328], 's_3_6': [1979], 7: [4492, 4867, 4387, 959, 958, 957, 4267, 5105, 5106, 1417, 1418, 1419, 1420, 1421, 5107], 's_3_7': [1477], 's_3_8': [4309], 's_3_11': [1975], 's_3_14': [1117, 4221], 's_3_16': [1237], 's_3_17': [5275], 18: [688, 5418, 5419, 5420, 5421, 5422, 1498, 1497, 1496, 1495, 1494, 4687, 4688, 1659, 4390, 1658, 4389], 's_3_18': [2003, 4510], 's_3_22': [4645], 's_3_24': [5185], 's_3_28': [5200], 's_3_29': [1268], 's_3_30': [4566], 's_3_32': [1687, 1688], 's_3_33': [4525, 1928], 's_3_35': [4495, 4494], 's_3_37': [4641, 1239], 's_3_38': [5125], 39: [4925, 1057, 1058, 1059, 1060, 4820, 4821, 4822, 4823, 4824, 2157, 2156, 2155, 4826, 4825], 's_3_39': [4295], 40: [5396, 1991, 1992, 1993, 5553, 5554, 5556, 1394, 1392, 779, 5555, 5395, 5394, 5393, 5392, 5391, 1393], 's_3_40': [5290], 's_3_42': [4720], 's_3_3': [1522], 's_5_2': [4611], 's_5_7': [1523], 's_5_11': [4901], 's_5_15': [1193], 21: [4811, 5050, 4458, 4459, 5051, 4460, 1763, 4461, 4462, 4463, 2188, 2187, 2186, 2185, 2184, 4571, 2108, 4465, 4464], 's_5_21': [4646], 's_5_22': [2169], 's_5_24': [2093], 's_5_28': [5126], 's_5_30': [1119], 31: [4855, 4847, 4848, 4854, 4853, 4852, 4851, 4759, 922, 923, 924, 925, 4849, 4850], 's_5_31': [4840], 's_5_32': [2243], 's_5_33': [1718], 's_5_35': [4570], 's_5_36': [1328], 's_5_40': [5020], 's_5_42': [4690], 's_5_5': [2289], 's_6_2': [1210], 's_6_7': [5569], 's_6_8': [895], 's_6_9': [926], 's_6_10': [5539], 's_6_11': [5329], 12: [940, 4239, 939, 938, 937, 4235, 1628, 1627, 4238, 4237, 4236], 's_6_12': [4654], 's_6_17': [1151], 's_6_18': [928], 's_6_22': [4684], 's_6_23': [5359], 's_6_24': [899], 's_6_30': [1149], 's_6_32': [4865], 's_6_35': [5000], 's_6_37': [4774], 's_6_40': [1169], 's_6_42': [4534], 's_6_6': [1694], 's_8_7': [5104], 's_8_12': [4205], 's_8_13': [4685], 's_8_14': [996], 's_8_17': [5149], 19: [4443, 4718, 816, 820, 4717, 4719, 817, 818, 819, 4714, 4716, 4715], 's_8_19': [4713], 20: [803, 534, 727, 4732, 1103, 1104, 4622, 1404, 4626, 728, 729, 4623, 4624, 4625], 's_8_20': [4400], 's_8_22': [1434], 's_8_26': [4878], 's_8_27': [4908], 's_8_31': [4444], 's_8_32': [4657], 's_8_35': [5119], 's_8_37': [4863], 's_8_39': [4325], 's_8_40': [1258, 1153, 5481, 5405, 1048, 5374, 5373], 43: [5155, 1947, 5208, 5261, 5209, 5210, 5260, 1212, 1586, 1587, 5259, 5258, 5257, 5256], 's_8_43': [777], 's_8_8': [4129], 's_9_2': [1136], 's_9_12': [1731], 's_9_13': [1000], 's_9_15': [4866], 's_9_18': [1657], 's_9_19': [1719], 's_9_21': [1916, 1915], 's_9_22': [4779], 's_9_25': [4297], 's_9_26': [671], 's_9_28': [2111, 4961], 's_9_31': [640], 's_9_35': [4869], 's_9_37': [1540], 's_9_38': [4299], 's_9_39': [4808], 's_9_40': [1391, 5001], 's_9_43': [1571], 's_9_9': [1672], 's_10_4': [1198, 1197], 's_10_11': [5284], 's_10_13': [5194], 's_10_14': [973], 's_10_15': [5344], 's_10_17': [4758], 's_10_18': [1033], 's_10_23': [5225], 's_10_24': [1574], 's_10_25': [4788], 's_10_26': [4773], 's_10_27': [865], 's_10_28': [5615, 5616, 5617, 1364, 5587], 's_10_30': [5075], 's_10_31': [835], 's_10_32': [4998], 's_10_34': [1016], 's_10_35': [746], 's_10_36': [1634], 's_10_37': [4803], 's_10_40': [1064], 's_10_41': [1229], 's_10_10': [1469], 's_11_2': [1255], 's_11_4': [1510], 's_11_7': [942], 's_11_14': [5239], 's_11_18': [808], 's_11_19': [4864], 's_11_22': [1570], 's_11_26': [5088], 's_11_29': [1811], 's_11_31': [1870], 's_11_37': [1451], 's_11_39': [970], 's_11_40': [5479], 's_11_42': [4900], 's_11_11': [2036], 's_14_2': [1207], 's_14_7': [5404], 's_14_13': [792], 's_14_15': [944], 's_14_16': [1161], 's_14_17': [5192], 's_14_18': [868], 's_14_19': [4308], 's_14_20': [4550], 's_14_24': [838], 's_14_25': [862], 's_14_27': [732], 's_14_30': [4535], 's_14_31': [4609], 's_14_37': [669], 's_14_40': [929], 's_14_41': [5449], 's_14_43': [747], 's_14_14': [4233], 's_15_2': [4506], 's_15_7': [4432], 's_15_12': [1312], 's_15_17': [1181, 1182], 's_15_21': [1238], 's_15_22': [1179], 's_15_24': [988], 's_15_25': [4356], 's_15_29': [4417], 's_15_34': [5046], 's_15_36': [1314], 's_15_39': [4640], 's_15_41': [1227], 's_15_42': [4777], 's_15_15': [4191], 's_17_7': [971], 's_17_16': [5215], 's_17_18': [672, 673], 's_17_19': [4473], 's_17_20': [4637], 's_17_21': [1976], 's_17_26': [641, 5027], 's_17_27': [5072], 's_17_28': [1767], 's_17_29': [1572], 's_17_30': [4578, 4579], 's_17_31': [4832], 's_17_34': [1978], 's_17_36': [5153], 's_17_38': [1812], 's_17_40': [5170], 's_17_41': [1407], 's_17_42': [4548, 4549], 's_17_43': [867], 's_17_17': [5132], 's_22_2': [1209], 's_22_7': [4477], 's_22_12': [954], 's_22_13': [4807], 's_22_18': [4943], 's_22_20': [1389], 's_22_26': [4698], 's_22_29': [4868], 's_22_31': [879], 's_22_32': [2004], 's_22_34': [4721], 's_22_37': [1044], 's_22_39': [2140], 's_22_40': [5035], 's_22_41': [4928], 's_22_22': [2127], 's_24_7': [5032], 's_24_18': [5347], 's_24_21': [5336], 's_24_25': [704], 's_24_27': [5362, 1573], 's_24_28': [1917], 's_24_29': [4883], 's_24_31': [4796, 2110], 's_24_33': [4480], 's_24_34': [4541], 's_24_35': [1843], 's_24_36': [5423], 's_24_38': [5108], 's_24_39': [2173, 5306], 's_24_42': [2067, 2066, 2065, 4870], 's_24_43': [4987], 's_24_24': [2113], 's_26_2': [5166], 's_26_4': [1152], 's_26_18': [943], 's_26_21': [893, 894], 's_26_23': [1108], 's_26_27': [834], 's_26_28': [5272], 's_26_30': [1032], 's_26_34': [5317], 's_26_37': [745], 's_26_38': [1317, 5211], 's_26_40': [749, 748, 5253], 's_26_41': [5541], 's_26_43': [987], 's_26_26': [4742], 's_28_2': [4942], 's_28_4': [1542, 5303], 's_28_13': [4897], 's_28_16': [5095], 's_28_21': [2141], 's_28_33': [5184, 1827], 's_28_34': [5484], 's_28_35': [5080], 's_28_36': [5213], 's_28_37': [4747], 's_28_38': [5244], 's_28_39': [5231, 2172, 5096], 's_28_40': [5437], 's_28_41': [5407], 's_28_43': [1932, 5305], 's_28_28': [5528], 's_29_2': [4386], 's_29_4': [4658], 's_29_7': [4402], 's_29_12': [4223], 's_29_18': [4628], 's_29_20': [1373], 's_29_23': [4355], 's_29_30': [1073], 's_29_36': [1433], 's_29_38': [1541], 's_29_39': [4475], 's_29_41': [5062], 's_29_42': [1690], 's_29_43': [5093], 's_29_29': [4147], 's_32_2': [4940], 's_32_4': [1508], 's_32_12': [4252], 's_32_13': [5179], 's_32_16': [4540], 's_32_20': [1480], 's_32_21': [2138], 's_32_23': [5300], 's_32_27': [1240], 's_32_30': [5120], 's_32_35': [1537], 's_32_37': [1466], 's_32_38': [4539], 's_32_42': [1943], 's_32_43': [5255], 's_32_32': [4207], 's_33_2': [5301], 's_33_4': [1602], 's_33_12': [1748, 4478], 's_33_18': [4689], 's_33_19': [1764], 's_33_21': [4509], 's_33_23': [1077], 's_33_25': [1809, 1808], 's_33_27': [5331], 's_33_30': [1196], 's_33_31': [1810], 's_33_35': [4899], 's_33_36': [5003], 's_33_38': [4284], 's_33_40': [1274], 's_33_41': [5316], 's_33_42': [4885], 's_33_43': [5226], 's_33_33': [1821], 's_34_4': [1453], 's_34_16': [2198, 4376, 4375, 1927], 's_34_18': [1423], 's_34_21': [2203, 5381], 's_34_23': [1106], 's_34_27': [1121], 's_34_40': [5216, 2142, 2143], 's_34_41': [1603], 's_34_34': [4587, 2228, 2227], 's_35_7': [4357], 's_35_12': [1747], 's_35_13': [5074], 's_35_16': [1792], 's_35_21': [1702], 's_35_23': [4985], 's_35_25': [1552], 's_35_27': [866], 's_35_36': [4508, 1673], 's_35_41': [5031], 's_35_42': [1855], 's_35_43': [897], 's_35_35': [4449], 's_37_2': [4896], 's_37_12': [955], 's_37_18': [1481], 's_37_23': [4760], 's_37_25': [774], 's_37_27': [789], 's_37_31': [4789], 's_37_36': [1343], 's_37_38': [1406], 's_37_39': [1329], 's_37_37': [1436], 's_38_12': [4254], 's_38_16': [4810], 's_38_18': [4584], 's_38_19': [1884], 's_38_21': [1793], 's_38_30': [1511], 's_38_31': [1930], 's_38_36': [5199, 5198], 's_38_39': [1914], 's_38_40': [5304, 1752, 1753], 's_38_41': [1482], 's_38_42': [5004], 's_38_43': [5274], 's_38_38': [5019], 's_41_2': [1271], 's_41_4': [1422], 's_41_7': [1256], 's_41_18': [1499], 's_41_20': [4656], 's_41_23': [1183, 5390], 's_41_27': [1693], 's_41_30': [1467], 's_41_36': [5438], 's_41_39': [4926], 's_41_40': [1379], 's_41_41': [4792], 's_42_2': [4761], 's_42_12': [4790], 's_42_13': [1105], 's_42_16': [4765], 's_42_18': [1853, 1854], 's_42_19': [4354], 's_42_21': [982], 's_42_25': [4519], 's_42_31': [4294], 's_42_42': [1946], 's_4_12': [4253], 's_4_20': [4733], 's_4_21': [1598], 's_4_27': [1257], 's_4_39': [1539], 's_4_40': [5302], 's_4_43': [1437], 's_4_4': [4568], 's_13_18': [898], 's_13_19': [984], 's_13_20': [4520], 's_13_23': [4745], 's_13_25': [5313], 's_13_30': [1045], 's_13_39': [1075], 's_13_40': [884], 's_13_13': [4939], 's_16_12': [1371], 's_16_18': [1867], 's_16_20': [4278], 's_16_21': [4751], 's_16_25': [877], 's_16_31': [1990], 's_16_39': [1869], 's_16_16': [1101], 's_23_7': [5315], 's_23_18': [1123], 's_23_21': [1118], 's_23_25': [4504], 's_23_27': [5375], 's_23_30': [1107], 's_23_39': [4430], 's_23_23': [5150], 's_25_7': [1327], 's_25_12': [1027], 's_25_27': [4683], 's_25_30': [983], 's_25_36': [1568], 's_25_40': [5583], 's_25_25': [5478], 's_27_2': [5016], 's_27_18': [1513], 's_27_19': [4653], 's_27_20': [759], 's_27_31': [790], 's_27_36': [1633], 's_27_39': [941], 's_27_40': [1708], 's_27_27': [807], 's_30_2': [1208], 's_30_7': [1137], 's_30_21': [1147], 's_30_30': [1122], 's_36_7': [1583], 's_36_12': [1642], 's_36_18': [4388], 's_36_21': [1388], 's_36_40': [5363, 1678], 's_36_36': [5573], 's_2_7': [5121], 's_2_12': [4251], 's_2_18': [5406], 's_2_21': [4445], 's_2_31': [1120], 's_2_40': [1289], 's_2_43': [5151], 's_2_2': [4341], 's_7_18': [5047], 's_7_19': [1450], 's_7_21': [4447], 's_7_31': [1525], 's_7_43': [5002], 's_7_7': [986], 's_18_19': [4686, 1254], 's_18_21': [4434], 's_18_43': [5212], 's_18_18': [658], 's_39_21': [2171, 2170], 's_39_43': [5276], 's_39_19': [1194], 's_39_20': [4595], 's_39_39': [2229], 's_40_21': [5006, 5005], 's_40_43': [2038], 's_40_40': [2263], 's_21_12': [953], 's_21_19': [802, 4414], 's_21_20': [1403], 's_21_31': [4976, 2021, 2020], 's_21_43': [5156], 's_21_21': [758], 's_31_12': [4474], 's_31_19': [4399], 's_31_20': [535], 's_31_31': [921], 's_12_19': [4879], 's_12_12': [952], 's_19_20': [864], 's_19_19': [787], 's_20_20': [4323], 's_43_43': [1828]}</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0002283185840707965</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0006487612973395372</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>{0: [1109, 4763, 5570, 5571, 1409, 5497, 5500, 1629, 1630, 1631, 5018, 1706, 1707, 5348, 1663, 1664, 1769, 5498, 5499], 1: [5043, 5044, 5045, 1794, 1164, 1165, 1166, 1167, 1168, 5466, 5467, 5468, 5469, 1795, 1796, 1797, 1798], 's_0_1': [1814], 3: [1163, 1285, 1284, 4401, 1964, 1963, 1962, 1961, 1960, 1959, 1958, 4435, 1912, 1283, 4314, 4313, 4312, 4311, 4310, 1162], 's_0_3': [5515], 5: [2098, 2097, 4596, 4597, 2096, 2095, 2094, 4675, 4598, 4599, 4600, 4585, 4631, 4630, 1989], 's_0_5': [1599], 6: [5604, 5603, 5602, 5601, 909, 1150, 4835, 5605, 5600, 5599, 5584, 914, 913, 912, 911, 910, 4834], 's_0_6': [5589], 8: [1524, 764, 1011, 1012, 1013, 763, 762, 761, 4672, 4671, 4670, 4669, 1014, 4819, 4818, 760], 's_0_8': [4673], 9: [4298, 1345, 4960, 4953, 4954, 4955, 4956, 4957, 4958, 1732, 1733, 1734, 1735, 4959], 's_0_9': [1601], 10: [5513, 5512, 5511, 5510, 5389, 4833, 1004, 1003, 730, 731, 5014, 5013, 1001, 1002, 5285], 's_0_10': [1214], 11: [5388, 5089, 4916, 853, 852, 851, 850, 4909, 4915, 4914, 4913, 4912, 4911, 4910], 's_0_11': [4898], 14: [4266, 1043, 1042, 1132, 4265, 4608, 4264, 4263, 697, 698, 699, 700, 701, 702, 5193, 1094, 822, 823, 5434, 5435], 's_0_14': [1139], 15: [5495, 1297, 4521, 1018, 1017, 1298, 5240, 5241, 1178, 4536, 1299, 1300, 1301, 1302], 's_0_15': [5480], 17: [1061, 5140, 5139, 1977, 1062, 713, 4563, 579, 580, 581, 5138, 582, 5137, 5136, 5135, 5134, 5133], 's_0_17': [5154], 22: [4990, 4778, 4699, 4700, 4701, 4781, 4702, 2126, 1600, 2125, 2124, 4706, 2049, 1553, 1554, 4703, 4704, 4705], 's_0_22': [4613], 24: [2078, 2079, 2080, 2081, 2082, 5321, 5320, 5318, 5523, 5524, 1555, 1556, 1557, 1558, 5525, 5319, 5526, 5527], 's_0_24': [1259], 26: [5361, 1333, 848, 849, 4744, 4743, 654, 1331, 1332, 5271, 5270, 5269, 5268, 687, 686, 4982, 655], 's_0_26': [5664, 5663, 5662, 1334], 28: [1723, 1359, 1722, 5111, 2022, 1363, 5230, 5229, 1360, 1361, 1362, 5227, 5228], 's_0_28': [5514], 29: [4222, 1356, 1133, 5243, 4490, 4491, 5063, 1662, 4929, 1661, 1660, 4538, 1674, 1357, 4537, 1675, 1358], 's_0_29': [4764], 32: [4627, 4556, 4555, 4554, 4999, 1462, 1463, 4553, 1538, 4642, 1464, 1047, 1046, 4984, 1015, 4880, 4881, 4882, 1465], 's_0_32': [4643], 33: [5180, 1765, 1822, 1273, 4479, 1272, 4569, 5181, 5182, 5183, 1721, 1720, 1823, 1824, 1825, 4884], 's_0_33': [5168], 34: [5060, 1783, 2199, 2200, 2201, 5246, 5245, 1902, 5335, 5334, 5333, 5332, 5346, 1347, 1346, 2202, 5061], 's_0_34': [1784], 35: [4945, 896, 4358, 4359, 1838, 1839, 1840, 1841, 5028, 5029, 5030, 1211, 5076, 5077, 5078, 5079, 1842], 's_0_35': [1632], 37: [4974, 1074, 775, 4728, 4973, 4972, 1316, 1315, 4729, 4730, 1344, 4731], 's_0_37': [4762], 38: [5122, 1777, 1778, 5110, 5109, 4809, 1779, 1780, 1782, 5123, 5124, 1781], 's_0_38': [1691], 41: [4927, 5450, 5242, 4986, 1374, 1375, 1376, 1228, 5451, 5453, 5452, 1378, 1377], 's_0_41': [1738, 5454], 42: [1269, 1901, 4629, 1944, 1945, 968, 969, 4775, 4776, 1270, 1900, 4839, 967, 4838, 4837, 4836], 's_0_42': [1705], 's_0_0': [5634], 's_1_3': [4791], 4: [1618, 5286, 5287, 5288, 1617, 1509, 4748, 1612, 1613, 1614, 1615, 1616], 's_1_4': [4749], 's_1_9': [4794], 's_1_10': [1528], 's_1_11': [956], 13: [778, 1405, 4806, 4805, 5314, 998, 999, 883, 882, 881, 880, 4804], 's_1_13': [5059], 's_1_14': [5058], 's_1_15': [5496], 16: [4644, 2008, 1102, 2007, 4279, 2006, 4750, 1899, 1898, 1897, 4280, 4281, 2005, 4345, 4344, 4282, 4283, 1762], 's_1_16': [4615, 4614, 1974], 23: [5195, 4505, 1088, 1089, 5360, 1093, 1092, 1091, 1090], 's_1_23': [5345], 's_1_24': [4734, 4735, 4736], 25: [1567, 4374, 4639, 4373, 4372, 4371, 4370, 4369, 832, 719, 718, 717, 716, 715, 714, 4638, 833], 's_1_25': [656, 5118], 27: [5379, 5073, 806, 4924, 4668, 804, 805, 4969, 4970, 5378, 5377, 5376, 1243, 1242, 1241, 4971], 's_1_27': [1438], 's_1_28': [5439], 's_1_29': [5064], 30: [1452, 4489, 5092, 5091, 5090, 1148, 4581, 4580, 1028, 1029, 1031, 1030], 's_1_30': [1076], 's_1_33': [4944], 's_1_34': [1737, 5289], 36: [1649, 1643, 4582, 4583, 1644, 1645, 1648, 1647, 1646], 's_1_36': [5408, 5409], 's_1_37': [776], 's_1_38': [4659], 's_1_41': [5482], 's_1_1': [5470], 2: [5196, 1288, 1222, 1287, 1286, 4941, 1223, 4746, 1224, 1225], 's_3_2': [4416], 's_3_4': [1582, 4328], 's_3_6': [1979], 7: [4492, 4867, 4387, 959, 958, 957, 4267, 5105, 5106, 1417, 1418, 1419, 1420, 1421, 5107], 's_3_7': [1477], 's_3_8': [4309], 's_3_11': [1975], 's_3_14': [1117, 4221], 's_3_16': [1237], 's_3_17': [5275], 18: [688, 5418, 5419, 5420, 5421, 5422, 1498, 1497, 1496, 1495, 1494, 4687, 4688, 1659, 4390, 1658, 4389], 's_3_18': [2003, 4510], 's_3_22': [4645], 's_3_24': [5185], 's_3_28': [5200], 's_3_29': [1268], 's_3_30': [4566], 's_3_32': [1687, 1688], 's_3_33': [4525, 1928], 's_3_35': [4495, 4494], 's_3_37': [4641, 1239], 's_3_38': [5125], 39: [4925, 1057, 1058, 1059, 1060, 4820, 4821, 4822, 4823, 4824, 2157, 2156, 2155, 4826, 4825], 's_3_39': [4295], 40: [5396, 1991, 1992, 1993, 5553, 5554, 5556, 1394, 1392, 779, 5555, 5395, 5394, 5393, 5392, 5391, 1393], 's_3_40': [5290], 's_3_42': [4720], 's_3_3': [1522], 's_5_2': [4611], 's_5_7': [1523], 's_5_11': [4901], 's_5_15': [1193], 21: [4811, 5050, 4458, 4459, 5051, 4460, 1763, 4461, 4462, 4463, 2188, 2187, 2186, 2185, 2184, 4571, 2108, 4465, 4464], 's_5_21': [4646], 's_5_22': [2169], 's_5_24': [2093], 's_5_28': [5126], 's_5_30': [1119], 31: [4855, 4847, 4848, 4854, 4853, 4852, 4851, 4759, 922, 923, 924, 925, 4849, 4850], 's_5_31': [4840], 's_5_32': [2243], 's_5_33': [1718], 's_5_35': [4570], 's_5_36': [1328], 's_5_40': [5020], 's_5_42': [4690], 's_5_5': [2289], 's_6_2': [1210], 's_6_7': [5569], 's_6_8': [895], 's_6_9': [926], 's_6_10': [5539], 's_6_11': [5329], 12: [940, 4239, 939, 938, 937, 4235, 1628, 1627, 4238, 4237, 4236], 's_6_12': [4654], 's_6_17': [1151], 's_6_18': [928], 's_6_22': [4684], 's_6_23': [5359], 's_6_24': [899], 's_6_30': [1149], 's_6_32': [4865], 's_6_35': [5000], 's_6_37': [4774], 's_6_40': [1169], 's_6_42': [4534], 's_6_6': [1694], 's_8_7': [5104], 's_8_12': [4205], 's_8_13': [4685], 's_8_14': [996], 's_8_17': [5149], 19: [4443, 4718, 816, 820, 4717, 4719, 817, 818, 819, 4714, 4716, 4715], 's_8_19': [4713], 20: [803, 534, 727, 4732, 1103, 1104, 4622, 1404, 4626, 728, 729, 4623, 4624, 4625], 's_8_20': [4400], 's_8_22': [1434], 's_8_26': [4878], 's_8_27': [4908], 's_8_31': [4444], 's_8_32': [4657], 's_8_35': [5119], 's_8_37': [4863], 's_8_39': [4325], 's_8_40': [1258, 1153, 5481, 5405, 1048, 5374, 5373], 43: [5155, 1947, 5208, 5261, 5209, 5210, 5260, 1212, 1586, 1587, 5259, 5258, 5257, 5256], 's_8_43': [777], 's_8_8': [4129], 's_9_2': [1136], 's_9_12': [1731], 's_9_13': [1000], 's_9_15': [4866], 's_9_18': [1657], 's_9_19': [1719], 's_9_21': [1916, 1915], 's_9_22': [4779], 's_9_25': [4297], 's_9_26': [671], 's_9_28': [2111, 4961], 's_9_31': [640], 's_9_35': [4869], 's_9_37': [1540], 's_9_38': [4299], 's_9_39': [4808], 's_9_40': [1391, 5001], 's_9_43': [1571], 's_9_9': [1672], 's_10_4': [1198, 1197], 's_10_11': [5284], 's_10_13': [5194], 's_10_14': [973], 's_10_15': [5344], 's_10_17': [4758], 's_10_18': [1033], 's_10_23': [5225], 's_10_24': [1574], 's_10_25': [4788], 's_10_26': [4773], 's_10_27': [865], 's_10_28': [5615, 5616, 5617, 1364, 5587], 's_10_30': [5075], 's_10_31': [835], 's_10_32': [4998], 's_10_34': [1016], 's_10_35': [746], 's_10_36': [1634], 's_10_37': [4803], 's_10_40': [1064], 's_10_41': [1229], 's_10_10': [1469], 's_11_2': [1255], 's_11_4': [1510], 's_11_7': [942], 's_11_14': [5239], 's_11_18': [808], 's_11_19': [4864], 's_11_22': [1570], 's_11_26': [5088], 's_11_29': [1811], 's_11_31': [1870], 's_11_37': [1451], 's_11_39': [970], 's_11_40': [5479], 's_11_42': [4900], 's_11_11': [2036], 's_14_2': [1207], 's_14_7': [5404], 's_14_13': [792], 's_14_15': [944], 's_14_16': [1161], 's_14_17': [5192], 's_14_18': [868], 's_14_19': [4308], 's_14_20': [4550], 's_14_24': [838], 's_14_25': [862], 's_14_27': [732], 's_14_30': [4535], 's_14_31': [4609], 's_14_37': [669], 's_14_40': [929], 's_14_41': [5449], 's_14_43': [747], 's_14_14': [4233], 's_15_2': [4506], 's_15_7': [4432], 's_15_12': [1312], 's_15_17': [1181, 1182], 's_15_21': [1238], 's_15_22': [1179], 's_15_24': [988], 's_15_25': [4356], 's_15_29': [4417], 's_15_34': [5046], 's_15_36': [1314], 's_15_39': [4640], 's_15_41': [1227], 's_15_42': [4777], 's_15_15': [4191], 's_17_7': [971], 's_17_16': [5215], 's_17_18': [672, 673], 's_17_19': [4473], 's_17_20': [4637], 's_17_21': [1976], 's_17_26': [641, 5027], 's_17_27': [5072], 's_17_28': [1767], 's_17_29': [1572], 's_17_30': [4578, 4579], 's_17_31': [4832], 's_17_34': [1978], 's_17_36': [5153], 's_17_38': [1812], 's_17_40': [5170], 's_17_41': [1407], 's_17_42': [4548, 4549], 's_17_43': [867], 's_17_17': [5132], 's_22_2': [1209], 's_22_7': [4477], 's_22_12': [954], 's_22_13': [4807], 's_22_18': [4943], 's_22_20': [1389], 's_22_26': [4698], 's_22_29': [4868], 's_22_31': [879], 's_22_32': [2004], 's_22_34': [4721], 's_22_37': [1044], 's_22_39': [2140], 's_22_40': [5035], 's_22_41': [4928], 's_22_22': [2127], 's_24_7': [5032], 's_24_18': [5347], 's_24_21': [5336], 's_24_25': [704], 's_24_27': [5362, 1573], 's_24_28': [1917], 's_24_29': [4883], 's_24_31': [4796, 2110], 's_24_33': [4480], 's_24_34': [4541], 's_24_35': [1843], 's_24_36': [5423], 's_24_38': [5108], 's_24_39': [2173, 5306], 's_24_42': [2067, 2066, 2065, 4870], 's_24_43': [4987], 's_24_24': [2113], 's_26_2': [5166], 's_26_4': [1152], 's_26_18': [943], 's_26_21': [893, 894], 's_26_23': [1108], 's_26_27': [834], 's_26_28': [5272], 's_26_30': [1032], 's_26_34': [5317], 's_26_37': [745], 's_26_38': [1317, 5211], 's_26_40': [749, 748, 5253], 's_26_41': [5541], 's_26_43': [987], 's_26_26': [4742], 's_28_2': [4942], 's_28_4': [1542, 5303], 's_28_13': [4897], 's_28_16': [5095], 's_28_21': [2141], 's_28_33': [5184, 1827], 's_28_34': [5484], 's_28_35': [5080], 's_28_36': [5213], 's_28_37': [4747], 's_28_38': [5244], 's_28_39': [5231, 2172, 5096], 's_28_40': [5437], 's_28_41': [5407], 's_28_43': [1932, 5305], 's_28_28': [5528], 's_29_2': [4386], 's_29_4': [4658], 's_29_7': [4402], 's_29_12': [4223], 's_29_18': [4628], 's_29_20': [1373], 's_29_23': [4355], 's_29_30': [1073], 's_29_36': [1433], 's_29_38': [1541], 's_29_39': [4475], 's_29_41': [5062], 's_29_42': [1690], 's_29_43': [5093], 's_29_29': [4147], 's_32_2': [4940], 's_32_4': [1508], 's_32_12': [4252], 's_32_13': [5179], 's_32_16': [4540], 's_32_20': [1480], 's_32_21': [2138], 's_32_23': [5300], 's_32_27': [1240], 's_32_30': [5120], 's_32_35': [1537], 's_32_37': [1466], 's_32_38': [4539], 's_32_42': [1943], 's_32_43': [5255], 's_32_32': [4207], 's_33_2': [5301], 's_33_4': [1602], 's_33_12': [1748, 4478], 's_33_18': [4689], 's_33_19': [1764], 's_33_21': [4509], 's_33_23': [1077], 's_33_25': [1809, 1808], 's_33_27': [5331], 's_33_30': [1196], 's_33_31': [1810], 's_33_35': [4899], 's_33_36': [5003], 's_33_38': [4284], 's_33_40': [1274], 's_33_41': [5316], 's_33_42': [4885], 's_33_43': [5226], 's_33_33': [1821], 's_34_4': [1453], 's_34_16': [2198, 4376, 4375, 1927], 's_34_18': [1423], 's_34_21': [2203, 5381], 's_34_23': [1106], 's_34_27': [1121], 's_34_40': [5216, 2142, 2143], 's_34_41': [1603], 's_34_34': [4587, 2228, 2227], 's_35_7': [4357], 's_35_12': [1747], 's_35_13': [5074], 's_35_16': [1792], 's_35_21': [1702], 's_35_23': [4985], 's_35_25': [1552], 's_35_27': [866], 's_35_36': [4508, 1673], 's_35_41': [5031], 's_35_42': [1855], 's_35_43': [897], 's_35_35': [4449], 's_37_2': [4896], 's_37_12': [955], 's_37_18': [1481], 's_37_23': [4760], 's_37_25': [774], 's_37_27': [789], 's_37_31': [4789], 's_37_36': [1343], 's_37_38': [1406], 's_37_39': [1329], 's_37_37': [1436], 's_38_12': [4254], 's_38_16': [4810], 's_38_18': [4584], 's_38_19': [1884], 's_38_21': [1793], 's_38_30': [1511], 's_38_31': [1930], 's_38_36': [5199, 5198], 's_38_39': [1914], 's_38_40': [5304, 1752, 1753], 's_38_41': [1482], 's_38_42': [5004], 's_38_43': [5274], 's_38_38': [5019], 's_41_2': [1271], 's_41_4': [1422], 's_41_7': [1256], 's_41_18': [1499], 's_41_20': [4656], 's_41_23': [1183, 5390], 's_41_27': [1693], 's_41_30': [1467], 's_41_36': [5438], 's_41_39': [4926], 's_41_40': [1379], 's_41_41': [4792], 's_42_2': [4761], 's_42_12': [4790], 's_42_13': [1105], 's_42_16': [4765], 's_42_18': [1853, 1854], 's_42_19': [4354], 's_42_21': [982], 's_42_25': [4519], 's_42_31': [4294], 's_42_42': [1946], 's_4_12': [4253], 's_4_20': [4733], 's_4_21': [1598], 's_4_27': [1257], 's_4_39': [1539], 's_4_40': [5302], 's_4_43': [1437], 's_4_4': [4568], 's_13_18': [898], 's_13_19': [984], 's_13_20': [4520], 's_13_23': [4745], 's_13_25': [5313], 's_13_30': [1045], 's_13_39': [1075], 's_13_40': [884], 's_13_13': [4939], 's_16_12': [1371], 's_16_18': [1867], 's_16_20': [4278], 's_16_21': [4751], 's_16_25': [877], 's_16_31': [1990], 's_16_39': [1869], 's_16_16': [1101], 's_23_7': [5315], 's_23_18': [1123], 's_23_21': [1118], 's_23_25': [4504], 's_23_27': [5375], 's_23_30': [1107], 's_23_39': [4430], 's_23_23': [5150], 's_25_7': [1327], 's_25_12': [1027], 's_25_27': [4683], 's_25_30': [983], 's_25_36': [1568], 's_25_40': [5583], 's_25_25': [5478], 's_27_2': [5016], 's_27_18': [1513], 's_27_19': [4653], 's_27_20': [759], 's_27_31': [790], 's_27_36': [1633], 's_27_39': [941], 's_27_40': [1708], 's_27_27': [807], 's_30_2': [1208], 's_30_7': [1137], 's_30_21': [1147], 's_30_30': [1122], 's_36_7': [1583], 's_36_12': [1642], 's_36_18': [4388], 's_36_21': [1388], 's_36_40': [5363, 1678], 's_36_36': [5573], 's_2_7': [5121], 's_2_12': [4251], 's_2_18': [5406], 's_2_21': [4445], 's_2_31': [1120], 's_2_40': [1289], 's_2_43': [5151], 's_2_2': [4341], 's_7_18': [5047], 's_7_19': [1450], 's_7_21': [4447], 's_7_31': [1525], 's_7_43': [5002], 's_7_7': [986], 's_18_19': [4686, 1254], 's_18_21': [4434], 's_18_43': [5212], 's_18_18': [658], 's_39_21': [2171, 2170], 's_39_43': [5276], 's_39_19': [1194], 's_39_20': [4595], 's_39_39': [2229], 's_40_21': [5006, 5005], 's_40_43': [2038], 's_40_40': [2263], 's_21_12': [953], 's_21_19': [802, 4414], 's_21_20': [1403], 's_21_31': [4976, 2021, 2020], 's_21_43': [5156], 's_21_21': [758], 's_31_12': [4474], 's_31_19': [4399], 's_31_20': [535], 's_31_31': [921], 's_12_19': [4879], 's_12_12': [952], 's_19_20': [864], 's_19_19': [787], 's_20_20': [4323], 's_43_43': [1828]}</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0.0002283185840707965</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.0006487612973395372</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>{0: [1452, 1858, 1857, 5091, 5092, 5093, 5094], 1: [1511, 1197, 5079, 5078, 5077, 5076, 5030, 1196], 2: [4943, 1484, 1481, 1482, 1483], 3: [1183, 1182, 5003, 5002, 5001, 1301, 5046, 1181], 5: [5210, 1242, 1467, 5211, 5214, 5213, 5212], 8: [1603, 1602, 1600, 1601], 9: [1258, 1303, 5421, 5424, 5423, 5422], 10: [5335, 5331, 5334, 5333, 1361, 1362, 5332], 13: [5151, 5154, 5153, 5152], 16: [1286, 5409, 1287, 1198, 5408, 1288, 5406, 5407], 17: [1391, 5241, 1302, 5121, 5124, 5123, 5122], 18: [1694, 5588, 5587, 1421, 1469, 1422, 1423, 5482], 20: [1811, 5497, 1812, 1813, 1814, 5498, 5499], 24: [5167, 5244, 5243, 1574, 1573, 1571, 1572], 26: [1795, 1768, 1796, 1797, 1798, 5484, 1693], 28: [5064, 5018, 5017, 1720, 1723, 1722, 1721], 29: [1137, 1136, 1256, 4974, 4973, 4972, 4971], 30: [1436, 1437, 5438, 5437, 1438], 31: [1228, 1227, 5259, 5258, 5257, 5256], 32: [4914, 5169, 5168, 1737, 1735, 1736], 37: [4898, 1558, 1557, 1555, 1556], 38: [5319, 1453, 1541, 1542, 5317, 5318], 40: [4913, 4912, 1378, 1377, 1376, 1466, 5047], 41: [5061, 5139, 5136, 1331, 5138, 5137], 42: [5195, 5198, 5197, 1333, 1332, 5196], 4: [5229, 5228, 1257, 5226, 5227], 6: [1661, 1662, 5558, 1664, 1663], 7: [5016, 1243, 5364, 1346, 1347, 5363, 5362, 5361], 15: [5345, 5348, 5347, 1392, 1393, 5346], 19: [4959, 4958, 5166, 1407, 1406, 5062, 1496], 21: [1212, 5290, 5289, 5288, 5286, 5287], 25: [1633, 1632, 4929, 4928, 1631], 33: [5305, 5304, 5303, 1317, 1318, 5302], 35: [5394, 1843, 1676, 5063, 1691, 1842, 5110, 5109], 36: [5106, 5379, 5378, 1272, 1273, 5376, 5377], 43: [5184, 5180, 5181, 5183, 5182], 44: [5527, 5528, 1751, 1752, 1754, 1753], 12: [5108, 5557, 1497, 1498, 5542, 1499], 14: [1528, 5467, 5468, 1781, 5469, 1782, 1783], 27: [4944, 1705, 1706, 1707, 5573, 1708, 1709], 39: [5572, 1619, 1559, 5603, 5604, 1827, 1828, 5439, 1829], 22: [1138, 5390, 5391, 5393, 5392], 11: [5543, 1646, 1647, 1649, 1648], 34: [5032, 1586, 1587, 5274, 5272, 1678, 5273], 23: [1634, 5452, 1616, 5453, 1618, 1617]}</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.1234868017188459</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.03016286498539974</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>{0: [1452, 1858, 1857, 5091, 5092, 5093, 5094], 1: [1511, 1197, 5079, 5078, 5077, 5076, 5030, 1196], 2: [4943, 1484, 1481, 1482, 1483], 3: [1183, 1182, 5003, 5002, 5001, 1301, 5046, 1181], 5: [5210, 1242, 1467, 5211, 5214, 5213, 5212], 8: [1603, 1602, 1600, 1601], 9: [1258, 1303, 5421, 5424, 5423, 5422], 10: [5335, 5331, 5334, 5333, 1361, 1362, 5332], 13: [5151, 5154, 5153, 5152], 16: [1286, 5409, 1287, 1198, 5408, 1288, 5406, 5407], 17: [1391, 5241, 1302, 5121, 5124, 5123, 5122], 18: [1694, 5588, 5587, 1421, 1469, 1422, 1423, 5482], 20: [1811, 5497, 1812, 1813, 1814, 5498, 5499], 24: [5167, 5244, 5243, 1574, 1573, 1571, 1572], 26: [1795, 1768, 1796, 1797, 1798, 5484, 1693], 28: [5064, 5018, 5017, 1720, 1723, 1722, 1721], 29: [1137, 1136, 1256, 4974, 4973, 4972, 4971], 30: [1436, 1437, 5438, 5437, 1438], 31: [1228, 1227, 5259, 5258, 5257, 5256], 32: [4914, 5169, 5168, 1737, 1735, 1736], 37: [4898, 1558, 1557, 1555, 1556], 38: [5319, 1453, 1541, 1542, 5317, 5318], 40: [4913, 4912, 1378, 1377, 1376, 1466, 5047], 41: [5061, 5139, 5136, 1331, 5138, 5137], 42: [5195, 5198, 5197, 1333, 1332, 5196], 4: [5229, 5228, 1257, 5226, 5227], 6: [1661, 1662, 5558, 1664, 1663], 7: [5016, 1243, 5364, 1346, 1347, 5363, 5362, 5361], 15: [5345, 5348, 5347, 1392, 1393, 5346], 19: [4959, 4958, 5166, 1407, 1406, 5062, 1496], 21: [1212, 5290, 5289, 5288, 5286, 5287], 25: [1633, 1632, 4929, 4928, 1631], 33: [5305, 5304, 5303, 1317, 1318, 5302], 35: [5394, 1843, 1676, 5063, 1691, 1842, 5110, 5109], 36: [5106, 5379, 5378, 1272, 1273, 5376, 5377], 43: [5184, 5180, 5181, 5183, 5182], 44: [5527, 5528, 1751, 1752, 1754, 1753], 12: [5108, 5557, 1497, 1498, 5542, 1499], 14: [1528, 5467, 5468, 1781, 5469, 1782, 1783], 27: [4944, 1705, 1706, 1707, 5573, 1708, 1709], 39: [5572, 1619, 1559, 5603, 5604, 1827, 1828, 5439, 1829], 22: [1138, 5390, 5391, 5393, 5392], 11: [5543, 1646, 1647, 1649, 1648], 34: [5032, 1586, 1587, 5274, 5272, 1678, 5273], 23: [1634, 5452, 1616, 5453, 1618, 1617]}</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0.1234868017188459</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.03016286498539974</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>{0: [3358, 4046, 2492, 2494, 2493, 1434, 4687, 4688, 4689, 4690, 4047, 4048, 2495, 4691, 2496, 2497, 2498, 4588, 4587, 2199, 4541], 1: [1358, 1681, 1359, 4656, 1269, 1268, 2118, 2117, 3370, 3369, 1267, 1266, 1265, 1264, 1263, 1262, 3366, 3367, 3368], 's_0_1': [4732], 2: [1523, 4686, 1643, 4388, 1517, 1522, 1518, 1519, 1520, 1521, 1299, 1298, 1297, 4191, 4192], 's_0_2': [1300, 4792, 1374], 3: [1486, 4281, 3247, 1366, 3442, 1367, 1824, 1823, 4359, 1368, 1369, 1370, 4358, 4357, 1372, 1371], 's_0_3': [4704], 5: [2431, 4566, 4567, 4568, 4569, 1778, 4449, 4450, 2432, 4451, 2437, 2436, 2435, 4452, 2433, 2434], 's_0_5': [2333], 8: [1629, 1565, 1564, 1447, 1566, 1567, 4312, 1561, 4538, 1562, 1563, 1568], 's_0_8': [4703], 9: [2359, 4553, 2582, 2583, 4554, 4555, 4556, 4557, 4542, 2423, 2422, 3807, 3808, 2584, 3388, 2585, 2586, 4259, 2581, 4258, 2421], 's_0_9': [3928], 10: [2346, 1414, 3972, 4064, 3892, 1415, 3952, 1550, 4058, 2405, 4063, 4062, 4061, 4060, 4059], 's_0_10': [2331, 2330], 13: [3853, 1399, 3712, 1444, 2463, 3643, 3567, 3566, 2464, 3564, 3565, 3563, 3562, 1443], 's_0_13': [3673], 16: [2317, 1548, 4257, 4256, 2061, 2060, 2059, 3575, 3576, 3577, 3578, 3579, 3580, 2058], 's_0_16': [2318], 17: [3716, 1756, 1755, 3128, 3129, 3130, 3131, 2161, 2169, 2168, 3596, 2167, 2166, 2165, 2164, 2163, 3341, 2162], 's_0_17': [4676], 18: [4017, 3160, 2392, 3912, 1966, 1967, 3520, 1968, 3715, 1970, 1969, 4182, 2286, 2285, 4018, 3911, 3910], 's_0_18': [2135], 20: [1776, 4102, 2074, 2075, 4101, 4103, 4105, 4104], 's_0_20': [2090], 24: [1614, 1613, 2523, 1609, 2522, 4478, 1658, 1657, 3583, 3312, 3311, 3310, 3309, 1652, 1653, 3313, 1656, 1655, 1654, 3758], 's_0_24': [3343], 26: [1175, 1174, 1173, 1172, 3456, 2557, 3457, 3458, 3459, 2556, 2555, 2554, 2553, 3463, 3462, 3461, 3460, 2043, 2042], 's_0_26': [4049], 28: [1418, 4506, 4288, 2527, 4612, 1373, 2528, 4507, 4508, 4509, 2511, 2512, 4408, 2198, 2153, 4407, 4000, 2016, 2017, 2018, 4510, 4511], 's_0_28': [4483], 29: [2078, 3670, 3669, 4601, 4600, 4599, 4598, 4597, 1314, 4011, 3668, 1398, 3667, 1313, 1312, 1311, 1310, 1309], 's_0_29': [1764], 30: [3427, 3426, 2446, 2596, 3267, 3266, 3265, 3264, 1726, 3218, 3268, 3217, 3216, 3215, 1216, 1217, 1218, 1219, 3786], 's_0_30': [2491], 31: [2342, 4298, 1762, 1761, 1760, 1759, 3969, 3433, 3432, 3431, 3430, 3429, 3397, 3398, 1757, 1758], 's_0_31': [2507], 32: [2108, 1688, 3832, 2483, 3773, 3772, 1459, 1460, 1461, 1462, 4497, 4496, 1463, 4495, 4494, 4493, 4492], 's_0_32': [1433, 4462], 37: [1252, 4341, 4342, 2539, 3688, 3687, 3686, 1417, 1416, 4162, 3685, 3684, 1477, 1476, 1475, 1474, 3683], 's_0_37': [3733], 38: [3777, 2378, 4377, 4376, 1595, 3776, 2254, 3983, 3984, 3985, 3986, 3926, 2152, 2151, 2150], 's_0_38': [2214, 2213], 40: [3791, 3971, 2196, 2195, 1384, 1383, 1381, 3641, 2194, 2193, 2192, 2191, 3191, 3190, 3189, 3188, 3187, 1411, 1382, 3307], 's_0_40': [2120], 41: [2013, 4642, 2119, 4643, 4644, 3939, 3760, 2014, 3805, 1939, 1940, 1941, 1942, 4405, 1913, 1912], 's_0_41': [1779], 42: [4645, 2154, 3280, 3277, 3278, 3279, 1802, 3399, 4646, 3400, 3401, 3402, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 4647], 's_0_42': [2438], 's_0_0': [2544], 's_1_2': [4671], 's_1_3': [3248], 4: [3539, 3236, 3235, 1205, 1204, 1203, 2221, 2222, 3531, 3532, 3533, 1698, 1697, 3534, 3535, 3536, 3537, 3538, 3613, 2538], 's_1_4': [2041], 6: [2482, 1804, 2086, 2481, 2480, 2479, 3866, 2344, 2149, 3744, 2087, 2088, 3745, 3746, 3747], 's_1_6': [3476], 7: [1431, 3741, 1546, 1547, 3488, 3487, 1337, 2242, 4331, 2122, 4270, 4269, 1807, 4224, 4223, 4222, 1341, 1340, 1339, 1338], 's_1_7': [4176], 15: [3114, 4585, 4147, 4584, 4146, 1703, 1702, 1701, 4148, 3113, 1636, 1637, 1638, 1639, 1640, 1641], 's_1_15': [1356, 4266], 's_1_16': [3595], 's_1_17': [3446], 19: [1488, 3605, 1910, 3606, 3607, 3608, 3612, 1909, 1908, 3611, 3610, 3609], 's_1_19': [3626], 21: [4525, 4524, 1793, 1787, 4041, 4042, 4043, 4044, 1792, 1791, 3924, 1788, 1789, 1790], 's_1_21': [3354], 's_1_24': [1891], 25: [3996, 3951, 4302, 1354, 1355, 1353, 4072, 2227, 4301, 4361, 4300, 1325, 1956, 1611, 4073, 4074, 1957, 4075], 's_1_25': [3936], 's_1_26': [1397], 's_1_28': [4476], 's_1_29': [4596], 's_1_30': [3351, 1277], 's_1_31': [3396], 33: [1590, 4238, 4237, 4236, 1591, 1592, 1238, 1237, 1236, 4056, 3846, 3473, 3472, 3471, 1281, 1278, 1279, 1280], 's_1_33': [3501], 35: [1342, 3884, 3883, 4416, 4417, 4418, 4433, 4434, 4435, 2372, 2373, 2374, 2375, 2376, 4152, 4151, 2091, 4436, 2092], 's_1_35': [1283], 36: [4479, 1833, 1834, 1835, 1839, 1838, 1837, 1832, 1836], 's_1_36': [1937, 3355], 's_1_40': [3306], 's_1_41': [4657, 1494], 43: [3997, 1069, 3800, 3801, 2105, 2106, 1234, 4211, 3816, 3817, 1490, 4210, 4209, 4208, 1492, 1491], 's_1_43': [3696], 44: [1673, 4463, 3249, 1741, 4168, 4166, 4014, 4165, 1732, 1731, 4164, 1746, 1742, 1743, 1744, 4167, 1745], 's_1_44': [3324, 1711], 's_1_1': [4777, 1420], 's_2_3': [1516], 's_2_7': [1401], 's_2_8': [3878], 's_2_10': [3967], 12: [2236, 2241, 3357, 2207, 2208, 2209, 2210, 2211, 4115, 4116, 4117, 4118, 4119, 4120, 4121], 's_2_12': [1191], 14: [1818, 4137, 2257, 2256, 4136, 4132, 4135, 4134, 3491, 3490, 3489, 2258, 1668, 1669, 1670, 1671, 4133], 's_2_14': [1506], 's_2_15': [1326], 's_2_16': [3592], 's_2_19': [3622], 's_2_21': [1505], 's_2_25': [3802], 27: [1534, 1535, 2601, 1536, 4193, 4198, 4197, 4196, 4194, 4195], 's_2_27': [4267], 's_2_28': [4491], 's_2_30': [3652, 3651], 's_2_33': [4461], 's_2_37': [1282], 39: [2570, 3869, 4244, 2616, 2615, 3413, 3907, 2614, 2613, 2612, 3418, 3417, 3416, 3415, 3908, 3909, 1879, 1878, 1877, 3414], 's_2_39': [1504], 's_2_41': [4641], 's_2_44': [4448, 4447], 's_2_2': [4190], 's_3_4': [1293, 1294, 3756, 3755], 's_3_5': [4419], 's_3_7': [3411], 's_3_8': [1472, 3382], 's_3_9': [1553, 1552], 's_3_10': [1821, 1822], 's_3_13': [3502], 's_3_15': [4614], 's_3_16': [3591], 's_3_17': [3127, 1441], 's_3_19': [1487], 's_3_21': [1777], 22: [1846, 1853, 3444, 4374, 3325, 1847, 1848, 1849, 4283, 4284, 1852, 1851, 1850], 's_3_22': [1747], 's_3_24': [4389], 's_3_28': [1448, 4402], 's_3_30': [3441], 's_3_31': [1412], 's_3_32': [4252], 's_3_35': [4432], 's_3_36': [4629], 's_3_37': [1432], 's_3_40': [1351, 3352], 's_3_43': [4012], 's_3_44': [4404], 's_3_3': [3262], 's_5_7': [4466], 's_5_8': [1583], 11: [3372, 2226, 4227, 2316, 3880, 3792, 3988, 4106, 2270, 3881, 3882, 2315, 2386, 2387, 2388, 2389, 2390, 3987], 's_5_11': [3898], 's_5_13': [3868], 's_5_18': [4272], 's_5_21': [4464], 's_5_26': [3658], 's_5_27': [4348, 2572], 's_5_28': [4078], 's_5_30': [3253], 's_5_32': [2303], 's_5_33': [4581, 1193], 34: [3293, 1622, 3943, 3387, 3942, 3941, 3940, 2000, 3383, 2297, 3386, 3385, 3384, 1922, 1923, 1924, 3820], 's_5_34': [3957], 's_5_35': [1208], 's_5_36': [2138, 4571, 4570], 's_5_37': [1253], 's_5_38': [2393], 's_5_39': [2537, 3328], 's_5_41': [1644, 4613], 's_5_42': [3597], 's_5_5': [4565], 's_8_7': [3518], 's_8_9': [1538], 's_8_10': [3937], 's_8_13': [3727], 's_8_15': [1560], 's_8_16': [3638], 's_8_19': [3547], 23: [3698, 2063, 2062, 3701, 4345, 1987, 1986, 1728, 3699, 3700, 1984, 3702, 1985], 's_8_23': [1579], 's_8_25': [4178], 's_8_31': [1672, 4328], 's_8_32': [4628], 's_8_37': [4253], 's_8_38': [3893], 's_8_40': [3202], 's_8_42': [1531, 3323], 's_8_8': [4583], 's_9_4': [3478], 's_9_10': [4122, 4123, 2646], 's_9_11': [2419], 's_9_14': [2273], 's_9_15': [2004], 's_9_18': [3913], 's_9_21': [1748], 's_9_23': [2048], 's_9_24': [3373], 's_9_26': [3899], 's_9_28': [2123], 's_9_30': [3359], 's_9_31': [3403, 2567], 's_9_34': [3958], 's_9_35': [1598], 's_9_37': [3793], 's_9_38': [2269], 's_9_39': [4229], 's_9_42': [4467], 's_9_44': [1763], 's_9_9': [3314], 's_10_7': [1549, 3922, 3921], 's_10_11': [4002], 's_10_12': [4077], 's_10_13': [3771, 1324], 's_10_14': [2255], 's_10_17': [2181], 's_10_18': [2360], 's_10_20': [2045], 's_10_21': [1385], 's_10_24': [3998], 's_10_25': [1295], 's_10_26': [4079], 's_10_31': [1865], 's_10_34': [2600], 's_10_35': [4033], 's_10_36': [3953, 3954], 's_10_38': [3968], 's_10_39': [1445], 's_10_40': [4092, 4091], 's_10_41': [1926], 's_10_42': [3973], 's_10_44': [2121], 's_10_10': [2420], 's_13_7': [3517], 's_13_14': [1682], 's_13_15': [1623], 's_13_18': [1998], 's_13_19': [1458], 's_13_24': [3568], 's_13_25': [3862], 's_13_26': [3854], 's_13_29': [3726], 's_13_31': [2417], 's_13_32': [3757], 's_13_33': [1502], 's_13_34': [2524, 2525], 's_13_35': [3732], 's_13_37': [1593], 's_13_38': [2404], 's_13_40': [2133], 's_13_41': [1938], 's_13_13': [3711, 1129], 's_16_6': [3730], 's_16_12': [2271], 's_16_14': [4392], 's_16_17': [3896], 's_16_18': [2347, 4332], 's_16_19': [1053], 's_16_21': [3594], 's_16_22': [4255], 's_16_24': [3653], 's_16_25': [4076], 's_16_26': [3671], 's_16_28': [4241], 's_16_29': [1773], 's_16_31': [2057], 's_16_34': [3970], 's_16_37': [1473], 's_16_38': [2302], 's_16_41': [3640], 's_16_43': [1249, 1248, 3666, 1143], 's_16_16': [1113], 's_17_4': [2176], 's_17_6': [2238], 's_17_7': [4316], 's_17_11': [3101, 3102], 's_17_15': [1950, 3115], 's_17_19': [2147, 2148], 's_17_23': [4346], 's_17_24': [3326], 's_17_26': [2178], 's_17_27': [2182], 's_17_29': [2184], 's_17_30': [2011], 's_17_31': [2268, 2267], 's_17_33': [1605], 's_17_34': [2266, 3221], 's_17_35': [2183], 's_17_39': [2177], 's_17_40': [2055], 's_17_42': [4631], 's_17_43': [4226], 's_17_44': [1801], 's_17_17': [1935], 's_18_4': [1996], 's_18_11': [2284], 's_18_14': [4347], 's_18_19': [1953], 's_18_20': [3925], 's_18_22': [1951], 's_18_24': [3220, 2116], 's_18_26': [3625], 's_18_27': [2406], 's_18_28': [2287], 's_18_30': [3250, 2026], 's_18_34': [2465], 's_18_36': [4030], 's_18_38': [3775], 's_18_39': [1862], 's_18_40': [1905], 's_18_42': [3295], 's_18_43': [1971], 's_18_18': [3161], 's_20_6': [3806], 's_20_19': [1895], 's_20_21': [1626], 's_20_24': [4088], 's_20_27': [1596], 's_20_28': [2031], 's_20_29': [1296], 's_20_32': [1446], 's_20_33': [4086], 's_20_37': [4087], 's_20_38': [1715], 's_20_40': [3821], 's_20_41': [4089], 's_20_43': [4031], 's_20_44': [1730], 's_20_20': [1251], 's_24_12': [2357], 's_24_14': [3894], 's_24_15': [4313], 's_24_21': [3504], 's_24_22': [1861], 's_24_23': [1594], 's_24_25': [4163], 's_24_29': [1624], 's_24_33': [3428], 's_24_34': [1817, 3294], 's_24_36': [1729, 3819], 's_24_37': [2476, 2477, 2478], 's_24_38': [1610], 's_24_39': [3628, 3629], 's_24_41': [1659], 's_24_42': [1997], 's_24_43': [3863], 's_24_44': [3519], 's_24_24': [4373], 's_26_4': [2568, 3598], 's_26_6': [3521], 's_26_14': [3506], 's_26_15': [1176], 's_26_21': [1190], 's_26_22': [1727], 's_26_25': [3950], 's_26_27': [4214], 's_26_28': [4093], 's_26_30': [1189], 's_26_31': [2462], 's_26_33': [1427], 's_26_35': [3477], 's_26_36': [3474], 's_26_43': [3770], 's_26_44': [4153], 's_26_26': [4318, 4319], 's_28_6': [4213], 's_28_14': [4481], 's_28_19': [4015], 's_28_21': [1883], 's_28_22': [3999], 's_28_23': [4465], 's_28_25': [4422], 's_28_27': [4138], 's_28_29': [1389], 's_28_33': [4536, 1343], 's_28_35': [1403, 4582], 's_28_36': [4420, 4421], 's_28_37': [1388, 4446, 1327, 4356], 's_28_39': [4273], 's_28_42': [4287, 2467, 4363], 's_28_44': [4108, 2541], 's_28_28': [4498], 's_29_6': [1999], 's_29_7': [1323], 's_29_14': [4602], 's_29_19': [1863], 's_29_22': [1854], 's_29_23': [1489], 's_29_25': [4027], 's_29_35': [2093], 's_29_36': [4615], 's_29_37': [3682], 's_29_40': [3847], 's_29_41': [1794], 's_29_42': [2139], 's_29_29': [2019], 's_30_4': [1128, 3545], 's_30_7': [1457, 3412], 's_30_11': [3222], 's_30_12': [2206], 's_30_15': [3203, 1725], 's_30_19': [3621], 's_30_22': [3219, 1876], 's_30_34': [1606], 's_30_40': [1292, 1291], 's_30_42': [1426], 's_30_43': [3740], 's_30_30': [3238], 's_31_4': [3237, 2341], 's_31_6': [2343], 's_31_7': [4179], 's_31_11': [3879], 's_31_15': [4239], 's_31_21': [3654], 's_31_22': [3445], 's_31_23': [3743], 's_31_25': [1612], 's_31_27': [1627], 's_31_33': [1577], 's_31_35': [3447], 's_31_36': [4149], 's_31_38': [1820], 's_31_40': [3342], 's_31_42': [1442], 's_31_43': [4297], 's_31_31': [2327], 's_32_6': [3774], 's_32_7': [4207], 's_32_15': [4523], 's_32_21': [1898], 's_32_35': [1958], 's_32_38': [2407, 4438], 's_32_39': [1684], 's_32_40': [3697], 's_32_41': [1508, 4522], 's_32_42': [4513], 's_32_43': [4177], 's_32_44': [1733], 's_32_32': [1714], 's_37_4': [2283], 's_37_6': [2029], 's_37_11': [3718], 's_37_12': [3672], 's_37_19': [2253], 's_37_22': [4282], 's_37_25': [3787], 's_37_33': [4326, 1207], 's_37_35': [1192], 's_37_39': [3778], 's_37_37': [4401], 's_38_6': [4378], 's_38_7': [4271, 2137], 's_38_11': [2329], 's_38_12': [3897], 's_38_14': [4512], 's_38_15': [3923], 's_38_22': [4375], 's_38_27': [4028], 's_38_34': [2180], 's_38_35': [3762], 's_38_40': [3761], 's_38_41': [1805], 's_38_43': [3982], 's_38_38': [2272], 's_40_4': [2220], 's_40_7': [1336], 's_40_11': [2314, 3852, 2224], 's_40_15': [1816], 's_40_22': [1936], 's_40_23': [2179], 's_40_33': [3561], 's_40_34': [3642, 2298, 3522], 's_40_41': [2104], 's_40_43': [4001], 's_40_40': [3337], 's_41_7': [4314], 's_41_11': [2089], 's_41_14': [2028], 's_41_15': [1868], 's_41_19': [3655], 's_41_21': [4539, 4540, 1989], 's_41_23': [4360], 's_41_36': [4390, 2003], 's_41_42': [2012], 's_41_43': [1911], 's_41_44': [3804], 's_41_41': [1584], 's_42_4': [3508], 's_42_7': [2243], 's_42_14': [2102], 's_42_21': [1786], 's_42_22': [1921], 's_42_25': [2228], 's_42_27': [4183], 's_42_33': [1696, 3263], 's_42_34': [1906], 's_42_36': [1952, 3505], 's_42_44': [1771], 's_42_42': [4751], 's_4_7': [1352], 's_4_11': [3493], 's_4_12': [2251], 's_4_19': [1233], 's_4_21': [4026], 's_4_23': [3593], 's_4_25': [3981], 's_4_33': [3891], 's_4_34': [2296], 's_4_35': [3523, 2402], 's_4_39': [2237], 's_4_43': [3725], 's_4_44': [3548], 's_4_4': [3297, 3296, 2401], 's_6_11': [3703], 's_6_14': [2072], 's_6_19': [1893], 's_6_27': [2466], 's_6_34': [1954], 's_6_35': [3657], 's_6_36': [3639], 's_6_44': [3714, 1819], 's_6_6': [3656], 's_7_12': [1551], 's_7_14': [2076], 's_7_22': [4344], 's_7_23': [4315], 's_7_25': [2107], 's_7_27': [2197], 's_7_33': [3636], 's_7_34': [3353], 's_7_35': [4437], 's_7_36': [4329], 's_7_7': [1322], 's_15_12': [1206], 's_15_14': [3803], 's_15_22': [3443], 's_15_27': [3848], 's_15_33': [3158], 's_15_34': [1621], 's_15_36': [1809, 4659], 's_15_44': [3728], 's_15_15': [1785], 's_19_12': [3731, 2223], 's_19_14': [3623], 's_19_21': [1894], 's_19_23': [4045], 's_19_34': [3850], 's_19_35': [3627], 's_19_36': [3624], 's_19_19': [1038], 's_21_12': [1116], 's_21_14': [3864], 's_21_23': [1774], 's_21_25': [1250], 's_21_33': [1235], 's_21_34': [1772], 's_21_35': [1973], 's_21_36': [4299], 's_21_39': [1864], 's_21_44': [3834], 's_21_21': [4040], 's_25_11': [1955], 's_25_12': [1806], 's_25_23': [4150], 's_25_27': [4180], 's_25_35': [2377], 's_25_25': [3966], 's_33_12': [1159, 1160, 1161], 's_33_14': [4131], 's_33_27': [1642], 's_33_34': [3308], 's_33_35': [4431], 's_33_39': [1607], 's_33_43': [3861], 's_33_33': [4221, 1132], 's_35_22': [1717], 's_35_36': [1943], 's_35_39': [3552, 3553], 's_35_44': [1687], 's_35_35': [4415], 's_36_11': [3895], 's_36_22': [4240], 's_36_34': [3759], 's_36_39': [3549], 's_36_43': [4225], 's_36_44': [1831], 's_36_36': [1840], 's_43_11': [4181], 's_43_12': [2136], 's_43_23': [4090], 's_43_39': [1430], 's_43_43': [3815], 's_44_12': [2301], 's_44_27': [1866], 's_44_39': [4169], 's_44_44': [2571], 's_12_11': [2212], 's_12_22': [1716], 's_12_23': [3836, 2134], 's_12_34': [3371], 's_12_39': [2312], 's_12_12': [4130], 's_14_22': [1686], 's_14_23': [2001], 's_14_27': [3788], 's_14_34': [1667], 's_14_39': [1907], 's_14_14': [4286], 's_27_11': [2362], 's_27_23': [2002], 's_27_39': [4199], 's_27_27': [1537], 's_39_11': [3989], 's_39_23': [3865], 's_39_34': [2282], 's_39_39': [4004], 's_22_22': [3234], 's_11_34': [2345], 's_11_11': [3133], 's_34_34': [1576], 's_23_23': [1897]}</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0001937602627257799</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0005689980963904741</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>{0: [3358, 4046, 2492, 2494, 2493, 1434, 4687, 4688, 4689, 4690, 4047, 4048, 2495, 4691, 2496, 2497, 2498, 4588, 4587, 2199, 4541], 1: [1358, 1681, 1359, 4656, 1269, 1268, 2118, 2117, 3370, 3369, 1267, 1266, 1265, 1264, 1263, 1262, 3366, 3367, 3368], 's_0_1': [4732], 2: [1523, 4686, 1643, 4388, 1517, 1522, 1518, 1519, 1520, 1521, 1299, 1298, 1297, 4191, 4192], 's_0_2': [1300, 4792, 1374], 3: [1486, 4281, 3247, 1366, 3442, 1367, 1824, 1823, 4359, 1368, 1369, 1370, 4358, 4357, 1372, 1371], 's_0_3': [4704], 5: [2431, 4566, 4567, 4568, 4569, 1778, 4449, 4450, 2432, 4451, 2437, 2436, 2435, 4452, 2433, 2434], 's_0_5': [2333], 8: [1629, 1565, 1564, 1447, 1566, 1567, 4312, 1561, 4538, 1562, 1563, 1568], 's_0_8': [4703], 9: [2359, 4553, 2582, 2583, 4554, 4555, 4556, 4557, 4542, 2423, 2422, 3807, 3808, 2584, 3388, 2585, 2586, 4259, 2581, 4258, 2421], 's_0_9': [3928], 10: [2346, 1414, 3972, 4064, 3892, 1415, 3952, 1550, 4058, 2405, 4063, 4062, 4061, 4060, 4059], 's_0_10': [2331, 2330], 13: [3853, 1399, 3712, 1444, 2463, 3643, 3567, 3566, 2464, 3564, 3565, 3563, 3562, 1443], 's_0_13': [3673], 16: [2317, 1548, 4257, 4256, 2061, 2060, 2059, 3575, 3576, 3577, 3578, 3579, 3580, 2058], 's_0_16': [2318], 17: [3716, 1756, 1755, 3128, 3129, 3130, 3131, 2161, 2169, 2168, 3596, 2167, 2166, 2165, 2164, 2163, 3341, 2162], 's_0_17': [4676], 18: [4017, 3160, 2392, 3912, 1966, 1967, 3520, 1968, 3715, 1970, 1969, 4182, 2286, 2285, 4018, 3911, 3910], 's_0_18': [2135], 20: [1776, 4102, 2074, 2075, 4101, 4103, 4105, 4104], 's_0_20': [2090], 24: [1614, 1613, 2523, 1609, 2522, 4478, 1658, 1657, 3583, 3312, 3311, 3310, 3309, 1652, 1653, 3313, 1656, 1655, 1654, 3758], 's_0_24': [3343], 26: [1175, 1174, 1173, 1172, 3456, 2557, 3457, 3458, 3459, 2556, 2555, 2554, 2553, 3463, 3462, 3461, 3460, 2043, 2042], 's_0_26': [4049], 28: [1418, 4506, 4288, 2527, 4612, 1373, 2528, 4507, 4508, 4509, 2511, 2512, 4408, 2198, 2153, 4407, 4000, 2016, 2017, 2018, 4510, 4511], 's_0_28': [4483], 29: [2078, 3670, 3669, 4601, 4600, 4599, 4598, 4597, 1314, 4011, 3668, 1398, 3667, 1313, 1312, 1311, 1310, 1309], 's_0_29': [1764], 30: [3427, 3426, 2446, 2596, 3267, 3266, 3265, 3264, 1726, 3218, 3268, 3217, 3216, 3215, 1216, 1217, 1218, 1219, 3786], 's_0_30': [2491], 31: [2342, 4298, 1762, 1761, 1760, 1759, 3969, 3433, 3432, 3431, 3430, 3429, 3397, 3398, 1757, 1758], 's_0_31': [2507], 32: [2108, 1688, 3832, 2483, 3773, 3772, 1459, 1460, 1461, 1462, 4497, 4496, 1463, 4495, 4494, 4493, 4492], 's_0_32': [1433, 4462], 37: [1252, 4341, 4342, 2539, 3688, 3687, 3686, 1417, 1416, 4162, 3685, 3684, 1477, 1476, 1475, 1474, 3683], 's_0_37': [3733], 38: [3777, 2378, 4377, 4376, 1595, 3776, 2254, 3983, 3984, 3985, 3986, 3926, 2152, 2151, 2150], 's_0_38': [2214, 2213], 40: [3791, 3971, 2196, 2195, 1384, 1383, 1381, 3641, 2194, 2193, 2192, 2191, 3191, 3190, 3189, 3188, 3187, 1411, 1382, 3307], 's_0_40': [2120], 41: [2013, 4642, 2119, 4643, 4644, 3939, 3760, 2014, 3805, 1939, 1940, 1941, 1942, 4405, 1913, 1912], 's_0_41': [1779], 42: [4645, 2154, 3280, 3277, 3278, 3279, 1802, 3399, 4646, 3400, 3401, 3402, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 4647], 's_0_42': [2438], 's_0_0': [2544], 's_1_2': [4671], 's_1_3': [3248], 4: [3539, 3236, 3235, 1205, 1204, 1203, 2221, 2222, 3531, 3532, 3533, 1698, 1697, 3534, 3535, 3536, 3537, 3538, 3613, 2538], 's_1_4': [2041], 6: [2482, 1804, 2086, 2481, 2480, 2479, 3866, 2344, 2149, 3744, 2087, 2088, 3745, 3746, 3747], 's_1_6': [3476], 7: [1431, 3741, 1546, 1547, 3488, 3487, 1337, 2242, 4331, 2122, 4270, 4269, 1807, 4224, 4223, 4222, 1341, 1340, 1339, 1338], 's_1_7': [4176], 15: [3114, 4585, 4147, 4584, 4146, 1703, 1702, 1701, 4148, 3113, 1636, 1637, 1638, 1639, 1640, 1641], 's_1_15': [1356, 4266], 's_1_16': [3595], 's_1_17': [3446], 19: [1488, 3605, 1910, 3606, 3607, 3608, 3612, 1909, 1908, 3611, 3610, 3609], 's_1_19': [3626], 21: [4525, 4524, 1793, 1787, 4041, 4042, 4043, 4044, 1792, 1791, 3924, 1788, 1789, 1790], 's_1_21': [3354], 's_1_24': [1891], 25: [3996, 3951, 4302, 1354, 1355, 1353, 4072, 2227, 4301, 4361, 4300, 1325, 1956, 1611, 4073, 4074, 1957, 4075], 's_1_25': [3936], 's_1_26': [1397], 's_1_28': [4476], 's_1_29': [4596], 's_1_30': [3351, 1277], 's_1_31': [3396], 33: [1590, 4238, 4237, 4236, 1591, 1592, 1238, 1237, 1236, 4056, 3846, 3473, 3472, 3471, 1281, 1278, 1279, 1280], 's_1_33': [3501], 35: [1342, 3884, 3883, 4416, 4417, 4418, 4433, 4434, 4435, 2372, 2373, 2374, 2375, 2376, 4152, 4151, 2091, 4436, 2092], 's_1_35': [1283], 36: [4479, 1833, 1834, 1835, 1839, 1838, 1837, 1832, 1836], 's_1_36': [1937, 3355], 's_1_40': [3306], 's_1_41': [4657, 1494], 43: [3997, 1069, 3800, 3801, 2105, 2106, 1234, 4211, 3816, 3817, 1490, 4210, 4209, 4208, 1492, 1491], 's_1_43': [3696], 44: [1673, 4463, 3249, 1741, 4168, 4166, 4014, 4165, 1732, 1731, 4164, 1746, 1742, 1743, 1744, 4167, 1745], 's_1_44': [3324, 1711], 's_1_1': [4777, 1420], 's_2_3': [1516], 's_2_7': [1401], 's_2_8': [3878], 's_2_10': [3967], 12: [2236, 2241, 3357, 2207, 2208, 2209, 2210, 2211, 4115, 4116, 4117, 4118, 4119, 4120, 4121], 's_2_12': [1191], 14: [1818, 4137, 2257, 2256, 4136, 4132, 4135, 4134, 3491, 3490, 3489, 2258, 1668, 1669, 1670, 1671, 4133], 's_2_14': [1506], 's_2_15': [1326], 's_2_16': [3592], 's_2_19': [3622], 's_2_21': [1505], 's_2_25': [3802], 27: [1534, 1535, 2601, 1536, 4193, 4198, 4197, 4196, 4194, 4195], 's_2_27': [4267], 's_2_28': [4491], 's_2_30': [3652, 3651], 's_2_33': [4461], 's_2_37': [1282], 39: [2570, 3869, 4244, 2616, 2615, 3413, 3907, 2614, 2613, 2612, 3418, 3417, 3416, 3415, 3908, 3909, 1879, 1878, 1877, 3414], 's_2_39': [1504], 's_2_41': [4641], 's_2_44': [4448, 4447], 's_2_2': [4190], 's_3_4': [1293, 1294, 3756, 3755], 's_3_5': [4419], 's_3_7': [3411], 's_3_8': [1472, 3382], 's_3_9': [1553, 1552], 's_3_10': [1821, 1822], 's_3_13': [3502], 's_3_15': [4614], 's_3_16': [3591], 's_3_17': [3127, 1441], 's_3_19': [1487], 's_3_21': [1777], 22: [1846, 1853, 3444, 4374, 3325, 1847, 1848, 1849, 4283, 4284, 1852, 1851, 1850], 's_3_22': [1747], 's_3_24': [4389], 's_3_28': [1448, 4402], 's_3_30': [3441], 's_3_31': [1412], 's_3_32': [4252], 's_3_35': [4432], 's_3_36': [4629], 's_3_37': [1432], 's_3_40': [1351, 3352], 's_3_43': [4012], 's_3_44': [4404], 's_3_3': [3262], 's_5_7': [4466], 's_5_8': [1583], 11: [3372, 2226, 4227, 2316, 3880, 3792, 3988, 4106, 2270, 3881, 3882, 2315, 2386, 2387, 2388, 2389, 2390, 3987], 's_5_11': [3898], 's_5_13': [3868], 's_5_18': [4272], 's_5_21': [4464], 's_5_26': [3658], 's_5_27': [4348, 2572], 's_5_28': [4078], 's_5_30': [3253], 's_5_32': [2303], 's_5_33': [4581, 1193], 34: [3293, 1622, 3943, 3387, 3942, 3941, 3940, 2000, 3383, 2297, 3386, 3385, 3384, 1922, 1923, 1924, 3820], 's_5_34': [3957], 's_5_35': [1208], 's_5_36': [2138, 4571, 4570], 's_5_37': [1253], 's_5_38': [2393], 's_5_39': [2537, 3328], 's_5_41': [1644, 4613], 's_5_42': [3597], 's_5_5': [4565], 's_8_7': [3518], 's_8_9': [1538], 's_8_10': [3937], 's_8_13': [3727], 's_8_15': [1560], 's_8_16': [3638], 's_8_19': [3547], 23: [3698, 2063, 2062, 3701, 4345, 1987, 1986, 1728, 3699, 3700, 1984, 3702, 1985], 's_8_23': [1579], 's_8_25': [4178], 's_8_31': [1672, 4328], 's_8_32': [4628], 's_8_37': [4253], 's_8_38': [3893], 's_8_40': [3202], 's_8_42': [1531, 3323], 's_8_8': [4583], 's_9_4': [3478], 's_9_10': [4122, 4123, 2646], 's_9_11': [2419], 's_9_14': [2273], 's_9_15': [2004], 's_9_18': [3913], 's_9_21': [1748], 's_9_23': [2048], 's_9_24': [3373], 's_9_26': [3899], 's_9_28': [2123], 's_9_30': [3359], 's_9_31': [3403, 2567], 's_9_34': [3958], 's_9_35': [1598], 's_9_37': [3793], 's_9_38': [2269], 's_9_39': [4229], 's_9_42': [4467], 's_9_44': [1763], 's_9_9': [3314], 's_10_7': [1549, 3922, 3921], 's_10_11': [4002], 's_10_12': [4077], 's_10_13': [3771, 1324], 's_10_14': [2255], 's_10_17': [2181], 's_10_18': [2360], 's_10_20': [2045], 's_10_21': [1385], 's_10_24': [3998], 's_10_25': [1295], 's_10_26': [4079], 's_10_31': [1865], 's_10_34': [2600], 's_10_35': [4033], 's_10_36': [3953, 3954], 's_10_38': [3968], 's_10_39': [1445], 's_10_40': [4092, 4091], 's_10_41': [1926], 's_10_42': [3973], 's_10_44': [2121], 's_10_10': [2420], 's_13_7': [3517], 's_13_14': [1682], 's_13_15': [1623], 's_13_18': [1998], 's_13_19': [1458], 's_13_24': [3568], 's_13_25': [3862], 's_13_26': [3854], 's_13_29': [3726], 's_13_31': [2417], 's_13_32': [3757], 's_13_33': [1502], 's_13_34': [2524, 2525], 's_13_35': [3732], 's_13_37': [1593], 's_13_38': [2404], 's_13_40': [2133], 's_13_41': [1938], 's_13_13': [3711, 1129], 's_16_6': [3730], 's_16_12': [2271], 's_16_14': [4392], 's_16_17': [3896], 's_16_18': [2347, 4332], 's_16_19': [1053], 's_16_21': [3594], 's_16_22': [4255], 's_16_24': [3653], 's_16_25': [4076], 's_16_26': [3671], 's_16_28': [4241], 's_16_29': [1773], 's_16_31': [2057], 's_16_34': [3970], 's_16_37': [1473], 's_16_38': [2302], 's_16_41': [3640], 's_16_43': [1249, 1248, 3666, 1143], 's_16_16': [1113], 's_17_4': [2176], 's_17_6': [2238], 's_17_7': [4316], 's_17_11': [3101, 3102], 's_17_15': [1950, 3115], 's_17_19': [2147, 2148], 's_17_23': [4346], 's_17_24': [3326], 's_17_26': [2178], 's_17_27': [2182], 's_17_29': [2184], 's_17_30': [2011], 's_17_31': [2268, 2267], 's_17_33': [1605], 's_17_34': [2266, 3221], 's_17_35': [2183], 's_17_39': [2177], 's_17_40': [2055], 's_17_42': [4631], 's_17_43': [4226], 's_17_44': [1801], 's_17_17': [1935], 's_18_4': [1996], 's_18_11': [2284], 's_18_14': [4347], 's_18_19': [1953], 's_18_20': [3925], 's_18_22': [1951], 's_18_24': [3220, 2116], 's_18_26': [3625], 's_18_27': [2406], 's_18_28': [2287], 's_18_30': [3250, 2026], 's_18_34': [2465], 's_18_36': [4030], 's_18_38': [3775], 's_18_39': [1862], 's_18_40': [1905], 's_18_42': [3295], 's_18_43': [1971], 's_18_18': [3161], 's_20_6': [3806], 's_20_19': [1895], 's_20_21': [1626], 's_20_24': [4088], 's_20_27': [1596], 's_20_28': [2031], 's_20_29': [1296], 's_20_32': [1446], 's_20_33': [4086], 's_20_37': [4087], 's_20_38': [1715], 's_20_40': [3821], 's_20_41': [4089], 's_20_43': [4031], 's_20_44': [1730], 's_20_20': [1251], 's_24_12': [2357], 's_24_14': [3894], 's_24_15': [4313], 's_24_21': [3504], 's_24_22': [1861], 's_24_23': [1594], 's_24_25': [4163], 's_24_29': [1624], 's_24_33': [3428], 's_24_34': [1817, 3294], 's_24_36': [1729, 3819], 's_24_37': [2476, 2477, 2478], 's_24_38': [1610], 's_24_39': [3628, 3629], 's_24_41': [1659], 's_24_42': [1997], 's_24_43': [3863], 's_24_44': [3519], 's_24_24': [4373], 's_26_4': [2568, 3598], 's_26_6': [3521], 's_26_14': [3506], 's_26_15': [1176], 's_26_21': [1190], 's_26_22': [1727], 's_26_25': [3950], 's_26_27': [4214], 's_26_28': [4093], 's_26_30': [1189], 's_26_31': [2462], 's_26_33': [1427], 's_26_35': [3477], 's_26_36': [3474], 's_26_43': [3770], 's_26_44': [4153], 's_26_26': [4318, 4319], 's_28_6': [4213], 's_28_14': [4481], 's_28_19': [4015], 's_28_21': [1883], 's_28_22': [3999], 's_28_23': [4465], 's_28_25': [4422], 's_28_27': [4138], 's_28_29': [1389], 's_28_33': [4536, 1343], 's_28_35': [1403, 4582], 's_28_36': [4420, 4421], 's_28_37': [1388, 4446, 1327, 4356], 's_28_39': [4273], 's_28_42': [4287, 2467, 4363], 's_28_44': [4108, 2541], 's_28_28': [4498], 's_29_6': [1999], 's_29_7': [1323], 's_29_14': [4602], 's_29_19': [1863], 's_29_22': [1854], 's_29_23': [1489], 's_29_25': [4027], 's_29_35': [2093], 's_29_36': [4615], 's_29_37': [3682], 's_29_40': [3847], 's_29_41': [1794], 's_29_42': [2139], 's_29_29': [2019], 's_30_4': [1128, 3545], 's_30_7': [1457, 3412], 's_30_11': [3222], 's_30_12': [2206], 's_30_15': [3203, 1725], 's_30_19': [3621], 's_30_22': [3219, 1876], 's_30_34': [1606], 's_30_40': [1292, 1291], 's_30_42': [1426], 's_30_43': [3740], 's_30_30': [3238], 's_31_4': [3237, 2341], 's_31_6': [2343], 's_31_7': [4179], 's_31_11': [3879], 's_31_15': [4239], 's_31_21': [3654], 's_31_22': [3445], 's_31_23': [3743], 's_31_25': [1612], 's_31_27': [1627], 's_31_33': [1577], 's_31_35': [3447], 's_31_36': [4149], 's_31_38': [1820], 's_31_40': [3342], 's_31_42': [1442], 's_31_43': [4297], 's_31_31': [2327], 's_32_6': [3774], 's_32_7': [4207], 's_32_15': [4523], 's_32_21': [1898], 's_32_35': [1958], 's_32_38': [2407, 4438], 's_32_39': [1684], 's_32_40': [3697], 's_32_41': [1508, 4522], 's_32_42': [4513], 's_32_43': [4177], 's_32_44': [1733], 's_32_32': [1714], 's_37_4': [2283], 's_37_6': [2029], 's_37_11': [3718], 's_37_12': [3672], 's_37_19': [2253], 's_37_22': [4282], 's_37_25': [3787], 's_37_33': [4326, 1207], 's_37_35': [1192], 's_37_39': [3778], 's_37_37': [4401], 's_38_6': [4378], 's_38_7': [4271, 2137], 's_38_11': [2329], 's_38_12': [3897], 's_38_14': [4512], 's_38_15': [3923], 's_38_22': [4375], 's_38_27': [4028], 's_38_34': [2180], 's_38_35': [3762], 's_38_40': [3761], 's_38_41': [1805], 's_38_43': [3982], 's_38_38': [2272], 's_40_4': [2220], 's_40_7': [1336], 's_40_11': [2314, 3852, 2224], 's_40_15': [1816], 's_40_22': [1936], 's_40_23': [2179], 's_40_33': [3561], 's_40_34': [3642, 2298, 3522], 's_40_41': [2104], 's_40_43': [4001], 's_40_40': [3337], 's_41_7': [4314], 's_41_11': [2089], 's_41_14': [2028], 's_41_15': [1868], 's_41_19': [3655], 's_41_21': [4539, 4540, 1989], 's_41_23': [4360], 's_41_36': [4390, 2003], 's_41_42': [2012], 's_41_43': [1911], 's_41_44': [3804], 's_41_41': [1584], 's_42_4': [3508], 's_42_7': [2243], 's_42_14': [2102], 's_42_21': [1786], 's_42_22': [1921], 's_42_25': [2228], 's_42_27': [4183], 's_42_33': [1696, 3263], 's_42_34': [1906], 's_42_36': [1952, 3505], 's_42_44': [1771], 's_42_42': [4751], 's_4_7': [1352], 's_4_11': [3493], 's_4_12': [2251], 's_4_19': [1233], 's_4_21': [4026], 's_4_23': [3593], 's_4_25': [3981], 's_4_33': [3891], 's_4_34': [2296], 's_4_35': [3523, 2402], 's_4_39': [2237], 's_4_43': [3725], 's_4_44': [3548], 's_4_4': [3297, 3296, 2401], 's_6_11': [3703], 's_6_14': [2072], 's_6_19': [1893], 's_6_27': [2466], 's_6_34': [1954], 's_6_35': [3657], 's_6_36': [3639], 's_6_44': [3714, 1819], 's_6_6': [3656], 's_7_12': [1551], 's_7_14': [2076], 's_7_22': [4344], 's_7_23': [4315], 's_7_25': [2107], 's_7_27': [2197], 's_7_33': [3636], 's_7_34': [3353], 's_7_35': [4437], 's_7_36': [4329], 's_7_7': [1322], 's_15_12': [1206], 's_15_14': [3803], 's_15_22': [3443], 's_15_27': [3848], 's_15_33': [3158], 's_15_34': [1621], 's_15_36': [1809, 4659], 's_15_44': [3728], 's_15_15': [1785], 's_19_12': [3731, 2223], 's_19_14': [3623], 's_19_21': [1894], 's_19_23': [4045], 's_19_34': [3850], 's_19_35': [3627], 's_19_36': [3624], 's_19_19': [1038], 's_21_12': [1116], 's_21_14': [3864], 's_21_23': [1774], 's_21_25': [1250], 's_21_33': [1235], 's_21_34': [1772], 's_21_35': [1973], 's_21_36': [4299], 's_21_39': [1864], 's_21_44': [3834], 's_21_21': [4040], 's_25_11': [1955], 's_25_12': [1806], 's_25_23': [4150], 's_25_27': [4180], 's_25_35': [2377], 's_25_25': [3966], 's_33_12': [1159, 1160, 1161], 's_33_14': [4131], 's_33_27': [1642], 's_33_34': [3308], 's_33_35': [4431], 's_33_39': [1607], 's_33_43': [3861], 's_33_33': [4221, 1132], 's_35_22': [1717], 's_35_36': [1943], 's_35_39': [3552, 3553], 's_35_44': [1687], 's_35_35': [4415], 's_36_11': [3895], 's_36_22': [4240], 's_36_34': [3759], 's_36_39': [3549], 's_36_43': [4225], 's_36_44': [1831], 's_36_36': [1840], 's_43_11': [4181], 's_43_12': [2136], 's_43_23': [4090], 's_43_39': [1430], 's_43_43': [3815], 's_44_12': [2301], 's_44_27': [1866], 's_44_39': [4169], 's_44_44': [2571], 's_12_11': [2212], 's_12_22': [1716], 's_12_23': [3836, 2134], 's_12_34': [3371], 's_12_39': [2312], 's_12_12': [4130], 's_14_22': [1686], 's_14_23': [2001], 's_14_27': [3788], 's_14_34': [1667], 's_14_39': [1907], 's_14_14': [4286], 's_27_11': [2362], 's_27_23': [2002], 's_27_39': [4199], 's_27_27': [1537], 's_39_11': [3989], 's_39_23': [3865], 's_39_34': [2282], 's_39_39': [4004], 's_22_22': [3234], 's_11_34': [2345], 's_11_11': [3133], 's_34_34': [1576], 's_23_23': [1897]}</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0.0001937602627257799</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.0005689980963904741</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>{0: [2358, 2356, 3282, 2357], 2: [2658, 2657, 3207, 3208, 2656], 4: [2220, 2298, 2297, 3162, 2296], 6: [2401, 2402, 3494, 3491, 3492, 3493], 7: [3296, 2250, 2251, 3299, 3298, 3297], 8: [2325, 3687, 2328, 2326, 2327], 10: [2583, 3628, 2162, 2163, 3626, 3627], 11: [3718, 3552, 2418, 2415, 2417, 2416], 12: [3012, 2314, 2313, 2310, 2312, 2311], 14: [2687, 3359, 3358, 3281, 2221, 3357], 16: [3374, 3370, 3373, 3371, 3372], 17: [2595, 2598, 2597, 3252, 3253, 2596], 19: [3238, 3236, 2431, 3237], 20: [3614, 3613, 2117, 2118, 3611, 3612], 23: [3506, 3599, 2701, 2702, 2703, 3507, 3508, 3509], 24: [3629, 3479, 2718, 2717, 3312, 3313, 3314], 25: [3133, 3132, 2206, 2207, 2208, 2209], 26: [3147, 3148, 2523, 2522, 2521], 27: [3747, 2386, 3447, 2389, 2388, 2387], 29: [1981, 3104, 3103, 2161, 3100, 3101, 3102], 31: [3418, 2344, 2343, 2341, 3417, 2342], 34: [3329, 2537, 3327, 3328], 38: [3434, 2432, 3431, 3432, 2552, 3433], 39: [3584, 2176, 3583, 3582, 3581, 2177, 2178], 42: [3386, 2475, 2476, 2478, 3387, 2477], 1: [3659, 3416, 2266, 2267, 2268, 3657, 3658, 2493], 15: [3702, 3703, 3163, 2506, 2507, 2508, 2509], 18: [2460, 2463, 2462, 2461], 22: [2371, 2374, 2373, 2372], 32: [3731, 3733, 2625, 2626, 3732, 2627, 3644, 2628], 33: [3206, 2194, 2191, 2192, 2193], 36: [2445, 3672, 2446, 2447, 3673, 2448], 37: [2071, 3341, 3344, 3343, 3342], 40: [3221, 2536, 2582, 2581, 3222, 3223], 41: [2671, 3266, 3269, 3268, 3267], 44: [3566, 3179, 2566, 2567, 2568, 3567, 3568], 3: [3476, 3477, 2491, 2538, 2492, 3478], 21: [3643, 3642, 2146, 2147, 2148, 3641], 43: [3193, 3311, 3192, 2131, 3191], 45: [3539, 3536, 2236, 2237, 3538, 3537], 5: [2611, 2612, 2673, 3522, 3523, 3524], 13: [3310, 1982, 3403, 2222, 3400, 3402, 3401], 28: [3178, 2283, 3177, 2282, 2281], 30: [3598, 2086, 2087, 3597, 3596, 3521, 2134, 2133], 35: [2641, 2642, 2643, 3689, 2524, 3688], 9: [2553, 2100, 2101, 3463, 2102, 3462, 3461]}</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.1677118171683389</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.03289264254967688</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>{0: [2358, 2356, 3282, 2357], 2: [2658, 2657, 3207, 3208, 2656], 4: [2220, 2298, 2297, 3162, 2296], 6: [2401, 2402, 3494, 3491, 3492, 3493], 7: [3296, 2250, 2251, 3299, 3298, 3297], 8: [2325, 3687, 2328, 2326, 2327], 10: [2583, 3628, 2162, 2163, 3626, 3627], 11: [3718, 3552, 2418, 2415, 2417, 2416], 12: [3012, 2314, 2313, 2310, 2312, 2311], 14: [2687, 3359, 3358, 3281, 2221, 3357], 16: [3374, 3370, 3373, 3371, 3372], 17: [2595, 2598, 2597, 3252, 3253, 2596], 19: [3238, 3236, 2431, 3237], 20: [3614, 3613, 2117, 2118, 3611, 3612], 23: [3506, 3599, 2701, 2702, 2703, 3507, 3508, 3509], 24: [3629, 3479, 2718, 2717, 3312, 3313, 3314], 25: [3133, 3132, 2206, 2207, 2208, 2209], 26: [3147, 3148, 2523, 2522, 2521], 27: [3747, 2386, 3447, 2389, 2388, 2387], 29: [1981, 3104, 3103, 2161, 3100, 3101, 3102], 31: [3418, 2344, 2343, 2341, 3417, 2342], 34: [3329, 2537, 3327, 3328], 38: [3434, 2432, 3431, 3432, 2552, 3433], 39: [3584, 2176, 3583, 3582, 3581, 2177, 2178], 42: [3386, 2475, 2476, 2478, 3387, 2477], 1: [3659, 3416, 2266, 2267, 2268, 3657, 3658, 2493], 15: [3702, 3703, 3163, 2506, 2507, 2508, 2509], 18: [2460, 2463, 2462, 2461], 22: [2371, 2374, 2373, 2372], 32: [3731, 3733, 2625, 2626, 3732, 2627, 3644, 2628], 33: [3206, 2194, 2191, 2192, 2193], 36: [2445, 3672, 2446, 2447, 3673, 2448], 37: [2071, 3341, 3344, 3343, 3342], 40: [3221, 2536, 2582, 2581, 3222, 3223], 41: [2671, 3266, 3269, 3268, 3267], 44: [3566, 3179, 2566, 2567, 2568, 3567, 3568], 3: [3476, 3477, 2491, 2538, 2492, 3478], 21: [3643, 3642, 2146, 2147, 2148, 3641], 43: [3193, 3311, 3192, 2131, 3191], 45: [3539, 3536, 2236, 2237, 3538, 3537], 5: [2611, 2612, 2673, 3522, 3523, 3524], 13: [3310, 1982, 3403, 2222, 3400, 3402, 3401], 28: [3178, 2283, 3177, 2282, 2281], 30: [3598, 2086, 2087, 3597, 3596, 3521, 2134, 2133], 35: [2641, 2642, 2643, 3689, 2524, 3688], 9: [2553, 2100, 2101, 3463, 2102, 3462, 3461]}</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0.1677118171683389</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.03289264254967688</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>{0: [1024, 3845, 935, 3964, 3437, 518, 517, 516, 511, 512, 513, 514, 515, 3963, 3962], 2: [4351, 4352, 4353, 1457, 1458, 1459, 893, 892, 3846, 3847, 1460, 1461, 1462, 4327, 667, 4323, 4324, 4325, 4326], 's_0_2': [563, 4427], 4: [1008, 575, 3827, 3571, 1038, 3574, 531, 530, 3622, 3621, 3620, 3619, 843, 529, 528, 3572, 3573], 's_0_4': [3662], 6: [3639, 3638, 3630, 3637, 3636, 3631, 3632, 3633, 995, 994, 993, 3634, 3635], 's_0_6': [3647], 7: [3902, 3698, 1414, 4699, 939, 937, 936, 3903, 860, 3697, 3696, 1143, 938, 1144, 1145, 3995, 3994], 's_0_7': [875], 8: [4052, 1476, 4053, 4054, 4055, 1236, 4056, 1818, 1819, 1820, 1821, 4057, 4059, 4058], 's_0_8': [620], 10: [541, 916, 316, 3180, 3181, 3182, 3183, 1686, 1685, 3983, 1655, 1654, 1653, 3458, 1562, 1561, 3187, 3186, 3185, 3184], 's_0_10': [3167], 11: [919, 259, 4446, 4445, 4234, 1058, 3841, 3842, 3843, 4490, 4489, 923, 922, 3844, 920, 921], 's_0_11': [3814], 12: [1564, 1069, 3804, 3755, 1368, 3756, 1068, 3878, 3877, 3803, 3802, 1369], 's_0_12': [3815], 14: [3545, 4624, 4623, 4622, 549, 548, 547, 546, 545, 544, 543, 3542, 3544, 992, 991, 3543, 3260, 3261, 3262, 1441], 's_0_14': [4577], 16: [4155, 3256, 3107, 420, 3092, 3091, 285, 872, 217, 216, 215, 214, 213, 3331, 212, 3469, 3468, 3467, 3466, 287, 286], 's_0_16': [510], 17: [785, 1251, 1535, 4043, 331, 332, 333, 334, 335, 4036, 1249, 1250, 4037, 4038, 4039, 4040, 4041, 4042], 's_0_17': [3272, 3271], 19: [1009, 4592, 4594, 894, 3875, 950, 951, 4670, 4593, 4669, 954, 953, 952], 's_0_19': [4668, 4667, 519], 20: [1020, 4224, 4223, 4222, 1341, 3227, 3228, 1566, 3229, 3470, 3471, 1340, 1339, 1022, 1338, 1021, 1337], 's_0_20': [617, 616], 23: [786, 1713, 3714, 366, 291, 1759, 637, 636, 1760, 638, 1761, 4179, 4156, 4157, 4158, 4159, 4160, 1161, 4178, 4175, 4176, 4177], 's_0_23': [4487], 24: [317, 318, 3782, 4162, 1356, 1357, 3781, 4296, 319, 320, 321, 322, 323, 4546, 4547, 4548, 4549, 4550, 4551, 1343, 1342], 's_0_24': [533], 25: [4023, 4116, 1371, 3558, 708, 709, 710, 711, 712, 4266, 4265, 4264, 4279, 4278], 's_0_25': [3978], 26: [4128, 977, 3515, 4638, 803, 802, 801, 4204, 4131, 4130, 1052, 1053, 1054, 1055, 4205, 1056], 's_0_26': [800], 27: [1641, 1112, 3289, 3290, 1102, 1101, 3908, 1595, 1640, 1082, 3953, 1096, 1097, 1098, 1099, 1100, 3952, 3951, 3950], 's_0_27': [1025, 3949], 29: [4149, 1670, 4148, 3828, 3818, 725, 4113, 816, 817, 818, 4609, 1671, 4610, 4612, 726, 4611, 1536, 1537, 1538, 4613], 's_0_29': [815], 31: [4127, 621, 4305, 4306, 4307, 622, 4398, 4399, 4312, 3923, 3922, 1430, 4400, 4401, 4402, 1432, 1431], 's_0_31': [4397], 34: [4370, 4475, 4474, 1043, 3587, 558, 1042, 559, 560, 352, 351, 4066, 4067, 1041, 4099, 4098, 4097, 561], 's_0_34': [557], 38: [3774, 3518, 1578, 3773, 859, 1579, 3772, 3771, 3765, 3766, 3767, 3768, 3769, 3770], 's_0_38': [3752], 39: [4235, 395, 1170, 4021, 350, 3916, 1171, 1172, 1173, 1174, 3920, 1011, 1010, 4010, 1040, 665, 3917, 3961, 3918, 3919], 's_0_39': [905], 42: [3556, 1788, 3684, 934, 393, 394, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 1624, 1625, 1626, 1627], 's_0_42': [3739], 's_0_0': [4472], 1: [4276, 4277, 651, 4686, 1314, 1762, 4254, 4252, 1313, 1312, 4188, 4189, 4190, 4253, 4191], 's_2_1': [1447], 's_2_6': [3652], 's_2_7': [1399], 's_2_8': [1446], 's_2_12': [1444], 's_2_14': [4322], 15: [3826, 1442, 3337, 3336, 3335, 3334, 3333, 3332, 428, 427, 426, 425, 424, 423, 422, 3286, 421], 's_2_15': [3367], 's_2_17': [1252, 4341], 18: [3651, 451, 3242, 1208, 4385, 4386, 1207, 1206, 1205, 3243, 961, 3379, 3380, 1204, 3244, 1203, 3456, 1202], 's_2_18': [1237], 's_2_20': [3712], 22: [918, 1372, 1133, 4355, 3593, 4356, 4357, 3589, 3590, 3591, 3592, 1518, 1519, 1522, 1521, 1520], 's_2_22': [1147], 's_2_23': [4233], 's_2_31': [652, 4442, 4441, 4440, 277], 32: [3669, 3036, 3528, 1427, 573, 572, 1699, 1698, 1697, 2974, 2975, 2976, 3398, 3397, 3396, 2973, 1262, 571, 1261, 570, 1260], 's_2_32': [3382], 33: [4008, 4007, 526, 3617, 3152, 481, 482, 483, 484, 485, 486, 487, 488, 4456, 4457, 4458, 4459], 's_2_33': [502], 's_2_34': [4340], 36: [3128, 4414, 4413, 4412, 3127, 3126, 3125, 3124, 3123, 586, 587, 588, 472, 471, 4142, 591, 590, 589], 's_2_36': [668], 37: [1267, 885, 886, 887, 889, 412, 3981, 888, 1266, 1265, 411, 410, 3857, 3858, 3861, 3860, 3859], 's_2_37': [1295], 's_2_39': [1115], 40: [1163, 1162, 3215, 3214, 735, 4310, 4309, 4308, 4202, 4203, 742, 741, 3213, 736, 4201, 737, 738, 739, 740], 's_2_40': [877], 41: [1044, 4655, 337, 1179, 4354, 4717, 4716, 4715, 4714, 849, 848, 3211, 376, 377, 378, 379, 380, 381, 382, 4261, 4262, 4263, 847], 's_2_41': [307, 4336], 's_2_42': [3667], 44: [1656, 840, 4012, 1191, 1400, 3936, 3093, 3094, 3095, 1126, 1127, 1128, 1129, 4013, 1130, 4084, 4085, 1190, 3935], 's_2_44': [3982, 1445], 's_2_2': [292], 3: [3409, 3410, 3516, 1224, 1223, 1222, 1221, 1220, 1215, 1216, 1217, 1218, 1219], 's_4_3': [3486, 3485, 1037], 's_4_6': [858], 's_4_7': [3650], 's_4_12': [3530], 's_4_14': [873], 's_4_15': [408, 3512], 's_4_17': [1248], 's_4_19': [3754, 1039], 21: [3317, 4027, 1386, 1385, 496, 1384, 1383, 1382, 3196, 3197, 3198, 3199, 3200, 3201, 1381], 's_4_21': [3607], 's_4_24': [3797], 's_4_25': [3557], 's_4_26': [3605], 's_4_27': [3695], 's_4_29': [3888], 's_4_31': [4082, 576], 's_4_33': [3586], 's_4_34': [3722], 's_4_36': [4217], 's_4_39': [3606], 's_4_40': [3873], 's_4_41': [532], 43: [4267, 3338, 1419, 4028, 1418, 1417, 1416, 4132, 1486, 1487, 1488, 1489, 1490, 1491], 's_4_43': [1473], 45: [3259, 722, 4218, 3783, 856, 4503, 857, 3408, 3407, 677, 678, 679, 4521, 4520, 4519, 4518, 683, 682, 681, 680], 's_4_45': [3812, 3813], 's_4_4': [813], 5: [4462, 1463, 4432, 3532, 1322, 4428, 4429, 1323, 3892, 3889, 1280, 1324, 4431, 4430, 967, 966, 965, 964, 3890, 3891], 's_6_5': [1398], 's_6_7': [1353], 's_6_8': [3654], 's_6_10': [1669], 's_6_12': [1834], 13: [3707, 647, 648, 3954, 1807, 1806, 1805, 1804, 1803, 3564, 1744, 1743, 3563, 3562, 1277, 3561, 3708, 3709, 3710, 3711, 1278, 1279], 's_6_13': [1773], 's_6_14': [693], 's_6_16': [3645], 's_6_17': [349, 348], 's_6_19': [949], 's_6_20': [3965, 3966], 's_6_27': [3785], 28: [4145, 4415, 3202, 1545, 4146, 1176, 4565, 833, 4579, 4580, 1073, 1072, 4280, 4281, 4282, 1551, 1550, 1549, 1548, 1547, 1546], 's_6_28': [3653], 30: [1552, 436, 4373, 1612, 1611, 3361, 3362, 631, 630, 3063, 3064, 3065, 3066, 3067, 1610, 1609, 1608, 1607, 1606, 1605, 3068], 's_6_30': [1593], 's_6_33': [618], 's_6_37': [3649], 's_6_39': [1188], 's_6_41': [3646], 's_6_42': [438], 's_6_6': [93], 's_7_1': [845, 846], 's_7_5': [3874, 814], 's_7_8': [1086], 's_7_11': [634], 's_7_12': [3817], 's_7_14': [4639], 's_7_17': [890], 's_7_18': [4071], 's_7_19': [984], 's_7_22': [1158], 's_7_24': [924], 's_7_25': [3948], 's_7_27': [4250], 's_7_28': [834], 's_7_29': [879], 's_7_30': [1594], 's_7_31': [1429], 's_7_33': [4009], 35: [1291, 3534, 1292, 1413, 1412, 1321, 1758, 1757, 3354, 842, 3349, 3350, 3351, 3353, 3352], 's_7_35': [1294, 1293], 's_7_38': [649], 's_7_40': [3993], 's_7_41': [940], 's_7_42': [3666], 's_7_43': [3757], 's_7_7': [3901], 's_8_1': [891], 's_8_12': [1789, 1790, 1730, 3999], 's_8_13': [1715, 1714, 3789], 's_8_17': [1116], 's_8_19': [4070], 's_8_20': [4072], 's_8_24': [4051], 's_8_25': [1296], 's_8_26': [1071], 's_8_27': [1596], 's_8_31': [4117], 's_8_34': [440], 's_8_35': [3474], 's_8_36': [470], 's_8_37': [1235], 's_8_38': [3519], 's_8_42': [3579], 's_8_44': [1355], 's_8_8': [1817, 3309], 's_10_1': [4283], 's_10_14': [1231], 's_10_15': [3473, 3472, 1397], 's_10_17': [3316], 's_10_18': [3457], 's_10_20': [3488, 3487], 's_10_22': [1563, 3577], 's_10_23': [3894], 's_10_24': [4163], 's_10_27': [3998], 's_10_29': [1701], 's_10_30': [4103], 's_10_32': [3489], 's_10_33': [3257], 's_10_35': [1652], 's_10_39': [1185], 's_10_40': [3212], 's_10_42': [4328, 1687], 's_10_43': [3308], 's_10_44': [975], 's_10_45': [542], 's_10_10': [3158], 's_11_1': [4461], 's_11_5': [1403], 9: [3452, 3453, 982, 4339, 772, 3156, 771, 770, 769, 3155, 3154, 4338, 766, 767, 768], 's_11_9': [4219], 's_11_15': [274], 's_11_22': [1118], 's_11_23': [906], 's_11_24': [3780], 's_11_26': [861, 4069], 's_11_28': [4504], 's_11_29': [1059], 's_11_31': [4384], 's_11_34': [1028], 's_11_36': [908], 's_11_37': [844], 's_11_39': [799], 's_11_40': [1177], 's_11_42': [3676, 258], 's_11_44': [3934], 's_11_45': [1178], 's_11_11': [3795], 's_12_5': [1354], 's_12_14': [3560], 's_12_17': [3801], 's_12_18': [1067], 's_12_21': [3832], 's_12_27': [3665], 's_12_28': [3893], 's_12_29': [1879, 1880, 1881], 's_12_31': [1475], 's_12_32': [3879], 's_12_37': [1310], 's_12_42': [3788], 's_12_43': [1474], 's_12_44': [3830], 's_12_12': [1864, 3880], 's_14_3': [1157], 's_14_9': [1036], 's_14_13': [1351, 1352], 's_14_18': [1186], 's_14_19': [564], 's_14_22': [933], 's_14_23': [4637], 's_14_25': [782], 's_14_26': [699], 's_14_28': [1471], 's_14_32': [3527], 's_14_33': [3992], 's_14_34': [3872], 's_14_35': [3217, 1531], 's_14_41': [1104, 4625], 's_14_43': [3232], 's_14_45': [4502], 's_14_14': [4517, 608, 4608, 714], 's_16_3': [3394], 's_16_15': [3825], 's_16_20': [556], 's_16_21': [3195], 's_16_23': [4231], 's_16_26': [948], 's_16_30': [347], 's_16_31': [4290], 's_16_32': [632], 's_16_34': [3482, 437], 's_16_35': [3454], 's_16_36': [615], 's_16_38': [3750], 's_16_39': [3871], 's_16_40': [663, 3663, 662], 's_16_42': [3555], 's_16_44': [3108], 's_16_45': [707], 's_16_16': [211], 's_17_1': [1311], 's_17_3': [3786], 's_17_5': [784], 's_17_13': [3726], 's_17_15': [3436], 's_17_18': [3226], 's_17_19': [4025], 's_17_20': [4102], 's_17_21': [3906], 's_17_22': [4087], 's_17_24': [3496], 's_17_26': [4100, 1160], 's_17_27': [1070], 's_17_28': [1281], 's_17_29': [4044], 's_17_30': [3376], 's_17_37': [3816], 's_17_38': [1534], 's_17_39': [455, 3977, 3976], 's_17_40': [4083], 's_17_41': [3421], 's_17_44': [1505], 's_17_17': [3166], 's_19_3': [1209], 's_19_5': [969, 968], 's_19_15': [443], 's_19_18': [3876], 's_19_27': [4220], 's_19_28': [4595, 1074], 's_19_29': [1029], 's_19_31': [623], 's_19_34': [4369], 's_19_37': [1085], 's_19_38': [3829], 's_19_45': [4534, 4533, 653], 's_19_19': [955], 's_20_3': [1113], 's_20_5': [3411], 's_20_9': [3170], 's_20_13': [4209], 's_20_15': [3364, 1006], 's_20_18': [3245], 's_20_22': [1263], 's_20_23': [1672], 's_20_24': [1506], 's_20_26': [3500], 's_20_27': [3425], 's_20_30': [646], 's_20_31': [1492], 's_20_35': [1336], 's_20_36': [901], 's_20_42': [1642], 's_20_44': [4011], 's_20_20': [4225], 's_23_13': [1712], 's_23_15': [4126], 's_23_21': [1401], 's_23_24': [4275], 's_23_25': [1146], 's_23_26': [4173], 's_23_28': [4221], 's_23_29': [1791], 's_23_30': [3758], 's_23_31': [1477], 's_23_32': [3699], 's_23_33': [442, 441, 4111], 's_23_34': [396], 's_23_35': [3578], 's_23_36': [4112], 's_23_37': [4081], 's_23_38': [3743, 1639], 's_23_39': [4125, 231], 's_23_41': [4260], 's_23_42': [4193, 1657], 's_23_44': [876], 's_23_45': [4563], 's_23_23': [4143], 's_24_3': [4581, 1269], 's_24_15': [4531], 's_24_18': [4536], 's_24_26': [774], 's_24_33': [4532], 's_24_34': [4396], 's_24_37': [4006], 's_24_38': [304], 's_24_39': [305], 's_24_40': [4216], 's_24_41': [3796], 's_24_42': [3706, 364, 363, 3481], 's_24_43': [4597], 's_24_45': [878], 's_24_24': [3540, 183], 's_25_1': [1326], 's_25_13': [3693], 's_25_18': [1027], 's_25_21': [4192], 's_25_26': [996], 's_25_27': [1087], 's_25_28': [1297], 's_25_32': [723], 's_25_33': [695], 's_25_34': [3588], 's_25_36': [713], 's_25_37': [3559], 's_25_38': [694], 's_25_40': [3798], 's_25_43': [4237], 's_25_25': [3648], 's_26_3': [1007], 's_26_5': [4129], 's_26_18': [962], 's_26_22': [3514], 's_26_27': [1051], 's_26_28': [4473], 's_26_31': [787], 's_26_34': [696], 's_26_35': [3439], 's_26_37': [4206], 's_26_38': [3800, 3799], 's_26_39': [3740], 's_26_40': [743, 4443], 's_26_41': [759, 4564], 's_26_42': [978], 's_26_26': [729], 's_27_3': [3725], 's_27_5': [1103], 's_27_9': [871], 's_27_13': [1745], 's_27_15': [902], 's_27_22': [1083], 's_27_29': [3938], 's_27_32': [1095], 's_27_35': [3288, 781], 's_27_36': [1081], 's_27_37': [1325], 's_27_38': [1684], 's_27_40': [811], 's_27_42': [1084], 's_27_43': [1565], 's_27_44': [1415], 's_27_27': [3909], 's_29_9': [4249], 's_29_13': [1746, 4074], 's_29_31': [1508, 1507], 's_29_32': [3864], 's_29_40': [724], 's_29_41': [1239], 's_29_42': [1731, 4118], 's_29_44': [4115, 4114], 's_29_29': [1629], 's_31_5': [593], 's_31_9': [773], 's_31_28': [3907], 's_31_30': [1582], 's_31_32': [1727, 1728, 1729], 's_31_37': [397], 's_31_41': [562], 's_31_42': [4313], 's_31_43': [4207], 's_31_45': [1283], 's_31_31': [4311], 's_34_1': [4476], 's_34_3': [1088, 4460], 's_34_13': [633], 's_34_15': [3497], 's_34_22': [4371], 's_34_28': [4535, 1089], 's_34_32': [3602], 's_34_36': [3947, 605], 's_34_37': [4186], 's_34_40': [4068], 's_34_41': [4321], 's_34_44': [1026], 's_34_45': [1193], 's_34_34': [4246], 's_38_3': [3517], 's_38_15': [289], 's_38_18': [1309], 's_38_28': [3727], 's_38_30': [3713], 's_38_32': [3833], 's_38_33': [499], 's_38_39': [469], 's_38_40': [3753], 's_38_42': [3863], 's_38_38': [3533], 's_39_1': [981], 's_39_5': [3531], 's_39_9': [3171], 's_39_13': [3426], 's_39_22': [3575], 's_39_33': [500], 's_39_35': [3246], 's_39_37': [4022], 's_39_40': [666], 's_39_41': [365], 's_39_39': [4020], 's_42_1': [4238], 's_42_5': [829, 3784], 's_42_9': [3664], 's_42_15': [3601], 's_42_18': [1233], 's_42_30': [1628], 's_42_33': [498], 's_42_35': [1787], 's_42_36': [574], 's_42_37': [409], 's_42_40': [3723, 783], 's_42_44': [1114], 's_42_42': [3685], 's_1_3': [4701], 's_1_5': [4417], 's_1_9': [757], 's_1_13': [1822], 's_1_22': [1132], 's_1_30': [4298], 's_1_33': [4187], 's_1_41': [4656], 's_1_45': [727], 's_1_1': [4374], 's_15_30': [392], 's_15_33': [4486], 's_15_41': [3721], 's_15_18': [1232], 's_15_21': [346], 's_15_32': [3442, 1517], 's_15_35': [752], 's_15_36': [4141], 's_15_40': [3363, 692], 's_15_43': [3412], 's_15_15': [4471], 's_18_13': [3381], 's_18_30': [3347], 's_18_41': [3241], 's_18_45': [3274], 's_18_28': [4236], 's_18_35': [796], 's_18_40': [1012], 's_18_44': [3365], 's_18_18': [841], 's_22_5': [1448], 's_22_21': [4147], 's_22_30': [4358], 's_22_32': [3849, 3848, 1504], 's_22_35': [3484], 's_22_37': [3604], 's_22_41': [1524, 1523], 's_22_44': [3967], 's_22_22': [4372], 's_32_5': [3502], 's_32_13': [3548], 's_32_30': [900], 's_32_21': [1380], 's_32_36': [1395], 's_32_37': [2989], 's_32_40': [3321, 3320, 3319, 3318], 's_32_43': [3276, 3277], 's_32_44': [705], 's_32_32': [2912], 's_33_5': [4294, 997], 's_33_9': [3618], 's_33_13': [603], 's_33_30': [3302], 's_33_21': [450], 's_33_36': [503], 's_33_37': [3887], 's_33_40': [4172, 456], 's_33_45': [758], 's_33_33': [756], 's_36_3': [1200], 's_36_5': [863], 's_36_9': [795], 's_36_41': [606], 's_36_28': [1456], 's_36_35': [1320], 's_36_40': [3153], 's_36_43': [3142, 3143], 's_36_44': [675], 's_36_36': [585], 's_37_5': [3921], 's_37_41': [3946], 's_37_21': [3862], 's_37_28': [4251], 's_37_35': [3424], 's_37_44': [870], 's_37_37': [3004], 's_40_5': [832], 's_40_9': [3423], 's_40_41': [367], 's_40_28': [1057], 's_40_44': [1192], 's_40_40': [4200], 's_41_3': [4761], 's_41_5': [1254, 1253], 's_41_9': [4293], 's_41_30': [4718, 1554, 1553], 's_41_21': [361], 's_41_43': [1434], 's_41_45': [4791, 1149, 1148], 's_41_41': [1270], 's_44_3': [3306], 's_44_9': [1155], 's_44_21': [645], 's_44_28': [3937], 's_44_44': [3018], 's_3_5': [4416], 's_3_9': [1201], 's_3_13': [3501], 's_3_28': [4295], 's_3_30': [3082, 3081], 's_3_45': [4506], 's_3_3': [4640], 's_21_45': [721], 's_21_28': [3323, 3322, 1396], 's_21_35': [3366], 's_21_43': [3427], 's_21_21': [435], 's_43_13': [3547], 's_43_30': [3503], 's_43_35': [1472], 's_43_43': [1420], 's_45_5': [1238], 's_45_9': [3378], 's_45_13': [754], 's_45_30': [3377], 's_45_28': [983], 's_45_35': [3348], 's_45_45': [3513], 's_5_9': [755], 's_5_13': [3576], 's_5_28': [4488, 698], 's_5_30': [4433, 1613], 's_5_5': [1268], 's_13_9': [1276], 's_13_28': [1532], 's_13_35': [1848, 3609], 's_13_13': [1668], 's_28_30': [3443], 's_28_28': [3113], 's_30_30': [3360, 167], 's_35_35': [1726], 's_9_9': [765]}</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0003295638126009693</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0007011829674729842</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>{0: [1024, 3845, 935, 3964, 3437, 518, 517, 516, 511, 512, 513, 514, 515, 3963, 3962], 2: [4351, 4352, 4353, 1457, 1458, 1459, 893, 892, 3846, 3847, 1460, 1461, 1462, 4327, 667, 4323, 4324, 4325, 4326], 's_0_2': [563, 4427], 4: [1008, 575, 3827, 3571, 1038, 3574, 531, 530, 3622, 3621, 3620, 3619, 843, 529, 528, 3572, 3573], 's_0_4': [3662], 6: [3639, 3638, 3630, 3637, 3636, 3631, 3632, 3633, 995, 994, 993, 3634, 3635], 's_0_6': [3647], 7: [3902, 3698, 1414, 4699, 939, 937, 936, 3903, 860, 3697, 3696, 1143, 938, 1144, 1145, 3995, 3994], 's_0_7': [875], 8: [4052, 1476, 4053, 4054, 4055, 1236, 4056, 1818, 1819, 1820, 1821, 4057, 4059, 4058], 's_0_8': [620], 10: [541, 916, 316, 3180, 3181, 3182, 3183, 1686, 1685, 3983, 1655, 1654, 1653, 3458, 1562, 1561, 3187, 3186, 3185, 3184], 's_0_10': [3167], 11: [919, 259, 4446, 4445, 4234, 1058, 3841, 3842, 3843, 4490, 4489, 923, 922, 3844, 920, 921], 's_0_11': [3814], 12: [1564, 1069, 3804, 3755, 1368, 3756, 1068, 3878, 3877, 3803, 3802, 1369], 's_0_12': [3815], 14: [3545, 4624, 4623, 4622, 549, 548, 547, 546, 545, 544, 543, 3542, 3544, 992, 991, 3543, 3260, 3261, 3262, 1441], 's_0_14': [4577], 16: [4155, 3256, 3107, 420, 3092, 3091, 285, 872, 217, 216, 215, 214, 213, 3331, 212, 3469, 3468, 3467, 3466, 287, 286], 's_0_16': [510], 17: [785, 1251, 1535, 4043, 331, 332, 333, 334, 335, 4036, 1249, 1250, 4037, 4038, 4039, 4040, 4041, 4042], 's_0_17': [3272, 3271], 19: [1009, 4592, 4594, 894, 3875, 950, 951, 4670, 4593, 4669, 954, 953, 952], 's_0_19': [4668, 4667, 519], 20: [1020, 4224, 4223, 4222, 1341, 3227, 3228, 1566, 3229, 3470, 3471, 1340, 1339, 1022, 1338, 1021, 1337], 's_0_20': [617, 616], 23: [786, 1713, 3714, 366, 291, 1759, 637, 636, 1760, 638, 1761, 4179, 4156, 4157, 4158, 4159, 4160, 1161, 4178, 4175, 4176, 4177], 's_0_23': [4487], 24: [317, 318, 3782, 4162, 1356, 1357, 3781, 4296, 319, 320, 321, 322, 323, 4546, 4547, 4548, 4549, 4550, 4551, 1343, 1342], 's_0_24': [533], 25: [4023, 4116, 1371, 3558, 708, 709, 710, 711, 712, 4266, 4265, 4264, 4279, 4278], 's_0_25': [3978], 26: [4128, 977, 3515, 4638, 803, 802, 801, 4204, 4131, 4130, 1052, 1053, 1054, 1055, 4205, 1056], 's_0_26': [800], 27: [1641, 1112, 3289, 3290, 1102, 1101, 3908, 1595, 1640, 1082, 3953, 1096, 1097, 1098, 1099, 1100, 3952, 3951, 3950], 's_0_27': [1025, 3949], 29: [4149, 1670, 4148, 3828, 3818, 725, 4113, 816, 817, 818, 4609, 1671, 4610, 4612, 726, 4611, 1536, 1537, 1538, 4613], 's_0_29': [815], 31: [4127, 621, 4305, 4306, 4307, 622, 4398, 4399, 4312, 3923, 3922, 1430, 4400, 4401, 4402, 1432, 1431], 's_0_31': [4397], 34: [4370, 4475, 4474, 1043, 3587, 558, 1042, 559, 560, 352, 351, 4066, 4067, 1041, 4099, 4098, 4097, 561], 's_0_34': [557], 38: [3774, 3518, 1578, 3773, 859, 1579, 3772, 3771, 3765, 3766, 3767, 3768, 3769, 3770], 's_0_38': [3752], 39: [4235, 395, 1170, 4021, 350, 3916, 1171, 1172, 1173, 1174, 3920, 1011, 1010, 4010, 1040, 665, 3917, 3961, 3918, 3919], 's_0_39': [905], 42: [3556, 1788, 3684, 934, 393, 394, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 1624, 1625, 1626, 1627], 's_0_42': [3739], 's_0_0': [4472], 1: [4276, 4277, 651, 4686, 1314, 1762, 4254, 4252, 1313, 1312, 4188, 4189, 4190, 4253, 4191], 's_2_1': [1447], 's_2_6': [3652], 's_2_7': [1399], 's_2_8': [1446], 's_2_12': [1444], 's_2_14': [4322], 15: [3826, 1442, 3337, 3336, 3335, 3334, 3333, 3332, 428, 427, 426, 425, 424, 423, 422, 3286, 421], 's_2_15': [3367], 's_2_17': [1252, 4341], 18: [3651, 451, 3242, 1208, 4385, 4386, 1207, 1206, 1205, 3243, 961, 3379, 3380, 1204, 3244, 1203, 3456, 1202], 's_2_18': [1237], 's_2_20': [3712], 22: [918, 1372, 1133, 4355, 3593, 4356, 4357, 3589, 3590, 3591, 3592, 1518, 1519, 1522, 1521, 1520], 's_2_22': [1147], 's_2_23': [4233], 's_2_31': [652, 4442, 4441, 4440, 277], 32: [3669, 3036, 3528, 1427, 573, 572, 1699, 1698, 1697, 2974, 2975, 2976, 3398, 3397, 3396, 2973, 1262, 571, 1261, 570, 1260], 's_2_32': [3382], 33: [4008, 4007, 526, 3617, 3152, 481, 482, 483, 484, 485, 486, 487, 488, 4456, 4457, 4458, 4459], 's_2_33': [502], 's_2_34': [4340], 36: [3128, 4414, 4413, 4412, 3127, 3126, 3125, 3124, 3123, 586, 587, 588, 472, 471, 4142, 591, 590, 589], 's_2_36': [668], 37: [1267, 885, 886, 887, 889, 412, 3981, 888, 1266, 1265, 411, 410, 3857, 3858, 3861, 3860, 3859], 's_2_37': [1295], 's_2_39': [1115], 40: [1163, 1162, 3215, 3214, 735, 4310, 4309, 4308, 4202, 4203, 742, 741, 3213, 736, 4201, 737, 738, 739, 740], 's_2_40': [877], 41: [1044, 4655, 337, 1179, 4354, 4717, 4716, 4715, 4714, 849, 848, 3211, 376, 377, 378, 379, 380, 381, 382, 4261, 4262, 4263, 847], 's_2_41': [307, 4336], 's_2_42': [3667], 44: [1656, 840, 4012, 1191, 1400, 3936, 3093, 3094, 3095, 1126, 1127, 1128, 1129, 4013, 1130, 4084, 4085, 1190, 3935], 's_2_44': [3982, 1445], 's_2_2': [292], 3: [3409, 3410, 3516, 1224, 1223, 1222, 1221, 1220, 1215, 1216, 1217, 1218, 1219], 's_4_3': [3486, 3485, 1037], 's_4_6': [858], 's_4_7': [3650], 's_4_12': [3530], 's_4_14': [873], 's_4_15': [408, 3512], 's_4_17': [1248], 's_4_19': [3754, 1039], 21: [3317, 4027, 1386, 1385, 496, 1384, 1383, 1382, 3196, 3197, 3198, 3199, 3200, 3201, 1381], 's_4_21': [3607], 's_4_24': [3797], 's_4_25': [3557], 's_4_26': [3605], 's_4_27': [3695], 's_4_29': [3888], 's_4_31': [4082, 576], 's_4_33': [3586], 's_4_34': [3722], 's_4_36': [4217], 's_4_39': [3606], 's_4_40': [3873], 's_4_41': [532], 43: [4267, 3338, 1419, 4028, 1418, 1417, 1416, 4132, 1486, 1487, 1488, 1489, 1490, 1491], 's_4_43': [1473], 45: [3259, 722, 4218, 3783, 856, 4503, 857, 3408, 3407, 677, 678, 679, 4521, 4520, 4519, 4518, 683, 682, 681, 680], 's_4_45': [3812, 3813], 's_4_4': [813], 5: [4462, 1463, 4432, 3532, 1322, 4428, 4429, 1323, 3892, 3889, 1280, 1324, 4431, 4430, 967, 966, 965, 964, 3890, 3891], 's_6_5': [1398], 's_6_7': [1353], 's_6_8': [3654], 's_6_10': [1669], 's_6_12': [1834], 13: [3707, 647, 648, 3954, 1807, 1806, 1805, 1804, 1803, 3564, 1744, 1743, 3563, 3562, 1277, 3561, 3708, 3709, 3710, 3711, 1278, 1279], 's_6_13': [1773], 's_6_14': [693], 's_6_16': [3645], 's_6_17': [349, 348], 's_6_19': [949], 's_6_20': [3965, 3966], 's_6_27': [3785], 28: [4145, 4415, 3202, 1545, 4146, 1176, 4565, 833, 4579, 4580, 1073, 1072, 4280, 4281, 4282, 1551, 1550, 1549, 1548, 1547, 1546], 's_6_28': [3653], 30: [1552, 436, 4373, 1612, 1611, 3361, 3362, 631, 630, 3063, 3064, 3065, 3066, 3067, 1610, 1609, 1608, 1607, 1606, 1605, 3068], 's_6_30': [1593], 's_6_33': [618], 's_6_37': [3649], 's_6_39': [1188], 's_6_41': [3646], 's_6_42': [438], 's_6_6': [93], 's_7_1': [845, 846], 's_7_5': [3874, 814], 's_7_8': [1086], 's_7_11': [634], 's_7_12': [3817], 's_7_14': [4639], 's_7_17': [890], 's_7_18': [4071], 's_7_19': [984], 's_7_22': [1158], 's_7_24': [924], 's_7_25': [3948], 's_7_27': [4250], 's_7_28': [834], 's_7_29': [879], 's_7_30': [1594], 's_7_31': [1429], 's_7_33': [4009], 35: [1291, 3534, 1292, 1413, 1412, 1321, 1758, 1757, 3354, 842, 3349, 3350, 3351, 3353, 3352], 's_7_35': [1294, 1293], 's_7_38': [649], 's_7_40': [3993], 's_7_41': [940], 's_7_42': [3666], 's_7_43': [3757], 's_7_7': [3901], 's_8_1': [891], 's_8_12': [1789, 1790, 1730, 3999], 's_8_13': [1715, 1714, 3789], 's_8_17': [1116], 's_8_19': [4070], 's_8_20': [4072], 's_8_24': [4051], 's_8_25': [1296], 's_8_26': [1071], 's_8_27': [1596], 's_8_31': [4117], 's_8_34': [440], 's_8_35': [3474], 's_8_36': [470], 's_8_37': [1235], 's_8_38': [3519], 's_8_42': [3579], 's_8_44': [1355], 's_8_8': [1817, 3309], 's_10_1': [4283], 's_10_14': [1231], 's_10_15': [3473, 3472, 1397], 's_10_17': [3316], 's_10_18': [3457], 's_10_20': [3488, 3487], 's_10_22': [1563, 3577], 's_10_23': [3894], 's_10_24': [4163], 's_10_27': [3998], 's_10_29': [1701], 's_10_30': [4103], 's_10_32': [3489], 's_10_33': [3257], 's_10_35': [1652], 's_10_39': [1185], 's_10_40': [3212], 's_10_42': [4328, 1687], 's_10_43': [3308], 's_10_44': [975], 's_10_45': [542], 's_10_10': [3158], 's_11_1': [4461], 's_11_5': [1403], 9: [3452, 3453, 982, 4339, 772, 3156, 771, 770, 769, 3155, 3154, 4338, 766, 767, 768], 's_11_9': [4219], 's_11_15': [274], 's_11_22': [1118], 's_11_23': [906], 's_11_24': [3780], 's_11_26': [861, 4069], 's_11_28': [4504], 's_11_29': [1059], 's_11_31': [4384], 's_11_34': [1028], 's_11_36': [908], 's_11_37': [844], 's_11_39': [799], 's_11_40': [1177], 's_11_42': [3676, 258], 's_11_44': [3934], 's_11_45': [1178], 's_11_11': [3795], 's_12_5': [1354], 's_12_14': [3560], 's_12_17': [3801], 's_12_18': [1067], 's_12_21': [3832], 's_12_27': [3665], 's_12_28': [3893], 's_12_29': [1879, 1880, 1881], 's_12_31': [1475], 's_12_32': [3879], 's_12_37': [1310], 's_12_42': [3788], 's_12_43': [1474], 's_12_44': [3830], 's_12_12': [1864, 3880], 's_14_3': [1157], 's_14_9': [1036], 's_14_13': [1351, 1352], 's_14_18': [1186], 's_14_19': [564], 's_14_22': [933], 's_14_23': [4637], 's_14_25': [782], 's_14_26': [699], 's_14_28': [1471], 's_14_32': [3527], 's_14_33': [3992], 's_14_34': [3872], 's_14_35': [3217, 1531], 's_14_41': [1104, 4625], 's_14_43': [3232], 's_14_45': [4502], 's_14_14': [4517, 608, 4608, 714], 's_16_3': [3394], 's_16_15': [3825], 's_16_20': [556], 's_16_21': [3195], 's_16_23': [4231], 's_16_26': [948], 's_16_30': [347], 's_16_31': [4290], 's_16_32': [632], 's_16_34': [3482, 437], 's_16_35': [3454], 's_16_36': [615], 's_16_38': [3750], 's_16_39': [3871], 's_16_40': [663, 3663, 662], 's_16_42': [3555], 's_16_44': [3108], 's_16_45': [707], 's_16_16': [211], 's_17_1': [1311], 's_17_3': [3786], 's_17_5': [784], 's_17_13': [3726], 's_17_15': [3436], 's_17_18': [3226], 's_17_19': [4025], 's_17_20': [4102], 's_17_21': [3906], 's_17_22': [4087], 's_17_24': [3496], 's_17_26': [4100, 1160], 's_17_27': [1070], 's_17_28': [1281], 's_17_29': [4044], 's_17_30': [3376], 's_17_37': [3816], 's_17_38': [1534], 's_17_39': [455, 3977, 3976], 's_17_40': [4083], 's_17_41': [3421], 's_17_44': [1505], 's_17_17': [3166], 's_19_3': [1209], 's_19_5': [969, 968], 's_19_15': [443], 's_19_18': [3876], 's_19_27': [4220], 's_19_28': [4595, 1074], 's_19_29': [1029], 's_19_31': [623], 's_19_34': [4369], 's_19_37': [1085], 's_19_38': [3829], 's_19_45': [4534, 4533, 653], 's_19_19': [955], 's_20_3': [1113], 's_20_5': [3411], 's_20_9': [3170], 's_20_13': [4209], 's_20_15': [3364, 1006], 's_20_18': [3245], 's_20_22': [1263], 's_20_23': [1672], 's_20_24': [1506], 's_20_26': [3500], 's_20_27': [3425], 's_20_30': [646], 's_20_31': [1492], 's_20_35': [1336], 's_20_36': [901], 's_20_42': [1642], 's_20_44': [4011], 's_20_20': [4225], 's_23_13': [1712], 's_23_15': [4126], 's_23_21': [1401], 's_23_24': [4275], 's_23_25': [1146], 's_23_26': [4173], 's_23_28': [4221], 's_23_29': [1791], 's_23_30': [3758], 's_23_31': [1477], 's_23_32': [3699], 's_23_33': [442, 441, 4111], 's_23_34': [396], 's_23_35': [3578], 's_23_36': [4112], 's_23_37': [4081], 's_23_38': [3743, 1639], 's_23_39': [4125, 231], 's_23_41': [4260], 's_23_42': [4193, 1657], 's_23_44': [876], 's_23_45': [4563], 's_23_23': [4143], 's_24_3': [4581, 1269], 's_24_15': [4531], 's_24_18': [4536], 's_24_26': [774], 's_24_33': [4532], 's_24_34': [4396], 's_24_37': [4006], 's_24_38': [304], 's_24_39': [305], 's_24_40': [4216], 's_24_41': [3796], 's_24_42': [3706, 364, 363, 3481], 's_24_43': [4597], 's_24_45': [878], 's_24_24': [3540, 183], 's_25_1': [1326], 's_25_13': [3693], 's_25_18': [1027], 's_25_21': [4192], 's_25_26': [996], 's_25_27': [1087], 's_25_28': [1297], 's_25_32': [723], 's_25_33': [695], 's_25_34': [3588], 's_25_36': [713], 's_25_37': [3559], 's_25_38': [694], 's_25_40': [3798], 's_25_43': [4237], 's_25_25': [3648], 's_26_3': [1007], 's_26_5': [4129], 's_26_18': [962], 's_26_22': [3514], 's_26_27': [1051], 's_26_28': [4473], 's_26_31': [787], 's_26_34': [696], 's_26_35': [3439], 's_26_37': [4206], 's_26_38': [3800, 3799], 's_26_39': [3740], 's_26_40': [743, 4443], 's_26_41': [759, 4564], 's_26_42': [978], 's_26_26': [729], 's_27_3': [3725], 's_27_5': [1103], 's_27_9': [871], 's_27_13': [1745], 's_27_15': [902], 's_27_22': [1083], 's_27_29': [3938], 's_27_32': [1095], 's_27_35': [3288, 781], 's_27_36': [1081], 's_27_37': [1325], 's_27_38': [1684], 's_27_40': [811], 's_27_42': [1084], 's_27_43': [1565], 's_27_44': [1415], 's_27_27': [3909], 's_29_9': [4249], 's_29_13': [1746, 4074], 's_29_31': [1508, 1507], 's_29_32': [3864], 's_29_40': [724], 's_29_41': [1239], 's_29_42': [1731, 4118], 's_29_44': [4115, 4114], 's_29_29': [1629], 's_31_5': [593], 's_31_9': [773], 's_31_28': [3907], 's_31_30': [1582], 's_31_32': [1727, 1728, 1729], 's_31_37': [397], 's_31_41': [562], 's_31_42': [4313], 's_31_43': [4207], 's_31_45': [1283], 's_31_31': [4311], 's_34_1': [4476], 's_34_3': [1088, 4460], 's_34_13': [633], 's_34_15': [3497], 's_34_22': [4371], 's_34_28': [4535, 1089], 's_34_32': [3602], 's_34_36': [3947, 605], 's_34_37': [4186], 's_34_40': [4068], 's_34_41': [4321], 's_34_44': [1026], 's_34_45': [1193], 's_34_34': [4246], 's_38_3': [3517], 's_38_15': [289], 's_38_18': [1309], 's_38_28': [3727], 's_38_30': [3713], 's_38_32': [3833], 's_38_33': [499], 's_38_39': [469], 's_38_40': [3753], 's_38_42': [3863], 's_38_38': [3533], 's_39_1': [981], 's_39_5': [3531], 's_39_9': [3171], 's_39_13': [3426], 's_39_22': [3575], 's_39_33': [500], 's_39_35': [3246], 's_39_37': [4022], 's_39_40': [666], 's_39_41': [365], 's_39_39': [4020], 's_42_1': [4238], 's_42_5': [829, 3784], 's_42_9': [3664], 's_42_15': [3601], 's_42_18': [1233], 's_42_30': [1628], 's_42_33': [498], 's_42_35': [1787], 's_42_36': [574], 's_42_37': [409], 's_42_40': [3723, 783], 's_42_44': [1114], 's_42_42': [3685], 's_1_3': [4701], 's_1_5': [4417], 's_1_9': [757], 's_1_13': [1822], 's_1_22': [1132], 's_1_30': [4298], 's_1_33': [4187], 's_1_41': [4656], 's_1_45': [727], 's_1_1': [4374], 's_15_30': [392], 's_15_33': [4486], 's_15_41': [3721], 's_15_18': [1232], 's_15_21': [346], 's_15_32': [3442, 1517], 's_15_35': [752], 's_15_36': [4141], 's_15_40': [3363, 692], 's_15_43': [3412], 's_15_15': [4471], 's_18_13': [3381], 's_18_30': [3347], 's_18_41': [3241], 's_18_45': [3274], 's_18_28': [4236], 's_18_35': [796], 's_18_40': [1012], 's_18_44': [3365], 's_18_18': [841], 's_22_5': [1448], 's_22_21': [4147], 's_22_30': [4358], 's_22_32': [3849, 3848, 1504], 's_22_35': [3484], 's_22_37': [3604], 's_22_41': [1524, 1523], 's_22_44': [3967], 's_22_22': [4372], 's_32_5': [3502], 's_32_13': [3548], 's_32_30': [900], 's_32_21': [1380], 's_32_36': [1395], 's_32_37': [2989], 's_32_40': [3321, 3320, 3319, 3318], 's_32_43': [3276, 3277], 's_32_44': [705], 's_32_32': [2912], 's_33_5': [4294, 997], 's_33_9': [3618], 's_33_13': [603], 's_33_30': [3302], 's_33_21': [450], 's_33_36': [503], 's_33_37': [3887], 's_33_40': [4172, 456], 's_33_45': [758], 's_33_33': [756], 's_36_3': [1200], 's_36_5': [863], 's_36_9': [795], 's_36_41': [606], 's_36_28': [1456], 's_36_35': [1320], 's_36_40': [3153], 's_36_43': [3142, 3143], 's_36_44': [675], 's_36_36': [585], 's_37_5': [3921], 's_37_41': [3946], 's_37_21': [3862], 's_37_28': [4251], 's_37_35': [3424], 's_37_44': [870], 's_37_37': [3004], 's_40_5': [832], 's_40_9': [3423], 's_40_41': [367], 's_40_28': [1057], 's_40_44': [1192], 's_40_40': [4200], 's_41_3': [4761], 's_41_5': [1254, 1253], 's_41_9': [4293], 's_41_30': [4718, 1554, 1553], 's_41_21': [361], 's_41_43': [1434], 's_41_45': [4791, 1149, 1148], 's_41_41': [1270], 's_44_3': [3306], 's_44_9': [1155], 's_44_21': [645], 's_44_28': [3937], 's_44_44': [3018], 's_3_5': [4416], 's_3_9': [1201], 's_3_13': [3501], 's_3_28': [4295], 's_3_30': [3082, 3081], 's_3_45': [4506], 's_3_3': [4640], 's_21_45': [721], 's_21_28': [3323, 3322, 1396], 's_21_35': [3366], 's_21_43': [3427], 's_21_21': [435], 's_43_13': [3547], 's_43_30': [3503], 's_43_35': [1472], 's_43_43': [1420], 's_45_5': [1238], 's_45_9': [3378], 's_45_13': [754], 's_45_30': [3377], 's_45_28': [983], 's_45_35': [3348], 's_45_45': [3513], 's_5_9': [755], 's_5_13': [3576], 's_5_28': [4488, 698], 's_5_30': [4433, 1613], 's_5_5': [1268], 's_13_9': [1276], 's_13_28': [1532], 's_13_35': [1848, 3609], 's_13_13': [1668], 's_28_30': [3443], 's_28_28': [3113], 's_30_30': [3360, 167], 's_35_35': [1726], 's_9_9': [765]}</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0.0003295638126009693</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.0007011829674729842</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>{0: [5116, 5117, 4728, 5118, 5119, 806, 805, 804], 4: [731, 729, 730, 4591, 4592, 4593], 5: [4833, 759, 4996, 4997, 4998, 761, 760], 6: [608, 611, 609, 610], 7: [4714, 4713, 4711, 4712], 8: [594, 5056, 597, 5057, 595, 596], 9: [4952, 4953, 669, 670, 671], 10: [5175, 384, 296, 4696, 294, 295], 11: [353, 5011, 4936, 354, 355, 357, 356], 12: [579, 4697, 984, 4699, 4698], 14: [4815, 4819, 4818, 415, 4816, 4817], 15: [443, 446, 444, 445], 16: [924, 881, 925, 5012, 5013, 926, 5014], 18: [459, 460, 4864, 385, 4863, 4861, 4862], 24: [775, 774, 4546, 4547, 4549, 803, 4548], 28: [4594, 879, 4834, 416, 880, 4939, 4937, 4938], 31: [4726, 625, 4727, 623, 624], 32: [896, 895, 4729, 4606, 4607, 4608, 4609, 894], 34: [776, 4832, 4966, 4967, 4970, 4969, 655, 4968], 35: [834, 835, 5028, 5161, 5162, 5163, 836], 37: [4787, 910, 4788, 4790, 4789], 40: [4831, 428, 431, 430, 429], 41: [5177, 656, 5059, 5058, 939, 941, 5176, 940], 42: [4981, 503, 506, 505, 504], 44: [4774, 4772, 580, 4773], 45: [5041, 954, 955, 956, 626, 5044, 5043, 5042], 3: [4924, 4982, 640, 789, 790, 4908], 13: [4759, 4756, 4757, 4758], 17: [400, 4666, 399], 19: [4517, 4921, 488, 4922, 489, 492, 491, 490], 23: [819, 4684, 684, 4681, 4682, 4683], 25: [702, 5086, 5087, 5088, 699, 700, 701], 30: [309, 310, 402, 401, 581, 4907, 4906], 38: [339, 340, 4876, 4879, 4878, 4877], 39: [4533, 4532, 551, 550, 549], 46: [4741, 4745, 4742, 4744, 4743], 1: [4531, 5027, 5026, 372, 369, 370, 371], 20: [5103, 5101, 5102, 521, 520, 4562, 518, 519], 21: [713, 716, 715, 714, 4624, 4621, 4622, 4623], 27: [865, 864, 4639, 4636, 4637, 4638], 33: [4804, 4803, 4800, 4801, 654, 4802], 36: [4848, 534, 4846, 4847, 537, 536, 535], 43: [1000, 999, 4654, 4651, 4652, 4653], 2: [5074, 4667, 4668, 849, 851, 850], 26: [4620, 4771, 4650, 387, 324, 325, 386, 4892, 4891], 29: [5072, 567, 566, 4577, 564, 565], 22: [5206, 744, 4563, 5207, 745, 746, 747, 5208]}</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.1502703461835545</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.02885119086185308</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>{0: [5116, 5117, 4728, 5118, 5119, 806, 805, 804], 4: [731, 729, 730, 4591, 4592, 4593], 5: [4833, 759, 4996, 4997, 4998, 761, 760], 6: [608, 611, 609, 610], 7: [4714, 4713, 4711, 4712], 8: [594, 5056, 597, 5057, 595, 596], 9: [4952, 4953, 669, 670, 671], 10: [5175, 384, 296, 4696, 294, 295], 11: [353, 5011, 4936, 354, 355, 357, 356], 12: [579, 4697, 984, 4699, 4698], 14: [4815, 4819, 4818, 415, 4816, 4817], 15: [443, 446, 444, 445], 16: [924, 881, 925, 5012, 5013, 926, 5014], 18: [459, 460, 4864, 385, 4863, 4861, 4862], 24: [775, 774, 4546, 4547, 4549, 803, 4548], 28: [4594, 879, 4834, 416, 880, 4939, 4937, 4938], 31: [4726, 625, 4727, 623, 624], 32: [896, 895, 4729, 4606, 4607, 4608, 4609, 894], 34: [776, 4832, 4966, 4967, 4970, 4969, 655, 4968], 35: [834, 835, 5028, 5161, 5162, 5163, 836], 37: [4787, 910, 4788, 4790, 4789], 40: [4831, 428, 431, 430, 429], 41: [5177, 656, 5059, 5058, 939, 941, 5176, 940], 42: [4981, 503, 506, 505, 504], 44: [4774, 4772, 580, 4773], 45: [5041, 954, 955, 956, 626, 5044, 5043, 5042], 3: [4924, 4982, 640, 789, 790, 4908], 13: [4759, 4756, 4757, 4758], 17: [400, 4666, 399], 19: [4517, 4921, 488, 4922, 489, 492, 491, 490], 23: [819, 4684, 684, 4681, 4682, 4683], 25: [702, 5086, 5087, 5088, 699, 700, 701], 30: [309, 310, 402, 401, 581, 4907, 4906], 38: [339, 340, 4876, 4879, 4878, 4877], 39: [4533, 4532, 551, 550, 549], 46: [4741, 4745, 4742, 4744, 4743], 1: [4531, 5027, 5026, 372, 369, 370, 371], 20: [5103, 5101, 5102, 521, 520, 4562, 518, 519], 21: [713, 716, 715, 714, 4624, 4621, 4622, 4623], 27: [865, 864, 4639, 4636, 4637, 4638], 33: [4804, 4803, 4800, 4801, 654, 4802], 36: [4848, 534, 4846, 4847, 537, 536, 535], 43: [1000, 999, 4654, 4651, 4652, 4653], 2: [5074, 4667, 4668, 849, 851, 850], 26: [4620, 4771, 4650, 387, 324, 325, 386, 4892, 4891], 29: [5072, 567, 566, 4577, 564, 565], 22: [5206, 744, 4563, 5207, 745, 746, 747, 5208]}</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0.1502703461835545</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02885119086185308</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>{0: [4959, 4617, 4960, 4961, 4136, 2172, 2171, 2170, 4751, 4135, 4752, 2271, 2304, 2303, 2272, 4466], 4: [1356, 1357, 4372, 4373, 1941, 1942, 4375, 2033, 4421, 2203, 2202, 5127, 2321, 2320, 4374, 2319, 2318, 4422], 's_0_4': [2257], 5: [999, 4895, 5083, 5082, 5081, 5080, 5079, 1000, 1001, 5075, 5076, 5077, 5078], 's_0_5': [5051, 5050, 1961], 6: [1210, 1601, 4956, 5105, 5114, 5113, 5112, 5111, 1211, 1857, 5110, 5106, 5107, 5108, 5109], 's_0_6': [2141], 7: [4962, 4963, 2302, 2427, 2426, 2425, 1657, 2424, 1537, 4343, 4344, 2423, 4377, 4346, 4347, 4345, 2422], 's_0_7': [2242], 8: [1570, 4806, 5277, 5278, 2487, 2485, 4807, 4808, 4809, 4812, 2486, 4810, 4811], 's_0_8': [2305], 9: [4613, 4873, 1404, 2530, 4723, 4722, 4721, 2079, 4675, 1224, 4701, 4625, 4702, 4703, 1614, 4673, 4674], 's_0_9': [4766], 10: [4972, 1718, 2228, 4656, 4511, 4510, 1360, 4509, 4508, 1359, 1358, 4507], 's_0_10': [2227], 11: [4055, 4056, 4057, 2548, 4058, 2547, 2546, 2545, 4573, 4572, 2544, 4571, 2048, 2047, 2046, 4150, 4149, 4148, 1611], 's_0_11': [2288], 12: [2154, 5049, 4707, 4706, 4705, 4704, 5526, 1733, 1734, 4478, 1499, 5527, 5528, 1738, 1643, 1737, 1736, 1735], 's_0_12': [1751], 14: [1392, 2081, 2393, 2394, 2395, 2396, 5067, 1376, 5062, 1393, 5066, 5065, 5181, 5063, 5064], 's_0_14': [1976], 15: [1568, 1913, 5347, 1542, 1541, 1540, 1539, 1538, 2136, 2137, 2138, 4586, 4585, 4584, 4583], 's_0_15': [2139], 16: [1178, 5270, 4648, 4647, 4646, 4645, 1959, 4600, 4599, 4598, 4597, 4596, 4595, 1177, 1078, 1077, 1076, 1075, 1074], 's_0_16': [2289], 18: [2122, 2121, 4226, 5496, 1274, 1273, 1272, 1271, 1270, 1269, 4225, 4224, 4223, 4222, 4221, 1267, 1268], 's_0_18': [1971], 24: [2362, 4317, 1783, 1782, 1781, 1780, 1779, 4659, 4660, 4661, 2482, 2483, 4662, 2484], 's_0_24': [4333, 4332], 28: [2607, 4252, 4253, 4254, 4255, 2002, 4315, 2077, 2078, 4601, 4602, 4603, 2606, 2605, 2604, 4678, 2528, 2529], 's_0_28': [4618], 31: [1225, 1301, 2216, 1975, 4896, 4897, 4898, 2515, 2155, 4903, 4902, 4901, 4900, 4899], 's_0_31': [4841], 32: [4213, 1258, 1446, 1447, 1257, 1256, 1255, 1254, 1253, 1252, 4281, 4212, 4210, 4209, 4211, 1731, 4283, 4282], 's_0_32': [2286], 34: [2063, 4630, 4629, 1851, 1870, 4839, 1855, 1852, 1853, 1854], 's_0_34': [2270, 4062, 4061, 4060], 35: [5217, 2323, 2322, 5142, 2261, 4493, 5053, 4494, 4496, 2273, 4557, 2349, 2350, 2351, 4495, 5052], 's_0_35': [5186], 37: [1150, 1151, 5216, 1615, 2247, 5136, 1616, 5367, 5366, 5365, 5364, 5363, 1618, 1617, 5138, 5137], 's_0_37': [4958], 40: [4836, 4762, 1283, 1300, 1299, 1298, 4386, 4387, 4272, 4271, 4450, 1958, 2091, 4270, 1957, 4388, 4389, 4390], 's_0_40': [2076], 41: [1332, 4911, 4692, 4691, 4690, 4689, 4688, 1331, 1330, 4145, 4146, 1326, 1327, 1328, 1329, 4687, 4686], 's_0_41': [2259], 42: [4045, 4046, 3999, 4000, 2187, 4001, 4870, 4871, 2166, 2167, 2168, 2169, 2230, 2184, 2185, 2186, 5006], 's_0_42': [2181], 44: [5215, 4657, 1992, 1991, 4301, 4300, 1987, 1988, 1989, 1990, 4735, 4734, 4733, 1584], 's_0_44': [4316], 45: [4059, 2503, 2502, 2501, 2500, 2499, 2498, 2497, 4258, 4257, 4256, 2061, 4165, 4164, 1761, 4133, 4132, 1176, 4130, 4131], 's_0_45': [4134], 's_0_0': [1986, 4075], 3: [1313, 1462, 1463, 1464, 4567, 1319, 1318, 1317, 1316, 1315, 1314], 's_4_3': [4237], 's_4_5': [5097], 's_4_7': [4917], 's_4_8': [5037], 's_4_10': [4587], 13: [5262, 1768, 2383, 1434, 5383, 5382, 1435, 1436, 1437, 1438, 5381, 5380, 5379, 5376, 5378, 5377], 's_4_13': [5396], 's_4_14': [4842], 's_4_15': [1567], 17: [2097, 2096, 2095, 4886, 1748, 4539, 2197, 2198, 4540, 4541, 2199, 2200], 's_4_17': [4542], 's_4_18': [4296], 19: [1945, 4089, 1723, 1791, 1792, 1722, 1721, 1720, 4838, 1675, 4749, 1793, 1794, 1795, 4854], 's_4_19': [1777], 23: [4297, 1505, 5172, 1506, 1507, 5171, 5170, 5169, 5168, 5167, 1508, 1509, 1510, 1511], 's_4_23': [4162], 25: [1371, 1372, 5338, 1088, 4370, 1133, 4431, 2457, 2456, 2455, 4401, 2454, 2453, 2452, 4432, 4433, 4434, 4435, 4436, 4437, 4438], 's_4_25': [4417], 's_4_28': [4376], 30: [5428, 5421, 5427, 5407, 2108, 2109, 2110, 5422, 5423, 5424, 5425, 2111, 2112, 2113, 5426], 's_4_30': [5411], 's_4_31': [4977], 's_4_35': [2333], 's_4_37': [2218], 38: [1165, 1164, 1163, 1162, 1821, 1822, 4314, 4313, 4312, 1101, 1102, 4310, 4311], 's_4_38': [1522], 39: [1182, 5271, 1586, 1587, 5272, 1663, 5276, 5275, 5274, 5273], 's_4_39': [5261], 's_4_41': [4446], 's_4_44': [2062], 's_4_45': [4423], 46: [2201, 4265, 1691, 1810, 1811, 5021, 5020, 5019, 5018, 1117, 1118, 1119, 1120, 1121, 5017, 5016, 5015], 's_4_46': [2246], 's_4_4': [2204], 1: [4538, 5395, 5394, 5393, 1633, 1632, 1626, 1627, 1628, 1629, 1630, 1631], 's_5_1': [5093], 's_5_3': [1241, 5001], 's_5_6': [1092], 's_5_11': [2532], 's_5_12': [5094], 's_5_14': [2231, 5096], 's_5_16': [4970], 's_5_18': [5091], 's_5_19': [1812, 5154], 20: [4946, 5317, 1479, 4748, 5323, 1480, 5322, 5321, 5320, 5319, 4945, 4944, 4943, 1481, 1482, 1483, 5318], 's_5_20': [5092], 21: [5247, 2337, 2336, 4775, 4776, 4857, 4777, 4778, 4779, 2335, 4782, 4781, 4780], 's_5_21': [984, 983, 4489, 998], 's_5_23': [2441], 's_5_24': [5184, 1842], 27: [1104, 1029, 4700, 4528, 4527, 4526, 4525, 4524, 1149, 1148, 4520, 4521, 4522, 4523], 's_5_27': [4669], 's_5_28': [2591], 's_5_31': [1391, 4986], 's_5_32': [5151, 1196], 33: [1647, 5203, 5202, 5201, 4464, 5200, 5199, 5198, 5197, 1422, 1421, 4163, 1420, 1419, 1418, 4462, 4463, 4328, 1702, 1701], 's_5_33': [2562], 's_5_35': [2352], 36: [2622, 5045, 5294, 5293, 5292, 5291, 5290, 5289, 5288, 4761, 1135, 1136, 1137, 1138, 5286, 5287], 's_5_36': [1106], 's_5_37': [5135], 's_5_38': [1166], 's_5_39': [1662], 's_5_41': [4910], 43: [1061, 4885, 4884, 4883, 4882, 4881, 1056, 1057, 1058, 1059, 1060, 2065, 4880], 's_5_43': [4940], 's_5_45': [2516], 's_5_46': [1946], 's_5_5': [4984], 's_6_1': [5123], 2: [1676, 5003, 4459, 5004, 1900, 1899, 1898, 1897, 4360, 4359, 1762, 4358, 4357, 4356, 4326, 1192, 4460], 's_6_2': [1856], 's_6_3': [1302], 's_6_8': [2471], 's_6_14': [2397], 's_6_18': [1287], 's_6_19': [5124], 's_6_20': [1497], 's_6_21': [2125, 2126], 's_6_24': [1796], 26: [5121, 5246, 5122, 4993, 4992, 4991, 4990, 2006, 2007, 1361, 5346, 1362, 1288, 5242, 5243, 5244, 5156, 2022, 5245], 's_6_26': [2306], 's_6_28': [5129], 29: [4181, 4180, 5302, 4179, 4177, 4176, 4175, 1347, 1041, 4178, 1042, 1043, 1044, 1045, 1046, 1047, 5240, 5241], 's_6_29': [5120], 's_6_30': [1858], 's_6_31': [2156], 's_6_33': [1827], 's_6_35': [2382], 's_6_36': [1031], 's_6_37': [1212], 's_6_38': [5000], 's_6_39': [1181], 's_6_41': [5046], 's_6_44': [5155], 's_6_46': [1931], 's_6_6': [986], 's_7_1': [1536, 4238], 's_7_2': [1658], 's_7_9': [4737], 's_7_12': [1732], 's_7_14': [4362], 's_7_15': [1912], 's_7_16': [2408], 's_7_18': [1672], 's_7_21': [5157, 5158], 's_7_23': [4342], 's_7_24': [4588], 's_7_25': [2363], 's_7_27': [2543, 4408], 's_7_29': [1807], 's_7_31': [4933], 's_7_32': [1597], 's_7_33': [4447], 's_7_35': [5187], 's_7_36': [2412], 's_7_37': [5350, 5351, 5352], 's_7_41': [2409], 's_7_42': [4331], 's_7_44': [2287], 's_7_7': [1656, 4103], 's_8_1': [4913], 's_8_9': [2439], 's_8_11': [4783], 's_8_12': [2049], 's_8_20': [1495], 22: [5304, 1708, 1707, 1221, 1222, 1223, 5228, 5227, 1452, 4581, 4582, 1449, 1451, 1450], 's_8_22': [4852], 's_8_25': [2442], 's_8_26': [5007], 's_8_31': [1765], 's_8_33': [2472], 's_8_34': [4824], 's_8_36': [2517], 's_8_37': [2398], 's_8_39': [1571], 's_8_40': [1374], 's_8_41': [1914], 's_8_42': [4826], 's_8_45': [5248], 's_8_8': [5263], 's_9_1': [4658], 's_9_12': [1824], 's_9_13': [4747], 's_9_15': [1659], 's_9_16': [2469], 's_9_19': [4718], 's_9_20': [1494], 's_9_22': [1284], 's_9_23': [4763], 's_9_28': [4858], 's_9_30': [4825], 's_9_31': [4828], 's_9_32': [4731], 's_9_36': [4746], 's_9_38': [4670], 's_9_43': [1405], 's_9_44': [1944], 's_9_45': [4753], 's_9_46': [4640], 's_9_9': [4724], 's_10_1': [4628], 's_10_11': [2153], 's_10_12': [1763], 's_10_15': [1883], 's_10_17': [4631], 's_10_18': [4626], 's_10_19': [1719], 's_10_26': [1406], 's_10_27': [1928], 's_10_30': [2123], 's_10_32': [4851], 's_10_33': [1673], 's_10_34': [1838], 's_10_41': [4821], 's_10_10': [4655], 's_11_1': [4088], 's_11_13': [5398], 's_11_14': [5068], 's_11_16': [2379], 's_11_17': [2243], 's_11_18': [1881], 's_11_20': [2533], 's_11_22': [4071], 's_11_23': [1520], 's_11_24': [4738], 's_11_25': [4768], 's_11_28': [1686], 's_11_31': [2531], 's_11_32': [1926], 's_11_33': [5218], 's_11_34': [1836], 's_11_35': [5143], 's_11_36': [5308], 's_11_38': [4070], 's_11_40': [4151], 's_11_43': [1071], 's_11_11': [965], 's_12_2': [1841], 's_12_3': [5541], 's_12_14': [5467, 1378], 's_12_18': [1244], 's_12_20': [4929], 's_12_22': [5514], 's_12_25': [4708], 's_12_27': [1613], 's_12_28': [2124], 's_12_33': [1703], 's_12_35': [1598], 's_12_36': [1498], 's_12_37': [1619], 's_12_39': [5334], 's_12_41': [1749], 's_12_43': [4869], 's_12_44': [1884], 's_12_46': [4794], 's_12_12': [1424], 's_14_1': [1496, 4973], 's_14_2': [1826], 's_14_3': [5452, 5451], 's_14_15': [5182], 's_14_21': [4887], 's_14_22': [1466], 's_14_24': [4467], 's_14_25': [4482], 's_14_26': [2381], 's_14_27': [4512], 's_14_28': [4948, 4949], 's_14_31': [2021], 's_14_32': [2392, 2377], 's_14_35': [2366], 's_14_37': [1242], 's_14_39': [1377], 's_14_41': [5031], 's_14_42': [5126], 's_14_44': [5185], 's_14_14': [4978], 's_15_17': [1868], 's_15_19': [1674], 's_15_20': [1573], 's_15_23': [4477], 's_15_29': [2151], 's_15_32': [2301, 4121], 's_15_35': [4481], 's_15_36': [1453], 's_15_40': [4451], 's_15_41': [1809], 's_15_42': [4091], 's_15_45': [2152], 's_15_46': [1556], 's_15_15': [4166], 's_16_1': [1644], 's_16_13': [4612], 's_16_21': [1030, 4925], 's_16_24': [2019], 's_16_25': [2438], 's_16_27': [2093], 's_16_28': [2559], 's_16_29': [1062], 's_16_30': [5420], 's_16_34': [4765], 's_16_36': [1167], 's_16_39': [5360], 's_16_43': [1960], 's_16_45': [2514], 's_16_46': [4820], 's_16_16': [5315], 's_18_1': [4208], 's_18_2': [1191], 's_18_23': [5166], 's_18_25': [4461], 's_18_26': [1289], 's_18_29': [1251], 's_18_30': [1198], 's_18_31': [4926], 's_18_33': [1566], 's_18_36': [1139], 's_18_43': [4220], 's_18_44': [4195, 1956], 's_18_45': [1401], 's_18_46': [4206], 's_18_18': [5481], 's_24_13': [5454], 's_24_19': [4719], 's_24_21': [2094, 4796, 4797, 4798, 2470], 's_24_22': [5469], 's_24_28': [4378], 's_24_32': [2481], 's_24_34': [4644], 's_24_36': [1797], 's_24_37': [1798], 's_24_40': [2317], 's_24_42': [4676], 's_24_44': [5229, 5230], 's_24_45': [4302, 4303], 's_24_46': [5034], 's_24_24': [1784], 's_28_2': [4361], 's_28_3': [1312, 4207], 's_28_26': [2590], 's_28_27': [2258], 's_28_31': [4888], 's_28_32': [1341], 's_28_33': [1582], 's_28_34': [4240], 's_28_36': [5309], 's_28_38': [1927], 's_28_40': [1297], 's_28_41': [4693], 's_28_44': [2032], 's_28_45': [4468], 's_28_28': [4979], 's_31_2': [1915], 's_31_13': [4927], 's_31_17': [2245], 's_31_19': [1690], 's_31_20': [1555], 's_31_21': [2290], 's_31_22': [4957], 's_31_26': [2275], 's_31_32': [1240], 's_31_33': [2217], 's_31_34': [1930], 's_31_40': [4866], 's_31_42': [4932], 's_31_43': [1525], 's_31_44': [4915], 's_31_45': [4843], 's_31_46': [1375, 4942, 4941], 's_31_31': [4918], 's_32_1': [4072, 4073], 's_32_13': [1243], 's_32_17': [2256, 4286], 's_32_21': [4791], 's_32_22': [1238], 's_32_23': [1521], 's_32_25': [4192], 's_32_26': [5196], 's_32_27': [4506], 's_32_29': [1746], 's_32_30': [5406], 's_32_36': [4971], 's_32_39': [5256], 's_32_40': [1237], 's_32_44': [2182], 's_32_45': [4087, 1431], 's_32_46': [4236], 's_32_32': [1445], 's_34_2': [4570], 's_34_19': [4554], 's_34_20': [4930], 's_34_25': [4420], 's_34_29': [1837], 's_34_33': [4449], 's_34_38': [4284], 's_34_41': [1869], 's_34_43': [1825], 's_34_44': [4795], 's_34_34': [4119], 's_35_1': [1688], 's_35_2': [4479], 's_35_13': [5397], 's_35_21': [2365], 's_35_23': [2367], 's_35_33': [1778], 's_35_41': [2364], 's_35_45': [4558], 's_35_46': [5022], 's_35_35': [5054], 's_37_2': [4988], 's_37_3': [5152], 's_37_13': [1963], 's_37_19': [5139], 's_37_20': [1843], 's_37_21': [5307], 's_37_22': [1813], 's_37_23': [5183], 's_37_27': [4850, 1105], 's_37_36': [2038], 's_37_39': [1648], 's_37_41': [1346], 's_37_42': [2188], 's_37_37': [5368], 's_40_1': [4403], 's_40_27': [1973], 's_40_29': [4385], 's_40_30': [4465], 's_40_33': [1552], 's_40_38': [1432], 's_40_42': [2016, 4120], 's_40_43': [1390], 's_40_44': [1972], 's_40_45': [2436], 's_40_46': [4416], 's_40_40': [2090], 's_41_2': [4341], 's_41_19': [1764], 's_41_21': [1194], 's_41_23': [1524], 's_41_27': [1343], 's_41_29': [996], 's_41_36': [1239], 's_41_38': [1086], 's_41_43': [4160], 's_41_45': [4116], 's_41_46': [1286], 's_41_41': [1179], 's_42_17': [5231], 's_42_19': [1895], 's_42_21': [4872], 's_42_26': [2260], 's_42_27': [2183], 's_42_29': [4196], 's_42_38': [4044], 's_42_43': [4976], 's_42_44': [4736], 's_42_45': [1715], 's_42_46': [2291], 's_42_42': [1790, 1789], 's_44_2': [4299], 's_44_3': [4672], 's_44_13': [1993], 's_44_17': [4840], 's_44_19': [1840], 's_44_20': [1554], 's_44_21': [2035], 's_44_22': [4732], 's_44_23': [5140, 1977], 's_44_25': [2003], 's_44_26': [5095], 's_44_27': [1583], 's_44_30': [5005], 's_44_44': [2067, 2068, 5455], 's_45_1': [4118], 's_45_19': [4194], 's_45_20': [2518], 's_45_22': [4115], 's_45_23': [4117], 's_45_25': [4513], 's_45_26': [5008], 's_45_27': [2378, 4393], 's_45_29': [4129], 's_45_30': [2107], 's_45_33': [1551], 's_45_38': [1175, 4100], 's_45_46': [1146], 's_45_45': [2504], 's_3_25': [1388], 's_3_30': [1303], 's_3_39': [5226], 's_3_2': [4371], 's_3_13': [5391], 's_3_21': [1465], 's_3_22': [4627], 's_3_3': [5497], 's_13_20': [5362], 's_13_23': [4912], 's_13_25': [2488], 's_13_26': [1363], 's_13_29': [5332], 's_13_30': [2428], 's_13_21': [2338], 's_13_19': [5439], 's_13_13': [2593], 's_17_1': [4448], 's_17_2': [1747], 's_17_19': [4855], 's_17_20': [5336], 's_17_21': [4856], 's_17_27': [2213], 's_17_29': [2212], 's_17_30': [4556], 's_17_33': [1943], 's_17_36': [5306], 's_17_43': [4931], 's_17_17': [4392], 's_19_29': [1776], 's_19_33': [5213], 's_19_38': [4074], 's_19_39': [5259], 's_19_46': [4764], 's_19_19': [1724], 's_23_1': [4043], 's_23_21': [2307], 's_23_22': [4642], 's_23_25': [4147], 's_23_26': [1947], 's_23_27': [1523], 's_23_30': [2127], 's_23_33': [1962], 's_23_39': [1932], 's_23_43': [2066], 's_23_46': [1706], 's_23_23': [1504], 's_25_1': [4418], 's_25_20': [5337], 's_25_2': [1103], 's_25_21': [4827], 's_25_22': [1403], 's_25_29': [4415], 's_25_38': [1132], 's_25_43': [1072], 's_25_46': [4475], 's_25_25': [1089], 's_30_1': [1948], 's_30_26': [2023], 's_30_22': [5408], 's_30_33': [1423], 's_30_30': [5471], 's_38_1': [4298], 's_38_33': [1687], 's_38_2': [1417], 's_38_22': [4085], 's_38_36': [4730], 's_38_46': [4566], 's_38_38': [4040], 's_39_1': [1678], 's_39_33': [5212], 's_39_22': [1828], 's_39_36': [2052], 's_39_46': [5032], 's_39_39': [1664], 's_46_26': [2036], 's_46_2': [1646], 's_46_27': [4685], 's_46_22': [4280], 's_46_43': [4325], 's_46_46': [1916], 's_1_20': [4537], 's_1_26': [2008], 's_1_29': [4193], 's_1_33': [1642], 's_1_1': [1634], 's_20_21': [1645], 's_20_22': [4837], 's_20_26': [5257], 's_20_29': [5303], 's_20_33': [1557], 's_20_20': [5335], 's_21_26': [2440], 's_21_29': [940, 4834], 's_21_2': [955, 954, 953], 's_21_27': [1013, 1014], 's_21_36': [2292], 's_21_21': [2410], 's_27_29': [4610], 's_27_2': [1208], 's_27_36': [4760], 's_27_27': [4529], 's_33_26': [2157], 's_33_29': [1596], 's_33_2': [1448], 's_33_22': [4867], 's_33_36': [1917], 's_33_33': [5204], 's_36_22': [1752], 's_36_36': [5255], 's_43_26': [2005], 's_43_29': [4190], 's_43_22': [4580], 's_43_43': [4550], 's_2_29': [4444], 's_2_2': [938], 's_26_22': [5047], 's_26_29': [5361], 's_26_26': [5345], 's_29_29': [1011], 's_22_22': [4490]}</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0001900161030595813</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0005486300819509206</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>{0: [4959, 4617, 4960, 4961, 4136, 2172, 2171, 2170, 4751, 4135, 4752, 2271, 2304, 2303, 2272, 4466], 4: [1356, 1357, 4372, 4373, 1941, 1942, 4375, 2033, 4421, 2203, 2202, 5127, 2321, 2320, 4374, 2319, 2318, 4422], 's_0_4': [2257], 5: [999, 4895, 5083, 5082, 5081, 5080, 5079, 1000, 1001, 5075, 5076, 5077, 5078], 's_0_5': [5051, 5050, 1961], 6: [1210, 1601, 4956, 5105, 5114, 5113, 5112, 5111, 1211, 1857, 5110, 5106, 5107, 5108, 5109], 's_0_6': [2141], 7: [4962, 4963, 2302, 2427, 2426, 2425, 1657, 2424, 1537, 4343, 4344, 2423, 4377, 4346, 4347, 4345, 2422], 's_0_7': [2242], 8: [1570, 4806, 5277, 5278, 2487, 2485, 4807, 4808, 4809, 4812, 2486, 4810, 4811], 's_0_8': [2305], 9: [4613, 4873, 1404, 2530, 4723, 4722, 4721, 2079, 4675, 1224, 4701, 4625, 4702, 4703, 1614, 4673, 4674], 's_0_9': [4766], 10: [4972, 1718, 2228, 4656, 4511, 4510, 1360, 4509, 4508, 1359, 1358, 4507], 's_0_10': [2227], 11: [4055, 4056, 4057, 2548, 4058, 2547, 2546, 2545, 4573, 4572, 2544, 4571, 2048, 2047, 2046, 4150, 4149, 4148, 1611], 's_0_11': [2288], 12: [2154, 5049, 4707, 4706, 4705, 4704, 5526, 1733, 1734, 4478, 1499, 5527, 5528, 1738, 1643, 1737, 1736, 1735], 's_0_12': [1751], 14: [1392, 2081, 2393, 2394, 2395, 2396, 5067, 1376, 5062, 1393, 5066, 5065, 5181, 5063, 5064], 's_0_14': [1976], 15: [1568, 1913, 5347, 1542, 1541, 1540, 1539, 1538, 2136, 2137, 2138, 4586, 4585, 4584, 4583], 's_0_15': [2139], 16: [1178, 5270, 4648, 4647, 4646, 4645, 1959, 4600, 4599, 4598, 4597, 4596, 4595, 1177, 1078, 1077, 1076, 1075, 1074], 's_0_16': [2289], 18: [2122, 2121, 4226, 5496, 1274, 1273, 1272, 1271, 1270, 1269, 4225, 4224, 4223, 4222, 4221, 1267, 1268], 's_0_18': [1971], 24: [2362, 4317, 1783, 1782, 1781, 1780, 1779, 4659, 4660, 4661, 2482, 2483, 4662, 2484], 's_0_24': [4333, 4332], 28: [2607, 4252, 4253, 4254, 4255, 2002, 4315, 2077, 2078, 4601, 4602, 4603, 2606, 2605, 2604, 4678, 2528, 2529], 's_0_28': [4618], 31: [1225, 1301, 2216, 1975, 4896, 4897, 4898, 2515, 2155, 4903, 4902, 4901, 4900, 4899], 's_0_31': [4841], 32: [4213, 1258, 1446, 1447, 1257, 1256, 1255, 1254, 1253, 1252, 4281, 4212, 4210, 4209, 4211, 1731, 4283, 4282], 's_0_32': [2286], 34: [2063, 4630, 4629, 1851, 1870, 4839, 1855, 1852, 1853, 1854], 's_0_34': [2270, 4062, 4061, 4060], 35: [5217, 2323, 2322, 5142, 2261, 4493, 5053, 4494, 4496, 2273, 4557, 2349, 2350, 2351, 4495, 5052], 's_0_35': [5186], 37: [1150, 1151, 5216, 1615, 2247, 5136, 1616, 5367, 5366, 5365, 5364, 5363, 1618, 1617, 5138, 5137], 's_0_37': [4958], 40: [4836, 4762, 1283, 1300, 1299, 1298, 4386, 4387, 4272, 4271, 4450, 1958, 2091, 4270, 1957, 4388, 4389, 4390], 's_0_40': [2076], 41: [1332, 4911, 4692, 4691, 4690, 4689, 4688, 1331, 1330, 4145, 4146, 1326, 1327, 1328, 1329, 4687, 4686], 's_0_41': [2259], 42: [4045, 4046, 3999, 4000, 2187, 4001, 4870, 4871, 2166, 2167, 2168, 2169, 2230, 2184, 2185, 2186, 5006], 's_0_42': [2181], 44: [5215, 4657, 1992, 1991, 4301, 4300, 1987, 1988, 1989, 1990, 4735, 4734, 4733, 1584], 's_0_44': [4316], 45: [4059, 2503, 2502, 2501, 2500, 2499, 2498, 2497, 4258, 4257, 4256, 2061, 4165, 4164, 1761, 4133, 4132, 1176, 4130, 4131], 's_0_45': [4134], 's_0_0': [1986, 4075], 3: [1313, 1462, 1463, 1464, 4567, 1319, 1318, 1317, 1316, 1315, 1314], 's_4_3': [4237], 's_4_5': [5097], 's_4_7': [4917], 's_4_8': [5037], 's_4_10': [4587], 13: [5262, 1768, 2383, 1434, 5383, 5382, 1435, 1436, 1437, 1438, 5381, 5380, 5379, 5376, 5378, 5377], 's_4_13': [5396], 's_4_14': [4842], 's_4_15': [1567], 17: [2097, 2096, 2095, 4886, 1748, 4539, 2197, 2198, 4540, 4541, 2199, 2200], 's_4_17': [4542], 's_4_18': [4296], 19: [1945, 4089, 1723, 1791, 1792, 1722, 1721, 1720, 4838, 1675, 4749, 1793, 1794, 1795, 4854], 's_4_19': [1777], 23: [4297, 1505, 5172, 1506, 1507, 5171, 5170, 5169, 5168, 5167, 1508, 1509, 1510, 1511], 's_4_23': [4162], 25: [1371, 1372, 5338, 1088, 4370, 1133, 4431, 2457, 2456, 2455, 4401, 2454, 2453, 2452, 4432, 4433, 4434, 4435, 4436, 4437, 4438], 's_4_25': [4417], 's_4_28': [4376], 30: [5428, 5421, 5427, 5407, 2108, 2109, 2110, 5422, 5423, 5424, 5425, 2111, 2112, 2113, 5426], 's_4_30': [5411], 's_4_31': [4977], 's_4_35': [2333], 's_4_37': [2218], 38: [1165, 1164, 1163, 1162, 1821, 1822, 4314, 4313, 4312, 1101, 1102, 4310, 4311], 's_4_38': [1522], 39: [1182, 5271, 1586, 1587, 5272, 1663, 5276, 5275, 5274, 5273], 's_4_39': [5261], 's_4_41': [4446], 's_4_44': [2062], 's_4_45': [4423], 46: [2201, 4265, 1691, 1810, 1811, 5021, 5020, 5019, 5018, 1117, 1118, 1119, 1120, 1121, 5017, 5016, 5015], 's_4_46': [2246], 's_4_4': [2204], 1: [4538, 5395, 5394, 5393, 1633, 1632, 1626, 1627, 1628, 1629, 1630, 1631], 's_5_1': [5093], 's_5_3': [1241, 5001], 's_5_6': [1092], 's_5_11': [2532], 's_5_12': [5094], 's_5_14': [2231, 5096], 's_5_16': [4970], 's_5_18': [5091], 's_5_19': [1812, 5154], 20: [4946, 5317, 1479, 4748, 5323, 1480, 5322, 5321, 5320, 5319, 4945, 4944, 4943, 1481, 1482, 1483, 5318], 's_5_20': [5092], 21: [5247, 2337, 2336, 4775, 4776, 4857, 4777, 4778, 4779, 2335, 4782, 4781, 4780], 's_5_21': [984, 983, 4489, 998], 's_5_23': [2441], 's_5_24': [5184, 1842], 27: [1104, 1029, 4700, 4528, 4527, 4526, 4525, 4524, 1149, 1148, 4520, 4521, 4522, 4523], 's_5_27': [4669], 's_5_28': [2591], 's_5_31': [1391, 4986], 's_5_32': [5151, 1196], 33: [1647, 5203, 5202, 5201, 4464, 5200, 5199, 5198, 5197, 1422, 1421, 4163, 1420, 1419, 1418, 4462, 4463, 4328, 1702, 1701], 's_5_33': [2562], 's_5_35': [2352], 36: [2622, 5045, 5294, 5293, 5292, 5291, 5290, 5289, 5288, 4761, 1135, 1136, 1137, 1138, 5286, 5287], 's_5_36': [1106], 's_5_37': [5135], 's_5_38': [1166], 's_5_39': [1662], 's_5_41': [4910], 43: [1061, 4885, 4884, 4883, 4882, 4881, 1056, 1057, 1058, 1059, 1060, 2065, 4880], 's_5_43': [4940], 's_5_45': [2516], 's_5_46': [1946], 's_5_5': [4984], 's_6_1': [5123], 2: [1676, 5003, 4459, 5004, 1900, 1899, 1898, 1897, 4360, 4359, 1762, 4358, 4357, 4356, 4326, 1192, 4460], 's_6_2': [1856], 's_6_3': [1302], 's_6_8': [2471], 's_6_14': [2397], 's_6_18': [1287], 's_6_19': [5124], 's_6_20': [1497], 's_6_21': [2125, 2126], 's_6_24': [1796], 26: [5121, 5246, 5122, 4993, 4992, 4991, 4990, 2006, 2007, 1361, 5346, 1362, 1288, 5242, 5243, 5244, 5156, 2022, 5245], 's_6_26': [2306], 's_6_28': [5129], 29: [4181, 4180, 5302, 4179, 4177, 4176, 4175, 1347, 1041, 4178, 1042, 1043, 1044, 1045, 1046, 1047, 5240, 5241], 's_6_29': [5120], 's_6_30': [1858], 's_6_31': [2156], 's_6_33': [1827], 's_6_35': [2382], 's_6_36': [1031], 's_6_37': [1212], 's_6_38': [5000], 's_6_39': [1181], 's_6_41': [5046], 's_6_44': [5155], 's_6_46': [1931], 's_6_6': [986], 's_7_1': [1536, 4238], 's_7_2': [1658], 's_7_9': [4737], 's_7_12': [1732], 's_7_14': [4362], 's_7_15': [1912], 's_7_16': [2408], 's_7_18': [1672], 's_7_21': [5157, 5158], 's_7_23': [4342], 's_7_24': [4588], 's_7_25': [2363], 's_7_27': [2543, 4408], 's_7_29': [1807], 's_7_31': [4933], 's_7_32': [1597], 's_7_33': [4447], 's_7_35': [5187], 's_7_36': [2412], 's_7_37': [5350, 5351, 5352], 's_7_41': [2409], 's_7_42': [4331], 's_7_44': [2287], 's_7_7': [1656, 4103], 's_8_1': [4913], 's_8_9': [2439], 's_8_11': [4783], 's_8_12': [2049], 's_8_20': [1495], 22: [5304, 1708, 1707, 1221, 1222, 1223, 5228, 5227, 1452, 4581, 4582, 1449, 1451, 1450], 's_8_22': [4852], 's_8_25': [2442], 's_8_26': [5007], 's_8_31': [1765], 's_8_33': [2472], 's_8_34': [4824], 's_8_36': [2517], 's_8_37': [2398], 's_8_39': [1571], 's_8_40': [1374], 's_8_41': [1914], 's_8_42': [4826], 's_8_45': [5248], 's_8_8': [5263], 's_9_1': [4658], 's_9_12': [1824], 's_9_13': [4747], 's_9_15': [1659], 's_9_16': [2469], 's_9_19': [4718], 's_9_20': [1494], 's_9_22': [1284], 's_9_23': [4763], 's_9_28': [4858], 's_9_30': [4825], 's_9_31': [4828], 's_9_32': [4731], 's_9_36': [4746], 's_9_38': [4670], 's_9_43': [1405], 's_9_44': [1944], 's_9_45': [4753], 's_9_46': [4640], 's_9_9': [4724], 's_10_1': [4628], 's_10_11': [2153], 's_10_12': [1763], 's_10_15': [1883], 's_10_17': [4631], 's_10_18': [4626], 's_10_19': [1719], 's_10_26': [1406], 's_10_27': [1928], 's_10_30': [2123], 's_10_32': [4851], 's_10_33': [1673], 's_10_34': [1838], 's_10_41': [4821], 's_10_10': [4655], 's_11_1': [4088], 's_11_13': [5398], 's_11_14': [5068], 's_11_16': [2379], 's_11_17': [2243], 's_11_18': [1881], 's_11_20': [2533], 's_11_22': [4071], 's_11_23': [1520], 's_11_24': [4738], 's_11_25': [4768], 's_11_28': [1686], 's_11_31': [2531], 's_11_32': [1926], 's_11_33': [5218], 's_11_34': [1836], 's_11_35': [5143], 's_11_36': [5308], 's_11_38': [4070], 's_11_40': [4151], 's_11_43': [1071], 's_11_11': [965], 's_12_2': [1841], 's_12_3': [5541], 's_12_14': [5467, 1378], 's_12_18': [1244], 's_12_20': [4929], 's_12_22': [5514], 's_12_25': [4708], 's_12_27': [1613], 's_12_28': [2124], 's_12_33': [1703], 's_12_35': [1598], 's_12_36': [1498], 's_12_37': [1619], 's_12_39': [5334], 's_12_41': [1749], 's_12_43': [4869], 's_12_44': [1884], 's_12_46': [4794], 's_12_12': [1424], 's_14_1': [1496, 4973], 's_14_2': [1826], 's_14_3': [5452, 5451], 's_14_15': [5182], 's_14_21': [4887], 's_14_22': [1466], 's_14_24': [4467], 's_14_25': [4482], 's_14_26': [2381], 's_14_27': [4512], 's_14_28': [4948, 4949], 's_14_31': [2021], 's_14_32': [2392, 2377], 's_14_35': [2366], 's_14_37': [1242], 's_14_39': [1377], 's_14_41': [5031], 's_14_42': [5126], 's_14_44': [5185], 's_14_14': [4978], 's_15_17': [1868], 's_15_19': [1674], 's_15_20': [1573], 's_15_23': [4477], 's_15_29': [2151], 's_15_32': [2301, 4121], 's_15_35': [4481], 's_15_36': [1453], 's_15_40': [4451], 's_15_41': [1809], 's_15_42': [4091], 's_15_45': [2152], 's_15_46': [1556], 's_15_15': [4166], 's_16_1': [1644], 's_16_13': [4612], 's_16_21': [1030, 4925], 's_16_24': [2019], 's_16_25': [2438], 's_16_27': [2093], 's_16_28': [2559], 's_16_29': [1062], 's_16_30': [5420], 's_16_34': [4765], 's_16_36': [1167], 's_16_39': [5360], 's_16_43': [1960], 's_16_45': [2514], 's_16_46': [4820], 's_16_16': [5315], 's_18_1': [4208], 's_18_2': [1191], 's_18_23': [5166], 's_18_25': [4461], 's_18_26': [1289], 's_18_29': [1251], 's_18_30': [1198], 's_18_31': [4926], 's_18_33': [1566], 's_18_36': [1139], 's_18_43': [4220], 's_18_44': [4195, 1956], 's_18_45': [1401], 's_18_46': [4206], 's_18_18': [5481], 's_24_13': [5454], 's_24_19': [4719], 's_24_21': [2094, 4796, 4797, 4798, 2470], 's_24_22': [5469], 's_24_28': [4378], 's_24_32': [2481], 's_24_34': [4644], 's_24_36': [1797], 's_24_37': [1798], 's_24_40': [2317], 's_24_42': [4676], 's_24_44': [5229, 5230], 's_24_45': [4302, 4303], 's_24_46': [5034], 's_24_24': [1784], 's_28_2': [4361], 's_28_3': [1312, 4207], 's_28_26': [2590], 's_28_27': [2258], 's_28_31': [4888], 's_28_32': [1341], 's_28_33': [1582], 's_28_34': [4240], 's_28_36': [5309], 's_28_38': [1927], 's_28_40': [1297], 's_28_41': [4693], 's_28_44': [2032], 's_28_45': [4468], 's_28_28': [4979], 's_31_2': [1915], 's_31_13': [4927], 's_31_17': [2245], 's_31_19': [1690], 's_31_20': [1555], 's_31_21': [2290], 's_31_22': [4957], 's_31_26': [2275], 's_31_32': [1240], 's_31_33': [2217], 's_31_34': [1930], 's_31_40': [4866], 's_31_42': [4932], 's_31_43': [1525], 's_31_44': [4915], 's_31_45': [4843], 's_31_46': [1375, 4942, 4941], 's_31_31': [4918], 's_32_1': [4072, 4073], 's_32_13': [1243], 's_32_17': [2256, 4286], 's_32_21': [4791], 's_32_22': [1238], 's_32_23': [1521], 's_32_25': [4192], 's_32_26': [5196], 's_32_27': [4506], 's_32_29': [1746], 's_32_30': [5406], 's_32_36': [4971], 's_32_39': [5256], 's_32_40': [1237], 's_32_44': [2182], 's_32_45': [4087, 1431], 's_32_46': [4236], 's_32_32': [1445], 's_34_2': [4570], 's_34_19': [4554], 's_34_20': [4930], 's_34_25': [4420], 's_34_29': [1837], 's_34_33': [4449], 's_34_38': [4284], 's_34_41': [1869], 's_34_43': [1825], 's_34_44': [4795], 's_34_34': [4119], 's_35_1': [1688], 's_35_2': [4479], 's_35_13': [5397], 's_35_21': [2365], 's_35_23': [2367], 's_35_33': [1778], 's_35_41': [2364], 's_35_45': [4558], 's_35_46': [5022], 's_35_35': [5054], 's_37_2': [4988], 's_37_3': [5152], 's_37_13': [1963], 's_37_19': [5139], 's_37_20': [1843], 's_37_21': [5307], 's_37_22': [1813], 's_37_23': [5183], 's_37_27': [4850, 1105], 's_37_36': [2038], 's_37_39': [1648], 's_37_41': [1346], 's_37_42': [2188], 's_37_37': [5368], 's_40_1': [4403], 's_40_27': [1973], 's_40_29': [4385], 's_40_30': [4465], 's_40_33': [1552], 's_40_38': [1432], 's_40_42': [2016, 4120], 's_40_43': [1390], 's_40_44': [1972], 's_40_45': [2436], 's_40_46': [4416], 's_40_40': [2090], 's_41_2': [4341], 's_41_19': [1764], 's_41_21': [1194], 's_41_23': [1524], 's_41_27': [1343], 's_41_29': [996], 's_41_36': [1239], 's_41_38': [1086], 's_41_43': [4160], 's_41_45': [4116], 's_41_46': [1286], 's_41_41': [1179], 's_42_17': [5231], 's_42_19': [1895], 's_42_21': [4872], 's_42_26': [2260], 's_42_27': [2183], 's_42_29': [4196], 's_42_38': [4044], 's_42_43': [4976], 's_42_44': [4736], 's_42_45': [1715], 's_42_46': [2291], 's_42_42': [1790, 1789], 's_44_2': [4299], 's_44_3': [4672], 's_44_13': [1993], 's_44_17': [4840], 's_44_19': [1840], 's_44_20': [1554], 's_44_21': [2035], 's_44_22': [4732], 's_44_23': [5140, 1977], 's_44_25': [2003], 's_44_26': [5095], 's_44_27': [1583], 's_44_30': [5005], 's_44_44': [2067, 2068, 5455], 's_45_1': [4118], 's_45_19': [4194], 's_45_20': [2518], 's_45_22': [4115], 's_45_23': [4117], 's_45_25': [4513], 's_45_26': [5008], 's_45_27': [2378, 4393], 's_45_29': [4129], 's_45_30': [2107], 's_45_33': [1551], 's_45_38': [1175, 4100], 's_45_46': [1146], 's_45_45': [2504], 's_3_25': [1388], 's_3_30': [1303], 's_3_39': [5226], 's_3_2': [4371], 's_3_13': [5391], 's_3_21': [1465], 's_3_22': [4627], 's_3_3': [5497], 's_13_20': [5362], 's_13_23': [4912], 's_13_25': [2488], 's_13_26': [1363], 's_13_29': [5332], 's_13_30': [2428], 's_13_21': [2338], 's_13_19': [5439], 's_13_13': [2593], 's_17_1': [4448], 's_17_2': [1747], 's_17_19': [4855], 's_17_20': [5336], 's_17_21': [4856], 's_17_27': [2213], 's_17_29': [2212], 's_17_30': [4556], 's_17_33': [1943], 's_17_36': [5306], 's_17_43': [4931], 's_17_17': [4392], 's_19_29': [1776], 's_19_33': [5213], 's_19_38': [4074], 's_19_39': [5259], 's_19_46': [4764], 's_19_19': [1724], 's_23_1': [4043], 's_23_21': [2307], 's_23_22': [4642], 's_23_25': [4147], 's_23_26': [1947], 's_23_27': [1523], 's_23_30': [2127], 's_23_33': [1962], 's_23_39': [1932], 's_23_43': [2066], 's_23_46': [1706], 's_23_23': [1504], 's_25_1': [4418], 's_25_20': [5337], 's_25_2': [1103], 's_25_21': [4827], 's_25_22': [1403], 's_25_29': [4415], 's_25_38': [1132], 's_25_43': [1072], 's_25_46': [4475], 's_25_25': [1089], 's_30_1': [1948], 's_30_26': [2023], 's_30_22': [5408], 's_30_33': [1423], 's_30_30': [5471], 's_38_1': [4298], 's_38_33': [1687], 's_38_2': [1417], 's_38_22': [4085], 's_38_36': [4730], 's_38_46': [4566], 's_38_38': [4040], 's_39_1': [1678], 's_39_33': [5212], 's_39_22': [1828], 's_39_36': [2052], 's_39_46': [5032], 's_39_39': [1664], 's_46_26': [2036], 's_46_2': [1646], 's_46_27': [4685], 's_46_22': [4280], 's_46_43': [4325], 's_46_46': [1916], 's_1_20': [4537], 's_1_26': [2008], 's_1_29': [4193], 's_1_33': [1642], 's_1_1': [1634], 's_20_21': [1645], 's_20_22': [4837], 's_20_26': [5257], 's_20_29': [5303], 's_20_33': [1557], 's_20_20': [5335], 's_21_26': [2440], 's_21_29': [940, 4834], 's_21_2': [955, 954, 953], 's_21_27': [1013, 1014], 's_21_36': [2292], 's_21_21': [2410], 's_27_29': [4610], 's_27_2': [1208], 's_27_36': [4760], 's_27_27': [4529], 's_33_26': [2157], 's_33_29': [1596], 's_33_2': [1448], 's_33_22': [4867], 's_33_36': [1917], 's_33_33': [5204], 's_36_22': [1752], 's_36_36': [5255], 's_43_26': [2005], 's_43_29': [4190], 's_43_22': [4580], 's_43_43': [4550], 's_2_29': [4444], 's_2_2': [938], 's_26_22': [5047], 's_26_29': [5361], 's_26_26': [5345], 's_29_29': [1011], 's_22_22': [4490]}</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0.0001900161030595813</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.0005486300819509206</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>{0: [2256, 2496, 2182, 4195, 4198, 4197, 4196], 2: [2406, 2405, 3790, 3791, 3792, 2404], 4: [2601, 4134, 4138, 4135, 4136, 4137], 6: [2164, 3717, 2121, 2120, 2119, 3716], 10: [4119, 4120, 4123, 4122, 4121], 11: [2464, 2466, 3941, 3942, 2465], 12: [3642, 4286, 2268, 2269, 2270, 2271], 13: [3865, 2179, 2181, 3866, 3956, 2180], 14: [2495, 2046, 2045, 4046, 4048, 4047], 16: [2076, 2075, 2074, 3805, 3807, 3806], 19: [3973, 2585, 2586, 4180, 4182, 4181, 4183], 20: [4257, 2197, 2195, 2196], 21: [2661, 4089, 4090, 4093, 4091, 4092], 22: [2212, 2419, 2420, 4212, 4213, 2421], 23: [4210, 2014, 4211, 2017, 2015, 2016], 25: [1987, 1984, 1986, 1985], 26: [2106, 2104, 2105], 28: [3940, 1969, 1971, 1970], 30: [4225, 1909, 4015, 1911, 1910], 31: [2058, 3730, 2436, 3731, 3732, 2435, 2434, 2433], 33: [2194, 2362, 2361, 2360, 2359, 3687], 34: [2329, 4060, 4063, 2330, 4061, 2331, 4062], 36: [2347, 4272, 2059, 2060, 4271, 4270, 2061], 39: [4228, 4226, 2315, 2316, 4227], 40: [1957, 4045, 3745, 1956, 1955, 1954], 43: [2165, 4256, 2167, 2166], 44: [2418, 1941, 1940, 1939, 3700, 3703, 3702, 3701], 1: [1926, 4078, 4075, 4076, 2255, 4077], 5: [4165, 4168, 4167, 4166], 7: [2032, 3672, 3671, 2031, 2030, 2029], 8: [4000, 4003, 4001, 2571, 4002], 9: [3880, 2511, 3881, 2510, 3883, 3882], 17: [2301, 4017, 2299, 3925, 3926, 2300], 29: [3836, 2227, 2226, 2223, 2224, 2225], 32: [2541, 2540, 3895, 3898, 3896, 3897], 35: [2241, 2240, 3820, 3821, 2239], 38: [2137, 2136, 3970, 3971, 2135, 2134], 42: [3760, 2451, 2449, 2450, 3761, 3762], 46: [2481, 3910, 2480, 3911, 3912], 47: [4346, 4345, 2002, 1999, 2000, 2001], 15: [2374, 4150, 2375, 4151, 2376, 4152], 24: [2600, 3985, 3986, 3987, 3988], 37: [3640, 3641, 2091, 2090, 2089, 2088], 45: [2284, 2285, 4105, 4106, 2286], 27: [2151, 3775, 3776, 2150, 2149], 41: [3746, 2209, 2211, 2210], 18: [3927, 2344, 2346, 3850, 3851, 3852, 2345], 3: [4034, 4030, 4031, 4033, 4032]}</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.08595334685598377</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.02998412017852353</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>{0: [2256, 2496, 2182, 4195, 4198, 4197, 4196], 2: [2406, 2405, 3790, 3791, 3792, 2404], 4: [2601, 4134, 4138, 4135, 4136, 4137], 6: [2164, 3717, 2121, 2120, 2119, 3716], 10: [4119, 4120, 4123, 4122, 4121], 11: [2464, 2466, 3941, 3942, 2465], 12: [3642, 4286, 2268, 2269, 2270, 2271], 13: [3865, 2179, 2181, 3866, 3956, 2180], 14: [2495, 2046, 2045, 4046, 4048, 4047], 16: [2076, 2075, 2074, 3805, 3807, 3806], 19: [3973, 2585, 2586, 4180, 4182, 4181, 4183], 20: [4257, 2197, 2195, 2196], 21: [2661, 4089, 4090, 4093, 4091, 4092], 22: [2212, 2419, 2420, 4212, 4213, 2421], 23: [4210, 2014, 4211, 2017, 2015, 2016], 25: [1987, 1984, 1986, 1985], 26: [2106, 2104, 2105], 28: [3940, 1969, 1971, 1970], 30: [4225, 1909, 4015, 1911, 1910], 31: [2058, 3730, 2436, 3731, 3732, 2435, 2434, 2433], 33: [2194, 2362, 2361, 2360, 2359, 3687], 34: [2329, 4060, 4063, 2330, 4061, 2331, 4062], 36: [2347, 4272, 2059, 2060, 4271, 4270, 2061], 39: [4228, 4226, 2315, 2316, 4227], 40: [1957, 4045, 3745, 1956, 1955, 1954], 43: [2165, 4256, 2167, 2166], 44: [2418, 1941, 1940, 1939, 3700, 3703, 3702, 3701], 1: [1926, 4078, 4075, 4076, 2255, 4077], 5: [4165, 4168, 4167, 4166], 7: [2032, 3672, 3671, 2031, 2030, 2029], 8: [4000, 4003, 4001, 2571, 4002], 9: [3880, 2511, 3881, 2510, 3883, 3882], 17: [2301, 4017, 2299, 3925, 3926, 2300], 29: [3836, 2227, 2226, 2223, 2224, 2225], 32: [2541, 2540, 3895, 3898, 3896, 3897], 35: [2241, 2240, 3820, 3821, 2239], 38: [2137, 2136, 3970, 3971, 2135, 2134], 42: [3760, 2451, 2449, 2450, 3761, 3762], 46: [2481, 3910, 2480, 3911, 3912], 47: [4346, 4345, 2002, 1999, 2000, 2001], 15: [2374, 4150, 2375, 4151, 2376, 4152], 24: [2600, 3985, 3986, 3987, 3988], 37: [3640, 3641, 2091, 2090, 2089, 2088], 45: [2284, 2285, 4105, 4106, 2286], 27: [2151, 3775, 3776, 2150, 2149], 41: [3746, 2209, 2211, 2210], 18: [3927, 2344, 2346, 3850, 3851, 3852, 2345], 3: [4034, 4030, 4031, 4033, 4032]}</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0.08595334685598377</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02998412017852353</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>{0: [2274, 1161, 4753, 4752, 4206, 1419, 1162, 1163, 1164, 4746, 1632, 1631, 1630, 2154, 4751, 4750, 4749, 4748, 4747], 2: [4510, 5126, 3607, 5307, 5306, 2112, 2111, 4630, 2110, 2109, 2108, 2213, 4407, 2302, 2301, 1578, 3608, 3609, 3610, 3611, 2238, 3702, 4511, 2300, 2299], 's_0_2': [4631], 4: [4505, 1114, 1115, 1116, 1117, 1118, 4431, 4432, 4433, 2292, 2291, 2290, 2289, 2288, 4437, 4436, 4435, 4434], 's_0_4': [4145], 6: [1418, 1549, 4402, 1417, 3907, 1416, 1413, 1414, 1415], 's_0_6': [4401], 10: [4056, 1659, 1221, 2020, 2019, 4490, 1494, 4265, 1222, 1223, 4536, 4541, 4540, 4539, 4538, 4537], 's_0_10': [4627], 11: [1999, 2043, 4716, 1179, 1178, 1177, 2000, 1176, 1175, 3981, 3671, 3670, 3669, 3668, 1311, 1428, 3667, 1309, 1310], 's_0_11': [4445], 12: [3832, 1353, 3756, 5361, 1354, 1359, 1355, 1360, 1356, 1361, 1357, 1362, 1358], 's_0_12': [1374], 13: [2425, 2424, 2422, 2421, 4122, 3639, 1758, 3640, 3641, 2209, 2423, 2210, 2211, 4121], 's_0_13': [4707], 14: [1913, 4585, 4586, 4226, 5185, 4781, 2118, 2127, 3970, 3971, 2119, 2120, 2121, 2122, 2126, 2125, 2124, 2123], 's_0_14': [2049], 16: [3727, 1568, 1326, 1567, 3881, 1564, 4130, 4131, 4132, 1566, 1894, 3880, 3879, 3878, 1565], 's_0_16': [4207], 19: [4596, 4597, 2067, 1373, 1254, 5276, 4626, 5275, 5274, 5273, 5181, 1389, 1390, 1391, 5272, 1392], 's_0_19': [1633], 20: [1250, 1070, 4971, 3875, 4146, 1211, 3877, 3876, 1205, 1206, 1207, 4928, 1481, 4897, 4896, 1210, 1209, 1208], 's_0_20': [4295], 21: [3638, 1608, 1917, 1916, 5065, 5064, 5063, 5062, 1466, 1465, 3745, 3744, 3743, 1609, 1610, 4013, 4012, 1461, 1464, 1463, 1462], 's_0_21': [1646], 22: [4661, 4660, 4659, 1794, 1340, 1370, 4086, 4087, 1926, 1793, 1668, 1669, 1670, 1671, 4088, 4089, 1791, 1792], 's_0_22': [1944], 23: [1505, 3830, 1159, 1160, 4041, 4042, 4043, 4044, 4045, 4046, 2380, 2379, 2378, 2181, 4270, 4271, 2182, 4301, 4377, 2257, 4451], 's_0_23': [2395], 25: [2412, 5202, 5201, 5198, 5199, 1887, 5200], 's_0_25': [1647], 26: [4872, 2350, 2485, 4827, 4825, 2185, 4826], 's_0_26': [2259], 28: [1629, 2184, 1959, 4690, 2034, 1135, 4805, 4573, 4567, 2333, 4571, 4570, 4569, 4655, 4572, 1194, 4701, 4702, 1479, 4568], 's_0_28': [4761], 30: [1943, 4449, 1453, 1452, 1451, 1450, 1449, 1447, 4448, 4447, 1448], 's_0_30': [4732], 31: [1840, 4719, 2232, 2231, 2230, 4720, 2227, 2228, 2229, 4721], 's_0_31': [4718], 33: [3845, 3606, 3605, 2066, 5080, 993, 994, 1931, 1930, 4824, 4823, 4822, 4821, 4820, 4819, 995, 996, 997, 998, 999], 's_0_33': [4205], 34: [1312, 4476, 1612, 1477, 4300, 1957, 1238, 1237, 4236, 4237, 1910, 1911, 4240, 4239, 4238], 's_0_34': [4475], 36: [4581, 2275, 4977, 2318, 4722, 2319, 1119, 1120, 1121, 4985, 2320, 2321, 4986, 4987, 1586, 5093, 5094, 5095, 2336, 5096, 5097], 's_0_36': [4700], 39: [1797, 4343, 4344, 4345, 5166, 5167, 5168, 5169, 1901, 4376, 4375, 1897, 1898, 1899, 1900], 's_0_39': [4765], 40: [5335, 5336, 2097, 2096, 2095, 2089, 4990, 2090, 2091, 2092, 2093, 2094], 's_0_40': [4706], 43: [4963, 1342, 1705, 4962, 4961, 4960, 4959, 1343, 1344, 1345, 4957, 4958], 's_0_43': [4898], 44: [5183, 2271, 1722, 1721, 1720, 1719, 1718, 1717, 4136, 1623, 1624, 1625, 1640, 3953, 1715, 4194, 4135, 4134, 4133, 1716], 's_0_44': [4853], 's_0_0': [2469], 1: [5091, 1317, 5226, 1849, 1850, 1851, 1852, 4527, 4526, 4525, 1848, 4524, 5227, 5228, 5229, 1857, 1856, 1853, 1854, 1855], 's_2_1': [5125], 's_2_4': [2033], 5: [4654, 5005, 1444, 3787, 1960, 1961, 5110, 1842, 3800, 3785, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 5075, 5076, 3786, 5077, 5078, 5079], 's_2_5': [1443], 's_2_6': [3547], 7: [4374, 2196, 1376, 1375, 4867, 4868, 4869, 2316, 1781, 1780, 1779, 1778, 4077, 4076, 4075, 4074, 1776, 1777], 's_2_7': [4032], 8: [2261, 1099, 1100, 1101, 1299, 5143, 5142, 5141, 5140, 5139, 4942, 3755, 5138, 5137, 1331, 1102, 1103, 1104, 4685, 4686, 1329, 1330], 's_2_8': [2187], 9: [4002, 4001, 1012, 4000, 3998, 3999, 1522, 1521, 1149, 1148, 1147, 4281, 1518, 1520, 3997, 3996, 1266, 1267, 4341, 1519, 4340], 's_2_9': [3622], 's_2_10': [4556], 's_2_11': [2133], 's_2_12': [1368], 's_2_14': [4691], 17: [1498, 1497, 5108, 3788, 3910, 1594, 1601, 1600, 1599, 1598, 1597, 1579, 3909, 3908, 1595, 1596], 's_2_17': [1593], 's_2_19': [2218], 's_2_22': [1653], 's_2_23': [4332], 's_2_25': [2082], 29: [2155, 1818, 4856, 4855, 4854, 3803, 3804, 1819, 1820, 1821, 1822, 1825, 1824, 1823], 's_2_29': [4840], 's_2_30': [4450], 32: [2163, 3536, 3535, 3534, 3533, 4115, 1193, 1192, 3532, 1293, 4251, 1191, 1190, 1189, 1188, 3621], 's_2_32': [2178], 's_2_33': [2051], 35: [4147, 4058, 5217, 4899, 4148, 2365, 1626, 1627, 1628, 4478, 1763, 2367, 2366, 4917, 4916, 4915, 4914, 1765, 1764], 's_2_35': [2337], 's_2_36': [2141], 38: [3488, 3489, 1749, 4675, 3790, 4671, 4672, 4674, 1517, 1809, 1803, 3789, 1804, 1805, 1806, 1807, 4673, 1808], 's_2_38': [1577], 's_2_39': [2168], 's_2_40': [5170], 42: [4256, 4255, 1865, 1866, 4880, 1618, 1617, 1616, 1615, 1867, 1868, 1315, 4762, 4763, 1614, 4881, 4629, 4628], 's_2_42': [4257], 46: [5245, 4555, 3564, 1993, 1923, 1924, 3865, 1985, 1986, 1992, 1991, 1990, 1989, 1988, 1987], 's_2_46': [4480], 47: [3580, 1069, 3725, 3726, 1338, 3576, 3579, 3578, 3577], 's_2_47': [1998], 's_2_2': [3653], 's_4_1': [2138], 's_4_6': [1313], 's_4_8': [5171], 's_4_9': [4310], 's_4_10': [1403], 's_4_11': [4026], 15: [2195, 4355, 1540, 1539, 1538, 4356, 1298, 4387, 4388, 3986, 3985, 3984, 3983, 4358, 1537, 1536, 1535], 's_4_15': [1268], 's_4_21': [4417], 's_4_22': [2304], 's_4_23': [3770], 24: [1483, 1954, 5362, 1955, 1956, 5363, 4180, 5304, 1813, 5364, 5365, 5366, 5367, 2441, 2440, 2439, 2438, 4181, 4182, 4481, 2442, 2362, 2363, 4482], 's_4_24': [2348], 's_4_25': [2307], 's_4_26': [4887], 's_4_28': [1928], 's_4_29': [4811], 's_4_30': [1613], 's_4_31': [5186], 's_4_33': [1013], 's_4_36': [5052], 37: [1534, 4179, 3893, 3894, 3757, 3758, 5319, 1737, 1736, 1735, 1734, 1729, 1730, 1731, 1733, 1732], 's_4_37': [4419], 's_4_39': [1702], 's_4_40': [4421], 's_4_42': [4420], 's_4_43': [1327], 's_4_44': [2272], 45: [1279, 1280, 5022, 4553, 2200, 4901, 3816, 1490, 1491, 1492, 4253, 3817, 4254, 1672, 1673, 1674, 1675, 1676, 5018, 5019, 5020, 5021, 2201], 's_4_45': [3681], 's_4_47': [3815], 's_4_4': [2293], 's_6_5': [3682], 's_6_9': [4297], 's_6_12': [4027], 's_6_15': [1432], 's_6_17': [3818], 's_6_23': [3982], 27: [3650, 2411, 2410, 2409, 2408, 2407, 4347, 4346, 1143, 1474, 1144, 2164, 3846, 3847, 3848, 3849, 3850, 3851, 2167, 2166, 1475, 2165], 's_6_27': [3952], 's_6_29': [3802], 's_6_32': [3517], 's_6_34': [4267], 's_6_37': [1429], 41: [2016, 4192, 4099, 4106, 4105, 4100, 4101, 4104, 4103, 1431, 4102], 's_6_41': [4117], 's_6_43': [4582], 's_6_6': [3697], 's_10_7': [1495], 's_10_8': [1328], 's_10_9': [1057], 's_10_12': [4266], 's_10_16': [4583], 's_10_17': [4613], 18: [4326, 4327, 1510, 4588, 1509, 1508, 4372, 1658, 4587, 2303, 4466, 1507, 4403, 4465, 2003, 4405, 4404], 's_10_18': [1523], 's_10_19': [1253], 's_10_20': [4460], 's_10_21': [4687], 's_10_22': [2169], 's_10_26': [4766], 's_10_28': [1703], 's_10_29': [4554], 's_10_31': [4735], 's_10_32': [1132], 's_10_34': [1146], 's_10_39': [4705], 's_10_40': [4601], 's_10_41': [4085], 's_10_42': [1883], 's_10_43': [4521], 's_10_44': [4658], 's_10_46': [4870], 's_10_10': [1133], 's_11_1': [3700], 's_11_5': [3801], 's_11_9': [1235], 's_11_12': [3921], 's_11_13': [2014], 's_11_14': [3925], 's_11_18': [4717], 's_11_19': [1224], 's_11_20': [1220], 's_11_21': [1548], 's_11_22': [1654], 's_11_27': [3701], 's_11_29': [1834], 's_11_33': [1300], 's_11_34': [1239], 's_11_42': [4731], 's_11_44': [1639], 's_11_46': [3655], 's_11_11': [3771], 's_12_1': [5242], 's_12_5': [1234], 's_12_8': [5016], 's_12_16': [4116], 's_12_19': [1393], 's_12_20': [1369], 's_12_24': [5257], 's_12_33': [4806], 's_12_36': [5092], 's_12_37': [1504], 's_12_38': [4656], 's_12_41': [4162], 's_12_42': [4836], 's_12_43': [4296], 's_12_45': [1460], 's_12_12': [5317], 's_13_1': [4512], 's_13_7': [4062], 's_13_9': [2346], 's_13_18': [4557], 's_13_21': [3746], 's_13_23': [4408], 's_13_24': [4842], 's_13_26': [4857], 's_13_27': [4393], 's_13_29': [3654], 's_13_32': [1743], 's_13_35': [4737], 's_13_41': [4091], 's_13_43': [4978], 's_13_44': [2256], 's_13_47': [1893], 's_13_13': [2466], 3: [1286, 1285, 1284, 1282, 4311, 2197, 4316, 4315, 1283, 4314, 4313, 4312], 's_14_3': [4196], 's_14_7': [2225], 's_14_9': [2045], 's_14_16': [2180], 's_14_18': [4495], 's_14_19': [1962], 's_14_21': [2104], 's_14_24': [2128], 's_14_26': [2170], 's_14_27': [3866, 2015], 's_14_29': [4871], 's_14_31': [5231], 's_14_32': [3521], 's_14_34': [4241], 's_14_36': [5081], 's_14_38': [3791], 's_14_39': [4361], 's_14_40': [5291], 's_14_41': [2240], 's_14_42': [4225], 's_14_45': [4886], 's_14_46': [3565], 's_14_14': [3656], 's_16_1': [3774], 's_16_3': [4191], 's_16_5': [1489], 's_16_9': [1476], 's_16_15': [2105], 's_16_17': [4223], 's_16_22': [1401], 's_16_23': [1895], 's_16_24': [3820], 's_16_27': [3713], 's_16_28': [1583], 's_16_32': [1563], 's_16_34': [4252], 's_16_38': [3924], 's_16_40': [2074], 's_16_46': [3895], 's_16_16': [1446], 's_19_3': [4851], 's_19_5': [1406], 's_19_7': [5031], 's_19_9': [4625], 's_19_17': [1602], 's_19_24': [2188], 's_19_25': [1947], 's_19_28': [1314], 's_19_30': [5302], 's_19_33': [1255], 's_19_34': [4491], 's_19_38': [1404], 's_19_40': [5261], 's_19_43': [4641], 's_19_44': [5259], 's_19_46': [2008], 's_19_19': [1407], 's_20_1': [1256], 's_20_3': [5046], 's_20_5': [4010], 's_20_8': [1482], 's_20_9': [1150], 's_20_15': [1555], 's_20_18': [4912], 's_20_21': [1496], 's_20_32': [3950], 's_20_33': [3890], 's_20_34': [4386], 's_20_35': [4929], 's_20_36': [1301], 's_20_41': [1296], 's_20_43': [4927], 's_20_45': [1324], 's_20_47': [1249], 's_20_20': [1055], 's_21_1': [1467], 's_21_7': [1796], 's_21_8': [5155], 's_21_17': [4028], 's_21_18': [4882], 's_21_23': [1385], 's_21_24': [1902], 's_21_25': [5290], 's_21_28': [4657], 's_21_34': [4477], 's_21_36': [1571], 's_21_37': [1728], 's_21_38': [1759], 's_21_39': [4342], 's_21_40': [5320], 's_21_42': [4792], 's_21_44': [3683], 's_21_45': [1661], 's_21_46': [1939], 's_21_47': [2088], 's_21_21': [4852], 's_22_1': [4359], 's_22_3': [1927], 's_22_15': [1790], 's_22_23': [4662], 's_22_24': [4060], 's_22_29': [3699], 's_22_31': [1914], 's_22_32': [3966], 's_22_35': [4118], 's_22_42': [4164], 's_22_44': [3473], 's_22_45': [3936], 's_22_46': [2004], 's_22_47': [1339], 's_22_22': [1667], 's_23_1': [4269], 's_23_3': [1281], 's_23_5': [4040], 's_23_8': [3935], 's_23_17': [1940], 's_23_18': [1972], 's_23_24': [2241], 's_23_26': [4783], 's_23_27': [4452], 's_23_28': [2258], 's_23_32': [3891], 's_23_35': [2381], 's_23_36': [4497], 's_23_39': [2107], 's_23_42': [2017], 's_23_44': [2076], 's_23_46': [2001], 's_23_47': [1054], 's_23_23': [3861], 's_25_1': [1752], 's_25_27': [2426, 2427], 's_25_31': [2247], 's_25_35': [2352], 's_25_37': [1707], 's_25_42': [5213], 's_25_44': [5244], 's_25_25': [2217], 's_26_5': [1975], 's_26_24': [4888], 's_26_27': [4933], 's_26_28': [2349], 's_26_29': [2140], 's_26_40': [2079], 's_26_45': [2351], 's_26_46': [4810], 's_26_26': [4828], 's_28_5': [4715], 's_28_7': [4584], 's_28_8': [1074], 's_28_9': [4776], 's_28_17': [4598], 's_28_18': [2498], 's_28_24': [2483], 's_28_30': [1433], 's_28_32': [4566], 's_28_36': [4542], 's_28_38': [1644], 's_28_42': [4865], 's_28_45': [2199], 's_28_46': [4600], 's_28_28': [4574], 's_30_1': [5122], 's_30_3': [1912], 's_30_8': [5107], 's_30_18': [4492], 's_30_24': [5407], 's_30_34': [4446], 's_30_35': [1643], 's_30_36': [5032], 's_30_38': [4479], 's_30_39': [5182], 's_30_44': [4463], 's_30_30': [5332], 's_31_1': [2243], 's_31_3': [2242], 's_31_8': [5127], 's_31_18': [4422], 's_31_24': [4392], 's_31_27': [4331], 's_31_33': [4809], 's_31_36': [4932], 's_31_38': [4676], 's_31_39': [4795], 's_31_44': [4884], 's_31_45': [2215], 's_31_46': [5246], 's_31_31': [5322], 's_33_5': [4220], 's_33_7': [5004], 's_33_8': [1014], 's_33_9': [4730], 's_33_15': [1554], 's_33_17': [4808], 's_33_18': [4807], 's_33_27': [1053], 's_33_32': [1248], 's_33_41': [4084], 's_33_42': [1480], 's_33_46': [4885], 's_33_33': [1083], 's_34_1': [3939], 's_34_7': [4284], 's_34_9': [4176], 's_34_15': [4328], 's_34_18': [4360], 's_34_24': [4015], 's_34_29': [4119], 's_34_32': [4506], 's_34_35': [1686], 's_34_39': [1942], 's_34_40': [2077], 's_34_41': [4177], 's_34_42': [3954], 's_34_44': [1701], 's_34_34': [4283], 's_36_7': [5001], 's_36_8': [4580], 's_36_15': [4973], 's_36_17': [5123], 's_36_18': [5002], 's_36_29': [2260], 's_36_32': [4611], 's_36_35': [2216], 's_36_40': [4991], 's_36_42': [1316], 's_36_43': [2306], 's_36_46': [2007], 's_36_36': [4984], 's_39_1': [1302], 's_39_5': [4975], 's_39_7': [4494], 's_39_8': [1437], 's_39_15': [1687], 's_39_17': [1556], 's_39_18': [2183], 's_39_24': [1798], 's_39_35': [1642], 's_39_42': [4615], 's_39_43': [1346], 's_39_45': [1657], 's_39_39': [2152], 's_40_5': [1976], 's_40_7': [2075], 's_40_8': [5156], 's_40_15': [3836], 's_40_24': [1963], 's_40_27': [4211], 's_40_35': [2080], 's_40_41': [4120], 's_40_45': [2081], 's_40_46': [4090], 's_40_40': [1948], 's_43_5': [1421], 's_43_7': [1870], 's_43_9': [1341], 's_43_15': [4371], 's_43_17': [4883], 's_43_18': [1525], 's_43_35': [2021], 's_43_37': [5003], 's_43_45': [1841], 's_43_43': [2501], 's_44_3': [4286], 's_44_5': [5184], 's_44_7': [2151], 's_44_15': [3968], 's_44_17': [3863], 's_44_18': [4493], 's_44_24': [5334], 's_44_27': [1714, 3773], 's_44_32': [1638], 's_44_37': [4298], 's_44_38': [4224], 's_44_41': [2270], 's_44_47': [3593], 's_44_44': [2046], 's_1_3': [1287], 's_1_5': [1196], 's_1_7': [4644], 's_1_8': [1422], 's_1_29': [3459], 's_1_35': [4704], 's_1_37': [3834], 's_1_41': [1836], 's_1_46': [3685], 's_1_47': [1833], 's_1_1': [1542], 's_5_9': [4309], 's_5_15': [4370], 's_5_32': [4250], 's_5_37': [3772], 's_5_41': [1026], 's_5_42': [1030], 's_5_45': [1219], 's_5_46': [4945], 's_5_47': [3712], 's_5_5': [4999], 's_7_3': [4866], 's_7_8': [1435], 's_7_9': [2315], 's_7_15': [1685], 's_7_17': [4073], 's_7_18': [4464], 's_7_24': [1941], 's_7_27': [4166], 's_7_29': [4509], 's_7_37': [5124], 's_7_41': [2255], 's_7_7': [1782], 's_8_9': [4520], 's_8_15': [1088], 's_8_24': [5158], 's_8_27': [5067], 's_8_37': [5154], 's_8_41': [1086], 's_8_45': [2202], 's_8_47': [3710], 's_8_8': [1029], 's_9_3': [1297], 's_9_35': [1506], 's_9_47': [3592], 's_9_15': [2150], 's_9_18': [4462], 's_9_27': [3967], 's_9_38': [4670], 's_9_42': [4014], 's_9_9': [2376], 's_17_29': [1684], 's_17_35': [4418], 's_17_37': [1775], 's_17_41': [1611], 's_17_18': [4793], 's_17_24': [5422], 's_17_27': [3698], 's_17_38': [2059], 's_17_42': [4733], 's_17_45': [4913], 's_17_17': [1499], 's_29_18': [4389], 's_29_27': [1864], 's_29_35': [4764], 's_29_37': [3864], 's_29_45': [2245], 's_29_46': [3729], 's_29_47': [3594], 's_29_29': [3624], 's_32_3': [4221], 's_32_41': [1071], 's_32_46': [1907], 's_32_47': [1458], 's_32_15': [1252], 's_32_27': [3590], 's_32_38': [1502], 's_32_32': [2057], 's_35_15': [1551], 's_35_18': [2364], 's_35_24': [2457], 's_35_27': [5187], 's_35_37': [4614], 's_35_38': [4059], 's_35_41': [1386], 's_35_42': [1645, 4838], 's_35_35': [4992], 's_38_3': [1269], 's_38_37': [4329], 's_38_24': [1969], 's_38_27': [1774], 's_38_42': [1524], 's_38_38': [1869], 's_42_37': [5393, 1753], 's_42_24': [4030], 's_42_27': [2137], 's_42_42': [5423], 's_46_41': [4150], 's_46_18': [1973], 's_46_24': [4165], 's_46_45': [2006], 's_46_47': [1773], 's_46_46': [5425], 's_47_27': [3575], 's_47_45': [1204], 's_47_47': [1264], 's_15_41': [1880], 's_15_18': [4642], 's_15_24': [1970], 's_15_27': [3941], 's_15_45': [1553], 's_15_15': [2194], 's_24_3': [4317], 's_24_37': [1828], 's_24_41': [2136], 's_24_27': [4302, 2347], 's_24_45': [2456], 's_24_24': [2488], 's_37_27': [1835, 3969], 's_37_37': [3892], 's_45_18': [4508], 's_45_27': [1174], 's_45_45': [2471], 's_27_3': [2212], 's_27_18': [4467], 's_27_27': [1023], 's_41_41': [965], 's_18_3': [2198], 's_18_18': [4778], 's_3_3': [1270]}</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0001126984126984127</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.0004374707995150299</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>{0: [2274, 1161, 4753, 4752, 4206, 1419, 1162, 1163, 1164, 4746, 1632, 1631, 1630, 2154, 4751, 4750, 4749, 4748, 4747], 2: [4510, 5126, 3607, 5307, 5306, 2112, 2111, 4630, 2110, 2109, 2108, 2213, 4407, 2302, 2301, 1578, 3608, 3609, 3610, 3611, 2238, 3702, 4511, 2300, 2299], 's_0_2': [4631], 4: [4505, 1114, 1115, 1116, 1117, 1118, 4431, 4432, 4433, 2292, 2291, 2290, 2289, 2288, 4437, 4436, 4435, 4434], 's_0_4': [4145], 6: [1418, 1549, 4402, 1417, 3907, 1416, 1413, 1414, 1415], 's_0_6': [4401], 10: [4056, 1659, 1221, 2020, 2019, 4490, 1494, 4265, 1222, 1223, 4536, 4541, 4540, 4539, 4538, 4537], 's_0_10': [4627], 11: [1999, 2043, 4716, 1179, 1178, 1177, 2000, 1176, 1175, 3981, 3671, 3670, 3669, 3668, 1311, 1428, 3667, 1309, 1310], 's_0_11': [4445], 12: [3832, 1353, 3756, 5361, 1354, 1359, 1355, 1360, 1356, 1361, 1357, 1362, 1358], 's_0_12': [1374], 13: [2425, 2424, 2422, 2421, 4122, 3639, 1758, 3640, 3641, 2209, 2423, 2210, 2211, 4121], 's_0_13': [4707], 14: [1913, 4585, 4586, 4226, 5185, 4781, 2118, 2127, 3970, 3971, 2119, 2120, 2121, 2122, 2126, 2125, 2124, 2123], 's_0_14': [2049], 16: [3727, 1568, 1326, 1567, 3881, 1564, 4130, 4131, 4132, 1566, 1894, 3880, 3879, 3878, 1565], 's_0_16': [4207], 19: [4596, 4597, 2067, 1373, 1254, 5276, 4626, 5275, 5274, 5273, 5181, 1389, 1390, 1391, 5272, 1392], 's_0_19': [1633], 20: [1250, 1070, 4971, 3875, 4146, 1211, 3877, 3876, 1205, 1206, 1207, 4928, 1481, 4897, 4896, 1210, 1209, 1208], 's_0_20': [4295], 21: [3638, 1608, 1917, 1916, 5065, 5064, 5063, 5062, 1466, 1465, 3745, 3744, 3743, 1609, 1610, 4013, 4012, 1461, 1464, 1463, 1462], 's_0_21': [1646], 22: [4661, 4660, 4659, 1794, 1340, 1370, 4086, 4087, 1926, 1793, 1668, 1669, 1670, 1671, 4088, 4089, 1791, 1792], 's_0_22': [1944], 23: [1505, 3830, 1159, 1160, 4041, 4042, 4043, 4044, 4045, 4046, 2380, 2379, 2378, 2181, 4270, 4271, 2182, 4301, 4377, 2257, 4451], 's_0_23': [2395], 25: [2412, 5202, 5201, 5198, 5199, 1887, 5200], 's_0_25': [1647], 26: [4872, 2350, 2485, 4827, 4825, 2185, 4826], 's_0_26': [2259], 28: [1629, 2184, 1959, 4690, 2034, 1135, 4805, 4573, 4567, 2333, 4571, 4570, 4569, 4655, 4572, 1194, 4701, 4702, 1479, 4568], 's_0_28': [4761], 30: [1943, 4449, 1453, 1452, 1451, 1450, 1449, 1447, 4448, 4447, 1448], 's_0_30': [4732], 31: [1840, 4719, 2232, 2231, 2230, 4720, 2227, 2228, 2229, 4721], 's_0_31': [4718], 33: [3845, 3606, 3605, 2066, 5080, 993, 994, 1931, 1930, 4824, 4823, 4822, 4821, 4820, 4819, 995, 996, 997, 998, 999], 's_0_33': [4205], 34: [1312, 4476, 1612, 1477, 4300, 1957, 1238, 1237, 4236, 4237, 1910, 1911, 4240, 4239, 4238], 's_0_34': [4475], 36: [4581, 2275, 4977, 2318, 4722, 2319, 1119, 1120, 1121, 4985, 2320, 2321, 4986, 4987, 1586, 5093, 5094, 5095, 2336, 5096, 5097], 's_0_36': [4700], 39: [1797, 4343, 4344, 4345, 5166, 5167, 5168, 5169, 1901, 4376, 4375, 1897, 1898, 1899, 1900], 's_0_39': [4765], 40: [5335, 5336, 2097, 2096, 2095, 2089, 4990, 2090, 2091, 2092, 2093, 2094], 's_0_40': [4706], 43: [4963, 1342, 1705, 4962, 4961, 4960, 4959, 1343, 1344, 1345, 4957, 4958], 's_0_43': [4898], 44: [5183, 2271, 1722, 1721, 1720, 1719, 1718, 1717, 4136, 1623, 1624, 1625, 1640, 3953, 1715, 4194, 4135, 4134, 4133, 1716], 's_0_44': [4853], 's_0_0': [2469], 1: [5091, 1317, 5226, 1849, 1850, 1851, 1852, 4527, 4526, 4525, 1848, 4524, 5227, 5228, 5229, 1857, 1856, 1853, 1854, 1855], 's_2_1': [5125], 's_2_4': [2033], 5: [4654, 5005, 1444, 3787, 1960, 1961, 5110, 1842, 3800, 3785, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 5075, 5076, 3786, 5077, 5078, 5079], 's_2_5': [1443], 's_2_6': [3547], 7: [4374, 2196, 1376, 1375, 4867, 4868, 4869, 2316, 1781, 1780, 1779, 1778, 4077, 4076, 4075, 4074, 1776, 1777], 's_2_7': [4032], 8: [2261, 1099, 1100, 1101, 1299, 5143, 5142, 5141, 5140, 5139, 4942, 3755, 5138, 5137, 1331, 1102, 1103, 1104, 4685, 4686, 1329, 1330], 's_2_8': [2187], 9: [4002, 4001, 1012, 4000, 3998, 3999, 1522, 1521, 1149, 1148, 1147, 4281, 1518, 1520, 3997, 3996, 1266, 1267, 4341, 1519, 4340], 's_2_9': [3622], 's_2_10': [4556], 's_2_11': [2133], 's_2_12': [1368], 's_2_14': [4691], 17: [1498, 1497, 5108, 3788, 3910, 1594, 1601, 1600, 1599, 1598, 1597, 1579, 3909, 3908, 1595, 1596], 's_2_17': [1593], 's_2_19': [2218], 's_2_22': [1653], 's_2_23': [4332], 's_2_25': [2082], 29: [2155, 1818, 4856, 4855, 4854, 3803, 3804, 1819, 1820, 1821, 1822, 1825, 1824, 1823], 's_2_29': [4840], 's_2_30': [4450], 32: [2163, 3536, 3535, 3534, 3533, 4115, 1193, 1192, 3532, 1293, 4251, 1191, 1190, 1189, 1188, 3621], 's_2_32': [2178], 's_2_33': [2051], 35: [4147, 4058, 5217, 4899, 4148, 2365, 1626, 1627, 1628, 4478, 1763, 2367, 2366, 4917, 4916, 4915, 4914, 1765, 1764], 's_2_35': [2337], 's_2_36': [2141], 38: [3488, 3489, 1749, 4675, 3790, 4671, 4672, 4674, 1517, 1809, 1803, 3789, 1804, 1805, 1806, 1807, 4673, 1808], 's_2_38': [1577], 's_2_39': [2168], 's_2_40': [5170], 42: [4256, 4255, 1865, 1866, 4880, 1618, 1617, 1616, 1615, 1867, 1868, 1315, 4762, 4763, 1614, 4881, 4629, 4628], 's_2_42': [4257], 46: [5245, 4555, 3564, 1993, 1923, 1924, 3865, 1985, 1986, 1992, 1991, 1990, 1989, 1988, 1987], 's_2_46': [4480], 47: [3580, 1069, 3725, 3726, 1338, 3576, 3579, 3578, 3577], 's_2_47': [1998], 's_2_2': [3653], 's_4_1': [2138], 's_4_6': [1313], 's_4_8': [5171], 's_4_9': [4310], 's_4_10': [1403], 's_4_11': [4026], 15: [2195, 4355, 1540, 1539, 1538, 4356, 1298, 4387, 4388, 3986, 3985, 3984, 3983, 4358, 1537, 1536, 1535], 's_4_15': [1268], 's_4_21': [4417], 's_4_22': [2304], 's_4_23': [3770], 24: [1483, 1954, 5362, 1955, 1956, 5363, 4180, 5304, 1813, 5364, 5365, 5366, 5367, 2441, 2440, 2439, 2438, 4181, 4182, 4481, 2442, 2362, 2363, 4482], 's_4_24': [2348], 's_4_25': [2307], 's_4_26': [4887], 's_4_28': [1928], 's_4_29': [4811], 's_4_30': [1613], 's_4_31': [5186], 's_4_33': [1013], 's_4_36': [5052], 37: [1534, 4179, 3893, 3894, 3757, 3758, 5319, 1737, 1736, 1735, 1734, 1729, 1730, 1731, 1733, 1732], 's_4_37': [4419], 's_4_39': [1702], 's_4_40': [4421], 's_4_42': [4420], 's_4_43': [1327], 's_4_44': [2272], 45: [1279, 1280, 5022, 4553, 2200, 4901, 3816, 1490, 1491, 1492, 4253, 3817, 4254, 1672, 1673, 1674, 1675, 1676, 5018, 5019, 5020, 5021, 2201], 's_4_45': [3681], 's_4_47': [3815], 's_4_4': [2293], 's_6_5': [3682], 's_6_9': [4297], 's_6_12': [4027], 's_6_15': [1432], 's_6_17': [3818], 's_6_23': [3982], 27: [3650, 2411, 2410, 2409, 2408, 2407, 4347, 4346, 1143, 1474, 1144, 2164, 3846, 3847, 3848, 3849, 3850, 3851, 2167, 2166, 1475, 2165], 's_6_27': [3952], 's_6_29': [3802], 's_6_32': [3517], 's_6_34': [4267], 's_6_37': [1429], 41: [2016, 4192, 4099, 4106, 4105, 4100, 4101, 4104, 4103, 1431, 4102], 's_6_41': [4117], 's_6_43': [4582], 's_6_6': [3697], 's_10_7': [1495], 's_10_8': [1328], 's_10_9': [1057], 's_10_12': [4266], 's_10_16': [4583], 's_10_17': [4613], 18: [4326, 4327, 1510, 4588, 1509, 1508, 4372, 1658, 4587, 2303, 4466, 1507, 4403, 4465, 2003, 4405, 4404], 's_10_18': [1523], 's_10_19': [1253], 's_10_20': [4460], 's_10_21': [4687], 's_10_22': [2169], 's_10_26': [4766], 's_10_28': [1703], 's_10_29': [4554], 's_10_31': [4735], 's_10_32': [1132], 's_10_34': [1146], 's_10_39': [4705], 's_10_40': [4601], 's_10_41': [4085], 's_10_42': [1883], 's_10_43': [4521], 's_10_44': [4658], 's_10_46': [4870], 's_10_10': [1133], 's_11_1': [3700], 's_11_5': [3801], 's_11_9': [1235], 's_11_12': [3921], 's_11_13': [2014], 's_11_14': [3925], 's_11_18': [4717], 's_11_19': [1224], 's_11_20': [1220], 's_11_21': [1548], 's_11_22': [1654], 's_11_27': [3701], 's_11_29': [1834], 's_11_33': [1300], 's_11_34': [1239], 's_11_42': [4731], 's_11_44': [1639], 's_11_46': [3655], 's_11_11': [3771], 's_12_1': [5242], 's_12_5': [1234], 's_12_8': [5016], 's_12_16': [4116], 's_12_19': [1393], 's_12_20': [1369], 's_12_24': [5257], 's_12_33': [4806], 's_12_36': [5092], 's_12_37': [1504], 's_12_38': [4656], 's_12_41': [4162], 's_12_42': [4836], 's_12_43': [4296], 's_12_45': [1460], 's_12_12': [5317], 's_13_1': [4512], 's_13_7': [4062], 's_13_9': [2346], 's_13_18': [4557], 's_13_21': [3746], 's_13_23': [4408], 's_13_24': [4842], 's_13_26': [4857], 's_13_27': [4393], 's_13_29': [3654], 's_13_32': [1743], 's_13_35': [4737], 's_13_41': [4091], 's_13_43': [4978], 's_13_44': [2256], 's_13_47': [1893], 's_13_13': [2466], 3: [1286, 1285, 1284, 1282, 4311, 2197, 4316, 4315, 1283, 4314, 4313, 4312], 's_14_3': [4196], 's_14_7': [2225], 's_14_9': [2045], 's_14_16': [2180], 's_14_18': [4495], 's_14_19': [1962], 's_14_21': [2104], 's_14_24': [2128], 's_14_26': [2170], 's_14_27': [3866, 2015], 's_14_29': [4871], 's_14_31': [5231], 's_14_32': [3521], 's_14_34': [4241], 's_14_36': [5081], 's_14_38': [3791], 's_14_39': [4361], 's_14_40': [5291], 's_14_41': [2240], 's_14_42': [4225], 's_14_45': [4886], 's_14_46': [3565], 's_14_14': [3656], 's_16_1': [3774], 's_16_3': [4191], 's_16_5': [1489], 's_16_9': [1476], 's_16_15': [2105], 's_16_17': [4223], 's_16_22': [1401], 's_16_23': [1895], 's_16_24': [3820], 's_16_27': [3713], 's_16_28': [1583], 's_16_32': [1563], 's_16_34': [4252], 's_16_38': [3924], 's_16_40': [2074], 's_16_46': [3895], 's_16_16': [1446], 's_19_3': [4851], 's_19_5': [1406], 's_19_7': [5031], 's_19_9': [4625], 's_19_17': [1602], 's_19_24': [2188], 's_19_25': [1947], 's_19_28': [1314], 's_19_30': [5302], 's_19_33': [1255], 's_19_34': [4491], 's_19_38': [1404], 's_19_40': [5261], 's_19_43': [4641], 's_19_44': [5259], 's_19_46': [2008], 's_19_19': [1407], 's_20_1': [1256], 's_20_3': [5046], 's_20_5': [4010], 's_20_8': [1482], 's_20_9': [1150], 's_20_15': [1555], 's_20_18': [4912], 's_20_21': [1496], 's_20_32': [3950], 's_20_33': [3890], 's_20_34': [4386], 's_20_35': [4929], 's_20_36': [1301], 's_20_41': [1296], 's_20_43': [4927], 's_20_45': [1324], 's_20_47': [1249], 's_20_20': [1055], 's_21_1': [1467], 's_21_7': [1796], 's_21_8': [5155], 's_21_17': [4028], 's_21_18': [4882], 's_21_23': [1385], 's_21_24': [1902], 's_21_25': [5290], 's_21_28': [4657], 's_21_34': [4477], 's_21_36': [1571], 's_21_37': [1728], 's_21_38': [1759], 's_21_39': [4342], 's_21_40': [5320], 's_21_42': [4792], 's_21_44': [3683], 's_21_45': [1661], 's_21_46': [1939], 's_21_47': [2088], 's_21_21': [4852], 's_22_1': [4359], 's_22_3': [1927], 's_22_15': [1790], 's_22_23': [4662], 's_22_24': [4060], 's_22_29': [3699], 's_22_31': [1914], 's_22_32': [3966], 's_22_35': [4118], 's_22_42': [4164], 's_22_44': [3473], 's_22_45': [3936], 's_22_46': [2004], 's_22_47': [1339], 's_22_22': [1667], 's_23_1': [4269], 's_23_3': [1281], 's_23_5': [4040], 's_23_8': [3935], 's_23_17': [1940], 's_23_18': [1972], 's_23_24': [2241], 's_23_26': [4783], 's_23_27': [4452], 's_23_28': [2258], 's_23_32': [3891], 's_23_35': [2381], 's_23_36': [4497], 's_23_39': [2107], 's_23_42': [2017], 's_23_44': [2076], 's_23_46': [2001], 's_23_47': [1054], 's_23_23': [3861], 's_25_1': [1752], 's_25_27': [2426, 2427], 's_25_31': [2247], 's_25_35': [2352], 's_25_37': [1707], 's_25_42': [5213], 's_25_44': [5244], 's_25_25': [2217], 's_26_5': [1975], 's_26_24': [4888], 's_26_27': [4933], 's_26_28': [2349], 's_26_29': [2140], 's_26_40': [2079], 's_26_45': [2351], 's_26_46': [4810], 's_26_26': [4828], 's_28_5': [4715], 's_28_7': [4584], 's_28_8': [1074], 's_28_9': [4776], 's_28_17': [4598], 's_28_18': [2498], 's_28_24': [2483], 's_28_30': [1433], 's_28_32': [4566], 's_28_36': [4542], 's_28_38': [1644], 's_28_42': [4865], 's_28_45': [2199], 's_28_46': [4600], 's_28_28': [4574], 's_30_1': [5122], 's_30_3': [1912], 's_30_8': [5107], 's_30_18': [4492], 's_30_24': [5407], 's_30_34': [4446], 's_30_35': [1643], 's_30_36': [5032], 's_30_38': [4479], 's_30_39': [5182], 's_30_44': [4463], 's_30_30': [5332], 's_31_1': [2243], 's_31_3': [2242], 's_31_8': [5127], 's_31_18': [4422], 's_31_24': [4392], 's_31_27': [4331], 's_31_33': [4809], 's_31_36': [4932], 's_31_38': [4676], 's_31_39': [4795], 's_31_44': [4884], 's_31_45': [2215], 's_31_46': [5246], 's_31_31': [5322], 's_33_5': [4220], 's_33_7': [5004], 's_33_8': [1014], 's_33_9': [4730], 's_33_15': [1554], 's_33_17': [4808], 's_33_18': [4807], 's_33_27': [1053], 's_33_32': [1248], 's_33_41': [4084], 's_33_42': [1480], 's_33_46': [4885], 's_33_33': [1083], 's_34_1': [3939], 's_34_7': [4284], 's_34_9': [4176], 's_34_15': [4328], 's_34_18': [4360], 's_34_24': [4015], 's_34_29': [4119], 's_34_32': [4506], 's_34_35': [1686], 's_34_39': [1942], 's_34_40': [2077], 's_34_41': [4177], 's_34_42': [3954], 's_34_44': [1701], 's_34_34': [4283], 's_36_7': [5001], 's_36_8': [4580], 's_36_15': [4973], 's_36_17': [5123], 's_36_18': [5002], 's_36_29': [2260], 's_36_32': [4611], 's_36_35': [2216], 's_36_40': [4991], 's_36_42': [1316], 's_36_43': [2306], 's_36_46': [2007], 's_36_36': [4984], 's_39_1': [1302], 's_39_5': [4975], 's_39_7': [4494], 's_39_8': [1437], 's_39_15': [1687], 's_39_17': [1556], 's_39_18': [2183], 's_39_24': [1798], 's_39_35': [1642], 's_39_42': [4615], 's_39_43': [1346], 's_39_45': [1657], 's_39_39': [2152], 's_40_5': [1976], 's_40_7': [2075], 's_40_8': [5156], 's_40_15': [3836], 's_40_24': [1963], 's_40_27': [4211], 's_40_35': [2080], 's_40_41': [4120], 's_40_45': [2081], 's_40_46': [4090], 's_40_40': [1948], 's_43_5': [1421], 's_43_7': [1870], 's_43_9': [1341], 's_43_15': [4371], 's_43_17': [4883], 's_43_18': [1525], 's_43_35': [2021], 's_43_37': [5003], 's_43_45': [1841], 's_43_43': [2501], 's_44_3': [4286], 's_44_5': [5184], 's_44_7': [2151], 's_44_15': [3968], 's_44_17': [3863], 's_44_18': [4493], 's_44_24': [5334], 's_44_27': [1714, 3773], 's_44_32': [1638], 's_44_37': [4298], 's_44_38': [4224], 's_44_41': [2270], 's_44_47': [3593], 's_44_44': [2046], 's_1_3': [1287], 's_1_5': [1196], 's_1_7': [4644], 's_1_8': [1422], 's_1_29': [3459], 's_1_35': [4704], 's_1_37': [3834], 's_1_41': [1836], 's_1_46': [3685], 's_1_47': [1833], 's_1_1': [1542], 's_5_9': [4309], 's_5_15': [4370], 's_5_32': [4250], 's_5_37': [3772], 's_5_41': [1026], 's_5_42': [1030], 's_5_45': [1219], 's_5_46': [4945], 's_5_47': [3712], 's_5_5': [4999], 's_7_3': [4866], 's_7_8': [1435], 's_7_9': [2315], 's_7_15': [1685], 's_7_17': [4073], 's_7_18': [4464], 's_7_24': [1941], 's_7_27': [4166], 's_7_29': [4509], 's_7_37': [5124], 's_7_41': [2255], 's_7_7': [1782], 's_8_9': [4520], 's_8_15': [1088], 's_8_24': [5158], 's_8_27': [5067], 's_8_37': [5154], 's_8_41': [1086], 's_8_45': [2202], 's_8_47': [3710], 's_8_8': [1029], 's_9_3': [1297], 's_9_35': [1506], 's_9_47': [3592], 's_9_15': [2150], 's_9_18': [4462], 's_9_27': [3967], 's_9_38': [4670], 's_9_42': [4014], 's_9_9': [2376], 's_17_29': [1684], 's_17_35': [4418], 's_17_37': [1775], 's_17_41': [1611], 's_17_18': [4793], 's_17_24': [5422], 's_17_27': [3698], 's_17_38': [2059], 's_17_42': [4733], 's_17_45': [4913], 's_17_17': [1499], 's_29_18': [4389], 's_29_27': [1864], 's_29_35': [4764], 's_29_37': [3864], 's_29_45': [2245], 's_29_46': [3729], 's_29_47': [3594], 's_29_29': [3624], 's_32_3': [4221], 's_32_41': [1071], 's_32_46': [1907], 's_32_47': [1458], 's_32_15': [1252], 's_32_27': [3590], 's_32_38': [1502], 's_32_32': [2057], 's_35_15': [1551], 's_35_18': [2364], 's_35_24': [2457], 's_35_27': [5187], 's_35_37': [4614], 's_35_38': [4059], 's_35_41': [1386], 's_35_42': [1645, 4838], 's_35_35': [4992], 's_38_3': [1269], 's_38_37': [4329], 's_38_24': [1969], 's_38_27': [1774], 's_38_42': [1524], 's_38_38': [1869], 's_42_37': [5393, 1753], 's_42_24': [4030], 's_42_27': [2137], 's_42_42': [5423], 's_46_41': [4150], 's_46_18': [1973], 's_46_24': [4165], 's_46_45': [2006], 's_46_47': [1773], 's_46_46': [5425], 's_47_27': [3575], 's_47_45': [1204], 's_47_47': [1264], 's_15_41': [1880], 's_15_18': [4642], 's_15_24': [1970], 's_15_27': [3941], 's_15_45': [1553], 's_15_15': [2194], 's_24_3': [4317], 's_24_37': [1828], 's_24_41': [2136], 's_24_27': [4302, 2347], 's_24_45': [2456], 's_24_24': [2488], 's_37_27': [1835, 3969], 's_37_37': [3892], 's_45_18': [4508], 's_45_27': [1174], 's_45_45': [2471], 's_27_3': [2212], 's_27_18': [4467], 's_27_27': [1023], 's_41_41': [965], 's_18_3': [2198], 's_18_18': [4778], 's_3_3': [1270]}</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0.0001126984126984127</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.0004374707995150299</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>{0: [4745, 4744, 4743, 609, 488, 489, 4712], 2: [1162, 1163, 4640, 4639, 4638, 4636, 4637], 3: [624, 4474, 4473, 623, 4471, 4472], 4: [4834, 548, 820, 4833, 4832, 549, 550], 5: [4562, 608, 4565, 4564, 4563], 6: [369, 4624, 4623, 4621, 4622], 7: [4715, 4714, 850, 848, 849], 8: [4730, 1012, 4487, 4488, 1014, 1013, 4489], 11: [4442, 4444, 4443, 699, 698], 13: [354, 4610, 4606, 4607, 4609, 4608], 15: [4505, 758, 4502, 4504, 638, 4503], 16: [773, 4579, 775, 774], 17: [4591, 339, 4595, 4592, 4594, 4593], 18: [577, 4292, 4293, 832, 835, 834, 833], 19: [4726, 4787, 637, 4457, 444, 636, 443, 442, 4456], 20: [742, 4413, 4849, 4848, 743, 744, 745], 21: [4580, 866, 4954, 4955, 985, 984, 983, 982], 22: [4669, 384, 4666, 4668, 4667], 26: [667, 668, 669, 670, 4910, 4908, 4909], 28: [4940, 4939, 4938, 715, 4353, 714, 713, 712], 29: [4727, 878, 879, 4729, 4728], 30: [4772, 4773, 684, 4775, 4774, 760, 4713], 32: [1000, 999, 998, 4458, 4459, 997], 34: [4685, 4684, 4681, 4682, 4683], 35: [4700, 4696, 4697, 4699, 4698], 36: [4382, 4385, 654, 653, 4384, 4383, 652], 37: [4999, 4339, 967, 968, 969, 970], 40: [817, 819, 818], 41: [4520, 4652, 4742, 4519, 4518, 4517, 534, 533], 42: [4653, 728, 730, 4654, 4578, 729], 43: [4308, 1030, 937, 1029, 1028, 1027, 4309], 46: [4865, 503, 4864, 4863, 504, 505, 4862], 1: [4789, 802, 803, 805, 804], 9: [4325, 4577, 459, 458, 457, 4322, 4323, 847, 4324], 10: [4550, 4546, 683, 759, 4549, 682, 4547, 4548], 12: [595, 4400, 4399, 594, 593, 4398], 24: [4760, 518, 4759, 519, 4757, 4758], 27: [4370, 4369, 4368, 4367, 580, 579, 578], 31: [4894, 865, 862, 863, 864], 33: [4819, 4818, 564, 565, 4817], 38: [4414, 4415, 1045, 1042, 1044, 1043], 39: [4430, 4429, 4428, 4427, 398, 399, 400, 4816], 44: [4535, 4534, 4486, 473, 4532, 4533], 45: [892, 893, 895, 894], 47: [4924, 923, 924, 4969, 926, 925], 48: [910, 4249, 877, 909, 4354, 908], 23: [4804, 4803, 428, 429, 4802, 4801], 14: [4790, 4879, 938, 939, 940], 25: [651, 955, 954, 4189, 953, 4188, 952]}</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.1907798833819242</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.02783967957047968</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>{0: [4745, 4744, 4743, 609, 488, 489, 4712], 2: [1162, 1163, 4640, 4639, 4638, 4636, 4637], 3: [624, 4474, 4473, 623, 4471, 4472], 4: [4834, 548, 820, 4833, 4832, 549, 550], 5: [4562, 608, 4565, 4564, 4563], 6: [369, 4624, 4623, 4621, 4622], 7: [4715, 4714, 850, 848, 849], 8: [4730, 1012, 4487, 4488, 1014, 1013, 4489], 11: [4442, 4444, 4443, 699, 698], 13: [354, 4610, 4606, 4607, 4609, 4608], 15: [4505, 758, 4502, 4504, 638, 4503], 16: [773, 4579, 775, 774], 17: [4591, 339, 4595, 4592, 4594, 4593], 18: [577, 4292, 4293, 832, 835, 834, 833], 19: [4726, 4787, 637, 4457, 444, 636, 443, 442, 4456], 20: [742, 4413, 4849, 4848, 743, 744, 745], 21: [4580, 866, 4954, 4955, 985, 984, 983, 982], 22: [4669, 384, 4666, 4668, 4667], 26: [667, 668, 669, 670, 4910, 4908, 4909], 28: [4940, 4939, 4938, 715, 4353, 714, 713, 712], 29: [4727, 878, 879, 4729, 4728], 30: [4772, 4773, 684, 4775, 4774, 760, 4713], 32: [1000, 999, 998, 4458, 4459, 997], 34: [4685, 4684, 4681, 4682, 4683], 35: [4700, 4696, 4697, 4699, 4698], 36: [4382, 4385, 654, 653, 4384, 4383, 652], 37: [4999, 4339, 967, 968, 969, 970], 40: [817, 819, 818], 41: [4520, 4652, 4742, 4519, 4518, 4517, 534, 533], 42: [4653, 728, 730, 4654, 4578, 729], 43: [4308, 1030, 937, 1029, 1028, 1027, 4309], 46: [4865, 503, 4864, 4863, 504, 505, 4862], 1: [4789, 802, 803, 805, 804], 9: [4325, 4577, 459, 458, 457, 4322, 4323, 847, 4324], 10: [4550, 4546, 683, 759, 4549, 682, 4547, 4548], 12: [595, 4400, 4399, 594, 593, 4398], 24: [4760, 518, 4759, 519, 4757, 4758], 27: [4370, 4369, 4368, 4367, 580, 579, 578], 31: [4894, 865, 862, 863, 864], 33: [4819, 4818, 564, 565, 4817], 38: [4414, 4415, 1045, 1042, 1044, 1043], 39: [4430, 4429, 4428, 4427, 398, 399, 400, 4816], 44: [4535, 4534, 4486, 473, 4532, 4533], 45: [892, 893, 895, 894], 47: [4924, 923, 924, 4969, 926, 925], 48: [910, 4249, 877, 909, 4354, 908], 23: [4804, 4803, 428, 429, 4802, 4801], 14: [4790, 4879, 938, 939, 940], 25: [651, 955, 954, 4189, 953, 4188, 952]}</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0.1907798833819242</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02783967957047968</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>{0: [383, 815, 2125, 2124, 4630, 816, 817, 818, 4629, 4628, 4627, 4626, 4625, 384, 4621, 4622, 4623, 4624], 2: [1857, 1856, 957, 4570, 1853, 1854, 4795, 1855, 4884, 5105, 5106, 1241, 1240, 4881, 1858, 4883, 4882], 's_0_2': [4539, 1883], 3: [1618, 1617, 1616, 3937, 3938, 4940, 4941, 3768, 3769, 3770, 3771, 3772, 3773, 1714, 1715, 1716, 1717, 1718, 1719, 4823, 4942, 4943, 1615], 's_0_3': [814], 4: [1535, 1536, 4282, 4281, 702, 701, 700, 1312, 1313, 1314, 4818, 4819, 4820, 4821, 1315], 's_0_4': [1299], 5: [4038, 695, 3902, 3903, 3904, 979, 3844, 3845, 3846, 3847, 1460, 1462, 1975, 1974, 1461, 1973, 4525, 4524, 4523, 4522, 1358, 1463, 4507], 's_0_5': [4645], 6: [718, 5478, 5479, 1319, 5480, 5481, 5482, 5467, 5468, 5469, 5470, 1145, 4026, 4027, 4028, 4029, 4030, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994], 's_0_6': [4855], 7: [5180, 1122, 1121, 1611, 4223, 4222, 4221, 1117, 4518, 4519, 4520, 1120, 1119, 1118], 's_0_7': [833], 8: [1931, 819, 820, 762, 761, 1659, 4998, 4999, 5000, 5005, 5004, 5003, 1660, 4868, 1540, 5002, 5001], 's_0_8': [2126], 11: [1300, 4895, 4896, 1183, 1182, 1301, 5061, 5091, 5092, 5093, 5094, 5095, 1181, 2018, 2019, 2020, 2021, 2022, 5080], 's_0_11': [2095, 4886, 4976], 13: [4742, 4564, 848, 4458, 4457, 519, 518, 668, 4163, 4442, 637, 636, 1566, 4132, 4131, 4130, 4129, 4128, 4127], 's_0_13': [924], 15: [951, 403, 401, 400, 4510, 1958, 1957, 1956, 399, 398, 397, 396, 4052, 4053, 4054, 4055, 4056, 4057, 1942, 1941, 4060, 402, 4059, 4058], 's_0_15': [1943, 1944], 16: [4666, 1403, 1404, 1389, 1390, 5362, 5361, 1394, 1393, 1392, 1391, 5031, 5030, 5029, 339, 340, 5363, 5028, 5027, 5026, 341], 's_0_16': [414, 4651], 17: [4750, 1913, 1914, 4674, 4673, 473, 4547, 4549, 1093, 1092, 4548, 1090, 1089, 4550, 4551, 1091, 1343, 4612, 4613, 1644], 's_0_17': [1959], 18: [808, 709, 710, 4533, 5286, 5285, 3843, 5284, 5223, 807, 711, 712, 713, 714, 717, 716, 4788, 715], 's_0_18': [4473], 19: [1881, 1086, 1626, 862, 861, 4142, 4143, 5137, 5138, 5139, 5140, 1901, 1900, 1899, 1898, 1897, 4420, 1866, 4149, 4148, 1867, 4147, 4146, 4145, 4144], 's_0_19': [4555, 2034], 20: [354, 1780, 1779, 1825, 1824, 4599, 4598, 1539, 1538, 1537, 4297, 353, 352, 4291, 4292, 4293, 4294, 4295, 4296], 's_0_20': [4396], 21: [1838, 4865, 1330, 1198, 1197, 1212, 5241, 1346, 1331, 4866, 1839, 1840, 1841, 5064, 1317, 5107, 5108, 4914, 4913, 1676, 5063, 1541], 's_0_21': [4644], 22: [1333, 1273, 4416, 4415, 5043, 5044, 937, 5391, 5388, 5390, 4354, 938, 939, 940, 941, 942, 943, 5389], 's_0_22': [832], 26: [4778, 2081, 1647, 5020, 5019, 5018, 1645, 1646, 607, 608, 609, 610, 4968, 4969, 4973, 4972, 4971, 4970], 's_0_26': [2110, 2111, 5096], 28: [1174, 4206, 4326, 3920, 1205, 4011, 1281, 1282, 5196, 1287, 1286, 1285, 1284, 1283], 's_0_28': [1269], 29: [4173, 682, 1032, 786, 5211, 5210, 620, 621, 4248, 4249, 892, 5209, 897, 896, 895, 893, 894], 's_0_29': [4204], 30: [5529, 547, 5528, 5527, 5526, 5525, 5524, 5523, 4217, 5074, 835, 441, 442, 443, 4592, 534, 535, 536, 5012, 5013, 838, 837, 836], 's_0_30': [4591], 32: [277, 276, 5452, 275, 274, 1499, 1498, 1497, 1496, 1495, 1494, 4537, 4536, 4535, 1073, 1072, 1071, 1070, 3875, 3874, 3873, 3872, 3871], 's_0_32': [4381], 34: [598, 875, 1030, 1029, 3919, 1025, 597, 4099, 4427, 1026, 596, 595, 594, 593, 4428, 4429, 1027, 1028, 4430], 's_0_34': [4039], 35: [1088, 4490, 5268, 1239, 911, 1148, 5387, 489, 490, 4937, 688, 687, 686, 4997, 4761, 460, 4907, 1149, 1150, 4910, 4909, 4908, 655], 's_0_35': [4636], 36: [5327, 1731, 4509, 1732, 1733, 1734, 1735, 4988, 4987, 5328, 5329, 5330, 1108, 1107, 1106, 4985, 4986], 's_0_36': [1868], 37: [1003, 1002, 1001, 4487, 698, 1000, 999, 998, 4489, 3950, 3949, 3948, 770, 771, 772, 773, 4488], 's_0_37': [785, 4069], 40: [1054, 1144, 3800, 653, 5090, 1016, 1015, 1014, 1009, 1010, 1011, 4503, 4504, 4505, 1013, 1012], 's_0_40': [803], 41: [4641, 1193, 4276, 994, 1046, 4640, 4639, 4277, 4278, 1130, 3965, 995, 996, 4279, 1045, 1044, 1043, 1042], 's_0_41': [1074], 42: [1386, 4675, 1542, 5242, 5243, 5244, 5245, 2007, 2006, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 2002, 2003, 2004, 2005], 's_0_42': [4840], 43: [4463, 4846, 4532, 4306, 4462, 4461, 4460, 1209, 1210, 4850, 501, 4849, 1208, 4848, 4847, 565, 502, 4367, 564, 563], 's_0_43': [385], 46: [1057, 973, 4236, 4235, 965, 966, 967, 968, 972, 971, 970, 969], 's_0_46': [3964], 's_0_0': [4871], 1: [4479, 1701, 4209, 5601, 5497, 5498, 1304, 3876, 3877, 3878, 3879, 1790, 1791, 1792, 5499, 1793, 1794, 1795, 5604, 1796, 1797, 1798, 1799], 's_2_1': [5409], 's_2_3': [1435], 's_2_4': [1405], 's_2_5': [2063, 4571], 's_2_6': [1859], 's_2_8': [4869], 9: [681, 5197, 4158, 4255, 1557, 1556, 1555, 4159, 4267, 1554, 1553, 4508, 1568, 4254, 4160, 1161, 4251, 4252, 4253, 1567], 's_2_9': [1852], 10: [1656, 1657, 669, 4299, 4298, 4478, 1612, 1613, 1614, 4713, 4719, 4714, 4715, 4716, 4717, 4718], 's_2_10': [1869, 1870], 's_2_11': [4885], 12: [1747, 1823, 4405, 4404, 4403, 802, 4399, 4400, 4401, 4402], 's_2_12': [4449], 's_2_20': [4854], 's_2_22': [1272], 24: [953, 1360, 4657, 954, 1359, 4656, 849, 1254, 4686, 4685, 575, 576, 577, 578, 579, 4682, 4683, 4684], 's_2_24': [4867], 27: [1762, 3997, 1415, 654, 4360, 4359, 4358, 1416, 1417, 671, 670, 1371, 1372, 4357, 4356, 1177, 4802, 4803, 4804, 4805, 1179, 1178], 's_2_27': [1270, 4806], 's_2_29': [1137], 's_2_30': [5089], 31: [5117, 1961, 5118, 5119, 5120, 5121, 5122, 1507, 1508, 1509, 1510, 1511, 5125, 5124, 5123], 's_2_31': [4960], 's_2_32': [1480], 33: [4777, 4925, 1420, 4897, 1481, 1423, 1422, 1361, 5147, 4878, 640, 641, 5148, 1075, 5047, 1076, 5152, 5149, 1077, 1318, 5256, 1227, 5151, 5150], 's_2_33': [1196], 38: [4701, 4702, 4703, 1812, 4704, 1811, 1810, 531, 4082, 1809, 1808, 1807, 1806, 4089, 4088, 4087, 4086, 1055, 3995, 3994, 4085, 4084, 4083, 830], 's_2_38': [5214], 39: [4898, 1661, 4323, 5274, 725, 726, 727, 728, 729, 730, 731, 732, 5193, 852, 1662, 1663, 5273, 5272, 1257, 1303, 5269, 5270, 5271], 's_2_39': [5239], 's_2_40': [1151], 's_2_43': [1211], 44: [4280, 1222, 4100, 1221, 1326, 1720, 4853, 1630, 1629, 1223, 1250, 4191, 1251, 1252, 1253, 4568, 4567, 4566], 's_2_44': [4569], 45: [5542, 864, 909, 4653, 4654, 4655, 1224, 1225, 5543, 1634, 1633, 1632, 1631, 4930, 4929, 4928, 4927, 4926], 's_2_45': [1930], 's_2_46': [5194], 47: [834, 4790, 4791, 4792, 5633, 4789, 1574, 4759, 1573, 775, 1572, 1571, 1570, 4793], 's_2_47': [1675, 4794], 48: [4698, 4070, 1056, 4220, 5377, 5376, 1259, 1258, 5316, 5315, 5359, 987, 986, 4699, 981, 982, 983, 984, 985], 's_2_48': [958], 's_2_2': [5379], 's_3_5': [1429], 's_3_6': [1505], 's_3_7': [4224], 's_3_9': [5333], 's_3_11': [1316], 's_3_12': [4283], 's_3_15': [4103, 1671], 's_3_16': [1603], 's_3_17': [4643], 's_3_18': [694], 's_3_19': [4419], 's_3_21': [4374], 23: [4413, 5603, 5602, 1454, 4412, 4432, 1448, 1449, 1450, 1453, 1452, 1451, 4957, 4956, 4955, 4954, 4953, 4952, 430, 429, 428, 427, 4321], 's_3_23': [1466], 's_3_24': [4658], 's_3_27': [1520], 's_3_32': [5453], 's_3_33': [1060], 's_3_34': [874], 's_3_35': [956], 's_3_38': [4014, 1760], 's_3_39': [724], 's_3_44': [1249], 's_3_45': [5378], 's_3_47': [5408], 's_3_48': [1558, 5438], 's_3_3': [3953], 's_4_7': [1477], 's_4_9': [1447], 's_4_10': [4238], 's_4_11': [4836], 's_4_12': [4387], 14: [5496, 5495, 5587, 5586, 5585, 5584, 5162, 5163, 4772, 4773, 4774, 865, 549, 866, 550, 867, 868, 5434, 959], 's_4_14': [5208], 's_4_15': [4073], 's_4_16': [4582], 's_4_17': [4476], 's_4_19': [1356], 's_4_22': [5058], 's_4_23': [4747], 's_4_24': [1374], 's_4_28': [4207], 's_4_30': [5178], 's_4_31': [1506], 's_4_33': [5073], 's_4_35': [5283], 's_4_38': [1344], 's_4_39': [745], 's_4_41': [1194], 's_4_42': [1267], 's_4_44': [4371], 's_4_47': [760], 's_4_4': [4043], 's_5_1': [3982, 1475], 's_5_6': [4810], 's_5_11': [2033], 's_5_13': [4162], 's_5_15': [4037], 's_5_16': [4417], 's_5_17': [4690], 's_5_18': [4023], 's_5_20': [4584, 1703], 's_5_21': [4765], 's_5_23': [1433], 's_5_24': [3888], 25: [4340, 1041, 4118, 4117, 4111, 4112, 4113, 1147, 1146, 4116, 4115, 4114], 's_5_25': [1446], 's_5_27': [3922], 's_5_29': [619], 's_5_32': [515], 's_5_36': [1763], 's_5_38': [921, 920], 's_5_39': [755, 3978], 's_5_40': [1039], 's_5_41': [3815, 1085], 's_5_42': [4915], 's_5_43': [1673, 4434, 1778], 's_5_45': [1960], 's_5_5': [889], 's_6_1': [1640, 1641], 's_6_8': [4990], 's_6_9': [4240], 's_6_10': [4044], 's_6_14': [898], 's_6_15': [4165], 's_6_16': [1753], 's_6_17': [4615], 's_6_18': [5373], 's_6_19': [4870], 's_6_26': [5035], 's_6_27': [1355], 's_6_28': [1340], 's_6_30': [914], 's_6_31': [5050], 's_6_32': [5392, 1438], 's_6_33': [1078], 's_6_35': [5313], 's_6_40': [4010], 's_6_44': [1235], 's_6_45': [1723], 's_6_46': [988], 's_6_47': [1708, 1709], 's_6_48': [5360, 1228], 's_6_6': [1903], 's_7_9': [1551], 's_7_10': [1627], 's_7_11': [1136], 's_7_15': [1431], 's_7_16': [5015], 's_7_17': [4517], 's_7_18': [638], 's_7_21': [5181], 's_7_22': [1058, 4445], 's_7_24': [4596], 's_7_29': [878], 's_7_32': [4370], 's_7_33': [5075], 's_7_35': [4776], 's_7_37': [683], 's_7_40': [743], 's_7_42': [1341], 's_7_43': [4670], 's_7_44': [4581], 's_7_45': [908], 's_7_7': [4475], 's_8_1': [4749], 's_8_9': [4688], 's_8_10': [4538], 's_8_11': [1421], 's_8_14': [777], 's_8_17': [4553], 's_8_20': [4614], 's_8_24': [850, 4939], 's_8_26': [2080], 's_8_28': [1271], 's_8_29': [4984], 's_8_30': [776], 's_8_31': [1976], 's_8_32': [4837, 4838], 's_8_33': [790], 's_8_36': [4779], 's_8_37': [5135, 5134], 's_8_40': [1061], 's_8_44': [1690], 's_8_45': [1915], 's_8_8': [5006], 's_11_1': [5079], 's_11_14': [1184], 's_11_15': [4375], 's_11_21': [5540], 's_11_22': [5331], 's_11_27': [4450, 2062], 's_11_28': [5226], 's_11_29': [1302], 's_11_31': [5065], 's_11_34': [4880, 1165], 's_11_35': [4762], 's_11_36': [1751], 's_11_38': [4705], 's_11_39': [1256, 5076], 's_11_41': [5060], 's_11_42': [5200], 's_11_43': [4911], 's_11_47': [1255], 's_11_48': [5466], 's_11_11': [4601, 2154], 's_13_1': [1565], 's_13_9': [906], 's_13_10': [4637], 's_13_17': [4577], 's_13_18': [4443], 's_13_19': [546], 's_13_23': [548], 's_13_25': [561], 's_13_26': [4472], 's_13_27': [1401, 4072], 's_13_28': [1311], 's_13_29': [4262], 's_13_30': [4456], 's_13_34': [533], 's_13_35': [504], 's_13_38': [4164], 's_13_39': [4368], 's_13_40': [758], 's_13_41': [517], 's_13_42': [1596], 's_13_43': [4757], 's_13_44': [4193, 4192], 's_13_45': [4579], 's_13_46': [1191], 's_13_48': [4565], 's_13_13': [516], 's_15_9': [666], 's_15_10': [4314], 's_15_14': [5161], 's_15_16': [5041], 's_15_17': [4471], 's_15_18': [4068], 's_15_19': [4269], 's_15_24': [591], 's_15_27': [1476], 's_15_29': [605], 's_15_32': [4156], 's_15_36': [418], 's_15_37': [800], 's_15_38': [4074], 's_15_40': [4025], 's_15_42': [4480, 2048], 's_15_43': [4607], 's_15_44': [1325], 's_15_46': [4040], 's_15_15': [5416], 's_16_1': [5364], 's_16_17': [4597], 's_16_18': [1288], 's_16_20': [4741], 's_16_21': [5016], 's_16_22': [656], 's_16_23': [5317], 's_16_24': [4732], 's_16_27': [4801], 's_16_30': [1409], 's_16_31': [446], 's_16_33': [5332], 's_16_35': [4816], 's_16_36': [1406], 's_16_40': [1166], 's_16_42': [5288, 1483], 's_16_44': [4446], 's_16_45': [5348], 's_16_46': [5014], 's_16_47': [5632], 's_16_16': [338], 's_17_9': [4492, 1523], 's_17_14': [1094, 5465], 's_17_18': [759], 's_17_19': [1884, 4780], 's_17_20': [1764], 's_17_21': [4585], 's_17_22': [4745], 's_17_24': [1419], 's_17_26': [4502], 's_17_28': [4491], 's_17_29': [5300], 's_17_36': [5405], 's_17_37': [4486], 's_17_40': [5045], 's_17_42': [4735], 's_17_43': [503], 's_17_44': [1238], 's_17_48': [744], 's_17_17': [1912], 's_18_19': [4098], 's_18_21': [5301], 's_18_23': [4787], 's_18_26': [624], 's_18_27': [5103], 's_18_30': [5538], 's_18_33': [642], 's_18_35': [5253], 's_18_36': [763], 's_18_43': [4727, 580], 's_18_47': [774], 's_18_48': [1017], 's_18_18': [793], 's_19_9': [1686], 's_19_10': [4720], 's_19_12': [4390], 's_19_20': [1087], 's_19_22': [847], 's_19_23': [1467], 's_19_24': [4157], 's_19_25': [4119], 's_19_26': [1691], 's_19_28': [1407], 's_19_29': [4263], 's_19_32': [320, 321, 4141], 's_19_33': [1376], 's_19_34': [876], 's_19_36': [1736], 's_19_39': [1602], 's_19_41': [456], 's_19_44': [1721], 's_19_19': [1947], 's_20_1': [4839], 's_20_9': [4642], 's_20_10': [1688], 's_20_21': [4824], 's_20_23': [4411], 's_20_24': [1584], 's_20_26': [4733], 's_20_27': [1522], 's_20_29': [622], 's_20_30': [4261], 's_20_31': [4388], 's_20_32': [337, 4246], 's_20_34': [457], 's_20_38': [1749], 's_20_39': [697], 's_20_41': [667], 's_20_43': [4531], 's_20_44': [4763], 's_20_45': [4944], 's_20_46': [1207], 's_20_48': [4309], 's_20_20': [351], 's_21_1': [4659], 's_21_9': [1837], 's_21_10': [1329], 's_21_12': [4494], 's_21_14': [1199], 's_21_22': [1138, 5345], 's_21_23': [5062], 's_21_26': [5167, 5168], 's_21_29': [1332], 's_21_31': [1706], 's_21_32': [1482], 's_21_35': [1135], 's_21_36': [5375], 's_21_37': [5240], 's_21_38': [4689], 's_21_42': [4945], 's_21_43': [4851], 's_21_21': [1826], 's_22_1': [5451], 's_22_14': [5164], 's_22_24': [4534], 's_22_25': [4355, 1162], 's_22_26': [926], 's_22_29': [1063, 1062], 's_22_31': [821], 's_22_33': [791], 's_22_37': [936, 935], 's_22_39': [1168, 1167], 's_22_41': [952], 's_22_42': [1362, 5346, 1243], 's_22_43': [1192], 's_22_46': [5344, 913, 5419], 's_22_48': [5421], 's_22_22': [1274], 's_26_1': [1781], 's_26_10': [4712], 's_26_24': [4352], 's_26_27': [4743], 's_26_31': [1436], 's_26_32': [4748], 's_26_35': [581], 's_26_36': [1601], 's_26_37': [4563], 's_26_38': [5034], 's_26_41': [606], 's_26_43': [4877], 's_26_44': [4974], 's_26_45': [1375], 's_26_47': [4958], 's_26_26': [5156], 's_28_1': [3891], 's_28_9': [1297], 's_28_10': [4731], 's_28_12': [1342], 's_28_23': [1327], 's_28_24': [4671], 's_28_32': [4266, 4265], 's_28_33': [5136], 's_28_34': [4431], 's_28_35': [4746], 's_28_36': [5195], 's_28_37': [1100], 's_28_39': [1242], 's_28_41': [3860, 3861], 's_28_42': [1437, 5287, 1347], 's_28_43': [1268], 's_28_46': [1132], 's_28_28': [3816], 's_29_10': [4729], 's_29_30': [4247], 's_29_31': [927], 's_29_34': [787], 's_29_35': [4924], 's_29_42': [1377], 's_29_46': [4339], 's_29_48': [1033], 's_29_29': [4187], 's_30_1': [1214], 's_30_23': [4562], 's_30_25': [426], 's_30_27': [521, 520], 's_30_33': [1424], 's_30_34': [611, 5042], 's_30_35': [912], 's_30_36': [5225, 5224, 822, 5314], 's_30_37': [5449, 5450, 1153, 5511, 1244], 's_30_38': [4202], 's_30_41': [412], 's_30_43': [566], 's_30_45': [1649], 's_30_46': [5404], 's_30_47': [1604], 's_30_48': [5541], 's_30_30': [4351], 's_32_12': [4385], 's_32_14': [1484], 's_32_23': [5257], 's_32_24': [590], 's_32_27': [1373], 's_32_31': [4807], 's_32_33': [5077], 's_32_34': [964], 's_32_37': [905, 3889], 's_32_38': [1464], 's_32_42': [5227], 's_32_43': [4305], 's_32_45': [5513], 's_32_47': [5572], 's_32_48': [1378], 's_32_32': [4095], 's_34_9': [4250], 's_34_10': [4593], 's_34_12': [4414], 's_34_25': [1040], 's_34_31': [582], 's_34_33': [5177], 's_34_35': [4892], 's_34_36': [5192, 627], 's_34_38': [3980], 's_34_39': [3918], 's_34_40': [997], 's_34_41': [4325], 's_34_42': [891], 's_34_46': [3979], 's_34_47': [4760], 's_34_34': [4426, 247], 's_35_10': [1164], 's_35_23': [4831], 's_35_24': [459], 's_35_33': [4863], 's_35_36': [553], 's_35_38': [4700], 's_35_40': [4730], 's_35_45': [4835], 's_35_47': [880], 's_35_48': [5059], 's_35_35': [689], 's_36_1': [4764], 's_36_9': [4239], 's_36_12': [4313], 's_36_14': [1109], 's_36_23': [1345], 's_36_25': [4133], 's_36_27': [4389], 's_36_37': [5420], 's_36_38': [4959], 's_36_39': [733], 's_36_44': [4808], 's_36_45': [1705], 's_36_47': [1586], 's_36_36': [748], 's_37_9': [1160], 's_37_10': [699], 's_37_12': [4338], 's_37_14': [5510], 's_37_24': [3947], 's_37_25': [757, 756], 's_37_33': [5255], 's_37_38': [1190], 's_37_39': [4188], 's_37_40': [4578], 's_37_41': [3934], 's_37_43': [623], 's_37_46': [4474], 's_37_47': [4775], 's_37_48': [4610], 's_37_37': [950, 949], 's_40_1': [1159], 's_40_10': [4608], 's_40_23': [1031], 's_40_27': [4506], 's_40_38': [3890], 's_40_41': [4264], 's_40_43': [1133], 's_40_40': [1024], 's_41_1': [1115], 's_41_12': [4444, 923], 's_41_23': [367], 's_41_24': [1059], 's_41_25': [651], 's_41_27': [4611], 's_41_33': [1047], 's_41_38': [3935], 's_41_39': [742], 's_41_42': [922], 's_41_44': [1163], 's_41_48': [4205], 's_41_41': [562], 's_42_1': [1782], 's_42_9': [5318], 's_42_10': [2017, 4300], 's_42_12': [1822], 's_42_31': [5110], 's_42_38': [5229], 's_42_39': [1752], 's_42_46': [4189], 's_42_47': [2008, 5305, 5304, 5303], 's_42_42': [2032], 's_43_9': [1552], 's_43_10': [1643], 's_43_14': [415], 's_43_23': [4862, 4861, 445], 's_43_24': [4307], 's_43_25': [4126], 's_43_33': [4832], 's_43_39': [4833], 's_43_44': [1418], 's_43_46': [4834], 's_43_48': [4459], 's_43_43': [4232], 's_46_12': [1237], 's_46_24': [4595], 's_46_33': [4879], 's_46_38': [980], 's_46_39': [5254], 's_46_44': [4237], 's_46_47': [4864, 925], 's_46_48': [4324], 's_46_46': [974], 's_1_9': [1777], 's_1_10': [4734], 's_1_12': [4329], 's_1_14': [1229], 's_1_23': [5512], 's_1_38': [5049], 's_1_39': [5289], 's_1_45': [1754], 's_1_47': [5634], 's_1_1': [1504], 's_9_10': [4373], 's_9_23': [5032], 's_9_25': [741], 's_9_27': [1927], 's_9_31': [4312], 's_9_33': [5153], 's_9_38': [1116], 's_9_39': [5182, 5183], 's_9_44': [1583], 's_9_9': [1432], 's_10_12': [1628, 4493], 's_10_23': [1465], 's_10_39': [4728], 's_10_47': [1105], 's_10_48': [684], 's_10_10': [910], 's_12_23': [1298], 's_12_24': [4398], 's_12_25': [4386], 's_12_27': [1702], 's_12_38': [4464], 's_12_39': [4353], 's_12_48': [1103, 1102], 's_12_12': [4308], 's_24_23': [4672], 's_24_38': [4097], 's_24_45': [4638], 's_24_31': [4912], 's_24_33': [804, 806, 805], 's_24_44': [1479], 's_24_48': [4369], 's_24_24': [4594], 's_27_23': [4372], 's_27_38': [4344], 's_27_39': [4938], 's_27_47': [4758], 's_27_25': [1491], 's_27_31': [4327], 's_27_33': [4982], 's_27_27': [4012], 's_31_14': [851], 's_31_45': [1525], 's_31_47': [5017], 's_31_44': [4583], 's_31_31': [506], 's_33_14': [522], 's_33_23': [431], 's_33_39': [882], 's_33_33': [492], 's_38_23': [4687], 's_38_25': [1296], 's_38_39': [1813], 's_38_48': [1101], 's_38_38': [5109], 's_39_14': [928, 5299], 's_39_45': [5213], 's_39_47': [1587], 's_39_48': [1123], 's_39_39': [1828], 's_44_23': [1388], 's_44_45': [1600], 's_44_25': [1176], 's_44_48': [4071], 's_44_44': [4341], 's_45_14': [789], 's_45_47': [5078], 's_45_48': [879], 's_45_45': [4668], 's_47_14': [5588, 1544], 's_47_23': [5212], 's_47_47': [1559], 's_48_14': [1379, 5571], 's_48_25': [4190], 's_48_48': [5646, 5647], 's_23_14': [1469], 's_23_23': [292], 's_14_14': [5569, 1019], 's_25_25': [4110]}</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.0005138888888888888</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0007519265379799535</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>{0: [383, 815, 2125, 2124, 4630, 816, 817, 818, 4629, 4628, 4627, 4626, 4625, 384, 4621, 4622, 4623, 4624], 2: [1857, 1856, 957, 4570, 1853, 1854, 4795, 1855, 4884, 5105, 5106, 1241, 1240, 4881, 1858, 4883, 4882], 's_0_2': [4539, 1883], 3: [1618, 1617, 1616, 3937, 3938, 4940, 4941, 3768, 3769, 3770, 3771, 3772, 3773, 1714, 1715, 1716, 1717, 1718, 1719, 4823, 4942, 4943, 1615], 's_0_3': [814], 4: [1535, 1536, 4282, 4281, 702, 701, 700, 1312, 1313, 1314, 4818, 4819, 4820, 4821, 1315], 's_0_4': [1299], 5: [4038, 695, 3902, 3903, 3904, 979, 3844, 3845, 3846, 3847, 1460, 1462, 1975, 1974, 1461, 1973, 4525, 4524, 4523, 4522, 1358, 1463, 4507], 's_0_5': [4645], 6: [718, 5478, 5479, 1319, 5480, 5481, 5482, 5467, 5468, 5469, 5470, 1145, 4026, 4027, 4028, 4029, 4030, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994], 's_0_6': [4855], 7: [5180, 1122, 1121, 1611, 4223, 4222, 4221, 1117, 4518, 4519, 4520, 1120, 1119, 1118], 's_0_7': [833], 8: [1931, 819, 820, 762, 761, 1659, 4998, 4999, 5000, 5005, 5004, 5003, 1660, 4868, 1540, 5002, 5001], 's_0_8': [2126], 11: [1300, 4895, 4896, 1183, 1182, 1301, 5061, 5091, 5092, 5093, 5094, 5095, 1181, 2018, 2019, 2020, 2021, 2022, 5080], 's_0_11': [2095, 4886, 4976], 13: [4742, 4564, 848, 4458, 4457, 519, 518, 668, 4163, 4442, 637, 636, 1566, 4132, 4131, 4130, 4129, 4128, 4127], 's_0_13': [924], 15: [951, 403, 401, 400, 4510, 1958, 1957, 1956, 399, 398, 397, 396, 4052, 4053, 4054, 4055, 4056, 4057, 1942, 1941, 4060, 402, 4059, 4058], 's_0_15': [1943, 1944], 16: [4666, 1403, 1404, 1389, 1390, 5362, 5361, 1394, 1393, 1392, 1391, 5031, 5030, 5029, 339, 340, 5363, 5028, 5027, 5026, 341], 's_0_16': [414, 4651], 17: [4750, 1913, 1914, 4674, 4673, 473, 4547, 4549, 1093, 1092, 4548, 1090, 1089, 4550, 4551, 1091, 1343, 4612, 4613, 1644], 's_0_17': [1959], 18: [808, 709, 710, 4533, 5286, 5285, 3843, 5284, 5223, 807, 711, 712, 713, 714, 717, 716, 4788, 715], 's_0_18': [4473], 19: [1881, 1086, 1626, 862, 861, 4142, 4143, 5137, 5138, 5139, 5140, 1901, 1900, 1899, 1898, 1897, 4420, 1866, 4149, 4148, 1867, 4147, 4146, 4145, 4144], 's_0_19': [4555, 2034], 20: [354, 1780, 1779, 1825, 1824, 4599, 4598, 1539, 1538, 1537, 4297, 353, 352, 4291, 4292, 4293, 4294, 4295, 4296], 's_0_20': [4396], 21: [1838, 4865, 1330, 1198, 1197, 1212, 5241, 1346, 1331, 4866, 1839, 1840, 1841, 5064, 1317, 5107, 5108, 4914, 4913, 1676, 5063, 1541], 's_0_21': [4644], 22: [1333, 1273, 4416, 4415, 5043, 5044, 937, 5391, 5388, 5390, 4354, 938, 939, 940, 941, 942, 943, 5389], 's_0_22': [832], 26: [4778, 2081, 1647, 5020, 5019, 5018, 1645, 1646, 607, 608, 609, 610, 4968, 4969, 4973, 4972, 4971, 4970], 's_0_26': [2110, 2111, 5096], 28: [1174, 4206, 4326, 3920, 1205, 4011, 1281, 1282, 5196, 1287, 1286, 1285, 1284, 1283], 's_0_28': [1269], 29: [4173, 682, 1032, 786, 5211, 5210, 620, 621, 4248, 4249, 892, 5209, 897, 896, 895, 893, 894], 's_0_29': [4204], 30: [5529, 547, 5528, 5527, 5526, 5525, 5524, 5523, 4217, 5074, 835, 441, 442, 443, 4592, 534, 535, 536, 5012, 5013, 838, 837, 836], 's_0_30': [4591], 32: [277, 276, 5452, 275, 274, 1499, 1498, 1497, 1496, 1495, 1494, 4537, 4536, 4535, 1073, 1072, 1071, 1070, 3875, 3874, 3873, 3872, 3871], 's_0_32': [4381], 34: [598, 875, 1030, 1029, 3919, 1025, 597, 4099, 4427, 1026, 596, 595, 594, 593, 4428, 4429, 1027, 1028, 4430], 's_0_34': [4039], 35: [1088, 4490, 5268, 1239, 911, 1148, 5387, 489, 490, 4937, 688, 687, 686, 4997, 4761, 460, 4907, 1149, 1150, 4910, 4909, 4908, 655], 's_0_35': [4636], 36: [5327, 1731, 4509, 1732, 1733, 1734, 1735, 4988, 4987, 5328, 5329, 5330, 1108, 1107, 1106, 4985, 4986], 's_0_36': [1868], 37: [1003, 1002, 1001, 4487, 698, 1000, 999, 998, 4489, 3950, 3949, 3948, 770, 771, 772, 773, 4488], 's_0_37': [785, 4069], 40: [1054, 1144, 3800, 653, 5090, 1016, 1015, 1014, 1009, 1010, 1011, 4503, 4504, 4505, 1013, 1012], 's_0_40': [803], 41: [4641, 1193, 4276, 994, 1046, 4640, 4639, 4277, 4278, 1130, 3965, 995, 996, 4279, 1045, 1044, 1043, 1042], 's_0_41': [1074], 42: [1386, 4675, 1542, 5242, 5243, 5244, 5245, 2007, 2006, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 2002, 2003, 2004, 2005], 's_0_42': [4840], 43: [4463, 4846, 4532, 4306, 4462, 4461, 4460, 1209, 1210, 4850, 501, 4849, 1208, 4848, 4847, 565, 502, 4367, 564, 563], 's_0_43': [385], 46: [1057, 973, 4236, 4235, 965, 966, 967, 968, 972, 971, 970, 969], 's_0_46': [3964], 's_0_0': [4871], 1: [4479, 1701, 4209, 5601, 5497, 5498, 1304, 3876, 3877, 3878, 3879, 1790, 1791, 1792, 5499, 1793, 1794, 1795, 5604, 1796, 1797, 1798, 1799], 's_2_1': [5409], 's_2_3': [1435], 's_2_4': [1405], 's_2_5': [2063, 4571], 's_2_6': [1859], 's_2_8': [4869], 9: [681, 5197, 4158, 4255, 1557, 1556, 1555, 4159, 4267, 1554, 1553, 4508, 1568, 4254, 4160, 1161, 4251, 4252, 4253, 1567], 's_2_9': [1852], 10: [1656, 1657, 669, 4299, 4298, 4478, 1612, 1613, 1614, 4713, 4719, 4714, 4715, 4716, 4717, 4718], 's_2_10': [1869, 1870], 's_2_11': [4885], 12: [1747, 1823, 4405, 4404, 4403, 802, 4399, 4400, 4401, 4402], 's_2_12': [4449], 's_2_20': [4854], 's_2_22': [1272], 24: [953, 1360, 4657, 954, 1359, 4656, 849, 1254, 4686, 4685, 575, 576, 577, 578, 579, 4682, 4683, 4684], 's_2_24': [4867], 27: [1762, 3997, 1415, 654, 4360, 4359, 4358, 1416, 1417, 671, 670, 1371, 1372, 4357, 4356, 1177, 4802, 4803, 4804, 4805, 1179, 1178], 's_2_27': [1270, 4806], 's_2_29': [1137], 's_2_30': [5089], 31: [5117, 1961, 5118, 5119, 5120, 5121, 5122, 1507, 1508, 1509, 1510, 1511, 5125, 5124, 5123], 's_2_31': [4960], 's_2_32': [1480], 33: [4777, 4925, 1420, 4897, 1481, 1423, 1422, 1361, 5147, 4878, 640, 641, 5148, 1075, 5047, 1076, 5152, 5149, 1077, 1318, 5256, 1227, 5151, 5150], 's_2_33': [1196], 38: [4701, 4702, 4703, 1812, 4704, 1811, 1810, 531, 4082, 1809, 1808, 1807, 1806, 4089, 4088, 4087, 4086, 1055, 3995, 3994, 4085, 4084, 4083, 830], 's_2_38': [5214], 39: [4898, 1661, 4323, 5274, 725, 726, 727, 728, 729, 730, 731, 732, 5193, 852, 1662, 1663, 5273, 5272, 1257, 1303, 5269, 5270, 5271], 's_2_39': [5239], 's_2_40': [1151], 's_2_43': [1211], 44: [4280, 1222, 4100, 1221, 1326, 1720, 4853, 1630, 1629, 1223, 1250, 4191, 1251, 1252, 1253, 4568, 4567, 4566], 's_2_44': [4569], 45: [5542, 864, 909, 4653, 4654, 4655, 1224, 1225, 5543, 1634, 1633, 1632, 1631, 4930, 4929, 4928, 4927, 4926], 's_2_45': [1930], 's_2_46': [5194], 47: [834, 4790, 4791, 4792, 5633, 4789, 1574, 4759, 1573, 775, 1572, 1571, 1570, 4793], 's_2_47': [1675, 4794], 48: [4698, 4070, 1056, 4220, 5377, 5376, 1259, 1258, 5316, 5315, 5359, 987, 986, 4699, 981, 982, 983, 984, 985], 's_2_48': [958], 's_2_2': [5379], 's_3_5': [1429], 's_3_6': [1505], 's_3_7': [4224], 's_3_9': [5333], 's_3_11': [1316], 's_3_12': [4283], 's_3_15': [4103, 1671], 's_3_16': [1603], 's_3_17': [4643], 's_3_18': [694], 's_3_19': [4419], 's_3_21': [4374], 23: [4413, 5603, 5602, 1454, 4412, 4432, 1448, 1449, 1450, 1453, 1452, 1451, 4957, 4956, 4955, 4954, 4953, 4952, 430, 429, 428, 427, 4321], 's_3_23': [1466], 's_3_24': [4658], 's_3_27': [1520], 's_3_32': [5453], 's_3_33': [1060], 's_3_34': [874], 's_3_35': [956], 's_3_38': [4014, 1760], 's_3_39': [724], 's_3_44': [1249], 's_3_45': [5378], 's_3_47': [5408], 's_3_48': [1558, 5438], 's_3_3': [3953], 's_4_7': [1477], 's_4_9': [1447], 's_4_10': [4238], 's_4_11': [4836], 's_4_12': [4387], 14: [5496, 5495, 5587, 5586, 5585, 5584, 5162, 5163, 4772, 4773, 4774, 865, 549, 866, 550, 867, 868, 5434, 959], 's_4_14': [5208], 's_4_15': [4073], 's_4_16': [4582], 's_4_17': [4476], 's_4_19': [1356], 's_4_22': [5058], 's_4_23': [4747], 's_4_24': [1374], 's_4_28': [4207], 's_4_30': [5178], 's_4_31': [1506], 's_4_33': [5073], 's_4_35': [5283], 's_4_38': [1344], 's_4_39': [745], 's_4_41': [1194], 's_4_42': [1267], 's_4_44': [4371], 's_4_47': [760], 's_4_4': [4043], 's_5_1': [3982, 1475], 's_5_6': [4810], 's_5_11': [2033], 's_5_13': [4162], 's_5_15': [4037], 's_5_16': [4417], 's_5_17': [4690], 's_5_18': [4023], 's_5_20': [4584, 1703], 's_5_21': [4765], 's_5_23': [1433], 's_5_24': [3888], 25: [4340, 1041, 4118, 4117, 4111, 4112, 4113, 1147, 1146, 4116, 4115, 4114], 's_5_25': [1446], 's_5_27': [3922], 's_5_29': [619], 's_5_32': [515], 's_5_36': [1763], 's_5_38': [921, 920], 's_5_39': [755, 3978], 's_5_40': [1039], 's_5_41': [3815, 1085], 's_5_42': [4915], 's_5_43': [1673, 4434, 1778], 's_5_45': [1960], 's_5_5': [889], 's_6_1': [1640, 1641], 's_6_8': [4990], 's_6_9': [4240], 's_6_10': [4044], 's_6_14': [898], 's_6_15': [4165], 's_6_16': [1753], 's_6_17': [4615], 's_6_18': [5373], 's_6_19': [4870], 's_6_26': [5035], 's_6_27': [1355], 's_6_28': [1340], 's_6_30': [914], 's_6_31': [5050], 's_6_32': [5392, 1438], 's_6_33': [1078], 's_6_35': [5313], 's_6_40': [4010], 's_6_44': [1235], 's_6_45': [1723], 's_6_46': [988], 's_6_47': [1708, 1709], 's_6_48': [5360, 1228], 's_6_6': [1903], 's_7_9': [1551], 's_7_10': [1627], 's_7_11': [1136], 's_7_15': [1431], 's_7_16': [5015], 's_7_17': [4517], 's_7_18': [638], 's_7_21': [5181], 's_7_22': [1058, 4445], 's_7_24': [4596], 's_7_29': [878], 's_7_32': [4370], 's_7_33': [5075], 's_7_35': [4776], 's_7_37': [683], 's_7_40': [743], 's_7_42': [1341], 's_7_43': [4670], 's_7_44': [4581], 's_7_45': [908], 's_7_7': [4475], 's_8_1': [4749], 's_8_9': [4688], 's_8_10': [4538], 's_8_11': [1421], 's_8_14': [777], 's_8_17': [4553], 's_8_20': [4614], 's_8_24': [850, 4939], 's_8_26': [2080], 's_8_28': [1271], 's_8_29': [4984], 's_8_30': [776], 's_8_31': [1976], 's_8_32': [4837, 4838], 's_8_33': [790], 's_8_36': [4779], 's_8_37': [5135, 5134], 's_8_40': [1061], 's_8_44': [1690], 's_8_45': [1915], 's_8_8': [5006], 's_11_1': [5079], 's_11_14': [1184], 's_11_15': [4375], 's_11_21': [5540], 's_11_22': [5331], 's_11_27': [4450, 2062], 's_11_28': [5226], 's_11_29': [1302], 's_11_31': [5065], 's_11_34': [4880, 1165], 's_11_35': [4762], 's_11_36': [1751], 's_11_38': [4705], 's_11_39': [1256, 5076], 's_11_41': [5060], 's_11_42': [5200], 's_11_43': [4911], 's_11_47': [1255], 's_11_48': [5466], 's_11_11': [4601, 2154], 's_13_1': [1565], 's_13_9': [906], 's_13_10': [4637], 's_13_17': [4577], 's_13_18': [4443], 's_13_19': [546], 's_13_23': [548], 's_13_25': [561], 's_13_26': [4472], 's_13_27': [1401, 4072], 's_13_28': [1311], 's_13_29': [4262], 's_13_30': [4456], 's_13_34': [533], 's_13_35': [504], 's_13_38': [4164], 's_13_39': [4368], 's_13_40': [758], 's_13_41': [517], 's_13_42': [1596], 's_13_43': [4757], 's_13_44': [4193, 4192], 's_13_45': [4579], 's_13_46': [1191], 's_13_48': [4565], 's_13_13': [516], 's_15_9': [666], 's_15_10': [4314], 's_15_14': [5161], 's_15_16': [5041], 's_15_17': [4471], 's_15_18': [4068], 's_15_19': [4269], 's_15_24': [591], 's_15_27': [1476], 's_15_29': [605], 's_15_32': [4156], 's_15_36': [418], 's_15_37': [800], 's_15_38': [4074], 's_15_40': [4025], 's_15_42': [4480, 2048], 's_15_43': [4607], 's_15_44': [1325], 's_15_46': [4040], 's_15_15': [5416], 's_16_1': [5364], 's_16_17': [4597], 's_16_18': [1288], 's_16_20': [4741], 's_16_21': [5016], 's_16_22': [656], 's_16_23': [5317], 's_16_24': [4732], 's_16_27': [4801], 's_16_30': [1409], 's_16_31': [446], 's_16_33': [5332], 's_16_35': [4816], 's_16_36': [1406], 's_16_40': [1166], 's_16_42': [5288, 1483], 's_16_44': [4446], 's_16_45': [5348], 's_16_46': [5014], 's_16_47': [5632], 's_16_16': [338], 's_17_9': [4492, 1523], 's_17_14': [1094, 5465], 's_17_18': [759], 's_17_19': [1884, 4780], 's_17_20': [1764], 's_17_21': [4585], 's_17_22': [4745], 's_17_24': [1419], 's_17_26': [4502], 's_17_28': [4491], 's_17_29': [5300], 's_17_36': [5405], 's_17_37': [4486], 's_17_40': [5045], 's_17_42': [4735], 's_17_43': [503], 's_17_44': [1238], 's_17_48': [744], 's_17_17': [1912], 's_18_19': [4098], 's_18_21': [5301], 's_18_23': [4787], 's_18_26': [624], 's_18_27': [5103], 's_18_30': [5538], 's_18_33': [642], 's_18_35': [5253], 's_18_36': [763], 's_18_43': [4727, 580], 's_18_47': [774], 's_18_48': [1017], 's_18_18': [793], 's_19_9': [1686], 's_19_10': [4720], 's_19_12': [4390], 's_19_20': [1087], 's_19_22': [847], 's_19_23': [1467], 's_19_24': [4157], 's_19_25': [4119], 's_19_26': [1691], 's_19_28': [1407], 's_19_29': [4263], 's_19_32': [320, 321, 4141], 's_19_33': [1376], 's_19_34': [876], 's_19_36': [1736], 's_19_39': [1602], 's_19_41': [456], 's_19_44': [1721], 's_19_19': [1947], 's_20_1': [4839], 's_20_9': [4642], 's_20_10': [1688], 's_20_21': [4824], 's_20_23': [4411], 's_20_24': [1584], 's_20_26': [4733], 's_20_27': [1522], 's_20_29': [622], 's_20_30': [4261], 's_20_31': [4388], 's_20_32': [337, 4246], 's_20_34': [457], 's_20_38': [1749], 's_20_39': [697], 's_20_41': [667], 's_20_43': [4531], 's_20_44': [4763], 's_20_45': [4944], 's_20_46': [1207], 's_20_48': [4309], 's_20_20': [351], 's_21_1': [4659], 's_21_9': [1837], 's_21_10': [1329], 's_21_12': [4494], 's_21_14': [1199], 's_21_22': [1138, 5345], 's_21_23': [5062], 's_21_26': [5167, 5168], 's_21_29': [1332], 's_21_31': [1706], 's_21_32': [1482], 's_21_35': [1135], 's_21_36': [5375], 's_21_37': [5240], 's_21_38': [4689], 's_21_42': [4945], 's_21_43': [4851], 's_21_21': [1826], 's_22_1': [5451], 's_22_14': [5164], 's_22_24': [4534], 's_22_25': [4355, 1162], 's_22_26': [926], 's_22_29': [1063, 1062], 's_22_31': [821], 's_22_33': [791], 's_22_37': [936, 935], 's_22_39': [1168, 1167], 's_22_41': [952], 's_22_42': [1362, 5346, 1243], 's_22_43': [1192], 's_22_46': [5344, 913, 5419], 's_22_48': [5421], 's_22_22': [1274], 's_26_1': [1781], 's_26_10': [4712], 's_26_24': [4352], 's_26_27': [4743], 's_26_31': [1436], 's_26_32': [4748], 's_26_35': [581], 's_26_36': [1601], 's_26_37': [4563], 's_26_38': [5034], 's_26_41': [606], 's_26_43': [4877], 's_26_44': [4974], 's_26_45': [1375], 's_26_47': [4958], 's_26_26': [5156], 's_28_1': [3891], 's_28_9': [1297], 's_28_10': [4731], 's_28_12': [1342], 's_28_23': [1327], 's_28_24': [4671], 's_28_32': [4266, 4265], 's_28_33': [5136], 's_28_34': [4431], 's_28_35': [4746], 's_28_36': [5195], 's_28_37': [1100], 's_28_39': [1242], 's_28_41': [3860, 3861], 's_28_42': [1437, 5287, 1347], 's_28_43': [1268], 's_28_46': [1132], 's_28_28': [3816], 's_29_10': [4729], 's_29_30': [4247], 's_29_31': [927], 's_29_34': [787], 's_29_35': [4924], 's_29_42': [1377], 's_29_46': [4339], 's_29_48': [1033], 's_29_29': [4187], 's_30_1': [1214], 's_30_23': [4562], 's_30_25': [426], 's_30_27': [521, 520], 's_30_33': [1424], 's_30_34': [611, 5042], 's_30_35': [912], 's_30_36': [5225, 5224, 822, 5314], 's_30_37': [5449, 5450, 1153, 5511, 1244], 's_30_38': [4202], 's_30_41': [412], 's_30_43': [566], 's_30_45': [1649], 's_30_46': [5404], 's_30_47': [1604], 's_30_48': [5541], 's_30_30': [4351], 's_32_12': [4385], 's_32_14': [1484], 's_32_23': [5257], 's_32_24': [590], 's_32_27': [1373], 's_32_31': [4807], 's_32_33': [5077], 's_32_34': [964], 's_32_37': [905, 3889], 's_32_38': [1464], 's_32_42': [5227], 's_32_43': [4305], 's_32_45': [5513], 's_32_47': [5572], 's_32_48': [1378], 's_32_32': [4095], 's_34_9': [4250], 's_34_10': [4593], 's_34_12': [4414], 's_34_25': [1040], 's_34_31': [582], 's_34_33': [5177], 's_34_35': [4892], 's_34_36': [5192, 627], 's_34_38': [3980], 's_34_39': [3918], 's_34_40': [997], 's_34_41': [4325], 's_34_42': [891], 's_34_46': [3979], 's_34_47': [4760], 's_34_34': [4426, 247], 's_35_10': [1164], 's_35_23': [4831], 's_35_24': [459], 's_35_33': [4863], 's_35_36': [553], 's_35_38': [4700], 's_35_40': [4730], 's_35_45': [4835], 's_35_47': [880], 's_35_48': [5059], 's_35_35': [689], 's_36_1': [4764], 's_36_9': [4239], 's_36_12': [4313], 's_36_14': [1109], 's_36_23': [1345], 's_36_25': [4133], 's_36_27': [4389], 's_36_37': [5420], 's_36_38': [4959], 's_36_39': [733], 's_36_44': [4808], 's_36_45': [1705], 's_36_47': [1586], 's_36_36': [748], 's_37_9': [1160], 's_37_10': [699], 's_37_12': [4338], 's_37_14': [5510], 's_37_24': [3947], 's_37_25': [757, 756], 's_37_33': [5255], 's_37_38': [1190], 's_37_39': [4188], 's_37_40': [4578], 's_37_41': [3934], 's_37_43': [623], 's_37_46': [4474], 's_37_47': [4775], 's_37_48': [4610], 's_37_37': [950, 949], 's_40_1': [1159], 's_40_10': [4608], 's_40_23': [1031], 's_40_27': [4506], 's_40_38': [3890], 's_40_41': [4264], 's_40_43': [1133], 's_40_40': [1024], 's_41_1': [1115], 's_41_12': [4444, 923], 's_41_23': [367], 's_41_24': [1059], 's_41_25': [651], 's_41_27': [4611], 's_41_33': [1047], 's_41_38': [3935], 's_41_39': [742], 's_41_42': [922], 's_41_44': [1163], 's_41_48': [4205], 's_41_41': [562], 's_42_1': [1782], 's_42_9': [5318], 's_42_10': [2017, 4300], 's_42_12': [1822], 's_42_31': [5110], 's_42_38': [5229], 's_42_39': [1752], 's_42_46': [4189], 's_42_47': [2008, 5305, 5304, 5303], 's_42_42': [2032], 's_43_9': [1552], 's_43_10': [1643], 's_43_14': [415], 's_43_23': [4862, 4861, 445], 's_43_24': [4307], 's_43_25': [4126], 's_43_33': [4832], 's_43_39': [4833], 's_43_44': [1418], 's_43_46': [4834], 's_43_48': [4459], 's_43_43': [4232], 's_46_12': [1237], 's_46_24': [4595], 's_46_33': [4879], 's_46_38': [980], 's_46_39': [5254], 's_46_44': [4237], 's_46_47': [4864, 925], 's_46_48': [4324], 's_46_46': [974], 's_1_9': [1777], 's_1_10': [4734], 's_1_12': [4329], 's_1_14': [1229], 's_1_23': [5512], 's_1_38': [5049], 's_1_39': [5289], 's_1_45': [1754], 's_1_47': [5634], 's_1_1': [1504], 's_9_10': [4373], 's_9_23': [5032], 's_9_25': [741], 's_9_27': [1927], 's_9_31': [4312], 's_9_33': [5153], 's_9_38': [1116], 's_9_39': [5182, 5183], 's_9_44': [1583], 's_9_9': [1432], 's_10_12': [1628, 4493], 's_10_23': [1465], 's_10_39': [4728], 's_10_47': [1105], 's_10_48': [684], 's_10_10': [910], 's_12_23': [1298], 's_12_24': [4398], 's_12_25': [4386], 's_12_27': [1702], 's_12_38': [4464], 's_12_39': [4353], 's_12_48': [1103, 1102], 's_12_12': [4308], 's_24_23': [4672], 's_24_38': [4097], 's_24_45': [4638], 's_24_31': [4912], 's_24_33': [804, 806, 805], 's_24_44': [1479], 's_24_48': [4369], 's_24_24': [4594], 's_27_23': [4372], 's_27_38': [4344], 's_27_39': [4938], 's_27_47': [4758], 's_27_25': [1491], 's_27_31': [4327], 's_27_33': [4982], 's_27_27': [4012], 's_31_14': [851], 's_31_45': [1525], 's_31_47': [5017], 's_31_44': [4583], 's_31_31': [506], 's_33_14': [522], 's_33_23': [431], 's_33_39': [882], 's_33_33': [492], 's_38_23': [4687], 's_38_25': [1296], 's_38_39': [1813], 's_38_48': [1101], 's_38_38': [5109], 's_39_14': [928, 5299], 's_39_45': [5213], 's_39_47': [1587], 's_39_48': [1123], 's_39_39': [1828], 's_44_23': [1388], 's_44_45': [1600], 's_44_25': [1176], 's_44_48': [4071], 's_44_44': [4341], 's_45_14': [789], 's_45_47': [5078], 's_45_48': [879], 's_45_45': [4668], 's_47_14': [5588, 1544], 's_47_23': [5212], 's_47_47': [1559], 's_48_14': [1379, 5571], 's_48_25': [4190], 's_48_48': [5646, 5647], 's_23_14': [1469], 's_23_23': [292], 's_14_14': [5569, 1019], 's_25_25': [4110]}</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0.0005138888888888888</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.0007519265379799535</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>{0: [3924, 1925, 3921, 3922, 3923], 2: [3682, 1731, 3683, 1729, 1624, 1730, 3758], 5: [1835, 4164, 1836, 4191, 4192, 4193, 4194, 4104, 1791], 8: [1312, 4176, 1413, 1414, 4177, 1416, 1415], 10: [3864, 3666, 3667, 3668, 3669, 1804, 1806, 1805], 13: [3985, 3981, 3984, 3982, 3983], 15: [3757, 1367, 3756, 1371, 1368, 1369, 4101, 1370], 16: [1263, 3909, 3908, 3606, 3607, 1699, 1698, 3608, 1623], 17: [1143, 3906, 3590, 3591, 1386, 1385, 1383, 1384], 18: [1444, 1445, 4162, 1446], 19: [1477, 3787, 1476, 1474, 1475], 23: [3969, 1776, 1745, 1746, 4072, 4073, 4074], 25: [1492, 1491, 4028, 4030, 1775, 4029], 26: [3789, 3788, 1310, 1309, 3790, 3651, 3652, 3653, 1639], 27: [3936, 3939, 3938, 3937], 28: [1820, 3850, 3846, 3847, 3849, 3848], 29: [4163, 1641, 1640, 3726, 3727, 1594, 1579, 3863], 30: [1611, 1610, 1608, 3712, 3713, 1609], 32: [1356, 1353, 1355, 1354], 33: [1447, 3576, 1338, 4207, 1339, 3575, 1340, 1341], 34: [1521, 1520, 3531, 1518, 3532, 1519, 1443, 3577], 35: [1566, 3621, 3622, 1565, 1564, 1563, 3623], 38: [4060, 1821, 4059, 1595, 4057, 4058, 1596], 39: [1267, 3953, 1266, 1264, 3952, 1265, 3951], 40: [1251, 3711, 3741, 1248, 1250, 1249], 43: [3801, 3802, 3803, 3804, 1865, 1864], 44: [4224, 4223, 4222, 1398, 1399, 1400, 1401], 45: [4071, 3516, 4041, 1233, 1235, 1236, 1234], 1: [1504, 1505, 4209, 4208, 1506], 3: [1759, 1760, 4116, 4117, 1761, 4118], 4: [1909, 1910, 4086, 4087, 4088, 4089], 12: [2001, 4150, 1716, 4149, 1295, 1296, 4148, 4147, 4000, 4146], 14: [3861, 4103, 4102, 1461, 3862, 1459, 1460], 21: [3681, 4012, 1173, 1311, 4011, 1174, 1175], 22: [3999, 3996, 3997, 1684, 1685, 3998], 24: [3743, 3636, 1671, 1670, 1669, 3637, 3638], 31: [1654, 3968, 1655, 1657, 1656], 36: [3770, 3771, 3772, 1715, 1714, 3773], 41: [4027, 3786, 1323, 1324, 1326, 1325], 42: [1626, 3819, 1625, 3816, 3817, 3818], 9: [3517, 1431, 1430, 3832, 1429, 1428], 11: [4085, 1188, 1191, 3920, 4026, 1190, 1189], 20: [1462, 3907, 4237, 4238, 1536, 1535, 1534, 3833], 6: [3696, 1551, 1550, 1549, 3697, 3698, 1548], 7: [1490, 3880, 3879, 3876, 3877, 3878], 46: [4056, 3967, 1203, 1204, 3966, 1206, 1205], 48: [3834, 1850, 1851, 4130, 4134, 4132, 4131, 4133], 37: [1294, 1293, 3471, 4236, 1282, 1281, 1280, 1279, 1278], 47: [3980, 1115, 3891, 3892, 3895, 3894, 3893], 49: [1879, 4042, 4043, 4044, 4014, 3954, 1880, 1790]}</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.1595071335927367</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.02652881141277104</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>{0: [3924, 1925, 3921, 3922, 3923], 2: [3682, 1731, 3683, 1729, 1624, 1730, 3758], 5: [1835, 4164, 1836, 4191, 4192, 4193, 4194, 4104, 1791], 8: [1312, 4176, 1413, 1414, 4177, 1416, 1415], 10: [3864, 3666, 3667, 3668, 3669, 1804, 1806, 1805], 13: [3985, 3981, 3984, 3982, 3983], 15: [3757, 1367, 3756, 1371, 1368, 1369, 4101, 1370], 16: [1263, 3909, 3908, 3606, 3607, 1699, 1698, 3608, 1623], 17: [1143, 3906, 3590, 3591, 1386, 1385, 1383, 1384], 18: [1444, 1445, 4162, 1446], 19: [1477, 3787, 1476, 1474, 1475], 23: [3969, 1776, 1745, 1746, 4072, 4073, 4074], 25: [1492, 1491, 4028, 4030, 1775, 4029], 26: [3789, 3788, 1310, 1309, 3790, 3651, 3652, 3653, 1639], 27: [3936, 3939, 3938, 3937], 28: [1820, 3850, 3846, 3847, 3849, 3848], 29: [4163, 1641, 1640, 3726, 3727, 1594, 1579, 3863], 30: [1611, 1610, 1608, 3712, 3713, 1609], 32: [1356, 1353, 1355, 1354], 33: [1447, 3576, 1338, 4207, 1339, 3575, 1340, 1341], 34: [1521, 1520, 3531, 1518, 3532, 1519, 1443, 3577], 35: [1566, 3621, 3622, 1565, 1564, 1563, 3623], 38: [4060, 1821, 4059, 1595, 4057, 4058, 1596], 39: [1267, 3953, 1266, 1264, 3952, 1265, 3951], 40: [1251, 3711, 3741, 1248, 1250, 1249], 43: [3801, 3802, 3803, 3804, 1865, 1864], 44: [4224, 4223, 4222, 1398, 1399, 1400, 1401], 45: [4071, 3516, 4041, 1233, 1235, 1236, 1234], 1: [1504, 1505, 4209, 4208, 1506], 3: [1759, 1760, 4116, 4117, 1761, 4118], 4: [1909, 1910, 4086, 4087, 4088, 4089], 12: [2001, 4150, 1716, 4149, 1295, 1296, 4148, 4147, 4000, 4146], 14: [3861, 4103, 4102, 1461, 3862, 1459, 1460], 21: [3681, 4012, 1173, 1311, 4011, 1174, 1175], 22: [3999, 3996, 3997, 1684, 1685, 3998], 24: [3743, 3636, 1671, 1670, 1669, 3637, 3638], 31: [1654, 3968, 1655, 1657, 1656], 36: [3770, 3771, 3772, 1715, 1714, 3773], 41: [4027, 3786, 1323, 1324, 1326, 1325], 42: [1626, 3819, 1625, 3816, 3817, 3818], 9: [3517, 1431, 1430, 3832, 1429, 1428], 11: [4085, 1188, 1191, 3920, 4026, 1190, 1189], 20: [1462, 3907, 4237, 4238, 1536, 1535, 1534, 3833], 6: [3696, 1551, 1550, 1549, 3697, 3698, 1548], 7: [1490, 3880, 3879, 3876, 3877, 3878], 46: [4056, 3967, 1203, 1204, 3966, 1206, 1205], 48: [3834, 1850, 1851, 4130, 4134, 4132, 4131, 4133], 37: [1294, 1293, 3471, 4236, 1282, 1281, 1280, 1279, 1278], 47: [3980, 1115, 3891, 3892, 3895, 3894, 3893], 49: [1879, 4042, 4043, 4044, 4014, 3954, 1880, 1790]}</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0.1595071335927367</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02652881141277104</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>{0: [978, 1413, 1906, 723, 3384, 3383, 3382, 1412, 3487, 3486, 333, 3586, 3587, 1083, 3588, 3589, 933, 872, 3484, 3485], 2: [292, 291, 290, 3274, 841, 1175, 4011, 3945, 842, 843, 844, 3946, 3948, 845, 3947, 1116, 4009, 4010], 's_0_2': [871], 5: [4165, 3415, 3803, 1744, 3804, 2000, 3805, 1999, 1998, 1997, 3325, 1921, 3219, 3212, 3213, 3214, 3215, 3216, 3217, 2001, 3218], 's_0_5': [3265], 8: [1517, 3323, 1591, 1592, 3502, 1687, 1622, 3503, 1623, 1624, 1598, 1597, 4298, 1627, 1626, 1625], 's_0_8': [1337], 10: [3443, 1210, 1209, 1652, 1653, 1654, 1655, 1656, 1836, 3999, 3998, 1208, 1207, 1837, 1206, 1205, 3996, 3997], 's_0_10': [1562], 13: [977, 1745, 3811, 289, 288, 287, 438, 437, 3421, 3422, 3423, 3940, 3939, 3938, 3937, 1445, 1444, 1443, 1442, 3322, 3321, 3320, 947, 3424], 's_0_13': [3616], 15: [4111, 4036, 1450, 3226, 3211, 4291, 4717, 4716, 4715, 4714, 4713, 376, 459, 4666, 377, 378, 379, 380, 4712, 381, 382, 383, 384], 's_0_15': [3511], 16: [3624, 4523, 4522, 4521, 3623, 1179, 1178, 3625, 1177, 4310, 4082, 1132, 3622, 3621, 3620, 3619, 828, 829, 4175, 4174, 861, 830, 4083], 's_0_16': [873], 17: [1506, 1217, 3952, 1505, 1504, 1218, 409, 1519, 1518, 3607, 3721, 3722, 3723, 813, 3604, 3605, 3606], 's_0_17': [3652], 18: [4389, 4388, 4387, 4386, 4385, 938, 937, 4390, 3438, 677, 678, 3633, 3407, 3634, 934, 935, 936], 's_0_18': [3468], 19: [4397, 874, 4456, 3364, 1037, 3841, 1038, 1039, 472, 471, 470, 469, 3842, 3843, 3844, 3845], 's_0_19': [3544], 23: [2042, 3460, 277, 3459, 3458, 3457, 993, 1397, 1398, 3667, 276, 275, 274, 3781, 3782, 3783, 754, 3664, 3665, 3666], 's_0_23': [3381], 25: [3891, 3893, 1779, 1778, 1777, 1776, 1775, 1802, 3892, 1803, 1804, 1805, 3894], 's_0_25': [3369], 26: [3991, 4532, 458, 1501, 1502, 3442, 1367, 3517, 1293, 3591, 3590, 457, 456, 455, 3992, 3993, 3994, 3995, 1145, 1144, 1143], 's_0_26': [1516], 27: [3228, 3229, 760, 781, 782, 783, 784, 3876, 3875, 759, 758, 757, 756, 755, 3872, 3873, 3874], 's_0_27': [3334], 28: [3696, 1264, 3170, 3877, 1313, 1312, 1311, 1310, 1309, 1051, 1052, 1053, 3650, 3651], 's_0_28': [3515], 29: [4056, 3608, 1251, 4101, 4102, 4103, 1254, 4626, 1343, 1342, 4402, 4403, 3353, 1607, 1608, 1609, 1610, 1611, 1612], 's_0_29': [3488], 30: [587, 3787, 1492, 4012, 1491, 3310, 3668, 1490, 1489, 1488, 3309, 3308, 1487, 3367, 3366, 3303, 737, 3378, 3379, 3380, 3365], 's_0_30': [1711], 32: [601, 602, 603, 4021, 605, 4030, 4029, 4028, 4027, 3647, 4026, 4022, 604, 4023, 4024, 4025], 's_0_32': [483], 33: [3661, 3662, 513, 3814, 859, 858, 1759, 1758, 3563, 3562, 3561, 3557, 3558, 3559, 3560], 's_0_33': [979], 34: [4744, 4742, 1252, 1253, 4538, 4038, 4537, 699, 692, 4536, 4535, 4534, 3618, 693, 694, 695, 4743, 696, 4533, 697, 698], 's_0_34': [798], 35: [4327, 4057, 1862, 1863, 1848, 3729, 3609, 1417, 1416, 1712, 1713, 3728, 1415, 1414, 3727], 's_0_35': [1861], 38: [3276, 1277, 1285, 1278, 1279, 1280, 1284, 4493, 4492, 4491, 1283, 1282, 1281], 's_0_38': [3501], 39: [1621, 1681, 4371, 4369, 4368, 3248, 3247, 3246, 3245, 4370, 3244, 3243, 847, 3242, 496, 497, 498, 499, 500, 501, 502, 4367, 563, 564], 's_0_39': [1546], 40: [684, 683, 646, 1069, 3695, 3694, 647, 648, 3693, 682, 681, 680, 3767, 679], 's_0_40': [618], 43: [1539, 4718, 4135, 4719, 1670, 1172, 4134, 1719, 1718, 1717, 1716, 3531, 1233, 1234, 1235, 1236, 1671, 4131, 4132, 4133], 's_0_43': [3530], 44: [541, 4419, 4418, 4417, 4416, 4415, 982, 1042, 4294, 542, 543, 544, 545, 546, 547, 4292, 4293], 's_0_44': [558], 45: [2029, 2031, 2032, 2033, 2034, 4690, 4689, 4688, 4687, 4686, 4685, 4684, 423, 424, 425, 426, 427, 4441, 4442, 2030, 4443, 848, 849], 's_0_45': [3646], 's_0_0': [1905], 1: [2057, 3430, 3428, 3427, 3426, 4051, 4052, 4053, 4054, 4055, 3429, 1010, 3425, 1007, 1008, 1009], 's_2_1': [260], 3: [4260, 864, 863, 4266, 4265, 4264, 862, 4263, 4262, 4261, 347, 348, 349, 350, 351, 352], 's_2_3': [305, 306, 4186], 4: [802, 1832, 3813, 799, 1833, 1834, 3789, 1879, 4075, 801, 800, 1880, 4069, 4070, 4071, 4072, 4073, 4074], 's_2_4': [951], 's_2_5': [856], 's_2_10': [1340], 12: [753, 4614, 4613, 3453, 662, 4610, 4612, 3362, 527, 4502, 4624, 983, 4489, 4488, 4611, 4487, 528, 529, 530, 531, 532, 533], 's_2_12': [485, 486, 4202, 4201], 's_2_13': [3289], 14: [3346, 3347, 3348, 3349, 3350, 1596, 4163, 4164, 3351, 3352, 4162, 1431, 1430, 1429, 1428, 1427], 's_2_14': [857], 's_2_15': [4290], 's_2_16': [3933], 's_2_19': [4455], 21: [4173, 651, 4216, 1163, 365, 368, 1164, 366, 576, 577, 367, 4306, 4775, 4774, 4773, 4307, 652, 4776, 653, 654], 's_2_21': [4396], 22: [3864, 1389, 994, 4461, 3860, 3861, 3863, 4640, 4641, 1328, 1327, 1326, 4116, 1296, 1295, 3862], 's_2_22': [4115], 24: [4117, 1819, 1820, 3969, 3968, 1550, 1551, 1552, 1583, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433], 's_2_24': [4411], 's_2_26': [3931], 's_2_27': [1040], 's_2_28': [3169], 's_2_29': [4100], 's_2_30': [932], 31: [3846, 1103, 4130, 4222, 4221, 1187, 4490, 1193, 1192, 1191, 1188, 1189, 1190], 's_2_31': [4085], 's_2_32': [320], 's_2_33': [3799], 36: [1044, 1629, 4583, 4582, 4581, 4580, 3500, 4352, 4353, 4505, 1097, 1098, 1099, 3680, 3679, 769, 770, 771, 772, 773, 4473, 4474, 1043], 's_2_36': [3903], 's_2_38': [3981], 41: [4777, 1054, 1055, 1374, 1373, 1372, 1085, 3935, 3936, 1370, 1371], 's_2_41': [3950], 42: [3594, 1893, 1892, 3414, 4219, 925, 924, 923, 3413, 3412, 3411, 3410, 3409, 922, 921, 920, 919, 918, 917], 's_2_42': [3408], 's_2_44': [3932], 's_2_2': [3930], 's_5_1': [1952], 's_5_4': [3700], 's_5_8': [3233], 9: [3400, 1714, 967, 3834, 3565, 3506, 1850, 2072, 2073, 2074, 2075, 4090, 4324, 4325, 1087, 4280, 4281, 4088, 4089, 1851, 1852, 4284, 4283, 4282], 's_5_9': [3925], 11: [1728, 2104, 1548, 3713, 3712, 3716, 3715, 3714], 's_5_11': [1954], 's_5_13': [1411], 's_5_15': [3227], 's_5_16': [1743], 20: [1909, 1476, 833, 832, 1910, 1911, 4398, 637, 4338, 4339, 4340, 578, 4341, 4210, 4209, 4208, 1477, 4342], 's_5_20': [3970], 's_5_22': [1549], 's_5_23': [2043, 3640], 's_5_25': [1801], 's_5_27': [766], 's_5_28': [1066], 's_5_29': [1594], 's_5_30': [3324], 's_5_32': [4045], 's_5_33': [3819], 's_5_35': [3490], 's_5_39': [1276], 's_5_43': [1171], 's_5_44': [556], 's_5_45': [3820], 's_5_5': [3580], 's_8_1': [1637], 's_8_4': [3788], 6: [4357, 4359, 1761, 4358, 1762, 1763, 4569, 665, 4008, 4007, 410, 4568, 4567, 4566, 4565, 4564, 4563, 4562, 414, 413, 412, 411, 4006], 's_8_6': [1732], 7: [4615, 4682, 4683, 804, 4759, 4223, 4225, 4760, 4761, 4762, 4763, 4764, 4765, 4224, 1974, 1968, 1969, 1970, 1973, 1972, 1971], 's_8_7': [1599], 's_8_10': [3638], 's_8_11': [1639], 's_8_13': [3923], 's_8_17': [1458], 's_8_18': [1747], 's_8_20': [4343], 's_8_23': [1547], 's_8_24': [4373], 's_8_30': [1561], 's_8_34': [1688], 's_8_38': [4478], 's_8_39': [3203], 's_8_42': [1382], 46: [1698, 1473, 3521, 3520, 3519, 3399, 3398, 1697, 3473, 663, 3513, 3514, 812, 3469, 3470, 3472, 1263, 3471], 's_8_46': [1638], 48: [1536, 4254, 741, 4253, 4252, 4251, 4250, 1011, 3527, 3528, 708, 709, 710, 711, 4113, 4114], 's_8_48': [1642], 's_8_8': [3173], 's_10_4': [4060], 's_10_11': [3593], 's_10_12': [1224], 's_10_13': [1730], 's_10_16': [4791], 's_10_17': [1535], 's_10_18': [1838], 's_10_21': [1225], 's_10_22': [1269, 4701], 's_10_25': [4314], 's_10_26': [4041], 's_10_28': [4356], 's_10_29': [4551], 's_10_30': [3368], 's_10_31': [4475], 's_10_34': [1223], 's_10_36': [3755, 1204], 37: [636, 1563, 4233, 1564, 1565, 1566, 1567, 4234, 4235, 4236, 1237, 4311, 4312], 's_10_37': [3818], 's_10_38': [3966], 's_10_39': [3293], 's_10_43': [1669], 's_10_44': [4295], 's_10_46': [3489], 's_10_10': [1211], 's_13_1': [1127], 's_13_3': [3466], 's_13_6': [3826], 's_13_9': [2090], 's_13_11': [2105], 's_13_15': [3676], 's_13_18': [3406], 's_13_19': [319], 's_13_20': [1475], 's_13_21': [3886], 's_13_22': [1640], 's_13_23': [1396], 's_13_24': [3984], 's_13_25': [1460], 's_13_26': [3277], 's_13_28': [1021], 's_13_30': [1141], 's_13_32': [1895], 's_13_35': [3697], 's_13_36': [962, 961], 's_13_39': [1231], 's_13_40': [632], 's_13_41': [3982], 's_13_42': [3319], 's_13_43': [3532], 's_13_44': [3437], 's_13_45': [3601], 47: [879, 4594, 4593, 608, 3637, 877, 623, 622, 621, 3726, 4203, 4204, 1368, 1369, 3921, 3920, 3919, 875, 876], 's_13_47': [3817], 's_13_48': [3526], 49: [3785, 4444, 906, 1028, 4084, 1789, 1790, 1791, 1027, 4194, 4193, 1023, 1024, 1025, 1026, 4190, 4191, 4192], 's_13_49': [3954], 's_13_13': [286], 's_15_1': [231], 's_15_3': [3451], 's_15_7': [1315], 's_15_14': [466], 's_15_16': [4731], 's_15_17': [3736], 's_15_19': [487], 's_15_23': [4381], 's_15_27': [775], 's_15_29': [1404], 's_15_34': [550], 's_15_38': [1270], 's_15_39': [3541], 's_15_41': [4732], 's_15_42': [4729], 's_15_43': [4807], 's_15_44': [4112], 's_15_45': [894], 's_15_15': [3225], 's_16_3': [1117], 's_16_4': [1056], 's_16_7': [1509, 1508], 's_16_20': [952], 's_16_21': [591], 's_16_22': [4460], 's_16_23': [1173], 's_16_24': [1388], 's_16_25': [4524], 's_16_26': [1068], 's_16_29': [4746], 's_16_30': [1593], 's_16_31': [4445], 's_16_33': [827], 's_16_35': [1773], 's_16_38': [1613], 's_16_39': [1072], 's_16_41': [1358], 's_16_43': [1203], 's_16_44': [4097], 's_16_45': [1194], 's_16_47': [1338], 's_16_49': [4520], 's_16_16': [1057], 's_17_6': [664], 's_17_11': [3698], 's_17_14': [1202], 's_17_19': [3766], 's_17_22': [1219], 's_17_27': [814], 's_17_29': [3683], 's_17_32': [574], 's_17_35': [3772], 's_17_36': [3575], 's_17_37': [4087], 's_17_38': [1216], 's_17_39': [3751], 's_17_40': [739], 's_17_43': [3681], 's_17_48': [4238], 's_17_49': [3724], 's_17_17': [394], 's_18_1': [3754], 's_18_3': [1146, 1147], 's_18_9': [1853], 's_18_12': [939], 's_18_14': [3333], 's_18_19': [3739], 's_18_20': [1522], 's_18_24': [1463], 's_18_29': [1628], 's_18_30': [572], 's_18_32': [3572], 's_18_33': [3784], 's_18_34': [633], 's_18_36': [953], 's_18_38': [1658], 's_18_41': [3934], 's_18_42': [4144], 's_18_47': [3964], 's_18_48': [617], 's_18_49': [3635], 's_18_18': [767], 's_19_1': [3830], 's_19_3': [353], 's_19_6': [4232], 's_19_12': [4322], 's_19_20': [4457], 's_19_21': [4305, 217, 216, 215], 's_19_23': [619], 's_19_24': [398], 's_19_28': [1036], 's_19_30': [1022], 's_19_32': [3797], 's_19_34': [3858], 's_19_36': [517], 's_19_41': [1100], 's_19_42': [3829], 's_19_44': [3827], 's_19_47': [950], 's_19_49': [3710], 's_19_19': [439], 's_23_3': [4275], 's_23_4': [649], 's_23_9': [3491], 's_23_12': [514], 's_23_14': [3682], 's_23_21': [4231], 's_23_22': [1399], 's_23_24': [1818], 's_23_25': [3474], 's_23_28': [1129], 's_23_31': [3456], 's_23_33': [1532], 's_23_35': [1727], 's_23_36': [3753], 's_23_38': [3396], 's_23_44': [559], 's_23_45': [4336], 's_23_47': [1294], 's_23_48': [3768], 's_23_49': [3574], 's_23_23': [3780], 's_25_1': [3444], 's_25_4': [3759], 's_25_6': [4509], 's_25_7': [4749], 's_25_12': [1794], 's_25_14': [1806], 's_25_22': [1354], 's_25_27': [3890], 's_25_29': [4404], 's_25_35': [3744], 's_25_43': [4374], 's_25_44': [1793], 's_25_47': [1324], 's_25_48': [4239], 's_25_25': [4464], 's_26_3': [4126], 's_26_4': [1101], 's_26_6': [440], 's_26_14': [3547], 's_26_22': [1159], 's_26_24': [503], 's_26_27': [785], 's_26_29': [3518], 's_26_31': [3770], 's_26_34': [620], 's_26_39': [4081], 's_26_40': [3725], 's_26_44': [4172], 's_26_45': [4276], 's_26_46': [1472], 's_26_47': [4517], 's_26_49': [3980], 's_26_26': [3262], 's_27_4': [4158], 's_27_7': [1014, 4804, 4803], 's_27_12': [661, 3273], 's_27_14': [811], 's_27_20': [4638], 's_27_22': [1130], 's_27_28': [3230], 's_27_31': [1115], 's_27_32': [3888], 's_27_33': [964], 's_27_34': [774], 's_27_36': [4308], 's_27_37': [4188], 's_27_39': [796], 's_27_41': [1070], 's_27_42': [4789], 's_27_43': [1250], 's_27_44': [560], 's_27_45': [3887], 's_27_48': [4143], 's_27_27': [4848], 's_28_3': [1297], 's_28_9': [3879, 3878], 's_28_14': [3335], 's_28_22': [1339], 's_28_24': [1298], 's_28_29': [4176], 's_28_31': [3636], 's_28_32': [1385], 's_28_35': [4207], 's_28_36': [3290], 's_28_37': [4296], 's_28_38': [4086], 's_28_39': [3260], 's_28_40': [1084], 's_28_43': [3711], 's_28_46': [3455], 's_28_48': [4237], 's_28_28': [3200], 's_29_4': [1401], 's_29_6': [1299], 's_29_9': [1641], 's_29_20': [4043], 's_29_24': [4148], 's_29_30': [1606], 's_29_32': [1685], 's_29_33': [1668], 's_29_34': [4446], 's_29_35': [4058], 's_29_36': [1314], 's_29_38': [4401], 's_29_39': [1531], 's_29_42': [1577], 's_29_45': [1239], 's_29_49': [4104], 's_29_29': [3908], 's_30_1': [1112], 's_30_4': [1847], 's_30_7': [1967, 1966], 's_30_9': [1982], 's_30_12': [616], 's_30_20': [4147], 's_30_24': [3669], 's_30_32': [1520], 's_30_34': [691], 's_30_35': [3922], 's_30_36': [992, 991], 's_30_37': [3907], 's_30_38': [1262], 's_30_40': [631], 's_30_41': [1355], 's_30_42': [1067], 's_30_43': [1461], 's_30_49': [3786], 's_30_30': [3393], 's_32_3': [3571, 453, 3602], 's_32_4': [815], 's_32_6': [396], 's_32_12': [3962], 's_32_21': [4068], 's_32_22': [1325], 's_32_24': [1595], 's_32_33': [1760], 's_32_35': [1446], 's_32_36': [3678], 's_32_38': [1266], 's_32_39': [3257], 's_32_40': [589], 's_32_41': [1220], 's_32_42': [4039], 's_32_44': [3452], 's_32_48': [3663], 's_32_32': [1925], 's_33_1': [1352], 's_33_3': [3556], 's_33_4': [3564], 's_33_9': [3773], 's_33_11': [3699], 's_33_36': [3545], 's_33_37': [1578], 's_33_42': [1157], 's_33_43': [1128], 's_33_46': [1757], 's_33_48': [588], 's_33_33': [3578], 's_34_1': [726], 's_34_3': [4623], 's_34_6': [1703], 's_34_7': [1675, 1674], 's_34_20': [4549], 's_34_21': [4758], 's_34_22': [1148], 's_34_24': [893], 's_34_36': [4518], 's_34_40': [4413], 's_34_44': [4037], 's_34_46': [3648], 's_34_47': [4608], 's_34_48': [4128], 's_34_34': [700], 's_35_6': [1418], 's_35_9': [1849], 's_35_11': [1939], 's_35_20': [4297], 's_35_22': [3847], 's_35_24': [3639], 's_35_31': [1462], 's_35_37': [1579], 's_35_46': [3743], 's_35_47': [3832], 's_35_48': [1432], 's_35_35': [3505], 's_38_1': [1292], 's_38_6': [1238], 's_38_7': [1434, 4627, 1538], 's_38_14': [1321], 's_38_20': [4326], 's_38_22': [3906], 's_38_24': [1433], 's_38_31': [4506], 's_38_43': [3801], 's_38_44': [1643], 's_38_46': [3576], 's_38_47': [3741], 's_38_38': [3291], 's_39_4': [1831, 3249], 's_39_6': [4366], 's_39_7': [549], 's_39_9': [1222], 's_39_12': [526, 3197, 676], 's_39_22': [1118, 1119], 's_39_31': [1088], 's_39_37': [667], 's_39_40': [4622], 's_39_42': [1682], 's_39_44': [3152], 's_39_45': [743], 's_39_47': [4187], 's_39_48': [3512], 's_39_49': [908], 's_39_39': [3143], 's_40_4': [3828], 's_40_6': [668], 's_40_7': [4653, 4652], 's_40_21': [4667], 's_40_37': [4127], 's_40_41': [3815], 's_40_42': [4218], 's_40_45': [3692], 's_40_46': [3542], 's_40_40': [645], 's_43_4': [4059], 's_43_6': [4463], 's_43_7': [1869], 's_43_9': [1731], 's_43_22': [4146], 's_43_37': [3983], 's_43_41': [3951], 's_43_42': [1232], 's_43_44': [4434], 's_43_46': [3516], 's_43_47': [1249], 's_43_48': [1686], 's_43_49': [1701], 's_43_43': [4733], 's_44_1': [4067], 's_44_6': [1448], 's_44_12': [3917], 's_44_14': [557], 's_44_20': [1357], 's_44_31': [1133], 's_44_36': [607], 's_44_47': [4157], 's_44_48': [1537], 's_44_49': [4400], 's_44_44': [3317], 's_45_9': [3896], 's_45_11': [3745], 's_45_21': [969], 's_45_22': [4702], 's_45_24': [1584], 's_45_36': [4703], 's_45_41': [1359], 's_45_49': [4195], 's_45_45': [4226], 's_1_3': [336], 's_1_4': [1071], 's_1_6': [561], 's_1_9': [2012], 's_1_12': [516], 's_1_14': [1307], 's_1_21': [4066], 's_1_22': [3769], 's_1_31': [1086], 's_1_42': [1772], 's_1_47': [846], 's_1_49': [3949], 's_1_1': [245], 's_3_4': [4278], 's_3_6': [3976], 's_3_7': [1149, 4700, 4699], 's_3_9': [4279], 's_3_12': [3631, 3632], 's_3_14': [3331], 's_3_20': [4519], 's_3_21': [865], 's_3_22': [1268, 1267], 's_3_31': [1176], 's_3_36': [4351, 322], 's_3_37': [606], 's_3_42': [4609], 's_3_47': [727], 's_3_3': [172], 's_4_6': [3978], 's_4_11': [1729], 's_4_21': [4323], 's_4_22': [3865], 's_4_24': [3909], 's_4_31': [1386], 's_4_36': [3918], 's_4_41': [1160], 's_4_42': [786], 's_4_48': [3798], 's_4_49': [980], 's_4_4': [4076], 's_12_6': [1764], 's_12_7': [534], 's_12_14': [3454, 887], 's_12_20': [818], 's_12_21': [4217, 562], 's_12_22': [1059], 's_12_24': [1553], 's_12_31': [4625], 's_12_36': [954], 's_12_41': [4597], 's_12_46': [797], 's_12_47': [4547], 's_12_48': [738], 's_12_12': [3707], 's_14_6': [4118], 's_14_9': [1866], 's_14_7': [1521], 's_14_31': [1356], 's_14_42': [1247], 's_14_46': [3397], 's_14_47': [3802], 's_14_14': [407], 's_21_6': [4486], 's_21_7': [609, 4817], 's_21_22': [1075, 1074], 's_21_36': [4503], 's_21_41': [1060, 4805, 4806], 's_21_42': [910], 's_21_21': [1030], 's_22_7': [1329], 's_22_24': [4462], 's_22_36': [1089, 4595], 's_22_37': [3848], 's_22_48': [1341], 's_22_49': [995], 's_22_22': [1384], 's_24_6': [518], 's_24_9': [1162], 's_24_31': [1058], 's_24_42': [4414], 's_24_49': [3774], 's_24_36': [878], 's_24_37': [4328], 's_24_48': [1012], 's_24_24': [233], 's_31_6': [1073], 's_31_20': [1102], 's_31_36': [3740], 's_31_42': [4129], 's_31_48': [1447], 's_31_31': [1186], 's_36_47': [3889], 's_36_49': [3800], 's_36_7': [1524, 1523], 's_36_20': [4504], 's_36_37': [4249], 's_36_36': [4628], 's_41_6': [4372], 's_41_49': [3965], 's_41_20': [4177], 's_41_41': [4476], 's_42_9': [4459], 's_42_7': [3595], 's_42_11': [1878], 's_42_20': [1894], 's_42_37': [816], 's_42_46': [1787], 's_42_47': [3904], 's_42_48': [891], 's_42_49': [4309], 's_42_42': [3394], 's_9_7': [4105], 's_9_20': [4269], 's_9_37': [966], 's_9_46': [2118], 's_9_47': [4354], 's_9_49': [4014], 's_9_9': [3476], 's_11_47': [1323], 's_11_7': [3670, 1908], 's_11_37': [3653], 's_11_46': [3684], 's_11_11': [3717], 's_20_49': [4119], 's_20_7': [1881], 's_20_37': [712], 's_20_20': [4180], 's_6_7': [4570], 's_6_48': [3963], 's_6_6': [4546], 's_7_47': [624], 's_7_49': [1029], 's_7_46': [3535], 's_7_48': [4255], 's_7_7': [1899, 1898], 's_46_48': [3603], 's_46_46': [1788], 's_48_47': [4205], 's_48_49': [4145], 's_48_48': [452], 's_37_37': [4313], 's_47_49': [4159], 's_47_47': [4472], 's_49_49': [4550]}</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E97" t="n">
         <v>0.00102820874471086</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F97" t="n">
         <v>0.001006818073793873</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G97" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H97" t="inlineStr">
         <is>
           <t>{0: [978, 1413, 1906, 723, 3384, 3383, 3382, 1412, 3487, 3486, 333, 3586, 3587, 1083, 3588, 3589, 933, 872, 3484, 3485], 2: [292, 291, 290, 3274, 841, 1175, 4011, 3945, 842, 843, 844, 3946, 3948, 845, 3947, 1116, 4009, 4010], 's_0_2': [871], 5: [4165, 3415, 3803, 1744, 3804, 2000, 3805, 1999, 1998, 1997, 3325, 1921, 3219, 3212, 3213, 3214, 3215, 3216, 3217, 2001, 3218], 's_0_5': [3265], 8: [1517, 3323, 1591, 1592, 3502, 1687, 1622, 3503, 1623, 1624, 1598, 1597, 4298, 1627, 1626, 1625], 's_0_8': [1337], 10: [3443, 1210, 1209, 1652, 1653, 1654, 1655, 1656, 1836, 3999, 3998, 1208, 1207, 1837, 1206, 1205, 3996, 3997], 's_0_10': [1562], 13: [977, 1745, 3811, 289, 288, 287, 438, 437, 3421, 3422, 3423, 3940, 3939, 3938, 3937, 1445, 1444, 1443, 1442, 3322, 3321, 3320, 947, 3424], 's_0_13': [3616], 15: [4111, 4036, 1450, 3226, 3211, 4291, 4717, 4716, 4715, 4714, 4713, 376, 459, 4666, 377, 378, 379, 380, 4712, 381, 382, 383, 384], 's_0_15': [3511], 16: [3624, 4523, 4522, 4521, 3623, 1179, 1178, 3625, 1177, 4310, 4082, 1132, 3622, 3621, 3620, 3619, 828, 829, 4175, 4174, 861, 830, 4083], 's_0_16': [873], 17: [1506, 1217, 3952, 1505, 1504, 1218, 409, 1519, 1518, 3607, 3721, 3722, 3723, 813, 3604, 3605, 3606], 's_0_17': [3652], 18: [4389, 4388, 4387, 4386, 4385, 938, 937, 4390, 3438, 677, 678, 3633, 3407, 3634, 934, 935, 936], 's_0_18': [3468], 19: [4397, 874, 4456, 3364, 1037, 3841, 1038, 1039, 472, 471, 470, 469, 3842, 3843, 3844, 3845], 's_0_19': [3544], 23: [2042, 3460, 277, 3459, 3458, 3457, 993, 1397, 1398, 3667, 276, 275, 274, 3781, 3782, 3783, 754, 3664, 3665, 3666], 's_0_23': [3381], 25: [3891, 3893, 1779, 1778, 1777, 1776, 1775, 1802, 3892, 1803, 1804, 1805, 3894], 's_0_25': [3369], 26: [3991, 4532, 458, 1501, 1502, 3442, 1367, 3517, 1293, 3591, 3590, 457, 456, 455, 3992, 3993, 3994, 3995, 1145, 1144, 1143], 's_0_26': [1516], 27: [3228, 3229, 760, 781, 782, 783, 784, 3876, 3875, 759, 758, 757, 756, 755, 3872, 3873, 3874], 's_0_27': [3334], 28: [3696, 1264, 3170, 3877, 1313, 1312, 1311, 1310, 1309, 1051, 1052, 1053, 3650, 3651], 's_0_28': [3515], 29: [4056, 3608, 1251, 4101, 4102, 4103, 1254, 4626, 1343, 1342, 4402, 4403, 3353, 1607, 1608, 1609, 1610, 1611, 1612], 's_0_29': [3488], 30: [587, 3787, 1492, 4012, 1491, 3310, 3668, 1490, 1489, 1488, 3309, 3308, 1487, 3367, 3366, 3303, 737, 3378, 3379, 3380, 3365], 's_0_30': [1711], 32: [601, 602, 603, 4021, 605, 4030, 4029, 4028, 4027, 3647, 4026, 4022, 604, 4023, 4024, 4025], 's_0_32': [483], 33: [3661, 3662, 513, 3814, 859, 858, 1759, 1758, 3563, 3562, 3561, 3557, 3558, 3559, 3560], 's_0_33': [979], 34: [4744, 4742, 1252, 1253, 4538, 4038, 4537, 699, 692, 4536, 4535, 4534, 3618, 693, 694, 695, 4743, 696, 4533, 697, 698], 's_0_34': [798], 35: [4327, 4057, 1862, 1863, 1848, 3729, 3609, 1417, 1416, 1712, 1713, 3728, 1415, 1414, 3727], 's_0_35': [1861], 38: [3276, 1277, 1285, 1278, 1279, 1280, 1284, 4493, 4492, 4491, 1283, 1282, 1281], 's_0_38': [3501], 39: [1621, 1681, 4371, 4369, 4368, 3248, 3247, 3246, 3245, 4370, 3244, 3243, 847, 3242, 496, 497, 498, 499, 500, 501, 502, 4367, 563, 564], 's_0_39': [1546], 40: [684, 683, 646, 1069, 3695, 3694, 647, 648, 3693, 682, 681, 680, 3767, 679], 's_0_40': [618], 43: [1539, 4718, 4135, 4719, 1670, 1172, 4134, 1719, 1718, 1717, 1716, 3531, 1233, 1234, 1235, 1236, 1671, 4131, 4132, 4133], 's_0_43': [3530], 44: [541, 4419, 4418, 4417, 4416, 4415, 982, 1042, 4294, 542, 543, 544, 545, 546, 547, 4292, 4293], 's_0_44': [558], 45: [2029, 2031, 2032, 2033, 2034, 4690, 4689, 4688, 4687, 4686, 4685, 4684, 423, 424, 425, 426, 427, 4441, 4442, 2030, 4443, 848, 849], 's_0_45': [3646], 's_0_0': [1905], 1: [2057, 3430, 3428, 3427, 3426, 4051, 4052, 4053, 4054, 4055, 3429, 1010, 3425, 1007, 1008, 1009], 's_2_1': [260], 3: [4260, 864, 863, 4266, 4265, 4264, 862, 4263, 4262, 4261, 347, 348, 349, 350, 351, 352], 's_2_3': [305, 306, 4186], 4: [802, 1832, 3813, 799, 1833, 1834, 3789, 1879, 4075, 801, 800, 1880, 4069, 4070, 4071, 4072, 4073, 4074], 's_2_4': [951], 's_2_5': [856], 's_2_10': [1340], 12: [753, 4614, 4613, 3453, 662, 4610, 4612, 3362, 527, 4502, 4624, 983, 4489, 4488, 4611, 4487, 528, 529, 530, 531, 532, 533], 's_2_12': [485, 486, 4202, 4201], 's_2_13': [3289], 14: [3346, 3347, 3348, 3349, 3350, 1596, 4163, 4164, 3351, 3352, 4162, 1431, 1430, 1429, 1428, 1427], 's_2_14': [857], 's_2_15': [4290], 's_2_16': [3933], 's_2_19': [4455], 21: [4173, 651, 4216, 1163, 365, 368, 1164, 366, 576, 577, 367, 4306, 4775, 4774, 4773, 4307, 652, 4776, 653, 654], 's_2_21': [4396], 22: [3864, 1389, 994, 4461, 3860, 3861, 3863, 4640, 4641, 1328, 1327, 1326, 4116, 1296, 1295, 3862], 's_2_22': [4115], 24: [4117, 1819, 1820, 3969, 3968, 1550, 1551, 1552, 1583, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433], 's_2_24': [4411], 's_2_26': [3931], 's_2_27': [1040], 's_2_28': [3169], 's_2_29': [4100], 's_2_30': [932], 31: [3846, 1103, 4130, 4222, 4221, 1187, 4490, 1193, 1192, 1191, 1188, 1189, 1190], 's_2_31': [4085], 's_2_32': [320], 's_2_33': [3799], 36: [1044, 1629, 4583, 4582, 4581, 4580, 3500, 4352, 4353, 4505, 1097, 1098, 1099, 3680, 3679, 769, 770, 771, 772, 773, 4473, 4474, 1043], 's_2_36': [3903], 's_2_38': [3981], 41: [4777, 1054, 1055, 1374, 1373, 1372, 1085, 3935, 3936, 1370, 1371], 's_2_41': [3950], 42: [3594, 1893, 1892, 3414, 4219, 925, 924, 923, 3413, 3412, 3411, 3410, 3409, 922, 921, 920, 919, 918, 917], 's_2_42': [3408], 's_2_44': [3932], 's_2_2': [3930], 's_5_1': [1952], 's_5_4': [3700], 's_5_8': [3233], 9: [3400, 1714, 967, 3834, 3565, 3506, 1850, 2072, 2073, 2074, 2075, 4090, 4324, 4325, 1087, 4280, 4281, 4088, 4089, 1851, 1852, 4284, 4283, 4282], 's_5_9': [3925], 11: [1728, 2104, 1548, 3713, 3712, 3716, 3715, 3714], 's_5_11': [1954], 's_5_13': [1411], 's_5_15': [3227], 's_5_16': [1743], 20: [1909, 1476, 833, 832, 1910, 1911, 4398, 637, 4338, 4339, 4340, 578, 4341, 4210, 4209, 4208, 1477, 4342], 's_5_20': [3970], 's_5_22': [1549], 's_5_23': [2043, 3640], 's_5_25': [1801], 's_5_27': [766], 's_5_28': [1066], 's_5_29': [1594], 's_5_30': [3324], 's_5_32': [4045], 's_5_33': [3819], 's_5_35': [3490], 's_5_39': [1276], 's_5_43': [1171], 's_5_44': [556], 's_5_45': [3820], 's_5_5': [3580], 's_8_1': [1637], 's_8_4': [3788], 6: [4357, 4359, 1761, 4358, 1762, 1763, 4569, 665, 4008, 4007, 410, 4568, 4567, 4566, 4565, 4564, 4563, 4562, 414, 413, 412, 411, 4006], 's_8_6': [1732], 7: [4615, 4682, 4683, 804, 4759, 4223, 4225, 4760, 4761, 4762, 4763, 4764, 4765, 4224, 1974, 1968, 1969, 1970, 1973, 1972, 1971], 's_8_7': [1599], 's_8_10': [3638], 's_8_11': [1639], 's_8_13': [3923], 's_8_17': [1458], 's_8_18': [1747], 's_8_20': [4343], 's_8_23': [1547], 's_8_24': [4373], 's_8_30': [1561], 's_8_34': [1688], 's_8_38': [4478], 's_8_39': [3203], 's_8_42': [1382], 46: [1698, 1473, 3521, 3520, 3519, 3399, 3398, 1697, 3473, 663, 3513, 3514, 812, 3469, 3470, 3472, 1263, 3471], 's_8_46': [1638], 48: [1536, 4254, 741, 4253, 4252, 4251, 4250, 1011, 3527, 3528, 708, 709, 710, 711, 4113, 4114], 's_8_48': [1642], 's_8_8': [3173], 's_10_4': [4060], 's_10_11': [3593], 's_10_12': [1224], 's_10_13': [1730], 's_10_16': [4791], 's_10_17': [1535], 's_10_18': [1838], 's_10_21': [1225], 's_10_22': [1269, 4701], 's_10_25': [4314], 's_10_26': [4041], 's_10_28': [4356], 's_10_29': [4551], 's_10_30': [3368], 's_10_31': [4475], 's_10_34': [1223], 's_10_36': [3755, 1204], 37: [636, 1563, 4233, 1564, 1565, 1566, 1567, 4234, 4235, 4236, 1237, 4311, 4312], 's_10_37': [3818], 's_10_38': [3966], 's_10_39': [3293], 's_10_43': [1669], 's_10_44': [4295], 's_10_46': [3489], 's_10_10': [1211], 's_13_1': [1127], 's_13_3': [3466], 's_13_6': [3826], 's_13_9': [2090], 's_13_11': [2105], 's_13_15': [3676], 's_13_18': [3406], 's_13_19': [319], 's_13_20': [1475], 's_13_21': [3886], 's_13_22': [1640], 's_13_23': [1396], 's_13_24': [3984], 's_13_25': [1460], 's_13_26': [3277], 's_13_28': [1021], 's_13_30': [1141], 's_13_32': [1895], 's_13_35': [3697], 's_13_36': [962, 961], 's_13_39': [1231], 's_13_40': [632], 's_13_41': [3982], 's_13_42': [3319], 's_13_43': [3532], 's_13_44': [3437], 's_13_45': [3601], 47: [879, 4594, 4593, 608, 3637, 877, 623, 622, 621, 3726, 4203, 4204, 1368, 1369, 3921, 3920, 3919, 875, 876], 's_13_47': [3817], 's_13_48': [3526], 49: [3785, 4444, 906, 1028, 4084, 1789, 1790, 1791, 1027, 4194, 4193, 1023, 1024, 1025, 1026, 4190, 4191, 4192], 's_13_49': [3954], 's_13_13': [286], 's_15_1': [231], 's_15_3': [3451], 's_15_7': [1315], 's_15_14': [466], 's_15_16': [4731], 's_15_17': [3736], 's_15_19': [487], 's_15_23': [4381], 's_15_27': [775], 's_15_29': [1404], 's_15_34': [550], 's_15_38': [1270], 's_15_39': [3541], 's_15_41': [4732], 's_15_42': [4729], 's_15_43': [4807], 's_15_44': [4112], 's_15_45': [894], 's_15_15': [3225], 's_16_3': [1117], 's_16_4': [1056], 's_16_7': [1509, 1508], 's_16_20': [952], 's_16_21': [591], 's_16_22': [4460], 's_16_23': [1173], 's_16_24': [1388], 's_16_25': [4524], 's_16_26': [1068], 's_16_29': [4746], 's_16_30': [1593], 's_16_31': [4445], 's_16_33': [827], 's_16_35': [1773], 's_16_38': [1613], 's_16_39': [1072], 's_16_41': [1358], 's_16_43': [1203], 's_16_44': [4097], 's_16_45': [1194], 's_16_47': [1338], 's_16_49': [4520], 's_16_16': [1057], 's_17_6': [664], 's_17_11': [3698], 's_17_14': [1202], 's_17_19': [3766], 's_17_22': [1219], 's_17_27': [814], 's_17_29': [3683], 's_17_32': [574], 's_17_35': [3772], 's_17_36': [3575], 's_17_37': [4087], 's_17_38': [1216], 's_17_39': [3751], 's_17_40': [739], 's_17_43': [3681], 's_17_48': [4238], 's_17_49': [3724], 's_17_17': [394], 's_18_1': [3754], 's_18_3': [1146, 1147], 's_18_9': [1853], 's_18_12': [939], 's_18_14': [3333], 's_18_19': [3739], 's_18_20': [1522], 's_18_24': [1463], 's_18_29': [1628], 's_18_30': [572], 's_18_32': [3572], 's_18_33': [3784], 's_18_34': [633], 's_18_36': [953], 's_18_38': [1658], 's_18_41': [3934], 's_18_42': [4144], 's_18_47': [3964], 's_18_48': [617], 's_18_49': [3635], 's_18_18': [767], 's_19_1': [3830], 's_19_3': [353], 's_19_6': [4232], 's_19_12': [4322], 's_19_20': [4457], 's_19_21': [4305, 217, 216, 215], 's_19_23': [619], 's_19_24': [398], 's_19_28': [1036], 's_19_30': [1022], 's_19_32': [3797], 's_19_34': [3858], 's_19_36': [517], 's_19_41': [1100], 's_19_42': [3829], 's_19_44': [3827], 's_19_47': [950], 's_19_49': [3710], 's_19_19': [439], 's_23_3': [4275], 's_23_4': [649], 's_23_9': [3491], 's_23_12': [514], 's_23_14': [3682], 's_23_21': [4231], 's_23_22': [1399], 's_23_24': [1818], 's_23_25': [3474], 's_23_28': [1129], 's_23_31': [3456], 's_23_33': [1532], 's_23_35': [1727], 's_23_36': [3753], 's_23_38': [3396], 's_23_44': [559], 's_23_45': [4336], 's_23_47': [1294], 's_23_48': [3768], 's_23_49': [3574], 's_23_23': [3780], 's_25_1': [3444], 's_25_4': [3759], 's_25_6': [4509], 's_25_7': [4749], 's_25_12': [1794], 's_25_14': [1806], 's_25_22': [1354], 's_25_27': [3890], 's_25_29': [4404], 's_25_35': [3744], 's_25_43': [4374], 's_25_44': [1793], 's_25_47': [1324], 's_25_48': [4239], 's_25_25': [4464], 's_26_3': [4126], 's_26_4': [1101], 's_26_6': [440], 's_26_14': [3547], 's_26_22': [1159], 's_26_24': [503], 's_26_27': [785], 's_26_29': [3518], 's_26_31': [3770], 's_26_34': [620], 's_26_39': [4081], 's_26_40': [3725], 's_26_44': [4172], 's_26_45': [4276], 's_26_46': [1472], 's_26_47': [4517], 's_26_49': [3980], 's_26_26': [3262], 's_27_4': [4158], 's_27_7': [1014, 4804, 4803], 's_27_12': [661, 3273], 's_27_14': [811], 's_27_20': [4638], 's_27_22': [1130], 's_27_28': [3230], 's_27_31': [1115], 's_27_32': [3888], 's_27_33': [964], 's_27_34': [774], 's_27_36': [4308], 's_27_37': [4188], 's_27_39': [796], 's_27_41': [1070], 's_27_42': [4789], 's_27_43': [1250], 's_27_44': [560], 's_27_45': [3887], 's_27_48': [4143], 's_27_27': [4848], 's_28_3': [1297], 's_28_9': [3879, 3878], 's_28_14': [3335], 's_28_22': [1339], 's_28_24': [1298], 's_28_29': [4176], 's_28_31': [3636], 's_28_32': [1385], 's_28_35': [4207], 's_28_36': [3290], 's_28_37': [4296], 's_28_38': [4086], 's_28_39': [3260], 's_28_40': [1084], 's_28_43': [3711], 's_28_46': [3455], 's_28_48': [4237], 's_28_28': [3200], 's_29_4': [1401], 's_29_6': [1299], 's_29_9': [1641], 's_29_20': [4043], 's_29_24': [4148], 's_29_30': [1606], 's_29_32': [1685], 's_29_33': [1668], 's_29_34': [4446], 's_29_35': [4058], 's_29_36': [1314], 's_29_38': [4401], 's_29_39': [1531], 's_29_42': [1577], 's_29_45': [1239], 's_29_49': [4104], 's_29_29': [3908], 's_30_1': [1112], 's_30_4': [1847], 's_30_7': [1967, 1966], 's_30_9': [1982], 's_30_12': [616], 's_30_20': [4147], 's_30_24': [3669], 's_30_32': [1520], 's_30_34': [691], 's_30_35': [3922], 's_30_36': [992, 991], 's_30_37': [3907], 's_30_38': [1262], 's_30_40': [631], 's_30_41': [1355], 's_30_42': [1067], 's_30_43': [1461], 's_30_49': [3786], 's_30_30': [3393], 's_32_3': [3571, 453, 3602], 's_32_4': [815], 's_32_6': [396], 's_32_12': [3962], 's_32_21': [4068], 's_32_22': [1325], 's_32_24': [1595], 's_32_33': [1760], 's_32_35': [1446], 's_32_36': [3678], 's_32_38': [1266], 's_32_39': [3257], 's_32_40': [589], 's_32_41': [1220], 's_32_42': [4039], 's_32_44': [3452], 's_32_48': [3663], 's_32_32': [1925], 's_33_1': [1352], 's_33_3': [3556], 's_33_4': [3564], 's_33_9': [3773], 's_33_11': [3699], 's_33_36': [3545], 's_33_37': [1578], 's_33_42': [1157], 's_33_43': [1128], 's_33_46': [1757], 's_33_48': [588], 's_33_33': [3578], 's_34_1': [726], 's_34_3': [4623], 's_34_6': [1703], 's_34_7': [1675, 1674], 's_34_20': [4549], 's_34_21': [4758], 's_34_22': [1148], 's_34_24': [893], 's_34_36': [4518], 's_34_40': [4413], 's_34_44': [4037], 's_34_46': [3648], 's_34_47': [4608], 's_34_48': [4128], 's_34_34': [700], 's_35_6': [1418], 's_35_9': [1849], 's_35_11': [1939], 's_35_20': [4297], 's_35_22': [3847], 's_35_24': [3639], 's_35_31': [1462], 's_35_37': [1579], 's_35_46': [3743], 's_35_47': [3832], 's_35_48': [1432], 's_35_35': [3505], 's_38_1': [1292], 's_38_6': [1238], 's_38_7': [1434, 4627, 1538], 's_38_14': [1321], 's_38_20': [4326], 's_38_22': [3906], 's_38_24': [1433], 's_38_31': [4506], 's_38_43': [3801], 's_38_44': [1643], 's_38_46': [3576], 's_38_47': [3741], 's_38_38': [3291], 's_39_4': [1831, 3249], 's_39_6': [4366], 's_39_7': [549], 's_39_9': [1222], 's_39_12': [526, 3197, 676], 's_39_22': [1118, 1119], 's_39_31': [1088], 's_39_37': [667], 's_39_40': [4622], 's_39_42': [1682], 's_39_44': [3152], 's_39_45': [743], 's_39_47': [4187], 's_39_48': [3512], 's_39_49': [908], 's_39_39': [3143], 's_40_4': [3828], 's_40_6': [668], 's_40_7': [4653, 4652], 's_40_21': [4667], 's_40_37': [4127], 's_40_41': [3815], 's_40_42': [4218], 's_40_45': [3692], 's_40_46': [3542], 's_40_40': [645], 's_43_4': [4059], 's_43_6': [4463], 's_43_7': [1869], 's_43_9': [1731], 's_43_22': [4146], 's_43_37': [3983], 's_43_41': [3951], 's_43_42': [1232], 's_43_44': [4434], 's_43_46': [3516], 's_43_47': [1249], 's_43_48': [1686], 's_43_49': [1701], 's_43_43': [4733], 's_44_1': [4067], 's_44_6': [1448], 's_44_12': [3917], 's_44_14': [557], 's_44_20': [1357], 's_44_31': [1133], 's_44_36': [607], 's_44_47': [4157], 's_44_48': [1537], 's_44_49': [4400], 's_44_44': [3317], 's_45_9': [3896], 's_45_11': [3745], 's_45_21': [969], 's_45_22': [4702], 's_45_24': [1584], 's_45_36': [4703], 's_45_41': [1359], 's_45_49': [4195], 's_45_45': [4226], 's_1_3': [336], 's_1_4': [1071], 's_1_6': [561], 's_1_9': [2012], 's_1_12': [516], 's_1_14': [1307], 's_1_21': [4066], 's_1_22': [3769], 's_1_31': [1086], 's_1_42': [1772], 's_1_47': [846], 's_1_49': [3949], 's_1_1': [245], 's_3_4': [4278], 's_3_6': [3976], 's_3_7': [1149, 4700, 4699], 's_3_9': [4279], 's_3_12': [3631, 3632], 's_3_14': [3331], 's_3_20': [4519], 's_3_21': [865], 's_3_22': [1268, 1267], 's_3_31': [1176], 's_3_36': [4351, 322], 's_3_37': [606], 's_3_42': [4609], 's_3_47': [727], 's_3_3': [172], 's_4_6': [3978], 's_4_11': [1729], 's_4_21': [4323], 's_4_22': [3865], 's_4_24': [3909], 's_4_31': [1386], 's_4_36': [3918], 's_4_41': [1160], 's_4_42': [786], 's_4_48': [3798], 's_4_49': [980], 's_4_4': [4076], 's_12_6': [1764], 's_12_7': [534], 's_12_14': [3454, 887], 's_12_20': [818], 's_12_21': [4217, 562], 's_12_22': [1059], 's_12_24': [1553], 's_12_31': [4625], 's_12_36': [954], 's_12_41': [4597], 's_12_46': [797], 's_12_47': [4547], 's_12_48': [738], 's_12_12': [3707], 's_14_6': [4118], 's_14_9': [1866], 's_14_7': [1521], 's_14_31': [1356], 's_14_42': [1247], 's_14_46': [3397], 's_14_47': [3802], 's_14_14': [407], 's_21_6': [4486], 's_21_7': [609, 4817], 's_21_22': [1075, 1074], 's_21_36': [4503], 's_21_41': [1060, 4805, 4806], 's_21_42': [910], 's_21_21': [1030], 's_22_7': [1329], 's_22_24': [4462], 's_22_36': [1089, 4595], 's_22_37': [3848], 's_22_48': [1341], 's_22_49': [995], 's_22_22': [1384], 's_24_6': [518], 's_24_9': [1162], 's_24_31': [1058], 's_24_42': [4414], 's_24_49': [3774], 's_24_36': [878], 's_24_37': [4328], 's_24_48': [1012], 's_24_24': [233], 's_31_6': [1073], 's_31_20': [1102], 's_31_36': [3740], 's_31_42': [4129], 's_31_48': [1447], 's_31_31': [1186], 's_36_47': [3889], 's_36_49': [3800], 's_36_7': [1524, 1523], 's_36_20': [4504], 's_36_37': [4249], 's_36_36': [4628], 's_41_6': [4372], 's_41_49': [3965], 's_41_20': [4177], 's_41_41': [4476], 's_42_9': [4459], 's_42_7': [3595], 's_42_11': [1878], 's_42_20': [1894], 's_42_37': [816], 's_42_46': [1787], 's_42_47': [3904], 's_42_48': [891], 's_42_49': [4309], 's_42_42': [3394], 's_9_7': [4105], 's_9_20': [4269], 's_9_37': [966], 's_9_46': [2118], 's_9_47': [4354], 's_9_49': [4014], 's_9_9': [3476], 's_11_47': [1323], 's_11_7': [3670, 1908], 's_11_37': [3653], 's_11_46': [3684], 's_11_11': [3717], 's_20_49': [4119], 's_20_7': [1881], 's_20_37': [712], 's_20_20': [4180], 's_6_7': [4570], 's_6_48': [3963], 's_6_6': [4546], 's_7_47': [624], 's_7_49': [1029], 's_7_46': [3535], 's_7_48': [4255], 's_7_7': [1899, 1898], 's_46_48': [3603], 's_46_46': [1788], 's_48_47': [4205], 's_48_49': [4145], 's_48_48': [452], 's_37_37': [4313], 's_47_49': [4159], 's_47_47': [4472], 's_49_49': [4550]}</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I97" t="n">
         <v>0.00102820874471086</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J97" t="n">
         <v>0.001006818073793873</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K97" t="n">
         <v>0.001</v>
       </c>
     </row>
